--- a/ch1_evidence_causes/data/samples_5.4_narrowed_criteria4.xlsx
+++ b/ch1_evidence_causes/data/samples_5.4_narrowed_criteria4.xlsx
@@ -441,3955 +441,4287 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3107005520</t>
+          <t>https://openalex.org/W3031997423</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.2011.11542</t>
+          <t>https://doi.org/10.1016/j.enconman.2020.112932</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tang et al. (2020)</t>
+          <t>Fichera et al. (2020)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Exploring Contrastive Learning in Human Activity Recognition for Healthcare</t>
+          <t>From self-consumption to decentralized distribution among prosumers: A model including technological, operational and spatial issues</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Human Activity Recognition (HAR) constitutes one of the most important tasks for wearable and mobile sensing given its implications in human well-being and health monitoring. Motivated by the limitations of labeled datasets in HAR, particularly when employed in healthcare-related applications, this work explores the adoption and adaptation of SimCLR, a contrastive learning technique for visual representations, to HAR. The use of contrastive learning objectives causes the representations of corresponding views to be more similar, and those of non-corresponding views to be more different. After an extensive evaluation exploring 64 combinations of different signal transformations for augmenting the data, we observed significant performance differences owing to the order and the function thereof. In particular, preliminary results indicated an improvement over supervised and unsupervised learning methods when using fine-tuning and random rotation for augmentation, however, future work should explore under which conditions SimCLR is beneficial for HAR systems and other healthcare-related applications.</t>
+          <t>The power sector is undergoing a fundamental transition from centralized fossil-fuelled to distributed production systems. Usually, the decentralization of the energy distribution is treated by considering the interactions between prosumers and main grid, neglecting to include the rising chance for prosumers to directly exchange the produced energy, thus bypassing the grid. In this direction, this paper proposes a prosumer-centred dynamical model able to take the energy interactions among prosumers into account, along with the usual interactions established with the grid. The modelling approach takes inspiration from the methodological framework of agent-based models, particularly appropriate to deal with problems characterized by a significant number of interactions among the parts. Specifically, the developed model has been formulated with the main scope of investigating to what extent energy exchanges among prosumers reduce the supply from traditional plants. The electricity demand and production of each prosumer, the distance among buildings, operational and technological features (usage of the links, installed capacity of the energy production systems have been included in the analysis. Hourly-based simulations run on NetLogo performing a real urban area in Southern Italy as a case study for two scenarios evaluating the distribution from photovoltaic panels and small-scale cogeneration units. In addition, an a posteriori environmental analysis to evaluate the reduction of carbon emissions due to the distribution among prosumers has been conducted. Results reveal that short-range interactions among prosumers are preferred when planning to reduce the electricity supply from the main grid. In addition, the spatial configuration of the buildings within the area as well as the capacity of the installed energy production systems significantly affect the distribution. Finally, simulations highlight the noticeable impact of seasonality on both the distribution and the emissions’ reduction.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386907719</t>
+          <t>https://openalex.org/W3107005520</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.2106.10427</t>
+          <t>https://doi.org/10.48550/arxiv.2011.11542</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ruohonen (2021)</t>
+          <t>Tang et al. (2020)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Reassessing Measures for Press Freedom</t>
+          <t>Exploring Contrastive Learning in Human Activity Recognition for Healthcare</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>There has been an increasing interest in press freedom in the face of various global scandals, transformation of media, technological change, obstacles to deliberative democracy, and other factors. Press freedom is frequently used also as an explanatory factor in comparative empirical research. However, validations of existing measurement instruments on press freedom have been far and few between. Given these points, this paper evaluates eight cross-country instruments on press freedom in 146 countries between 2001 and 2020, replicating an earlier study with a comparable research setup. The methodology is based on principal component analysis and multi-level regression modeling. According to the results, the construct (convergence) validity of the instruments is good; they all measure the same underlying semi-narrow definition for press freedom elaborated in the paper. In addition, any of the indices seems suitable to be used interchangeability in empirical research. Limitations and future research directions are further discussed.</t>
+          <t>Human Activity Recognition (HAR) constitutes one of the most important tasks for wearable and mobile sensing given its implications in human well-being and health monitoring. Motivated by the limitations of labeled datasets in HAR, particularly when employed in healthcare-related applications, this work explores the adoption and adaptation of SimCLR, a contrastive learning technique for visual representations, to HAR. The use of contrastive learning objectives causes the representations of corresponding views to be more similar, and those of non-corresponding views to be more different. After an extensive evaluation exploring 64 combinations of different signal transformations for augmenting the data, we observed significant performance differences owing to the order and the function thereof. In particular, preliminary results indicated an improvement over supervised and unsupervised learning methods when using fine-tuning and random rotation for augmentation, however, future work should explore under which conditions SimCLR is beneficial for HAR systems and other healthcare-related applications.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2409439864</t>
+          <t>https://openalex.org/W4386907719</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48550/arxiv.2106.10427</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ph (1981)</t>
+          <t>Ruohonen (2021)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Numerical evaluation of cytologic data. VIII. Computation of the principal components.</t>
+          <t>Reassessing Measures for Press Freedom</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>The principal components transformation offers an effective methods for dimensionality reduction and for the assessment of the mutual dependence of observed variables in a data set. An iterative procedure, the so-called power method, for finding a multivariate distribution's eigenvectors and eigenvalues is demonstrated. The projection of feature vectors onto the principal components is shown.</t>
+          <t>There has been an increasing interest in press freedom in the face of various global scandals, transformation of media, technological change, obstacles to deliberative democracy, and other factors. Press freedom is frequently used also as an explanatory factor in comparative empirical research. However, validations of existing measurement instruments on press freedom have been far and few between. Given these points, this paper evaluates eight cross-country instruments on press freedom in 146 countries between 2001 and 2020, replicating an earlier study with a comparable research setup. The methodology is based on principal component analysis and multi-level regression modeling. According to the results, the construct (convergence) validity of the instruments is good; they all measure the same underlying semi-narrow definition for press freedom elaborated in the paper. In addition, any of the indices seems suitable to be used interchangeability in empirical research. Limitations and future research directions are further discussed.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2000680335</t>
+          <t>https://openalex.org/W2040265599</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1186/1471-2229-12-47</t>
+          <t>https://doi.org/10.3816/clc.2009.s.001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fabbrini et al. (2012)</t>
+          <t>Bunn (2009)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Phenotypic plasticity, QTL mapping and genomic characterization of bud set in black poplar</t>
+          <t>Novel Therapies for Non–Small-Cell Lung Cancer: A 2008 Update</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The genetic control of important adaptive traits, such as bud set, is still poorly understood in most forest trees species. Poplar is an ideal model tree to study bud set because of its indeterminate shoot growth. Thus, a full-sib family derived from an intraspecific cross of P. nigra with 162 clonally replicated progeny was used to assess the phenotypic plasticity and genetic variation of bud set in two sites of contrasting environmental conditions.Six crucial phenological stages of bud set were scored. Night length appeared to be the most important signal triggering the onset of growth cessation. Nevertheless, the effect of other environmental factors, such as temperature, increased during the process. Moreover, a considerable role of genotype × environment (G × E) interaction was found in all phenological stages with the lowest temperature appearing to influence the sensitivity of the most plastic genotypes.Descriptors of growth cessation and bud onset explained the largest part of phenotypic variation of the entire process. Quantitative trait loci (QTL) for these traits were detected. For the four selected traits (the onset of growth cessation (date2.5), the transition from shoot to bud (date1.5), the duration of bud formation (subproc1) and bud maturation (subproc2)) eight and sixteen QTL were mapped on the maternal and paternal map, respectively. The identified QTL, each one characterized by small or modest effect, highlighted the complex nature of traits involved in bud set process. Comparison between map location of QTL and P. trichocarpa genome sequence allowed the identification of 13 gene models, 67 bud set-related expressional and six functional candidate genes (CGs). These CGs are functionally related to relevant biological processes, environmental sensing, signaling, and cell growth and development. Some strong QTL had no obvious CGs, and hold great promise to identify unknown genes that affect bud set.This study provides a better understanding of the physiological and genetic dissection of bud set in poplar. The putative QTL identified will be tested for associations in P. nigra natural populations. The identified QTL and CGs will also serve as useful targets for poplar breeding.</t>
+          <t>Lung cancer is the leading cause of cancer death in the United States and worldwide.1,2 The 5-year survival rate of 16% remains suboptimal and far lower than 5-year survival rates for all cancers (66%) and other common cancers such as breast, colon, and prostate cancers.1 Cytotoxic chemotherapy has been the mainstay of treatment for patients with advanced small-cell lung cancer and non–small-cell lung cancer (NSCLC) for many years.3-5 Because these therapies have many toxicities that kill a substantial number of tumor cells, it is imperative that we develop biomarkers to identify patients most likely to respond to individual drugs and to develop agents with reduced toxicities. The revolution in our understanding of the molecular basis of lung cancer leads to the identification of new therapeutic targets. Among these new targets are growth factor pathways that stimulate not only tumor growth but also the growth of blood vessels that permit lung cancer growth (angiogenesis). In this supplement to Clinical Lung Cancer, the recent advances in novel therapies for lung cancer are reviewed by experts in the field. With respect to the novel targets, the epidermal growth factor (EGF) pathway for lung cancer cells and the vascular endothelial growth factor (VEGF) pathway for endothelial cells are highlighted. Horn and Sandler review the emerging data on antiangiogenic therapies for NSCLC. There are several ways to inhibit the pathway, including monoclonal antibodies (MoAbs) directed to the VEGF ligand (bevacizumab) or MoAbs to the VEGF receptor (VEGFR; eg, IMC-1121B). Many small-molecule tyrosine kinase inhibitors (TKIs) of VEGFR signaling are also being studied. Among all antiangiogenic therapies of any class, only bevacizumab (Avastin) is currently US Food and Drug Administration (FDA) approved for lung cancer therapy. Herein, Joy and Butts review the status of inhibitors of the EGF receptor (EGFR) signaling pathway. Once again, there are both MoAbs to the receptor, such as cetuximab, and small-molecule TKIs of EGFR signaling, such as erlotinib and gefitinib. The smallmolecule inhibitor erlotinib is approved for use in NSCLC by the FDA, and there are promising emerging data for cetuximab and gefitinib. There are intense studies to identify the best biomarkers to select patients for these therapies. Activating EGFR mutations appear to be excellent markers for sensitivity to EGFR TKIs. EGFR protein expression, EGFR gene copy number by fluorescence in situ hybridization, and other markers are being evaluated to assist in the selection of patients for cetuximab therapy. Pakkala and Ramalingam review studies that evaluate dual inhibition of both the EGFR and VEGFR pathways. The dual inhibition can be achieved by combining agents specific for each pathway (eg, erlotinib and bevacizumab) and by using single small-molecule TKIs that target both pathways (eg, vandetanib). Scagliotti and colleagues review recent studies focusing on the novel cytotoxic chemotherapeutic agent pemetrexed. Pemetrexed is a multitargeted antifolate that is FDA approved for use in both firstand second-line therapy for advanced NSCLC. Multiple studies have demonstrated that its activity is greater in nonsquamous carcinomas than in squamous carcinomas. The authors explore the molecular basis for this difference. Finally, West reviews the next generation of targeted therapies for advanced NSCLC. There are many promising targets, including insulin-like growth factor-1 receptor signaling; c-Met signaling; mammalian target of rapamycin; AKT and phosphatidylinositol 3-kinase signaling; and inducers of apoptosis, such as TRAIL, and agonist antibodies to DR4 or DR5. This supplement highlights the major advances in lung cancer therapy that have the potential to improve 5-year survival rates and reduce the pain and suffering experienced by patients with lung cancer.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W259869057</t>
+          <t>https://openalex.org/W1976318815</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.remngl.2011.11.004</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Waters (2007)</t>
+          <t>Banzo et al. (2012)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Out of Print: Traditional Textbook Publishers Are Having to Adjust to a Changing Market, as K-12 Educators Show a Growing Interest in Digital Content</t>
+          <t>News from The Spanish Journal of Nuclear Medicine and Molecular Imaging</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Anita Givens first began teaching elementary school students to use computers back in the mid-1980s, there were few digital learning materials available and little demand for electronic textbooks. In fact, parents and educators worried that the advent of computers in schools would result in students' spending too much time in the company of computer monitors, and not enough time with real books. Many people were saying, 'We don't want kids sitting in front of a computer all day at school,' as though they were television sets, recalls Givens, who serves the Texas Education Agency as the senior director for instructional materials and educational technology. Look at how many of us now sit in front of a computer all day at work. how we do business. how we communicate through e-mail. how we accomplish tasks using the web. And it's important to leverage that technology--that now common experience--so it's a seamless part of the learning experience for students. I, A lot has changed in 20 years. Teachers, parents, and especially students are embracing electronic educational content today in growing numbers. Givens' agency, for one, has made deployment of digital learning tools and content a priority. The TEA has adopted electronic instructional materials and educational technologies from a range of publishers and depositories--which store and distribute instructional materials for publishing companies--including Glencoe/McGraw-Hill, Pearson Scott Foresman, Harcourt, and Classroom Connect, among others, and from websites such as Learning.com. The influx of alternative digital content has actually altered Texas' formal definition of to include electronic media. reconsideration and redefining of the textbook and how it relates to teaching is occurring across K-12. The consensus definition, however, is still aborning. What now can correctly be called a textbook? For some, printed materials scanned as a PDF file qualify; for others, a certain level of interactivity and even multimedia is required. little else, there is agreement on this: no longer printed pages in a bound book. We define an e-book as a digital book that is available for download, reading, and printing from a connected PC, Mac, or notebook--and for a variety of our materials, PDAs and smart phones, says Steve Potash, CEO of digital content provider OverDrive. When you talk about an e-book or a digital book, with the exception of digital audio books, you are still talking about text, about reading. Digital book file formats vary, Potash points out. A PDF file, for example, is usually searchable, and the reader can sometimes apply highlighting and annotations from the PC. Some digital books are readable from a cell phone or PDA running Adobe's Acrobat eBook or the Mobipocket Reader. Digital audio books can be downloaded to an MP3 player. And Adobe eBooks have built-in text-to-speech capabilities so that a reader may have the book read aloud by the computer. This is disruptive technology, Potash says. It's changing education in fundamental ways. Givens elaborates. If we're going to prepare our students to live and work in the 21st century, we have to make sure that they are comfortable with 21st-century tools, she says. They become the most proficient with these tools when they are connected to content, when they are an integral part of the core curriculum areas--language arts and reading, math, science, and social studies--across the spectrum. More Than Letters on a Screen Mark Bretl agrees that a revolution is afoot with the arrival of electronic textbooks in K-12 environments, but he finds it difficult to work up much enthusiasm for PDF files. Bretl believes that interactivity and multimedia are the keys to this new incarnation of the textbook, which the founders of Kinetic Books, where Bretl is vice president, call, aptly, kinetic textbooks. …</t>
+          <t>The last quarter century has witnessed the introduction of a variety of powerful techniques that have allowed visualization of organ structure and function with exquisite detail. This in turn has brought about a true revolution in the day-to-day practice of medicine. Structural imaging with x-ray computerized tomography and magnetic resonance imaging has added tremendously to many areas of medicine, including preoperative evaluation of patients. Many surgical procedures have been replaced by minimally invasive techniques, which have become a reality only because of the availability of modern imaging modalities. However, despite such accomplishments, structural imaging is quite insensitive for detecting early disease in which there often are no gross structural alterations in organ anatomy. Therefore, these modalities should be complemented by methodologies that can detect abnormalities at the molecular and cellular levels. The introduction of [18F]-fluorodeoxyglucose positron emission tomography (FDG-PET) in 1976 as a molecular imaging technique clearly has shown the power of this approach for treating a multitude of serious disorders. The impact of FDG-PET has been particularly impressive in patients with cancer diagnosis, for whom it has become important in staging, monitoring response to treatment, and detecting recurrence. In this review, we emphasize the role of FDG-PET in the assessment of central nervous system maladies, malignant neoplastic processes, infectious and inflammatory diseases, and cardiovascular disorders. New radiotracers are being developed and promise to expand further the list of indications for PET. These include novel tracers for cancer diagnosis and treatment capable of detecting hypoxia and angiogenesis. Prospects for developing new tracers for imaging other organ diseases also appear very promising.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W35716547</t>
+          <t>https://openalex.org/W2409439864</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Snyder et al. (2005)</t>
+          <t>Ph (1981)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Social work with Bosnian Muslim refugee children and families: a review of the literature.</t>
+          <t>Numerical evaluation of cytologic data. VIII. Computation of the principal components.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>More than two million Bosnian Muslims were ethnically cleansed in the Balkan region; of these, 200,000 were killed while the others were forced to flee their homes and become refugees. This article focuses on the influence of societal and cultural values coupled with wartime experiences on the transition of Bosnian refugee families to their new countries. Consideration is given to culturally competent theoretical frameworks and practice principles social workers can use to assist Bosnian Muslim children and families in their adaptation process within their resettlement communities. Thousands of refugees from Bosnia-Herzegovina have fled to the United States to seek protection from the ethno-religious conflicts of the region. To best assist these families, service providers must understand their wartime and migration experiences and their culture. The purpose of this article is to review the literature relevant to working with Bosnian Muslim refugees as well as to understand the unique issues facing this population. The authors' interest in Bosnian Muslim refugees is a personal one. Between 1992 and 2001, nearly 3,500 Bosnian refugees escaping ethnic cleansing and war migrated to Bowling Green, a small city of 50,000 in rural southcentral Kentucky. The Bowling Green International Center has been a part of the local community since 1979 and actively works with the United States Committee for Refugees and Immigrants (USCRI). For more than 25 years, the center has assisted thousands of refugees of many nationalities in their migration to the United States and the local community. According to the center's director, Marty Deputy, Bosnians make up the largest percentage of refugees that have relocated to Bowling Green (personal communication, February 3, 2005). Deputy also indicated that while Bosnian refugees have adapted well to the local community, they still face many challenges because of their experiences in Bosnia in addition to their integration into a new culture. One of the issues that continue to haunt many Bosnian refugees is post-traumatic stress-a result of war and genocide. Post-traumatic stress is particularly an issue for the adult women, who experienced the trauma of rape and sexual assault as well as witnessing the murder of their children and spouses. According to Deputy (personal communication, February 3, 2005), social workers should approach Bosnian families and children with cultural competence. If visiting a Bosnian home, for example, removing one's shoes when entering is a display of respect and sensitivity. A willingness to drink a strong cup of Bosnian coffee is also appreciated. Social workers also must be sensitive about body language and speech tone. It is also important not to assume that all Bosnians are alike. As with all cultures, there is tremendous variation in the Bosnian culture, along with individual differences in personality and environmental experiences. The Bosnian migration also affected the Department of Social Work at Western Kentucky University in Bowling Green. One of the authors of this story, Nihada Zulcic, is the first Bosnian social work major in the baccalaureate program. Her experiences in migrating from Bosnia to the local community her presence in the social work program, the broader challenges of Bosnian refugees in Bowling Green, and their effect on shaping the fabric of the local community led the authors to write this article. Method This article will review the literature related to Bosnian Muslim culture to illuminate the theoretical frameworks and practice principles social workers could effectively use, including the following areas of specific interest: the history of the region, the Bosnian Muslim's experiences prior to emigrating, the problems and issues refugee families typically encountered in their resettlement countries, and the Bosnian Muslim's cultural strengths and resiliency factors. In conducting the literature review, three methods were used. …</t>
+          <t>The principal components transformation offers an effective methods for dimensionality reduction and for the assessment of the mutual dependence of observed variables in a data set. An iterative procedure, the so-called power method, for finding a multivariate distribution's eigenvectors and eigenvalues is demonstrated. The projection of feature vectors onto the principal components is shown.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2025804591</t>
+          <t>https://openalex.org/W2758620524</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1121/1.4743811</t>
+          <t>https://doi.org/10.1149/ma2015-01/42/2208</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Suzuki &amp; Buck (2000)</t>
+          <t>Barkholtz et al. (2015)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Extraction and tracking of bottlenose dolphin whistle contours</t>
+          <t>Highly Active Non-PGM Catalysts Prepared from Metal-Organic Frameworks</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>The time-frequency contours of bottlenose dolphin (Tursiops truncatus) whistles are commonly extracted as features for the classification and comparison of these signals. This research presents a new method to extract and track the whistles’ fundamental frequency contours. This method takes a spectrogram as an input and uses a Bayesian inference approach with a random walk model for the frequency transitions. The output of the method is the maximum a posteriori probability estimate of the frequency contour. This technique is similar to the Kalman filter except that the states are probability densities, and it uses a probabilistic state transition model. For each time segment, the method combines the prior estimate of the probability distribution with the current observation to obtain the current estimate of the probability distribution. Experimental evaluation indicates that this method greatly improves the reliability of contour extraction from noisy signals when compared to the ad hoc contour extractor proposed by Buck and Tyack [J. Acoust. Soc. Am. 94 (1993)]. This technique has previously applied to target tracking in radar [Bethel and Rahikka, IEEE Trans. Aerosp. 23(6) (1987)]. [Work supported by NSF Ocean Sciences.]</t>
+          <t>Proton exchange membrane fuel cells (PEMFCs) represent the future powertrain for the automotive application due to their high efficiency, high power density, and emission of only water from the vehicle. Technology advancements are needed to enable the widespread commercialization of fuel cell-powered vehicles, including increased durability and decreased cost. Platinum is currently the electrocatalyst of choice for PEMFCs, contributing a significant fraction of the overall fuel cell stack cost [1]. There is an imperative need to develop inexpensive, non-platinum group metal (PGM) material as alternative catalysts. At Argonne National Laboratory, we are developing new methods of preparing non-PGM materials as potential substitutes for platinum cathode electrocatalysts for PEMFCs. Our approaches focus on transition metal and nitrogen-doped carbon composites prepared from highly porous organic precursors as electrocatalysts for the oxygen reduction reaction (ORR). One such method involves the use of metal-organic frameworks (MOFs) as sacrificial templates [2-4]. For example, we reported recently a one-pot solid-state synthesis technique to prepare Fe-doped zeolitic imidazolate frameworks (ZIFs), a sub-class of MOFs, which are subsequently pyrolyzed to yield highly-active ORR catalysts [4]. Although the one-pot synthesis method has been successfully demonstrated, we found that the catalyst activity could be substantially improved by optimizing the processing conditions of individual steps from synthesis, thermal activation, to post-treatment. For example, a major factor influencing catalytic activity are the heat treatment conditions. Optimizing pyrolysis time has proven to dramatically enhance ORR activity. Increased catalyst conductivity is another factor contributing to catalyst performance improvement. Furthermore, we also found that MOF synthesis conditions can significantly influence precursor structure and the resulting ORR activity of the catalyst. The improved catalyst activity has to be ultimately demonstrated in membrane-electrode assemblies (MEAs) of fuel cells. The engineering process of preparing MEAs using MOF-based non-PGM catalyst is, to certain degree, difference from that of conventional carbon-supported catalysts. Parameters such as the catalyst loading, perfluorosulfonic acid ionomer to catalyst ratio, affect the catalyst performance at the fuel cell level. In this presentation, we will also describe our effert in optimizing the MEA fabrication process. These improvements at both catalyst and MEA levels have yielded impressive ORR activity when tested in a fuel cell system, moving towards the performance targets set by U.S. DOE for the automotive application. The work performed at Argonne National Laboratory is supported by the U.S. Department of Energy, Energy Efficiency and Renewable Energy, Fuel Cell Technologies Office. References: [1] B. James et al., “Fuel Cell Transportation Cost Analysis,” presentation at the 2013 U.S. DOE Hydrogen and Fuel Cells Program Annual Merit Review and Peer Evaluation. http://www.hydrogen.energy.gov/pdfs/review13/fc018_james_2013_o.pdf [2] Shengqian MA, Gabriel Goenaga, Ann Call, and Di-Jia Liu, Chemistry: A European Journal 17 , 2063 (2011). [3] Dan Zhao, Jiang-Lan Shui, Chen Chen, Xinqi Chen, Briana M. Reprogle, Dapeng Wang, and Di-Jia Liu, Chem. Sci., 3 (11), 3200 (2012). [4] Dan Zhao, Jiang-Lan Shui, Lauren R. Grabstanowicz, Chen Chen, Sean M. Commet, Tao Xu, Jun Lu, and Di-Jia Liu, Advanced Materials 26 , 7 (2014).</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2436676054</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0022-5347(17)66838-1</t>
+          <t>https://openalex.org/W259869057</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Mostofi (1956)</t>
+          <t>Waters (2007)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A Study of 2678 Patients with Initial Carcinoma of the Bladder: I. Survival Rates</t>
+          <t>Out of Print: Traditional Textbook Publishers Are Having to Adjust to a Changing Market, as K-12 Educators Show a Growing Interest in Digital Content</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>No AccessJournal of Urology1 Mar 1956A Study of 2678 Patients with Initial Carcinoma of the Bladder: I. Survival Rates F.K. Mostofi F.K. MostofiF.K. Mostofi View All Author Informationhttps://doi.org/10.1016/S0022-5347(17)66838-1AboutPDF ToolsAdd to favoritesDownload CitationsTrack CitationsPermissionsReprints ShareFacebookLinked InTwitterEmail © 1956 by The American Urological Association Education and Research, Inc.FiguresReferencesRelatedDetailsCited by Harley R (2017) Mostofi, Fathollah Keshvar (1911–2003) Pioneers in Pathology, 10.1007/978-3-319-41995-4_4020, (395-399), . Harley R (2016) Mostofi, Fatholla Keshvar (1911–2003) Encyclopedia of Pathology, 10.1007/978-3-319-28845-1_4020-1, (1-5), . Salem H and Mahfouz S (2012) Changing Patterns (Age, Incidence, and Pathologic Types) of Schistosoma-associated Bladder Cancer in Egypt in the Past DecadeUrology, 10.1016/j.urology.2011.08.072, VOL. 79, NO. 2, (379-383), Online publication date: 1-Feb-2012. Bostwick D, Ramnani D and Cheng L (1999) DIAGNOSIS AND GRADING OF BLADDER CANCER AND ASSOCIATED LESIONSUrologic Clinics of North America, 10.1016/S0094-0143(05)70197-X, VOL. 26, NO. 3, (493-507), Online publication date: 1-Aug-1999. Mostafa M, Sheweita S and O'Connor P (1999) Relationship between Schistosomiasis and Bladder CancerClinical Microbiology Reviews, 10.1128/CMR.12.1.97, VOL. 12, NO. 1, (97-111), Online publication date: 1-Jan-1999. Koraitim M, Metwalli N, Atta M and El-Sadr A (2018) Changing Age Incidence and Pathological Types of Schistosoma-Associated Bladder CarcinomaJournal of Urology, VOL. 154, NO. 5, (1714-1716), Online publication date: 1-Nov-1995. BERNER A, JACOBSEN A, FOSSÅ S and NESLAND J (1993) Expression of c-erbB-2 protein, neuron-specific enolase and DNA flow cytometry in locally advanced transitional cell carcinoma of the urinary bladderHistopathology, 10.1111/j.1365-2559.1993.tb00131.x, VOL. 22, NO. 4, (327-333), Online publication date: 1-Apr-1993. Frang D, Somogyi L and Jilling Á (1988) Current diagnostic and therapeutic methods in the treatment of vesical tumoursInternational Urology and Nephrology, 10.1007/BF02549492, VOL. 20, NO. 6, (597-609), Online publication date: 1-Nov-1988. Jordan A, Weingarten J and Murphy W (1987) Transitional cell neoplasms of the urinary bladder. Can biologic potential be predicted from histologic grading?Cancer, 10.1002/1097-0142(19871201)60:11&lt;2766::AID-CNCR2820601129&gt;3.0.CO;2-0, VOL. 60, NO. 11, (2766-2774), Online publication date: 1-Dec-1987. Okamura T, Ohtani M, Inoue K, Fukushima S, Ohtaguro K and Kakizoe T (2018) Effects of Intravesical Instillation of Antitumor Chemotherapeutic and Immunotherapeutic Agents on Bladder Lesion Development in Rats Pretreated with N-Butyl-N-(4-Hydroxybutyl)NitrosamineJournal of Urology, VOL. 138, NO. 5, (1305-1307), Online publication date: 1-Nov-1987. Ohtani M, Fukushima S, Okamura T, Sakata T, Ito N, Koiso K and Niijima T (1984) Effects of lntravesical instillation of antitumor chemotherapeutic agents on bladder carcinogenesis in rats treated with N-butyl-N-(4-hydroxybutyl)nitrosamineCancer, 10.1002/1097-0142(19841015)54:8&lt;1525::AID-CNCR2820540809&gt;3.0.CO;2-U, VOL. 54, NO. 8, (1525-1529), Online publication date: 15-Oct-1984. Laor E, Schiffman Z, Reid R, Tolia B and Freed S (1984) Sex-dependent variations in natural historyof transitional cell carcinoma of bladderUrology, 10.1016/S0090-4295(84)90036-0, VOL. 23, NO. 3, (237-239), Online publication date: 1-Mar-1984. Holck S and Jørgensen L (1983) Verrucous carcinoma of urinary bladderUrology, 10.1016/0090-4295(83)90433-8, VOL. 22, NO. 4, (435-437), Online publication date: 1-Oct-1983. DELATTE L, PENÑA E and NAVARRETE R (1982) Survival Rates of Patients with Bladder Tumours An Experience of 1744 Cases (1950-1978)British Journal of Urology, 10.1111/j.1464-410X.1982.tb06973.x, VOL. 54, NO. 3, (267-274), Online publication date: 1-Jun-1982. Paulson D and Smith M (1982) Assessment of Biologic Hazard of Urologic Tumors Genitourinary Cancer 1, 10.1007/978-94-009-7436-4_3, (73-100), . El-Bolkainy M, Mokhtar N, Ghoneim M and Hussein M (1981) The impact of schistosomiasis on the pathology of bladder carcinomaCancer, 10.1002/1097-0142(19811215)48:12&lt;2643::AID-CNCR2820481216&gt;3.0.CO;2-C, VOL. 48, NO. 12, (2643-2648), Online publication date: 15-Dec-1981. (2018) Reply by AuthorsJournal of Urology, VOL. 125, NO. 1, (39-39), Online publication date: 1-Jan-1981.Marshall V (2018) Editorial CommentJournal of Urology, VOL. 125, NO. 1, (39-39), Online publication date: 1-Jan-1981.Kishi K, Hirota T, Matsumoto K, Kakizoe T, Murase T and Fujita J (2018) Carcinoma of the Bladder: A Clinical and Pathological Analysis of 87 Autopsy CasesJournal of Urology, VOL. 125, NO. 1, (36-39), Online publication date: 1-Jan-1981. Hofstädter F, Jakse G, Lederer B and Mikuz G (1980) Cytophotometric Investigations of DNA-content in Transitional Cell Tumors of the Bladder Comparison of Results with Clinical Follow upPathology - Research and Practice, 10.101</t>
+          <t>Anita Givens first began teaching elementary school students to use computers back in the mid-1980s, there were few digital learning materials available and little demand for electronic textbooks. In fact, parents and educators worried that the advent of computers in schools would result in students' spending too much time in the company of computer monitors, and not enough time with real books. Many people were saying, 'We don't want kids sitting in front of a computer all day at school,' as though they were television sets, recalls Givens, who serves the Texas Education Agency as the senior director for instructional materials and educational technology. Look at how many of us now sit in front of a computer all day at work. how we do business. how we communicate through e-mail. how we accomplish tasks using the web. And it's important to leverage that technology--that now common experience--so it's a seamless part of the learning experience for students. I, A lot has changed in 20 years. Teachers, parents, and especially students are embracing electronic educational content today in growing numbers. Givens' agency, for one, has made deployment of digital learning tools and content a priority. The TEA has adopted electronic instructional materials and educational technologies from a range of publishers and depositories--which store and distribute instructional materials for publishing companies--including Glencoe/McGraw-Hill, Pearson Scott Foresman, Harcourt, and Classroom Connect, among others, and from websites such as Learning.com. The influx of alternative digital content has actually altered Texas' formal definition of to include electronic media. reconsideration and redefining of the textbook and how it relates to teaching is occurring across K-12. The consensus definition, however, is still aborning. What now can correctly be called a textbook? For some, printed materials scanned as a PDF file qualify; for others, a certain level of interactivity and even multimedia is required. little else, there is agreement on this: no longer printed pages in a bound book. We define an e-book as a digital book that is available for download, reading, and printing from a connected PC, Mac, or notebook--and for a variety of our materials, PDAs and smart phones, says Steve Potash, CEO of digital content provider OverDrive. When you talk about an e-book or a digital book, with the exception of digital audio books, you are still talking about text, about reading. Digital book file formats vary, Potash points out. A PDF file, for example, is usually searchable, and the reader can sometimes apply highlighting and annotations from the PC. Some digital books are readable from a cell phone or PDA running Adobe's Acrobat eBook or the Mobipocket Reader. Digital audio books can be downloaded to an MP3 player. And Adobe eBooks have built-in text-to-speech capabilities so that a reader may have the book read aloud by the computer. This is disruptive technology, Potash says. It's changing education in fundamental ways. Givens elaborates. If we're going to prepare our students to live and work in the 21st century, we have to make sure that they are comfortable with 21st-century tools, she says. They become the most proficient with these tools when they are connected to content, when they are an integral part of the core curriculum areas--language arts and reading, math, science, and social studies--across the spectrum. More Than Letters on a Screen Mark Bretl agrees that a revolution is afoot with the arrival of electronic textbooks in K-12 environments, but he finds it difficult to work up much enthusiasm for PDF files. Bretl believes that interactivity and multimedia are the keys to this new incarnation of the textbook, which the founders of Kinetic Books, where Bretl is vice president, call, aptly, kinetic textbooks. …</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1977013410</t>
+          <t>https://openalex.org/W4383341249</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/qua.560300205</t>
+          <t>https://doi.org/10.1016/j.checat.2023.100687</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Karadakov (1986)</t>
+          <t>Sato et al. (2023)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The spin‐projected Hartree‐Fock method: Direct optimization schemes and stability conditions</t>
+          <t>Liquid/liquid heterogeneous reaction monitoring: Insights into biphasic Suzuki-Miyaura cross-coupling</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Abstract The necessary theory to construct different direct orbital optimization schemes in the framework of the spin‐projected Hartree‐Fock (spin‐ PHF ) method for systems with an even number of electrons and for the proper characterization of the pertinent spin‐ PHF solutions is developed using the formalism of second quantization. The treatment is based on a unitary transformation of a reference DODS (different orbitals for different spins) Slater determinant. The energy expectation value corresponding to the transformed DODS Slater determinant is expanded in a Taylor series about the reference DODS Slater determinant, including second‐order terms. On the basis of this expansion we propose several direct iterative approaches to optimize the spin‐ PHF energy expectation value: for example, implementations of steepest descent and conjugated gradient techniques, and Newton–Raphson, Fletcher, and limited configuration interaction approaches. The analysis of the second‐order term in the Taylor series expansion of the spin‐ PHF energy expectation value about a spin‐ PHF solution is used to define stability conditions for spin‐ PHF solutions. Explicit expressions are reported for all matrix elements between different spin‐projected DODS Slater determinants appearing in the treatment.</t>
+          <t>Monitoring the reaction progress of biphasic reaction mixtures has long presented a significant challenge to modern analytical techniques. While a multitude of widely utilized chemical transformations have been performed under such conditions, in-line separation and analysis of each phase have not been possible, inhibiting detailed kinetic and mechanistic studies of these important processes. Herein, we disclose a novel sampling technology capable of accurately monitoring reaction progress in biphasic mixtures using online high-performance liquid chromatography (HPLC) and multinuclear flow nuclear magnetic resonance (NMR) spectroscopy. A biphasic sampling platform was developed to circulate a single phase of a biphasic reaction mixture for analysis using these techniques. The utility of this methodology was demonstrated through analysis of boronic acid distribution and speciation under basic conditions as well as for monitoring the reaction progress of a biphasic Suzuki-Miyaura cross-coupling.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2248522021</t>
+          <t>https://openalex.org/W2139267785</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2008.26.15_suppl.14617</t>
+          <t>https://doi.org/10.1108/09555340610663728</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Youssoufian et al. (2008)</t>
+          <t>Freeman &amp; Reid (2006)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Phase 1 study of IMC-3G3, an IgG1 monoclonal antibody targeting PDGFRα in patients with advanced solid malignancies</t>
+          <t>Constraints facing small western firms in transitional markets</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>14617 Background: Platelet derived growth factor receptor alpha (PDGFRα) plays a critical role in tumorigenesis and tumor progression. PDGFRα and its ligands are expressed by an array of tumors and supportive stroma, and the integrity of this axis results in the proliferation of tumors, supportive stroma and blood vessels. IMC-3G3 is a recombinant human IgG1 MAb targeted to PDGFRα and induces prominent anticancer effects in vitro and on human tumor xenografts in vivo. Methods: This Phase 1, multicenter study of IMC-3G3 administered intravenously in patients (pts) with advanced refractory or untreatable cancer plans to enroll 5 cohorts of 3–6 pts. The primary objectives were to determine the MTD and safety profile. Cohorts 1–3 received 4 weekly infusions of 4, 8, and 16 mg/kg IMC-3G3 per cycle and are reported here. Future cohorts (Cohorts 4 and 5) will receive IMC-3G3 every 2 weeks at doses of 15 and 20 mg/kg. Results: Thirteen pts have enrolled to date (11 male, 2 female; 9 prostate cancer, 1 bladder/transitional cell carcinoma, 1 endometrial cancer, 1 SCLC, and 1 carcinoid unspecified). Eight pts were treated &gt; 10 weeks; 2 pts at 16 mg/kg are ongoing at 18 and 26 weeks, respectively. One pt at 4 mg/kg who experienced a PSA decrement of &gt; 50% was treated for 39 weeks until discontinuing due to disease progression. No dose-limiting toxicities were observed at any dose level in cycle 1. The most frequently reported AE has been fatigue (2 of 12 pts). No Grade 3/4 IMC-3G3-related events were reported. Following the final infusion of cycle 1, as IMC-3G3 dose was escalated from 4 to 8 to 16 mg/kg; A) the mean t1/2 remained relatively constant (126–138 hrs), B) mean Cmax and AUCinf increased in a greater-than-dose-proportional manner, suggesting nonlinear IMC-3G3 pharmacokinetics (Cmax = 139, 297, and 1198 μg/mL; AUCinf = 23686, 48149, and 130302 hr*μg/mL for the 4, 8, and 16 mg/kg cohorts respectively), and C) mean clearance decreased (0.196–0.132 mL/hr/kg), suggesting saturation of IMC-3G3 elimination was being approached. Conclusions: Enrollment continues with evaluation of 15 and 20 mg/kg every 2-weeks based on supportive PK data and toxicity profiles. Preliminary safety, PK, and biological activity data support further IMC-3G3 disease-directed development. Author Disclosure Employment or Leadership Consultant or Advisory Role Stock Ownership Honoraria Research Expert Testimony Other Remuneration ImClone Systems ImClone Systems ImClone Systems</t>
+          <t>Purpose To provide an Asia‐Pacific viewpoint of the key constraints associated with large geographic distances for smaller westerns firms entering central and eastern Europe (CEE), described as a turbulent transitional environment. Design/methodology/approach An exploratory study was used within a qualitative methodology, using eight case studies across multiple industries. Semi‐structured interviews were the main method of data collection conducted in 2003/2004. Open, axial and selective coding was used for the analysis to identifying issues. Findings Key internal constraints for smaller western firms (mindset of western management and middle management in CEE; and lack of management in CEE with decision‐making authority) related to managements' inability to recognize geographic and psychic distance as major external constraints. Largely overcome by enhancing communication between various functional groups; adapting organizational structure; maintaining frequent communicational; developing partnerships in international joint ventures; finding reliable distributors and commitment from re‐sellers and working with government. While no single international business theory adequately explains this process, there is overwhelming support for the network perspective and international entrepreneurship. Research limitations/implications The study is limited by small sample size. The explanatory phase is proposed with further western companies, such as the UK, operating in CEE to identify geographic distance, and additional CEE markets to verify dimensions in this environment. Practical implications The paper provides a checklist of strategies for overcoming constraints facing managers of smaller firms, entering emerging markets with geographic distance. Originality/value Previous studies, using a European or Nordic viewpoint, fail to identify the constraints associated with large geographic distances. This paper provides practical assistance to managers starting out in CEE from the Asia‐Pacific.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1496992349</t>
+          <t>https://openalex.org/W2436676054</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0022-5347(17)66838-1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bercaw (2013)</t>
+          <t>Mostofi (1956)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
+          <t>A Study of 2678 Patients with Initial Carcinoma of the Bladder: I. Survival Rates</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
+          <t>No AccessJournal of Urology1 Mar 1956A Study of 2678 Patients with Initial Carcinoma of the Bladder: I. Survival Rates F.K. Mostofi F.K. MostofiF.K. Mostofi View All Author Informationhttps://doi.org/10.1016/S0022-5347(17)66838-1AboutPDF ToolsAdd to favoritesDownload CitationsTrack CitationsPermissionsReprints ShareFacebookLinked InTwitterEmail © 1956 by The American Urological Association Education and Research, Inc.FiguresReferencesRelatedDetailsCited by Harley R (2017) Mostofi, Fathollah Keshvar (1911–2003) Pioneers in Pathology, 10.1007/978-3-319-41995-4_4020, (395-399), . Harley R (2016) Mostofi, Fatholla Keshvar (1911–2003) Encyclopedia of Pathology, 10.1007/978-3-319-28845-1_4020-1, (1-5), . Salem H and Mahfouz S (2012) Changing Patterns (Age, Incidence, and Pathologic Types) of Schistosoma-associated Bladder Cancer in Egypt in the Past DecadeUrology, 10.1016/j.urology.2011.08.072, VOL. 79, NO. 2, (379-383), Online publication date: 1-Feb-2012. Bostwick D, Ramnani D and Cheng L (1999) DIAGNOSIS AND GRADING OF BLADDER CANCER AND ASSOCIATED LESIONSUrologic Clinics of North America, 10.1016/S0094-0143(05)70197-X, VOL. 26, NO. 3, (493-507), Online publication date: 1-Aug-1999. Mostafa M, Sheweita S and O'Connor P (1999) Relationship between Schistosomiasis and Bladder CancerClinical Microbiology Reviews, 10.1128/CMR.12.1.97, VOL. 12, NO. 1, (97-111), Online publication date: 1-Jan-1999. Koraitim M, Metwalli N, Atta M and El-Sadr A (2018) Changing Age Incidence and Pathological Types of Schistosoma-Associated Bladder CarcinomaJournal of Urology, VOL. 154, NO. 5, (1714-1716), Online publication date: 1-Nov-1995. BERNER A, JACOBSEN A, FOSSÅ S and NESLAND J (1993) Expression of c-erbB-2 protein, neuron-specific enolase and DNA flow cytometry in locally advanced transitional cell carcinoma of the urinary bladderHistopathology, 10.1111/j.1365-2559.1993.tb00131.x, VOL. 22, NO. 4, (327-333), Online publication date: 1-Apr-1993. Frang D, Somogyi L and Jilling Á (1988) Current diagnostic and therapeutic methods in the treatment of vesical tumoursInternational Urology and Nephrology, 10.1007/BF02549492, VOL. 20, NO. 6, (597-609), Online publication date: 1-Nov-1988. Jordan A, Weingarten J and Murphy W (1987) Transitional cell neoplasms of the urinary bladder. Can biologic potential be predicted from histologic grading?Cancer, 10.1002/1097-0142(19871201)60:11&lt;2766::AID-CNCR2820601129&gt;3.0.CO;2-0, VOL. 60, NO. 11, (2766-2774), Online publication date: 1-Dec-1987. Okamura T, Ohtani M, Inoue K, Fukushima S, Ohtaguro K and Kakizoe T (2018) Effects of Intravesical Instillation of Antitumor Chemotherapeutic and Immunotherapeutic Agents on Bladder Lesion Development in Rats Pretreated with N-Butyl-N-(4-Hydroxybutyl)NitrosamineJournal of Urology, VOL. 138, NO. 5, (1305-1307), Online publication date: 1-Nov-1987. Ohtani M, Fukushima S, Okamura T, Sakata T, Ito N, Koiso K and Niijima T (1984) Effects of lntravesical instillation of antitumor chemotherapeutic agents on bladder carcinogenesis in rats treated with N-butyl-N-(4-hydroxybutyl)nitrosamineCancer, 10.1002/1097-0142(19841015)54:8&lt;1525::AID-CNCR2820540809&gt;3.0.CO;2-U, VOL. 54, NO. 8, (1525-1529), Online publication date: 15-Oct-1984. Laor E, Schiffman Z, Reid R, Tolia B and Freed S (1984) Sex-dependent variations in natural historyof transitional cell carcinoma of bladderUrology, 10.1016/S0090-4295(84)90036-0, VOL. 23, NO. 3, (237-239), Online publication date: 1-Mar-1984. Holck S and Jørgensen L (1983) Verrucous carcinoma of urinary bladderUrology, 10.1016/0090-4295(83)90433-8, VOL. 22, NO. 4, (435-437), Online publication date: 1-Oct-1983. DELATTE L, PENÑA E and NAVARRETE R (1982) Survival Rates of Patients with Bladder Tumours An Experience of 1744 Cases (1950-1978)British Journal of Urology, 10.1111/j.1464-410X.1982.tb06973.x, VOL. 54, NO. 3, (267-274), Online publication date: 1-Jun-1982. Paulson D and Smith M (1982) Assessment of Biologic Hazard of Urologic Tumors Genitourinary Cancer 1, 10.1007/978-94-009-7436-4_3, (73-100), . El-Bolkainy M, Mokhtar N, Ghoneim M and Hussein M (1981) The impact of schistosomiasis on the pathology of bladder carcinomaCancer, 10.1002/1097-0142(19811215)48:12&lt;2643::AID-CNCR2820481216&gt;3.0.CO;2-C, VOL. 48, NO. 12, (2643-2648), Online publication date: 15-Dec-1981. (2018) Reply by AuthorsJournal of Urology, VOL. 125, NO. 1, (39-39), Online publication date: 1-Jan-1981.Marshall V (2018) Editorial CommentJournal of Urology, VOL. 125, NO. 1, (39-39), Online publication date: 1-Jan-1981.Kishi K, Hirota T, Matsumoto K, Kakizoe T, Murase T and Fujita J (2018) Carcinoma of the Bladder: A Clinical and Pathological Analysis of 87 Autopsy CasesJournal of Urology, VOL. 125, NO. 1, (36-39), Online publication date: 1-Jan-1981. Hofstädter F, Jakse G, Lederer B and Mikuz G (1980) Cytophotometric Investigations of DNA-content in Transitional Cell Tumors of the Bladder Comparison of Results with Clinical Follow upPathology - Research and Practice, 10.101</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2368076451</t>
+          <t>https://openalex.org/W1977013410</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/qua.560300205</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Weisen (2007)</t>
+          <t>Karadakov (1986)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The Nature of Economics in a Perspective of Philosophy</t>
+          <t>The spin‐projected Hartree‐Fock method: Direct optimization schemes and stability conditions</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Based on a review of relevant literature in the history of economic thought, this paper shows that it is time to make some reflections on the nature, role and significance of economics in the current situation of the dynamic growth of the Chinese and the theoretical economics in China. Section Two finds that along with transformation from political economy to economics, economists understanding of the nature and role of economics also changed. Section Three discusses the question whether economics could become a social science of value-free or not and finds that any school in history of economic thought may have some value judgment and ethical foundation in its theoretical discourse. As a result, the top priority for economists is to try to find the order or providence in human economic and social reality. Section Four discusses the possibility whether economics could become a rigorous science like physics, chemistry and many other highly formalized natural sciences. It also makes some reflection on the propensity of scientism of the mainstream economists. Section Five reaches the conclusion that for the healthy growth of economic theory in China, competitions and dialogues between different schools and thus pluralism in economics should be encouraged.</t>
+          <t>Abstract The necessary theory to construct different direct orbital optimization schemes in the framework of the spin‐projected Hartree‐Fock (spin‐ PHF ) method for systems with an even number of electrons and for the proper characterization of the pertinent spin‐ PHF solutions is developed using the formalism of second quantization. The treatment is based on a unitary transformation of a reference DODS (different orbitals for different spins) Slater determinant. The energy expectation value corresponding to the transformed DODS Slater determinant is expanded in a Taylor series about the reference DODS Slater determinant, including second‐order terms. On the basis of this expansion we propose several direct iterative approaches to optimize the spin‐ PHF energy expectation value: for example, implementations of steepest descent and conjugated gradient techniques, and Newton–Raphson, Fletcher, and limited configuration interaction approaches. The analysis of the second‐order term in the Taylor series expansion of the spin‐ PHF energy expectation value about a spin‐ PHF solution is used to define stability conditions for spin‐ PHF solutions. Explicit expressions are reported for all matrix elements between different spin‐projected DODS Slater determinants appearing in the treatment.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2998473910</t>
+          <t>https://openalex.org/W2795214154</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.24252/jad.v17i119i2a2</t>
+          <t>https://doi.org/10.36834/cmej.43351</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Abbas (2019)</t>
+          <t>Green &amp; Rasmussen (2018)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SALAFĪ AND SOCIAL RELIGION DYNAMICS IN KENDARI</t>
+          <t>Becoming a dentist: faculty perceptions of student experiences with threshold concepts in a Canadian dental program</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>This article reveals the existence of the salafī community with its various social and religious effects as a new phenomenon of religious diversity in Kendari. Since the presence of the Islamic Center Muadz bin Jabal, the social and religious life of Kendari has indicated some shifts both socially and culturally. Since this issue has not been explored, it is aimed at providing an overview of the existence of ICM as salafī community and its implications for society in a comprehensive manner. This research is qualitative research with a sociological approach with functional and interactional theories. This study shows that the ICM as salafī community has a big influence on presenting new religious phenomenon. They have taken over some religious stages which have been dominated by old communities such as NU and Muhammadiyah, reinforced by the presence of their mass media. The thoughts of salafī, which were initially opposed, began to be accepted by the public and the government, for the salafī in Kendari is generally tolerant, socializing, and adaptable. although there are small groups that are still extreme and less tolerant.Keywords: Salafī; social transformation; Islamic Center Muadz bin Jabal; Kendari; يكشف هذا المقال عن وجود مجتمع السلفي كظاهرة جديدة للتنوع الديني في كنداري مع آثارها الإجتماعية والدينية المختلفة. منذ وجود المركز الإسلامي معاذ بن جبل (ICM)، أشارت الحياة الإجتماعية والدينية في كنداري إلى عدد من التحولات الإجتماعية والثقافية. لم تتأثر ظاهرة الحياة الإجتماعية للتنوع الجديد بالبحث العلمي الذي يقدم نظرة عامة على وجود السلفي وآثاره على المجتمع بطريقة شاملة. هذا البحث هو البحث النوعي مع النهج الاجتماعي مع النظريات الوظيفية والتفاعلية. توضح هذه الدراسة أن المركز الإسلامي معاذ بن جبل كمجتمع السلفيين له تأثير كبير في تقديم ظاهرة دينية جديدة. لقد استولوا على عدد من المراحل الدينية التي سيطرت عليها المجتمعات القديمة مثل نهضة العلماء (NU) والمحمدية(Muhammadiyah)، معززة بوجود وسائل الإعلام الجماهيرية. فتقبل أفكار السلفي بين المسلمين بزيادة التقاليد الرمزية السلفية بينهم. فالبحث يدل على أن السلفيين في كنداري متسامحون وناشؤون الإجتماعية وقابلون للتكيف عامهم. ثم يتم قبوله من قبل الجمهور والحكومة بسهولة، على الرغم من وجود قليل منهم ما يزالون متطرفة وأقل تسامحًا وتعارض موقف السلفيين الذين يعتبرون غير متناسقين.الكلمات المفتاحية: السلفي،التحول الاجتماعي، المركز الإسلامي معاذ بن جبل، كنداري Kajian ini bertujuan untuk mengungkap eksistensi komunitas salafī sebagai sebuah fenomena keberagamaan baru Kota Kendari dengan berbagai efek sosial keagamaan yang ditimbulkannya. Sejak hadirnya institusi Islamic Center Muadz bin Jabal (ICM), kehidupan sosial keagamaan masyarakat Kota Kendari terindikasi telah terjadi sejumlah pergeseran sosial kultural. Fenomena kehidupan sosial keberagamaan wajah baru tersebut belum tersentuh penelitian ilmiah yang memberikan gambaran eksistensi komunitas ICM sebagai salafī dan implikasinya terhadap masyarakat secara komprehensif. Penelitian ini adalah sebuah penelitian kualitatif dengan pendekatan sosiologi dengan teori fungsional dan interaksional. Penelitian ini menunjukkan bahwa ICM sebagai komunitas salafī telah mewarnai Kota Kendari. Para ustadz dan pembina mereka telah banyak berkiprah dan mengambil alih sejumlah panggung keagamaan yang selama ini dikuasai oleh komunitas lama seperti NU dan Muhammadiyah, diperkuat oleh kehadiran media radio dan tv mereka. Paham-paham salafī yang awalnya banyak ditentang masyarakat mulai diterima dan tidak dipersoalkan lagi, bahkan tradisi simbolik salafī seperti memakai jubah dan memperpanjang jenggot semakin marak di masyarakat. Penelitian ini menemukan bahwa salafī di Kota Kendari secara umum toleran, bersosialisasi, beradaptasi dan lebih terbuka sehingga mudah diterima masyarakat bahkan pemerintah, meski terdapat kelompok kecil yang masih ekstrim dan kurang toleran bahkan tidak menerima sikap salafī lainnya yang dianggap tidak konsisten terhadap manhaj salafī.Kata Kunci: Salafī; Transformasi sosial; Islamic Center Muadz bin Jabal; Kendari</t>
+          <t>In each discipline, there are moments where students "get stuck" in their education and/or training and are often unable to move forward. These moments may be caused by threshold concepts as they represent a portal that students must cross in order to become successful in their chosen profession. This study investigated the threshold concepts from the instructors' perspective that students must navigate as they transform from learners to dentists within a dental program.Two focus groups with faculty members within the School of Dentistry, University of Alberta were completed in the fall of 2017. Focus groups explored the faculty's perception of the students' transition from learner to dentist, difficult moments in the program, and the students' ability to navigate the program successfully.A qualitative phenomenographic analysis of the faculty focus group transcripts identified four potential threshold concepts within the dental program: 1) dealing with the whole patient, 2) accountability, 3) that you may not know everything, and 4) problem solving and adapting during practice.This study demonstrates that there are concepts within a dental program that faculty believe students must navigate in order to transition from learner to dentist. These concepts may inform curriculum design as well as other disciplines in the health sciences.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2146940709</t>
+          <t>https://openalex.org/W4283807879</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/acm.0b013e31818c6902</t>
+          <t>https://doi.org/10.26577/hj.2022.v64.i2.10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cardall et al. (2008)</t>
+          <t>Ashirbekova &amp; Abylkhanova (2022)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Live Lecture Versus Video-Recorded Lecture: Are Students Voting With Their Feet?</t>
+          <t>Methods of Presenting Information in the Journalism of B. Omaruly</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>In light of educators' concerns that lecture attendance in medical school has declined, the authors sought to assess students' perceptions, evaluations, and motivations concerning live lectures compared with accelerated, video-recorded lectures viewed online.The authors performed a cross-sectional survey study of all first- and second-year students at Harvard Medical School. Respondents answered questions regarding their lecture attendance; use of class and personal time; use of accelerated, video-recorded lectures; and reasons for viewing video-recorded and live lectures. Other questions asked students to compare how well live and video-recorded lectures satisfied learning goals.Of the 353 students who received questionnaires, 204 (58%) returned responses. Collectively, students indicated watching 57.2% of lectures live, 29.4% recorded, and 3.8% using both methods. All students have watched recorded lectures, and most (88.5%) have used video-accelerating technologies. When using accelerated, video-recorded lecture as opposed to attending lecture, students felt they were more likely to increase their speed of knowledge acquisition (79.3% of students), look up additional information (67.7%), stay focused (64.8%), and learn more (63.7%).Live attendance remains the predominant method for viewing lectures. However, students find accelerated, video-recorded lectures equally or more valuable. Although educators may be uncomfortable with the fundamental change in the learning process represented by video-recorded lecture use, students' responses indicate that their decisions to attend lectures or view recorded lectures are motivated primarily by a desire to satisfy their professional goals. A challenge remains for educators to incorporate technologies students find useful while creating an interactive learning culture.</t>
+          <t>The journalistic side of Bauyrzhan Omaruly, who has his own style in the development of the national press, is unique in that he knows how to raise a topical issue. Whatever problem B. Omaruly wrote, he approached it carefully and with great responsibility. Its freshness of idea and uniqueness lies in the clarity of the author's position. &amp;nbsp;Bauyrzhan's travel essays, which give life to living and non-living things, have become readers' favorite works. Therefore, we believe that looking into the workshop of the resourceful journalist B. Omaruly and identifying its features is a necessary topic for domestic journalism. The main purpose of the scientific article is to show the problematic, thematic features of the journalistic works of B. Omaruly, to determine his artistic abilities and to express his civil position. Omaruly is a writer who studies the chosen topic in detail. He has a deep knowledge of journalistic research methods. At the same time, the choice and discovery of the topic by the publicist were analyzed from the point of view of creative abilities. His desire to master the genre of the journalistic work (analytical, artistic, journalistic, epistolary) is determined by the analysis of specific articles, essays, interviews, journalistic studies. The publicist not only master these genres, but also has a unique style in their transformation. The article analyzes journalistic texts by B. Omaruly, published in the newspapers «Leninshil zhas» («Zhas Alash»), «Aikyn», in terms of genre, theme, problem, language, style, features of the author's position. His original style, personality and curiosity are explored in his other works. Omaruly is a writer with a unique style in domestic journalism. His personality is reflected in the chosen topic, the nature of the writer who studies the issue in detail, his respect for national values ​​and boundless love for the Motherland, high taste for the art of speech. In the works of B. Omaruly a special reflection of nature and man, the relationship between man and society, the fate of the individual appeared. This is an excellent school for today's young journalists. &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Keywords: national journalism, publicist, press, essay, Bauyrzhan Omaruly.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4205156204</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1542/peds.110.s3.1301</t>
+          <t>https://openalex.org/W1496992349</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Blum (2002)</t>
+          <t>Bercaw (2013)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Introduction</t>
+          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>In 1984, US Surgeon General C. Everett Koop, MD, cohosted a national invitational conference with Undersecretary of Education Madeline Will, focusing on the needs of older adolescents with chronic and disabling conditions.1 For the first time, issues of health care transition were on the national radar. This new attention was brought about by dramatically improved survival rates during the 1970s and early 1980s for children born with chronic and disabling conditions. That conference was followed 5 years later by the 1989 Surgeon General’s Conference titled “Growing Up and Getting Medical Care: Youth with Special Health Care Needs.”2 That conference set forth a national agenda in training, research, and program development with a goal of establishing a seamless health care system that would allow young people with special health care needs to move from child-centered to adult-centered services.Today, nearly 2 decades after the first invitational conference, the process of transitioning youth with special health needs to adult health care appears to be only marginally further ahead of where it was at that time. No doubt, there is more awareness today of the issues facing older adolescents and young adults with special health care needs than there was a generation ago. So too, our knowledge of impediments to and factors that facilitate the transition process has been more clearly established. But it is equally clear that the medical community, specifically, and the health care community, more broadly, have yet to put into place a set of changes needed to ensure that young people most dependent on coordinated health care services are able to make the transition to the adult health care system and still receive the services that they need.It is against this backdrop that in September 2001, the American Academy of Pediatrics sponsored a national invitational conference to bring together leaders from the primary care specialties of pediatrics, internal medicine, and family practice; subspecialties of adolescent medicine, physical medicine and rehabilitation, and neurology and neurodevelopmental disabilities; psychiatry; and the professions of social work, psychology, and nursing as well as parents of young adults with disabilities. The conference was supported by the Maternal and Child Health Bureau of the US Department of Health and Human Services, Health Resources and Services Administration, which has set health care transitions as 1 of its 6 action steps to help ensure that by the year 2010, comprehensive community-based service systems are in place for all children and youth with special health care needs.3 In addition, the Johnson Foundation provided support that allowed the meeting to be held at its educational conference center Wingspread in Racine, Wisconsin. Thirty-eight individuals met from Friday evening until Sunday afternoon to craft a national policy statement on health care transitions.The policy statement (see pages 1304–1306) represents a consensus for the critical first steps that the medical profession needs to undertake if the vision of a family-centered, continuous, comprehensive, coordinated, compassionate, and culturally competent health care system that is as developmentally appropriate as it is technically sophisticated is to be realized. This consensus document has now been approved as policy by the boards of directors of the American Academy of Pediatrics, the American Academy of Family Practice, and the American College of Physicians-American Society of Internal Medicine.In preparing for the conference, 4 papers were commissioned that together deepen our understanding of the health care transition process, the financial factors that complicate that process, and models of care coordination that have the promise of facilitating it.In their article, “Health Care Transition: Destinations Unknown,” Reiss and Gibson review the evolving policies in the United States related to health care transition from the first conference that was held through a 1999 meeting titled “Transition Revolution.” In the 1999 meeting, it was recommended that youth with special health care needs participate as decision makers and partners in the planning process for their own health care. Additionally, participants urged that all youth with special health care needs have identified medical homes that are responsive to their needs. They saw Title V of the Social Security Act4 as a vehicle to facilitate the development of transition systems for children, youth, and young adults with special health care needs and their families, and they identified as a priority the need to provide youth with special health care needs accessible and affordable insurance coverage. Reiss and Gibson provide data from youth, parent, and provider focus groups that identify factors that impede and that promote health care transition in 3 domains: service needs, structural issues, and personal preferences and interpersonal dynamics. They con</t>
+          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4312220199</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1021/acsaem.2c03107</t>
+          <t>https://openalex.org/W2368076451</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Periyasamy et al. (2022)</t>
+          <t>Weisen (2007)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nitrogen-Rich Porous Carbon/NiMn Hybrids as Electrode Materials for High-Performance Supercapacitors</t>
+          <t>The Nature of Economics in a Perspective of Philosophy</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The present work deals with the fabrication of four different electrode materials, that is, nitrogen-rich porous carbon (NRPC), NRPC/Mn, NRPC/Ni, and NRPC/NiMn, with a three-dimensional architecture following a simple strategic method. Polybenzoxazine is used as the precursor to prepare NRPC that serves both as a support and a electron collector. The inclusion of mono- and bimetallic transition compounds into the NRPC backbone, that is, NRPC/Mn, NRPC/Ni, and NRPC/NiMn, serves as the electrochemically active species. Several spectroscopic and microscopic methods are used to characterize the fabricated electrode materials. The prepared materials possess pore volume between 0.18 and 0.42 cm3/g. Scanning electron microscopy images of NRPC/NiMn show a 3D flowerlike structure. The formation of this 3D flower morphology depicts stable architecture showing improved electrochemical performance. Cyclic voltammetry, galvanostatic charge–discharge curves, and electrochemical impedance spectroscopy are used to evaluate the electrochemical performance of the prepared electrode materials. The electrochemical study reveals a high specific capacitance of 1825 F/g for NRPC/NiMn, with an efficiency of 78% maintained even after 2500 cycles.</t>
+          <t>Based on a review of relevant literature in the history of economic thought, this paper shows that it is time to make some reflections on the nature, role and significance of economics in the current situation of the dynamic growth of the Chinese and the theoretical economics in China. Section Two finds that along with transformation from political economy to economics, economists understanding of the nature and role of economics also changed. Section Three discusses the question whether economics could become a social science of value-free or not and finds that any school in history of economic thought may have some value judgment and ethical foundation in its theoretical discourse. As a result, the top priority for economists is to try to find the order or providence in human economic and social reality. Section Four discusses the possibility whether economics could become a rigorous science like physics, chemistry and many other highly formalized natural sciences. It also makes some reflection on the propensity of scientism of the mainstream economists. Section Five reaches the conclusion that for the healthy growth of economic theory in China, competitions and dialogues between different schools and thus pluralism in economics should be encouraged.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2060371116</t>
+          <t>https://openalex.org/W2146940709</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevb.88.054510</t>
+          <t>https://doi.org/10.1097/acm.0b013e31818c6902</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Akashi &amp; Arita (2013)</t>
+          <t>Cardall et al. (2008)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nonempirical study of superconductivity in alkali-doped fullerides based on density functional theory for superconductors</t>
+          <t>Live Lecture Versus Video-Recorded Lecture: Are Students Voting With Their Feet?</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>We apply the density functional theory for superconductors based on the local density approximation (LDA) to alkali-doped fullerides ${A}_{3}$C${}_{60}$ with a face-centered-cubic structure. We evaluate the superconducting transition temperature (${T}_{\mathrm{c}}$) from first principles considering the energy dependence of electron-phonon coupling, the mass renormalization, and the retardation effect. The calculated ${T}_{\mathrm{c}}=7.5$, 9.0, and 15.7 K for $A=\text{K}$, Rb, Cs are approximately 60% smaller than the experimentally observed values. Our results strongly suggest the necessity to go beyond the framework of the Migdal-Eliashberg theory based on the LDA.</t>
+          <t>In light of educators' concerns that lecture attendance in medical school has declined, the authors sought to assess students' perceptions, evaluations, and motivations concerning live lectures compared with accelerated, video-recorded lectures viewed online.The authors performed a cross-sectional survey study of all first- and second-year students at Harvard Medical School. Respondents answered questions regarding their lecture attendance; use of class and personal time; use of accelerated, video-recorded lectures; and reasons for viewing video-recorded and live lectures. Other questions asked students to compare how well live and video-recorded lectures satisfied learning goals.Of the 353 students who received questionnaires, 204 (58%) returned responses. Collectively, students indicated watching 57.2% of lectures live, 29.4% recorded, and 3.8% using both methods. All students have watched recorded lectures, and most (88.5%) have used video-accelerating technologies. When using accelerated, video-recorded lecture as opposed to attending lecture, students felt they were more likely to increase their speed of knowledge acquisition (79.3% of students), look up additional information (67.7%), stay focused (64.8%), and learn more (63.7%).Live attendance remains the predominant method for viewing lectures. However, students find accelerated, video-recorded lectures equally or more valuable. Although educators may be uncomfortable with the fundamental change in the learning process represented by video-recorded lecture use, students' responses indicate that their decisions to attend lectures or view recorded lectures are motivated primarily by a desire to satisfy their professional goals. A challenge remains for educators to incorporate technologies students find useful while creating an interactive learning culture.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4302569032</t>
+          <t>https://openalex.org/W1980878900</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1149/1945-7111/ac87d6</t>
+          <t>https://doi.org/10.1016/s0016-0032(39)90589-2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lai et al. (2022)</t>
+          <t>Compton (1939)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A High-Performance Non-Enzymatic Sensor Based on Nickel Foam Decorated with Co-CdIn&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;4&lt;/sub&gt; Nanoparticles for Electrochemical Detection of Glucose and Its Application in Human Serum</t>
+          <t>Discussion on: “Time variations of cosmic rays” and summary of day's discussions</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Glucose concentration is an essential evaluation index for many diseases, so it is highly essential to develop a reliable sensor for quantitative glucose measurement. In this paper, based on the high conductivity of CdIn 2 O 4 , fast electron transfer rate and excellent electrocatalytic activity of transition metal Co, Co-CdIn 2 O 4 is directly in situ grown on nickel foam conductive substrate, which has sizeable active surface area and three-dimensional interconnected properties by a simple non-aqueous sol-gel method. A series of electrochemical experiments proved that Co-CdIn 2 O 4 material has better electrocatalytic activity than CdIn 2 O 4 . According to the detection results, it can be seen that Co-CdIn 2 O 4 /NF electrochemical sensor has high detection sensitivity for glucose, which is 13857 μ A·mM −1 ·cm −2 , a rapid response time of 1.56 s. The wide linear range of glucose is from 1–1 × 10 3 μ M, and a low detection limit of 0.08 μ M. At the same time, the prepared sensor also showed good selectivity and long-term stability. The recovery rates of glucose quantitative test in human serum samples are between 101.4% and 103.3%. All the above results demonstrate that the Co-CdIn 2 O 4 /NF sensor has promising usages in the direction of non-enzymatic glucose sensing.</t>
+          <t>Notoginsenoside Ft1 is a promising potential candidate for cardiovascular and cancer disease therapy owing to its positive pharmacological activities. However, the yield of Ft1 is ultralow utilizing reported methods. Herein, an acid hydrolyzing strategy was implemented in the acquirement of rare notoginsenoside Ft1.Chemical profiles were identified by ultraperformance liquid chromatography coupled with quadruple-time-of-flight and electrospray ionization mass spectrometry (UPLC-Q/TOF-ESI-MS). The acid hydrolyzing dynamic changes of chemical compositions and the possible transformation pathways of saponins were monitored by ultrahigh-performance LC coupled with tandem MS (UHPLC-MS/MS).Notoginsenoside Ft1 was epimerized from notoginsenoside ST4, which was generated through cleaving the carbohydrate side chains at C-20 of notoginsenosides Fa and Fc, and vina-ginsenoside R7, and further converted to other compounds via hydroxylation at C-25 or hydrolysis of the carbohydrate side chains at C-3 under the acid conditions. High temperature contributed to the hydroxylation reaction at C-25 and 25% acetic acid concentration was conducive to the preparation of notoginsenoside Ft1. C-20 epimers of notoginsenoside Ft1 and ST4 were successfully separated utilizing solvent method of acetic acid solution. The theoretical preparation yield rate of notoginsenoside Ft1 was about 1.8%, which would be beneficial to further study on its bioactivities and clinical application.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2929448306</t>
+          <t>https://openalex.org/W4253497451</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acs.jpcc.9b01406</t>
+          <t>https://doi.org/10.15728/bbr.2015.12.6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Chen et al. (2019)</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Temperature Dependent Reflectance and Ellipsometry Studies on a CsPbBr&lt;sub&gt;3&lt;/sub&gt; Single Crystal</t>
+          <t>Moura et al. (2015)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inorganic halide perovskites have attracted enormous interest in recent years owing to their remarkable properties for next-generation optoelectronics. Yet their basic optical properties have been rarely explored, which failed to meet the demand of accelerating the progress of this emerging field. In this work, temperature dependent reflection spectroscopy and ellipsometry were carried out on a CsPbBr3 bulk perovskite single crystal. Two discernible optical transitions at around 2.4 and 3.4 eV with opposite temperature dependence are observed, indicating the complexity of the carrier-phonon scattering process in perovskites. The intrinsic transition energy, exciton–phonon interaction, exciton polariton and strong oscillator strength (∼1.3 × 1030 rad2/s2) of the three-dimensional Wannier–Mott excitons are revealed. We have acquired by ellipsometry measurement the wavelength dependent dielectric constants and the complex refractive indices that are vital for informed optical designs to achieve device performance optimization. Furthermore, the essential and elemental optical properties such as absorption coefficient, absorption cross-section, optical conductivity, and dispersion relation of CsPbBr3 are obtained. These parameters give insights into both fundamental physics and practical applications of CsPbBr3 perovskites. This work unveils the photophysics of inorganic perovskites as well as offers approaches to identify the optical transitions and extract essential physical parameters, which can be utilized to explore other perovskite materials and nanostructures.</t>
+          <t>Due to the ever-changing work environment in the age of digital transformation, project managers need to adapt to an environment which is volatile, uncertain, complex, and ambiguous (VUCA).Many organizations adopt management methods based on strict project management planning, assuming that they are the best way to succeed in any situation.However, projects may depend on flexibility to achieve success.This study aims to analyze the impact of adverse project environments on project success and the effect of the management method choice.A PLS-SEM model is tested on a survey of 332 project professionals.Findings showed that choosing a method that best fits the project's environment can help catch up on project success only when it undergoes frequent changes throughout its life cycle.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2018997273</t>
+          <t>https://openalex.org/W4312220199</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1145/505688.505693</t>
+          <t>https://doi.org/10.1021/acsaem.2c03107</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Babich &amp; Vitez (2000)</t>
+          <t>Periyasamy et al. (2022)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A novel wide-band audio transmission scheme over the Internet with a smooth quality degradation</t>
+          <t>Nitrogen-Rich Porous Carbon/NiMn Hybrids as Electrode Materials for High-Performance Supercapacitors</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Real-time delivery of multimedia information over the Internet is finding increasing interest. This paper considers wide-band audio transmission utilizing a priority scheme. The proposed scheme complies with both the new Internet Protocol Version 6 (IPv6) and the current Internet Protocol Version 4 (IPv4), providing that, in the latter case, routers are set to manage priority. A new queuing algorithm, namely Priority Weighted Fair Queuing (PWFQ), is defined and evaluated. A scalable audio encoder is adopted to perform audio transmissions over an emulated network. Background traffic is emulated, employing a traffic generator that adopts a self-similar model. Objective and subjective quality tests are performed, using a set of musical excerpts. Quality is evaluated as a function of Internet traffic. In the paper it is shown that, by adopting an encoding technique with scalable bit-rate, and a prioritized transmission algorithm, a smooth degradation of quality may be obtained during network congestion periods. This technique shows better performance than feedback-based algorithms, in which the delayed responses cause the core stage packets to be lost in low-to-high traffic transitions and the enhancement packets not to be transmitted in high-to-low traffic transitions.</t>
+          <t>The present work deals with the fabrication of four different electrode materials, that is, nitrogen-rich porous carbon (NRPC), NRPC/Mn, NRPC/Ni, and NRPC/NiMn, with a three-dimensional architecture following a simple strategic method. Polybenzoxazine is used as the precursor to prepare NRPC that serves both as a support and a electron collector. The inclusion of mono- and bimetallic transition compounds into the NRPC backbone, that is, NRPC/Mn, NRPC/Ni, and NRPC/NiMn, serves as the electrochemically active species. Several spectroscopic and microscopic methods are used to characterize the fabricated electrode materials. The prepared materials possess pore volume between 0.18 and 0.42 cm3/g. Scanning electron microscopy images of NRPC/NiMn show a 3D flowerlike structure. The formation of this 3D flower morphology depicts stable architecture showing improved electrochemical performance. Cyclic voltammetry, galvanostatic charge–discharge curves, and electrochemical impedance spectroscopy are used to evaluate the electrochemical performance of the prepared electrode materials. The electrochemical study reveals a high specific capacitance of 1825 F/g for NRPC/NiMn, with an efficiency of 78% maintained even after 2500 cycles.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2981541718</t>
+          <t>https://openalex.org/W2060371116</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2991/mdsmes-19.2019.55</t>
+          <t>https://doi.org/10.1103/physrevb.88.054510</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Kоshkalda et al. (2019)</t>
+          <t>Akashi &amp; Arita (2013)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Innovative development of agricultural enterprises as an economic system</t>
+          <t>Nonempirical study of superconductivity in alkali-doped fullerides based on density functional theory for superconductors</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>The transformations that are currently taking place in the world economic system are forcing scientists to research the factors that allow national economic systems to be sustainable and competitive in today's realities.The key direction for Ukraine with its fertile black soil is the innovative development of the economy as a whole and enterprises, especially agricultural, in particular.The article analyzes the innovative development of enterprises in Ukraine, the quantitative indicators of recent years in terms of innovative development and financing and investment in innovative development of enterprises.It is suggested to consider agricultural enterprises an economic system to explore in more detail their innovative development, the factors that influence it, the methods of its improvement, and more.The specific features of agricultural enterprises as an economic system are emphasized, in particular, their strategic role in terms of food security, their key importance for rural areas and rural population.There are two main directions of innovative development of agricultural enterprises: improvement of production technologies and improvement of quality of labor resources.The importance of labor resources for the effects of the functioning of agricultural enterprises is emphasized.The authors of the article have proposed a methodological approach to material incentives for the staff at agricultural enterprises and adapted it to a specific agricultural enterprise.</t>
+          <t>We apply the density functional theory for superconductors based on the local density approximation (LDA) to alkali-doped fullerides ${A}_{3}$C${}_{60}$ with a face-centered-cubic structure. We evaluate the superconducting transition temperature (${T}_{\mathrm{c}}$) from first principles considering the energy dependence of electron-phonon coupling, the mass renormalization, and the retardation effect. The calculated ${T}_{\mathrm{c}}=7.5$, 9.0, and 15.7 K for $A=\text{K}$, Rb, Cs are approximately 60% smaller than the experimentally observed values. Our results strongly suggest the necessity to go beyond the framework of the Migdal-Eliashberg theory based on the LDA.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2094600015</t>
+          <t>https://openalex.org/W2018997273</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s030500099800364x</t>
+          <t>https://doi.org/10.1145/505688.505693</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Colas (1999)</t>
+          <t>Babich &amp; Vitez (2000)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Introducing infants to referential events: a development study of maternal ostensive marking in French</t>
+          <t>A novel wide-band audio transmission scheme over the Internet with a smooth quality degradation</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>It is well known that mothers give then infants lessons in conversational competence from an early age. This study considered how maternal gestures and prosody contribute to this developing competence. It examines how mothers use ostensive marking to point out common references at different stages of development. The corpus consisted of longitudinal observations of four mother-infant dyads during free play (infants aged 0;4 to 1;1), at three stages of sensorimotor development (III, IV and V). Four dimensions of ostensive marking were considered: (1) the span of the marked utterance (holistic vs. local); (2) the communication channel used (gestural vs. prosodic); (3) the type of gestural marker (oriented, iconic, conventional, beats); and (4) the type of prosodic marker (emphasis, prosodic cliché, reinforced nuclear stress, focal accent). Although there was no clear change in the patterns of specific types of gestural or prosodic markers, the results showed that mothers adapt their gestures to the infant's processing level. Between stages III and V, they move from holistic to local and from gestural to prosodic marking. Stage IV appears to be an excellent period for observing the transition.</t>
+          <t>Real-time delivery of multimedia information over the Internet is finding increasing interest. This paper considers wide-band audio transmission utilizing a priority scheme. The proposed scheme complies with both the new Internet Protocol Version 6 (IPv6) and the current Internet Protocol Version 4 (IPv4), providing that, in the latter case, routers are set to manage priority. A new queuing algorithm, namely Priority Weighted Fair Queuing (PWFQ), is defined and evaluated. A scalable audio encoder is adopted to perform audio transmissions over an emulated network. Background traffic is emulated, employing a traffic generator that adopts a self-similar model. Objective and subjective quality tests are performed, using a set of musical excerpts. Quality is evaluated as a function of Internet traffic. In the paper it is shown that, by adopting an encoding technique with scalable bit-rate, and a prioritized transmission algorithm, a smooth degradation of quality may be obtained during network congestion periods. This technique shows better performance than feedback-based algorithms, in which the delayed responses cause the core stage packets to be lost in low-to-high traffic transitions and the enhancement packets not to be transmitted in high-to-low traffic transitions.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3186116205</t>
+          <t>https://openalex.org/W2981541718</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-88506-5.50238-2</t>
+          <t>https://doi.org/10.2991/mdsmes-19.2019.55</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Baratsas et al. (2021)</t>
+          <t>Kоshkalda et al. (2019)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Circular Economy Systems Engineering: A case study on the Coffee Supply Chain</t>
+          <t>Innovative development of agricultural enterprises as an economic system</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>The current linear “take-make-waste” extractive models that have powered the tremendous growth of the last centuries, lead to the depletion of natural resources and environmental degradation. Circular Economy (CE) aims to address these impacts by building supply chains that are restorative, regenerative, and environmentally benign, through re-utilizing products and materials, using renewable energy sources, and closing any open loops. Process Systems Engineering (PSE) could play a critical role in this transition, providing the necessary analytical tools for a quantitative evaluation, and exploring alternative pathways for social and economic advancement. As such, we present here a novel framework for the modeling and optimization of CE food supply chains, along with a representative case study for the supply chain of coffee. First, the alternative pathways for the production of the desired product and the utilization of wastes are identified. Then, a Resource-Task-Network (RTN) representation that captures all these pathways is constructed. Since this analysis must be conducted holistically, a mixed-integer linear programming model that captures the entire supply chain, its objectives, and constraints is formulated, and it is solved to multi-objective optimality.</t>
+          <t>The transformations that are currently taking place in the world economic system are forcing scientists to research the factors that allow national economic systems to be sustainable and competitive in today's realities.The key direction for Ukraine with its fertile black soil is the innovative development of the economy as a whole and enterprises, especially agricultural, in particular.The article analyzes the innovative development of enterprises in Ukraine, the quantitative indicators of recent years in terms of innovative development and financing and investment in innovative development of enterprises.It is suggested to consider agricultural enterprises an economic system to explore in more detail their innovative development, the factors that influence it, the methods of its improvement, and more.The specific features of agricultural enterprises as an economic system are emphasized, in particular, their strategic role in terms of food security, their key importance for rural areas and rural population.There are two main directions of innovative development of agricultural enterprises: improvement of production technologies and improvement of quality of labor resources.The importance of labor resources for the effects of the functioning of agricultural enterprises is emphasized.The authors of the article have proposed a methodological approach to material incentives for the staff at agricultural enterprises and adapted it to a specific agricultural enterprise.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2013245077</t>
+          <t>https://openalex.org/W1607328122</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/la0507737</t>
+          <t>https://doi.org/10.1002/jcc.1140</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Li et al. (2005)</t>
+          <t>Mok et al. (2001)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Supramolecular Nanostructures of 1,3,5-Benzene-tricarboxylic Acid at Electrified Au(111)/0.05 M H&lt;sub&gt;2&lt;/sub&gt;SO&lt;sub&gt;4&lt;/sub&gt; Interfaces: An in Situ Scanning Tunneling Microscopy Study</t>
+          <t>&lt;i&gt;Ab initio&lt;/i&gt; calculations on the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} and \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} states of AlNC and simulation of the AlNC \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document}–\documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} …</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>The potential-induced adsorption and self-assembly of 1,3,5-benzene-tricarboxylic acid (TMA) was investigated at the electrified Au(111)/0.05 M H2SO4 interface by in-situ scanning tunneling microscopy (STM) and surface enhanced infrared reflection absorption spectroscopy (SEIRAS) in combination with electrochemical techniques. Depending on the applied electric field, TMA forms five distinctly different, highly ordered supramolecular adlayers on Au(111) surfaces. We have elucidated their real-space structures at the molecular scale. In the potential range −0.25 V &lt; E &lt; 0.20 V, planar-oriented TMA molecules form a hexagonal open-ring honeycomb structure, Ia, a hydrogen-bonded ribbon-type phase, Ib, and a herringbone-type phase, Ic, stabilized by directional hydrogen bonding and weak substrate−adsorbate interactions. Interfacial water molecules are being replaced. In 0.20 V ≤ E &lt; 0.40 V, e.g., around the potential of zero charge, and at slightly higher coverages, a close-packed physisorbed adlayer of hydrogen-bonded TMA dimers, II, was observed. Further increase of the electrode potential to positive charge densities causes an orientation change from planar to upright. An initially disordered phase, IIIa, transforms into an ordered, stripelike chemisorbed adlayer, IIIb, of perpendicularly oriented TMA molecules. One carboxylate group per molecule is bound to the electrode surface, while the two other protonated carboxyl groups are directed toward the electrolyte and act as structure-determining components of a hydrogen-bonded two-dimensional ladder-type network. Structural transitions between the various types of ordered molecular adlayers are attributed to (hole) nucleation and growth processes.</t>
+          <t>Abstract Geometry optimization and harmonic vibrational frequencies calculations were carried out on the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} and \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} states of AlNC, employing a variety of ab initio molecular orbital methods, including the SERHF, CIS, MP2, and QCISD methods, with basis sets up to the size of the cc‐pVQZ basis set. In addition, single‐point energy calculations at the CCSD(T) and CASSCF/MRCI levels were performed to determine the transition energy ( T e ) between the two electronic states. Franck–Condon calculations were carried out for the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} – \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} electronic transition, employing ab initio force constants and optimized geometries. The \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi\rightarrow \tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} dispersed fluorescence spectra arising from the (0,0,0), (0,0,1), and (0,0,2) single vibrational levels (SVL) of the upper state were simulated using the computed Franck–Condon factors. Based on the computed T e (36896 cm −1 at the CASSCF/MRCI/cc‐pVTZ level) and the simulated emission spectra, the band system observed at 36389 cm −1 by Gerasimov et al. [ J Chem Phys 110, 220 (1999)] has been assigned to the AlNC \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} – \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} transition. A systematic variation of the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} state geometrical parameters was carried out in an iterative Franck–Condon analysis (IFCA) treatment of the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi\rightarrow\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} SVL emission, with the geometry of the ground state being fixed to the available experimental geometry. The best match between the simulated and observed spectra gave the first experimentally derived geometry of the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} state (Al–N=1.785±0.005 Å and N–C=1.150±0.008 Å). © 2001 John Wiley &amp;amp; Sons, Inc. J Comput Chem 22: 1896–1906, 2001</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200213484</t>
+          <t>https://openalex.org/W2896210620</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/d1cp05353a</t>
+          <t>https://doi.org/10.1158/1055-9965.epi-18-0672</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Huang et al. (2022)</t>
+          <t>Saluja et al. (2019)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DFT and microkinetic study of acetylene transformation on Pd(111), M(111) and PdM(111) surfaces (M = Cu, Ag, Au)</t>
+          <t>Prognostic Value of Cancer Stem Cell Markers in Potentially Malignant Disorders of Oral Mucosa: A Meta-analysis</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Density functional calculations and microkinetic simulations were performed on the transformation network of acetylene on Pd(111), M(111) and PdM(111) (M = Cu, Ag, Au) surfaces. It is demonstrated that the adsorption energies on alloy surfaces linearly correlate with the values on the pure metal surfaces. A good linear relationship between the co-adsorption energies of initial states and transition states is revealed with which the barriers of most elementary steps in the reaction network were estimated. To shed light on the transformation of acetylene, microkinetic simulations were conducted on the network. The results show that CHCH and H are dominant species on the surfaces and CCH, CCH2 and CCH3 are the main intermediates. Analysis indicates that introduction of coinage metals into Pd reduces the activity, but promotes the selectivity by lowering the barrier of CHCH2 → CH2CH2. The present work provides a comprehensive overview of acetylene transformation on palladium, coinage metals and their alloy surfaces. The linear relationship of adsorption energies between the component metal and alloy surfaces and usage of the TSS relationship to evaluate barriers for microkinetic simulations are worthy of being further studied and extended to other systems.</t>
+          <t>Abstract Background: Oral squamous cell carcinoma (OSCC) is usually preceded by clinically visible changes on oral mucosa categorized as oral potentially malignant disorders (OPMD). The progression of OPMD to OSCC is a multistep process that provides an opportunity for early cancer detection and interception. Recent research suggests that cancer stem cells (CSC) hold the key to unlocking effective strategies to curb initiation and growth of several malignant neoplasms, including OSCC. In this meta-analysis, we evaluated the efficacy of CSC markers CD133, podoplanin, ALDH1, and others in predicting risk of malignant transformation of OPMDs. Methods: The PubMed database was systematically reviewed for relevant articles. Quality of eligible studies was assessed as per reporting recommendations for tumor marker (REMARK) criteria. A total of 18 investigations from 12 studies evaluated clinical or prognostic significance of CSC markers in OPMDs. A reasonable number of patients (1,659) were included in this analysis. Results: Positive expression of CSC markers in OPMDs is significantly associated with progression to OSCC [risk ratio (RR), 3.31; 95% confidence interval (CI), 2.72–4.02]. Variability in CSC population makes it difficult to understand exact biology of OPMDs based on single CSC marker investigation. Conclusions: Identifying CSC population is a reliable prognostic indicator in OPMDs with or without dysplasia. Multi-marker panel investigation for CSCs in OPMDs may assist in curtailing new cases of oral cancer to a great extent. Impact: The study illustrates that evaluating CSC marker expression in OPMDs is a key tool in identifying high-risk cases to prevent development of OSCC.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2892052254</t>
+          <t>https://openalex.org/W2981587309</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/admi.201800736</t>
+          <t>https://doi.org/10.17513/vaael.756</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Leeuwenburgh et al. (2018)</t>
+          <t>Cherkesova &amp; Mironova (2019)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Self-Healing Materials are Coming of Age</t>
+          <t>EVALUATION AND WAYS TO INCREASE THE DIGITAL LITERACY LEVEL OF SCIENTIFIC AND PEDAGOGICAL WORKERS IN THE CONDITIONS OF DIGITAL TRANSFORMATION OF THE ECONOMY OF THE RUSSIAN FEDERATION</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>While natural materials such as bone or skin are able to heal themselves in an autonomous manner after mechanical damage, traditional man-made materials generally lack this intrinsic capacity for self-healing. In 1969, self-healing properties were for the first time built-in inside polymeric materials1 and in the following decades publications about self-healing in thermoplastic and cross-linked systems and concrete appeared.2 Although, it was only in 2001, through an article about self-healing in polymer based materials published in Nature, that research in the field of self-healing materials research was really triggered.3 By restoring their functional properties autonomously after damage, self-healing materials would offer tremendous advantages over traditional materials in application areas such as civil, chemical, electrical, aerospace, automotive, and biomedical engineering. Autonomous self-healing does not require an external trigger (like heat or irradiation), whereas non-autonomous self-healing only occurs in response to such external triggers.4 Another classification of self-healing materials is based on the incorporation of separate healing agents (extrinsic self-healing) as opposed to intrinsic self-healing which proceeds without the need to include separate healing agents.4 Irrespective of their classification, self-healing of materials requires the creation of a local mobile phase which can close and repair cracks by physical flow into the crack and subsequent reformation of chemically stable interfaces. During the first decade of self-healing materials research, numerous novel concepts for self-healing of man-made polymeric, ceramic, metallic and composite materials have been developed. These concepts were mainly based on trial-and-error and not yet based on thorough understanding of the thermodynamics and kinetics of the process of self-healing. During the past decade, however, the field of self-healing materials research has witnessed a gradual trend towards the development of intrinsic and autonomous vs. extrinsic and non-autonomous self-healing materials. This transition has provided the self-healing materials community with a deeper understanding of the key processes which control self-healing in man-made materials. Ideally, this fundamental understanding will pave the way for a priori definition of design criteria to render traditional materials self-healing without the need for extensive and iterative experimental optimization cycles. The current Special Issue consisting of 10 progress reports and/or reviews provides an overview of the state-of-the-art in the field of self-healing materials research (Figure 1). The first five manuscripts are dedicated to self-healing of polymer-based materials, whereas the five other manuscripts describe self-healing of hard materials including metals and concrete. Self-healing of polymer-based materials generally relies on dynamic bonds in the polymeric phase which allow for reformation of bonds after cleavage. Two types of dynamic bonds have attracted most interest during the past decade, reversible covalent bonds and supramolecular chemistry. Article 1800051 defines general design criteria for the synthesis of self-healing polymers based on dynamic covalent bonds, while article 1800384 shows that supramolecular chemistry offers a versatile toolbox of chemical interactions to render polymeric materials self-healing. Local temporary mobility is the key concept responsible for all classes of self-healing materials, but this mobility is restricted to the outermost layer in case of functional polymeric surfaces. The progress report 1800293 focuses on a specific type of self-healing low-adherence polymeric surfaces. The first decade of self-healing materials research focused mainly on traditional engineering materials, but research interest on self-healing biomaterials has increased considerably during the past decade. Self-healing can be advantageous for polymeric biomaterials in view of their processing, clinical handling and biological performance, as shown in article 1800118. Nevertheless, inorganic phases are needed to combine self-healing with mechanical robustness, which is also emphasized in article 1800177 on self-healing fiber-reinforced polymer composites. While the combination of a hard civil engineering material and soft biological ‘actors’ in order to reach self-healing behaviour does not seem intuitively very logical, article 1800074, demonstrates a surprisingly effective method of using spore-forming alkaliphilic bacteria in combination with special bacterial food to make microcracks in concrete heal themselves autonomously in the presence of moisture. But this is only one of the discussed methods next to autogenous healing, use of mineral additions, crystalline admixtures or (superabsorbent) polymers, and micro-, macro- or vascular encapsulated polymers and minerals. The contribution in article 1701378 discusses models for mechanical self</t>
+          <t>Э. Ю. ЧеркесоваИнститут сферы обслуживания и предпринимательства (филиал) ДГТУ в</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1972565638</t>
+          <t>https://openalex.org/W3089575826</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.eurpolymj.2007.10.013</t>
+          <t>https://doi.org/10.1115/1.4048243</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Viciosa et al. (2008)</t>
+          <t>Feser &amp; Gupta (2020)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Polymerization effects on molecular dynamics of n-ethylene glycol dimethacrylates followed by dielectric relaxation spectroscopy</t>
+          <t>Performance and Emissions of Drop-In Aviation Biofuels in a Lab-Scale Gas Turbine Combustor</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A detailed dielectric characterization of n-ethylene glycol dimethacrylate monomers with n = 2 and 4 is provided. Besides the α relaxation associated to the glass transition, two secondary relaxation processes were detected: the γ process assigned to the twisting motions within the ethylene glycol moiety, and the β process related with hindered rotations of carboxylic groups. While the relaxation time of the γ process is independent of the size of the ethylene glycol group, the β process deviates to higher times with increasing n. Upon polymerization the α process goes to extinction, faster in the 4-ethylene monomer, with a concomitant depletion of the β process that remains at higher polymerization degrees relatively to the α process, thus acting as a more sensitive probe to evaluate conversion. The height decrease of α and β processes of monomers with the polymerization progress, occurs without significant changes of position. At intermediate states of polymerization, a new relaxation process evolves being only detectable in a narrow temperature range. In the end, the polymer networks show, in addition to the γpol relaxation identical to the γ relaxation of the monomer, a βpol relaxation with similar features to the β relaxation found in poly n-alkyl methacrylates originated by a π flip of the ester unit accompanied by a restricted main chain rearrangement. The main dielectric relaxation corresponding to the swollen polymer network should appear at quite high temperatures already in early stages of the polymerization process because phase segregation occurs and only a limited amount of liquid monomer plasticizes the newly formed material.</t>
+          <t>Abstract There is a growing need for drop-in biofuels for gas turbines for enhanced energy security and sustainability. Several fuels are currently being developed and tested to reduce dependency on fossil fuels while maintaining performance, particularly in the aviation industry. The transition from traditional fossil fuels to sustainable biofuels is much desired for reducing the rapidly rising CO2 levels in the environment. This requires biofuels to be drop-in ready, where there are no adverse effects on performance and emissions upon replacement. In this study, the performance and emissions of four different aviation drop-in biofuels were evaluated. They include UOP HEFA-SPK, Gevo ATJ, Amyris Farnesane, and SB-JP-8. These aviation biofuels are currently being produced and tested to be ready for full or partial drop-in fuels as the replacement of traditional jet fuels. The characteristic performance of each fuel from the prevaporized liquid fuels was performed in a high-intensity (20 MW/m3-atm) reverse flow combustor. The NO emissions showed near unity ppm levels for each of the fuels examined with a minimum at an equivalence ratio of ∼0.6, while CO levels were in the range of 1000–1300 ppm depending on the fuel at an equivalence ratio between 0.75 and 0.8. For an equivalence ratio range between 0.4 and 0.6, NO and CO emissions remained very low (between 1–2 ppm NO and 2400–2900 ppm CO) depending on the fuel. The examined biofuels did not show any instability over a wide range of equivalence ratios from lean to near stoichiometric condition. These results provide promising results on the behavior of these drop-in aviation biofuels for use in high-intensity gas turbine combustors providing stability and cleaner performance without any modification to the combustor design.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W194969759</t>
+          <t>https://openalex.org/W4386070126</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/jintelligence11090170</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Martins &amp; Costa (2014)</t>
+          <t>Wang et al. (2023)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Reemployment effects from increased activation: Evidence from times of crisis</t>
+          <t>AI for Psychometrics: Validating Machine Learning Models in Measuring Emotional Intelligence with Eye-Tracking Techniques</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Although activation services such as monitoring, training, job subsidies or workfare have been shown to increase exits from unemployment, there is no evidence about their effects during recessions. We address this policy-relevant question by evaluating a large activation programme introduced in Portugal in early 2012, a time of very high and still increasing unemployment. The programme was based on requiring specific unemployment benefit recipients to meet caseworkers in jobcentres and then participate in active labour market policies. Our analysis draws on rich longitudinal data, the targeted nature of the programme (namely of its component focused on those unemployed for at least six months), and fuzzy regression discontinuity methods. We find that, despite the weak labour market, the programme is very succesful as it doubles the monthly reemployment probability. Moreover, we find no effects in terms of income or transitions to non-employment. The results are robust to a number of checks, including a falsification exercise based on pre-programme data.</t>
+          <t>AI, or artificial intelligence, is a technology of creating algorithms and computer systems that mimic human cognitive abilities to perform tasks. Many industries are undergoing revolutions due to the advances and applications of AI technology. The current study explored a burgeoning field-Psychometric AI, which integrates AI methodologies and psychological measurement to not only improve measurement accuracy, efficiency, and effectiveness but also help reduce human bias and increase objectivity in measurement. Specifically, by leveraging unobtrusive eye-tracking sensing techniques and performing 1470 runs with seven different machine-learning classifiers, the current study systematically examined the efficacy of various (ML) models in measuring different facets and measures of the emotional intelligence (EI) construct. Our results revealed an average accuracy ranging from 50-90%, largely depending on the percentile to dichotomize the EI scores. More importantly, our study found that AI algorithms were powerful enough to achieve high accuracy with as little as 5 or 2 s of eye-tracking data. The research also explored the effects of EI facets/measures on ML measurement accuracy and identified many eye-tracking features most predictive of EI scores. Both theoretical and practical implications are discussed.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3011699526</t>
+          <t>https://openalex.org/W3186116205</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/milcom47813.2019.9021021</t>
+          <t>https://doi.org/10.1016/b978-0-323-88506-5.50238-2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Vanderpoorten et al. (2019)</t>
+          <t>Baratsas et al. (2021)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Flexible Modem Interface Demonstration for Military Terminals</t>
+          <t>Circular Economy Systems Engineering: A case study on the Coffee Supply Chain</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>The Satellite Communications (SATCOM) industry is undergoing revolutionary changes as next generation technologies enable ubiquitous and diverse service offerings at an order of magnitude lower price point. The flexibility to roam between hybrid service providers comprised of government, commercial and international systems is an important attribute of the DoD SATCOM Enterprise that delivers high capacity, global coverage and resiliency to warfighters. Terminal flexibility to operate across networks, in multiple frequency bands, and supporting various waveforms/modems is a key capability in an architecture where roaming at the speed of military operations for assured communications is essential. What follows is the results of the Air Force Space Command (AFSPC), Space and Missile Systems Center (SMC), Advanced Concept Division (MCX) pioneered Flexible Modem Interface (FMI) effort which establishes the building blocks for a SATCOM Enterprise. FMI has been matured through a series of technology development initiatives, including a multi-vendor demonstration of the architecture, interfaces, and operational benefits of flexible terminals. The results of the rich learning through various vendor implementation of the core FMI capabilities and robust demonstrated use cases paved the way to the future FMI development.</t>
+          <t>The current linear “take-make-waste” extractive models that have powered the tremendous growth of the last centuries, lead to the depletion of natural resources and environmental degradation. Circular Economy (CE) aims to address these impacts by building supply chains that are restorative, regenerative, and environmentally benign, through re-utilizing products and materials, using renewable energy sources, and closing any open loops. Process Systems Engineering (PSE) could play a critical role in this transition, providing the necessary analytical tools for a quantitative evaluation, and exploring alternative pathways for social and economic advancement. As such, we present here a novel framework for the modeling and optimization of CE food supply chains, along with a representative case study for the supply chain of coffee. First, the alternative pathways for the production of the desired product and the utilization of wastes are identified. Then, a Resource-Task-Network (RTN) representation that captures all these pathways is constructed. Since this analysis must be conducted holistically, a mixed-integer linear programming model that captures the entire supply chain, its objectives, and constraints is formulated, and it is solved to multi-objective optimality.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2543126650</t>
+          <t>https://openalex.org/W4200213484</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/peam.2011.6134875</t>
+          <t>https://doi.org/10.1039/d1cp05353a</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ma et al. (2011)</t>
+          <t>Huang et al. (2022)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>The post-evaluation index system for preparatory work of transmission and transformation projects</t>
+          <t>DFT and microkinetic study of acetylene transformation on Pd(111), M(111) and PdM(111) surfaces (M = Cu, Ag, Au)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Considering the characteristics of the transmission and transformation project, focusing on the wink links of the preparatory work, this paper builds the post-evaluation index system of preparatory work. In accordance with the interactional relationship among the indexes, the Analytic Hierarchy Process (AHP) based evaluation model is introduced to confirm the weight of indexes. Finally, the results of an empirical analysis on a certain transmission and transformation project's preparatory work show that this index system can dig up some key problems in preliminary management and give a good reference for subsequent projects decision-making and management level.</t>
+          <t>Density functional calculations and microkinetic simulations were performed on the transformation network of acetylene on Pd(111), M(111) and PdM(111) (M = Cu, Ag, Au) surfaces. It is demonstrated that the adsorption energies on alloy surfaces linearly correlate with the values on the pure metal surfaces. A good linear relationship between the co-adsorption energies of initial states and transition states is revealed with which the barriers of most elementary steps in the reaction network were estimated. To shed light on the transformation of acetylene, microkinetic simulations were conducted on the network. The results show that CHCH and H are dominant species on the surfaces and CCH, CCH2 and CCH3 are the main intermediates. Analysis indicates that introduction of coinage metals into Pd reduces the activity, but promotes the selectivity by lowering the barrier of CHCH2 → CH2CH2. The present work provides a comprehensive overview of acetylene transformation on palladium, coinage metals and their alloy surfaces. The linear relationship of adsorption energies between the component metal and alloy surfaces and usage of the TSS relationship to evaluate barriers for microkinetic simulations are worthy of being further studied and extended to other systems.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2129977543</t>
+          <t>https://openalex.org/W4380877901</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1194/jlr.m200135-jlr200</t>
+          <t>https://doi.org/10.1016/j.mtchem.2023.101600</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Guérin et al. (2002)</t>
+          <t>Rani et al. (2023)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cholesteryl ester flux from HDL to VLDL-1 is preferentially enhanced in type IIB hyperlipidemia in the postprandial state</t>
+          <t>Bifunctional metal-organic frameworks as selective turn-on fluorescence sensors for tryptophan and heterogeneous catalysts for Knoevenagel condensation reaction</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Postprandial triglyceride-rich lipoproteins (TRL) exert proatherogenic effects at the arterial wall, including lipid deposition. Following consumption of a mixed meal (1,200 kcal), plasma-mediated cellular free cholesterol (FC) efflux, lecithin:cholesterol acyltransferase (LCAT), and cholesteryl ester transfer protein (CETP) activities were determined in subjects (n = 12) displaying type IIB hyperlipidemia and compared with those in a normolipidemic control group (n = 14). The relative capacity of plasma to induce FC efflux from Fu5AH cells via the SR-BI receptor was significantly increased 4 h postprandially (+23%; P &lt; 0.005) in the type IIB group, whereas it remained unchanged for postprandial plasma from normolipidemic subjects. LCAT activity was significantly elevated 2 h postprandially in both the IIB and control groups, (+46% and +36%, respectively; P &lt; 0.005 vs. respective baseline value). In type IIB subjects, total cholesteryl ester (CE) mass transfer from HDL to total TRL [chylomicrons (CMs) + VLDL-1 + VLDL-2 + IDL] increased progressively from 15 ± 2 μg CE/h/ml at baseline to 28 ± 2 μg CE transferred/h/ml (+87%; P = 0.0004) at 4 h postprandially. CE transfer to CMs and VLDL-1 was preferentially stimulated (2.6-fold and 2.3-fold respectively) at 4 h in IIB subjects and occurred concomitantly with elevation in mass and particle number of both CMs (2.3-fold) and VLDL-1 (1.3-fold). Furthermore, in type IIB subjects, CETP-mediated total CE flux over the 8 h postprandial period from HDL to potentially atherogenic TRL was significantly enhanced, and notably to VLDL-1 (32-fold elevation; P &lt; 0.005), relative to control subjects. Such CE transfer flux was reflected in a significant postprandial increase in CE-TG ratio in both CMs and VLDL-1 in type IIB plasmas.In conclusion, HDL-CE is preferentially targeted to VLDL-1 via the action of CETP during alimentary lipemia, thereby favoring formation and accumulation of atherogenic CE-rich remnant particles. Postprandial triglyceride-rich lipoproteins (TRL) exert proatherogenic effects at the arterial wall, including lipid deposition. Following consumption of a mixed meal (1,200 kcal), plasma-mediated cellular free cholesterol (FC) efflux, lecithin:cholesterol acyltransferase (LCAT), and cholesteryl ester transfer protein (CETP) activities were determined in subjects (n = 12) displaying type IIB hyperlipidemia and compared with those in a normolipidemic control group (n = 14). The relative capacity of plasma to induce FC efflux from Fu5AH cells via the SR-BI receptor was significantly increased 4 h postprandially (+23%; P &lt; 0.005) in the type IIB group, whereas it remained unchanged for postprandial plasma from normolipidemic subjects. LCAT activity was significantly elevated 2 h postprandially in both the IIB and control groups, (+46% and +36%, respectively; P &lt; 0.005 vs. respective baseline value). In type IIB subjects, total cholesteryl ester (CE) mass transfer from HDL to total TRL [chylomicrons (CMs) + VLDL-1 + VLDL-2 + IDL] increased progressively from 15 ± 2 μg CE/h/ml at baseline to 28 ± 2 μg CE transferred/h/ml (+87%; P = 0.0004) at 4 h postprandially. CE transfer to CMs and VLDL-1 was preferentially stimulated (2.6-fold and 2.3-fold respectively) at 4 h in IIB subjects and occurred concomitantly with elevation in mass and particle number of both CMs (2.3-fold) and VLDL-1 (1.3-fold). Furthermore, in type IIB subjects, CETP-mediated total CE flux over the 8 h postprandial period from HDL to potentially atherogenic TRL was significantly enhanced, and notably to VLDL-1 (32-fold elevation; P &lt; 0.005), relative to control subjects. Such CE transfer flux was reflected in a significant postprandial increase in CE-TG ratio in both CMs and VLDL-1 in type IIB plasmas. In conclusion, HDL-CE is preferentially targeted to VLDL-1 via the action of CETP during alimentary lipemia, thereby favoring formation and accumulation of atherogenic CE-rich remnant particles. In order to maintain cholesterol homeostasis in peripheral tissues, excess cellular cholesterol is returned to the liver for excretion via a multistep process termed “reverse cholesterol transport” (RCT) (1Tall A. Plasma lipid transfer proteins.Annu. Rev. Biochem. 1995; 64: 235-257Google Scholar). A key component of this process involves the transfer of a significant portion of the cholesteryl ester (CE) pool in HDL to apoB-containing lipoproteins (VLDL, IDL, and LDL) via the action of the cholesteryl ester transfer protein (CETP) (2Goldberg D.I. Beltz W.F. Pittman R.C. Evaluation of pathways for the cellular uptake of high density lipoprotein cholesterol esters in rabbits.J Clin Invest. 1991; 87: 331-346Google Scholar).Hyperlipidemia of phenotype IIB is associated with an increased risk of premature coronary artery disease and is characterized by concomitant elevation of circulating levels of atherogenic apoB-containing, triglyceride-rich (VLDL) and cholesterol-rich lipoproteins (VLDL remnants, IDL, and LDL</t>
+          <t>Two new doubly interpenetrated metal-organic frameworks (MOFs) with formulas [{Zn(L1)(5-nipa)}·DMA]α (1a) and [{Cd(L2)(5-nipa)(H2O)}]α (1b) have been discussed herein, where [L1 = N,N'-(oxybis(4,1-phenylene))diisonicotinamide; L2 = N,N'-(methylenebis(4,1-phenylene)) diisonicotinamide; 5-H2nipa = 5-nitroisophthalic acid; DMA = dimethylacetamide]. A single crystal X-ray analysis reveals that 1a exhibits a 2D-interpenetrated interwoven sheet and finally adapts a 3D framework structure with the help of π···π stacking interactions. Similarly, 1b displays a two-fold interpenetrated 2D sheet-like architecture and is finally adjusted to a 3D structure. Both 1a and 1b feature channels with a cross-section of 25.06 × 25.06 Å2 and 24.01 × 24.01 Å2, respectively, running along the b-axis. Topological analysis of 1a and 1b by ToposPro suggests a (4)-connected uninodal sql topology with point symbol {44.62}. Further, 1a and 1b were exploited as molecular sensors for several amino acids exposing different shapes and sizes and exhibiting selective turn-on fluorescence sensing towards biologically important D/L-tryptophan with the notable limit of detection values of 0.084/0.110 μM and 0.143/0.141 μM, respectively, in aqueous medium. In addition, 1a and 1b were also exploited as heterogeneous catalysts towards several assorted aldehydes having different electronic environments, including sterically demanding aldehydes, under mild reaction conditions and obtained up to 97% of the respective Knoevenagel condensation product. Importantly, sterically hindered aldehydes also worked well with the MOF catalysts 1a and 1b, but showed comparatively low conversion. It is important to mention that in both cases, these MOF materials are recyclable for up to five consecutive runs without displaying any substantial loss in their sensing or catalytic activities. Moreover, the present investigation cultivates a new vision to design novel luminescent MOFs that can be used as multifunctional materials for the turn-on sensing of small organic molecules as well as instigated as heterogeneous catalysts in diverse organic transformation reactions.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2989934957</t>
+          <t>https://openalex.org/W4281249674</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1742-6596/1386/1/012135</t>
+          <t>https://doi.org/10.1177/21651434221098411</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Salazar et al. (2019)</t>
+          <t>Howorth et al. (2022)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Semi-automatic detection of the evolutionary forms of visceral leishmaniasis in microscopic blood smears</t>
+          <t>Effects of an Abbreviated and Adapted PEERS® Curriculum as Part of a College Transition Program for Young Adults on the Autism Spectrum</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Abstract Leishmaniasis is a complex group of diseases caused by obligate unicellular and intracellular eukaryotic protozoa of the leishmania genus. Leishmania species generate diverse syndromes ranging from skin ulcers of spontaneous resolution to fatal visceral disease. These syndromes belong to three categories: visceral leishmaniasis, cutaneous leishmaniasis and mucosal leishmaniasis. The visceral leishmaniasis is based on the reticuloendothelial system producing hepatomegaly, splenomegaly and lymphadenopathy. In the present article, a semiautomatic segmentation strategy is proposed to obtain the segmentations of the evolutionary shapes of visceral leishmaniasis called parasites, specifically of the type amastigote and promastigote. For this purpose, the optical microscopy images containing said evolutionary shapes, which are generated from a blood smear, are subjected to a process of transformation of the color intensity space into a space of intensity in gray levels that facilitate their subsequent preprocessing and adaptation. In the preprocessing stage, smoothing filters and edge detectors are used to enhance the optical microscopy images. In a complementary way, a segmentation technique that groups the pixels corresponding to each one of the parasites, presents in the considered images, is applied. The results reveal a high correspondence between the available manual segmentations and the semi-automatic segmentations which are useful for the characterization of the parasites. The obtained segmentations let us to calculate areas and perimeters associated with the parasites segmented. These results are very important in clinical context where both the area and perimeter calculated are vital for monitoring the development of visceral leishmaniasis.</t>
+          <t>College students on the autism spectrum report the following support needs: interpersonal skills and coping with unexpected change. The purpose of this pilot study was to investigate the effects of an interpersonal skills seminar using elements of the PEERS® curriculum on the acquisition of conversational behaviors by three young adults on the autism spectrum who were attending a summer college transition program designed to help prepare and familiarize individuals with college living. A multiple probe across behaviors design was used. According to visual analysis, a functional relation was not established between participation and acquisition of foundational conversational skills. Our findings provide a model for how state vocational rehabilitation agencies and institutes of higher education can collaborate to provide effective support for college students with autism spectrum disorder.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2736593829</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0022-3697(66)90007-2</t>
+          <t>https://openalex.org/W194969759</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Kenny et al. (1966)</t>
+          <t>Martins &amp; Costa (2014)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Optical absorption coefficients of vanadium pentoxide single crystals</t>
+          <t>Reemployment effects from increased activation: Evidence from times of crisis</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>The optical absorption coefficients of orthorhombic V2O5 single crystals were evaluated using incident polarized light over the wavelength range 0.47–1·8μ, and in unpolarized light from 1·5 to 7·5μ. The intrinsic absorption edges were found to have an exponential dependence on photon energy. Fundamental absorption was observed at incident photon energies of 2·15, 2·22 and 2·17 eV for E∥a, E∥b and E∥c, respectively. Some evidence for a direct forbidden transition mechanism with band gaps of 2·36 and 2·34 eV was observed for E∥a and E∥c, respectively. A double absorption peak was observed for the polarization E∥a; the major peak occurs at 1·00 μ and the minor peak at 0·83 μ. Since this peak is completely missing in the absorption spectra when E∥b and E∥c, the mechanism associated with the absorption peak for E∥a must itself be optically anisotropic. This double peak is associated with nonstoichiometric defects which act as donors. For wavelengths greater than 1·0μ there is an absence of absorption maxima until lattice or impurity absorption sets in at 4·4μ. A critical comparison of the results of this investigation with earlier studies of the optical properties of V2O5 is presented.</t>
+          <t>Although activation services such as monitoring, training, job subsidies or workfare have been shown to increase exits from unemployment, there is no evidence about their effects during recessions. We address this policy-relevant question by evaluating a large activation programme introduced in Portugal in early 2012, a time of very high and still increasing unemployment. The programme was based on requiring specific unemployment benefit recipients to meet caseworkers in jobcentres and then participate in active labour market policies. Our analysis draws on rich longitudinal data, the targeted nature of the programme (namely of its component focused on those unemployed for at least six months), and fuzzy regression discontinuity methods. We find that, despite the weak labour market, the programme is very succesful as it doubles the monthly reemployment probability. Moreover, we find no effects in terms of income or transitions to non-employment. The results are robust to a number of checks, including a falsification exercise based on pre-programme data.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2269927566</t>
+          <t>https://openalex.org/W3003483153</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2217/pmt.15.51</t>
+          <t>https://doi.org/10.1523/jneurosci.1399-19.2020</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ingelmo et al. (2016)</t>
+          <t>Sankaran et al. (2020)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Pain control after pediatric surgery: learning from the past to perfect the future</t>
+          <t>The Rapid Emergence of Musical Pitch Structure in Human Cortex</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pain ManagementVol. 6, No. 1 EditorialPain control after pediatric surgery: learning from the past to perfect the futurePablo Ingelmo, Gonzalo Rivera &amp; Robert BairdPablo Ingelmo*Author for correspondence: E-mail Address: pablo.ingelmo@mcgill.ca Chronic Pain Service, Department of Anesthesia, Montreal Children’s Hospital, 1001 Decaire Boulevard, B04.2427, Montreal, H4A 3J1, CanadaSearch for more papers by this author, Gonzalo Rivera Chronic Pain Service, Department of Anesthesia, Montreal Children’s Hospital, 1001 Decaire Boulevard, B04.2427, Montreal, H4A 3J1, CanadaSearch for more papers by this author &amp; Robert Baird Department of Pediatric Surgery, Montreal Children’s Hospital, 1001 Decaire Boulevard, B04.2316, Montreal, H4A 3J1, CanadaSearch for more papers by this authorPublished Online:17 Dec 2015https://doi.org/10.2217/pmt.15.51AboutSectionsView ArticleView Full TextPDF/EPUB ToolsAdd to favoritesDownload CitationsTrack CitationsPermissionsReprints ShareShare onFacebookTwitterLinkedInRedditEmail View articleKeywords: analgesiachildrenpainpediatric surgerypostoperativeReferences1 Liu Y, Seipel C, Lopez ME et al. A retrospective study of multimodal analgesic treatment after laparoscopic appendectomy in children. Paediatr. Anaesth. 23(12), 1187–1192 (2013).Medline, Google Scholar2 Stewart DW, Ragg PG, Sheppard S, Chalkiadis GA. The severity and duration of postoperative pain and analgesia requirements in children after tonsillectomy, orchidopexy, or inguinal hernia repair. Paediatr. Anaesth. 22(2), 136–143 (2012).Crossref, Medline, Google Scholar3 Macrae WA. Chronic post-surgical pain: 10 years on. Br. J. Anaesth. 101(1), 77–86 (2008).Crossref, Medline, CAS, Google Scholar4 Rashiq S, Dick BD. Post-surgical pain syndromes: a review for the non-pain specialist. Can. J. Anesth. 61(2), 123–130 (2014).Crossref, Medline, Google Scholar5 Nelson KL, Yaster M, Kost-Byerly S, Monitto CL. A national survey of American pediatric anesthesiologist: patient-controlled analgesia and other intravenous opioid therapies in pediatric acute management. Anesth. Analg. 110(3), 754–760 (2010).Crossref, Medline, CAS, Google Scholar6 Howard RF, Lloyd-Thomas A, Thomas M et al. Nurse-controlled analgesia (NCA) following major surgery in 10,000 patients in a children’s hospital. Paediatr. Anaesth. 20(2), 126–134 (2010).Crossref, Medline, Google Scholar7 McNicol ED, Ferguson MC, Hudcova J. Patient controlled opioid analgesia versus non-patient controlled opioid analgesia for postoperative pain. Cochrane Database Syst. Rev. 2(6), CD003348 (2015).Google Scholar8 Jöhr M. Regional anaesthesia in neonates, infants and children: an educational review. Eur. J. Anaesthesiol. 32(5), 289–297 (2015).Crossref, Medline, Google Scholar9 Baird R, Guilbault MP, Tessier R, Ansermino JM. A systematic review and meta-analysis of caudal blockade versus alternative analgesic strategies for pediatric inguinal hernia repair. J. Pediatr. Surg. 48(5), 1077–1085 (2013).Crossref, Medline, Google Scholar10 Abdallah FW, Brull R. The definition of block “success” in the contemporary literature: are we speaking the same language? Reg. Anesth. Pain Med. 37(5), 545–553 (2012).Crossref, Medline, Google Scholar11 MacLaren J, Kain ZN. Research to practice in pediatric pain: what are we missing? Pediatrics 122(2), 443–444 (2008).Crossref, Medline, Google Scholar12 Ingelmo PM, Bucciero M, Somaini M et al. Intraperitoneal nebulization of ropivacaine for pain control after laparoscopic cholecystectomy: a double-blind, randomized, placebo-controlled trial. Br. J. Anaesth. 110(5), 800–806 (2013).Crossref, Medline, CAS, Google Scholar13 Gonzalez KW, Dalton BG, Millspaugh D, Thomas PG, St Peter SD. Epidural versus patient-controlled analgesia after pediatric thoracotomy for malignancy: a preliminary review. Eur. J. Pediatr. Surg. doi:10.1055/s-0035-1554805 (2015) (Epub ahead of print).Medline, Google Scholar14 Suresh S, Chan VW. Ultrasound guided transversus abdominis plane block in infants, children and adolescents: a simple procedural guidance for their performance. Paediatr. Anaesth. 19(4), 296–299 (2009).Crossref, Medline, Google Scholar15 Di Pede A, Morini F, Lombardi MH et al. Comparison of regional vs systemic analgesia for post-thoracotomy care in infants. Paediatr. Anaesth. 24(6), 569–573 (2014).Crossref, Medline, Google Scholar16 Joshi GP, Schug SA, Kehlet H. Procedure-specific pain management and outcome strategies. Best Pract. Res. Clin. Anaesthesiol. 28(2), 191–201 (2014).Crossref, Medline, Google Scholar17 McGrath PJ, Walco GA, Turk DC et al. Core outcome domains and measures for pediatric acute and chronic/recurrent pain clinical trials: PedIMMPACT recommendations. J. Pain. 9(9), 771–783 (2008).Crossref, Medline, Google Scholar18 Fortier MA, Chou J, Maurer EL, Kain ZN. Acute to chronic postoperative pain in children: preliminary findings. J. Pediatr. Surg. 46(9), 1700–1705 (2011).Crossref, Medline, Google Scholar19 Shipton EA. The transition of acute postoperativ</t>
+          <t>In tonal music, continuous acoustic waveforms are mapped onto discrete, hierarchically arranged, internal representations of pitch. To examine the neural dynamics underlying this transformation, we presented male and female human listeners with tones embedded within a Western tonal context while recording their cortical activity using magnetoencephalography. Machine learning classifiers were then trained to decode different tones from their underlying neural activation patterns at each peristimulus time sample, providing a dynamic measure of their dissimilarity in cortex. Comparing the time-varying dissimilarity between tones with the predictions of acoustic and perceptual models, we observed a temporal evolution in the brain's representational structure. Whereas initial dissimilarities mirrored their fundamental-frequency separation, dissimilarities beyond 200 ms reflected the perceptual status of each tone within the tonal hierarchy of Western music. These effects occurred regardless of stimulus regularities within the context or whether listeners were engaged in a task requiring explicit pitch analysis. Lastly, patterns of cortical activity that discriminated between tones became increasingly stable in time as the information coded by those patterns transitioned from low-to-high level properties. Current results reveal the dynamics with which the complex perceptual structure of Western tonal music emerges in cortex at the timescale of an individual tone. SIGNIFICANCE STATEMENT Little is understood about how the brain transforms an acoustic waveform into the complex perceptual structure of musical pitch. Applying neural decoding techniques to the cortical activity of human subjects engaged in music listening, we measured the dynamics of information processing in the brain on a moment-to-moment basis as subjects heard each tone. In the first 200 ms after onset, transient patterns of neural activity coded the fundamental frequency of tones. Subsequently, a period emerged during which more temporally stable activation patterns coded the perceptual status of each tone within the “tonal hierarchy” of Western music. Our results provide a crucial link between the complex perceptual structure of tonal music and the underlying neural dynamics from which it emerges.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4247403066</t>
+          <t>https://openalex.org/W2103463753</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/apm.12041</t>
+          <t>https://doi.org/10.3109/19396368.2013.794253</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Kim et al. (2012)</t>
+          <t>Moshtaghion et al. (2013)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mutational analysis of &lt;i&gt;SATB1&lt;/i&gt; gene in hepatocellular carcinomas</t>
+          <t>Silymarin protects from varicocele-induced damages in testis and improves sperm quality: evidence for E2f1 involvement</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>To the Editor To the Editor The Special AT-rich Sequence-Binding protein 1 (SATB1) is a cell-type-specific organizer of the genome 1. SATB1 regulates gene expression in thymocytes and pre B-cells by binding to matrix attachment region (MAR) of DNA 2. MAR is a specific DNA sequence that binds to nuclear matrix in vitro and these sequences have been posited to form the base of chromosomal loops 3. It plays an important role in the organization of higher-order chromatin structure 4. SATB1 as a MAR-binding protein regulates the genes by folding chromatin into loop domain 5. Recent studies have shown that SATB1 promotes tumor growth and metastasis through chromatin gene recombination in breast cancer 6. Furthermore, SATB1 is not only overexpressed in a large number of human cancers, but is also an excellent prognostic marker in some cancers 7-10. All of these findings strongly imply that SATB1 is a possible candidate oncogene that it may contribute to carcinogenesis. Hepatocellular carcinoma (HCC) is one of the most common cancers in the world with the highest incidence in Southeast Asia and Africa. In Korea, it accounts for an estimated 12.2% of all malignancies, with 16.4% in the male population and 6.5% in the female population 11. The pathogenesis of HCC has been studied extensively, and molecular changes during malignant transformation have been identified. Hepatocarcinogenesis is considered as a multistep process originating from hepatic stem cells or mature hepatocytes 12. Genetic and epigenetic alterations leads to an activation of oncogenes and inhibition of tumor suppressor genes accompanied by an escalation of genetic instability and the disruption of signaling pathways related to the main promoters of hepatocarcinogenesis, namely cell proliferation and angiogenesis 13. Until now, mutation of the SATB1 gene has not been described in HCC. To investigate whether or not genetic alterations of SATB1 are involved in hepatocellular carcinogenesis, we searched for somatic mutation of the SATB1 gene in HCC. Hepatocellular carcinoma samples and their corresponding non-cancerous liver tissues of 38 patients were evaluated. This study was approved by the Institutional Review Boards at the Ulsan University Hospital. Frozen tissue samples were ground to a very fine powder in liquid nitrogen. Genomic DNA was prepared using a procedure based on a protocol described previously 14. Genomic DNA samples from cancer cells and corresponding non-cancerous liver tissues were amplified with 15 sets of primers covering the entire coding region (10 exons) of the SATB1 gene (Table 1). Numbering of DNA of the SATB1 was done in respect to the ATG start codon according to the genomic sequence of Genbank accession no. NM_002971. All PCR products in exons 2–11 of the SATB1 gene were screened by single strand conformation polymorphism (SSCP) analysis (Mutation Detection Enhancement; FMC BioProducts, Rockland, ME, USA) with 10% glycerol and sequencing analysis. We repeated the experiments three times to ensure the specificity of the results, and found that the data were consistent. In this study, we found one (2.6%) mutation in 38 HCC cases. The mutation was missense mutation: a AGT to AAT transition at codon 354 (S354N). S354N was found in exon 7A located within the MAR domain of the SATB1 gene. It has been reported that SATB1 recruits histone deacetylase complex to the MAR site inside the interleukin-2 receptor α gene 5. In addition, SATB1 regulates the expression of fetal globin genes by binding to MAR in the β-globin cluster 15. Thus, it is likely that the SATB1 mutation identified in cancer cells may contribute to the development of HCC by defect of protein-protein interaction. There was no mutation in corresponding normal DNAs of these tissues, indicating that the mutation detected in the cancer cells had arisen somatically. SSCP gels of these cases with mutation showed aberrantly migrating mutant bands with remaining wild-type bands, suggesting hemizygous mutations (Fig. 1). Thus, these results suggest that the mutation of the SATB1 gene maybe a rare event in the development of HCC in Korean population. Recent study revealed that SATB1 plays an important role in the development and progression of liver cancer through increase of cell cycle progression and defect in apoptosis 16. As SATB1 promotes tumor growth and metastasis in liver cancer, we presumed that mutation of SATB1 gene might affect not only cell cycle progression but also apoptosis pathway in liver cancer. Functional analysis of the mutation identified in this study will broaden our understanding of the pathogenesis of HCCs. This work was supported by Priority Research Center Program through the National Research Foundation of Korea (NRF) funded by the Ministry of Education, Science and Technology (2012-0717).</t>
+          <t>This study was designed to evaluate the protective effect of silymarin (SMN) on varicocele-induced damage in testis and its effects on sperm parameters and on antioxidant status. Wistar rats were divided into three groups: control-sham, varicocele-induced, and SMN-treated varicocelized (50mg/kg, orally) rats. The sperm count, DNA integrity, and histone-protamine transition was evaluated after 42 days. The antioxidant status was analyzed by determining testicular malondialdehyde (MDA) and total thiol molecules (TTM). The endocrine status of the testicular tissue was estimated by counting the normal Leydig cell distribution/mm(2) and by determination of serum testosterone. The expression of E2f1 mRNA was analyzed using RT-PCR. Carbohydrate depletion and lipid foci replacement in germinal cells were examined by histochemical analyses. Silymarin rehabilitated the varicocele-induced Leydig cell degeneration and testosterone reduction. In addition, SMN recovered the varicocele-induced reduction of TTM and lowered significantly (P &lt; 0.05) the varicocele-elevated content of MDA. The SMN treatment resulted in a significant (P &lt; 0.05) down-regulation of the VCL-up-regulated E2f1 mRNA. Silymarin-treated animals were protected from varicocele-induced testicular atrophy and these animals showed a significant (P &lt; 0.05) increase in the percentage of seminiferous tubules with positive tubular differentiation, repopulation, and spermiogenesis indices. Furthermore, SMN improved the varicocele-induced carbohydrate reduction in germinal cells. Our data suggest that in addition to oxidative stress, alteration in the testicular endocrine function plays a crucial role in the pathogenesis of varicocele. Moreover, the protective effects of SMN on varicocele-induced damage may reflect its antioxidant property, which may be mediated via the E2f1 transcription factor.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3118058104</t>
+          <t>https://openalex.org/W1967878505</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3892/ijo.22.1.59</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Adeyanju et al. (2019)</t>
+          <t>Badran et al. (2003)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Family Care Givers Educational Needs in the Care of the Home Dwelling Aged in Ikare-Akoko Community of Ondo State, Nigeria</t>
+          <t>Expression of the anti-apoptotic gene survivin in myelodysplastic syndrome</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Globally, the term family or informal caregiver refers to an unpaid family member, friend, or neighbour who provides care for ill or disabled aged who cannot do for themselves a variety of fundamental tasks due to loss of independence. The purpose of the study was to explore family caregivers' educational needs in the care of aged in Ikare-Akoko Ondo State, Nigeria. A mixed method research design was adopted and a multistage sampling methods were used to select fifty (50) participants for the quantitative descriptive phase and ten (10) participants for the qualitative explorative phase respectively . An observational check list was used to obtain data in the descriptive quantitative phase while an interview guide was used to guide the interview that helped to elicit qualitative data. The instruments were validated and reliability tested. Data were analysed with the aid of International Business Machine SPSS version 23. Descriptive statistics was done to generate frequencies and percentages of responses from the quantitative data while interview excerpts were subjected to content analysis. Major findings of the study showed that family caregivers' practical caregiving need is modest. They appreciably performed procedures on medication care, grooming, pain assessment, food preparation and moving patients. However, caregivers demonstrated inadequate skill in performing procedures on emergency resuscitation. The study also revealed that family caregivers perceived caregiving as merely assisting care recipients with ADL and administering medications. they were found to engage in risky practices which can be detrimental to the health of their older relatives, as well as to their own health. More so, family caregivers possess inadequate information about the illness and treatment of care of the aged. They also lack support and have deficient knowledge on where to get external support. Thus there is need for training on care of older relatives at home and how to access help and support from health and social care professionals. In this light, a health education program for family caregivers of aged in Ikare-Akoko could be based on the Melei's transition theory and should include content such as strategies to care for the aged transition from one life stage to another and to be adequately adapted to new roles among others.</t>
+          <t>Survivin is a member of the inhibitor of apoptosis protein (IAPs) family and considered to play a pivotal role in oncogenesis. We present the first report of survivin expression profile in myelodysplastic syndrome (MDS). Expression of survivin messenger RNA was evaluated by semi-quantitative reverse transcriptase-polymerase chain reaction (RT-PCR) in patients with MDS and acute myeloid leukemia (AML). Eleven out of 12 patients with refractory anemia (RA) (91.6%), and all 3 patients with refractory anemia with excess blasts in transformation (RAEBt) (100%), were positive for survivin expression with the majority of cases showing abundant levels of the survivin transcript. On the other hand, expression of survivin was undetectable in the 4 patients with chronic myelomonocytic leukemia (CMMoL). The level and frequency of survivin expression in patients with refractory anemia were compared to those in patients with AML. Out of 12 patients with de novo AML, 5 patients (41.7%) showed detectable levels of survivin expression. Abundant survivin expression in RA was also confirmed by immunohistochemistry. In contrast, survivin was almost absent in two cases with aplastic anemia. We propose that high levels of survivin expression can serve as a reliable diagnostic marker of RA in MDS.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W416137307</t>
+          <t>https://openalex.org/W4386101575</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acs.langmuir.5b01424</t>
+          <t>https://doi.org/10.1098/rsos.230150</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Melzak et al. (2015)</t>
+          <t>Pratiwi et al. (2023)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Chain Length and Grafting Density Dependent Enhancement in the Hydrolysis of Ester-Linked Polymer Brushes</t>
+          <t>Observation of viscous liquid flow in tobacco substrate during heating using optical coherence tomography</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Poly(N,N-dimethylacrylamide) (PDMA) brushes with different grafting density and chain length were grown from an ester group-containing initiator using surface-initiated polymerization. Hydrolysis of the PDMA chains from the surface was monitored by measuring thickness of the polymer layer by ellipsometry and extension length by atomic force microscopy. It was found that the initial rate of cleavage of one end-tethered PDMA chains was dependent on the grafting density and chain length; the hydrolysis rate was faster for high grafting density brushes and brushes with higher molecular weights. Additionally, the rate of cleavage of polymer chains during a given experiment changed by up to 1 order of magnitude as the reaction progressed, with a distinct transition to a lower rate as the grafting density decreased. Also, polymer chains undergo selective cleavage, with longer chains in a polydisperse brush being preferentially cleaved at one stage of the hydrolysis reaction. We suggest that the enhanced initial hydrolysis rates seen at high grafting densities and high chain lengths are due to mechanical activation of the ester bond connecting the polymer chains to the surface in association with high lateral pressure within the brush. These results have implications for the preparation of polymers brushes, their stability under harsh conditions, and the analysis of polymer brushes from partial hydrolysates.</t>
+          <t>The present study used optical coherence tomography (OCT) to monitor the dynamics of a highly viscous liquid in a porous tobacco substrate during heating. The OCT technique was integrated with a specially designed heating chamber and an air pump for measuring. Two transitional points in the liquid behaviours at different temperatures were estimated using OCT and statistical analysis of the attenuation coefficient. The first point, 'A', shows the time approximation at which the penetration-dominant zone transitions into the evaporation-dominant zone. The second point, 'B', indicates the time approximation at which rapid evaporation of free liquid transitions into slow evaporation of trapped and bound liquid. This analytical system is an alternative for tracking liquid transport in porous biomass during heating.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2386500431</t>
+          <t>https://openalex.org/W2007189927</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5209/rev_noma.2012.v34.n2.40744</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Li (2010)</t>
+          <t>Suárez (2013)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>A Comparative Study on Three Fusion Methods of SPOT-5 Data Analysis——A Case Study in Liujiang Town,Hongya County,Sichuan Province</t>
+          <t>Regionalismos en el marco de la Relaciones Internacionales del Siglo XXI</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>With the SPOT-5 and multi-spectral images of Liujiang Hongya county town as the materials,using the fusion method of PCA,Brovey and IHS transformation,this study carried out a fusion treatment of the SPOT-5 and multi-spectral images,which lay the foundation for project monitoring of conversion of cropland to forest.Then subjective and objective evaluation was given to the research results.The evaluation results showed that the spatial and spectral quality of the images obtained from the Brovey transforming fusion method was the best,appropriate for remote sensing monitor of hilly areas.</t>
+          <t>This article analyzes the phenomenon of regionalism and the transformations it has had throughout its history. It also investigates the variables that played a key role in building regionalism. It should be noted that after the Cold War regional groupings have expanded worldwide, largely due to the end of ideological confrontation, the processes of democratization that took effect in many countries of the world, transnational problems that affect regions, as well as the challenges inherent to globalization. The central objective of this paper is to evaluate the variables that promote the building of regional groupings as well as, assess why some regionalism are markedly successful and others fails. To this end, this article is based on game theory and neo-institutional theory</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2799407572</t>
+          <t>https://openalex.org/W1593058514</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3892/or.2015.4034</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bahrami (2018)</t>
+          <t>Zhou et al. (2015)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Talent Management Strategies and Innovation Climate in Isfahan University of Medical Sciences</t>
+          <t>Adrenomedullin promotes intrahepatic cholangiocellular carcinoma metastasis and invasion by inducing epithelial-mesenchymal transition</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Background: Talent management (TM) strategies are one of the most important factorsthat can change the innovation climate. The main aim of this research was to investigate theinfluence of TM strategies on innovation climate in Isfahan University of Medical Sciences.Methods: This was a cross-sectional study. The target population included all facultymembers. In this research, 242 faculty members were selected through accidental samplingmethod. Data collection instruments were TM strategies questionnaire based on Collings andMellahi’s model and innovation climate questionnaire based on Luthans et al. model. The data analysis was done using Pearson correlation, one way ANOVA, t-tests and regression model.Results: According to the results, TM strategies and innovation climates cores were 4.29±1.17 and 4.17±1.17, respectively. The results showed that there was a statistically significant relationship with TM strategies (open communication, employee development, rewards and recognitions, managing performance and open climate/culture) and innovation climate. As a result, all research hypotheses were confirmed.Conclusion: TM strategies are a comprehensive, department wide program designated toimprove the employees’ satisfaction, strengthen the workplace learning and help the employees better manage the changes and transitions. The study suggested that talent management strategies are a comprehensive, department wide program designated to improve the faculty member’s satisfaction, strengthen workplace learning and help the employees better manage the changes and transitions.Keywords: Talent management strategies, Organizational climate, Innovation climate</t>
+          <t>Intrahepatic cholangiocellular carcinoma (ICC) is the second most common type of primary liver cancer. However, its etiology and molecular pathogenesis remain largely unknown. The present study aimed to investigate the association between adrenomedullin (ADM) and epithelial-mesenchymal transition (EMT) in ICC and to elucidate the underlying signaling pathway. We evaluated the clinical significance of ADM in 133 ICC patients using tissue microarray analysis of ICC tissues. We also investigated the mechanisms of ADM in ICC EMT-mediated metastasis in cholangiocarcinoma cell lines in vitro. The results revealed that ADM was upregulated in human ICC tissues (73/133) compared with that in healthy controls. ADM expression was positively correlated with shorter overall survival (P&lt;0.01). The characteristics of EMT were induced in vitro by adenoviral transduction of ADM into HuCCT1 cells, resulting in the downregulation of E-cadherin and ZO-1, and the concomitant upregulation of N-cadherin and vimentin. Knockdown of ADM by short hairpin RNA in HUH28 cells expressing high levels of ADM was associated with the reversal of EMT. Functional studies revealed that ADM regulated the activation of ZEB1, which subsequently mediated EMT. The results of the present study suggest that ADM plays an important role in ICC metastasis, and that ADM signaling of EMT may represent a valuable therapeutic target in cancer patients.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W748750801</t>
+          <t>https://openalex.org/W4391502343</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.apenergy.2024.122751</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bonnett (1989)</t>
+          <t>Yu et al. (2024)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Applications of liquid crystals in aerodynamic testing</t>
+          <t>Multi-feature-fused generative neural network with Gaussian mixture for multi-step probabilistic wind speed prediction</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>﻿ This thesis investigates the applications of liquid crystals in three areas of aerodynamic testing, namely temperature, shear stress and pressure measurement over surfaces. The use of the selective reflection colours from encapsulated chiral nematic materials to map surface temperatures is assessed. This method is very successful in a wide range of applications for determining heat transfer rates, but has limitations where high heat transfer rates are present, due to the thermal response time of the material structure, and the effects of temperature gradients. The thermal time constant is determined as a function of material viscosity. It is typically 10ms for a chiral nematic material at room temperature. The effect of a temperature gradient on the selective reflection is studied in terms of the pitch gradient produced in the material structure. Two improved methods are then proposed. The first makes use of the cholesteric to isotropic transition to indicate an isotherm on a heated surface, while the second uses changes in the birefringence colours produced by an aligned nematic layer applied to a surface and viewed between crossed poiarisers. Changes in the selective reflection colours from cholesteric liquid crystals can be used to assess surface shear stress levels. This method is assessed and determined to be too problematical for accurate measurements. A new method is proposed, based on the shear induced texture change from the focal-conic to the Grandjean texture in the cholesteric phase. This method may be used to quantify surface shear stress levels as well as to provide excellent flow visualisation once flow alignment has occurred. Tests have been conducted on the pressure sensitivity of chiral nematic liquid crystal materials. The results indicate that the change in transition temperature with pressure is of the order of 40°/kbar. which may not be sensitive enough for wind tunnel purposes.</t>
+          <t>Wind speed prediction is a crucial element of effective wind energy utilization, necessitating the use of probabilistic wind speed prediction to facilitate practical decision-making. However, most current deep learning generative models neglect to incorporate frequency information. To address this issue, this study proposes a generative model neural network that utilizes multi-feature fusion and Gaussian mixture techniques. The proposed model leverages wavelet transformation, which is represented as a weight matrix, in combination with several convolution operations to extensively explore the fundamental features of wind speed time series. Prior to multi-step prediction, target values are modeled as a multi-dimensional Gaussian mixture distribution, with the extracted characteristics mapped onto crucial distribution parameters. Monte Carlo sampling is then used to complete the wind speed probability prediction. Furthermore, the study develops a loss function and a two-stage training strategy for this network. The performance of the proposed model is compared to that of ten state-of-the-art models using actual wind speed time series and six typical error indices. The results demonstrate that the proposed model provides both more accurate deterministic predictions and more meaningful probabilistic forecasts than other examined models for various prediction.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1996011871</t>
+          <t>https://openalex.org/W4247403066</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2514/3.7184</t>
+          <t>https://doi.org/10.1111/apm.12041</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Andrus (1976)</t>
+          <t>Kim et al. (2012)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Elliptic integral solutions to a class of space flight optimization problems</t>
+          <t>Mutational analysis of &lt;i&gt;SATB1&lt;/i&gt; gene in hepatocellular carcinomas</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>This paper is initially concerned with the minimum-time, exoatmospheric flight of a rocket with constant thrust acceleration magnitude, as in the cases of nuclear and solar electric propulsion. Gravitational acceleration is assumed to be a constant scalar multiple of the radius vector, plus a correction term which is a given function of time. The solution to the state equations is obtained in terms of elliptic integrals. A method is presented for the solution of the two-point boundary-condition problem associated with orbital transfer. At most, the latter method requires iteration upon final time, angle of injection, and two other parameters which are bounded. An example problem is provided which involves a rocket with very low thrust and a spiraling trajectory of many revolutions, but an altitude change of only several hundred miles above the earth. Finally, the original elliptic integral solution is extended to a larger class of low and intermediate thrust problems with constant thrust magnitude, mass decreasing with time, and an inverse square gravitational force.</t>
+          <t>To the Editor To the Editor The Special AT-rich Sequence-Binding protein 1 (SATB1) is a cell-type-specific organizer of the genome 1. SATB1 regulates gene expression in thymocytes and pre B-cells by binding to matrix attachment region (MAR) of DNA 2. MAR is a specific DNA sequence that binds to nuclear matrix in vitro and these sequences have been posited to form the base of chromosomal loops 3. It plays an important role in the organization of higher-order chromatin structure 4. SATB1 as a MAR-binding protein regulates the genes by folding chromatin into loop domain 5. Recent studies have shown that SATB1 promotes tumor growth and metastasis through chromatin gene recombination in breast cancer 6. Furthermore, SATB1 is not only overexpressed in a large number of human cancers, but is also an excellent prognostic marker in some cancers 7-10. All of these findings strongly imply that SATB1 is a possible candidate oncogene that it may contribute to carcinogenesis. Hepatocellular carcinoma (HCC) is one of the most common cancers in the world with the highest incidence in Southeast Asia and Africa. In Korea, it accounts for an estimated 12.2% of all malignancies, with 16.4% in the male population and 6.5% in the female population 11. The pathogenesis of HCC has been studied extensively, and molecular changes during malignant transformation have been identified. Hepatocarcinogenesis is considered as a multistep process originating from hepatic stem cells or mature hepatocytes 12. Genetic and epigenetic alterations leads to an activation of oncogenes and inhibition of tumor suppressor genes accompanied by an escalation of genetic instability and the disruption of signaling pathways related to the main promoters of hepatocarcinogenesis, namely cell proliferation and angiogenesis 13. Until now, mutation of the SATB1 gene has not been described in HCC. To investigate whether or not genetic alterations of SATB1 are involved in hepatocellular carcinogenesis, we searched for somatic mutation of the SATB1 gene in HCC. Hepatocellular carcinoma samples and their corresponding non-cancerous liver tissues of 38 patients were evaluated. This study was approved by the Institutional Review Boards at the Ulsan University Hospital. Frozen tissue samples were ground to a very fine powder in liquid nitrogen. Genomic DNA was prepared using a procedure based on a protocol described previously 14. Genomic DNA samples from cancer cells and corresponding non-cancerous liver tissues were amplified with 15 sets of primers covering the entire coding region (10 exons) of the SATB1 gene (Table 1). Numbering of DNA of the SATB1 was done in respect to the ATG start codon according to the genomic sequence of Genbank accession no. NM_002971. All PCR products in exons 2–11 of the SATB1 gene were screened by single strand conformation polymorphism (SSCP) analysis (Mutation Detection Enhancement; FMC BioProducts, Rockland, ME, USA) with 10% glycerol and sequencing analysis. We repeated the experiments three times to ensure the specificity of the results, and found that the data were consistent. In this study, we found one (2.6%) mutation in 38 HCC cases. The mutation was missense mutation: a AGT to AAT transition at codon 354 (S354N). S354N was found in exon 7A located within the MAR domain of the SATB1 gene. It has been reported that SATB1 recruits histone deacetylase complex to the MAR site inside the interleukin-2 receptor α gene 5. In addition, SATB1 regulates the expression of fetal globin genes by binding to MAR in the β-globin cluster 15. Thus, it is likely that the SATB1 mutation identified in cancer cells may contribute to the development of HCC by defect of protein-protein interaction. There was no mutation in corresponding normal DNAs of these tissues, indicating that the mutation detected in the cancer cells had arisen somatically. SSCP gels of these cases with mutation showed aberrantly migrating mutant bands with remaining wild-type bands, suggesting hemizygous mutations (Fig. 1). Thus, these results suggest that the mutation of the SATB1 gene maybe a rare event in the development of HCC in Korean population. Recent study revealed that SATB1 plays an important role in the development and progression of liver cancer through increase of cell cycle progression and defect in apoptosis 16. As SATB1 promotes tumor growth and metastasis in liver cancer, we presumed that mutation of SATB1 gene might affect not only cell cycle progression but also apoptosis pathway in liver cancer. Functional analysis of the mutation identified in this study will broaden our understanding of the pathogenesis of HCCs. This work was supported by Priority Research Center Program through the National Research Foundation of Korea (NRF) funded by the Ministry of Education, Science and Technology (2012-0717).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2810285687</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1538-7445.am2018-2424</t>
+          <t>https://openalex.org/W3118058104</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Zeballos et al. (2018)</t>
+          <t>Adeyanju et al. (2019)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Abstract 2424: Hepatocellular carcinoma in the South Texas Latino population: Implications of STEAP2</t>
+          <t>Family Care Givers Educational Needs in the Care of the Home Dwelling Aged in Ikare-Akoko Community of Ondo State, Nigeria</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Abstract Introduction: Hepatocellular carcinoma (HCC) is the most common type of liver cancer in adults and the third most common cause of cancer death worldwide; while incidence and mortality rates are two times higher in Latinos, incidence rates are the highest among Latinos in the South Texas region. The genetic and epigenetic events associated with the increased incidence of HCC in this population are largely unknown. We performed whole genome RNA sequencing in paired HCC tumor and adjacent non-tumor tissue total RNA from nine South Texas Latino patients. Analysis of differentially expressed genes revealed significant alterations in pathways associated with oxidative stress; most importantly, we found that the expression of STEAP2 (Six Transmembrane Epithelial Antigen of the Prostate 2) is increased five-fold in HCC tumor tissue compared to adjacent non-tumor tissue. In comparison to a non-Latino population, this finding was unique to South Texas Latinos. STEAP2 is a metalloreductase of iron and copper; reduced iron and copper ions can mediate the production of hydroxyl radicals resulting in increased oxidative stress, which can cause DNA damage and lipid peroxidation. We aim to prove that STEAP2 through regulation of iron and copper homeostasis, and an increase in oxidative stress, will lead to malignant transformation of hepatocytes resulting in tumor progression of HCC, including in obese hosts. Material and Methods: Latino paired HCC and adjacent non-tumor tissues were collected for RNA sequencing, metal ion measurement and oxidative stress markers. STEAP2 RNA and protein expression levels in Latino and Caucasian samples were evaluated by RT-PCR, Western blot, and immunohistochemistry. HCC cell lines (SNU398 and HUH7) with knockdown (KD) and overexpression (OE) of STEAP2 were created to examine the proliferation, migration, anchorage independent growth, and oxidative stress in vitro. Results: Analysis of RNA sequencing data demonstrated the overexpression of STEAP2 in HCC tumors in Latino patients, which were validated by RT-PCR and Western blot data. Lipid peroxidation product, 4-hydroxynonenal, and copper levels were higher in HCC tumor vs. adjacent tissue. KD of STEAP2 in the HCC cell lines decreased proliferation, migration and anchorage independent growth, while OE of STEAP2 increase migration and anchorage independent growth but not proliferation. Conclusions: STEAP2 is specifically overexpressed in HCC tumors in Latinos in comparison to HCC tumors in non-Latino whites and appears to play a malignant-promoting role in HCC cells. Further studies on the role of STEAP2 as a novel tumor promoter in HCC and the mechanisms by which it promotes carcinogenesis are underway. The proposed studies will likely yield mechanistic insights into the molecular mechanisms that drive HCC development and progression in South Texas Latinos and potential therapeutic targets. Citation Format: Carla Zeballos, Hakim Bouamar, Guixi Zheng, Xiang Gu, Yidong Chen, Francisco G. Cigarroa, Lu-Zhe Sun. Hepatocellular carcinoma in the South Texas Latino population: Implications of STEAP2 [abstract]. In: Proceedings of the American Association for Cancer Research Annual Meeting 2018; 2018 Apr 14-18; Chicago, IL. Philadelphia (PA): AACR; Cancer Res 2018;78(13 Suppl):Abstract nr 2424.</t>
+          <t>Globally, the term family or informal caregiver refers to an unpaid family member, friend, or neighbour who provides care for ill or disabled aged who cannot do for themselves a variety of fundamental tasks due to loss of independence. The purpose of the study was to explore family caregivers' educational needs in the care of aged in Ikare-Akoko Ondo State, Nigeria. A mixed method research design was adopted and a multistage sampling methods were used to select fifty (50) participants for the quantitative descriptive phase and ten (10) participants for the qualitative explorative phase respectively . An observational check list was used to obtain data in the descriptive quantitative phase while an interview guide was used to guide the interview that helped to elicit qualitative data. The instruments were validated and reliability tested. Data were analysed with the aid of International Business Machine SPSS version 23. Descriptive statistics was done to generate frequencies and percentages of responses from the quantitative data while interview excerpts were subjected to content analysis. Major findings of the study showed that family caregivers' practical caregiving need is modest. They appreciably performed procedures on medication care, grooming, pain assessment, food preparation and moving patients. However, caregivers demonstrated inadequate skill in performing procedures on emergency resuscitation. The study also revealed that family caregivers perceived caregiving as merely assisting care recipients with ADL and administering medications. they were found to engage in risky practices which can be detrimental to the health of their older relatives, as well as to their own health. More so, family caregivers possess inadequate information about the illness and treatment of care of the aged. They also lack support and have deficient knowledge on where to get external support. Thus there is need for training on care of older relatives at home and how to access help and support from health and social care professionals. In this light, a health education program for family caregivers of aged in Ikare-Akoko could be based on the Melei's transition theory and should include content such as strategies to care for the aged transition from one life stage to another and to be adequately adapted to new roles among others.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2378286780</t>
+          <t>https://openalex.org/W2749959281</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.optmat.2017.08.015</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cao &amp; Sun (2004)</t>
+          <t>Mohan et al. (2017)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Design of 60 km Dispersion Compensation 8×50 GHz Fiber Grating Comb- filter</t>
+          <t>Structural and luminescence properties of samarium doped lead alumino borate glasses</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A novel chirped fiber Bragg grating(CFBG) comb filter for eight-channel 50 GHz DWDM-channel separations and 60 km dispersion compensation was proposed.The index modulating function and chirp parameter distribution of the CFBG were synthesized by layer-peeling(LP) inverse scattering(IS) technique.According to the coupling coefficient calculated for the synthesized grating,reflection spectrum,group delay and group delay ripper were analyzed based on the method of transformation matrix.The results show that the CFBGs not only satisfy all requirements and could be fabricated with existing techniques.</t>
+          <t>The study reports the effect of samarium concentration on the physical, structural and spectroscopic characteristics of samarium doped lead alumino borate glasses having composition 20PbO-(10-x)Al2O3-70B2O3-xSm2O3; x = 0.1, 0.5, 1.0 and 2.0 mol %. The glasses were fabricated by conventional melt-quenching technique and then characterized by XRD, FTIR, optical absorption and fluorescence spectra. X-ray diffraction studies confirmed the amorphous nature of the prepared glasses. FTIR spectra indicate the presence of BO3, BO4, AlO6 and a few other structural groups. Various physical properties such as density, molar volume, refractive index, rare earth ion concentration, boron-boron distance and polarizability etc. were determined using conventional methods and standard formulae. The Judd-Ofelt theory was applied on the optical absorption spectra of the glasses to evaluate the three phenomenological intensity parameters Ω2, Ω4 and Ω6. The value of Ω2 was found to be highest for glass with 1 mol% Sm2O3 and attributed to the asymmetry of the ligand field at the rare earth ion site and the rare earth oxygen (Sm-O) covalency. The calculated intensity parameters and fluorescence spectra were further used to predict the radiative transition probability (A), radiative lifetime (τR), branching ratio (βR), peak wavelength (λp), effective line widths (Δλeff) and stimulated emission cross-section (σ) for the characteristic 4G5/2 → 6H5/2, 6H7/2 and 6H9/2 transitions of the Sm3+ ion. Concentration quenching was observed for 2 mol% concentration of Sm2O3 and ascribed to energy transfer through various cross-relaxation channels between Sm3+ ions. Reasonably high values of branching ratios and stimulated emission cross-section for the prepared glasses points towards their utility in the development of visible lasers emitting in the reddish-orange spectral region. However, the glass with 1 mol% Sm2O3 was found to show better radiative properties.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3038121166</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1049/iet-pel.2020.0404</t>
+          <t>https://openalex.org/W2386500431</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Zhang et al. (2020)</t>
+          <t>Li (2010)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Energy management strategy with two degrees of freedom for hybrid energy storage systems in islanded DC microgrids</t>
+          <t>A Comparative Study on Three Fusion Methods of SPOT-5 Data Analysis——A Case Study in Liujiang Town,Hongya County,Sichuan Province</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>IET Power ElectronicsVolume 13, Issue 14 p. 3171-3179 Research Article Free Access Energy management strategy with two degrees of freedom for hybrid energy storage systems in islanded DC microgrids Yuhan Zhang, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorGuiping Du, Corresponding Author gpdu@scut.edu.cn School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorYanxiong Lei, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this author Yuhan Zhang, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorGuiping Du, Corresponding Author gpdu@scut.edu.cn School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this authorYanxiong Lei, School of Electric Power, South China University of Technology, Guangzhou, 510641 People's Republic of ChinaSearch for more papers by this author First published: 01 November 2020 https://doi.org/10.1049/iet-pel.2020.0404Citations: 2 AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinked InRedditWechat Abstract In this study, a novel energy management strategy (EMS) with two degrees of freedom is proposed for hybrid energy storage systems consisting of supercapacitor (SC) and battery in islanded microgrids. The proposal introduces two degrees of freedom including an adaptive high-pass filter cut-off frequency f c and a charge/discharge coefficient k b, according to the SC and battery state of charge (SOC), respectively. The f c regulates SC current in the transient process and the k b controls battery current in the steady-state. Therefore, appropriate power distribution that the SC suppresses the transient power fluctuations while the battery supports average power demand is realised, over-charging, and over-discharging are avoided and the current stress of the battery during the shut-down process is reduced. Moreover, three operation modes for isolated DC microgrids, comprising power-sharing mode, battery-only mode, and extreme mode are demonstrated. Hence, the DC microgrid can remain stable for the whole time, achieve seamless transitions from the power-sharing mode to the two others, and provide faster SOC recovery of the SC. The effectiveness of the proposed EMS is validated by experimental studies with a prototype of the simplified DC microgrid. Nomenclature f c adaptive high-pass filter cut-off frequency k b charge/discharge coefficient SOCSC, DODSC SC state of charge and depth of discharge tk −1, tk, tk +1 (k − 1)th, k th, and (k + 1)th time instance SOCb battery state of charge SOCSC_min, SOCSC_max SC SOC minimum and maximum limits SOCb_min, SOCb_low, SOCb_high, SOCb_max battery SOC minimum, low, high, and maximum limits V dc, V dc _ ref, V err DC bus actual voltage, voltage reference, and voltage deviation i SC_s, i b_s SC and battery current settings 1 Introduction Owing to the energy shortage and environmental pollution caused by the massive use of fossil fuel, people have realised the importance of renewable energy sources (RESs), such as solar photovoltaic (PV) and wind [1]. To utilise these RESs more efficiently and economically, microgrids have been implemented [2]. However, the volatility and intermittent of RESs result in power mismatch, voltage fluctuations, and system instability in DC microgrids. Therefore, the energy storage systems (ESSs) are deployed in DC microgrids to address the aforementioned issues [3]. Ideal energy storage is required to have high energy and power density, long cycle life, fast dynamic response etc. However, no existing energy storage can meet all requirements simultaneously [4, 5]. Fig. 1 presents the Ragone chart describing the power and energy density of different energy storage [6]. Therefore, various energy storages with different characteristics are combined to form the hybrid ESS (HESS). Among different configurations of HESS, the combination of the supercapacitor (SC) and the battery is the most mainstream [7]. In Fig. 1, the SC has high-power density and short charge/discharge time, while the battery has a relatively high-energy density with a slow dynamic response. Thus, the SC is utilised to suppress the transient power fluctuations and the batter</t>
+          <t>With the SPOT-5 and multi-spectral images of Liujiang Hongya county town as the materials,using the fusion method of PCA,Brovey and IHS transformation,this study carried out a fusion treatment of the SPOT-5 and multi-spectral images,which lay the foundation for project monitoring of conversion of cropland to forest.Then subjective and objective evaluation was given to the research results.The evaluation results showed that the spatial and spectral quality of the images obtained from the Brovey transforming fusion method was the best,appropriate for remote sensing monitor of hilly areas.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4320516614</t>
+          <t>https://openalex.org/W2978505812</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/978-1-80382-517-520231011</t>
+          <t>https://doi.org/10.7232/iems.2019.18.3.563</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lehr &amp; Vaughan (2023)</t>
+          <t>Semin et al. (2019)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Humanistic Leadership and its Enduring Legacy in a Post-Covid-19 World</t>
+          <t>Investigating the Competitiveness of the Russian Oilfield Services Market</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>As societies worldwide continue to navigate and recover from the impacts of the Covid-19 pandemic, the world is at a unique crossroads. How can leaders in higher education institutions (HEIs) prioritize holistic human needs and maximize interpersonal and collegial human connection, while continuing to guide and grow successful learning communities both in-person and virtually? With potential costs and benefits in mind, pertinent literature is reviewed, and the limitations and silver linings presented by the ongoing pandemic are explored. Different forms of grief and loss experienced by faculty and students as well as the effects of technostress amid this time of change are also recognized. Concepts and practices introduced by prominent humanistic thought-leaders are discussed as a way to navigate the educational impacts created by the pandemic. A key finding presented is that leaders and HEIs that prioritize human connections and relationships, in concert with adopting technological advancements, are better equipped to maintain personal well-being while enhancing academic success in the long term. By fostering learning environments based on psychological safety, compassion, autonomy, and adaptability, humanistic leaders contribute to the betterment of HEIs as a whole. To this end, the enduring legacy of humanistic leadership is pivotal in this new era of global and individual humanistic transformation amid change.</t>
+          <t>Amidst the worldwide transformation of energy markets, competition in the global oil services sector has intensified, exposing the Russian oilfield services market to many challenges and risks. This study determines the ranking of the Russian oil services market at the global level. We employ expert assessments to identify relevant factors and indicators for evaluating competitive advantages in the oilfield industry. Using additive design and Saaty’s hierarchy analysis method, we determine the hierarchical structure of the factors influencing the development of oil services on the overall level of competitiveness of the oil services market. Using the integral analysis method, we develop a universal model for assessing competitiveness in the oilfield industry. Application of the model reveals that Russia ranked eighth among its main global competitors in 2017, and ranked ninth in terms of development growth rates for the period from 2007 to 2017. Practical implementation of the proposed measures can help monitor and address the major detrimental factors (i.e., decline in investments, high taxation, primitive technology, and high proportion of foreign service providers) affecting the development of Russia’s oilfield services market, the elimination of which may raise Russia’s status as an energy leader.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3183546188</t>
+          <t>https://openalex.org/W3037811040</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.msea.2021.141796</t>
+          <t>https://doi.org/10.1021/acs.inorgchem.0c00834</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mandal et al. (2021)</t>
+          <t>Ibáñez et al. (2020)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Effect of coiling temperature on impact toughness of hot rolled ultra-high-strength multiphase steel strips</t>
+          <t>Structural and Lattice-Dynamical Properties of Tb&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;3&lt;/sub&gt; under Compression: A Comparative Study with Rare Earth and Related Sesquioxides</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>The tensile and Charpy impact properties of four strip samples from two different B-added low-C ultra-high-strength steel strips (Al-treated and Ti-treated), coiled at two different temperature ranges (360-380C and 450-460C), have been evaluated and correlated to the microstructural parameters, dislocation density, and the intensity of high-angle boundaries.The effects of coiling temperatures on the microstructural evolution and mechanical properties have been discussed.The volume fraction of the individual phase constituents (namely, granular bainite, upper bainite, lower bainite and tempered martensite) and their hardness, local deformation response and the strain-hardening ability, as determined from nanoindentation testing, influenced the bulk properties such as hardness, tensile properties (strength and ductility), Charpy impact properties (upper shelf energy, USE, and ductile-to-brittle transition temperature, DBTT) and strain-hardening abilities under both quasi-static and dynamic loading conditions.The dominance of granular bainite and upper bainite (75-90%) reduced the strength (670-722 MPa yield strength), improved ductility (16.7 -19.5% elongation to failure) and USE (35-42 J) in the samples coiled at the higher temperatures.In contrast, a higher fraction of tempered martensite and lower bainite (78-82%) significantly increased the strength (808-814 MPa), reduced ductility (13.0-14.5%)and USE (19-29 J) in the lower temperature coiled samples.The DBTT showed a complex trend with the microstructural parameters.It depended on the USE level, as well as on the 'effective grain size' of the matrix.</t>
+          <t>We report a joint experimental and theoretical investigation of the high pressure structural and vibrational properties of terbium sesquioxide (Tb2O3). Powder X-ray diffraction and Raman scattering measurements show that cubic Ia3̅ (C-type) Tb2O3 undergoes two phase transitions up to 25 GPa. We observe a first irreversible reconstructive transition to the monoclinic C2/m (B-type) phase at ∼7 GPa and a subsequent reversible displacive transition from the monoclinic to the trigonal P3̅m1 (A-type) phase at ∼12 GPa. Thus, Tb2O3 is found to follow the well-known C → B → A phase transition sequence found in other cubic rare earth sesquioxides with cations of larger atomic mass than Tb. Our ab initio theoretical calculations predict phase transition pressures and bulk moduli for the three phases in rather good agreement with experimental results. Moreover, Raman-active modes of the three phases have been monitored as a function of pressure, while lattice-dynamics calculations have allowed us to confirm the assignment of the experimental phonon modes in the C- and A-type phases as well as to make a tentative assignment of the symmetry of most vibrational modes in the B-type phase. Finally, we extract the bulk moduli and the Raman-active mode frequencies together with their pressure coefficients for the three phases of Tb2O3. These results are thoroughly compared and discussed in relation to those reported for rare earth and other related sesquioxides as well as with new calculations for selected sesquioxides. It is concluded that the evolution of the volume and bulk modulus of all the three phases of these technologically relevant compounds exhibit a nearly linear trend with respect to the third power of the ionic radii of the cations and that the values of the bulk moduli for the three phases depend on the filling of the f orbitals.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2371798101</t>
+          <t>https://openalex.org/W3144193599</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48550/arxiv.2104.01342</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Zhuang-ru (2015)</t>
+          <t>Xue et al. (2021)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Research on Regional Differences in the Effectiveness of Economical and Intensive Use of Urban Land Policy in China: Analysis and Suggestions of Questionnaire Based on 105 Urban Land Price Monitoring Points</t>
+          <t>Ultrasonic monitoring of stress and cracks of the 1/3 scale mock-up of nuclear reactor concrete containment structure</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Vigorously promoting the economical and intensive use of land is determined by the basic national conditions of China that large number of people and less land. It is also an important way to promote economic transformation and upgrading,speed up the construction of ecological civilization,construct of the new urbanization and ensure the economic and social sustainable development.To systematically evaluate the implementation effect of the economical and intensive use of urban land policy since 2008,this paper conducted a questionnaire survey to the staff of 105 urban land price monitoring points. Entropy theory and dissipation model were innovatively used to do the comparative analysis on the effectiveness of economical and intensive use of urban land policy between eastern,middle and western China. The concept of policy entropy was put forward. Through analysis and calculation,the below conclusions could be drawn. Firstly,the policy of economical and intensive use of urban land in China has good effects. Economic efficiency,social efficiency and administrative efficiency have made some achievements. The land use efficiency has been improved.Secondly,the total efficiency of policy in the western region is higher than that in eastern and central regions,suggesting that the policy effect not only depends on the level of economic development,but also are affected by the other factors,such as regional policy enforcement,resources endowment,the ecological environment and population density. Thirdly,social efficiency of policy is lower than economic efficiency and administrative efficiency. It shows that the effectiveness of the policy implementation does not reach the public's expectations on the various indicators. It is necessary to further develop and refine the related policices of economical and intensive use of land according to different regions. Finally,suggestions are given,such as strengthening policy implementation,taking more governance performance assessment methods, and perfecting the relevant supporting policies and supervision mechanism optimization.</t>
+          <t>To evaluate the stress level and damage of a reinforced concrete containment wall and its reaction to pressure variations, we implemented successive ultrasonic experiments on the exterior surface of the containment wall in the gusset area for three consecutive years. During each experiment, the pressure inside the containment wall increased gradually from 0 MPa to 0.43 MPa and then decreased back to 0 Mpa.From the analysis of the ultrasonic coda waves obtained in the multiple scattering regime, we performed Coda Wave Interferometry to calculate the apparent velocity changes in the structure (denoted by $dV/V_a$) and Coda Wave Decorrelation (DC) measurements to produce 3D cartographies of stress and crack distribution. From three source-receiver pairs, located at the top, middle and bottom of the experimental region, we observe that coda waves dilate, shrink and remain almost unchanged, respectively. This corresponds to the decreasing, increasing and invariant pressure inside the concrete. The comparison of three years' results demonstrates that the variation of $dV/V_a$ and DC under the same pressure test increases through the years, which indicates the progressive deterioration and aging of the concrete. From a large collection of source-receiver pairs at different times, the spatial-temporal variations of $dV/V_a$ and DC are then used to produce a map of the structural velocity and scattering changes, respectively. We observe a decreasing velocity on the top part and an increasing in the middle one, which is in line with the $dV/V_a$ analysis. The reconstructed scattering changes (or structural changes) highlight the active region during the inflation-deflation procedure, corresponding to the opening and closing (and sometimes the development) of cracks. The larger magnitude in 2019 than in 2017 indicates the increasing damage in the concrete.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322096882</t>
+          <t>https://openalex.org/W3142894125</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/1759720x221131604</t>
+          <t>https://doi.org/10.48550/arxiv.2104.00755</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Migliore et al. (2023)</t>
+          <t>Martins (2021)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Early Osteoarthritis Questionnaire (EOAQ): a tool to assess knee osteoarthritis at initial stage</t>
+          <t>Reconciling the Discrete-Continuous Divide: Towards a Mathematical Theory of Sparse Communication</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Early stage of osteoarthritis (OA) is characterized by joint stiffness and pain as well as by subclinical structural changes that may affect cartilage, synovium, and bone. At the moment, the lack of a validated definition of early osteoarthritis (EOA) does not allow to make an early diagnosis and adopt a therapeutic strategy to slow disease progression. Also, no questionnaires are available to evaluate the early stage, and therefore this remains an unmet need.Therefore, the purpose of the technical experts panel (TEP) of 'International Symposium of intra-articular treatment' (ISIAT) was to create a specific questionnaire to evaluate and monitor the follow-up and clinical progress of patients affected by early knee OA.The items for the Early Osteoarthritis Questionnaire (EOAQ) were identified according to the following steps: items generation, items reduction, and pre-test submission.During the first step, literature has been reviewed and a comprehensive list of items about pain and function in knee EOA was drafted. Then, during the ISIAT (5th edition 2019), the draft has been discussed by the board, which reformulated, deleted, or subdivided some of the items. After the ISIAT symposium, the draft was submitted to 24 subjects affected by knee OA. A score based on the importance and the frequency was created and the items with a score ⩾0.75 were selected. After intermediate evaluation made by a sample of patients, the second and final version of the questionnaire EOAQ was submitted to the whole board for final analysis and acceptance in a second meeting (29 January 2021).After an exhaustive elaboration, the final version of the questionnaire contains two domains (Clinical Features and Patients Reported Outcome) with respectively 2 and 9 questions, for a total of 11 questions. Questions mainly explored the fields of early symptoms and patients reported outcomes. Marginally, the need of the symptoms treatment and the use of painkillers were investigated.Adoption of diagnostic criteria of early OA is strongly encouraged and a specific questionnaire for the whole management of the clinical features and patients' outcome might really improve the evolution of OA in the early stages of the disease, when the treatment is expected to be more effective.</t>
+          <t>Neural networks and other machine learning models compute continuous representations, while humans communicate with discrete symbols. Reconciling these two forms of communication is desirable to generate human-readable interpretations or to learn discrete latent variable models, while maintaining end-to-end differentiability. Some existing approaches (such as the Gumbel-softmax transformation) build continuous relaxations that are discrete approximations in the zero-temperature limit, while others (such as sparsemax transformations and the hard concrete distribution) produce discrete/continuous hybrids. In this paper, we build rigorous theoretical foundations for these hybrids. Our starting point is a new "direct sum" base measure defined on the face lattice of the probability simplex. From this measure, we introduce a new entropy function that includes the discrete and differential entropies as particular cases, and has an interpretation in terms of code optimality, as well as two other information-theoretic counterparts that generalize the mutual information and Kullback-Leibler divergences. Finally, we introduce "mixed languages" as strings of hybrid symbols and a new mixed weighted finite state automaton that recognizes a class of regular mixed languages, generalizing closure properties of regular languages.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391651289</t>
+          <t>https://openalex.org/W2556968239</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.saa.2024.124006</t>
+          <t>https://doi.org/10.5751/es-01595-110118</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Gül et al. (2024)</t>
+          <t>Olsson et al. (2006)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>BODIPY precursors and their cyclotriphosphazene Derivatives: Synthesis, photochemical properties and their application in PDT</t>
+          <t>Shooting the Rapids: Navigating Transitions to Adaptive Governance of Social-Ecological Systems</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Photodynamic therapy (PDT) is a treatment method consisting of common combination of oxygen, light energy and a light absorbing molecule called a photosensitizer. In this work, four new compounds consisting of BODIPY precursors and BODIPY-cyclotriphosphazene derivatives were synthesized to investigate the PDT effects. The chemical structures of the compounds were characterized and then their photophysical properties were determined by spectroscopic techniques. The precursor BODIPYs and their cyclotriphosphazene derivatives exhibited similar properties such as strong absorption intensity, high photostability and low fluorescence profile in the NIR region. Additionally, the singlet oxygen production capacities of these compounds were determined using the photobleaching technique of 1,3-diphenylisobenzofuran (DPBF) under light illumination. By introducing iodine atoms into the molecule, which are responsible for the intersystem transition (ISC) enhancement, a more efficient singlet oxygen production was achieved in both the iodinated-BODIPY and its cyclotriphosphazene derivative. Anticancer activities of the precursor BODIPYs and their cyclotriphosphazene derivatives in the absence and presence of light illumination were evaluated on cancerous cell lines (PC3 and DU145) and non-tumorigenic prostate epithelial PNT1a cell. The compounds triggered the death of cancer cell PC3 the more significantly in the presence of red light compared to the healthy cells (PNT1a).</t>
+          <t>The case studies of Kristianstads Vattenrike, Sweden; the Northern Highlands Lake District and the Everglades in the USA; the Mae Nam Ping Basin, Thailand; and the Goulburn-Broken Catchment, Australia, were compared to assess the outcome of different actions for transforming social-ecological systems (SESs).The transformations consisted of two phases, a preparation phase and a transition phase, linked by a window of opportunity.Key leaders and shadow networks can prepare a system for change by exploring alternative system configurations and developing strategies for choosing from among possible futures.Key leaders can recognize and use or create windows of opportunity and navigate transitions toward adaptive governance.Leadership functions include the ability to span scales of governance, orchestrate networks, integrate and communicate understanding, and reconcile different problem domains.Successful transformations rely on epistemic and shadow networks to provide novel ideas and ways of governing SESs.We conclude by listing some rules of thumb" that can help build leadership and networks for successful transformations toward adaptive governance of social-ecological systems.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2024732800</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/0158791900110107</t>
+          <t>https://openalex.org/W1563780512</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Stack (1990)</t>
+          <t>Wu &amp; Aberer (2004)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Administrative problems associated with regionalization</t>
+          <t>Using a Layered Markov Model for Decentralized Web Ranking</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>This paper focusses on the administrative problems related to the decision to regionalize the British Columbia Correspondence and Distance Learning Branch. The first pan of the paper provides background information about how the concept of regionalization developed both within the Branch and as a result of political pressures. The next part discusses the proposed changes in the administrative structure of the Branch once the regionalization process has been completed. This is followed by consideration of the problems occurring during the first transitional year. Particular attention is paid to the effects the changes are having on relationships between staff and management. Finally, in looking to the future, anticipated problems and changes after regionalization has been completed are considered.</t>
+          <t>The link structure of the Web graph is used in algorithms such as Kleinberg’s HITS and Google’s PageRank to assign authoritative weights to Web pages and thus rank them. In HITS, a solid theoretical model is lacking and the algorithm often leads to non-unique or non-intuitive rankings where zero weights may inappropriately be assigned to parts of a network. In PageRank, a model of random walks is proposed such that the theory about the stationary state of a Markov process can be applied to assure convergence to a unique ranking. Both algorithms require a centralized computation of the ranking if used to rank the complete Web graph. In this paper, we propose a new approach based on a Layered Markov Model to distinguish transitions among Web sites and Web documents. Based on this model, we propose two difierent approaches for computation of ranking of Web documents, a centralized one and a decentralized one. Both produce a well-deflned ranking for a given Web graph. We then formally prove that the two approaches are equivalent. This provides a theoretical foundation for decomposing link-based rank computation and makes the computation for a Web-scale graph feasible in a decentralized fashion, such as required for Web search engines having a peer-to-peer architecture. Furthermore, personalized rankings can be produced by adapting the computation at both the local layer and the global layer. Our empirical results show that the ranking generated by our model is qualitatively comparable to or even better than the ranking produced by PageRank.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4236253548</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1115/1.4035075</t>
+          <t>https://openalex.org/W748750801</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Schnoes &amp; Nicke (2017)</t>
+          <t>Bonnett (1989)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>A Database of Optimal Airfoils for Axial Compressor Throughflow Design</t>
+          <t>Applications of liquid crystals in aerodynamic testing</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Airfoil shapes tailored to specific inflow conditions and loading requirements can offer a significant performance potential over classic airfoil shapes. However, their optimal operating range has to be matched thoroughly to the overall compressor layout. This paper describes methods to organize a large set of optimized airfoils in a database and its application in the throughflow design. Optimized airfoils are structured in five dimensions: inlet Mach number, blade stagger angle, pitch–chord ratio, maximum thickness–chord ratio, and a parameter for aerodynamic loading. In this space, a high number of airfoil geometries are generated by means of numerical optimization. During the optimization of each airfoil, the performance at design and off-design conditions is evaluated with the blade-to-blade flow solver MISES. Together with the airfoil geometry, the database stores automatically calibrated correlations which describe the cascade performance in throughflow calculation. Based on these methods, two subsonic stages of a 4.5-stage transonic research compressor are redesigned. Performance of the baseline and updated geometry is evaluated with 3D CFD. The overall approach offers accurate throughflow design incorporating optimized airfoil shapes and a fast transition from throughflow to 3D CFD design.</t>
+          <t>﻿ This thesis investigates the applications of liquid crystals in three areas of aerodynamic testing, namely temperature, shear stress and pressure measurement over surfaces. The use of the selective reflection colours from encapsulated chiral nematic materials to map surface temperatures is assessed. This method is very successful in a wide range of applications for determining heat transfer rates, but has limitations where high heat transfer rates are present, due to the thermal response time of the material structure, and the effects of temperature gradients. The thermal time constant is determined as a function of material viscosity. It is typically 10ms for a chiral nematic material at room temperature. The effect of a temperature gradient on the selective reflection is studied in terms of the pitch gradient produced in the material structure. Two improved methods are then proposed. The first makes use of the cholesteric to isotropic transition to indicate an isotherm on a heated surface, while the second uses changes in the birefringence colours produced by an aligned nematic layer applied to a surface and viewed between crossed poiarisers. Changes in the selective reflection colours from cholesteric liquid crystals can be used to assess surface shear stress levels. This method is assessed and determined to be too problematical for accurate measurements. A new method is proposed, based on the shear induced texture change from the focal-conic to the Grandjean texture in the cholesteric phase. This method may be used to quantify surface shear stress levels as well as to provide excellent flow visualisation once flow alignment has occurred. Tests have been conducted on the pressure sensitivity of chiral nematic liquid crystal materials. The results indicate that the change in transition temperature with pressure is of the order of 40°/kbar. which may not be sensitive enough for wind tunnel purposes.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1969004708</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.dci.2006.02.002</t>
+          <t>https://openalex.org/W2966245669</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Lee et al. (2006)</t>
+          <t>Laurent et al. (2019)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Differential detergent fractionation for non-electrophoretic bovine peripheral blood monocyte proteomics reveals proteins involved in professional antigen presentation</t>
+          <t>SURFER - What is the burden of raw materials requirements to achieve the French energy transition?</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Professional antigen presenting cells (APC), dendritic cells (DC) and their myeloid progenitors, monocytes/macrophages are critical controllers of innate and adaptive immunity. Here we show that differential detergent fractionation (DDF) analysis of bovine monocytes reveals proteins related to antigen pattern recognition, uptake and presentation to immunocompetent lymphocytes. We identify 53 bovine proteins involved in immune function of professional APC. In particular, 13 adhesion molecules, three toll-like receptors (TLR1, 6 and 8), three antigen uptake-related proteins (including mannose receptor [MR] precursor), and eight actin-like proteins involved in active endocytosis were identified. In addition, MHC class I and II-related proteins, cytokines, active substances and growth factors have been identified. We conclude that the DDF approach can provide interpretable and meaningful functional information concerning protein expression profiles associated with monocyte activation, transformation into macrophages and/or immature DC, and maturation of monocyte-derived DC in the presence of multiple bovine pathogens.</t>
+          <t>In a time of climate emergency, European and worldwide agreements have recently set ambitious targets for reducing our greenhouse gases emissions (GHG), leading the states to engage in an energy transition, that is to say the shift from an energy mix relying on fossil and nuclear fuels to a mix mostly relying on renewables. Such shift requires to massively and quickly build a large number of renewable energy production facilities (e.g. wind turbines, solar panels…), but also to adapt the existing energy distribution system (e.g. with energy storage options) and to modify the final use equipment (e.g. building heating systems, electric vehicles…). Th is shift's consequences on raw demand will not be neutral regarding base materials such as steel, concrete, copper or aluminium, and minor metals (lithium, cobalt, rare earth elements…), raising a polemic question: will the energy transition replace the reliance on fossil fuels by a reliance on metals? The SURFER project aims to evaluate the burden of raw materials requirements to achieve the French energy transition over the period 2015-2050. First, a database gathering the requirements of the different energy technologies has been developed and analysed in order to establish a relevant material intensity for each technology and each metal. The annual materials requirements are then calculated based on national energy transition scenarios (50, 80 and 90% of renewable energy plus a status quo scenario). As well, the annual waste from end-of-life technologies is calculated. Among the challenges that this evaluation raises, one is: how to take into account the dynamic aspects of raw consumption and due to the dismantling of energetic infrastructures? It is here proposed to describe the material-specific model used in SURFER, that both accounts for the content of input materials and for the recycling rate of output materials. The goal is to compare, over time, the demand of the energy transition scenarios to the recycled materials available when to old energetic facilities reach end-of-life. In the next task of the project, the burden borne by the energy transition will be weighed against the French consumption regarding all manufactured goods ; finally, the last task will discuss the criticity of these materials and metals. Theme : Climate Change, Energy transition and Materials</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3047647033</t>
+          <t>https://openalex.org/W1996011871</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/1467-9655.13346</t>
+          <t>https://doi.org/10.2514/3.7184</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Tremlett (2020)</t>
+          <t>Andrus (1976)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Kapuściński, Ryszard; with an introduction by Neal Ascherson; trans. Antonia Lloyd‐Jones. The other. 100 pp. London: Verso Books, 2018. £8.99 (paper)</t>
+          <t>Elliptic integral solutions to a class of space flight optimization problems</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ryszard Kapuściński (1932-2007) was an internationally acclaimed Polish journalist and author, whose writings generated some controversy for their apparent blending of reportage and literature. This volume includes four lectures: the ‘Viennese lectures’ which were delivered in Vienna on 1-3 December 2004 at the Institut für die Wissenschaften vom Menschen; ‘My Other’, which was given at the International Writers’ Symposium in Graz on 12 October 1990; ‘The Other in the global village’, which was delivered at the Father Józef Tischner Senior European School in Kraków on 30 September 2003; and ‘Encountering the Other as the challenge of the twenty-first century’, which was delivered on 1 October 2004, when Kapuściński was awarded an honorary doctorate at the Jagiellonian University in Kraków. The lectures pursue interlinked trajectories of reflection on Europe and its relations with Africa, the Americas, Asia, and the Middle East, as well as the question of the Other and the direction of social and cultural change. Over the course of the lectures, Kapuściński engages substantially with anthropology, particularly through the figure of Bronislaw Malinowski, and continental philosophy, through that of Emmanuel Lévinas. In this brief review, I will address these elements, before concluding with some short remarks about Kapuściński's representation of anthropology and Malinowski. For Kapuściński, Enlightenment humanism – expressed initially through literature and travel writing – opened up new spaces in which the Other emerged not as an object of conquest or conversion, but as a human being. According to Kapuściński, anthropology and the ‘philosophy of dialogue’ (p. 68) as practised by the likes of Lévinas, emerged from this Enlightenment space (p. 27). His summary of the development of anthropology from the debates of evolutionists, diffusionists, and functionalists into a discipline defined by ethnography, with Malinowski as ‘the creator of anthropological reportage’ (p. 32), segues neatly into a discussion of Lévinas, and his foregrounding of the ethics of the encounter with the Other, a move which Kapuściński sees as building upon the fieldwork pioneered by Malinowski. Kapuściński adds that fieldwork ‘is not only recommended for anthropologists, but is also a fundamental condition for the job of a reporter’ (p. 31), a point which highlights potential points of contact between the two professions. Kapuściński provides two perspectives on European history and experience: one, as we have seen, begins with the Enlightenment and moves on via the novel to anthropology and the philosophy of dialogue. The other focuses on social and cultural change, and the transition, as Kapuściński sees it, from mass to global society, a transition precipitated by decolonization and the end of the Cold War, as well as the advance and spread of new communication technologies. According to Kapuściński, mass society, particularly in its totalitarian forms, negated the individual: the subject was a member of a class, a race, or a nation. As such, our new multicultural-global society must embrace the spirit of dialogue found not just in the writings of Lévinas but also in those of the Polish Catholic theologian Józef Tischner, for whom the idea of dialogue was precisely conceived in opposition to mass and totalitarian social forms and in the recognition of the individual human being. Importantly, Kapuściński understands that a defining feature of the new global and multicultural society is its emergence from ‘various contradictory worlds, a composite creature of fluid, impermanent contours and features’ (p. 33), and that it is ‘hybrid and heterogeneous’ (p. 89). This new society will, according to Kapuściński, require something of the spirit of Malinowski, Lévinas, and Tischner if it is not to succumb to the many enmities and challenges that beset it from all sides. One reason to read this beautifully composed book is for its representation of anthropology and one of the discipline's most controversial figures, Malinowski. Kapuściński sees in anthropology, and fieldwork in particular, a deliberative methodology for dialogue and understanding the Other. Perhaps this is a rose-tinted view of the fieldwork encounter that does not adequately grasp its ongoing implication in asymmetries of power, race, and gender, but Kapuściński offers some useful points of departure for pursuing related questions about ethnography and literary craft, and for exploring anthropology and journalism as entangled professions. Finally, given the links made by Robert J. Thornton (‘Imagine yourself set down …’, Anthropology Today 1: 5, 1985) between Malinowski and one of Conrad's more disturbing creations, Kurtz, there is perhaps some irony in the fact that Kapuściński's final lecture closes with a quotation from Joseph Conrad (p. 92) that points to a common humanity binding together the dead, the living, and the unborn.</t>
+          <t>This paper is initially concerned with the minimum-time, exoatmospheric flight of a rocket with constant thrust acceleration magnitude, as in the cases of nuclear and solar electric propulsion. Gravitational acceleration is assumed to be a constant scalar multiple of the radius vector, plus a correction term which is a given function of time. The solution to the state equations is obtained in terms of elliptic integrals. A method is presented for the solution of the two-point boundary-condition problem associated with orbital transfer. At most, the latter method requires iteration upon final time, angle of injection, and two other parameters which are bounded. An example problem is provided which involves a rocket with very low thrust and a spiraling trajectory of many revolutions, but an altitude change of only several hundred miles above the earth. Finally, the original elliptic integral solution is extended to a larger class of low and intermediate thrust problems with constant thrust magnitude, mass decreasing with time, and an inverse square gravitational force.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2624563076</t>
+          <t>https://openalex.org/W2378286780</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Hadač (2006)</t>
+          <t>Cao &amp; Sun (2004)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Objemová a entalpická relaxace polymerů</t>
+          <t>Design of 60 km Dispersion Compensation 8×50 GHz Fiber Grating Comb- filter</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>The presented thesis reports on the experimental investigation of thermally induced structural relaxation (physical aging) of amorphous polymers, and inorganic glasses. The materials studied in this work were polycarbonate, PC, polystyrene, PS, amorphous and semicrystalline poly(ethylene terephthalate), PET, poly(methyl methacrylate), PMMA, PMMA compound with carbon black, and amorphous selenium. Structural relaxation was induced by temperature down and up-jumps. Volume and enthalpy relaxation changes were determined using Differential Scanning Calorimetry (DSC) and Mercury-in-Glass Dilatometry (MIG). The main objective of the work was to find the relationship between the enthalpy change of the aging specimen and the corresponding change in volume. In general, the relaxed enthalpy vs. relaxed volume plots were straight lines showing a relatively low scattering of the data. From the slopes of these plots, the aging bulk modulus, Ka, which is defined as Ka=(Dh/Dv), was determined. The Ka values determined were about 2 GPa for polymers and 5 GPa for amorphous selenium, which is close to the inverse compressibility of these materials in the glass transition region. Furthermore, the enthalpy and volume changes during contraction at different aging temperatures, during simultaneous expansion and contraction, and during contraction induced by different rate of cooling were investigated in this work. As a result, it was found that nearly identical thermal history of enthalpy and volume specimens resulted in almost same time scales of both relaxing quantities. In the next section of the work, volume contraction was measured in semicrystalline PET and PMMA/CB composites and it was found that the presence of filler particles or content of crystalline phase brought about a decrease in relaxation change of the material. The final part of the work deals with methodology used for evaluation of the relaxed enthalpy and its adaptation for volume relaxation measurements.</t>
+          <t>A novel chirped fiber Bragg grating(CFBG) comb filter for eight-channel 50 GHz DWDM-channel separations and 60 km dispersion compensation was proposed.The index modulating function and chirp parameter distribution of the CFBG were synthesized by layer-peeling(LP) inverse scattering(IS) technique.According to the coupling coefficient calculated for the synthesized grating,reflection spectrum,group delay and group delay ripper were analyzed based on the method of transformation matrix.The results show that the CFBGs not only satisfy all requirements and could be fabricated with existing techniques.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2138101700</t>
+          <t>https://openalex.org/W2112186690</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physrevd.62.083002</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Baynes (1977)</t>
+          <t>Sedrakian &amp; Dieperink (2000)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>A Personal Retrospect: The Argument for Design Education</t>
+          <t>Coherent neutrino radiation in supernovae at two loops</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>The suggestion for an article based on a personal view of the past ten years in design education came at an opportune moment. Having just completed work on the Design in General Education project at the Royal College of Art, and having just begun to research a new exhibition - on the evolution of engineering drawing - for the Welsh Arts Council, I was in the right frame of mind to look again at my motivations. Certainly with educational activities, a design practice and historical research all going on at the same time, the pattern did not immediately suggest coherence. It didn't even look well designed! How is it that I find no difficulty in maintaining a continuing commitment to, for example, art and design or fashion and technology, when to many people, particularly perhaps to specialist subject teachers, they obviously seem poles apart? I tried to give an answer to this rather sharp question in talks I gave to arts teachers at the ILEA's Cockpit Theatre in London and to design teachers at the NADE Conference at Eaton Hall in Retford . The present article is based on an expansion of those talks . What I am setting out to do is to restate some of those arguments in favour of design education that have struck me as being truly fundamental . To put this into the form of a personal narrative means going back twenty rather than ten years but I hope the longer perspective will be useful . What I find particularly interesting is that the arguments which seemed powerful then still seem powerful now . It still appears to me that in order to understand and evaluate the content and methods of design education we have first to understand and evaluate the radical changes which have transformed communication and construction and the attitudes of people to them. Once this has been done, there are likely to be a great variety of valid ways of bringing such concerns into the forum of general education.</t>
+          <t>We develop a neutrino transport theory, in terms of the real-time nonequilibrium Green's functions, which is applicable to physical conditions arbitrary far from thermal equilibrium. We compute the coherent neutrino radiation in cores of supernovae by evaluating the two-particle--two-hole $(2p\ensuremath{-}2h)$ polarization function with dressed propagators. The propagator dressing is carried out in the particle-particle channel to all orders in the interaction. We show that at two loops there are two distinct sources of coherence effects in the bremsstrahlung. One is the generically off-shell intermediate state propagation, which leads to the Landau-Pomeranchuk-Migdal type suppression of radiation. We extend previous perturbative results, obtained in the leading order in quasiparticle width, by deriving the exact nonperturbative expression. A new contribution due to off-shell final or initial baryon states is treated in the leading order in the quasiparticle width. The latter contribution corresponds to processes of higher order than second order in the virial expansion in the number of quasiparticles. At the $2p\ensuremath{-}2h$ level, the time component of the polarization tensor for the vector transitions vanishes identically in the soft neutrino approximation. Vector current thereby is conserved. The contraction of the neutral axial vector current with the tensor interaction among the baryons leads to a nonvanishing contribution to the bremsstrahlung rate. These rates are evaluated numerically for finite temperature pure neutron matter at and above the nuclear saturation density.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2990504874</t>
+          <t>https://openalex.org/W4320516614</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/858118</t>
+          <t>https://doi.org/10.1108/978-1-80382-517-520231011</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Huang et al. (2019)</t>
+          <t>Lehr &amp; Vaughan (2023)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Nanotopography enhances dynamic remodeling of tight junction proteins through cytosolic complexes</t>
+          <t>Humanistic Leadership and its Enduring Legacy in a Post-Covid-19 World</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Abstract The epithelial tight junction regulates barrier function and is responsive to extracellular stimuli. Here we demonstrated that contact of synthetic surfaces with defined nanotopography at the apical surface of epithelial monolayers increased paracellular permeability of macromolecules. To monitor changes in tight junction morphology in live cells, we fluorescently tagged the scaffold protein zonula occludens-1 (ZO-1) through CRISPR/Cas9-based gene editing. Contact between cells and nanostructured surfaces destabilized junction-associated ZO-1 and promoted its arrangement into highly dynamic non-junctional cytosolic complexes that averaged ∼2 μm in diameter. Junction-associated ZO-1 rapidly remodeled, and we also observed the direct transformation of cytosolic complexes into junction-like structures. Claudin-family tight junction transmembrane proteins and F-actin also were associated with these ZO-1 containing cytosolic complexes. These data suggest that the cytosolic structures are novel intermediates formed in response to nanotopographic cues that facilitate rapid tight junction remodeling in order to regulate paracellular permeability.</t>
+          <t>As societies worldwide continue to navigate and recover from the impacts of the Covid-19 pandemic, the world is at a unique crossroads. How can leaders in higher education institutions (HEIs) prioritize holistic human needs and maximize interpersonal and collegial human connection, while continuing to guide and grow successful learning communities both in-person and virtually? With potential costs and benefits in mind, pertinent literature is reviewed, and the limitations and silver linings presented by the ongoing pandemic are explored. Different forms of grief and loss experienced by faculty and students as well as the effects of technostress amid this time of change are also recognized. Concepts and practices introduced by prominent humanistic thought-leaders are discussed as a way to navigate the educational impacts created by the pandemic. A key finding presented is that leaders and HEIs that prioritize human connections and relationships, in concert with adopting technological advancements, are better equipped to maintain personal well-being while enhancing academic success in the long term. By fostering learning environments based on psychological safety, compassion, autonomy, and adaptability, humanistic leaders contribute to the betterment of HEIs as a whole. To this end, the enduring legacy of humanistic leadership is pivotal in this new era of global and individual humanistic transformation amid change.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1510854848</t>
+          <t>https://openalex.org/W3183546188</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevd.76.114506</t>
+          <t>https://doi.org/10.1016/j.msea.2021.141796</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Cabrera &amp; Rapp (2007)</t>
+          <t>Mandal et al. (2021)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>&lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mml:mi&gt;T&lt;/mml:mi&gt;&lt;/mml:math&gt;-matrix approach to quarkonium correlation functions in the quark-gluon plasma</t>
+          <t>Effect of coiling temperature on impact toughness of hot rolled ultra-high-strength multiphase steel strips</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>We study the evolution of heavy quarkonium states with temperature in a quark-gluon plasma (QGP) by evaluating the in-medium $Q\mathrm{\text{\ensuremath{-}}}\overline{Q}$ $T$-matrix within a reduced Bethe-Salpeter equation in both $S$- and $P$-wave channels. The underlying interaction kernel is extracted from recent finite-temperature QCD lattice calculations of the singlet free energy of a $Q\mathrm{\text{\ensuremath{-}}}\overline{Q}$ pair. The bound states are found to gradually move above the $Q\mathrm{\text{\ensuremath{-}}}\overline{Q}$ threshold after which they rapidly dissolve in the hot system. The $T$-matrix approach is particularly suited to investigate these mechanisms as it provides a unified treatment of bound and scattering states including threshold effects and the transition to the (perturbative) continuum. We apply the $T$-matrix to calculate $Q\mathrm{\text{\ensuremath{-}}}\overline{Q}$ spectral functions as well as pertinent Euclidean-time correlation functions which are compared to results from lattice QCD. A detailed analysis reveals large sensitivities to the interplay of bound and scattering states, to temperature-dependent threshold energies, and to the reconstructed correlator used for normalization. We furthermore investigate the impact of finite-width effects on the single-quark propagators in the QGP as estimated from recent applications of heavy-quark rescattering to RHIC data.</t>
+          <t>The tensile and Charpy impact properties of four strip samples from two different B-added low-C ultra-high-strength steel strips (Al-treated and Ti-treated), coiled at two different temperature ranges (360-380C and 450-460C), have been evaluated and correlated to the microstructural parameters, dislocation density, and the intensity of high-angle boundaries.The effects of coiling temperatures on the microstructural evolution and mechanical properties have been discussed.The volume fraction of the individual phase constituents (namely, granular bainite, upper bainite, lower bainite and tempered martensite) and their hardness, local deformation response and the strain-hardening ability, as determined from nanoindentation testing, influenced the bulk properties such as hardness, tensile properties (strength and ductility), Charpy impact properties (upper shelf energy, USE, and ductile-to-brittle transition temperature, DBTT) and strain-hardening abilities under both quasi-static and dynamic loading conditions.The dominance of granular bainite and upper bainite (75-90%) reduced the strength (670-722 MPa yield strength), improved ductility (16.7 -19.5% elongation to failure) and USE (35-42 J) in the samples coiled at the higher temperatures.In contrast, a higher fraction of tempered martensite and lower bainite (78-82%) significantly increased the strength (808-814 MPa), reduced ductility (13.0-14.5%)and USE (19-29 J) in the lower temperature coiled samples.The DBTT showed a complex trend with the microstructural parameters.It depended on the USE level, as well as on the 'effective grain size' of the matrix.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4295066601</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3389/fcvm.2022.966217</t>
+          <t>https://openalex.org/W2371798101</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Zhang et al. (2022)</t>
+          <t>Zhuang-ru (2015)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Effects of potential risk factors on the development of cardiometabolic multimorbidity and mortality among the elders in China</t>
+          <t>Research on Regional Differences in the Effectiveness of Economical and Intensive Use of Urban Land Policy in China: Analysis and Suggestions of Questionnaire Based on 105 Urban Land Price Monitoring Points</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>To examine the impact of demographic, socioeconomic, and behavioral factors on the development of cardiometabolic multimorbidity and mortality in Chinese elders.Data from the Chinese Longitudinal Healthy Longevity Survey (CLHLS) 2002-2018 was used in the study. Cardiometabolic multimorbidity was defined as the presence of two or more cardiometabolic disorders, such as hypertension, diabetes, cardiovascular disease (CVD), heart disease, or stroke. Cox regression model and multi-state Markov model were developed to evaluate the association of the study factors with the progression of cardiometabolic conditions and mortality. The outcomes included three states (first cardiometabolic disease, cardiometabolic multimorbidity, and all-cause mortality) and five possible transitions among the three states.Of the 13,933 eligible individuals, 7,917 (56.8%) were female, and 9,540 (68.50%) were over 80 years old. 2,766 (19.9%) participants had their first cardiometabolic disease, 975 (7.0%) participants suffered from cardiometabolic multimorbidity, and 9,365 (67.2%) participants died. The progression to cardiometabolic multimorbidity was positively associated with being female (HR = 1.42; 95%CI, 1.10 - 1.85), living in the city (HR = 1.41; 95%CI, 1.04 - 1.93), overweight (HR = 1.43; 95%CI, 1.08 - 1.90), and obesity (HR = 1.75; 95% CI, 1.03 - 2.98). A higher risk for the first cardiometabolic disease was associated with being female (HR = 1.26; 95% CI, 1.15 - 1.39), higher socioeconomic status (SES, HR = 1.17; 95%CI, 1.07 - 1.28), lack of regular physical activity (HR = 1.13; 95%CI, 1.04 - 1.23), smoking (HR = 1.20; 95%CI, 1.08 - 1.33), ≤ 5 h sleep time (HR = 1.15; 95%CI, 1.02 - 1.30), overweight (HR = 1.48; 95% CI, 1.32 - 1.66), and obesity (HR = 1.34; 95%CI, 1.06 - 1.69). It also should be noted that not in marriage, lower SES and unhealthy behavioral patterns were risk factors for mortality.This study emphasized the importance of lifestyle and SES in tackling the development of cardiometabolic conditions among Chinese elders and provided a reference for policy-makers to develop a tailored stage-specific intervention strategy.</t>
+          <t>Vigorously promoting the economical and intensive use of land is determined by the basic national conditions of China that large number of people and less land. It is also an important way to promote economic transformation and upgrading,speed up the construction of ecological civilization,construct of the new urbanization and ensure the economic and social sustainable development.To systematically evaluate the implementation effect of the economical and intensive use of urban land policy since 2008,this paper conducted a questionnaire survey to the staff of 105 urban land price monitoring points. Entropy theory and dissipation model were innovatively used to do the comparative analysis on the effectiveness of economical and intensive use of urban land policy between eastern,middle and western China. The concept of policy entropy was put forward. Through analysis and calculation,the below conclusions could be drawn. Firstly,the policy of economical and intensive use of urban land in China has good effects. Economic efficiency,social efficiency and administrative efficiency have made some achievements. The land use efficiency has been improved.Secondly,the total efficiency of policy in the western region is higher than that in eastern and central regions,suggesting that the policy effect not only depends on the level of economic development,but also are affected by the other factors,such as regional policy enforcement,resources endowment,the ecological environment and population density. Thirdly,social efficiency of policy is lower than economic efficiency and administrative efficiency. It shows that the effectiveness of the policy implementation does not reach the public's expectations on the various indicators. It is necessary to further develop and refine the related policices of economical and intensive use of land according to different regions. Finally,suggestions are given,such as strengthening policy implementation,taking more governance performance assessment methods, and perfecting the relevant supporting policies and supervision mechanism optimization.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2110493470</t>
+          <t>https://openalex.org/W4391651289</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1176/appi.ajp.2008.08030398</t>
+          <t>https://doi.org/10.1016/j.saa.2024.124006</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Campanella (2008)</t>
+          <t>Gül et al. (2024)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>The Green Bike</t>
+          <t>BODIPY precursors and their cyclotriphosphazene Derivatives: Synthesis, photochemical properties and their application in PDT</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Back to table of contents Previous article Next article IntrospectionsFull AccessThe Green BikeKarla Campanella M.D., M.A.Karla Campanella M.D., M.A.Search for more papers by this authorPublished Online:1 Sep 2008https://doi.org/10.1176/appi.ajp.2008.08030398AboutSectionsPDF/EPUB ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InEmail I was in the middle of a hectic night on call in the ED. I had a long list of patients to see—all with suicidal ideation of one form or another.I begin evaluating the next patient. Stifling a yawn, I smoothly transition from HPI to ROS. How’s your sleep, appetite, energy? I am on a roll. Past Psychiatric History and Family History pass by like signposts on a late-night road trip. Turning the corner onto Social History, I am moments away from being able to check the patient off my list and that much closer to a few stolen moments of sleep.“Have you ever been abused?” With that question, the momentum is broken. The patient, an older African American female, gets a faraway look in her eyes.“Back then,” she finally says, “They could not get black teachers for the school in my neighborhood. So I had a white fourth grade teacher.” The patient reflected on how honored she felt that he singled her out and gave her special jobs to do. “I had never been shown attention from a white man before.” But then one day he took her into the broom closet and molested her.Mesmerized, I listened as the patient shared how more and more men from the neighborhood sexually abused her—shopkeepers, neighbors, cousins, brothers. When she challenged her brothers, they said, “That is just the way it is supposed to be.” The men would call to her from their houses as she walked down the street. “Hey, do you want a quarter?” The patient confided that she loved to swim and a day’s admission to the pool cost a quarter. “I swam every day.”Quietly, the patient told me how much she hated it. How she would constantly change her walking route to avoid the calling men. But still they would find her. She had no one to go to for help. Her family was poor, and her mother was always working. Her father was an alcoholic.But a neighbor lady seemed to know what was happening. One day, she gave the patient her daughter’s old green bike. Now the men would call, but the patient could pedal fast and get away. “Yes, I loved that green bike,” the patient smiled, “I took such good care of it.”Deeply touched, I gazed upon this former medical record number on a checklist and said, “You are a strong woman.” She looked at me and said, “That is the way with African American women. We have to be strong no matter what. We are just supposed to take whatever life gives us. We are not supposed to ask for help.”Silently, I thanked her for derailing my goal-directed history evaluation, and for taking me on a cross-cultural detour through the pain of poverty, racial tension, and sexual aggression. Her story of the power of a neighbor’s kindness in the midst of a neighborhood’s inhumanity touched my soul, and forever I will carry the image of that old green bike along with the determined little girl for whom it was a link to sanity.Address correspondence and reprint requests to Dr. Campanella, University of Pennsylvania Health System, 2nd Floor, 3535 Market St., Philadelphia, PA 19104; [email protected] (e-mail). Introspection accepted for publication April 2008 (doi: 10.1176/appi.ajp.2008.08030398). FiguresReferencesCited byDetailsCited ByNone Volume 165Issue 9 September, 2008Pages 1110-1110THE AMERICAN JOURNAL OF PSYCHIATRY September 2008 Volume 165 Number 9 Metrics PDF download History Published online 1 September 2008 Published in print 1 September 2008</t>
+          <t>Photodynamic therapy (PDT) is a treatment method consisting of common combination of oxygen, light energy and a light absorbing molecule called a photosensitizer. In this work, four new compounds consisting of BODIPY precursors and BODIPY-cyclotriphosphazene derivatives were synthesized to investigate the PDT effects. The chemical structures of the compounds were characterized and then their photophysical properties were determined by spectroscopic techniques. The precursor BODIPYs and their cyclotriphosphazene derivatives exhibited similar properties such as strong absorption intensity, high photostability and low fluorescence profile in the NIR region. Additionally, the singlet oxygen production capacities of these compounds were determined using the photobleaching technique of 1,3-diphenylisobenzofuran (DPBF) under light illumination. By introducing iodine atoms into the molecule, which are responsible for the intersystem transition (ISC) enhancement, a more efficient singlet oxygen production was achieved in both the iodinated-BODIPY and its cyclotriphosphazene derivative. Anticancer activities of the precursor BODIPYs and their cyclotriphosphazene derivatives in the absence and presence of light illumination were evaluated on cancerous cell lines (PC3 and DU145) and non-tumorigenic prostate epithelial PNT1a cell. The compounds triggered the death of cancer cell PC3 the more significantly in the presence of red light compared to the healthy cells (PNT1a).</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2066296828</t>
+          <t>https://openalex.org/W4392680595</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1207/s15544818ped0101_2</t>
+          <t>https://doi.org/10.5219/1962</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Kalantzis (2006)</t>
+          <t>Akimova et al. (2024)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Changing Subjectivities, New Learning</t>
+          <t>Enzymatic hydrolysis in food processing: biotechnological advancements, applications, and future perspectives</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>In this article I argue that today's social transformations are of such depth and significance that they demand a fundamental rethinking of the nature of pedagogy. I address 3 closely interwoven facets of change: the nature of subjectivity, where as citizens, workers, and cultural beings, we are more and more required to be users and players rather than spectators or delegates; the growing intensity and significance of lifeworld diversity in which the local is more multifarious and the global more proximate; and the changing means of production of meaning where the semantic web is increasingly ubiquitous and its meanings multimodal. The response of a New Learning must be multifaceted and holistic. More than reactive, the New Learning must be creative, itself an agent of change rather than merely reflective of change. The transformations wrought by the New Learning must be systemic, rhetorical, and evident in the everyday practices of teaching and learning. In the article I highlight just one of a number of possible pathways, and that is the shift from a psychological/cognitivist view of learning to an epistemological one.</t>
+          <t>In food processing, enzymatic hydrolysis has become a revolutionary biotechnological instrument that provides consistency and sustainability that are unmatched by traditional techniques. This work thoroughly analyzes current developments in enzymatic hydrolysis and examines its uses in various food processing contexts. The biotechnological aspects—such as substrate specificity, enzyme engineering, and sustainable process optimization—are the main focus. The historical background and development of enzymatic hydrolysis in food processing are explored at the study's outset, highlighting the process's transformation from a specialized use to a critical component of contemporary biotechnological food production. A thorough literature review underscores the specificity of enzymes in dissolving various dietary components, offering insights into the biotechnological nuances controlling substrate-enzyme interactions. A careful examination of the many enzymes used in enzymatic hydrolysis and a full assessment of their uses and specificities are provided. Enzymatic hydrolysis selection criteria are outlined, taking regulatory compliance, thermostability, pH sensitivity, and substrate specificity into account. The integration of enzymatic hydrolysis into workflows for food processing is also covered, focusing on compatibility with current infrastructure and processing parameters. The case studies that demonstrate the effective use of enzymatic hydrolysis in various food production situations are the core of the research. These examples illustrate the adaptability and effectiveness of enzymatic processes in improving food quality, from developing gluten-free products to optimizing fermentation in baked goods. In its futuristic conclusion, the article imagines how enzymatic hydrolysis will continue to influence food processing in the years to come. The biotechnological viewpoint strongly emphasizes current research directions, such as integrating enzymatic processes into sustainable food production techniques and engineering enzymes for increased specificity. This biotechnological investigation highlights how enzymatic hydrolysis may completely change the food processing industry by providing accuracy, sustainability, and creativity in pursuing wholesome, nutrient-dense, and aesthetically pleasing food items.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1573132296</t>
+          <t>https://openalex.org/W2562809071</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/b978-0-08-100625-2.00011-8</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Long et al. (1994)</t>
+          <t>Miller et al. (2017)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Determining normative standards for functional independence measure transitions in rehabilitation.</t>
+          <t>Drug discovery</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>We present a method for determination of normative standards for Functional Independence Measure (FIM) transitions in rehabilitation. Data from 230 consecutive brain-injured patients treated before 1991 were used to characterize transitions in patient FIM values between admission and discharge. The pre-1991 average and standard deviation FIM transitions, computed as a function of admission values, are used as standards ("norms") for comparing rehabilitation transitions among institutions or in one institution over time (say, yearly) and for identifying patients with striking transitions, believed worthy of audit. The evaluation method requires the computation of two statistics, z and W, which compare the actual transitions for patients of one time period (in this instance the 1991 patients) to the expected transitions as computed from the pre-1991 norms. The z and W values indicated that 1991 transitions were neither statistically nor clinically different from pre-1991 ones. Also introduced in the paper are the concepts of Mean Gain, Ideal Gain, and the ratio Mean Gain/Ideal Gain. Ideal Gain is the greatest possible "aggregated" transitions score for a study patient set and the ratio Mean Gain/Ideal Gain may be interpreted as "the degree of ideal rehabilitation transitions achieved."</t>
+          <t>We sit here today perched atop the shoulders of giants. Giants of medicinal chemistry and pharmacology who toiled hard, making and testing one compound each week, a very well-developed process when drug design utilizing computer graphics first came on the scene in the late 1970s. Preclinical development disciplines, including pharmacokinetics, drug metabolism, and toxicology, were also well in place by then. But soon a series of technological advances would rock the drug discovery world, with quantum leaps in the state-of-the-art, changing the face of drug discovery forever. This revolution included the preparation and high-throughput screening of larger and larger drug libraries, large-molecule biologics to compete with small-molecule drugs, and genomics and proteomics, thereby dramatically increasing the information available to drug hunters. But revolutions take time to settle in. As “Drug Discovery 2001: A Molecular Space Odyssey” dawned, pundits thought genomics would solve major healthcare problems overnight, relegating traditional pharmaceutical R&amp;D methods to the waste bin. Reality prevailed and decades of iteration remain before genomics’ economic and social impact will change behavior fundamentally, nationally and internationally. Meanwhile, immuno-oncology moved cancer beyond “dying from” or “living with” to outright “cures” in selected cases. Resulting biotech financings and deals generated huge funds for R&amp;D, employees, and investors, and importantly made possible new medical products for patients and caregivers, greatly improving the standard of care. Though today’s grand progress provides novel therapies to those in need, we still require the tools of neo-classical chemical biology—structure-based design, combinatorial synthesis, and high-throughput screening—along with the old-fashioned, laborious, one-drug-at-a-time art of science circa 1990. Biologics have made big headway into medical practice, saving countless lives and contributing greatly to industry profits, but small-molecule drugs still dominate scrips. Sadly, diminishing numbers of students will work the long, hard hours essential to mastering chemistry or pharmacology. Too many seek quick wins. For some it is about money. For others it is about achievement, adventure, and intellectual challenge. Finally, and most importantly, it is about helping others. Nothing feels better than “doing well by doing good.” Brilliant, dedicated scientists, please, make good health and longevity the norm. Pity the societies that don’t get this right!</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2071306724</t>
+          <t>https://openalex.org/W3151650277</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1051/jphys:01986004704071100</t>
+          <t>https://doi.org/10.1080/10494820.2021.1905003</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Gramsbergen et al. (1986)</t>
+          <t>Liu et al. (2021)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Antiferroelectric surface layers in a liquid crystal as observed by synchrotron X-ray scattering</t>
+          <t>Patterns of triggers for on-task and off-task behaviors: university students in independent study</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>The X-ray reflectivity form the surface of a liquid crystal with terminally polar (cyano substituted) molecules has been studied using a high-resolution triple-axis X-ray spectrometer in combination with a synchrotron source. It is demonstrated that at the surface of the smectic A1 phase a few antiferroelectric double layers develop that can be distinguished from the bulk single layer structure. A model is developed that separates the electron density in a contribution from the molecular form factor, and from the structure factor of the mono- and the bilayers, respectively. With only a few adjustable parameters it accounts for the rather complex observed reflection curve. It shows that (i) the first molecular layer has tails up rather than heads up, (ii) the smectic order parameter of the first mono- and bilayer is saturated, (iii) the antiferroelectric bilayering does decay rather abruptly and not exponentially Etude RX de la surface d'un cristal liquide pres de la transition nematique-smectique A1. Developpement en surface de quelques doubles couches antiferroelectriques qui peuvent etre distinguees de la structure en simples couches du materiau massif</t>
+          <t>With the rapid development of mobile devices and web-based technologies, it becomes common for students to switch between different tasks during study time. However, it remains unclear how the transition between on-task and off-task states happens and how digital devices affect the process. This study examines college students’ independent study in the library to delineate the pattern of on-task and off-task behavior, and identify the triggers for students’ engagement or disengagement. Through video recordings, the researchers captured the behaviors of over 266 students at the library. Observations were taken and used to double-check and confirm the behaviors. The study adopted the behavioral sequences method to scrutinize behavioral transition and explored gender differences. The results indicate that on-task behaviors tended to decline as the learning duration increased, whereas off-task behaviors tended to increase when students interacted with personal devices. As the most used device, smartphones posed persistent interference for learners, leading to reduced focus during independent study time. Moreover, male students were more likely to be influenced by external interruptions, whereas female students were more prone to the influence of internal interruptions. These findings can contribute to the development of research-based guidelines for improving students’ attention and self-adjusting during self-study time.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4255441302</t>
+          <t>https://openalex.org/W4236253548</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21313/hawaii/9780824855680.003.0002</t>
+          <t>https://doi.org/10.1115/1.4035075</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Eifring (2016)</t>
+          <t>Schnoes &amp; Nicke (2017)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Types of Meditation</t>
+          <t>A Database of Optimal Airfoils for Axial Compressor Throughflow Design</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>This essay distinguishes between directive meditation, which seeks to bring about inner transformation by means of outside-in processes, and non-directive meditation, which builds on inside-out processes. The two types differ in terms of their meditation object (thematic vs. technical), mental attitude (concentrative vs. non-concentrative), and the context surrounding the practice (suggestive vs. non-suggestive). Most meditation practices include both directive and non-directive elements, but differ widely in their emphases, as illustrated by references to modern studies as well as traditional works on meditation. The suggested distinction differs from the widespread Buddhist-inspired contrast between “concentrative” meditation (or “focused attention”) and “insight” meditation (or “open monitoring”), which is shown to be problematic, especially when applied to non-Buddhist forms of meditation. The social constructivism that has long dominated cultural history tends to give preference to explanations based on directive working mechanisms and to disregard the equally important processes associated with non-directive meditation.</t>
+          <t>Airfoil shapes tailored to specific inflow conditions and loading requirements can offer a significant performance potential over classic airfoil shapes. However, their optimal operating range has to be matched thoroughly to the overall compressor layout. This paper describes methods to organize a large set of optimized airfoils in a database and its application in the throughflow design. Optimized airfoils are structured in five dimensions: inlet Mach number, blade stagger angle, pitch–chord ratio, maximum thickness–chord ratio, and a parameter for aerodynamic loading. In this space, a high number of airfoil geometries are generated by means of numerical optimization. During the optimization of each airfoil, the performance at design and off-design conditions is evaluated with the blade-to-blade flow solver MISES. Together with the airfoil geometry, the database stores automatically calibrated correlations which describe the cascade performance in throughflow calculation. Based on these methods, two subsonic stages of a 4.5-stage transonic research compressor are redesigned. Performance of the baseline and updated geometry is evaluated with 3D CFD. The overall approach offers accurate throughflow design incorporating optimized airfoil shapes and a fast transition from throughflow to 3D CFD design.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4234236954</t>
+          <t>https://openalex.org/W2046909091</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1190/1.9781560801672.ch5</t>
+          <t>https://doi.org/10.4028/www.scientific.net/amr.922.645</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NA (2007)</t>
+          <t>Shan et al. (2014)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5. Duality</t>
+          <t>Determination of Substitutional-Interstitial Interaction from Chemical Potentials of Interstitials in the Steel Matrix</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PreviousNext No AccessSeismic True-Amplitude Imaging5. Dualityhttps://doi.org/10.1190/1.9781560801672.ch5 SectionsAboutPDF/ePub ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinked InReddit Abstract We mentioned in Chapter 1 that all map and image transformation procedures discussed in this book rely on two basic geometric concepts: the Huygens surface (also called the diffraction-traveltime surface or the maximum-convexity surface) and the isochron (also called the aplanat, aplanatic, or equal-traveltime surface). In this chapter, we elaborate further on the common properties and the mutual relationship of these two fundamental surfaces, as well as on their relationship to the 3D reflection-traveltime surface and the 3D target reflector. We always assume a fixed measurement configuration as discussed in the "Measurement configurations" section of Chapter 2. Thus, all traveltime surfaces considered here are functions of a 2D vector parameter ξ, rather than of the complete set of source and receiver coordinates xS and xG. Permalink: https://doi.org/10.1190/1.9781560801672.ch5FiguresReferencesRelatedDetails Seismic True-Amplitude ImagingISBN (print):978-1-56080-143-6ISBN (online):978-1-56080-167-2Copyright: 2007 Pages: 401 publication data© 2007 All rights reserved. No part of this publication may be reproduced or distributed in any form or by any means without written permission of the publisherPublisher:Society of Exploration Geophysicists HistoryPublished in print: 01 Jan 2007 CITATION INFORMATION (2007), "5. Duality," Geophysical Developments Series : 149-172. https://doi.org/10.1190/1.9781560801672.ch5 Plain-Language Summary PDF DownloadLoading ...</t>
+          <t>The interaction between interstitially diffusing atoms and substitutional solute atoms, acting as trapping sites, causes a non-negligible influence on the diffusion process itself and, consequently, on many aspects of alloys, such as phase transformations, solubility, precipitation of carbides and nitrides etc. The most important quantity in this treatment is the so-called trapping enthalpy (depth of trap), which has been used in several approaches in literature over the last century. However, the determination of the trapping enthalpy so far relies on approximations or assumptions on the one hand (statistical approaches, quasi chemical approach) or is significantly limited due to high complexity (ab initio approaches) on the other hand. The model introduced in this paper illustrates a rigorous and efficient thermodynamically-based concept utilizing only the dependence of the chemical potential of the interstitial component on the chemical composition of the alloy. Such a dependency is available in a very precise form from CALPHAD thermodynamic databases. Using the most recent databases available, the trapping enthalpies of carbon and nitrogen at various solute atoms (trapping sites) are evaluated for austenitic and ferritic steels. Good agreement with previous literature results is observed. The flexibility of the concept allows also for the treatment of trapping in a multi-component system, where different types of solute atoms are responsible for different depths of traps.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2087702603</t>
+          <t>https://openalex.org/W3047647033</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4204/eptcs.169.7</t>
+          <t>https://doi.org/10.1111/1467-9655.13346</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Kafle &amp; Gallagher (2014)</t>
+          <t>Tremlett (2020)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Convex polyhedral abstractions, specialisation and property-based predicate splitting in Horn clause verification</t>
+          <t>Kapuściński, Ryszard; with an introduction by Neal Ascherson; trans. Antonia Lloyd‐Jones. The other. 100 pp. London: Verso Books, 2018. £8.99 (paper)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>We present an approach to constrained Horn clause (CHC) verification combining three techniques: abstract interpretation over a domain of convex polyhedra, specialisation of the constraints in CHCs using abstract interpretation of query-answer transformed clauses, and refinement by splitting predicates.The purpose of the work is to investigate how analysis and transformation tools developed for constraint logic programs (CLP) can be applied to the Horn clause verification problem.Abstract interpretation over convex polyhedra is capable of deriving sophisticated invariants and when used in conjunction with specialisation for propagating constraints it can frequently solve challenging verification problems.This is a contribution in itself, but refinement is needed when it fails, and the question of how to refine convex polyhedral analyses has not been studied much.We present a refinement technique based on interpolants derived from a counterexample trace; these are used to drive a property-based specialisation that splits predicates, leading in turn to more precise convex polyhedral analyses.The process of specialisation, analysis and splitting can be repeated, in a manner similar to the CEGAR and iterative specialisation approaches.</t>
+          <t>Ryszard Kapuściński (1932-2007) was an internationally acclaimed Polish journalist and author, whose writings generated some controversy for their apparent blending of reportage and literature. This volume includes four lectures: the ‘Viennese lectures’ which were delivered in Vienna on 1-3 December 2004 at the Institut für die Wissenschaften vom Menschen; ‘My Other’, which was given at the International Writers’ Symposium in Graz on 12 October 1990; ‘The Other in the global village’, which was delivered at the Father Józef Tischner Senior European School in Kraków on 30 September 2003; and ‘Encountering the Other as the challenge of the twenty-first century’, which was delivered on 1 October 2004, when Kapuściński was awarded an honorary doctorate at the Jagiellonian University in Kraków. The lectures pursue interlinked trajectories of reflection on Europe and its relations with Africa, the Americas, Asia, and the Middle East, as well as the question of the Other and the direction of social and cultural change. Over the course of the lectures, Kapuściński engages substantially with anthropology, particularly through the figure of Bronislaw Malinowski, and continental philosophy, through that of Emmanuel Lévinas. In this brief review, I will address these elements, before concluding with some short remarks about Kapuściński's representation of anthropology and Malinowski. For Kapuściński, Enlightenment humanism – expressed initially through literature and travel writing – opened up new spaces in which the Other emerged not as an object of conquest or conversion, but as a human being. According to Kapuściński, anthropology and the ‘philosophy of dialogue’ (p. 68) as practised by the likes of Lévinas, emerged from this Enlightenment space (p. 27). His summary of the development of anthropology from the debates of evolutionists, diffusionists, and functionalists into a discipline defined by ethnography, with Malinowski as ‘the creator of anthropological reportage’ (p. 32), segues neatly into a discussion of Lévinas, and his foregrounding of the ethics of the encounter with the Other, a move which Kapuściński sees as building upon the fieldwork pioneered by Malinowski. Kapuściński adds that fieldwork ‘is not only recommended for anthropologists, but is also a fundamental condition for the job of a reporter’ (p. 31), a point which highlights potential points of contact between the two professions. Kapuściński provides two perspectives on European history and experience: one, as we have seen, begins with the Enlightenment and moves on via the novel to anthropology and the philosophy of dialogue. The other focuses on social and cultural change, and the transition, as Kapuściński sees it, from mass to global society, a transition precipitated by decolonization and the end of the Cold War, as well as the advance and spread of new communication technologies. According to Kapuściński, mass society, particularly in its totalitarian forms, negated the individual: the subject was a member of a class, a race, or a nation. As such, our new multicultural-global society must embrace the spirit of dialogue found not just in the writings of Lévinas but also in those of the Polish Catholic theologian Józef Tischner, for whom the idea of dialogue was precisely conceived in opposition to mass and totalitarian social forms and in the recognition of the individual human being. Importantly, Kapuściński understands that a defining feature of the new global and multicultural society is its emergence from ‘various contradictory worlds, a composite creature of fluid, impermanent contours and features’ (p. 33), and that it is ‘hybrid and heterogeneous’ (p. 89). This new society will, according to Kapuściński, require something of the spirit of Malinowski, Lévinas, and Tischner if it is not to succumb to the many enmities and challenges that beset it from all sides. One reason to read this beautifully composed book is for its representation of anthropology and one of the discipline's most controversial figures, Malinowski. Kapuściński sees in anthropology, and fieldwork in particular, a deliberative methodology for dialogue and understanding the Other. Perhaps this is a rose-tinted view of the fieldwork encounter that does not adequately grasp its ongoing implication in asymmetries of power, race, and gender, but Kapuściński offers some useful points of departure for pursuing related questions about ethnography and literary craft, and for exploring anthropology and journalism as entangled professions. Finally, given the links made by Robert J. Thornton (‘Imagine yourself set down …’, Anthropology Today 1: 5, 1985) between Malinowski and one of Conrad's more disturbing creations, Kurtz, there is perhaps some irony in the fact that Kapuściński's final lecture closes with a quotation from Joseph Conrad (p. 92) that points to a common humanity binding together the dead, the living, and the unborn.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1992992897</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/qua.560340848</t>
+          <t>https://openalex.org/W2138101700</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Rodríguez &amp; Ishikawa (1988)</t>
+          <t>Baynes (1977)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Fully numerical solutions of the hartree-fock equation in momentum space: A numerical study of the He atom and H+2 ion</t>
+          <t>A Personal Retrospect: The Argument for Design Education</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>A major impediment to achieving accurate solutions of the momentum-space Hartree-Fock equation in fully numerical form lies in the error caused by the truncation of momentum space. We use a coordinate transformation, which is characterized by P = tan(α/2), thus avoiding this truncation to achieve accurate solutions of the Hartree-Fock equation. Using this approach, we have re-examined the He model problem previously analyzed by Delhalle and Defranceschi [Intern. J. Quantum Chem. Symp. 21 425 (1987)]: The kinetic, nuclear attraction and Coulomb repulsion energies of the He atom have been evaluated using both conventional spherical polar momentum coordinates, (p, θ, φ) and the transformed coordinates, (α,θ,φ) in order to compare their accuracies. We have performed a number of fully numerical calculations on the H ion in order to examine the influence of the number of points in the mesh on the accuracy of the computed total electronic energy of the diatomic molecule.</t>
+          <t>The suggestion for an article based on a personal view of the past ten years in design education came at an opportune moment. Having just completed work on the Design in General Education project at the Royal College of Art, and having just begun to research a new exhibition - on the evolution of engineering drawing - for the Welsh Arts Council, I was in the right frame of mind to look again at my motivations. Certainly with educational activities, a design practice and historical research all going on at the same time, the pattern did not immediately suggest coherence. It didn't even look well designed! How is it that I find no difficulty in maintaining a continuing commitment to, for example, art and design or fashion and technology, when to many people, particularly perhaps to specialist subject teachers, they obviously seem poles apart? I tried to give an answer to this rather sharp question in talks I gave to arts teachers at the ILEA's Cockpit Theatre in London and to design teachers at the NADE Conference at Eaton Hall in Retford . The present article is based on an expansion of those talks . What I am setting out to do is to restate some of those arguments in favour of design education that have struck me as being truly fundamental . To put this into the form of a personal narrative means going back twenty rather than ten years but I hope the longer perspective will be useful . What I find particularly interesting is that the arguments which seemed powerful then still seem powerful now . It still appears to me that in order to understand and evaluate the content and methods of design education we have first to understand and evaluate the radical changes which have transformed communication and construction and the attitudes of people to them. Once this has been done, there are likely to be a great variety of valid ways of bringing such concerns into the forum of general education.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2784193465</t>
+          <t>https://openalex.org/W2990504874</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/rs10010087</t>
+          <t>https://doi.org/10.1101/858118</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Myoung et al. (2018)</t>
+          <t>Huang et al. (2019)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Estimating Live Fuel Moisture from MODIS Satellite Data for Wildfire Danger Assessment in Southern California USA</t>
+          <t>Nanotopography enhances dynamic remodeling of tight junction proteins through cytosolic complexes</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>The goal of the research reported here is to assess the capability of satellite vegetation indices from the Moderate Resolution Imaging Spectroradiometer onboard both Terra and Aqua satellites, in order to replicate live fuel moisture content of Southern California chaparral ecosystems. We compared seasonal and interannual characteristics of in-situ live fuel moisture with satellite vegetation indices that were averaged over different radial extents around each live fuel moisture observation site. The highest correlations are found using the Aqua Enhanced Vegetation Index for a radius of 10 km, independently verifying the validity of in-situ live fuel moisture measurements over a large extent around each in-situ site. With this optimally averaged Enhanced Vegetation Index, we developed an empirical model function of live fuel moisture. Trends in the wet-to-dry phase of vegetation are well captured by the empirical model function on interannual time-scales, indicating a promising method to monitor fire danger levels by combining satellite, in-situ, and model results during the transition before active fire seasons. An example map of Enhanced Vegetation Index-derived live fuel moisture for the Colby Fire shows a complex spatial pattern of significant live fuel moisture reduction along an extensive wildland-urban interface, and illustrates a key advantage in using satellites across the large extent of wildland areas in Southern California.</t>
+          <t>Abstract The epithelial tight junction regulates barrier function and is responsive to extracellular stimuli. Here we demonstrated that contact of synthetic surfaces with defined nanotopography at the apical surface of epithelial monolayers increased paracellular permeability of macromolecules. To monitor changes in tight junction morphology in live cells, we fluorescently tagged the scaffold protein zonula occludens-1 (ZO-1) through CRISPR/Cas9-based gene editing. Contact between cells and nanostructured surfaces destabilized junction-associated ZO-1 and promoted its arrangement into highly dynamic non-junctional cytosolic complexes that averaged ∼2 μm in diameter. Junction-associated ZO-1 rapidly remodeled, and we also observed the direct transformation of cytosolic complexes into junction-like structures. Claudin-family tight junction transmembrane proteins and F-actin also were associated with these ZO-1 containing cytosolic complexes. These data suggest that the cytosolic structures are novel intermediates formed in response to nanotopographic cues that facilitate rapid tight junction remodeling in order to regulate paracellular permeability.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1607150625</t>
+          <t>https://openalex.org/W4251375231</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/14777280510572121</t>
+          <t>https://doi.org/10.14254/1800-5845/2018.14-4.17</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Bell (2005)</t>
+          <t>Ніценко et al. (2018)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Managing learner's expectations</t>
+          <t>Criteria for Evaluation of Efficiency of Energy Transformation Based on Renewable Energy Sources</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Purpose To explore ways in which organizations can start moving from training‐centered approaches to learner‐centered approaches. Design/methodology/approach The article is based on work that the author has done with a variety of organizations that has helped to provide a transition from teaching to learning. Findings To move from training to learning needs learners to be involved and informed otherwise they will devalue the learning experience. Practical implications The article is about small‐scale changes that can be made to support learners in the transition period. Originality/value The article will be of value to managers and learning specialists who want to be more innovative in their design of learning programs.</t>
+          <t>In the context of shortage of natural resources in Ukraine, the problem of evaluating efficiency of the implementation of renewable energy sources (RES) becomes of particular importance and comes in first place, since its solution will reduce the energy dependence of the state.Theoretical, methodological and practical issues of diversification of energy sources and evaluation of their effectiveness have found their development in modern works of domestic and foreign scientists.However, methods proposed by the scientists for evaluating efficiency of the transformation of energy consumption based on RES are purely theoretical and do not fully allow to determine the current state and directions of diversification of energy sources.The research is aimed at improving methodological support and developing criteria for evaluating the efficiency of energy consumption transformation based on RES.The article considers the main methods of evaluating efficiency of involving RES in the energy consumption of the state, region and enterprise.Advantages, drawbacks and perspectives of diversifying energy sources based on RES are shown.The system of criteria for evaluating effectiveness of energy consumption transformation based on RES is proposed.It is based on economic, environmental and social efficiency.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2319810371</t>
+          <t>https://openalex.org/W1994124700</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/conf.fnbeh.2012.27.00131</t>
+          <t>https://doi.org/10.1143/jpsj.67.2189</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Esther (2012)</t>
+          <t>Shima &amp; Nakayama (1998)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Evidence for GABA as an Inhibitory Neurotransmitter in the Neural Circuit Regulating Metamorphosis in the Marine Mollusc Ilyanassa obsoleta</t>
+          <t>Finite-Time Scaling Approach for the&lt;i&gt;&lt;i&gt;a&lt;/i&gt;&lt;i&gt;c&lt;/i&gt;&lt;/i&gt;Conductivity near the Anderson Transition</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Event Abstract Back to Event Evidence for GABA as an Inhibitory Neurotransmitter in the Neural Circuit Regulating Metamorphosis in the Marine Mollusc Ilyanassa obsoleta Dhani Biscocho1 and Esther M. Leise1* 1 University of North Carolina Greensboro, Biology, United States The marine mud snail, Ilyanassa obsoleta, displays a biphasic life cycle. The initial phase consists of a larval stage in which the animals have ciliated feeding structures on the head (velar lobes) that allow them to swim weakly in the water column. The second phase consists of an adult stage during which the animals reside on intertidal mudflats as obligate omnivores. The event that links these life history stages is metamorphosis. Our interest lies in this transition from larva to non-reproductive adult, the neural circuit that controls metamorphosis, and the cues which are responsible for initiating this process. Molluscan metamorphosis requires multiple changes in cellular action, morphology, physiology and behavioral interactions. I. obsoleta undergoes transformations that include loss of one brain ganglion (the apical ganglion), reorganization of other brain regions, and disappearance of the velar lobes. The neurotransmitter γ-aminobutyric acid (GABA) can induce metamorphosis in a related mollusc, the abalone Haliotis rufescens (Morse, et al. 1979, Science 204, 407-410), but results of our experiments with I. obsoleta have revealed an inhibitory action for GABA. Bath application of GABA to metamorphically competent larvae of I. obsoleta does not elicit metamorphosis. However, exposure of larvae to seawater with reduced chloride concentrations induced metamorphosis in a dose-dependent fashion. Earlier work on I. obsoleta has demonstrated that the neurotransmitters serotonin (5-HT) and nitric oxide function as a promoter and repressor of metamorphosis, respectively. GABA can inhibit serotonergically induced metamorphosis, suggesting that GABA acts either downstream of, or directly on serotonergic neurons. We are currently exploiting reagents that modify the function of GABA transport, synthesis and metabolism to verify that GABA has a role in this system. In bath application, muscimol, a GABA-A agonist, inhibits spontaneous larval metamorphosis for 48 hours. Bath application of isoguvacine, another GABA-A agonist or aminooxyacetic acid (AOA), a major inhibitor of GABA-Transaminase can also repress metamorphosis in 5-HT-induced larvae. In current experiments, we are injecting reagents into competent larvae to decrease chances of interactions between neuroactive compounds and epidermal sensory receptors. These experiments should further support the idea that GABAergic activity occurs internally within the larval central nervous system, perhaps in the apical ganglion. Together, our data will help to elucidate the role of GABA in this molluscan metamorphic pathway. Acknowledgements Funded in part by UNCG Department of Biology Keywords: GABA, gastropod, Larva, metamorphosis, mollusc, Nitric Oxide, Serotonin, Snail Conference: Tenth International Congress of Neuroethology, College Park. Maryland USA, United States, 5 Aug - 10 Aug, 2012. Presentation Type: Poster Presentation (see alternatives below as well) Topic: Development Citation: Biscocho D and Leise EM (2012). Evidence for GABA as an Inhibitory Neurotransmitter in the Neural Circuit Regulating Metamorphosis in the Marine Mollusc Ilyanassa obsoleta. Conference Abstract: Tenth International Congress of Neuroethology. doi: 10.3389/conf.fnbeh.2012.27.00131 Copyright: The abstracts in this collection have not been subject to any Frontiers peer review or checks, and are not endorsed by Frontiers. They are made available through the Frontiers publishing platform as a service to conference organizers and presenters. The copyright in the individual abstracts is owned by the author of each abstract or his/her employer unless otherwise stated. Each abstract, as well as the collection of abstracts, are published under a Creative Commons CC-BY 4.0 (attribution) licence (https://creativecommons.org/licenses/by/4.0/) and may thus be reproduced, translated, adapted and be the subject of derivative works provided the authors and Frontiers are attributed. For Frontiers’ terms and conditions please see https://www.frontiersin.org/legal/terms-and-conditions. Received: 26 Apr 2012; Published Online: 07 Jul 2012. * Correspondence: Dr. Esther M Leise, University of North Carolina Greensboro, Biology, Greensboro, NC, 27412, United States, esther_leise@uncg.edu Login Required This action requires you to be registered with Frontiers and logged in. To register or login click here. Abstract Info Abstract The Authors in Frontiers Dhani Biscocho Esther M Leise Google Dhani Biscocho Esther M Leise Google Scholar Dhani Biscocho Esther M Leise PubMed Dhani Biscocho Esther M Leise Related Article in Frontiers Google Scholar PubMed Abstract Close Back to top Javascript is disabled. Please enable Javascript in your bro</t>
+          <t>It is demonstrated that the finite-time scaling approach, derived from the forced oscillator method, to determine the exponent of the ac conductivity σ(ω)∝ω δ near the metal-insulator transition point is a very powerful method for evaluating the precise value of the exponent δ with high speed and accuracy.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318147134</t>
+          <t>https://openalex.org/W4295066601</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/bigdata55660.2022.10021087</t>
+          <t>https://doi.org/10.3389/fcvm.2022.966217</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Baldwin et al. (2022)</t>
+          <t>Zhang et al. (2022)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Better Skill-based Job Representations, Assessed via Job Transition Data</t>
+          <t>Effects of potential risk factors on the development of cardiometabolic multimorbidity and mortality among the elders in China</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Learning never stops for successful workers, who must grow their careers while coping with the changing expectations of employers. Robust job-skill representations can empower workers by helping them to better decipher viable job changes given their current skill set and guide them toward skills they can learn to meet career goals. In this work we combine threads of research in economics and AI to improve upon existing job-skill representation methodology and performance. We build a benchmark dataset of between-job transitions from US Census data and show that a representation trained on a large set of online job postings via a transformer-based architecture outperforms existing baselines. Further analysis demonstrates that this model is better able to transfer across taxonomies than existing models.</t>
+          <t>To examine the impact of demographic, socioeconomic, and behavioral factors on the development of cardiometabolic multimorbidity and mortality in Chinese elders.Data from the Chinese Longitudinal Healthy Longevity Survey (CLHLS) 2002-2018 was used in the study. Cardiometabolic multimorbidity was defined as the presence of two or more cardiometabolic disorders, such as hypertension, diabetes, cardiovascular disease (CVD), heart disease, or stroke. Cox regression model and multi-state Markov model were developed to evaluate the association of the study factors with the progression of cardiometabolic conditions and mortality. The outcomes included three states (first cardiometabolic disease, cardiometabolic multimorbidity, and all-cause mortality) and five possible transitions among the three states.Of the 13,933 eligible individuals, 7,917 (56.8%) were female, and 9,540 (68.50%) were over 80 years old. 2,766 (19.9%) participants had their first cardiometabolic disease, 975 (7.0%) participants suffered from cardiometabolic multimorbidity, and 9,365 (67.2%) participants died. The progression to cardiometabolic multimorbidity was positively associated with being female (HR = 1.42; 95%CI, 1.10 - 1.85), living in the city (HR = 1.41; 95%CI, 1.04 - 1.93), overweight (HR = 1.43; 95%CI, 1.08 - 1.90), and obesity (HR = 1.75; 95% CI, 1.03 - 2.98). A higher risk for the first cardiometabolic disease was associated with being female (HR = 1.26; 95% CI, 1.15 - 1.39), higher socioeconomic status (SES, HR = 1.17; 95%CI, 1.07 - 1.28), lack of regular physical activity (HR = 1.13; 95%CI, 1.04 - 1.23), smoking (HR = 1.20; 95%CI, 1.08 - 1.33), ≤ 5 h sleep time (HR = 1.15; 95%CI, 1.02 - 1.30), overweight (HR = 1.48; 95% CI, 1.32 - 1.66), and obesity (HR = 1.34; 95%CI, 1.06 - 1.69). It also should be noted that not in marriage, lower SES and unhealthy behavioral patterns were risk factors for mortality.This study emphasized the importance of lifestyle and SES in tackling the development of cardiometabolic conditions among Chinese elders and provided a reference for policy-makers to develop a tailored stage-specific intervention strategy.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3114765898</t>
+          <t>https://openalex.org/W2110493470</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/d0ta10415a</t>
+          <t>https://doi.org/10.1176/appi.ajp.2008.08030398</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Shim et al. (2021)</t>
+          <t>Campanella (2008)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Utilization of electron-beam irradiation under atomic-scale chemical mapping for evaluating the cycling performance of lithium transition metal oxide cathodes</t>
+          <t>The Green Bike</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>A true chemical information of Ni-rich cathode materials at the atomic scale was obtained.</t>
+          <t>Back to table of contents Previous article Next article IntrospectionsFull AccessThe Green BikeKarla Campanella M.D., M.A.Karla Campanella M.D., M.A.Search for more papers by this authorPublished Online:1 Sep 2008https://doi.org/10.1176/appi.ajp.2008.08030398AboutSectionsPDF/EPUB ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InEmail I was in the middle of a hectic night on call in the ED. I had a long list of patients to see—all with suicidal ideation of one form or another.I begin evaluating the next patient. Stifling a yawn, I smoothly transition from HPI to ROS. How’s your sleep, appetite, energy? I am on a roll. Past Psychiatric History and Family History pass by like signposts on a late-night road trip. Turning the corner onto Social History, I am moments away from being able to check the patient off my list and that much closer to a few stolen moments of sleep.“Have you ever been abused?” With that question, the momentum is broken. The patient, an older African American female, gets a faraway look in her eyes.“Back then,” she finally says, “They could not get black teachers for the school in my neighborhood. So I had a white fourth grade teacher.” The patient reflected on how honored she felt that he singled her out and gave her special jobs to do. “I had never been shown attention from a white man before.” But then one day he took her into the broom closet and molested her.Mesmerized, I listened as the patient shared how more and more men from the neighborhood sexually abused her—shopkeepers, neighbors, cousins, brothers. When she challenged her brothers, they said, “That is just the way it is supposed to be.” The men would call to her from their houses as she walked down the street. “Hey, do you want a quarter?” The patient confided that she loved to swim and a day’s admission to the pool cost a quarter. “I swam every day.”Quietly, the patient told me how much she hated it. How she would constantly change her walking route to avoid the calling men. But still they would find her. She had no one to go to for help. Her family was poor, and her mother was always working. Her father was an alcoholic.But a neighbor lady seemed to know what was happening. One day, she gave the patient her daughter’s old green bike. Now the men would call, but the patient could pedal fast and get away. “Yes, I loved that green bike,” the patient smiled, “I took such good care of it.”Deeply touched, I gazed upon this former medical record number on a checklist and said, “You are a strong woman.” She looked at me and said, “That is the way with African American women. We have to be strong no matter what. We are just supposed to take whatever life gives us. We are not supposed to ask for help.”Silently, I thanked her for derailing my goal-directed history evaluation, and for taking me on a cross-cultural detour through the pain of poverty, racial tension, and sexual aggression. Her story of the power of a neighbor’s kindness in the midst of a neighborhood’s inhumanity touched my soul, and forever I will carry the image of that old green bike along with the determined little girl for whom it was a link to sanity.Address correspondence and reprint requests to Dr. Campanella, University of Pennsylvania Health System, 2nd Floor, 3535 Market St., Philadelphia, PA 19104; [email protected] (e-mail). Introspection accepted for publication April 2008 (doi: 10.1176/appi.ajp.2008.08030398). FiguresReferencesCited byDetailsCited ByNone Volume 165Issue 9 September, 2008Pages 1110-1110THE AMERICAN JOURNAL OF PSYCHIATRY September 2008 Volume 165 Number 9 Metrics PDF download History Published online 1 September 2008 Published in print 1 September 2008</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2772891606</t>
+          <t>https://openalex.org/W2066296828</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4102/satnt.v28i4.73</t>
+          <t>https://doi.org/10.1207/s15544818ped0101_2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Walt (2009)</t>
+          <t>Kalantzis (2006)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Study orientation and knowledge of basic vocabulary in Mathematics in the primary school</t>
+          <t>Changing Subjectivities, New Learning</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Whatever the reason, underachievement in mathematics in South Africa is endemic and tantamount to a national disaster. Despite the transformation of education in South Africa, failure rates in mathematics at school and university remain unacceptably high, and the number of learners who leave Grade 12 with a pass mark in both mathematics and physical science is unacceptably low. Relatively little has been written about inadequate performance of Grade 4 to 7 learners in mathematics in South Africa, and even less about possible solutions to the problem. South African primary school learners’ lack of basic mathematics and vocabulary skills in particular is a source of major concern. In the ﬁrst national systemic evaluation of learners’ skills in English, mathematics and science in 2001 Grade 3 learners achieved an average of 30% in mathematics. In the follow-up studies, Grade 6 learners achieved a national average of 27% in mathematices, in 2004, while nationally eighty percent of Grade 3 and 6 learners achieved less than 50 percent for mathematics and Languages in 2008. The ﬁnding that so many primary school learners today are not numerate or literate has a direct inﬂuence both on the teaching and the learning of mathematics. Everything possible needs to be done to change this situation. During the past 15 years, the research focus in mathematics has shifted to an examination of the inﬂuence of social, cognitive and metacognitive, conative and affective factors on achievement in mathematics. In this regard, it is of particular importance that an ongoing investigation into “other” aspects that impact on achievement in mathematics is launched, rather than to restrict the investigation to mere assessment of objectives that are aimed at continually evaluating cognitive progress in mathematics. There is sufﬁcient empirical evidence that an adequate orientation to the study of mathematics correlates positively with high achievement in mathematics on secondary and tertiary levels. The aim of this research was to investigate the extent to which the performance in study orientation (Study Orientation questionnaire in Mathematics (Primary)) and knowledge of basic vocabulary/terminology in mathematics (Mathematics Vocabulary (Primary)) (vocabulary as one aspect of language in Mathematics) of Grade 4 to 7 learners predict performance in mathematics (Basic Mathematics (Primary)). Three standardised questionnaires were administered, namely the Study Orientation questionnaire in Mathematics (Primary), or SOM(P), Mathematics Vocabulary (Primary) or (MV(P), and Basic Mathematics (Primary) or BM(P). The participants consisted of learners in Grade 4 to 7 (n = 1 103) in North-West Province with respectively Afrikaans, English and Tswana as their home language. Results from the data, by calculating intercorrelations and stepwise regression, conﬁrmed that learners’ performance in mathematics (BM(P)) can be predicted through their performance in the knowledge of basic vocabulary in mathematics (MV(P)), their “maths” anxiety, study attitude towards and study habits in mathematics (SOM(P)). The results can be implemented to improve learners’ performance in mathematics when teachers identify inadequate knowledge of basic vocabulary in mathematics as well as study orientation (for example, “maths” anxiety, study attitude towards and study habits in mathematics) in the early years of schooling. Learners’ scores can be checked to identify those requiring aid, support, remediation and/or counselling. An analysis of individual answers (particularly those where learner’s replies differ signiﬁcantly in respect of the answers usually given by good achievers in mathematics) could be extremely useful. Enculturing learners to the vocabulary of mathematical language is an aspect of instruction that needs speciﬁc attention. The three questionnaires, which are administered in this research, provide mathematics teachers with standardised tools with which to make a simple systematic analysis of a number of important background particulars, feelings, attitudes, habits and customs with regard to the learner’s academic orientation in mathematics, as well as to their knowledge of basic vocabulary in mathematics that could be remedied when inadequate.</t>
+          <t>In this article I argue that today's social transformations are of such depth and significance that they demand a fundamental rethinking of the nature of pedagogy. I address 3 closely interwoven facets of change: the nature of subjectivity, where as citizens, workers, and cultural beings, we are more and more required to be users and players rather than spectators or delegates; the growing intensity and significance of lifeworld diversity in which the local is more multifarious and the global more proximate; and the changing means of production of meaning where the semantic web is increasingly ubiquitous and its meanings multimodal. The response of a New Learning must be multifaceted and holistic. More than reactive, the New Learning must be creative, itself an agent of change rather than merely reflective of change. The transformations wrought by the New Learning must be systemic, rhetorical, and evident in the everyday practices of teaching and learning. In the article I highlight just one of a number of possible pathways, and that is the shift from a psychological/cognitivist view of learning to an epistemological one.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2328529535</t>
+          <t>https://openalex.org/W2071306724</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/972105</t>
+          <t>https://doi.org/10.1051/jphys:01986004704071100</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Masson (1997)</t>
+          <t>Gramsbergen et al. (1986)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Cultural Transformation at the Maya Postclassic Community of Laguna de On, Belize</t>
+          <t>Antiferroelectric surface layers in a liquid crystal as observed by synchrotron X-ray scattering</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Comparisons of Late Classic (A.D. 600-900) and Early-to-Middle Postclassic (A.D. 1000-1400) settlements at Laguna de On illuminate the transformation of Maya society at the community level in the aftermath of the Classic-period collapse. Affluent subsistence production communities such as Laguna de On reflect the emergence of the village as a focal point for social, political, and economic organization at this time, a pattern that persists in the Maya Lowlands to this day. Ties with the past are observed in comparisons of Classic-to-Postclassic domestic and public architectural efforts, burial patterns, faunal remains, lithic tool production and use, and settlement strategy at Laguna de On. Although some technological and material differences are observed in household assemblages of each period, the changes are not interpreted as material reflections of population replacement or ethnic difference. Postcollapse Belize Maya community organization and domestic patterns are analyzed as scaled-down transformations of Classic-period institutions in response to altered conditions of regional demography, ecology, and political geography.</t>
+          <t>The X-ray reflectivity form the surface of a liquid crystal with terminally polar (cyano substituted) molecules has been studied using a high-resolution triple-axis X-ray spectrometer in combination with a synchrotron source. It is demonstrated that at the surface of the smectic A1 phase a few antiferroelectric double layers develop that can be distinguished from the bulk single layer structure. A model is developed that separates the electron density in a contribution from the molecular form factor, and from the structure factor of the mono- and the bilayers, respectively. With only a few adjustable parameters it accounts for the rather complex observed reflection curve. It shows that (i) the first molecular layer has tails up rather than heads up, (ii) the smectic order parameter of the first mono- and bilayer is saturated, (iii) the antiferroelectric bilayering does decay rather abruptly and not exponentially Etude RX de la surface d'un cristal liquide pres de la transition nematique-smectique A1. Developpement en surface de quelques doubles couches antiferroelectriques qui peuvent etre distinguees de la structure en simples couches du materiau massif</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W580254955</t>
+          <t>https://openalex.org/W4255441302</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5860/choice.30-3205</t>
+          <t>https://doi.org/10.21313/hawaii/9780824855680.003.0002</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Yarrow (1993)</t>
+          <t>Eifring (2016)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>European theatre 1960-1990: cross-cultural perspectives</t>
+          <t>Types of Meditation</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>theatre has been the site of enormous change and struggle since 1960. There have been radical shifts in the nature and understanding of performance, fuelled by increasing cross-cultural and international influence. Theatre has had to fight for its very existence, adapting its methods of operation to survive. European Theatre 1960-1990 tells that story. The contributors - who in many cases have been theatre practitioners as well as critics - provide a wealth of fascinating information, much of it previously unavailable in English, covering Germany, France, Poland, Italy, Spain and Sweden, as well as Britain. The book offers an historical and descriptive overview of developments across national boundaries, enabling the reader to compare and contrast acting and directing styles, administrative strategies and the relationship between ideology and achievement. Chapters trace the evolution of theatre in all its aspects, including such elements as the end of censorship in many countries, the upsurge in political and personal awareness of the 1960s, shifting patterns of state artistic policy, and the effects on companies, directors, performers and audiences. This book should be of interest to undergraduates, postgraduates and academics of theatre studies.</t>
+          <t>This essay distinguishes between directive meditation, which seeks to bring about inner transformation by means of outside-in processes, and non-directive meditation, which builds on inside-out processes. The two types differ in terms of their meditation object (thematic vs. technical), mental attitude (concentrative vs. non-concentrative), and the context surrounding the practice (suggestive vs. non-suggestive). Most meditation practices include both directive and non-directive elements, but differ widely in their emphases, as illustrated by references to modern studies as well as traditional works on meditation. The suggested distinction differs from the widespread Buddhist-inspired contrast between “concentrative” meditation (or “focused attention”) and “insight” meditation (or “open monitoring”), which is shown to be problematic, especially when applied to non-Buddhist forms of meditation. The social constructivism that has long dominated cultural history tends to give preference to explanations based on directive working mechanisms and to disregard the equally important processes associated with non-directive meditation.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1582096280</t>
+          <t>https://openalex.org/W4323043702</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21236/ada562003</t>
+          <t>https://doi.org/10.3390/su15054496</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Fu &amp; Diamond (2012)</t>
+          <t>Suman &amp; Alblas (2023)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Chemical Strategy to Translate Genetic/Epigenetic Mechanisms to Breast Cancer Therapeutics</t>
+          <t>Exploring Citizen Science over Time: Sensing, Technology and the Law</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Abstract : Our project aims to use a molecular signature strategy to develop new therapeutics against metastatic breast cancer by targeting the Epithelial-to-Mesenchymal Transition (EMT) pathway. The project has been pursued in a step-wise fashion: We first used RNA-seq to define the molecular signature linked to the gene expression program associated with EMT. We next conducted chemical screening by following the EMT program on a novel technology platform we developed. After successful accomplishment of the first two steps, we selected a panel of leading compounds identified from the initial screen to test on cell and animal models to evaluate their effects in inhibit breast cancer metastasis. At the conclusion of the project, we have confirmed the functional property of identified compounds in inhibiting specific EMT-associated gene expression program on our model cell line. However, as we pointed out in our previous annual reports, we may have sufficient time to compete the study on animal models, which takes time. Importantly, the support from DOD has played a vital role for us to initiate this important project and we intend to continue the project with whatever resources we can identify in the future.</t>
+          <t>People over the course of history have survived by developing their ability to ‘sense’ their environment as an embryonic form of citizen science. With the emergence of modern states, governments have assumed responsibility for monitoring the quality of the environment, and progressively the practice and role of citizen science has changed. This review explores the different manifestations of citizen science over time, with a focus on its law and governance dimensions, reading this evolution as a critical analysis of the current discourses around citizen science. The evolution of citizen science throughout history and its transformation shows certain patterns that are highlighted in this article as ‘constant’ features, whereas other features are instead interrupted and reversed, and new ones emerge. We thus examined citizen science over time by asking what is really new about this phenomenon, focusing on constants—permanent features—and turning points—changes in direction. We argue that these dynamics are central to understanding the promises and perils of the practice, to fully grasping the forms of uninvited, reactive environmental citizen science and to scoping foreseeable future scenarios.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3209121265</t>
+          <t>https://openalex.org/W4234236954</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/5.0067690</t>
+          <t>https://doi.org/10.1190/1.9781560801672.ch5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Yue et al. (2021)</t>
+          <t>NA (2007)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>THz time-domain characterization of amplifying quantum-cascade metasurface</t>
+          <t>5. Duality</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>An amplifying quantum-cascade (QC) metasurface, the key component of the QC vertical-external-cavity surface-emitting-laser (VECSEL), is studied as a function of injected current density using reflection-mode terahertz time domain spectroscopy. Nearly perfect absorption is measured at zero bias, which is associated with the transition from the weak to strong coupling condition between the metasurface resonance and an intersubband transition within the QC material. An increase in reflectance is observed as the device is biased, both due to reduction in intersubband loss and the presence of intersubband gain. Significant phase modulation associated with the metasurface resonance is observed via electrical control, which may be useful for electrical tuning of QC-VECSEL. These results provide insight into the interaction between the intersubband QC-gain material and the metasurface and modify the design rules for QC-VECSELs for both biased and unbiased regions.</t>
+          <t>PreviousNext No AccessSeismic True-Amplitude Imaging5. Dualityhttps://doi.org/10.1190/1.9781560801672.ch5 SectionsAboutPDF/ePub ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinked InReddit Abstract We mentioned in Chapter 1 that all map and image transformation procedures discussed in this book rely on two basic geometric concepts: the Huygens surface (also called the diffraction-traveltime surface or the maximum-convexity surface) and the isochron (also called the aplanat, aplanatic, or equal-traveltime surface). In this chapter, we elaborate further on the common properties and the mutual relationship of these two fundamental surfaces, as well as on their relationship to the 3D reflection-traveltime surface and the 3D target reflector. We always assume a fixed measurement configuration as discussed in the "Measurement configurations" section of Chapter 2. Thus, all traveltime surfaces considered here are functions of a 2D vector parameter ξ, rather than of the complete set of source and receiver coordinates xS and xG. Permalink: https://doi.org/10.1190/1.9781560801672.ch5FiguresReferencesRelatedDetails Seismic True-Amplitude ImagingISBN (print):978-1-56080-143-6ISBN (online):978-1-56080-167-2Copyright: 2007 Pages: 401 publication data© 2007 All rights reserved. No part of this publication may be reproduced or distributed in any form or by any means without written permission of the publisherPublisher:Society of Exploration Geophysicists HistoryPublished in print: 01 Jan 2007 CITATION INFORMATION (2007), "5. Duality," Geophysical Developments Series : 149-172. https://doi.org/10.1190/1.9781560801672.ch5 Plain-Language Summary PDF DownloadLoading ...</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4210989739</t>
+          <t>https://openalex.org/W2087702603</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/9781108766852.004</t>
+          <t>https://doi.org/10.4204/eptcs.169.7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lob (2020)</t>
+          <t>Kafle &amp; Gallagher (2014)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Consolidation (1979–1989)</t>
+          <t>Convex polyhedral abstractions, specialisation and property-based predicate splitting in Horn clause verification</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Chapter 3 “Consolidation (1979–1989)” explores how RJ further safeguarded its existence and promoted its expansion by demobilizing its opponents and those of the IRP, including shah loyalists and royalists, communists and Marxists, Sunni and ethnic separatists, traditional elites and other counterrevolutionaries, and Iraqi forces and their collaborators. By monitoring these adversaries and embellishing the threat that they posed to the IRI, RJ created a self-fulfilling prophesy by radicalizing and pushing Khomeini and the IRP into further confrontation with them. The Cultural Revolution (1980–83) and the Iran-Iraq War (1980–89) facilitated and accelerated the mobilization and expansion of RJ and allowed it to help the IRI in its efforts to Islamize the provinces and villages, and repel invading Iraqi forces and their allies along the western border. RJ further marginalized its opponents and those of the IRI by physically and ideationally penetrating the provinces and villages through infrastructure, healthcare, education, culture, and religion.</t>
+          <t>We present an approach to constrained Horn clause (CHC) verification combining three techniques: abstract interpretation over a domain of convex polyhedra, specialisation of the constraints in CHCs using abstract interpretation of query-answer transformed clauses, and refinement by splitting predicates.The purpose of the work is to investigate how analysis and transformation tools developed for constraint logic programs (CLP) can be applied to the Horn clause verification problem.Abstract interpretation over convex polyhedra is capable of deriving sophisticated invariants and when used in conjunction with specialisation for propagating constraints it can frequently solve challenging verification problems.This is a contribution in itself, but refinement is needed when it fails, and the question of how to refine convex polyhedral analyses has not been studied much.We present a refinement technique based on interpolants derived from a counterexample trace; these are used to drive a property-based specialisation that splits predicates, leading in turn to more precise convex polyhedral analyses.The process of specialisation, analysis and splitting can be repeated, in a manner similar to the CEGAR and iterative specialisation approaches.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2307050698</t>
+          <t>https://openalex.org/W1992992897</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/1757975915595341</t>
+          <t>https://doi.org/10.1002/qua.560340848</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Patrick et al. (2016)</t>
+          <t>Rodríguez &amp; Ishikawa (1988)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Healthy Cities and the Transition movement: converging towards ecological well-being?</t>
+          <t>Fully numerical solutions of the hartree-fock equation in momentum space: A numerical study of the He atom and H+2 ion</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>This commentary identifies similarities, differences and opportunities for synergy and mutual learning between the Healthy Cities and the Transition movements. We outline what we consider to be the 'pressing issues' facing humanity and the planet in the early 21(st) century; consider the extent to which health promotion has engaged with and addressed these issues; compare Healthy Cities and the Transition movement; and conclude by suggesting possibilities for moving forward.</t>
+          <t>A major impediment to achieving accurate solutions of the momentum-space Hartree-Fock equation in fully numerical form lies in the error caused by the truncation of momentum space. We use a coordinate transformation, which is characterized by P = tan(α/2), thus avoiding this truncation to achieve accurate solutions of the Hartree-Fock equation. Using this approach, we have re-examined the He model problem previously analyzed by Delhalle and Defranceschi [Intern. J. Quantum Chem. Symp. 21 425 (1987)]: The kinetic, nuclear attraction and Coulomb repulsion energies of the He atom have been evaluated using both conventional spherical polar momentum coordinates, (p, θ, φ) and the transformed coordinates, (α,θ,φ) in order to compare their accuracies. We have performed a number of fully numerical calculations on the H ion in order to examine the influence of the number of points in the mesh on the accuracy of the computed total electronic energy of the diatomic molecule.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3157917116</t>
+          <t>https://openalex.org/W2784193465</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/0973703021998993</t>
+          <t>https://doi.org/10.3390/rs10010087</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Jejeebhoy &amp; Kumar (2021)</t>
+          <t>Myoung et al. (2018)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>What Prevents Adolescent Girls from Transitioning from School to Work in India? Insights from an Exploratory Study in Rajasthan</t>
+          <t>Estimating Live Fuel Moisture from MODIS Satellite Data for Wildfire Danger Assessment in Southern California USA</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Female labour force participation among young women in India is disturbingly low, and yet little evidence is available regarding the factors likely to affect the school-to-work transition among the young. Data from 325 girls aged 15–19 years and in-depth interviews with 10 of these girls and 9 of their mothers in one block of Jodhpur district, obtained from a mixed-methods study in Rajasthan, explore girls’ aspirations for professional, administrative or technical careers and factors likely constraining or facilitating their articulation of such aspirations. Findings show that girls who aspired for a professional, administrative or technical career were more likely than others to display better learning outcomes (odds ratio = 1.31), greater work-related agency and a readiness to overcome community obstacles (odds ratio, 1.28) than those who did not aspire for a professional, administrative or technical career. They were also more likely to be unmarried or married but residing in the natal home (odds ratio = 2.97) and have supportive parents (odds ratio = 1.37). In-depth interviews corroborate these obstacles. Findings underscore the need to empower girls and break down traditional norms held by girls, parents and communities. On the programme front, it is important to ensure empowerment programmes for girls and address the quality and girl-friendliness of education and vocational training opportunities.</t>
+          <t>The goal of the research reported here is to assess the capability of satellite vegetation indices from the Moderate Resolution Imaging Spectroradiometer onboard both Terra and Aqua satellites, in order to replicate live fuel moisture content of Southern California chaparral ecosystems. We compared seasonal and interannual characteristics of in-situ live fuel moisture with satellite vegetation indices that were averaged over different radial extents around each live fuel moisture observation site. The highest correlations are found using the Aqua Enhanced Vegetation Index for a radius of 10 km, independently verifying the validity of in-situ live fuel moisture measurements over a large extent around each in-situ site. With this optimally averaged Enhanced Vegetation Index, we developed an empirical model function of live fuel moisture. Trends in the wet-to-dry phase of vegetation are well captured by the empirical model function on interannual time-scales, indicating a promising method to monitor fire danger levels by combining satellite, in-situ, and model results during the transition before active fire seasons. An example map of Enhanced Vegetation Index-derived live fuel moisture for the Colby Fire shows a complex spatial pattern of significant live fuel moisture reduction along an extensive wildland-urban interface, and illustrates a key advantage in using satellites across the large extent of wildland areas in Southern California.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2008266806</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1037/h0094117</t>
+          <t>https://openalex.org/W1644289212</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Упитис (1993)</t>
+          <t>Cook &amp; Brueckner (1991)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Children's invented symbol systems: Exploring parallels between music and mathematics.</t>
+          <t>Fine structure of the solar transition region - Observations and interpretation</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>This is a short report of an exploratory study linking children's invented mathematical notations and music notations. Ten 8-year-old children participated in the study. Prior research in music notations has indicated that children have a variety of symbols at their disposal, and their choice of symbols depends on the entity they are trying to capture. This was also the case for notations of tessellations. Although there were similarities found between the use of symbols in the two domains, a consideration of the intended reader did not appear to be a contributing factor in designing mathematical notations. This research note describes the first of four phases of the research comparing children's invented notations for mathematics and music. The overall aims of the research are to explore the authentic connections between music and mathematics in terms of notations, as well as form and transformations, and to adapt methodologies used in researching children's music cognition to address parallel situations in mathematics. There is much to learn from the research on music notations in advancing our understanding of mathematics notations. A diverse body of research indicates that children use a rich and varied repertoire of symbols and strategies in notating rhythm sequences and melodies. They notate with pictures or icons, letters and words, numbers, lines and squiggles and crosses, music symbols, and color to create engaging systems of recording the music they (Bamberger, 1982; Davidson &amp; Colley, 1986; Davidson &amp; Scripp, 1988; Davidson, Scripp, &amp; Welsh, 1988; Smith, 1989; Upitis, 1987, 1990a) and compose (Borstad, 1989; Upitis, 1990b, 1992). In an examination of the research on children's music notations, three other features consistently emerge. The first is that children are more likely to engage in exploring and using music notations when they are involved in making something that they value as real—perhaps composing a piece that others will in a class concert (Upitis, 1992). Second, research on music notations indicates the importance of the intended or imagined reader. Children are less likely to use music symbols if they know that the person who will be reading their notation is not fluent in standard notation (Upitis, 1990a, 1992). Finally, research indicates that when children truly embrace an idea, they make it a part of their world, using the idea to see the everyday phenomena in new ways (Hodgkin, 1985). Thus, children who become musicians and composers may hear the music in the pattern on a sweater or in a mosaic (Upitis, 1990b).</t>
+          <t>An evaluation is conducted of recent high spatial resolution observations of the solar transition region and temperature minimum, in the form of UV spectra and spectroheliographs from both sounding rockets and the Spacelab 2 flights of the High Resolution Telescope and Spectrograph (HRTS). Attention is given to the solar atmosphere structure implications of the HRST's observational results. The inclusion of fine structure in conjectures concerning the transition region affects the plausibility of 1D average models of the solar atmosphere, as well as the determination of temperature gradients, possible nonradiative-heating mechanisms, and the comparison of transition region structures with corresponding observations of the photosphere and corona.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2471479606</t>
+          <t>https://openalex.org/W3044415895</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1515/ijame-2015-0016</t>
+          <t>https://doi.org/10.17116/stomat20209904157</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Baoku et al. (2015)</t>
+          <t>Aa et al. (2020)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Heat and Mass Transfer in a Second Grade Fluid Over a Stretching Vertical Surface in a Porous Medium</t>
+          <t>Regulatory framework of the new system of wage payment in research institutions</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>The investigation deals with the combined heat and mass transfer in a mixed convection boundary layer flow over a stretching vertical surface in a porous medium filled with a viscoelastic second grade fluid. The partial differential equations governing the model have been transformed by a similarity transformation and the system of coupled-ordinary differential equations is solved by employing the shooting method with the fifth-order Runge-Kutta-Fehlberg iteration technique. Effects of various values of physical parameters embedded in the flow model on the dimensionless velocity, temperature and concentration distributions are discussed and shown with the aid of graphs. Numerical values of physical quantities, such as the local skin-coefficient, local Nusselt number and local Sherwood number are presented in a tabular form. It is observed that the boundary layer fluid velocity increases as the second grade parameter, mixed convection parameter and Prandtl number increase.</t>
+          <t>Changes in the legislation, the development of the regulatory and legal framework governing relations in the sphere of wage payment for health care workers has caused the transition of medical organizations to the new system of salaries payments (NSWP). This system has given executives and economists significant freedom when determining the size of payments to the employee per hour worked, including stimulating and compensation payments, bonuses and other regular pension benefits. However, given situation has also resulted in the need for studies intended on the formulation of the criteria's for medical workers of different specialties actions evaluation and the quality of medical services that they have provided, as well as on the efficiency of the health care organizations in general.Изменения в законодательстве, в частности, разработка нормативной правовой базы, регулирующей правоотношения в сфере оплаты труда медицинских работников, обусловили переход медицинских организаций и институтов на новую систему оплаты труда. Эта система предоставила руководителям и экономистам значительную свободу в определении размера выплат, причитающихся работнику за отработанное время, включая стимулирующие и компенсационные выплаты, премии, а также иные регулярные выплаты. Однако данная ситуация также привела к необходимости проведения исследований, направленных на разработку критериев оценки деятельности научных и медицинских работников различных специальностей и влияние этих критериев на качество оказанных медицинских услуг, а также на эффективность функционирования медицинских организаций и институтов в целом.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2627888317</t>
+          <t>https://openalex.org/W1607150625</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.25081/jsa.2017.v1.61</t>
+          <t>https://doi.org/10.1108/14777280510572121</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Gayan et al. (1970)</t>
+          <t>Bell (2005)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Novel biotransformation of menthone by microbial strains and vermicompost microbial consortium</t>
+          <t>Managing learner's expectations</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>The aim of the study was to evaluate the ability of Trichoderma harzianum and Pseudomonas fluorescence and vermicompost microbial consortium to biotransform the monoterpene menthone. The different microbial transformation was carried out in different media including the control flask. Samples of different cultures were taken after every 24 hours, extracted with n-hexane and analysed by GC and GC-MS. The chemical structure of the bio transformed products were identified by GC and GC-MS. All the microbial strains led to the decomposition of menthone with time. The most valuable transformation was the production of menthol by vermicompost microbial strain. The obtained data indicated that vermicompost microbial consortium is a good biocatalyst to convert the ketonic group into hydroxyl group and showed the importance of various microbial strains in the biotransformation of the menthone.</t>
+          <t>Purpose To explore ways in which organizations can start moving from training‐centered approaches to learner‐centered approaches. Design/methodology/approach The article is based on work that the author has done with a variety of organizations that has helped to provide a transition from teaching to learning. Findings To move from training to learning needs learners to be involved and informed otherwise they will devalue the learning experience. Practical implications The article is about small‐scale changes that can be made to support learners in the transition period. Originality/value The article will be of value to managers and learning specialists who want to be more innovative in their design of learning programs.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4395600964</t>
+          <t>https://openalex.org/W4318147134</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15468/dl.5zj7jg</t>
+          <t>https://doi.org/10.1109/bigdata55660.2022.10021087</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>AUTHOR_ID (2023)</t>
+          <t>Baldwin et al. (2022)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Occurrence Download</t>
+          <t>Better Skill-based Job Representations, Assessed via Job Transition Data</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">A dataset containing 49896777 species occurrences available in GBIF matching the query: { "and" : [ "Continent is Europe", "Country is one of (United Kingdom of Great Britain and Northern Ireland, Finland, France, Sweden, Netherlands, Norway, Belgium, Germany, Switzerland, Austria, Spain, Italy, Portugal, Iceland, Denmark, Liechtenstein, Luxembourg, Poland, Czechia, Ireland, Estonia, Slovakia, Slovenia, Latvia, Lithuania, Hungary, Croatia, Greece, Serbia, North Macedonia, Albania, Montenegro, Kosovo, Bosnia and Herzegovina, Romania, Bulgaria, Belarus, Moldova, Republic of, Isle of Man, Andorra, Ukraine)", "Geometry POLYGON((-20 20,60 20,60 72,-20 72,-20 20))", "HasCoordinate is true", "HasGeospatialIssue is false", "Month is one of (March, April, May, June, July, August, September, October)", "OccurrenceStatus is Present", "TaxonKey is Lepidoptera", "Year 1950-2014" ] } The dataset includes 49896777 records from 2323 constituent datasets: 244 records from Finds of rare species of animals in Ukraine (2022). 65 records from [CartoDyn] - Contact lors journée inventaire spécifique Invertébrés. 108 records from Activités du CEN Nouvelle-Aquitaine anciennement CEN Limousin - Regroupement de données du CEN Nouvelle-Aquitaine (ex CEN Limousin). 38 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Suivi des reptiles, insectes et flore de la forêt départementale de Champfailly 2009. 94 records from Données biodiversité du projet éolien de Briffons (habitats et flore). 2 records from Waldstück Bremerhagen LK Bio Kl. 12. 20 records from Bodenteicher Seewiesen. 359 records from Some records of animals in Ukraine. 11 records from Trockenrasen und Buchenwald in der Umgebung der Jugendherberge Bad Blankenburg. 27489 records from Données des Lépidoptères de l'association FLAVIA A.D.E. (Association pour les Papillons et leur Étude) ) - Données de répartition de l’association FLAVIA A.D.E. acquises avec un financement public.. 3 records from Überschwemmungsgebiet der Wied. 1 records from Biotop "Kohlbeke" (Berlin-Marzahn). 6378 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du naturaliste Luquet Gérard provenant de la base de donnée du SINP Île-de-France CETTIA. 21 records from Elaboration du DOCOB du site Natura 2000 ‘Zones humides de l'ancien étang de Lit-et-Mixe’ (FR7200715) - Inventaire et regroupement de données Natura 2000. 11 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 14 records from Monitoring data from the federal state Saxony (Germany). 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste LABBAYE Olivier provenant de la base de donnée du SINP Île-de-France CETTIA. 5 records from Inventaire général de la biodiversité du domaine du Bois de Bouis (IGB/ATBI) - Inventaire général de la biodiversité (IGB/ATBI) Domaine Bois de Bouis - Données pièges à interception insectes. 12 records from Kremmer Luch. 59 records from Bannwald Burghauser Forst. 4 records from Biodiversity of the Desna river valley and its tributaries. 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste Wajrak Agatha provenant de la base de donnée du SINP Île-de-France CETTIA. 45 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données de la naturaliste Lucile Ferriot. 37 records from 2019_Pierre FRAPA_1. 11 records from Some finds of birds, mammals, insects, amphibians, reptiles and vascular plants within the Poltava and Sumy administrative regions of Ukraine in 2007 and 2012. 10 records from Biosphärenreservat Münsinger Alb. 171 records from Swedish Malaise Trap Project (SMTP) - Microlepidoptera. 54 records from Projet de parc éolien "Le Renard", sur les communes de Val-d'Oire-et-Gartempe (87) et Adriers (86) - Données brutes - Projet Eolien Le Renard. 19 records from Ferme éolienne d'Arnac sur dourdou - Faune. 52 records from Transmissions de données opportunistes du Parc Naturel Régional Périgord-Limousin (PNRPL). 625 records from 2015_GRENHA_2. 8349 records from SILENE-FAUNE-PACA - OPIE_National_2017_12_18. 9 records from Mississippi Entomological Museum. 74 records from SILENE-FAUNE-PACA - GERECO_Environnement_2017_12_18. 5 records from CardObs : Observations naturalistes issues de l'outil CardObs - Données naturalistes de l'Association BDEM. 4 records from Projet de parc éolien sur la commune d'Envronville - Données faune terrestre. 26 records from ZAC Anjou Actiparc « La Salamandre » - Données de l'étude d'impact. 6 records from Rund um das LUGY. 610 records from Inventaire de la Réserve naturelle de l'Etang noir-Données de présence récoltées. 1 records from ONF - Données issues d'études conventionnelles commandées par organismes exterieurs à l'ONF - MOA : Parcs naturels régionaux-ONF - DFF Import Etudes sur PNR. 49 records from </t>
+          <t>Learning never stops for successful workers, who must grow their careers while coping with the changing expectations of employers. Robust job-skill representations can empower workers by helping them to better decipher viable job changes given their current skill set and guide them toward skills they can learn to meet career goals. In this work we combine threads of research in economics and AI to improve upon existing job-skill representation methodology and performance. We build a benchmark dataset of between-job transitions from US Census data and show that a representation trained on a large set of online job postings via a transformer-based architecture outperforms existing baselines. Further analysis demonstrates that this model is better able to transfer across taxonomies than existing models.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4285674207</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.34883/pi.2020.10.1.023</t>
+          <t>https://openalex.org/W2389529622</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Турок &amp; Улезко (2020)</t>
+          <t>Li (2008)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Evaluation of Ultrasound Endometrial Receptivity Markers to Predict Outcomes of Assisted Reproductive Technology Programs (Literature Review)</t>
+          <t>Theoretical Reflection on the Recalling Nature of 30-Year-Reform</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Обзор литературы посвящен возможностям ультразвуковой диагностики (УЗД) в предикции исходов программ вспомогательных репродуктивных технологий (ВРТ). В качестве ультразвуковых маркеров (УЗМ) рецептивности эндометрия (РЭ) на сегодняшний день используются толщина и структура эндометрия, состояние переходной зоны, оценка маточного кровотока и перистальтика эндометрия. В статье представлен анализ литературных данных о современных взглядах на возможности использования УЗМ РЭ в практической деятельности с целью повышения эффективности методов ВРТ. A review of the literature is dedicated to the possibilities of ultrasound diagnostics in predicting the outcome of assisted reproductive technology programs. Today, the thickness and pattern of the endometrium, evaluation of the transition zone, the assessment of uterine blood flow and endometrial peristalsis are used as ultrasound markers of endometrial receptivity. The article presents an analysis of literary data on modern views on the possibility of using ultrasound in practice in order to increase the effectiveness of ART methods.</t>
+          <t>The nature of historical reflection lies in the need of the history,specific reality-based society and consciousness-based society.30-year reform and development has brought fundamental change of economic system,great development of social economy and history conversion of reform stage,and has made our society appear evident features of structurization,complexity and risk.Our country has been in certain turning point.Meanwhile,the reform also has formed mainstream consciousness system based on our Party and country's relevant theory and strategic decision and non-mainstream consciousness system on every benefit community.The contradictory and contest between the two kinds of consciousness system form negative effect on deepening reform in some degree.However,scientifically managing the theory nature of reform history reflect is correctly dealing with this reflection and solving our present contradictory,and is the key to positively push on reform and development.At present,the nature of our society reflect on reform determines multiple provision of reflection meanings,the final essence of reflection lying in establishing a positive,general and constructive theory explanation system about Chinese society evolution and development,maximally promoting the stability,development and progress of the whole society.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2342199507</t>
+          <t>https://openalex.org/W2772891606</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pcbi.1004878</t>
+          <t>https://doi.org/10.4102/satnt.v28i4.73</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Luz &amp; Shamir (2016)</t>
+          <t>Walt (2009)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Oscillations via Spike-Timing Dependent Plasticity in a Feed-Forward Model</t>
+          <t>Study orientation and knowledge of basic vocabulary in Mathematics in the primary school</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Neuronal oscillatory activity has been reported in relation to a wide range of cognitive processes including the encoding of external stimuli, attention, and learning. Although the specific role of these oscillations has yet to be determined, it is clear that neuronal oscillations are abundant in the central nervous system. This raises the question of the origin of these oscillations: are the mechanisms for generating these oscillations genetically hard-wired or can they be acquired via a learning process? Here, we study the conditions under which oscillatory activity emerges through a process of spike timing dependent plasticity (STDP) in a feed-forward architecture. First, we analyze the effect of oscillations on STDP-driven synaptic dynamics of a single synapse, and study how the parameters that characterize the STDP rule and the oscillations affect the resultant synaptic weight. Next, we analyze STDP-driven synaptic dynamics of a pre-synaptic population of neurons onto a single post-synaptic cell. The pre-synaptic neural population is assumed to be oscillating at the same frequency, albeit with different phases, such that the net activity of the pre-synaptic population is constant in time. Thus, in the homogeneous case in which all synapses are equal, the post-synaptic neuron receives constant input and hence does not oscillate. To investigate the transition to oscillatory activity, we develop a mean-field Fokker-Planck approximation of the synaptic dynamics. We analyze the conditions causing the homogeneous solution to lose its stability. The findings show that oscillatory activity appears through a mechanism of spontaneous symmetry breaking. However, in the general case the homogeneous solution is unstable, and the synaptic dynamics does not converge to a different fixed point, but rather to a limit cycle. We show how the temporal structure of the STDP rule determines the stability of the homogeneous solution and the drift velocity of the limit cycle.</t>
+          <t>Whatever the reason, underachievement in mathematics in South Africa is endemic and tantamount to a national disaster. Despite the transformation of education in South Africa, failure rates in mathematics at school and university remain unacceptably high, and the number of learners who leave Grade 12 with a pass mark in both mathematics and physical science is unacceptably low. Relatively little has been written about inadequate performance of Grade 4 to 7 learners in mathematics in South Africa, and even less about possible solutions to the problem. South African primary school learners’ lack of basic mathematics and vocabulary skills in particular is a source of major concern. In the ﬁrst national systemic evaluation of learners’ skills in English, mathematics and science in 2001 Grade 3 learners achieved an average of 30% in mathematics. In the follow-up studies, Grade 6 learners achieved a national average of 27% in mathematices, in 2004, while nationally eighty percent of Grade 3 and 6 learners achieved less than 50 percent for mathematics and Languages in 2008. The ﬁnding that so many primary school learners today are not numerate or literate has a direct inﬂuence both on the teaching and the learning of mathematics. Everything possible needs to be done to change this situation. During the past 15 years, the research focus in mathematics has shifted to an examination of the inﬂuence of social, cognitive and metacognitive, conative and affective factors on achievement in mathematics. In this regard, it is of particular importance that an ongoing investigation into “other” aspects that impact on achievement in mathematics is launched, rather than to restrict the investigation to mere assessment of objectives that are aimed at continually evaluating cognitive progress in mathematics. There is sufﬁcient empirical evidence that an adequate orientation to the study of mathematics correlates positively with high achievement in mathematics on secondary and tertiary levels. The aim of this research was to investigate the extent to which the performance in study orientation (Study Orientation questionnaire in Mathematics (Primary)) and knowledge of basic vocabulary/terminology in mathematics (Mathematics Vocabulary (Primary)) (vocabulary as one aspect of language in Mathematics) of Grade 4 to 7 learners predict performance in mathematics (Basic Mathematics (Primary)). Three standardised questionnaires were administered, namely the Study Orientation questionnaire in Mathematics (Primary), or SOM(P), Mathematics Vocabulary (Primary) or (MV(P), and Basic Mathematics (Primary) or BM(P). The participants consisted of learners in Grade 4 to 7 (n = 1 103) in North-West Province with respectively Afrikaans, English and Tswana as their home language. Results from the data, by calculating intercorrelations and stepwise regression, conﬁrmed that learners’ performance in mathematics (BM(P)) can be predicted through their performance in the knowledge of basic vocabulary in mathematics (MV(P)), their “maths” anxiety, study attitude towards and study habits in mathematics (SOM(P)). The results can be implemented to improve learners’ performance in mathematics when teachers identify inadequate knowledge of basic vocabulary in mathematics as well as study orientation (for example, “maths” anxiety, study attitude towards and study habits in mathematics) in the early years of schooling. Learners’ scores can be checked to identify those requiring aid, support, remediation and/or counselling. An analysis of individual answers (particularly those where learner’s replies differ signiﬁcantly in respect of the answers usually given by good achievers in mathematics) could be extremely useful. Enculturing learners to the vocabulary of mathematical language is an aspect of instruction that needs speciﬁc attention. The three questionnaires, which are administered in this research, provide mathematics teachers with standardised tools with which to make a simple systematic analysis of a number of important background particulars, feelings, attitudes, habits and customs with regard to the learner’s academic orientation in mathematics, as well as to their knowledge of basic vocabulary in mathematics that could be remedied when inadequate.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2057610770</t>
+          <t>https://openalex.org/W2163046816</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/tea.20314</t>
+          <t>https://doi.org/10.1109/cdc.2008.4739313</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Mohan et al. (2009)</t>
+          <t>Lee et al. (2008)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Developing a multi‐year learning progression for carbon cycling in socio‐ecological systems</t>
+          <t>Adaptive output tracking control of a surface vessel</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Abstract This study reports on our steps toward achieving a conceptually coherent and empirically validated learning progression for carbon cycling in socio‐ecological systems. It describes an iterative process of designing and analyzing assessment and interview data from students in upper elementary through high school. The product of our development process—the learning progression itself—is a story about how learners from upper elementary grades through high school develop understanding in an important and complex domain: biogeochemical processes that transform carbon in socio‐ecological systems at multiple scales. These processes: (a) generate organic carbon (photosynthesis), (b) transform organic carbon (biosynthesis, digestion, food webs, carbon sequestration), and (c) oxidize organic carbon (cellular respiration, combustion). The primary cause of global climate change is the current worldwide imbalance among these processes. We identified Levels of Achievement, which described patterns in the way students made progress toward more sophisticated reasoning about these processes. Younger learners perceived a world where events occurred at a macroscopic scale and carbon sources, such as foods and fuels, were treated as enablers of life processes and combustion rather than sources of matter transformed by those processes. Students at the transitional levels—levels 2 and 3—traced matter in terms of materials changed by hidden mechanisms (level 2) or changed by chemical processes (level 3). More advanced students (level 4) used chemical models to trace matter through hierarchically organized systems that connected organisms and inanimate matter. Although level 4 reasoning is consistent with current national standards, few high school students reasoned this way consistently. We discuss further plans for conceptual and empirical validation of the learning progression. © 2009 Wiley Periodicals, Inc. J Res Sci Teach 46: 675–698, 2009</t>
+          <t>In this paper, the tracking control of a three degree-of-freedom marine vessel is examined. The novelty of this work is the transformation of the asymmetric inertia matrix into a symmetric, positive definite matrix. The asymmetry arises from the added mass common to practical surface vessels and creates a significant challenge for control design. The control design is further complicated by the parametric uncertainties in the dynamic model of the vessel. Two adaptive control schemes with a projection-based adaptation law are proposed: a full-state feedback controller and an output feedback controller. Both controllers are known to yield a uniformly ultimately bounded tracking result in the presence of parametric uncertainty. Numerical simulation results are shown to demonstrate the validity of the proposed controllers.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322737768</t>
+          <t>https://openalex.org/W2023505484</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/2041-210x.14070</t>
+          <t>https://doi.org/10.2207/qjjws1943.67.144</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Record et al. (2023)</t>
+          <t>Muramatsu &amp; Katayama (1998)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Synthesizing forecasts to inform decision‐making and advance ecological theory</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Methods in Ecology and EvolutionVolume 14, Issue 3 p. 728-731 EDITORIALOpen Access Synthesizing forecasts to inform decision-making and advance ecological theory Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author First published: 01 March 2023 https://doi.org/10.1111/2041-210X.14070 [Corrections added on 28 February 2023, after first online publication: The copyright line has been changed.] AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Since the inception of the Intergovernmental Panel on Climate Change in 1988, there has been growing scientific consensus that humans have modified the Earth's environment and that human decisions have the potential to mitigate or exacerbate the effects of future global change (Intergovernmental Panel on Climate Change, 2022). In the face of widespread environmental change, society needs information to make sound decisions. Ecological forecasts provide such information about how ecosystems and their services may respond to different environmental conditions before they happen and considering alternative management scenarios. Following the publication of the first IPCC report in 1990 that called for a better understanding of the future effects of climatic change, the number of ecological publications focused on forecasting increased exponentially (Figure 1). FIGURE 1Open in figure viewerPowerPoint To illustrate a growing interest in ecological forecasting since the publication of the first Intergovernmental Panel on Climate Change report in 1990, we show the number of publications per year for articles that have 'ecology' and 'forecast' in their keywords ( source: Web of Science, search criteria used: Topic = 'ecology' and forecast*'; Timespan = All Years). This includes all publications since 1900 with the exception of Hodgson (1932). The notion of forecasting ecosystem change in ecology is not new (e.g. Clark et al., 2001; Hodgson, 1932). However, as the number of ecological papers focused on forecasting grew in the context of climatic change, ecologists from across sub-disciplines became increasingly concerned with various aspects of forecasting. Paleoecologists acknowledged the limits of our ability to forecast into non-analog climatic conditions when using forecast horizons suggested by the IPCC (e.g. anticipating conditions 60–80 years into the future; Williams &amp; Jackson, 2007). Applied and theoretical ecologists questioned the utility of long-term forecasts for advancing decision-making and ecological theory, respectively (Houlahan et al., 2017; Mouquet et al., 2015). At the same time as these concerns, ecologists recognized the transformative potential of near-term, iterative forecasting for making ecological forecasts more relevant to decision makers and spurring innovations in ecological theory if key technical and conceptual advances could be made (Dietze et al., 2018). In 2018, the Ecological Forecasting Initiative (EFI; https://ecoforecast.org/) launched with an emphasis on creating near-term, iterative forecasts with the hopes of using outputs to inform theory and to better align forecasts with management timeframes. EFI is a grassroots effort funded as a research coordination network through the US National Science Foundation aimed at building and supporting an interdiscipl</t>
+          <t>Monitoring technique of strains during phase-transformation using laser speckle method.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2120593787</t>
+          <t>https://openalex.org/W2328529535</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2307/972105</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Wang et al. (2009)</t>
+          <t>Masson (1997)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Verifiable Policy-Based Routing With DRIVER</t>
+          <t>Cultural Transformation at the Maya Postclassic Community of Laguna de On, Belize</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>The Internet today runs on a complex routing protocol called the Border Gateway Protocol (BGP). BGP is a policy-based protocol, in which autonomous Internet Service Providers (ISPs) impose their local policies on the propagation of routing information. Over the past few years, there has been a growing consensus on the complexity and fragility of BGP routing. To address these challenges, we present the DRIVER system for designing, analyzing and implementing policy-based routing protocols. Our system utilizes a declarative network verifier (DNV) which leverages declarative networking’s connection to logic programming by automatically compiling high-level declarativen networking program into formal specifications, which can be directly used in a theorem prover for verification. In addition to verifying declarative networking programs using a theorem prover, the DRIVER system enables a similar transformation of verified formal specifications limited to fragment of second order logic to declarative networking programs for execution. As our main use case, we demonstrate the verification of a component-based specification of BGP protocol where DRIVER enables the analysis of convergence properties of Internet routing protocols with customizable policy configuration components. We show that the properties verified with DRIVER are indeed preserved in the synthesized implementation by performing experimental evaluation in a local cluster, where the equivalent declarative networking programs derived from the verified specifications displayed consistent behavior with regard to DRIVER verification. Comments University of Pennsylvania Department of Computer and Information Science Technical Report No. MSCIS-09-12. This technical report is available at ScholarlyCommons: http://repository.upenn.edu/cis_reports/908 Verifiable Policy-based Routing with DRIVER Anduo Wang Changbin Liu Boon Thau Loo Oleg Sokolsky Prithwish Basu 1 Computer and Information Sciences Department, University of Pennsylvania, 3330 Walnut Street, Philadelphia, PA 19104-6389 2 Network Research Group, BBN Technologies, 10 Moulton Street, Cambridge, MA 02138 {anduo,changbl,boonloo,sokolsky}@seas.upenn.edu pbasu@bbn.com Abstract. The Internet today runs on a complex routing protocol called the Border Gateway Protocol (BGP). BGP is a policy-based protocol, in which autonomous Internet Service Providers (ISPs) impose their local policies on the propagation of routing information. Over the past few years, there has been a growing consensus on the complexity and fragility of BGP routing. To address these challenges, we present the DRIVER system for designing, analyzing and implementing policy-based routing protocols. Our system utilizes a declarative network verifier (DNV) which leverages declarative networking’s connection to logic programming by automatically compiling high-level declarativen networking program into formal specifications, which can be directly used in a theorem prover for verification. In addition to verifying declarative networking programs using a theorem prover, the DRIVER system enables a similar transformation of verified formal specifications limited to fragment of second order logic to declarative networking programs for execution. As our main use case, we demonstrate the verification of a component-based specification of BGP protocol where DRIVER enables the analysis of convergence properties of Internet routing protocols with customizable policy configuration components. We show that the properties verified with DRIVER are indeed preserved in the synthesized implementation by performing experimental evaluation in a local cluster, where the equivalent declarative networking programs derived from the verified specifications displayed consistent behavior with regard to DRIVER verification. The Internet today runs on a complex routing protocol called the Border Gateway Protocol (BGP). BGP is a policy-based protocol, in which autonomous Internet Service Providers (ISPs) impose their local policies on the propagation of routing information. Over the past few years, there has been a growing consensus on the complexity and fragility of BGP routing. To address these challenges, we present the DRIVER system for designing, analyzing and implementing policy-based routing protocols. Our system utilizes a declarative network verifier (DNV) which leverages declarative networking’s connection to logic programming by automatically compiling high-level declarativen networking program into formal specifications, which can be directly used in a theorem prover for verification. In addition to verifying declarative networking programs using a theorem prover, the DRIVER system enables a similar transformation of verified formal specifications limited to fragment of second order logic to declarative networking programs for execution. As our main use case, we demonstrate the verification of a component-based specification of BGP protocol where DRIVER enables</t>
+          <t>Comparisons of Late Classic (A.D. 600-900) and Early-to-Middle Postclassic (A.D. 1000-1400) settlements at Laguna de On illuminate the transformation of Maya society at the community level in the aftermath of the Classic-period collapse. Affluent subsistence production communities such as Laguna de On reflect the emergence of the village as a focal point for social, political, and economic organization at this time, a pattern that persists in the Maya Lowlands to this day. Ties with the past are observed in comparisons of Classic-to-Postclassic domestic and public architectural efforts, burial patterns, faunal remains, lithic tool production and use, and settlement strategy at Laguna de On. Although some technological and material differences are observed in household assemblages of each period, the changes are not interpreted as material reflections of population replacement or ethnic difference. Postcollapse Belize Maya community organization and domestic patterns are analyzed as scaled-down transformations of Classic-period institutions in response to altered conditions of regional demography, ecology, and political geography.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3170754649</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/cvpr46437.2021.01288</t>
+          <t>https://openalex.org/W2587599875</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Wen et al. (2021)</t>
+          <t>Данилович &amp; Александровна (2016)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Cycle4Completion: Unpaired Point Cloud Completion using Cycle Transformation with Missing Region Coding</t>
+          <t>Формирование системы управления персоналом на промышленном предприятии</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>In this paper, we present a novel unpaired point cloud completion network, named Cycle4Completion, to infer the complete geometries from a partial 3D object. Previous unpaired completion methods merely focus on the learning of geometric correspondence from incomplete shapes to complete shapes, and ignore the learning in the reverse direction, which makes them suffer from low completion accuracy due to the limited 3D shape understanding ability. To address this problem, we propose two simultaneous cycle transformations between the latent spaces of complete shapes and incomplete ones. Specifically, the first cycle transforms shapes from incomplete domain to complete domain, and then projects them back to the incomplete domain. This process learns the geometric characteristic of complete shapes, and maintains the shape consistency between the complete prediction and the incomplete input. Similarly, the inverse cycle transformation starts from complete domain to incomplete domain, and goes back to complete domain to learn the characteristic of incomplete shapes. We experimentally show that our model with the learned bidirectional geometry correspondence outperforms state-of-the-art unpaired completion methods. Code will be available at https://github.com/diviswen/Cycle4Completion.</t>
+          <t>In article authors considered the role of staff in performance of strategic objectives of development of economy: inclusion of Russia into group of the leading countries on GDP, transition from raw to innovative economy, development of investments into the person. All this has to occur in the conditions of a number of threats: competition globalization, deterioration in the relations with the West, in particular, in the conditions of sanctions for deliveries of goods to Russia and the compelled import substitution. In this case the staff is the most important resource of the enterprise and the country in general. Therefore the purpose of article is increase of efficiency of use of this resource. In article authors offered the HR management system including selection, selection and process of staff hiring, development and estimates of efficiency of use of personnel and specified the modern concept of human resource management including approaches: scientific, economic, administrative, standard, system, process, resource; principles of management: scientific character, profitability, rationality of number and structure of staff, efficiency; functions of management: forecasting and planning of number and structure of staff, planning of fund of payment and awarding of work, organization of workplaces, definition of the ideal worker, controlling and monitoring of personnel, motivation, training and certification of personnel; results of human resource management: creation and introduction of innovations, efficiency of use of staff. In article authors offered the organizational and economic mechanism of motivation of the staff including all types of resources: information, organization, technology, training, career, incentives. Conclusions: human resource management promotes improvement of use of this resource. At the same time the system of motivation and development of staff includes material and financial resources, system of training and ensuring career development, revision of privileges for the staff (1-2 times a year) in system of motivation.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2563164174</t>
+          <t>https://openalex.org/W2307050698</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0168107</t>
+          <t>https://doi.org/10.1177/1757975915595341</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Chen et al. (2016)</t>
+          <t>Patrick et al. (2016)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Redox Balance in Lactobacillus reuteri DSM20016: Roles of Iron-Dependent Alcohol Dehydrogenases in Glucose/ Glycerol Metabolism</t>
+          <t>Healthy Cities and the Transition movement: converging towards ecological well-being?</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Lactobacillus reuteri, a heterofermentative bacterium, metabolizes glycerol via a Pdu (propanediol-utilization) pathway involving dehydration to 3-hydroxypropionaldehyde (3-HPA) followed by reduction to 1,3-propandiol (1,3-PDO) with concomitant generation of an oxidized cofactor, NAD+ that is utilized to maintain cofactor balance required for glucose metabolism and even for oxidation of 3-HPA by a Pdu oxidative branch to 3-hydroxypropionic acid (3-HP). The Pdu pathway is operative inside Pdu microcompartment that encapsulates different enzymes and cofactors involved in metabolizing glycerol or 1,2-propanediol, and protects the cells from the toxic effect of the aldehyde intermediate. Since L. reuteri excretes high amounts of 3-HPA outside the microcompartment, the organism is likely to have alternative alcohol dehydrogenase(s) in the cytoplasm for transformation of the aldehyde. In this study, diversity of alcohol dehydrogenases in Lactobacillus species was investigated with a focus on L. reuteri. Nine ADH enzymes were found in L. reuteri DSM20016, out of which 3 (PduQ, ADH6 and ADH7) belong to the group of iron-dependent enzymes that are known to transform aldehydes/ketones to alcohols. L. reuteri mutants were generated in which the three ADHs were deleted individually. The lagging growth phenotype of these deletion mutants revealed that limited NAD+/NADH recycling could be restricting their growth in the absence of ADHs. Notably, it was demonstrated that PduQ is more active in generating NAD+ during glycerol metabolism within the microcompartment by resting cells, while ADH7 functions to balance NAD+/NADH by converting 3-HPA to 1,3-PDO outside the microcompartment in the growing cells. Moreover, evaluation of ADH6 deletion mutant showed strong decrease in ethanol level, supporting the role of this bifuctional alcohol/aldehyde dehydrogenase in ethanol production. To the best of our knowledge, this is the first report revealing both internal and external recycling for cofactor homeostasis during 3-HPA conversion in L. reuteri.</t>
+          <t>This commentary identifies similarities, differences and opportunities for synergy and mutual learning between the Healthy Cities and the Transition movements. We outline what we consider to be the 'pressing issues' facing humanity and the planet in the early 21(st) century; consider the extent to which health promotion has engaged with and addressed these issues; compare Healthy Cities and the Transition movement; and conclude by suggesting possibilities for moving forward.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4297890772</t>
+          <t>https://openalex.org/W4365149661</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-2024020/v1</t>
+          <t>https://doi.org/10.5489/cuaj.8195</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Hu et al. (2022)</t>
+          <t>Sze et al. (2023)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Machine Learning Weather Analogs for Renewable Forecasting</t>
+          <t>The role of quantitative MRI-based prostate zonal parameters in predicting clinically significant prostate cancer</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Abstract The Analog Ensemble (AnEn) is a technique to generate forecast ensembles using a deterministic model and associated observations. It has been widely used for weather forecasting and renewable energy production forecasting. Ensemble members are chosen based on a similarity metric that calculates the weighted multi-variate Euclidean distance. However, identifying optimal weights is a challenging and computationally expensive process, which often involves performing a constrained exhaustive search. As a result, only a few predictors were selected and optimized in previous AnEn studies. A new Machine Learning similarity metric is proposed address this shortcoming. First, a Deep Learning network is trained to generate latent features using all the temporal multi-variate input predictors. The analogs for a target forecast are selected by computing the Euclidean distance of the latent variables between the target and all previous forecasts. This process can be performed in parallel for each location. The proposed method does not require prior predictor selection and weight optimization. It is tested using wind speed and solar irradiance forecasts in Pennsylvania for 2017 to 2019. Results show that the proposed method is capable of handling a large number of predictors and it outperforms the original similarity metric in RMSE, bias, and CRPS. Since the transformation network is trained empirically, the proposed method has been found to be more flexible for searching through a longer historical record.</t>
+          <t>We aimed to investigate the clinical utility of quantitative prostatic zonal measurements on multiparametric magnetic resonance imaging (mpMRI) for the predication of clinically significant prostate cancer (csPCa).A retrospective, single-institution study included 144 men who underwent mpMRI from 2015-2017. Prostate zone parameters were measured on mpMRI. Correlation and multivariable analysis evaluated the relationship between prostate zone parameters and the presence of csPCa.The mean age was 66.9±7.8 years old. The median (interquartile range [IQR]) prostate volume and prostate-specific antigen (PSA) were 51.6 ml (37.1-74.5) and 6.1 ng/ ml (4.5-8.2), respectively. Men with csPCa had significantly smaller total prostate volume (TPV), transitional zone volume (TZV), and transitional zone thickness (TZT), and larger transitional zone density (TZD) compared to those without PCa; however, on multivariate variable analysis, only TZD maintained significance. TZD had a comparable area under the curve to PSA density (PSAD) and PSA (0.74 vs. 0.73 vs. 0.60, respectively). In a subgroup analysis of men with PCa, PSAD and TZD were significantly higher in men with Gleason grade group (GG) ≥2 compared to those with GG &lt;2 (p=0.002); however, this significance is not maintained on logistic regression in predicting GG.Quantitative features of prostate zones on MRI may aid in identifying better predictors of csPCa. Zonal-based PSA density (TZD) may be a useful marker in identifying csPCa. Further exploration is needed to understand the clinical application of larger TZV in men with csPCa compared to those with insignificant disease.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2909073876</t>
+          <t>https://openalex.org/W2052755330</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/00001648-199709000-00015</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Hamed &amp; Fadl (2015)</t>
+          <t>Forastiére et al. (1997)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Improved scheme of e-mail spam classification using meta-heuristics feature selection and support vector machine</t>
+          <t>Socioeconomic Status, Number of Siblings, and Respiratory Infections in Early Life as Determinants of Atopy in Children</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>With the technological revolution in the 21st century, time and distance of communication are decreased by using electronic mail (e-mail). Furthermore, the growing use of e-mail has led to the emergence and further growth problems caused by unsolicited bulk e-mails, commonly referred to as spam e-mail. Many of the existing supervised algorithms like the Support Vector Machine (SVM) were developed to stop the spam e-mail. However, the problem of dealing with large data and high dimensionality of feature space can lead to high execution-time and low accuracy of spam e-mail classification. Nowadays, removing the irrelevant and redundant features beside finding the optimal (or near-optimal) subset of features significantly influences the performance of spam e-mail classification; this has become one of the important challenges. Therefore, in order to optimize spam e-mail classification accuracy, dimensional reduction issues need to be solved. Feature selection schemes become very important in order to reduce the dimensionality through selecting a proper subset feature to facilitate the classification process. The objective of this study is to investigate and improve schemes to reduce the execution time and increase the accuracy of spam e-mail classification. The methodology of this study comprises of four schemes: one-way ANOVA f-test, Binary Differential Evolution (BDE), Opposition Differential Evolution (ODE) and Opposition Particle Swarm Optimization (OPSO), and combination of Differential Evolution (DE) and Particle Swarm Optimization (PSO). The four schemes were used to improve the spam e-mail classification accuracy. The classification accuracy of the proposed schemes were 95.05% with population size of 50 and 1000 number of iterations in 20 runs and 41 features. The experiment of the proposed schemes were carried out using spambase and spamassassin benchmark dataset to evaluate the feasibility of proposed schemes. The experimental findings demonstrate that the improved schemes were able to efficiently reduce the number of features as well as improving the e-mail classification accuracy.</t>
+          <t>The associations between arsenic ingestion and cancers of the bladder and kidney have been documented in Taiwan. To evaluate further such associations for urinary cancers of various cell types, we conducted an ecologic study encompassing 243 townships using cancer registry data of patients diagnosed between 1980 and 1987. We used the proportions of wells with various specified arsenic levels in each township as indicators of exposure and evaluated the effects of urbanization and smoking by an urbanization index and the number of cigarettes sold per capita. In both genders, we observed associations of high arsenic levels in drinking water with transitional cell carcinomas of the bladder, kidney, and ureter and all urethral cancers combined. We also observed such associations in adenocarcinomas of the bladder in males, but not in squamous cell carcinomas of the bladder or renal cell carcinomas or nephroblastomas of the kidney. There was also a positive association between the urbanization index and transitional cell carcinomas of the ureter in males. The number of cigarettes sold per capita was not a good predictor for urinary cancers. The results indicate that the carcinogenicity of arsenic may be cell type specific.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2085753768</t>
+          <t>https://openalex.org/W3157917116</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0960-8966(02)00008-1</t>
+          <t>https://doi.org/10.1177/0973703021998993</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Gross et al. (2002)</t>
+          <t>Jejeebhoy &amp; Kumar (2021)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>A G468-T AMPD1 mutant allele contributes to the high incidence of myoadenylate deaminase deficiency in the Caucasian population</t>
+          <t>What Prevents Adolescent Girls from Transitioning from School to Work in India? Insights from an Exploratory Study in Rajasthan</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Myoadenylate deaminase deficiency is the most common metabolic disorder of skeletal muscle in the Caucasian population, affecting approximately 2% of all individuals. Although most deficient subjects are asymptomatic, some suffer from exercise-induced myalgia suggesting a causal relationship between a lack of enzyme activity and muscle function. In addition, carriers of this derangement in purine nucleotide catabolism may have an adaptive advantage related to clinical outcome in heart disease. The molecular basis of myoadenylate deaminase deficiency in Caucasians has been attributed to a single mutant allele characterized by double C to T transitions at nucleotides +34 and +143 in mRNA encoded by the AMPD1 gene. Polymerase chain reaction-based strategies have been developed to specifically identify this common mutant allele and are considered highly sensitive. Consequently, some laboratories preferentially use this technique over other available diagnostic tests for myoadenylate deaminase deficiency. We previously identified a G468-T mutation in one symptomatic patient who was only heterozygous for the common AMPD1 mutant allele. In this report, nine additional individuals with this compound heterozygous genotype are revealed in a survey of 48 patients with documented deficiency of skeletal muscle adenosine monophosphate deaminase and exercise-induced myalgia. Western blot analysis of leftover biopsy material from one of these individuals does not detect any immunoreactive myoadenylate deaminase polypeptide. Baculoviral expression of the G468-T mutant allele produces a Q156H substitution enzyme exhibiting labile catalytic activity. These combined results demonstrate that the G468-T transversion is dysfunctional and further indicate that AMPD1 alleles harboring this mutation contribute to the high incidence of partial and complete myoadenylate deaminase deficiency in the Caucasian population. Consequently, genetic tests for abnormal AMPD1 expression designed to diagnose patients with metabolic myopathy, and to evaluate genetic markers for clinical outcome in heart disease should not be based solely on the detection of a single mutant allele.</t>
+          <t>Female labour force participation among young women in India is disturbingly low, and yet little evidence is available regarding the factors likely to affect the school-to-work transition among the young. Data from 325 girls aged 15–19 years and in-depth interviews with 10 of these girls and 9 of their mothers in one block of Jodhpur district, obtained from a mixed-methods study in Rajasthan, explore girls’ aspirations for professional, administrative or technical careers and factors likely constraining or facilitating their articulation of such aspirations. Findings show that girls who aspired for a professional, administrative or technical career were more likely than others to display better learning outcomes (odds ratio = 1.31), greater work-related agency and a readiness to overcome community obstacles (odds ratio, 1.28) than those who did not aspire for a professional, administrative or technical career. They were also more likely to be unmarried or married but residing in the natal home (odds ratio = 2.97) and have supportive parents (odds ratio = 1.37). In-depth interviews corroborate these obstacles. Findings underscore the need to empower girls and break down traditional norms held by girls, parents and communities. On the programme front, it is important to ensure empowerment programmes for girls and address the quality and girl-friendliness of education and vocational training opportunities.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2101093571</t>
+          <t>https://openalex.org/W2008266806</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1063/1.1292199</t>
+          <t>https://doi.org/10.1037/h0094117</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Wilmarth et al. (2000)</t>
+          <t>Упитис (1993)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Transuranium removal from Hanford high level waste simulants using sodium permanganate and calcium</t>
+          <t>Children's invented symbol systems: Exploring parallels between music and mathematics.</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Plutonium and americium are present in the Hanford high level liquid waste complexant concentrate (CC) due to the presence of complexing agents including di-(2-ethylhexyl) phosphoric acid (D2EHPA), tributylphosphate (TBP), hydroxyethylene diamine triacetic acid (HEDTA), ethylene diamine tetraacetic acid (EDTA), citric acid, glycolic acid, and sodium gluconate. The transuranic concentrations approach 600 nCi/g and require processing prior to encapsulation into low activity glass. BNFL’s (British Nuclear Fuels Limited’s) original process was a ferric co-precipitation method based on earlier investigations by Herting and Orth, et al. Furthermore, flocculation and precipitation are widely used for clarification in municipal water treatment. Co-precipitation of Np, Am, and Pu with ferric hydroxide is also used within an analytical method for the sum of those analytes. Tests to evaluate BNFL’s original precipitation process indicated the measured decontamination factors (DFs) and filter fluxes were too low. Therefore, an evaluation of alternative precipitation agents to replace ferric ion was undertaken. Agents tested included various transition metals, lanthanide elements, uranium species, calcium, strontium, and permanganate.</t>
+          <t>This is a short report of an exploratory study linking children's invented mathematical notations and music notations. Ten 8-year-old children participated in the study. Prior research in music notations has indicated that children have a variety of symbols at their disposal, and their choice of symbols depends on the entity they are trying to capture. This was also the case for notations of tessellations. Although there were similarities found between the use of symbols in the two domains, a consideration of the intended reader did not appear to be a contributing factor in designing mathematical notations. This research note describes the first of four phases of the research comparing children's invented notations for mathematics and music. The overall aims of the research are to explore the authentic connections between music and mathematics in terms of notations, as well as form and transformations, and to adapt methodologies used in researching children's music cognition to address parallel situations in mathematics. There is much to learn from the research on music notations in advancing our understanding of mathematics notations. A diverse body of research indicates that children use a rich and varied repertoire of symbols and strategies in notating rhythm sequences and melodies. They notate with pictures or icons, letters and words, numbers, lines and squiggles and crosses, music symbols, and color to create engaging systems of recording the music they (Bamberger, 1982; Davidson &amp; Colley, 1986; Davidson &amp; Scripp, 1988; Davidson, Scripp, &amp; Welsh, 1988; Smith, 1989; Upitis, 1987, 1990a) and compose (Borstad, 1989; Upitis, 1990b, 1992). In an examination of the research on children's music notations, three other features consistently emerge. The first is that children are more likely to engage in exploring and using music notations when they are involved in making something that they value as real—perhaps composing a piece that others will in a class concert (Upitis, 1992). Second, research on music notations indicates the importance of the intended or imagined reader. Children are less likely to use music symbols if they know that the person who will be reading their notation is not fluent in standard notation (Upitis, 1990a, 1992). Finally, research indicates that when children truly embrace an idea, they make it a part of their world, using the idea to see the everyday phenomena in new ways (Hodgkin, 1985). Thus, children who become musicians and composers may hear the music in the pattern on a sweater or in a mosaic (Upitis, 1990b).</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2274151390</t>
+          <t>https://openalex.org/W3125029439</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sbspro.2015.11.604</t>
+          <t>https://doi.org/10.1198/jbes.2009.0008</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Голубев &amp; Testov (2015)</t>
+          <t>Maheu &amp; McCurdy (2009)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Network Information Technologies as a Basis of New Educational Paradigm</t>
+          <t>How Useful are Historical Data for Forecasting the Long-Run Equity Return Distribution?</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>With wide implementation of network information technologies in education, there is a transition to a new paradigm. The traditional forms, methods, means and content of education do not fit into the new paradigm and so need theoretical reconsideration. The methodological basis for the new paradigm has to be the postnonclassical methodology relying on synergetic vision of the world and soft modeling ideas. The education environment gains other opportunities and limitations as compared to the previous ones. The capacities of network space further the transition from teaching to self-teaching and self-education. As a rule, under such conditions, the process of a student's perceiving the new material becomes non-linear. The main objective of school in these conditions is non-linear arrangement of information, bringing it into a self-organizing system. The paper pays attention to the most rapidly developing direction of the education system information – network technologies. The network technologies open up totally new opportunities for creativity and self-fulfillment of both students and teachers. Computer networks in teaching can be applied for joint use of software resources, for interactive communication, prompt receipt of information, continuous monitoring of quality of the knowledge obtained. Using computer networks promotes the use of new teaching techniques in school and higher education institution, implementation of collaborative technologies that allow organizing education while jointly solving study problems.</t>
+          <t>We provide an approach to forecasting the long-run (unconditional) distribution of equity returns making optimal use of historical data in the presence of structural breaks. Our focus is on learning about breaks in real time and assessing their impact on out-of-sample density forecasts. Forecasts use a probability-weighted average of submodels, each of which is estimated over a different history of data. The empirical results strongly reject ignoring structural change or using a fixed-length moving window. The shape of the long-run distribution is affected by breaks, which has implications for risk management and long-run investment decisions.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2393676167</t>
+          <t>https://openalex.org/W4231360178</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5325/gestaltreview.25.1.0143</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Liu-fan (2013)</t>
+          <t>Burton (2021)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>A Study on the Construction of Specialty Group Based on Servicing the Textile and Garment Industry Transformation and Upgrading</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Industrial transformation and upgrading has been a major strategic task in China for quite a long period of time.The key for the transformation of textile and garment industry is the product innovation,which must be guided by the market,supported by the technology and secured by the quality.In order to cultivate applied talents with high skills for product innovation,the construction of professional group should serve the product innovation as the purpose.It is also necessary to cultivate students' innovative spirit and dynamic learning ability.Professional group can be formed according to the combination of the marketing,designation,manufacturing,testing and other related professional organics,so as to provide talents and technical support for the enhancement of the professional service and upgrading of the innovative ability.</t>
+          <t>In Mind and the Cosmic Order, the mathematician Charles Pinter examines the role mind plays in the construction of reality, ultimately concluding that the mental constructs that give existence its form and structure, while not material, are no less real than the physical world with which the mind interacts. In this brief but wide-ranging book consisting of nine chapters that tackle subjects ranging from the seeing eye to the scientific observer, Pinter takes a synthetic approach to the study of the cosmic order, drawing on such diverse fields as biology, physics, neuroscience, cognitive science, psychology, and philosophy to argue that the sensations and thoughts located in the mind of the perceiver bring to light facets of reality whose very existence depends on the act of perception.Pinter begins his foray into the nature of reality with a discussion of the mechanics of vision. Our assumption that what we see offers a realistic depiction of the external world proves hopelessly naïve in Pinter's account. What exists in what Pinter calls the mind-independent world and what we see in the mind's eye have very different properties. The matter and energy that make up the material world is undifferentiated and featureless until it is observed. Seeing, however, does not simply imprint a visual representation of the external world on the brain. The patches of light and shadow received from the external world reach only as far as the retina. The optic nerve then transforms the information it receives into electrochemical signals, which it then transmits to the brain, where the visual information becomes reconstituted, emerging as a visual image that we understand as a sensation. Our visual world, then, is a constructed reality or Gestalt that we then project back onto the external world through a process called distal attribution.For the purposes of his study, Pinter defines a Gestalt as “a whole, unified single entity when viewed in its entirely from an outside perspective” (44). The ability to see in these Gestalt wholes is supremely adaptive. Although the life of any creature depends on its active engagement with the objects and beings in its orbit, the raw data it receives from its environment is unorganized and chaotic. The ability to segment that data into distinct objects and then to group those objects into a synthetic whole—that is, to create Gestalt images that lend form and structure to undifferentiated matter and energy—allows the creature to select from all the available environmental data the information it most needs to make decisions that will ensure its own survival. What the creature perceives is not the world as it is but a mental model of the world that is adaptive to its needs as a living being.However important for survival the Gestalt wholes we create may be, they do not have material existence; they are mental constructs, the property of perception, not of the mind-independent world. But are they real? Pinter thinks they are, but the answer to this question requires that he draw a distinction, not just between the material world and the immaterial objects of our cognition, but also between the brain and the mind. Although recent trends in cognitive science have emphasized the primacy of the material brain in the processing of information, Pinter takes an alternate approach, highlighting the difference between the electrochemical activity that takes place on the brain's cerebral cortex and the vivid sensations and thoughts produced by the mind. Pinter argues that the brain encodes information that instills a subjective feeling in the mind. Sensations, nonmaterial perceptions produced by material means, are for Pinter “the medium in which all conscious activity unfolds” (58). Sensations are not limited to such physical experiences of pain or color, however; they also encompass thought, because “to have a thought is to experience its meaning” (59). All mental content, then, is grounded in sensations that perceivers group together to form what Pinter calls “Gestalt image-schemas,” combinations of sensations that yield ever more complex meaning.The mind-independent world is pluripotent. Things present in this world are latent and unrealized, becoming actualized only when an observer segments the visual field into Gestalt wholes that give objects form and structure. But the mental activity that plays a constitutive role in the creation of physical reality also has the capacity to bring into being nonmaterial facts and categories. The mind-independent world uncoupled from the observer is nothing more than undifferentiated matter and energy, but it is also a world awaiting interpretation. Facts, too, require observers to bring them into existence, for facts, like objects, are constructed Gestalt wholes. The same is true of categories. Category formation comes about as a process of abstraction as the observer discerns common features in different objects: abstractions that become reified into indepen</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2953473000</t>
+          <t>https://openalex.org/W2031176627</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1163/15718123-01405002</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Angelova et al. (2019)</t>
+          <t>Bongiovanni et al. (2014)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Vaccinium Vitis-Idaea L., Origin from Bulgaria Indicate in Vitro Antitumor Еffect on Human Cervical and Breast Cancer Cells</t>
+          <t>Philosophy of Law and International Criminal Law: Between Peace and Morality</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Cancer is a socially significant disease. Along with efforts to understand the complex genetic/epigenetic factors that trigger a carcinogenesis, it is also necessary to analyze the potential natural active substances that may delay or even stop neoplastic transformation. Promising candidates are Bulgarian cranberries from high mountain plant populations, which are rich in phenolics and anthocyanins and have proven beneficial effects on human body.The present study aims to evaluate in vitro, antitumor activities of total extracts and purified nonanthocyanin and anthocyanins fractions of Vaccinium vitis-idaea L. , picked in Bulgaria on human cervical (HeLa) and breast (MCF7) cancer cell lines, as well as to examine some of the apoptotic mechanisms underlying them.Materials and methods: Four methanol extracts and respective number of purified B- nonanthocyanin / C- anthocyanins fractions of Bulgarian lingonberry were used. Antitumor effect was established by Trypan Blue method, monitoring of morphological changes and МТТ cell viability assay. Assessment of apoptotic activity was performed using DNA fragmentation method.Results: The results from МТТ analyses showed that B- nonanthocyanin fractions of Bulgarian lingonberry have well expressed inhibitory effect on survival of tested tumor cells. The observed effect dependent of the dose administered and were stronger in relation with the high-mountain populations and HeLa cell line. The integrity of the extracted DNA from treated survival cells indicates possible apoptosis mechanisms under the action of biologically active ingredients from lingonberries. Conclusion: Survey of antitumor activities of Bulgarian lingonberries based on molecular methods, could contribute to establish the natural substances useful for human health in general and practical oncology.</t>
+          <t>The legal philosophy of the 20th century has contributed to the development of international criminal law by rethinking fundamental legal concepts and theories concerning the nature of international law, its relation with national laws, the connection between the law and the State, and the very idea of responsibility. This was achieved, in the first place, through the reflection of Hans Kelsen, who put forward the idea of a system of enforceable criminal norms at the international level, directed at individuals and having a positive legal foundation. In the years immediately following the Second World War, a number of legal theorists and, in particular, Gustav Radbruch, argued in favour of a necessary connection between law and morality, on whose basis it could be claimed that the worst atrocities were punishable even when allowed by state norms, and even in the absence of positive international norms. In the last decade, the practice of international criminal law, through ad hoc tribunals and the International Criminal Court, has stimulated theoretical reflections on a variety of further fundamental issues, like impartiality, judicial truth, justification of punishment, side-effects of prosecution and transitional justice.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4319861856</t>
+          <t>https://openalex.org/W3005955506</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/20530196221149111</t>
+          <t>https://doi.org/10.1109/icce-tw46550.2019.8991905</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Kazak et al. (2023)</t>
+          <t>Kong et al. (2019)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Renewable energy creditors versus renewable energy debtors: Seeking a pattern in a sustainable energy transition during the climate crisis</t>
+          <t>Multi-agent Negotiation in Real-time Bidding</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Considering unpredictable and hastily evolving tipping points (like the impacts of the COVID-19 pandemic, ongoing climate crisis and the war in Ukraine), it is clear that sustainable energy transition and utilization of locally sourced renewable energies must be in the heart of both national, regional, and local energy systems. However, if we take a closer look at the actions undertaken at the local (communal) level, we see enormous diversity of patterns, prerequisites, and implications that drive and affect spatial deployment of renewable energies. Therefore, our research targets to better comprehend the question if individual communities are comparatively involved in the energy transition. We also ask whether the demand and supply of renewable energy is territorially balanced and how these differences (if any) can be justified. We are framing our research by the concepts of energy justice and ecological debt. We thoroughly explore and asses the renewable energy balance on the level of individual communities which is based on data on the installed power capacity potentials and energy consumption in local administration units in Poland (380). Spatial distribution and discrepancies in the deployment of the renewable energy creditors and the renewable energy debtors are detected. Noticeable disproportions were identified among communities where improved utilization of local potential of renewable energy could exceed energy demand (29% of communities). This result is contrasting with communities (71% of communities) that can be, on the other hand, classified as renewable energy debtors. We claim that insufficient support (institution, regulatory, and financial) for expanding local renewable energy systems is a clear barrier when adapting to the climate crisis by balancing the energy demand and supply at the local level.</t>
+          <t>In this paper, we study the problem of multi-agent negotiation in real-time bidding scenario. We present a new solution, Extended Q-learning Network (EQN), which iteratively assigns the state transition probability and finally converges to a unique optimum effectively; Importantly, we propose a naive edge computing framework between mobile devices and cloud servers to handle the data preprocessing and transmission simultaneously to reduce the load of cloud servers; Finally, extensive experiment on real dataset demonstrates EQN's soundness (fast convergence), properties and effectiveness (achieve state-of-the-art in real-time bidding task). Our experimental results manifest that our proposed approach outperforms the comparable baselines.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2958334302</t>
+          <t>https://openalex.org/W2997927682</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/cas.14092</t>
+          <t>https://doi.org/10.2514/6.2020-1034</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Onidani et al. (2019)</t>
+          <t>Venkatachari et al. (2020)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Monitoring of cancer patients via next‐generation sequencing of patient‐derived circulating tumor cells and tumor &lt;scp&gt;DNA&lt;/scp&gt;</t>
+          <t>Assessment of Transition Modeling Capability in OVERFLOW with Emphasis on Swept-Wing Configurations</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Abstract Liquid biopsy of circulating tumor cells ( CTC ) and circulating tumor DNA (ct DNA ) is gaining attention as a method for real‐time monitoring in cancer patients. Conventional methods based upon epithelial cell adhesion molecule (Ep CAM ) expression have a risk of missing the most aggressive CTC subpopulations due to epithelial‐mesenchymal transition and may, thus, underestimate the total number of actual CTC present in the bloodstream. Techniques utilizing a label‐free inertial microfluidics approach ( LFIMA ) enable efficient capture of CTC without the need for Ep CAM expression. In this study, we optimized a method for analyzing genetic alterations using next‐generation sequencing ( NGS ) of extracted ct DNA and CTC enriched using an LFIMA as a first‐phase examination of 30 patients with head and neck cancer, esophageal cancer, gastric cancer and colorectal cancer ( CRC ). Seven patients with advanced CRC were enrolled in the second‐phase examination to monitor the emergence of alterations occurring during treatment with epidermal growth factor receptor ( EGFR )‐specific antibodies. Using LFIMA , we effectively captured CTC (median number of CTC , 14.5 cells/mL) from several types of cancer and detected missense mutations via NGS of CTC and ct DNA . We also detected time‐dependent genetic alterations that appeared during anti– EGFR therapy in CTC and ct DNA from CRC patients. The results of NGS analyses indicated that alterations in the genomic profile revealed by the liquid biopsy could be expanded by using a combination of assays with CTC and ct DNA . The study was registered with the University Hospital Medical Information Network Clinical Trials Registry ( ID : UMIN 000014095).</t>
+          <t>In preparation for comparisons with data obtained from the recently concluded experiments in the National Transonic Facility at the NASA Langley Research Center on the new common research model with natural laminar flow (CRM-NLF), an assessment of the current transition modeling capability in the NASA OVERFLOW 2.2o code has been carried out. A combination of the available experimental data and linear stability analysis is used to evaluate the accuracy and robustness of these models for selected swept-wing type configurations, with significant crossflow. An additional goal for this work involves providing a comparative assessment of the relevant transition models in the context of a single flow solver and identifying model limitations as well as the potential for future improvements that would help strengthen the physical basis of such transition models. Included in this investigation is an assessment of the sensitivities of the underlying transition models to grid resolution (wall-normal, as well as streamwise and spanwise) and the values of extra input parameters such as the level of surface roughness and freestream turbulence variables. The flow configurations targeted in this assessment include the NASA NLF(2)-0415 swept-wing configuration, the sickle-shaped wing introduced by the Technical University of Braunschweig, and the wing-body configuration of the CRM model from the fourth and fifth AIAA CFD Drag Prediction Workshops.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1963898533</t>
+          <t>https://openalex.org/W2627888317</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/wal.0.0122</t>
+          <t>https://doi.org/10.25081/jsa.2017.v1.61</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Rice (2010)</t>
+          <t>Gayan et al. (1970)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Contesting Knowledge: Museums and Indigenous Perspectives&lt;/i&gt; (review)</t>
+          <t>Novel biotransformation of menthone by microbial strains and vermicompost microbial consortium</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Reviewed by: Contesting Knowledge: Museums and Indigenous Perspectives Kym S. Rice Contesting Knowledge: Museums and Indigenous Perspectives. Edited by Susan Sleeper-Smith. Lincoln: University of Nebraska Press, 2009. 374 pages, $35.00. In his influential 1997 essay "Museums as Contact Zones," anthropologist James Clifford raised troubling questions about the unequal power relationships that existed between majority (read, white-run) museums and Native Americans inspired by an encounter he witnessed between tribal elders and staff at the Portland Art Museum. Among other things, Clifford argued for museums to adopt new strategies of representation that would accord greater recognition and respect to the meaning of sacred objects, as conveyed through living indigenous memory and perspective. Published more than a decade later, based on conference papers originally presented at the Newberry Library's D'Arcy McNickle Center for American Indian History, Contesting Knowledge features essays by scholars who study indigenous museums and material culture. The very readable volume, edited by Susan Sleeper-Smith of Michigan State University, speaks to the transformations as well as the complications that have occurred in the field since Clifford's piece originally appeared—precipitated, in part, by the continuing expansion of tribal museums, some with elaborate exhibition programs fueled by casino development. Although the book asserts a global perspective through its inclusion of essays by Hal Langfur on Brazil and Ciraj Rassool on the District Six Museum in Cape Town, South Africa, it focuses chiefly on North America. As one might expect, multiple essays critique the Smithsonian Institution's controversial National Museum of the American Indian (NMAI), which opened its Washington, DC, facility in 2004. Miranda J. Brady, in "A Dialogic Response to the Problematicized Past," interrogates NMAI's placement within the Smithsonian Empire, which Brady finds not only obscures its efforts to construct a national indigenous identity within the museum but is further complicated by what she perceives as a lack of transparency in its relationships with political and corporate America. Of additional interest with respect to NMAI are Jennifer Shannon's "The Construction of Native Voice at the National Museum of the American Indian," which addresses the difficult issues related to community authority and representation, and Ann McMullen's sweeping "Reinventing George Heye: Nationalizing the Museum of the American Indian and Its Collections," which reconsiders the museum's vast 800,000-plus object [End Page 213] collection through a new scrutiny of Heye, the individual who collected them earlier in the twentieth century. Other essays analyze the role of tribal museums in revitalizing their communities, particularly through community-focused exhibition practices. Amy Lonetree's thoughtful "Museums as Sites of Decolonization: Truth Telling in National and Tribal Museums" concludes the volume. Lonetree has in the past criticized NMAI's lack of historical context, particularly with respect to colonization and genocide, while generally offering praise for the museum's efforts to effect close collaboration with Native communities. Here she evaluates the Saginaw Chippewa's Ziibiwing Center of Anishinabe Culture and Lifeways as an exemplar of what Lonetree terms the "decolonized" museum—standing in sharp contrast to NMAI. Her study calls our attention to the powerful, creative, and quite different new models for exhibition making now emerging from some indigenous museums. Regardless of one's ethnicity, affiliation or experience, museum professionals and public historians alike, especially those with little or no experience working with indigenous communities or other stakeholder audiences, will find this volume concerning an emerging aspect of museum practice valuable and worth exploring. Kym S. Rice George Washington University, Washington, DC Copyright © 2010 The Western Literature Association</t>
+          <t>The aim of the study was to evaluate the ability of Trichoderma harzianum and Pseudomonas fluorescence and vermicompost microbial consortium to biotransform the monoterpene menthone. The different microbial transformation was carried out in different media including the control flask. Samples of different cultures were taken after every 24 hours, extracted with n-hexane and analysed by GC and GC-MS. The chemical structure of the bio transformed products were identified by GC and GC-MS. All the microbial strains led to the decomposition of menthone with time. The most valuable transformation was the production of menthol by vermicompost microbial strain. The obtained data indicated that vermicompost microbial consortium is a good biocatalyst to convert the ketonic group into hydroxyl group and showed the importance of various microbial strains in the biotransformation of the menthone.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2898606819</t>
+          <t>https://openalex.org/W4395600964</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jtho.2018.08.450</t>
+          <t>https://doi.org/10.15468/dl.5zj7jg</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Offin et al. (2018)</t>
+          <t>AUTHOR_ID (2023)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>MA16.04 Clinical and Molecular Characteristics of EGFR Mutant Lung Cancers with Concurrent TP53 and RB1 Mutations</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>20% of patients with metastatic lung adenocarcinoma have activating EGFR-mutations. EGFR-mutant lung cancers can undergo histologic transformation to small cell lung cancer (SCLC) as a response to the selective pressure of EGFR-TKIs in &lt;5% of patients after earlier-generation EGFR-TKIs and have been reported after osimertinib. SCLC nearly universally harbor TP53/RB1-alterations which are rarely seen in EGFR-mutant lung adenocarcinomas. We sought to identify this subset of patients, describe their clinical course and likelihood of SCLC transformation. Retrospective review of targeted next generation sequencing (NGS, MSK-IMACT) at Memorial Sloan Kettering (MSK) was performed to identify patients with concurrent EGFR-activating mutations and TP53/RB1-mutations within the same tumor sample from NGS between April 2014 to February 2018 with a data cutoff of March 2018. For comparison, consecutive patients with lung cancers harboring EGFR-mutations who were EGFR-TKI naïve and TP53/RB1-wildtype were also collected during that time-period. Of the 21% of lung cancer patients with activating EGFR-mutations (759/3662), 5% (40/759) had concurrent TP53/RB1-mutations. 43% (17/40) were female, 58% former-smokers (23/40, median pack-years: 8), and median age of 68 (range 25-86 years). 88% (35/40) were adenocarcinoma at diagnosis, of which 11% (4/35) transformed to SCLC during treatment; 10% (4/40) were de-novo SCLC at diagnosis, and 1 was large cell neuroendocrine. The transformation rate was significantly higher compared to previous work from MSK evaluating EGFR-mutant patients showing 4% (4/155) transformation (p=0.04). Concurrent PIK3CA mutations were more frequently seen in the EGFR/TP53/RB1 mutant group compared to the TP53/RB1-wildtype group (17% (n=6/35) vs 7% (n=4/60), p=0.11). 20 patients were EGFR TKI-naïve at the time of NGS; the median time on EGFR-TKI (ToT) was 7.6 months versus 14.2 months in the TP53/RB1-wildtype group (HR 4.48, p=0.0003). The overall survival (OS) of this cohort versus TP53/RB1-wildtype was not different (4.3 vs 4.1 years, HR 1.35, p=0.51). In the 4 patients with SCLC transformation, the median time to transformation was 2.4 years after a median of 1.5 EGFR-TKI therapies (range 1-5 lines). Median OS from time of transformation was 7 months. 63% (25/40) of the EGFR/TP53/RB1-mutant cohort had brain metastases during their disease course as compared to 50% (n=30) in the TP53/RB1-wildtype group (p=0.30). SCLC transformation is enriched in EGFR/TP53/RB1-mutant lung cancers, occurring in 11% of patients. Once SCLC transformation occurs, overall survival is short. Patients with EGFR/TP53/RB1 have a shorter time on EGFR-TKI. Further investigation into optimal treatment for this subset of EGFR/TP53/RB1 mutant lung cancers is critical.</t>
+          <t xml:space="preserve">A dataset containing 49896777 species occurrences available in GBIF matching the query: { "and" : [ "Continent is Europe", "Country is one of (United Kingdom of Great Britain and Northern Ireland, Finland, France, Sweden, Netherlands, Norway, Belgium, Germany, Switzerland, Austria, Spain, Italy, Portugal, Iceland, Denmark, Liechtenstein, Luxembourg, Poland, Czechia, Ireland, Estonia, Slovakia, Slovenia, Latvia, Lithuania, Hungary, Croatia, Greece, Serbia, North Macedonia, Albania, Montenegro, Kosovo, Bosnia and Herzegovina, Romania, Bulgaria, Belarus, Moldova, Republic of, Isle of Man, Andorra, Ukraine)", "Geometry POLYGON((-20 20,60 20,60 72,-20 72,-20 20))", "HasCoordinate is true", "HasGeospatialIssue is false", "Month is one of (March, April, May, June, July, August, September, October)", "OccurrenceStatus is Present", "TaxonKey is Lepidoptera", "Year 1950-2014" ] } The dataset includes 49896777 records from 2323 constituent datasets: 244 records from Finds of rare species of animals in Ukraine (2022). 65 records from [CartoDyn] - Contact lors journée inventaire spécifique Invertébrés. 108 records from Activités du CEN Nouvelle-Aquitaine anciennement CEN Limousin - Regroupement de données du CEN Nouvelle-Aquitaine (ex CEN Limousin). 38 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Suivi des reptiles, insectes et flore de la forêt départementale de Champfailly 2009. 94 records from Données biodiversité du projet éolien de Briffons (habitats et flore). 2 records from Waldstück Bremerhagen LK Bio Kl. 12. 20 records from Bodenteicher Seewiesen. 359 records from Some records of animals in Ukraine. 11 records from Trockenrasen und Buchenwald in der Umgebung der Jugendherberge Bad Blankenburg. 27489 records from Données des Lépidoptères de l'association FLAVIA A.D.E. (Association pour les Papillons et leur Étude) ) - Données de répartition de l’association FLAVIA A.D.E. acquises avec un financement public.. 3 records from Überschwemmungsgebiet der Wied. 1 records from Biotop "Kohlbeke" (Berlin-Marzahn). 6378 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du naturaliste Luquet Gérard provenant de la base de donnée du SINP Île-de-France CETTIA. 21 records from Elaboration du DOCOB du site Natura 2000 ‘Zones humides de l'ancien étang de Lit-et-Mixe’ (FR7200715) - Inventaire et regroupement de données Natura 2000. 11 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 14 records from Monitoring data from the federal state Saxony (Germany). 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste LABBAYE Olivier provenant de la base de donnée du SINP Île-de-France CETTIA. 5 records from Inventaire général de la biodiversité du domaine du Bois de Bouis (IGB/ATBI) - Inventaire général de la biodiversité (IGB/ATBI) Domaine Bois de Bouis - Données pièges à interception insectes. 12 records from Kremmer Luch. 59 records from Bannwald Burghauser Forst. 4 records from Biodiversity of the Desna river valley and its tributaries. 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste Wajrak Agatha provenant de la base de donnée du SINP Île-de-France CETTIA. 45 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données de la naturaliste Lucile Ferriot. 37 records from 2019_Pierre FRAPA_1. 11 records from Some finds of birds, mammals, insects, amphibians, reptiles and vascular plants within the Poltava and Sumy administrative regions of Ukraine in 2007 and 2012. 10 records from Biosphärenreservat Münsinger Alb. 171 records from Swedish Malaise Trap Project (SMTP) - Microlepidoptera. 54 records from Projet de parc éolien "Le Renard", sur les communes de Val-d'Oire-et-Gartempe (87) et Adriers (86) - Données brutes - Projet Eolien Le Renard. 19 records from Ferme éolienne d'Arnac sur dourdou - Faune. 52 records from Transmissions de données opportunistes du Parc Naturel Régional Périgord-Limousin (PNRPL). 625 records from 2015_GRENHA_2. 8349 records from SILENE-FAUNE-PACA - OPIE_National_2017_12_18. 9 records from Mississippi Entomological Museum. 74 records from SILENE-FAUNE-PACA - GERECO_Environnement_2017_12_18. 5 records from CardObs : Observations naturalistes issues de l'outil CardObs - Données naturalistes de l'Association BDEM. 4 records from Projet de parc éolien sur la commune d'Envronville - Données faune terrestre. 26 records from ZAC Anjou Actiparc « La Salamandre » - Données de l'étude d'impact. 6 records from Rund um das LUGY. 610 records from Inventaire de la Réserve naturelle de l'Etang noir-Données de présence récoltées. 1 records from ONF - Données issues d'études conventionnelles commandées par organismes exterieurs à l'ONF - MOA : Parcs naturels régionaux-ONF - DFF Import Etudes sur PNR. 49 records from </t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4233827115</t>
+          <t>https://openalex.org/W4285674207</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5194/cp-2017-161</t>
+          <t>https://doi.org/10.34883/pi.2020.10.1.023</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Hutchinson et al. (2018)</t>
+          <t>Турок &amp; Улезко (2020)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Climate sensitivity and meridional overturning circulation in the late Eocene using GFDL CM2.1</t>
+          <t>Evaluation of Ultrasound Endometrial Receptivity Markers to Predict Outcomes of Assisted Reproductive Technology Programs (Literature Review)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Abstract. The Eocene–Oligocene Transition (EOT), approximately 34 Ma ago, is an interval of great interest in Earth's climate history, due to the inception of the Antarctic ice sheet and major global cooling at the time. Climate simulations of the transition are needed to help us interpret proxy data, test mechanistic hypotheses for the transition, and determine the climate sensitivity at the time. However, model studies of the EOT thus far typically employ control states designed for a different time period, or ocean resolution on the order of 3 degrees. Here we developed a new higher resolution paleoclimate model configuration based on the GFDL CM2.1 climate model adapted to a late Eocene (38 Ma) paleogeography reconstruction. We employ an ocean resolution of 1 × 1.5 degrees, and an atmosphere resolution of 3 × 3.75 degrees. This represents a significant step forward in resolving the ocean geography, gateways and circulation in a coupled climate model of this period. We simulate the model under 3 different levels of CO2; 400, 800 and 1600 ppm. The model exhibits relatively high sensitivity to CO2 compared with other recent model studies, and thus can capture the expected Eocene high latitude warmth within observed estimates of atmospheric CO2. However, the model does not capture the low meridional temperature gradient seen in proxies. Equatorial sea surface temperatures are too high in the model (30–37 degrees C) compared with observations (max 32 degrees C), though observations are lacking in the warmest regions of the western Pacific. The model exhibits robust bipolar sinking in the North Pacific and Southern Ocean, which persists under all levels of CO2. North Atlantic salinities are too fresh to permit sinking (25–30 psu), due to surface transport from the very fresh Arctic (~ 20 psu), whose salinities approximately agree with Eocene proxy estimates. North Atlantic salinity increases by 1–2 psu when CO2 is halved, and similarly freshens when CO2 is doubled, due to changes in the hydrological cycle.</t>
+          <t>Обзор литературы посвящен возможностям ультразвуковой диагностики (УЗД) в предикции исходов программ вспомогательных репродуктивных технологий (ВРТ). В качестве ультразвуковых маркеров (УЗМ) рецептивности эндометрия (РЭ) на сегодняшний день используются толщина и структура эндометрия, состояние переходной зоны, оценка маточного кровотока и перистальтика эндометрия. В статье представлен анализ литературных данных о современных взглядах на возможности использования УЗМ РЭ в практической деятельности с целью повышения эффективности методов ВРТ. A review of the literature is dedicated to the possibilities of ultrasound diagnostics in predicting the outcome of assisted reproductive technology programs. Today, the thickness and pattern of the endometrium, evaluation of the transition zone, the assessment of uterine blood flow and endometrial peristalsis are used as ultrasound markers of endometrial receptivity. The article presents an analysis of literary data on modern views on the possibility of using ultrasound in practice in order to increase the effectiveness of ART methods.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4394959852</t>
+          <t>https://openalex.org/W4295899644</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://doi.org/10.11591/edulearn.v18i3.21078</t>
+          <t>https://doi.org/10.1111/dth.15828</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sydorenko et al. (2024)</t>
+          <t>Mahé et al. (2022)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Improvement of higher education: how to bridge the digital divide during the transformation?</t>
+          <t>Biologics combined with conventional systemic agents for the treatment of children with severe psoriasis. Real‐life data from the BiPe cohorts and a practice survey among French and Italian pediatric dermatologists</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>The research is focused on a comprehensive analysis of digitalization as a prerequisite for higher education modernization. The authors of this article consider the digital divide as a component of information inequality, which has a technological nature and presupposes unequal opportunities for access, use, and production of information and knowledge or new technologies for their effective use in practice. The authors determined the digital divide is intensifying under pandemic and quarantine restrictions when the preference is given to blended learning technologies, collaborative learning, integrated learning, flipped classroom technology, storytelling, inquiry based learning (IBL), and project based learning (PBL). The research result is a unified information and communication ecosystem developed, which unites the scientific, technological, and educational potential of the network educational digital environment. The ecosystem also provides for the transformation from a lineal to a cluster model of competence cultivation, the formation of digital skills, growth in the volume of information, and creation of digital products.</t>
+          <t>Dermatologic TherapyVolume 35, Issue 11 e15828 ORIGINAL ARTICLE Biologics combined with conventional systemic agents for the treatment of children with severe psoriasis. Real-life data from the BiPe cohorts and a practice survey among French and Italian pediatric dermatologists Emmanuel Mahé, Corresponding Author Emmanuel Mahé [email protected] orcid.org/0000-0001-5780-1827 Dermatology Department, Hôpital Victor Dupouy, Argenteuil, France Correspondence Emmanuel Mahé, Dermatology Department, Hôpital Victor Dupouy, 69 rue du Lieutenant-Colonel Prud'hon, Argenteuil 95100, France. Email: [email protected]Search for more papers by this authorAlain Beauchet, Alain Beauchet Public Health Department, Centre Hospitalier Universitaire Ambroise Paré, Boulogne-Billancourt, FranceSearch for more papers by this authorSmaïl Hadj-Rabia, Smaïl Hadj-Rabia Dermatology Department, INSERM U1163 &amp; Institut Imagine, Centre Hospitalier Universitaire Necker-Enfants Malades, Assistance Publique-Hôpitaux de Paris, Université Paris Descartes – Sorbonne, Paris, FranceSearch for more papers by this authorJuliette Mazereeuw-Hautier, Juliette Mazereeuw-Hautier Dermatology Department, Centre de Référence des Maladies Rares de la Peau et des Muqueuses, Hôpital Larrey, Toulouse, FranceSearch for more papers by this authorStéphanie Mallet, Stéphanie Mallet Dermatology Department, Hôpital de la Timone, Assistance-Publique-Hôpitaux de Marseille, Marseille, FranceSearch for more papers by this authorAlice Phan, Alice Phan Paediatric Department, Hôpital Femme-Mère-Enfant, Hospices Civils de Lyon, Bron, FranceSearch for more papers by this authorMaëlle Severino-Freire, Maëlle Severino-Freire Dermatology Department, Centre de Référence des Maladies Rares de la Peau et des Muqueuses, Hôpital Larrey, Toulouse, FranceSearch for more papers by this authorFranck Boralevi, Franck Boralevi Department of Paediatric Dermatology, Hôpital Pellegrin, CHU de Bordeaux, Bordeaux, FranceSearch for more papers by this authorHélène Aubert, Hélène Aubert Dermatology Department, Centre Hospitalier Universitaire de Nantes, Nantes, FranceSearch for more papers by this authorHugue Barthélémy, Hugue Barthélémy Dermatology Department, Centre Hospitalier d'Auxerre, Auxerre, FranceSearch for more papers by this authorCéline Girard, Céline Girard Dermatology Department, Centre Hospitalier Universitaire de Montpellier, Montpellier, FranceSearch for more papers by this authorLudovic Martin, Ludovic Martin Dermatology Department, Centre Hospitalier Universitaire d'Angers, Angers, FranceSearch for more papers by this authorMaryam Piram, Maryam Piram Service de Rhumatologie Pédiatrique, Centre Hospitalier Universitaire Bicêtre, Université Paris Sud-Saclay, UVSQ, Assistance Publique-Hôpitaux de Paris HP, Le Kremlin Bicêtre, FranceSearch for more papers by this authorSébastien Barbarot, Sébastien Barbarot Dermatology Department, Centre Hospitalier Universitaire de Nantes, Nantes, FranceSearch for more papers by this authorXavier Balguerie, Xavier Balguerie Dermatology Department, Centre Hospitalier Universitaire Charles-Nicolle, Rouen, FranceSearch for more papers by this authorJinane Zitouni, Jinane Zitouni Dermatology Department, Hôpital Victor Dupouy, Argenteuil, FranceSearch for more papers by this authorCéline Phan, Céline Phan Dermatology Department, Hôpital Victor Dupouy, Argenteuil, FranceSearch for more papers by this authorVito Di Lernia, Vito Di Lernia Dermatology Unit, Arcispedale S. Maria Nuova IRCCS, Reggio Emilia, ItalySearch for more papers by this authorGroupe de Recherche sur le Psoriasis (GrPso) of the Société Française de Dermatologie (SFD), Groupe de Recherche de la Société Française de Dermatologie Pédiatrique (GR SFDP), and Società Italiana di Dermatologia Pediatrica (S.I.Der.P.), Groupe de Recherche sur le Psoriasis (GrPso) of the Société Française de Dermatologie (SFD), Groupe de Recherche de la Société Française de Dermatologie Pédiatrique (GR SFDP), and Società Italiana di Dermatologia Pediatrica (S.I.Der.P.)Search for more papers by this author Emmanuel Mahé, Corresponding Author Emmanuel Mahé [email protected] orcid.org/0000-0001-5780-1827 Dermatology Department, Hôpital Victor Dupouy, Argenteuil, France Correspondence Emmanuel Mahé, Dermatology Department, Hôpital Victor Dupouy, 69 rue du Lieutenant-Colonel Prud'hon, Argenteuil 95100, France. Email: [email protected]Search for more papers by this authorAlain Beauchet, Alain Beauchet Public Health Department, Centre Hospitalier Universitaire Ambroise Paré, Boulogne-Billancourt, FranceSearch for more papers by this authorSmaïl Hadj-Rabia, Smaïl Hadj-Rabia Dermatology Department, INSERM U1163 &amp; Institut Imagine, Centre Hospitalier Universitaire Necker-Enfants Malades, Assistance Publique-Hôpitaux de Paris, Université Paris Descartes – Sorbonne, Paris, FranceSearch for more papers by this authorJuliette Mazereeuw-Hautier, Juliette Mazereeuw-Hautier Dermatology Department, Centre de Référence des Maladies R</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3021290200</t>
+          <t>https://openalex.org/W2342199507</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/2043886920910437</t>
+          <t>https://doi.org/10.1371/journal.pcbi.1004878</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Datta et al. (2020)</t>
+          <t>Luz &amp; Shamir (2016)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Digital transformation: Learning from Italy’s public administration</t>
+          <t>Oscillations via Spike-Timing Dependent Plasticity in a Feed-Forward Model</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Companies and governments have embraced digital transformation as the elixir of the 21st century. But what impedes digital transformation? This case study article is based on data gathered from field research with the Italian Parliament and the Digital Transformation High Commissioner’s Office in the Ministry of the Interior. The case surfaces the context, challenges, and solutions for large-scale public administration digital transformation. The case study highlights how public administration digital transformation in a large democracy is never a technical but a sociotechnical solution. Successful digital transformation needs to understand, address, and change sociopolitical and sociotechnical mores that often define the culture. Underscoring this research is an analysis of digital transformation within the Italian public administration. Public administration encompasses all governmental and public services, including services provided by federal, regional (e.g. states and provinces), municipalities, and local agencies. The Italian public administration, with 60 million people, 8000 municipalities, and 22,000 local administrations, highlights how a digital renaissance is a preface for innovative disruption challenges. The Digital Transformation case uses Italy as the backdrop and Team Digitale, a team of talented individuals embarked on building public administration efficiencies and rebooting Italy’s digital innovation footprint, as the protagonist. For granularity, the case focuses on two digital transformation projects: ANPR, a unified public registry for all Italian residents, and PagoPA, a universal digital payment platform for public administration. This case surfaces the best practices and challenges faced when trying to tackle a mega-project across an entire economy. The case offers digital transformation recommendations, generalizable across any global democracy. The case analysis and recommendations bring to light how, contrary to private organizations, institutionalizing a disruptive innovation in a democratic country at a time of fiscal austerity highlights interesting decision-making issues and facets.</t>
+          <t>Neuronal oscillatory activity has been reported in relation to a wide range of cognitive processes including the encoding of external stimuli, attention, and learning. Although the specific role of these oscillations has yet to be determined, it is clear that neuronal oscillations are abundant in the central nervous system. This raises the question of the origin of these oscillations: are the mechanisms for generating these oscillations genetically hard-wired or can they be acquired via a learning process? Here, we study the conditions under which oscillatory activity emerges through a process of spike timing dependent plasticity (STDP) in a feed-forward architecture. First, we analyze the effect of oscillations on STDP-driven synaptic dynamics of a single synapse, and study how the parameters that characterize the STDP rule and the oscillations affect the resultant synaptic weight. Next, we analyze STDP-driven synaptic dynamics of a pre-synaptic population of neurons onto a single post-synaptic cell. The pre-synaptic neural population is assumed to be oscillating at the same frequency, albeit with different phases, such that the net activity of the pre-synaptic population is constant in time. Thus, in the homogeneous case in which all synapses are equal, the post-synaptic neuron receives constant input and hence does not oscillate. To investigate the transition to oscillatory activity, we develop a mean-field Fokker-Planck approximation of the synaptic dynamics. We analyze the conditions causing the homogeneous solution to lose its stability. The findings show that oscillatory activity appears through a mechanism of spontaneous symmetry breaking. However, in the general case the homogeneous solution is unstable, and the synaptic dynamics does not converge to a different fixed point, but rather to a limit cycle. We show how the temporal structure of the STDP rule determines the stability of the homogeneous solution and the drift velocity of the limit cycle.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2095488582</t>
+          <t>https://openalex.org/W4322737768</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.talanta.2007.10.050</t>
+          <t>https://doi.org/10.1111/2041-210x.14070</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Liu et al. (2007)</t>
+          <t>Record et al. (2023)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Online solid-phase extraction liquid chromatography–electrospray-tandem mass spectrometry analysis of buprenorphine and three metabolites in human urine</t>
+          <t>Synthesizing forecasts to inform decision‐making and advance ecological theory</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>An online solid-phase extraction (SPE) liquid chromatography-electrospray tandem mass spectrometry (LC-ESI-MS/MS) method for the determination of buprenorphine (Bup), norbuprenorphine (nBup), buprenorphie-3-beta-d-glucuronide (Bup-3-G) and norbuprenorphie-3-beta-d-glucuronide (nBup-3-G) in human urine was developed and validated. A mixed mode SPE column with both hydrophilic and lipophilic functions was used for online extraction. A C18 column was employed for LC separation and ESI-MS/MS was utilized for detection. Buprenorphine-D(4) (Bup-D4) and norbuprenophine-D3 (nBup-D3) were used as internal standards for quantitative determination. The extraction, clean-up and analysis procedures were controlled by a fully automated six-port switch valve. Identification and quantification were based on the following transitions: m/z 468--&gt;414 for Bup, m/z 414--&gt;364 for nBup, m/z 644--&gt;468 for Bup-3-G and m/z 590--&gt;414 for nBup-3-G, respectively. Good recoveries from 93.6% to 102.2% were measured and satisfactory linear ranges for these analytical compounds were determined. Minimal ion suppression effect (approximately 7% response decrease) was determined. Intra-day and inter-day precision showed coefficients of variance, CV, ranged from 3.3% to 10.1% and 4.4% to 9.8%, respectively. Accuracy ranging from 97.0% to 104.0% was determined. The applicability of this newly developed method was demonstrated by analyzing human urine samples from the patients in Bup treatment program for therapeutic monitoring purpose.</t>
+          <t>Methods in Ecology and EvolutionVolume 14, Issue 3 p. 728-731 EDITORIALOpen Access Synthesizing forecasts to inform decision-making and advance ecological theory Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author First published: 01 March 2023 https://doi.org/10.1111/2041-210X.14070 [Corrections added on 28 February 2023, after first online publication: The copyright line has been changed.] AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Since the inception of the Intergovernmental Panel on Climate Change in 1988, there has been growing scientific consensus that humans have modified the Earth's environment and that human decisions have the potential to mitigate or exacerbate the effects of future global change (Intergovernmental Panel on Climate Change, 2022). In the face of widespread environmental change, society needs information to make sound decisions. Ecological forecasts provide such information about how ecosystems and their services may respond to different environmental conditions before they happen and considering alternative management scenarios. Following the publication of the first IPCC report in 1990 that called for a better understanding of the future effects of climatic change, the number of ecological publications focused on forecasting increased exponentially (Figure 1). FIGURE 1Open in figure viewerPowerPoint To illustrate a growing interest in ecological forecasting since the publication of the first Intergovernmental Panel on Climate Change report in 1990, we show the number of publications per year for articles that have 'ecology' and 'forecast' in their keywords ( source: Web of Science, search criteria used: Topic = 'ecology' and forecast*'; Timespan = All Years). This includes all publications since 1900 with the exception of Hodgson (1932). The notion of forecasting ecosystem change in ecology is not new (e.g. Clark et al., 2001; Hodgson, 1932). However, as the number of ecological papers focused on forecasting grew in the context of climatic change, ecologists from across sub-disciplines became increasingly concerned with various aspects of forecasting. Paleoecologists acknowledged the limits of our ability to forecast into non-analog climatic conditions when using forecast horizons suggested by the IPCC (e.g. anticipating conditions 60–80 years into the future; Williams &amp; Jackson, 2007). Applied and theoretical ecologists questioned the utility of long-term forecasts for advancing decision-making and ecological theory, respectively (Houlahan et al., 2017; Mouquet et al., 2015). At the same time as these concerns, ecologists recognized the transformative potential of near-term, iterative forecasting for making ecological forecasts more relevant to decision makers and spurring innovations in ecological theory if key technical and conceptual advances could be made (Dietze et al., 2018). In 2018, the Ecological Forecasting Initiative (EFI; https://ecoforecast.org/) launched with an emphasis on creating near-term, iterative forecasts with the hopes of using outputs to inform theory and to better align forecasts with management timeframes. EFI is a grassroots effort funded as a research coordination network through the US National Science Foundation aimed at building and supporting an interdiscipl</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2794870541</t>
+          <t>https://openalex.org/W2563164174</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://doi.org/10.18260/1-2--29014</t>
+          <t>https://doi.org/10.1371/journal.pone.0168107</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>McNeil et al. (2018)</t>
+          <t>Chen et al. (2016)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>The Students' Experience Coming Back After Cooperative Education Experiences</t>
+          <t>Redox Balance in Lactobacillus reuteri DSM20016: Roles of Iron-Dependent Alcohol Dehydrogenases in Glucose/ Glycerol Metabolism</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Abstract This study investigates students' experience from co-op back to the university. Cooperative education (co-op) experiences in engineering programs are valuable for students to get real, hands-on learning of what it is like to be an engineer in their field. This helps students decide if they would like to be an engineer, what kind of engineering they want to major in, and what company they want to work for. This study explores students’ transition from their co-op experience back to their classes at their home university. Thirty percent of students have reported the transition between their co-op experience and the university have hindered their academic motivation (Gunderson, Baily, Raelin, Garrick, 2016). There are students that mention having a hard time with the transition from the co-op back to classes to finish their degree at our university. The survey was sent out to over 400 students that were on co-op over the summer of 2016. It was found that 25% of respondents reported having a somewhat difficult/difficult time transitioning back to the university after going on co-op. The highest reported reasons for the difficulty were change in schedule. Details are reported below, including some qualitative responses from open-ended questions on the survey. The findings from this study will inform our co-op office and university on how we can build better support structures for students that are having transitional difficulties.</t>
+          <t>Lactobacillus reuteri, a heterofermentative bacterium, metabolizes glycerol via a Pdu (propanediol-utilization) pathway involving dehydration to 3-hydroxypropionaldehyde (3-HPA) followed by reduction to 1,3-propandiol (1,3-PDO) with concomitant generation of an oxidized cofactor, NAD+ that is utilized to maintain cofactor balance required for glucose metabolism and even for oxidation of 3-HPA by a Pdu oxidative branch to 3-hydroxypropionic acid (3-HP). The Pdu pathway is operative inside Pdu microcompartment that encapsulates different enzymes and cofactors involved in metabolizing glycerol or 1,2-propanediol, and protects the cells from the toxic effect of the aldehyde intermediate. Since L. reuteri excretes high amounts of 3-HPA outside the microcompartment, the organism is likely to have alternative alcohol dehydrogenase(s) in the cytoplasm for transformation of the aldehyde. In this study, diversity of alcohol dehydrogenases in Lactobacillus species was investigated with a focus on L. reuteri. Nine ADH enzymes were found in L. reuteri DSM20016, out of which 3 (PduQ, ADH6 and ADH7) belong to the group of iron-dependent enzymes that are known to transform aldehydes/ketones to alcohols. L. reuteri mutants were generated in which the three ADHs were deleted individually. The lagging growth phenotype of these deletion mutants revealed that limited NAD+/NADH recycling could be restricting their growth in the absence of ADHs. Notably, it was demonstrated that PduQ is more active in generating NAD+ during glycerol metabolism within the microcompartment by resting cells, while ADH7 functions to balance NAD+/NADH by converting 3-HPA to 1,3-PDO outside the microcompartment in the growing cells. Moreover, evaluation of ADH6 deletion mutant showed strong decrease in ethanol level, supporting the role of this bifuctional alcohol/aldehyde dehydrogenase in ethanol production. To the best of our knowledge, this is the first report revealing both internal and external recycling for cofactor homeostasis during 3-HPA conversion in L. reuteri.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322501042</t>
+          <t>https://openalex.org/W4297890772</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/biom13030432</t>
+          <t>https://doi.org/10.21203/rs.3.rs-2024020/v1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Saxena et al. (2023)</t>
+          <t>Hu et al. (2022)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Machine Learning Model Based on Insulin Resistance Metagenes Underpins Genetic Basis of Type 2 Diabetes</t>
+          <t>Machine Learning Weather Analogs for Renewable Forecasting</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Insulin resistance (IR) is considered the precursor and the key pathophysiological mechanism of type 2 diabetes (T2D) and metabolic syndrome (MetS). However, the pathways that IR shares with T2D are not clearly understood. Meta-analysis of multiple DNA microarray datasets could provide a robust set of metagenes identified across multiple studies. These metagenes would likely include a subset of genes (key metagenes) shared by both IR and T2D, and possibly responsible for the transition between them. In this study, we attempted to find these key metagenes using a feature selection method, LASSO, and then used the expression profiles of these genes to train five machine learning models: LASSO, SVM, XGBoost, Random Forest, and ANN. Among them, ANN performed well, with an area under the curve (AUC) &gt; 95%. It also demonstrated fairly good performance in differentiating diabetics from normal glucose tolerant (NGT) persons in the test dataset, with 73% accuracy across 64 human adipose tissue samples. Furthermore, these core metagenes were also enriched in diabetes-associated terms and were found in previous genome-wide association studies of T2D and its associated glycemic traits HOMA-IR and HOMA-B. Therefore, this metagenome deserves further investigation with regard to the cardinal molecular pathological defects/pathways underlying both IR and T2D.</t>
+          <t>Abstract The Analog Ensemble (AnEn) is a technique to generate forecast ensembles using a deterministic model and associated observations. It has been widely used for weather forecasting and renewable energy production forecasting. Ensemble members are chosen based on a similarity metric that calculates the weighted multi-variate Euclidean distance. However, identifying optimal weights is a challenging and computationally expensive process, which often involves performing a constrained exhaustive search. As a result, only a few predictors were selected and optimized in previous AnEn studies. A new Machine Learning similarity metric is proposed address this shortcoming. First, a Deep Learning network is trained to generate latent features using all the temporal multi-variate input predictors. The analogs for a target forecast are selected by computing the Euclidean distance of the latent variables between the target and all previous forecasts. This process can be performed in parallel for each location. The proposed method does not require prior predictor selection and weight optimization. It is tested using wind speed and solar irradiance forecasts in Pennsylvania for 2017 to 2019. Results show that the proposed method is capable of handling a large number of predictors and it outperforms the original similarity metric in RMSE, bias, and CRPS. Since the transformation network is trained empirically, the proposed method has been found to be more flexible for searching through a longer historical record.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2133358483</t>
+          <t>https://openalex.org/W4366463390</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5120/17130-7712</t>
+          <t>https://doi.org/10.1111/hex.13772</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Sarkar &amp; Kar (2014)</t>
+          <t>Hughes et al. (2023)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Adaptive E-learning using Deterministic Finite Automata</t>
+          <t>The role of identity in the experiences of dementia care workers from a minority ethnic background during the COVID‐19 pandemic: A qualitative study</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Adaptive E-learning refers to adapt the way of presentation of educational material according to the student's needs.Understanding ability differs by student to student so the learning path should vary according to their understanding ability.Some students may understand by once some may needs more with different way.This paper represents a same topic with various approaches to the different classes of students with different understanding ability.The proposed approach in this paper is based on two concepts Deterministic Finite Automata (DFA) and Case Based Study (CBS), out of which DFA used for providing adaptive nature and shows the state transition according to their performance.Path of leaning varies with different student for a particular topic, this feature used to provide adaptively nature in E-learning.CBS used for providing study material based on the state.CBS uses case library to decide the study material.</t>
+          <t>Care home staff working during the COVID-19 pandemic experienced higher levels of stress and increased workloads. People from diverse ethnic backgrounds were disproportionately affected by the COVID-19 pandemic. This study explored the identity experiences of care home staff from diverse ethnic backgrounds in the context of working during the COVID-19 pandemic.Fourteen semistructured interviews were conducted between May 2021 and April 2022 with ethnic minority care home staff in England, who worked during the pandemic. Participants were recruited using convenience and theoretical sampling. Interviews were conducted via telephone or online platforms. A social constructivist grounded theory methodology was utilised in analysing the data.Participants described five key processes which facilitated or hindered the impact that their experiences had on their identity: dealing with uncertainty and transitioning into a COVID-19 world; difficult emotions; experiences of discrimination and racism; the response from the care home and societal systems; and the personal vs collective responsibility. When participants' physical and psychological needs went unmet by support structures within the care home and/or society, they experienced a sense of injustice, lack of control and being unvalued or discriminated against by others.This study highlights the importance of recognising the unique needs of staff from diverse ethnic backgrounds working in care homes and adapting working practices to improve impact on identity, job satisfaction and staff retention.One care home worker was involved in developing the topic guide and helping to interpret the findings.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2071131254</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1175/jcli4289.1</t>
+          <t>https://openalex.org/W2909073876</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Li et al. (2007)</t>
+          <t>Hamed &amp; Fadl (2015)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>The ENSO–Asian Monsoon Interaction in a Coupled Ocean–Atmosphere GCM</t>
+          <t>Improved scheme of e-mail spam classification using meta-heuristics feature selection and support vector machine</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Abstract In this study, the authors evaluate the (El Niño–Southern Oscillation) ENSO–Asian monsoon interaction in a version of the Hadley Centre coupled ocean–atmosphere general circulation model (CGCM) known as HadCM3. The main focus is on two evolving anomalous anticyclones: one located over the south Indian Ocean (SIO) and the other over the western North Pacific (WNP). These two anomalous anticyclones are closely related to the developing and decaying phases of the ENSO and play a crucial role in linking the Asian monsoon to ENSO. It is found that the HadCM3 can well simulate the main features of the evolution of both anomalous anticyclones and the related SST dipoles, in association with the different phases of the ENSO cycle. By using the simulated results, the authors examine the relationship between the WNP/SIO anomalous anticyclones and the ENSO cycle, in particular the biennial component of the relationship. It is found that a strong El Niño event tends to be followed by a more rapid decay and is much more likely to become a La Niña event in the subsequent winter. The twin anomalous anticyclones in the western Pacific in the summer of a decaying El Niño are crucial for the transition from an El Niño into a La Niña. The El Niño (La Niña) events, especially the strong ones, strengthen significantly the correspondence between the SIO anticyclonic (cyclonic) anomaly in the preceding autumn and WNP anticyclonic (cyclonic) anomaly in the subsequent spring, and favor the persistence of the WNP anomaly from spring to summer. The present results suggest that both El Niño (La Niña) and the SIO/WNP anticyclonic (cyclonic) anomalies are closely tied with the tropospheric biennial oscillation (TBO). In addition, variability in the East Asian summer monsoon, which is dominated by the internal atmospheric variability, seems to be responsible for the appearance of the WNP anticyclonic anomaly through an upper-tropospheric meridional teleconnection pattern over the western and central Pacific.</t>
+          <t>With the technological revolution in the 21st century, time and distance of communication are decreased by using electronic mail (e-mail). Furthermore, the growing use of e-mail has led to the emergence and further growth problems caused by unsolicited bulk e-mails, commonly referred to as spam e-mail. Many of the existing supervised algorithms like the Support Vector Machine (SVM) were developed to stop the spam e-mail. However, the problem of dealing with large data and high dimensionality of feature space can lead to high execution-time and low accuracy of spam e-mail classification. Nowadays, removing the irrelevant and redundant features beside finding the optimal (or near-optimal) subset of features significantly influences the performance of spam e-mail classification; this has become one of the important challenges. Therefore, in order to optimize spam e-mail classification accuracy, dimensional reduction issues need to be solved. Feature selection schemes become very important in order to reduce the dimensionality through selecting a proper subset feature to facilitate the classification process. The objective of this study is to investigate and improve schemes to reduce the execution time and increase the accuracy of spam e-mail classification. The methodology of this study comprises of four schemes: one-way ANOVA f-test, Binary Differential Evolution (BDE), Opposition Differential Evolution (ODE) and Opposition Particle Swarm Optimization (OPSO), and combination of Differential Evolution (DE) and Particle Swarm Optimization (PSO). The four schemes were used to improve the spam e-mail classification accuracy. The classification accuracy of the proposed schemes were 95.05% with population size of 50 and 1000 number of iterations in 20 runs and 41 features. The experiment of the proposed schemes were carried out using spambase and spamassassin benchmark dataset to evaluate the feasibility of proposed schemes. The experimental findings demonstrate that the improved schemes were able to efficiently reduce the number of features as well as improving the e-mail classification accuracy.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2019707035</t>
+          <t>https://openalex.org/W2274151390</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/j.1464-410x.1995.tb00759.x</t>
+          <t>https://doi.org/10.1016/j.sbspro.2015.11.604</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Raitanen &amp; Lukkarinen (1995)</t>
+          <t>Голубев &amp; Testov (2015)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>A controlled study of intravesical epirubicin with or without alpha2b-interferon as prophylaxis for recurrent superficial transitional cell carcinoma of the bladder</t>
+          <t>Network Information Technologies as a Basis of New Educational Paradigm</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Objectives To evaluate the efficacy of intravesical epirubicin with or without alpha2b‐interferon (alpha2b‐IFN) as a prophylactic treatment for recurrent superficial transitional cell carcinoma (TCC) of the urinary bladder. Patients and methods A total of 81 patients with superficial (stage Ta and T1), well or moderately differentiated (grades 1 and 2) TCC were treated between June 1988 and December 1993. The patients were randomized into three groups: Group 1 was treated by transurethral resection (TUR) alone; Group 2 received 50 mg epirubicin and Group 3 received 50 mg epirubicin combined with 10 MU alpha2b‐IFN, intravesically in 50 mL sterile buffer solution. The instillations were started 1 week after TUR and were performed weekly during the first month and then once a month for one year. The patients were followed for a total of 2 years. Recurrence rate and tumour rate were calculated to assess the behaviour of the disease. Results The patients were followed for a mean of 20 months. Patients receiving intravesical chemoimmunotherapy (Group 3) had the most favourable outcome; they had comparatively lower recurrence and tumour rates, fewer patients with recurrences and, most importantly, the longest disease‐free interval. Side‐effects were mostly mild and transient, and no differences were found among the groups. Conclusions In reducing the number of patients having recurrences and extending the recurrence‐free interval, intravesical chemoimmunotherapy with epirubicin and alpha2b‐IFN had a promising effect on the natural course of superficial bladder cancer, particularly in patients with a history of prior recurrences.</t>
+          <t>With wide implementation of network information technologies in education, there is a transition to a new paradigm. The traditional forms, methods, means and content of education do not fit into the new paradigm and so need theoretical reconsideration. The methodological basis for the new paradigm has to be the postnonclassical methodology relying on synergetic vision of the world and soft modeling ideas. The education environment gains other opportunities and limitations as compared to the previous ones. The capacities of network space further the transition from teaching to self-teaching and self-education. As a rule, under such conditions, the process of a student's perceiving the new material becomes non-linear. The main objective of school in these conditions is non-linear arrangement of information, bringing it into a self-organizing system. The paper pays attention to the most rapidly developing direction of the education system information – network technologies. The network technologies open up totally new opportunities for creativity and self-fulfillment of both students and teachers. Computer networks in teaching can be applied for joint use of software resources, for interactive communication, prompt receipt of information, continuous monitoring of quality of the knowledge obtained. Using computer networks promotes the use of new teaching techniques in school and higher education institution, implementation of collaborative technologies that allow organizing education while jointly solving study problems.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://openalex.org/W623916810</t>
+          <t>https://openalex.org/W2610255345</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5860/choice.37-5785</t>
+          <t>https://doi.org/10.1016/j.wrr.2017.04.002</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>NA (2000)</t>
+          <t>Tran &amp; James (2017)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>The Spanish economy in the new Europe</t>
+          <t>Transformation of household livelihoods in adapting to the impacts of flood control schemes in the Vietnamese Mekong Delta</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>List of Tables and Figures Foreword by Luis Angel Rojo Preface List of Abbreviations Introduction: Changes in the International Economic Setting PART ONE: COMPARATIVE ANALYSIS Growth and Structural Changes Productivity and its Determinants Activity, Employment and Unemployment Costs, Prices and Competitiveness Public Finances and Fiscal Policy External Sector Nominal and Real Convergence PART TWO: EVALUATION OF THE INTEGRATION PROCESS Trade Relations Direct Investment Flows Migratory Flows The Community Budget and its Functions Unification of Monetary Policy in Europe Epilogue: Prospects and Economic Strategies for the Spain of the Euro Appendix I: Chronology of the European Integration Process Appendix II: Methodological Problems of International Comparisons Index</t>
+          <t>Flood control and irrigation play a significant role in supporting rice intensification and agricultural diversification in the Vietnamese Mekong Delta. Arising out of these mandatory policies have exhibited complicated realities surrounding the linkages between flood control schemes (dykes) and rural livelihoods. However, little has been known about how these development processes shape the social and physical landscapes of the delta, and how rural households have transformed their traditional livelihoods to adapt to change. This paper aims to investigate these household-led practices that have occurred in the wake of the scheme operation across three flood-prone areas in the delta. It employs the mixed methods approach that guides data collection using focus group discussions, in-depth interviews with key informants and household surveys. The analysis suggests that the rural communities have witnessed the dramatic transformation of livelihood practices to adapt to emerging social and environmental conditions. Household groups have devised and adopted a variety of livelihood strategies, which consequently gave rise to polarity among household groups. This study highlights the increased recognition of rural households’ role in contributing farming initiatives to the reframing process of local adaptation policies.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2147234190</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1108/03684921211275324</t>
+          <t>https://openalex.org/W2393676167</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Wu &amp; Zhao (2012)</t>
+          <t>Liu-fan (2013)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Organizational learning and the complexity of strategic human resource management</t>
+          <t>A Study on the Construction of Specialty Group Based on Servicing the Textile and Garment Industry Transformation and Upgrading</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Purpose The purpose of this paper is to describe the complicated characteristics of the environment, the relationship between complicated organization and organizational transformation, and the coupling domino effect between the complication of external environment and organizational complexity by making conceptual systematic analysis. Design/methodology/approach The relative stability and certainty of the organizational structure are being replaced by uncertainty and complexity. Organizational learning and its reform are becoming all the more important to gain organizational competitive advantage. This paper designs the system analysis method to discuss the complexity of organizational environment, the relationship between organizational complexity and organizational structure reform, and also the coupling effect of the complexity of external environment and that of the organization. Findings It is found that organizational learning, the ways of strategic reform, and the focal point must remain consistent under the complicated environment. Research limitations/implications The main limitation is how to construct the mathematical models describing complicated characteristics of the environment. Practical implications The paper contains very useful advice for human resource managers. Originality/value The paper focuses on the selection of learning patterns and strategic management of different organizational learning and the reform of organizational structure.</t>
+          <t>Industrial transformation and upgrading has been a major strategic task in China for quite a long period of time.The key for the transformation of textile and garment industry is the product innovation,which must be guided by the market,supported by the technology and secured by the quality.In order to cultivate applied talents with high skills for product innovation,the construction of professional group should serve the product innovation as the purpose.It is also necessary to cultivate students' innovative spirit and dynamic learning ability.Professional group can be formed according to the combination of the marketing,designation,manufacturing,testing and other related professional organics,so as to provide talents and technical support for the enhancement of the professional service and upgrading of the innovative ability.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2809208010</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/we.2217</t>
+          <t>https://openalex.org/W2953473000</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Shu &amp; Seiler (2018)</t>
+          <t>Angelova et al. (2019)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Gridded‐based LPV control of a Clipper Liberty wind turbine</t>
+          <t>Vaccinium Vitis-Idaea L., Origin from Bulgaria Indicate in Vitro Antitumor Еffect on Human Cervical and Breast Cancer Cells</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Abstract This paper proposes a linear parameter varying (LPV) control design for a Clipper Liberty C96 2.5 MW wind turbine to operate in all wind conditions. A standard approach is to use multiple single‐input, single‐output loops for control objectives at different wind speeds. This LPV controller instead takes these objectives into a uniformed multi‐input, multi‐output design framework. The key difference is that the LPV controller is specifically designed to smoothly transition from Region 2 to Region 3 operation. Reducing structural loads is another major concern in the design. Synthesis of the controller relies on a gridded‐based LPV model of the turbine, which is constructed by interpolation of linearized turbine models at different wind speeds. To overcome the conservativeness in the design, parameter varying rates will be considered based on turbulent wind conditions. The performance of the LPV controller is evaluated using a high fidelity FAST model provided by Clipper. The LPV controller is directly compared with the baseline controller currently operating on the turbine. Simulations and analysis show that the LPV controller meets all performance objectives and has better load reduction performance.</t>
+          <t>Cancer is a socially significant disease. Along with efforts to understand the complex genetic/epigenetic factors that trigger a carcinogenesis, it is also necessary to analyze the potential natural active substances that may delay or even stop neoplastic transformation. Promising candidates are Bulgarian cranberries from high mountain plant populations, which are rich in phenolics and anthocyanins and have proven beneficial effects on human body.The present study aims to evaluate in vitro, antitumor activities of total extracts and purified nonanthocyanin and anthocyanins fractions of Vaccinium vitis-idaea L. , picked in Bulgaria on human cervical (HeLa) and breast (MCF7) cancer cell lines, as well as to examine some of the apoptotic mechanisms underlying them.Materials and methods: Four methanol extracts and respective number of purified B- nonanthocyanin / C- anthocyanins fractions of Bulgarian lingonberry were used. Antitumor effect was established by Trypan Blue method, monitoring of morphological changes and МТТ cell viability assay. Assessment of apoptotic activity was performed using DNA fragmentation method.Results: The results from МТТ analyses showed that B- nonanthocyanin fractions of Bulgarian lingonberry have well expressed inhibitory effect on survival of tested tumor cells. The observed effect dependent of the dose administered and were stronger in relation with the high-mountain populations and HeLa cell line. The integrity of the extracted DNA from treated survival cells indicates possible apoptosis mechanisms under the action of biologically active ingredients from lingonberries. Conclusion: Survey of antitumor activities of Bulgarian lingonberries based on molecular methods, could contribute to establish the natural substances useful for human health in general and practical oncology.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388916053</t>
+          <t>https://openalex.org/W2958334302</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2478/agr-2023-0011</t>
+          <t>https://doi.org/10.1111/cas.14092</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Șonea et al. (2023)</t>
+          <t>Onidani et al. (2019)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Optimizing Animal Nutrition and Sustainability Through Precision Feeding: A Mini Review of Emerging Strategies and Technologies</t>
+          <t>Monitoring of cancer patients via next‐generation sequencing of patient‐derived circulating tumor cells and tumor &lt;scp&gt;DNA&lt;/scp&gt;</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Abstract Precision feeding, a practice involving customized diets tailored to individual nutritional requirements, has emerged as a promising paradigm within animal production, underpinned by advanced technologies and data analytics. This mini review embarks on an exploration of the evolutionary trajectory of precision feeding and its profound ramifications on animal nutrition, environmental sustainability, and animal welfare. Prominent technological advancements, exemplified by sensors and automation, have wrought transformative change across various sectors, spanning from dairy farming to poultry production. These technological innovations facilitate real-time monitoring and data accrual, thereby augmenting feed efficiency and fostering animal well-being. Environmental sustainability assumes an integral role in the precision feeding paradigm. Through the reduction of feed wastage and the minimization of nutrient excretion, it serves as a potent mitigating solution against the environmental footprint synonymous with livestock production. This entails a noteworthy reduction in greenhouse gas emissions and the prevention of water pollution. The interplay between precision feeding and animal welfare is intricate and multifaceted. On one hand, it furnishes farmers with the capability to expeditiously monitor and address animal health issues. On the other hand, it poses challenges associated with social interactions and the fulfilment of individualized nutritional needs. The future trajectory of precision feeding is inherently tied to the resolution of imminent challenges, including the imperative for real-time monitoring, the development of cost-effective large-scale implementation, and comprehensive elucidation of long-term effects on animal health and welfare. The ensuing panorama portends promising prospects, encompassing the optimization of resource efficiency, diminution of environmental impacts, and the formulation of personalized nutritional strategies. In summation, precision feeding stands as a domain teeming with potential, poised to optimize both animal nutrition and the sustainability quotient within animal production. Realizing this potential hinge on the adept addressing of forthcoming challenges, coupled with the astute harnessing of emergent technologies, in our collective pursuit of a more sustainable and ethically principled agricultural landscape.</t>
+          <t>Abstract Liquid biopsy of circulating tumor cells ( CTC ) and circulating tumor DNA (ct DNA ) is gaining attention as a method for real‐time monitoring in cancer patients. Conventional methods based upon epithelial cell adhesion molecule (Ep CAM ) expression have a risk of missing the most aggressive CTC subpopulations due to epithelial‐mesenchymal transition and may, thus, underestimate the total number of actual CTC present in the bloodstream. Techniques utilizing a label‐free inertial microfluidics approach ( LFIMA ) enable efficient capture of CTC without the need for Ep CAM expression. In this study, we optimized a method for analyzing genetic alterations using next‐generation sequencing ( NGS ) of extracted ct DNA and CTC enriched using an LFIMA as a first‐phase examination of 30 patients with head and neck cancer, esophageal cancer, gastric cancer and colorectal cancer ( CRC ). Seven patients with advanced CRC were enrolled in the second‐phase examination to monitor the emergence of alterations occurring during treatment with epidermal growth factor receptor ( EGFR )‐specific antibodies. Using LFIMA , we effectively captured CTC (median number of CTC , 14.5 cells/mL) from several types of cancer and detected missense mutations via NGS of CTC and ct DNA . We also detected time‐dependent genetic alterations that appeared during anti– EGFR therapy in CTC and ct DNA from CRC patients. The results of NGS analyses indicated that alterations in the genomic profile revealed by the liquid biopsy could be expanded by using a combination of assays with CTC and ct DNA . The study was registered with the University Hospital Medical Information Network Clinical Trials Registry ( ID : UMIN 000014095).</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317941081</t>
+          <t>https://openalex.org/W3126388929</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://doi.org/10.35774/visnyk2022.04.028</t>
+          <t>https://doi.org/10.1002/agj2.20631</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Melnyk &amp; Zhukevych (2023)</t>
+          <t>Govindasamy et al. (2021)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Economic and analytical diagnostics in the financial activity management system of a modern health care institution</t>
+          <t>Thirty‐six years of no‐tillage regime altered weed population dynamics in soybean</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Introduction. The concept of the development of the system of financial support in the field of health care outlines the need to introduce a new financial mechanism, which provides for the provision of a sufficient level of managerial and financial autonomy to medical institutions.The change in the nature of financial relations imposes new requirements on the management of financial activities in health care institutions. The functional component of managerial activity is economic and analytical diagnostics, the application of which will ensure the adaptability of financial management methods and models to modern realities and the integration of the finances of health care institutions into the system of competitive market relations.Purpose. The purpose of the study is the development of theoretical provisions of economic-analytical diagnostics and the development of methodological approaches for its application in the management of financial activities of health care institutions in the conditions of transformational changes.Methods. Achieving the set goal is achieved by using general scientific, special and empirical methods of learning processes and phenomena. The methods of analysis and synthesis, comparison, and generalization are used to understand economic and analytical diagnostics in the management system; scientific abstraction, structural-logical and tabular methods for determining the methodology of economic-analytical diagnostics in modern health care institutions.Results. It has been proven that the mechanism of management activity of state institutions with elements of entrepreneurial structures, which are currently medical institutions, requires the use of modern economic and analytical methods and diagnostic models and their adaptation to the specifics of the activities of health care institutions. The analysis of the main approaches of scientists to the definition and understanding of economic-analytical diagnostics as a functional component of managing the financial activities of a health care institution was carried out, and it was determined that the essence of economic-analytical diagnostics of health care institutions should be the system of management activities regarding decision-making on the investment of financial and other resources to provide quality services that will ensure the efficiency and competitiveness of the health care institution.At the same time, the main tasks are defined: analysis of the financial activity of medical institutions, assessment of production capacities and resource base and means of their improvement, which will ensure the financial and economic stability and stability of medical institutions with the approval of market positions and/or exit from the crisis state.It is substantiated that the indicators of the efficiency and stability of the functioning of the health care institution should form an optimal management model of an expedient and justified system of financing and provision of financial resources and the efficiency of their spending.The use of integral methods and models that combine internal and external factors of the functioning of economic entities is proposed to carry out economic and analytical diagnostics and determine the capabilities of health care institutions. The main approaches to the SWOT analysis methodology with the possibility of its adaptation and application in the management of health care institutions were studied.Discussion. In order to carry out economic and analytical diagnostics regarding the determination of the capabilities of health care institutions, including financial ones, in addition to SWOT analysis, it is advisable to use other integral methods and models that combine internal and external factors of the functioning of economic entities in the field of medicine, which may be the subject of further research.</t>
+          <t>Abstract Changes to tillage practices can impact weed species composition and population dynamics in arable fields. The objective of this study was to evaluate and compare the impact of long‐term (36 yr) no‐tillage (NT) and conventional‐tillage (CT) systems on weed species composition, density, seedling emergence, and diversity, in a continuous soybean [ Glycine max (L.) Merr.] system in Southeast Texas. Results from 2016 and 2017 observations showed that weed species composition varied between CT and NT, and the total density was greater in NT (14 and 86 plants m –2 for summer and winter annuals, respectively) compared to CT (3 and 45 plants m –2 , respectively). Moreover, tall waterhemp [ Amaranthus tuberculatus (Moq.) Sauer], prostrate spurge [ Chamaesyce humistrata (Engelm. ex Gray) Small], and red sprangletop [ Dinebra panicea (Retz.) P.M. Peterson &amp;amp; N. Snow] emergence was delayed in NT compared to CT. Vertical distribution (70‐cm depth) of viable weed seeds in the soil profile was also influenced by tillage regime; greater proportion of weed seeds were present on the soil surface (0–5 cm) in NT (57–80% among different species) compared to CT (38–56%). However, weed diversity indices did not differ between CT and NT. Results indicate that long‐term NT, even with herbicide management, can lead to greater weed densities with a shift towards small‐seeded annual species (common purslane [ Portulaca oleraceae L.], parsley‐piert [ Aphanes arvensis L.], cutleaf groundcherry [ Physalis angulate L.]). Growers transitioning to NT should be cognizant of potential changes to weed population dynamics as a result of altered tillage regime and devise strategies for effective management.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4302029183</t>
+          <t>https://openalex.org/W2336619940</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1922/cdh_00110niciomhair06</t>
+          <t>https://doi.org/10.3389/conf.fbioe.2016.01.00262</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Iomhair et al. (2022)</t>
+          <t>Hima et al. (2016)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>The Greater Manchester Child Friendly Dental Practice Scheme: Using a Transformational Commissioning Approach to Align Paediatric Dental Service Provision with Childhood Oral Health Needs in Greater Manchester.</t>
+          <t>Porphyrin encapsulated poly(3- hydroxybutyrate) microspheres in target specific photodynamic therapy for cancer</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>In response to the impact of the COVID-19 pandemic on access to already oversubscribed specialist paediatric dental services, a pilot of an enhanced primary care paediatric dental pathway, known as the Child Friendly Dental Practice (CFDP) scheme, was commissioned by the Greater Manchester Health and Social Care Partnership. Supported by a transformational commissioning approach, the ambition of the CFDP pilot was to manage or stabilise the oral health of high-need paediatric patients who had been referred to specialist dental services within Community or Hospital Dental Service settings, through timely access to primary care clinicians who were confident and experienced in treating children. The theory of change of the CFDP pilot proposed that rapid access to enhanced primary dental care would reduce the need for onward referral to specialist paediatric dental services, whilst also stabilising the oral health of children who require more complex management in specialist services. A formative evaluation of the phase one pilot implementation of the CFDP Scheme has demonstrated the potential of the CFDP Scheme to improve access to dental services for paediatric patients referred from their General Dental Practitioner. Comparison of waiting times between the CFDP pathway and the standard paediatric dental referral pathway have revealed substantially reduced waiting times to access care along the CFDP pathway, while less than 30% of those who attended CFDPs required onward referral to specialist paediatric dental services. Encouragingly, similar attendance and treatment completion rates were noted among patients from all levels of socio-economic deprivation, reducing concerns regarding the potential for service-based interventions to increase oral health inequalities. Following successful completion of the phase one pilot implementation and evaluation, the CFDP Scheme has now been rolled out across all localities in Greater Manchester as part of a second phase pilot implementation. Public Health Competencies; Equitable healthcare provision, Partnership working, Evidence-based public health, Systems thinking, Transformational commissioning, Healthcare evaluation.</t>
+          <t>Event Abstract Back to Event Porphyrin encapsulated poly(3- hydroxybutyrate) microspheres in target specific photodynamic therapy for cancer Hima Puthussery1, Ipsita Roy1, Anatoily Markiv1, Eugen Stulz2, Pooja Basnett1 and Peter Thomas1 1 University Of Westminster, Faculty of science and technology, United Kingdom 2 University of Southampton, Department of Chemistry, United Kingdom Introduction: Photodynamic therapy (PDT) is an emerging alternative treatment modality to conventional cancer therapies. This involves the application of photosensitive drugs, systemically or tropically, followed by illumination with light of a suitable wavelength and dosage. A drug delivery system that is biodegradable, biocompatible, non-immunogenic and capable of encapsulation without altering the properties of the photosensitizer is desired. Biosynthetic polyhydroxyalkanoates (PHAs) have been extensively researched within the context of drug delivery [1]. This research investigates Poly(3-hydroxybutyrate) (P(3-HB)) microspheres as suitable target specific drug delivery systems of Porphyrin derivatives (protoporphyrin IX, tetraphenylporphyrin and hematoporphyrin ether) on mammary cancer cells. The microspheres have been coupled with anti-HER2 to enable target specificity for better incorporation by SK-BR-3 cells that overexpress HER-2 marker. Materials and Methods: Production of photosensitizer encapsulated microsphere using P(3HB): P(3HB) synthesised using Kannan- Rehaceck media [2] was used for producing microspheres by solid-in-oil-in-water emulsion method. Varying process parameters were tested based on experiment design generated by design expert software; 2.5%w, 5%w and 10%w of drugs were then encapsulated in the P(3HB) microspheres. Surface adsorption of the anti HER-2 antibody on microspheres: RFP coupled anti HER-2 antibody was expressed in Rosetta gami B(DE3) E. coli. These His-tagged proteins were purified using immobilised metal affinity chromatography and linked to the photosensitizer-encapsulated microspheres using surface adsorption. Protein adsorbed was quantified using Bradford’s assay. Photoexcitaion and cytotoxicity tests: SK-BR-3 was cultured as specified by ATCC and incubated with the microspheres for 48 hours and subjected to white light exposure for 30 minutes. MTT assay was performed to assess cytotoxicity and live/dead staining was performed for confocal imaging. Results and Discussion: Without photoexcitation, microspheres loaded and not loaded with porphyrin derivatives have similar cytotoxicity. Cytotoxic effect increased with increasing drug loading in each case and was found to be the highest in case of tetraphenylporphyrin (Figure 1). anti HER-2 conjugation seemed to cause a further increase in cytotoxity in the case of hematoporphyrin ether and tetraphenylporphyrin, which was statistically significant (p&lt;0.05). The absence of increased cytotoxicity in the case of protoporphyrin IX is attributed to loss of activity presented by processing conditions and is to be further investigated. The life span of singlet oxygen species generated is only ~3.5micro seconds and apoptotic factors generated by these have diffusion range of only 0.01-0.02micro meters [3]. Hence, successful localisation of the photosensitizer in the target is a key factor in determining the extent of photodynamic reaction caused. A further addition of a target specific antibody such as anti- HER2 recognizing the antigens presented by neoplastic transformation will result in a more efficient Photoimmunotargeting (PIT) [3]. The cells treated with these microspheres seemed to have much become enlarged (~60mm) as opposed to the others, suggesting a possible phagocytic mechanism (Figure 2). Conclusion: Biosynthetic P(3-HB) is an excellent choice for synthesizing porous microspheres for photosensitizer delivery. Of the three porphyrin derivatives compared, tetraphenylporphyrin was found to be the most cytotoxic. As anti- HER2 conjugated microspheres were found to exhibit increased cytotoxicity, it can be concluded that these are promising candidates in Photoimmunotargeting. I would like to thank Cavendish scholarship, University of Westminster.References:[1] Francis, Lydia and Meng, Decheng and Knowles, Jonathan C. and Keshavarz, Tajalli and Boccaccini, Aldo R. and Roy, Ipsita (2011) Controlled delivery of gentamicin using poly(3-hydroxybutyrate) microspheres. International Journal of Molecular Sciences, 12 (7). pp. 4294-4314. ISSN 1422-0067[2] Valappil, Sabeel P. and Rai, R. and Bucke, Christopher and Roy, Ipsita (2008) Polyhydroxyalkanoate biosynthesis in Bacillus cereus SPV under varied limiting conditions and an insight into the biosynthetic genes involved. Journal of Applied Microbiology, 104 (6). pp. 1624-1635. ISSN 1364-5072[3] • Solban, N., Rizvi, I., Hasan, T. (2006). Targeted photodynamic therapy. Lasers in Surgery and Medicine. 38 (5), 522-531. Keywords: Drug delivery, biomedical application, targeting delivery, Nano/micro part</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2594927126</t>
+          <t>https://openalex.org/W1963898533</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.prp.2017.03.006</t>
+          <t>https://doi.org/10.1353/wal.0.0122</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Jaafari‐Ashkavandi &amp; Aslani (2017)</t>
+          <t>Rice (2010)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Caveolin-1 expression in oral lichen planus, dysplastic lesions and squamous cell carcinoma</t>
+          <t>&lt;i&gt;Contesting Knowledge: Museums and Indigenous Perspectives&lt;/i&gt; (review)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Caveolin-1(Cav-1), the main part of caveolae structure, is supposed to play a role in pathogenesis of many human tumors. Since oral lichen planus (OLP) is considered as a potential premalignant disease, this study evaluated Cav-1 expression in OLP in comparison with benign hyperkeratosis, dysplastic epithelium and oral squamous cell carcinoma (OSCC), to investigate its possible role in pathogenesis and malignant transformation of OLP. In this cross-sectional retrospective study, immunohistochemical expression of Cav-1 in the epithelial component and stroma was evaluated in 81 samples, including 12 cases of hyperkeratosis, 24 OLP, 22 epithelial dysplasia, and 23 OSCC samples. Correlations between Cav-1 expression and clinicopathological variables were evaluated statistically. Positive Cav-1 staining was found in 58% of OLP, 91% of hyperkeratosis, 100% of epithelial dysplasia, and 95% of OSCC samples. OSCC showed the highest Cav-1 expression and OLP had the lowest (P = 0.001). The intensity of staining was significantly increased in stepwise manner from OLP to OSCC (P = 0.001). Expression of Cav-1 was related to the grade of samples in OSCC and dysplastic samples (P = 0.04). Based on the findings, it was concluded that Cav-1 may play a role in the pathogenesis of OLP and carcinogenesis of SCC, but its role in malignant transformation of OLP is not confirmed. Further studies are needed to evaluate its potential therapeutic function in OLP and SCC.</t>
+          <t>Reviewed by: Contesting Knowledge: Museums and Indigenous Perspectives Kym S. Rice Contesting Knowledge: Museums and Indigenous Perspectives. Edited by Susan Sleeper-Smith. Lincoln: University of Nebraska Press, 2009. 374 pages, $35.00. In his influential 1997 essay "Museums as Contact Zones," anthropologist James Clifford raised troubling questions about the unequal power relationships that existed between majority (read, white-run) museums and Native Americans inspired by an encounter he witnessed between tribal elders and staff at the Portland Art Museum. Among other things, Clifford argued for museums to adopt new strategies of representation that would accord greater recognition and respect to the meaning of sacred objects, as conveyed through living indigenous memory and perspective. Published more than a decade later, based on conference papers originally presented at the Newberry Library's D'Arcy McNickle Center for American Indian History, Contesting Knowledge features essays by scholars who study indigenous museums and material culture. The very readable volume, edited by Susan Sleeper-Smith of Michigan State University, speaks to the transformations as well as the complications that have occurred in the field since Clifford's piece originally appeared—precipitated, in part, by the continuing expansion of tribal museums, some with elaborate exhibition programs fueled by casino development. Although the book asserts a global perspective through its inclusion of essays by Hal Langfur on Brazil and Ciraj Rassool on the District Six Museum in Cape Town, South Africa, it focuses chiefly on North America. As one might expect, multiple essays critique the Smithsonian Institution's controversial National Museum of the American Indian (NMAI), which opened its Washington, DC, facility in 2004. Miranda J. Brady, in "A Dialogic Response to the Problematicized Past," interrogates NMAI's placement within the Smithsonian Empire, which Brady finds not only obscures its efforts to construct a national indigenous identity within the museum but is further complicated by what she perceives as a lack of transparency in its relationships with political and corporate America. Of additional interest with respect to NMAI are Jennifer Shannon's "The Construction of Native Voice at the National Museum of the American Indian," which addresses the difficult issues related to community authority and representation, and Ann McMullen's sweeping "Reinventing George Heye: Nationalizing the Museum of the American Indian and Its Collections," which reconsiders the museum's vast 800,000-plus object [End Page 213] collection through a new scrutiny of Heye, the individual who collected them earlier in the twentieth century. Other essays analyze the role of tribal museums in revitalizing their communities, particularly through community-focused exhibition practices. Amy Lonetree's thoughtful "Museums as Sites of Decolonization: Truth Telling in National and Tribal Museums" concludes the volume. Lonetree has in the past criticized NMAI's lack of historical context, particularly with respect to colonization and genocide, while generally offering praise for the museum's efforts to effect close collaboration with Native communities. Here she evaluates the Saginaw Chippewa's Ziibiwing Center of Anishinabe Culture and Lifeways as an exemplar of what Lonetree terms the "decolonized" museum—standing in sharp contrast to NMAI. Her study calls our attention to the powerful, creative, and quite different new models for exhibition making now emerging from some indigenous museums. Regardless of one's ethnicity, affiliation or experience, museum professionals and public historians alike, especially those with little or no experience working with indigenous communities or other stakeholder audiences, will find this volume concerning an emerging aspect of museum practice valuable and worth exploring. Kym S. Rice George Washington University, Washington, DC Copyright © 2010 The Western Literature Association</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3032288666</t>
+          <t>https://openalex.org/W4233827115</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jssc.2020.121463</t>
+          <t>https://doi.org/10.5194/cp-2017-161</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Medina et al. (2020)</t>
+          <t>Hutchinson et al. (2018)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Tetrahedral Mn4+ as chromophore in sillenite-type compounds</t>
+          <t>Climate sensitivity and meridional overturning circulation in the late Eocene using GFDL CM2.1</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Solid solutions of Bi12Mn1-xMxO20 (M ​= ​Ti, Si, Ge, x ​= ​0–1) and Bi12-xInxMn0.2Ti0.8O20 (x ​= ​0–4.0) having Bi12MO20 sillenite-type structure were synthesized through M-site and Bi-site substitutions and their properties were evaluated. Powder neutron and X-ray structure analyses confirm that all the compounds crystallize in space group I23 with Mn in the tetrahedral site. The color of Bi12Mn1-xMxO20 (M ​= ​Ti, Si, Ge) solid solutions varies from dark green (x ​= ​0) to intense green (x ​= ​0.8), and the x ​= ​1 phases Bi12MO20 (M ​= ​Ti, Si, Ge) are light yellow. Substituting indium for bismuth brings a yellowish hue to the Bi12Mn1-xTixO20 series as shown in Bi12-xInxMn0.2Ti0.8O20 (x ​= ​0–4.0). Optical measurements suggest that the d-d transition of Mn ions combined with the M4+–O2- charge transfer is responsible for the observed green colors. All compositions exhibit high near-infrared reflectance (NIR) which makes them potential candidates for cool pigment applications. The Bi12Mn1-xTixO20 (x ​= ​0.2, 0.6, 0.8) compounds show paramagnetic behavior in 5–300K temperature region, and the effective magnetic moment is slightly smaller than theoretical magnetic moment of tetravalent Mn. This is one of the few cases where tetrahedrally coordinated Mn4+ functions as a chromophore in inorganic metal oxides.</t>
+          <t>Abstract. The Eocene–Oligocene Transition (EOT), approximately 34 Ma ago, is an interval of great interest in Earth's climate history, due to the inception of the Antarctic ice sheet and major global cooling at the time. Climate simulations of the transition are needed to help us interpret proxy data, test mechanistic hypotheses for the transition, and determine the climate sensitivity at the time. However, model studies of the EOT thus far typically employ control states designed for a different time period, or ocean resolution on the order of 3 degrees. Here we developed a new higher resolution paleoclimate model configuration based on the GFDL CM2.1 climate model adapted to a late Eocene (38 Ma) paleogeography reconstruction. We employ an ocean resolution of 1 × 1.5 degrees, and an atmosphere resolution of 3 × 3.75 degrees. This represents a significant step forward in resolving the ocean geography, gateways and circulation in a coupled climate model of this period. We simulate the model under 3 different levels of CO2; 400, 800 and 1600 ppm. The model exhibits relatively high sensitivity to CO2 compared with other recent model studies, and thus can capture the expected Eocene high latitude warmth within observed estimates of atmospheric CO2. However, the model does not capture the low meridional temperature gradient seen in proxies. Equatorial sea surface temperatures are too high in the model (30–37 degrees C) compared with observations (max 32 degrees C), though observations are lacking in the warmest regions of the western Pacific. The model exhibits robust bipolar sinking in the North Pacific and Southern Ocean, which persists under all levels of CO2. North Atlantic salinities are too fresh to permit sinking (25–30 psu), due to surface transport from the very fresh Arctic (~ 20 psu), whose salinities approximately agree with Eocene proxy estimates. North Atlantic salinity increases by 1–2 psu when CO2 is halved, and similarly freshens when CO2 is doubled, due to changes in the hydrological cycle.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2009334730</t>
+          <t>https://openalex.org/W4394959852</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/gyr.2013.0009</t>
+          <t>https://doi.org/10.11591/edulearn.v18i3.21078</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Lande (2013)</t>
+          <t>Sydorenko et al. (2024)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>“Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung by Marcus Twellmann</t>
+          <t>Improvement of higher education: how to bridge the digital divide during the transformation?</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Reviewed by: “Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung by Marcus Twellmann Joel B. Lande Marcus Twellmann, “Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung. Munich: Konstanz University Press, 2010. 334 pp. With a nod to Friedrich Nietzsche’s famous claim that cultural practices such as making a promise and the administering of punishment consist of ever-changing interpretations and legitimations, Marcus Twellmann embarks on his investigation of the vicissitudes to which the oath was subject in Prussia during the Enlightenment. The oath emerges in the course of Twellmann’s lucid argument, which is related in refreshingly crisp and precise prose, as a point of intersection between state administration, religious practice, and philosophical critique. Because the taking of an oath traditionally involved the invocation of the divine, its study allows Twellmann to treat the Enlightenment as an age as characterized as much by continuity as by rupture. Twellmann’s leading surmise is that the emergence of the modern state as a pastoral force, as interested in the spiritual salvation of its citizens as much as in the preservation of peace, preserved, albeit under shifting terms, the religious significance of oath taking. Tracing a breathtaking arc from public ordinances at the turn of the eighteenth century to the seminal philosophical reflections on oaths by Moses Mendelssohn and Immanuel Kant, and then closing with a poignant reflection on the fashionably controversial Carl Schmitt, Twellmann shows that the oath was a procedure by means of which the emerging state order compelled its subjects to speak the truth. The culminating moment in Twellmann’s march toward modernity is, undoubtedly, the treatment of oaths in the philosophy of Kant. For this Prussian philosopher, above all others, spearheaded a conception of the oath as a relationship between a human being and his or her conscience, thereby jettisoning the traditional role of God as guarantor of truth. [End Page 275] The first chapter of the study investigates an anecdote published in the Prussian Annalen der Gesetzgebung und der Gelehrsamkeit from 1789. This seemingly minor anecdote of a clergyman who refuses to take an oath allows Twellmann to show that the Prussian state at the end of the eighteenth century still employed the oath as an educational and disciplinary practice intertwined with moralizing ambitions. Whatever transformations to which the oath was submitted in the course of the Enlightenment, it becomes clear from the anecdote that a false oath was still submitted before a “figure of the third,” before an instance of the divine that putatively bears greater authority. The second chapter takes up the role of the oath within tractates on ceremony (Zeremonia lwissenschaft), which proliferated in the eighteenth century. The author shows with great analytic precision that ceremony bridged political and ecclesiastical discourses, and the ritualistic dimensions of oath taking were, in fact, highly contested throughout the eighteenth century. The chapter ultimately shows that Mendelssohn and Kant articulated vastly different understandings of the importance of ritual; the former embraced ceremony on the basis of its importance to lawful Jewish practice, whereas the latter dismissed it as an instance of the primitive fetish of external objects. At the end of these two chapters Twellmann delves into the material that, ultimately, constitutes the study’s most impressive contribution: his investigation of the role of oaths in Kant’s philosophy. In a masterful synthesis of Kant’s mature philosophical writings, Twellmann shows the ramifications for the traditionally theological inflection of the oath, when Kant installs philosophy as the ultimate authority over the rightfulness of laws and conventions. Kant is a particularly fascinating object of inquiry for Twellmann, because the philosopher from Königsberg does not fully rob the oath of all validity, even after he has reduced traditional conceptions of the divine to mere “rhetorical fictions.” Twellmann demonstrates, contrary to the predominant opinion in the existing research, that Kant is not dismissive of prayer, ritual, and the oath, but that he treats them primarily in terms of their impact on the moral psychology of the subject. In the subsequent two chapters, Twellmann turns his eye to Friedrich Nicolai’s Sebaldus Nothanker and Moses Mendelssohn’s reflections on oaths. The author addresses with great...</t>
+          <t>The research is focused on a comprehensive analysis of digitalization as a prerequisite for higher education modernization. The authors of this article consider the digital divide as a component of information inequality, which has a technological nature and presupposes unequal opportunities for access, use, and production of information and knowledge or new technologies for their effective use in practice. The authors determined the digital divide is intensifying under pandemic and quarantine restrictions when the preference is given to blended learning technologies, collaborative learning, integrated learning, flipped classroom technology, storytelling, inquiry based learning (IBL), and project based learning (PBL). The research result is a unified information and communication ecosystem developed, which unites the scientific, technological, and educational potential of the network educational digital environment. The ecosystem also provides for the transformation from a lineal to a cluster model of competence cultivation, the formation of digital skills, growth in the volume of information, and creation of digital products.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4229850158</t>
+          <t>https://openalex.org/W3021290200</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1287/opre.1120.1145</t>
+          <t>https://doi.org/10.1177/2043886920910437</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>NA (2012)</t>
+          <t>Datta et al. (2020)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>In This Issue</t>
+          <t>Digital transformation: Learning from Italy’s public administration</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Chapter 13 of the Old Testament's Book of Numbers begins, “And the Lord spoke unto Moses, saying: ‘Send thou men, that they may spy out the land of Canaan.’” Although intelligence operations have become more sophisticated since Moses' time, the basic steps remain the same: collect information and analyze it with the goal of providing reasoned assessments that reduce uncertainty and help political or military leaders make better decisions. The topic of intelligence is potentially of special interest to operations researchers for two reasons. First, intelligence is a product resulting from several distinct operations, and as with all products, there are better and worse ways to produce it, which leads to a natural focus on research. Second, there are several opportunities for the application of tools from the broad sweep of operations research methods to specific intelligence questions; this set of problems can be construed as intelligence operations research. “Intelligence Operations Research” is the archival record of Kaplan's Philip McCord Morse Lecture on this topic. Consumer tax preparation applications comprise a profitable niche in software development. Internal Revenue Service efforts to achieve an 80% electronic filing rate for major returns by 2013 has bolstered the growth in tax preparation software. Companies producing tax preparation software must process thousands of state and federal tax forms and release their product on time to protect their market share. “A Hierarchical Framework for Organizing a Software Development Process,” by F. Iravani, S. Dasu, and R. Ahmadi proposes hierarchical optimization models for organizing a complex tax software development process at a leading U.S. software company. The models assign tax forms to groups to control the process more effectively and staff the groups such that they complete processing the assigned tax forms by the release deadline. Implementing the hierarchical models helped the company reduce overtime hours by 31%, reduce total workforce cost by 13%, and release the tax software on time. When a new, more critical patient arrives in a hospital's intensive care unit (ICU) and no bed is available, physicians must discharge a current patient. The discharged patient may require readmission to the ICU, thus straining the already congested resources. Currently, no objective (severity-based using strict physiologic criteria) standards for ICU admission and discharge exist. In “Optimizing Intensive Care Unit Discharge Decisions with Patient Readmissions,” C. W. Chan, V. F. Farias, N. Bambos, and G. J. Escobar provide a systematic and evidence-based discharge strategy for ICU patients when incoming demand necessitates the discharge of a current patient. This work establishes a methodological framework to examine the performance of an index policy that accounts for patient readmissions when making ICU discharge decisions. The major implication of this work is that, in the future, discharge strategies could be linked to objective physiologic criteria to improve patient outcomes and increase efficiency. Flooding can cause significant loss of life and economic damage. The 1953 floods in the southwestern parts of the Netherlands demonstrated the flooding risks to that country. Soon after 1953, Van Dantzig started the cost-benefit analysis of the dike height optimization problem, which looks for the optimal balance between investing in dikes (costs) and reducing flood risk (benefits). In “Safe Dike Heights at Minimal Costs: The Nonhomogeneous Case,” R. Brekelmans, D. den Hertog, K. Roos, and C. Eijgenraam extend Van Dantzig's model and address the fundamental questions of when and how much to invest where. The authors formulate this problem as a mixed-integer nonlinear programming (MINLP) model and combine state-of-the-art solvers with techniques that exploit the problem structure. Dutch government agencies use the model to analyze the main dike rings in the Netherlands and to propose new safety standards to incorporate into the Dutch Water Act. Probabilistically constrained optimization problems with discretely distributed random variables are computationally challenging. In “Pattern-Based Modeling and Solution of Probabilistically Constrained Optimization Problems,” M. Lejeune develops a combinatorial pattern-based framework to model such problems. The method scales remarkably well and solves exactly and very fast stochastic problems where uncertainty is represented by an extremely large (up to 50,000) number of scenarios. This is a key and distinctive feature of the method. It permits reformulating the stochastic problems as mixed-integer ones in which the number of binary variables is not an increasing function of the number of scenarios used to characterize the uncertainty. In the current financial crisis, central banks worldwide have saved major banks from going into default. Companies and banks are closely linked in today's global economy, and negative ev</t>
+          <t>Companies and governments have embraced digital transformation as the elixir of the 21st century. But what impedes digital transformation? This case study article is based on data gathered from field research with the Italian Parliament and the Digital Transformation High Commissioner’s Office in the Ministry of the Interior. The case surfaces the context, challenges, and solutions for large-scale public administration digital transformation. The case study highlights how public administration digital transformation in a large democracy is never a technical but a sociotechnical solution. Successful digital transformation needs to understand, address, and change sociopolitical and sociotechnical mores that often define the culture. Underscoring this research is an analysis of digital transformation within the Italian public administration. Public administration encompasses all governmental and public services, including services provided by federal, regional (e.g. states and provinces), municipalities, and local agencies. The Italian public administration, with 60 million people, 8000 municipalities, and 22,000 local administrations, highlights how a digital renaissance is a preface for innovative disruption challenges. The Digital Transformation case uses Italy as the backdrop and Team Digitale, a team of talented individuals embarked on building public administration efficiencies and rebooting Italy’s digital innovation footprint, as the protagonist. For granularity, the case focuses on two digital transformation projects: ANPR, a unified public registry for all Italian residents, and PagoPA, a universal digital payment platform for public administration. This case surfaces the best practices and challenges faced when trying to tackle a mega-project across an entire economy. The case offers digital transformation recommendations, generalizable across any global democracy. The case analysis and recommendations bring to light how, contrary to private organizations, institutionalizing a disruptive innovation in a democratic country at a time of fiscal austerity highlights interesting decision-making issues and facets.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1525118482</t>
+          <t>https://openalex.org/W4322501042</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jssc.2005.02.015</t>
+          <t>https://doi.org/10.3390/biom13030432</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Wang et al. (2005)</t>
+          <t>Saxena et al. (2023)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Growth of high quality and large-sized Rb0.3MoO3 single crystals by molten salt electrolysis method</t>
+          <t>Machine Learning Model Based on Insulin Resistance Metagenes Underpins Genetic Basis of Type 2 Diabetes</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>High quality and large-sized Rb0.3MoO3 single crystals were synthesized by molten salt electrolysis method. X-ray diffraction (XRD) patterns and rocking curves, as well as the white beam Laue diffraction of X-ray images show the crystals grown by this method have high quality. The lattice constants evaluated from XRD patterns are a0=1.87 nm, b0=0.75 nm, c0=1.00 nm, β=118.83∘. The in situ selected area electron diffraction (SAED) patterns along the [101¯], [11¯1¯] and [103¯] zone axes at room temperature indicate that the Rb0.3MoO3 crystal possess perfect C-centered symmetry. Temperature dependence of the resistivity shows this compound undergoes a metal to semiconductor transition at 183 K.</t>
+          <t>Insulin resistance (IR) is considered the precursor and the key pathophysiological mechanism of type 2 diabetes (T2D) and metabolic syndrome (MetS). However, the pathways that IR shares with T2D are not clearly understood. Meta-analysis of multiple DNA microarray datasets could provide a robust set of metagenes identified across multiple studies. These metagenes would likely include a subset of genes (key metagenes) shared by both IR and T2D, and possibly responsible for the transition between them. In this study, we attempted to find these key metagenes using a feature selection method, LASSO, and then used the expression profiles of these genes to train five machine learning models: LASSO, SVM, XGBoost, Random Forest, and ANN. Among them, ANN performed well, with an area under the curve (AUC) &gt; 95%. It also demonstrated fairly good performance in differentiating diabetics from normal glucose tolerant (NGT) persons in the test dataset, with 73% accuracy across 64 human adipose tissue samples. Furthermore, these core metagenes were also enriched in diabetes-associated terms and were found in previous genome-wide association studies of T2D and its associated glycemic traits HOMA-IR and HOMA-B. Therefore, this metagenome deserves further investigation with regard to the cardinal molecular pathological defects/pathways underlying both IR and T2D.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://openalex.org/W27668594</t>
+          <t>https://openalex.org/W2050143334</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/(sici)1097-0207(19990820)45:11&lt;1657::aid-nme648&gt;3.0.co;2-h</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Rosario (2012)</t>
+          <t>Fish et al. (1999)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Asserting Their Rights: Puerto Ricans in Their Quest for Social Justice</t>
+          <t>Computational damage mechanics for composite materials based on mathematical homogenization</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>abstractIn an effort to claim a dignified place in the United States as American citizens, Boricua leaders developed core political skills from African American grassroots organizations: established networks, adapted strategies of community activism, and found a path towards social justice. Individuals, such as Arturo Schomburg and Pura Belpre, played a crucial role in moments that marked the two histories of Puerto Ricans in the US: the official one-written by the System about them-, and the other-that had to be written by them. Historical facts, film highlights, newspaper articles, and popular music also evidence how events were conceived by the media, and by those few protagonists who bore a name, and had credentials to support it. In the end, Puerto Ricans and African Americans crossed along racial, political, and cultural lines, revealing a transcendental association that brought conflict, social transformation, but ended up in a stronger democracy for the American nation. [Keywords: Puerto Ricans, African Americans, Interracial collaboration, Civil Rights]studies have shown that the puerto rican community in the united states, despite their citizen status, share issues of adaptation, identity, and discrimination with other immigrant groups (sanchez-korrol 1983; whalen 2001; rodriguez 1989; thomas 2010). According to 2000 Census, there are more than 800,000 Puerto Ricans in New York. It is still the largest and the most documented Puerto Rican community in the United States. Particularly documented are the Puerto Rican's experiences after arrival in New York and what expectations they had for their new life in the city. Interestingly, their experiences in many ways mirrored the experience of the other ethnic groups already in New York such as Italians, Irish, Jews, and African Americans. However, the focus of this article, entitled Asserting Their Rights, centers on the cultural, political, and social interactions developed among Puerto Ricans and African Americans. Undoubtedly, the ethnicity of these two groups contributed significantly to similarities in their migratory experience and the struggles related to it. In the end, they found communality in their experiences and used it as a tool to demand and exercise their civil rights.Asserting Their Rights is conscious that many social-political frameworks can be identified according to each stage of the processes experienced by all Puerto Rican subjects, movements, alliances, and organizations mentioned, or described in this article. However, this academic aspect of a scholarly work has been partially avoided in order to let the essay narrate how these characters transit through singular periods in history. As fluid entities these women and men constructed their subjectivities when they adopted new notions of identity, and adapted themselves to different social and political situations. This work is intended to be read mostly by scholars who can address particular facts and find the appropriate theoretical concept to name them, as a basic skill during his/her professional formation. But, in the end, it is relevant for me as an intellectual to let these characters be protagonists in their own hi/stories. The ego has to step back, watch, and show how a handful of Puerto Rican immigrants asserted their rights, and participated along with African American people in changing the course of US history.Colonialism and MigrationFor more than five hundred years Puerto Rico and its people have been colonial subjects; first, more than 400 hundred under Spanish regime-since 1493 until 1898-, and over 100 as a US territory after the Spanish-American war.When the United States became involved in what began as the Cuban-Spanish conflict of 1895, high hopes arose within many sectors of the Puerto Rican society; the United States was seen as a model of economic progress and liberty (Guerra 1999). However, the thought of Puerto Rico being ruled by an Anglo Saxon country fueled discussion on issues of citizenship and class among the Puerto Rican people, whose culture was essentially influenced by a Hispanic-Roman Catholic ideology. …</t>
+          <t>International Journal for Numerical Methods in EngineeringVolume 45, Issue 11 p. 1657-1679 Research Article Computational damage mechanics for composite materials based on mathematical homogenization Jacob Fish, Corresponding Author Jacob Fish [email protected] Departments of Civil, Mechanical and Aerospace Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Department of Civil Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Search for more papers by this authorQing Yu, Qing Yu Departments of Civil, Mechanical and Aerospace Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Search for more papers by this authorKamlun Shek, Kamlun Shek Departments of Civil, Mechanical and Aerospace Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Search for more papers by this author Jacob Fish, Corresponding Author Jacob Fish [email protected] Departments of Civil, Mechanical and Aerospace Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Department of Civil Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Search for more papers by this authorQing Yu, Qing Yu Departments of Civil, Mechanical and Aerospace Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Search for more papers by this authorKamlun Shek, Kamlun Shek Departments of Civil, Mechanical and Aerospace Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Search for more papers by this author First published: 29 June 1999 https://doi.org/10.1002/(SICI)1097-0207(19990820)45:11&lt;1657::AID-NME648&gt;3.0.CO;2-HCitations: 147AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Abstract This paper is aimed at developing a non-local theory for obtaining numerical approximation to a boundary value problem describing damage phenomena in a brittle composite material. The mathematical homogenization method based on double-scale asymptotic expansion is generalized to account for damage effects in heterogeneous media. A closed-form expression relating local fields to the overall strain and damage is derived. Non-local damage theory is developed by introducing the concept of non-local phase fields (stress, strain, free energy density, damage release rate, etc.) in a manner analogous to that currently practiced in concrete [1, 2], with the only exception being that the weight functions are taken to be C0 continuous over a single phase and zero elsewhere. Numerical results of our model were found to be in good agreement with experimental data of 4-point bend test conducted on composite beam made of Blackglas™/Nextel 5-harness satin weave. Copyright © 1999 John Wiley &amp; Sons, Ltd. REFERENCES 1 Bazant ZP, Pijaudier-Cabot G. Measurement of characteristic length of non-local continuum. Journal of Engineering Mechanics 1989; 115(4): 755– 767. 2 Bazant ZP, Pijaudier-Cabot G. Nonlocal continuum damage, localization instability and convergence. Journal of Applied Mechanics 1988; 55: 287– 293. 3 Chaboche JL. Continuum damage mechanics I: General concepts. Journal of Applied Mechanics 1988; 55: 59– 64. 4 Ju JW. On energy-based coupled elastoplastic damage theories: constitutive modeling and computational aspects. International Journal of Solids and Structures 1989; 25(7): 803– 833. 5 Krajcinovic D. Damage Mechanics. Elsevier Science: Amsterdam, 1996. 6 Simo JC, Ju JW. Strain- and stress-based continuum damage models—I. Formulation. International Journal of Solids and Structures 1987; 23(7): 821– 840. 7 Matzenmiller A, Lubliner J, Taylor RL. A constitutive model for anisotropic damage in fiber-composites. Mechanics of Materials 1995; 20: 125– 152. 8 Talreja R. Damage development in composite: mechanism and modeling. Journal of Strain Analysis 1989; 24: 215– 222. 9 Ladeveze P, Le-Dantec E. Damage modeling of the elementary ply for laminated composites. Composites Science and Technology 1992; 43: 257– 267. 10 Allen DH, Jones RH, Boyd JG. Micromechanical analysis of a continuous fiber metal matrix composite including the effects of matrix viscoplasticity and evolving damage. Journal of Mechanics and Physics of Solids 1994; 42(3): 509– 529. 11 Kruch S, Chaboche JL, Pottier T. Two-scale viscoplastic and damage analysis of metal matrix composite. In Damage and Interfacial Debondng in Composites, GZ Voyiadjis, DH Allen (eds). Elsevier Science: Amsterdam, 1996; 45– 56. 12 Voyiadjis GZ, Park T. A plasticity-damage theory for large deformation of solids—I: Theoretical formulation. International Journal of Engineering Science 1992; 30(9): 1089– 1106. 13 Voyiadjis GZ,</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2090945141</t>
+          <t>https://openalex.org/W4309468609</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02772249109357739</t>
+          <t>https://doi.org/10.1159/000527094</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Guitonas &amp; Nianios (1991)</t>
+          <t>Nagatomi et al. (2022)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>A study of the kinetic in transition phase of the anaerobic fluidised bed reactor with immobilised cells in microsand</t>
+          <t>En Face Images Using Ultra-Widefield Optical Coherence Tomography in 2 Cases of Traumatic Hypotony Maculopathy before and after Surgical Intervention</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Anaerobic fluidised bed reactor is an instrument very much adapted in the experimental study of the kinetics of the complex biological process. In this experimental work the efficiency of the treatment of an anaerobic fluidised bed reactor with immobilised cells is examined in transition phase. The results of the experiments can be summarised as follows: a zero order elimination rate of the substrate is presented; the order of the reaction changes after a period of significant substrate elimination and follows a homographic equation the non‐dissociated part of the substrate ions is degradable.</t>
+          <t>The aim was to investigate the structural changes of the retina using en face ultra-widefield optical coherence tomography (OCT) images during the treatment of hypotony maculopathy with traumatic cyclodialysis. Case 1 was a 43-year-old male patient with visual crowding in his left eye (metallic wire injury that occurred 3 weeks previously) who was referred to our department. Although best-corrected visual acuity was 20/20 in his left eye on initial evaluation, intraocular pressure was 6 mm Hg. Case 2 was a 20-year-old male patient with visual crowding in his left eye (baseball ball injury that occurred 4 weeks previously) who was referred to our department. Although best-corrected visual acuity was 16/20 in his left eye on initial examination, intraocular pressure was 5 mm Hg. Surgical interventions were performed in both cases. En face ultra-widefield OCT images were able to be used to trace dynamic changes before the intervention and up to 1 year later. The images obtained in these two cases made it possible to confirm the progress from wrinkles on the surface of the retina to normalization of vascular structure and improvement of ellipsoid zone disruption. En face ultra-widefield OCT is useful for monitoring multilayer structures of the retina in hypotony maculopathy cases.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2500695968</t>
+          <t>https://openalex.org/W2133358483</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/acprof:oso/9780198733775.003.0007</t>
+          <t>https://doi.org/10.5120/17130-7712</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Frary (2015)</t>
+          <t>Sarkar &amp; Kar (2014)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Absolutism under Siege</t>
+          <t>Adaptive E-learning using Deterministic Finite Automata</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Abstract This chapter explores the 1843 Revolution and National Assembly of 1844 in Greece from the perspective of Russian archives. Analysis of the background and course of these events provides a means of evaluating Russia’s attitudes toward constitutionalism, nationalism, and foreign intervention when tsarist ideology was under threat. Russian archival materials help clarify many misconceptions in the historiography regarding the coup and the actions of the Russian ambassador. The episode sheds light on the reactions of Russian officials to a revolt led by their partisans, and provides an interesting case study of the functioning of the tsarist government when absolutism was under siege. Although tsarist censors sanitized the events, the Russian reading public remained well informed about the changes taking place in Greece. Although Tsar Nicholas opposed the rebellion, he abstained from forceful intervention, in part because the National Assembly of 1844 championed the religious aspect of Greek national identity.</t>
+          <t>Adaptive E-learning refers to adapt the way of presentation of educational material according to the student's needs.Understanding ability differs by student to student so the learning path should vary according to their understanding ability.Some students may understand by once some may needs more with different way.This paper represents a same topic with various approaches to the different classes of students with different understanding ability.The proposed approach in this paper is based on two concepts Deterministic Finite Automata (DFA) and Case Based Study (CBS), out of which DFA used for providing adaptive nature and shows the state transition according to their performance.Path of leaning varies with different student for a particular topic, this feature used to provide adaptively nature in E-learning.CBS used for providing study material based on the state.CBS uses case library to decide the study material.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2037767096</t>
+          <t>https://openalex.org/W623916810</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00914030008034871</t>
+          <t>https://doi.org/10.5860/choice.37-5785</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Pereira et al. (2000)</t>
+          <t>NA (2000)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Orthorhombic-hexagonal Phase Transition in High Density Polyethylene Crystals</t>
+          <t>The Spanish economy in the new Europe</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Abstract The crystal structure of drawn samples of high density polyethylene was investigated by using wide-angle X-ray scattering (WAXS) with CoKα and MoKa radiations. HDPE films with fiber-like morphology and constrained to a constant length on heating were studied in the range from room temperature to 158[ddot]C. Orthorhombic-hexagonal phase transition, which was previously reported only for UHMWPE fibers, was also proved to exist in moderate molecular weight HDPE drawn films. Differently from the orthorhombic phase, which melts at 129[ddot]C, the hexagonal phase formed melts at 158[ddot]C. A new hexagonal reflection with interplanar distance 2.139(7) Å, indexed as (101), is reported.</t>
+          <t>List of Tables and Figures Foreword by Luis Angel Rojo Preface List of Abbreviations Introduction: Changes in the International Economic Setting PART ONE: COMPARATIVE ANALYSIS Growth and Structural Changes Productivity and its Determinants Activity, Employment and Unemployment Costs, Prices and Competitiveness Public Finances and Fiscal Policy External Sector Nominal and Real Convergence PART TWO: EVALUATION OF THE INTEGRATION PROCESS Trade Relations Direct Investment Flows Migratory Flows The Community Budget and its Functions Unification of Monetary Policy in Europe Epilogue: Prospects and Economic Strategies for the Spain of the Euro Appendix I: Chronology of the European Integration Process Appendix II: Methodological Problems of International Comparisons Index</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2129699290</t>
+          <t>https://openalex.org/W2767463142</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/0192512110389568</t>
+          <t>https://doi.org/10.3892/mmr.2017.7979</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Little (2011)</t>
+          <t>Shi et al. (2017)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Disjunctured narratives: rethinking reconciliation and conflict transformation</t>
+          <t>Hepatocellular toxicity of oxalicumone A via oxidative stress injury and mitochondrial dysfunction in healthy human liver cells</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Reconciliation has been a notable part of discourses of conflict management and transitional justice in a number of conflictual situations around the world. This article examines the recent emergence of critical theories of reconciliation with particular reference to processes of conflict transformation in Northern Ireland. It evaluates the ways in which conflict transformation in Northern Ireland is specific to that context and the variations in the usage of discourses of reconciliation compared with other ‘post-conflict’ societies. The article highlights critical theories of reconciliation which, although largely supportive of the potential of reconciliation, tend to highlight the arguments and conflicts that notions of reconciliation can generate. By examining the ways in which reconciliation is articulated in Northern Ireland through interviews with representatives of the main political parties, the article contends that narrative approaches are best suited to analysis of the issues in Northern Irish politics. The argument developed here suggests that reconciliation in Northern Ireland is part of a ‘disjunctured synthesis’ whereby the main political parties become locked into narratives of reconciliation based on opposition to the perceived position of the other.</t>
+          <t>The marine‑derived oxalicumone A (POA) has been demonstrated as a potent anti‑tumor bioactive agent for a variety of human carcinoma, but to the best of our knowledge, remains to be evaluated in healthy liver cells. As many drugs distribute preferentially in the liver, the present study aimed to investigate the effects of POA on apoptosis, oxidative stress and mitochondrial function in L‑02 healthy liver cells. A Cell‑Counting kit‑8 assay demonstrated that POA inhibits the proliferation of L‑02 cells in a dose‑ and time‑dependent manner. Furthermore, POA induced apoptosis by increasing the percentage of cells in early apoptosis and the sub‑G1 cell cycle, along with causing S‑phase arrest in L‑02 cells. Additionally, POA activated caspase 3, increased the protein expression levels of Fas ligand and B‑cell lymphoma X‑associated protein, and decreased the expression of the anti‑apoptotic protein B‑cell lymphoma 2. POA additionally reduced the content of GSH and the activity of superoxide dismutase, elevated malondialdehyde and nitric oxide levels, increased reactive oxygen species production and the levels of alanine aminotransferase and aspartate aminotransferase, which suggested that POA induced lipid peroxidation injury in L‑02 cells and that oxidative stress serves an important role. Furthermore, POA caused alternations of mitochondrial function, including an abrupt depletion of adenosine triphosphate synthesis, mitochondrial permeability transition pore opening and depletion of mitochondrial membrane potential in L‑02 cells. These data suggested that POA exerts cytotoxicity, at least in part, by inducing oxidative stress, mitochondrial dysfunction, and eventually apoptosis. Changes in mitochondrial function and oxidative stress by POA may therefore be critical in POA‑induced toxicity in L‑02 cells.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3103345192</t>
+          <t>https://openalex.org/W4317941081</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/oso/9780195377170.003.0014</t>
+          <t>https://doi.org/10.35774/visnyk2022.04.028</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Santen et al. (2010)</t>
+          <t>Melnyk &amp; Zhukevych (2023)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Searching for New Energy</t>
+          <t>Economic and analytical diagnostics in the financial activity management system of a modern health care institution</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>We looked in the previous chapter at the prospects for our current energy infrastructure and asked how we can make it more flexible and sustainable. In this chapter, we fast-forward to the new energy economy after the oil era. The quantity of available energy is not the main worry in the postcarbon era. We’re surrounded by tremendous amounts of energy. The power of the sun’s rays was there long before we started to discover fossil energy sources, and on Earth’s surface, we can harness wind and water. Another vast amount of energy is encapsulated in our planet in the form of heat. As yet, we only tap small fractions of these natural energy supplies. Evaluating our long-term options, we have to ask ourselves: How can we harness these energy sources in such a way that they may serve us without a serious regress in our human civilization? Only then may we hope for a gradual transition to a new energy era. In the course of our history, we have used ever more concentrated forms of energy. In the era when we warmed ourselves by a wood fire and ate the grains of the field, we needed about 1 square meter of land for each watt of energy that came available. When we tamed wind and water power, the energy yield of a square meter of land rose by a factor of ten. The advent of coal, oil, and gas accounted for another factor of hundred improvement. This is calculated by summing up the amount of land you need for excavating the energy carriers and converting them to a useful form of energy. A similar calculus can be made using the energy content of the energy carriers themselves. Society has evolved with each subsequent energy innovation. More concentrated forms of energy allowed for a more concentrated community with a more complex division of labor. Now we don’t have to search large areas of land for some useful calories for ourselves; we can devote our time to comfort and complicated products.</t>
+          <t>Introduction. The concept of the development of the system of financial support in the field of health care outlines the need to introduce a new financial mechanism, which provides for the provision of a sufficient level of managerial and financial autonomy to medical institutions.The change in the nature of financial relations imposes new requirements on the management of financial activities in health care institutions. The functional component of managerial activity is economic and analytical diagnostics, the application of which will ensure the adaptability of financial management methods and models to modern realities and the integration of the finances of health care institutions into the system of competitive market relations.Purpose. The purpose of the study is the development of theoretical provisions of economic-analytical diagnostics and the development of methodological approaches for its application in the management of financial activities of health care institutions in the conditions of transformational changes.Methods. Achieving the set goal is achieved by using general scientific, special and empirical methods of learning processes and phenomena. The methods of analysis and synthesis, comparison, and generalization are used to understand economic and analytical diagnostics in the management system; scientific abstraction, structural-logical and tabular methods for determining the methodology of economic-analytical diagnostics in modern health care institutions.Results. It has been proven that the mechanism of management activity of state institutions with elements of entrepreneurial structures, which are currently medical institutions, requires the use of modern economic and analytical methods and diagnostic models and their adaptation to the specifics of the activities of health care institutions. The analysis of the main approaches of scientists to the definition and understanding of economic-analytical diagnostics as a functional component of managing the financial activities of a health care institution was carried out, and it was determined that the essence of economic-analytical diagnostics of health care institutions should be the system of management activities regarding decision-making on the investment of financial and other resources to provide quality services that will ensure the efficiency and competitiveness of the health care institution.At the same time, the main tasks are defined: analysis of the financial activity of medical institutions, assessment of production capacities and resource base and means of their improvement, which will ensure the financial and economic stability and stability of medical institutions with the approval of market positions and/or exit from the crisis state.It is substantiated that the indicators of the efficiency and stability of the functioning of the health care institution should form an optimal management model of an expedient and justified system of financing and provision of financial resources and the efficiency of their spending.The use of integral methods and models that combine internal and external factors of the functioning of economic entities is proposed to carry out economic and analytical diagnostics and determine the capabilities of health care institutions. The main approaches to the SWOT analysis methodology with the possibility of its adaptation and application in the management of health care institutions were studied.Discussion. In order to carry out economic and analytical diagnostics regarding the determination of the capabilities of health care institutions, including financial ones, in addition to SWOT analysis, it is advisable to use other integral methods and models that combine internal and external factors of the functioning of economic entities in the field of medicine, which may be the subject of further research.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2541517228</t>
+          <t>https://openalex.org/W4302029183</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1922/cdh_00110niciomhair06</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Kouhi et al. (2016)</t>
+          <t>Iomhair et al. (2022)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Three phase classification of an uninterrupted traffic flow: a $k$-means clustering study</t>
+          <t>The Greater Manchester Child Friendly Dental Practice Scheme: Using a Transformational Commissioning Approach to Align Paediatric Dental Service Provision with Childhood Oral Health Needs in Greater Manchester.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>We investigate the speed time series of the vehicles recorded by a camera at a section of a highway in the city of Isfahan, Iran. Using $k$-means clustering algorithm, we find that the natural number of clustering for this set of data is $3$. This is in agreement with the three-phase theory of uninterrupted traffic flows. According to this theory, the three traffic phases are categorized as {\em free flow} (F), {\em synchronized} (S) and {\em wide moving jam} (J). We obtain the transition speeds and densities at F-S and also S-J transitions. We also apply the Shannon entropy analysis on the speed time series over finite windows, which equips us to monitor in areal time the instant state of a traffic flow.</t>
+          <t>In response to the impact of the COVID-19 pandemic on access to already oversubscribed specialist paediatric dental services, a pilot of an enhanced primary care paediatric dental pathway, known as the Child Friendly Dental Practice (CFDP) scheme, was commissioned by the Greater Manchester Health and Social Care Partnership. Supported by a transformational commissioning approach, the ambition of the CFDP pilot was to manage or stabilise the oral health of high-need paediatric patients who had been referred to specialist dental services within Community or Hospital Dental Service settings, through timely access to primary care clinicians who were confident and experienced in treating children. The theory of change of the CFDP pilot proposed that rapid access to enhanced primary dental care would reduce the need for onward referral to specialist paediatric dental services, whilst also stabilising the oral health of children who require more complex management in specialist services. A formative evaluation of the phase one pilot implementation of the CFDP Scheme has demonstrated the potential of the CFDP Scheme to improve access to dental services for paediatric patients referred from their General Dental Practitioner. Comparison of waiting times between the CFDP pathway and the standard paediatric dental referral pathway have revealed substantially reduced waiting times to access care along the CFDP pathway, while less than 30% of those who attended CFDPs required onward referral to specialist paediatric dental services. Encouragingly, similar attendance and treatment completion rates were noted among patients from all levels of socio-economic deprivation, reducing concerns regarding the potential for service-based interventions to increase oral health inequalities. Following successful completion of the phase one pilot implementation and evaluation, the CFDP Scheme has now been rolled out across all localities in Greater Manchester as part of a second phase pilot implementation. Public Health Competencies; Equitable healthcare provision, Partnership working, Evidence-based public health, Systems thinking, Transformational commissioning, Healthcare evaluation.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1897942199</t>
+          <t>https://openalex.org/W2594927126</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21236/ada584643</t>
+          <t>https://doi.org/10.1016/j.prp.2017.03.006</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Kidalov et al. (2012)</t>
+          <t>Jaafari‐Ashkavandi &amp; Aslani (2017)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Implementation of the Department of Defense Small Business Innovation Research Commercialization Pilot Program: Recent Experience and International Lessons</t>
+          <t>Caveolin-1 expression in oral lichen planus, dysplastic lesions and squamous cell carcinoma</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Abstract : In Section 252 of the National Defense Authorization Act for Fiscal Year 2006, Congress adopted four wide-ranging reforms to the Department of Defense (DoD) Small Business Innovation Research (SBIR) and Small Business Technology Transfer (STTR) programs in order to increase their effectiveness for both the DoD and the defense industry. First, Section 252 directed closer alignment between R&amp;D and acquisition goals of SBIR and STTR. Second, Section 252 authorized and funded the creation of the Commercialization Pilot Program (CPP) by the DoD and the military Departments to facilitate transition of SBIR technologies into the acquisition process. Congress conditioned the use of CPP funds on detailed evaluative reporting to Congress. Third, Congress codified into statutory law President George W. Bush s Executive Order No. 13329 (2004), which incentivized manufacturing technologies through SBIR and STTR. Fourth, Congress clarified agencies authority to conduct testing and evaluation (T&amp;E) of SBIR and STTR technologies in SBIR and STTR Phases II and III. The implementation requirements were specified in Section 252 and the Congressional Guidance Letter (2006) issued by the House and the Senate Small Business Committees.</t>
+          <t>Caveolin-1(Cav-1), the main part of caveolae structure, is supposed to play a role in pathogenesis of many human tumors. Since oral lichen planus (OLP) is considered as a potential premalignant disease, this study evaluated Cav-1 expression in OLP in comparison with benign hyperkeratosis, dysplastic epithelium and oral squamous cell carcinoma (OSCC), to investigate its possible role in pathogenesis and malignant transformation of OLP. In this cross-sectional retrospective study, immunohistochemical expression of Cav-1 in the epithelial component and stroma was evaluated in 81 samples, including 12 cases of hyperkeratosis, 24 OLP, 22 epithelial dysplasia, and 23 OSCC samples. Correlations between Cav-1 expression and clinicopathological variables were evaluated statistically. Positive Cav-1 staining was found in 58% of OLP, 91% of hyperkeratosis, 100% of epithelial dysplasia, and 95% of OSCC samples. OSCC showed the highest Cav-1 expression and OLP had the lowest (P = 0.001). The intensity of staining was significantly increased in stepwise manner from OLP to OSCC (P = 0.001). Expression of Cav-1 was related to the grade of samples in OSCC and dysplastic samples (P = 0.04). Based on the findings, it was concluded that Cav-1 may play a role in the pathogenesis of OLP and carcinogenesis of SCC, but its role in malignant transformation of OLP is not confirmed. Further studies are needed to evaluate its potential therapeutic function in OLP and SCC.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3014519332</t>
+          <t>https://openalex.org/W2972553640</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2556061</t>
+          <t>https://doi.org/10.1371/journal.pone.0222161</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Betker et al. (2020)</t>
+          <t>Kang et al. (2019)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>3D registration of multiple surface measurements using projected random patterns</t>
+          <t>Graph-theoretical analysis for energy landscape reveals the organization of state transitions in the resting-state human cerebral cortex</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>When repairing worn components it is crucial to have detailed knowledge of the current object’s state. For this purpose a multi-sensor system was developed to measure objects in different scales and modalities. This work focuses on the 3-D measurement of worn turbine blades using a fringe projection system. The 3-D geometry of turbine blades is crucial for the overall performance and safety of an engine. Therefore it is not sufficient to rely on single fringe projection measurements for a functional evaluation. To obtain a 3-D model the blade has to be measured from multiple directions. Gathered data are combined to form the model. This process is called registration or stitching. To reduce uncertainties during the process markers can be applied on or near the measurement object. However, common methods using markers are insufficient in automatability and feature density and therefore are not applicable in this case. In this work a novel registration strategy based on projected random patterns is developed. Multiple projectors are placed around the object to illuminate its geometry. Keypoints are identified by capturing additional grayscale images and applying state-of-the art feature detection algorithms. Feature matching is performed on consecutive measurements. Matches are preprocessed and a random sample consensus approach is chosen to calculate the rigid body transformation. Multiple measurements of the turbine blade and other geometries have been successfully aligned using the proposed strategy. Beyond that the high density of features allows the alignment of measurements with different scales and resolutions.</t>
+          <t>The resting-state brain is often considered a nonlinear dynamic system transitioning among multiple coexisting stable states. Despite the increasing number of studies on the multistability of the brain system, the processes of state transitions have rarely been systematically explored. Thus, we investigated the state transition processes of the human cerebral cortex system at rest by introducing a graph-theoretical analysis of the state transition network. The energy landscape analysis of brain state occurrences, estimated using the pairwise maximum entropy model for resting-state fMRI data, identified multiple local minima, some of which mediate multi-step transitions toward the global minimum. The state transition among local minima is clustered into two groups according to state transition rates and most inter-group state transitions were mediated by a hub transition state. The distance to the hub transition state determined the path length of the inter-group transition. The cortical system appeared to have redundancy in inter-group transitions when the hub transition state was removed. Such a hub-like organization of transition processes disappeared when the connectivity of the cortical system was altered from the resting-state configuration. In the state transition, the default mode network acts as a transition hub, while coactivation of the prefrontal cortex and default mode network is captured as the global minimum. In summary, the resting-state cerebral cortex has a well-organized architecture of state transitions among stable states, when evaluated by a graph-theoretical analysis of the nonlinear state transition network of the brain.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390739890</t>
+          <t>https://openalex.org/W2009334730</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2024.01.08.574719</t>
+          <t>https://doi.org/10.1353/gyr.2013.0009</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Sepúlveda et al. (2024)</t>
+          <t>Lande (2013)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Phenotypic characterization of cryptic species in the fungal pathogen&lt;i&gt;Histoplasma&lt;/i&gt;</t>
+          <t>“Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung by Marcus Twellmann</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Histoplasmosis is an endemic mycosis that often presents as a respiratory infection in immunocompromised patients. Hundreds of thousands of new infections are reported annually around the world. The etiological agent of the disease, Histoplasma, is a dimorphic fungus commonly found in the soil where it grows as mycelia. Humans can become infected by Histoplasma through inhalation of its spores (conidia) or mycelial particles. The fungi transitions into the yeast phase in the lungs at 37°C. Once in the lungs, yeast cells reside and proliferate inside alveolar macrophages. We have previously described that Histoplasma is composed of at least five cryptic species that differ genetically, and assigned new names to the lineages. Here we evaluated multiple phenotypic characteristics of 12 strains from five phylogenetic species of Histoplasma to identify phenotypic traits that differentiate between these species: H. capsulatum sensu stricto, H. ohiense, H. mississippiense, H. suramericanum, and an African lineage. We report diagnostic traits for two species. The other three species can be identified by a combination of traits. Our results suggest that 1) there are significant phenotypic differences among the cryptic species of Histoplasma, and 2) that those differences can be used to positively distinguish those species in a clinical setting and for further study of the evolution of this fungal pathogen.</t>
+          <t>Reviewed by: “Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung by Marcus Twellmann Joel B. Lande Marcus Twellmann, “Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung. Munich: Konstanz University Press, 2010. 334 pp. With a nod to Friedrich Nietzsche’s famous claim that cultural practices such as making a promise and the administering of punishment consist of ever-changing interpretations and legitimations, Marcus Twellmann embarks on his investigation of the vicissitudes to which the oath was subject in Prussia during the Enlightenment. The oath emerges in the course of Twellmann’s lucid argument, which is related in refreshingly crisp and precise prose, as a point of intersection between state administration, religious practice, and philosophical critique. Because the taking of an oath traditionally involved the invocation of the divine, its study allows Twellmann to treat the Enlightenment as an age as characterized as much by continuity as by rupture. Twellmann’s leading surmise is that the emergence of the modern state as a pastoral force, as interested in the spiritual salvation of its citizens as much as in the preservation of peace, preserved, albeit under shifting terms, the religious significance of oath taking. Tracing a breathtaking arc from public ordinances at the turn of the eighteenth century to the seminal philosophical reflections on oaths by Moses Mendelssohn and Immanuel Kant, and then closing with a poignant reflection on the fashionably controversial Carl Schmitt, Twellmann shows that the oath was a procedure by means of which the emerging state order compelled its subjects to speak the truth. The culminating moment in Twellmann’s march toward modernity is, undoubtedly, the treatment of oaths in the philosophy of Kant. For this Prussian philosopher, above all others, spearheaded a conception of the oath as a relationship between a human being and his or her conscience, thereby jettisoning the traditional role of God as guarantor of truth. [End Page 275] The first chapter of the study investigates an anecdote published in the Prussian Annalen der Gesetzgebung und der Gelehrsamkeit from 1789. This seemingly minor anecdote of a clergyman who refuses to take an oath allows Twellmann to show that the Prussian state at the end of the eighteenth century still employed the oath as an educational and disciplinary practice intertwined with moralizing ambitions. Whatever transformations to which the oath was submitted in the course of the Enlightenment, it becomes clear from the anecdote that a false oath was still submitted before a “figure of the third,” before an instance of the divine that putatively bears greater authority. The second chapter takes up the role of the oath within tractates on ceremony (Zeremonia lwissenschaft), which proliferated in the eighteenth century. The author shows with great analytic precision that ceremony bridged political and ecclesiastical discourses, and the ritualistic dimensions of oath taking were, in fact, highly contested throughout the eighteenth century. The chapter ultimately shows that Mendelssohn and Kant articulated vastly different understandings of the importance of ritual; the former embraced ceremony on the basis of its importance to lawful Jewish practice, whereas the latter dismissed it as an instance of the primitive fetish of external objects. At the end of these two chapters Twellmann delves into the material that, ultimately, constitutes the study’s most impressive contribution: his investigation of the role of oaths in Kant’s philosophy. In a masterful synthesis of Kant’s mature philosophical writings, Twellmann shows the ramifications for the traditionally theological inflection of the oath, when Kant installs philosophy as the ultimate authority over the rightfulness of laws and conventions. Kant is a particularly fascinating object of inquiry for Twellmann, because the philosopher from Königsberg does not fully rob the oath of all validity, even after he has reduced traditional conceptions of the divine to mere “rhetorical fictions.” Twellmann demonstrates, contrary to the predominant opinion in the existing research, that Kant is not dismissive of prayer, ritual, and the oath, but that he treats them primarily in terms of their impact on the moral psychology of the subject. In the subsequent two chapters, Twellmann turns his eye to Friedrich Nicolai’s Sebaldus Nothanker and Moses Mendelssohn’s reflections on oaths. The author addresses with great...</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2088666796</t>
+          <t>https://openalex.org/W4229850158</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/00000542-200411000-00009</t>
+          <t>https://doi.org/10.1287/opre.1120.1145</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Schneider et al. (2004)</t>
+          <t>NA (2012)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Narcotrend® Does Not Adequately Detect the Transition between Awareness and Unconsciousness in Surgical Patients</t>
+          <t>In This Issue</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Background The Narcotrend index (MonitorTechnik, Bad Bramstedt, Germany) is a dimensionless number between 0 and 100 that is calculated from the electroencephalogram and inversely correlates with depth of hypnosis. The current study evaluates the capability of the Narcotrend to separate awareness from unconsciousness at the transition between these levels. Methods Electroencephalographic recordings of 40 unpremedicated patients undergoing elective surgery were analyzed. Patients were randomly assigned to receive (1) sevoflurane-remifentanil (&amp;amp;lt;/= 0.1 microg . kg . min), (2) sevoflurane-remifentanil (&amp;amp;gt;/= 0.2 microg . kg . min), (3) propofol-remifentanil (&amp;amp;lt;/= 0.1 microg . kg . min), or (4) propofol-remifentanil (&amp;amp;gt;/= 0.2 microg . kg . min). Remifentanil and sevoflurane or propofol were given until loss of consciousness. After tracheal intubation, propofol or sevoflurane was stopped until return of consciousness and then restarted to induce loss of consciousness. After surgery, drugs were discontinued. Narcotrend values at loss and return of consciousness were compared with each other, and anesthetic groups were compared. Prediction probability was calculated from values at the last command before and at loss and return of consciousness. Results At 105 of 316 analyzed time points, the Narcotrend did not calculate an index, and the closest calculated value was analyzed. No significant differences between loss and return of consciousness were found. In group 1, Narcotrend values were significantly higher than in group 3. Prediction probability was 0.501. Conclusions In these challenging data, the Narcotrend did not differentiate between awareness and unconsciousness. In addition, Narcotrend values were not independent from the anesthetic regimen.</t>
+          <t>Chapter 13 of the Old Testament's Book of Numbers begins, “And the Lord spoke unto Moses, saying: ‘Send thou men, that they may spy out the land of Canaan.’” Although intelligence operations have become more sophisticated since Moses' time, the basic steps remain the same: collect information and analyze it with the goal of providing reasoned assessments that reduce uncertainty and help political or military leaders make better decisions. The topic of intelligence is potentially of special interest to operations researchers for two reasons. First, intelligence is a product resulting from several distinct operations, and as with all products, there are better and worse ways to produce it, which leads to a natural focus on research. Second, there are several opportunities for the application of tools from the broad sweep of operations research methods to specific intelligence questions; this set of problems can be construed as intelligence operations research. “Intelligence Operations Research” is the archival record of Kaplan's Philip McCord Morse Lecture on this topic. Consumer tax preparation applications comprise a profitable niche in software development. Internal Revenue Service efforts to achieve an 80% electronic filing rate for major returns by 2013 has bolstered the growth in tax preparation software. Companies producing tax preparation software must process thousands of state and federal tax forms and release their product on time to protect their market share. “A Hierarchical Framework for Organizing a Software Development Process,” by F. Iravani, S. Dasu, and R. Ahmadi proposes hierarchical optimization models for organizing a complex tax software development process at a leading U.S. software company. The models assign tax forms to groups to control the process more effectively and staff the groups such that they complete processing the assigned tax forms by the release deadline. Implementing the hierarchical models helped the company reduce overtime hours by 31%, reduce total workforce cost by 13%, and release the tax software on time. When a new, more critical patient arrives in a hospital's intensive care unit (ICU) and no bed is available, physicians must discharge a current patient. The discharged patient may require readmission to the ICU, thus straining the already congested resources. Currently, no objective (severity-based using strict physiologic criteria) standards for ICU admission and discharge exist. In “Optimizing Intensive Care Unit Discharge Decisions with Patient Readmissions,” C. W. Chan, V. F. Farias, N. Bambos, and G. J. Escobar provide a systematic and evidence-based discharge strategy for ICU patients when incoming demand necessitates the discharge of a current patient. This work establishes a methodological framework to examine the performance of an index policy that accounts for patient readmissions when making ICU discharge decisions. The major implication of this work is that, in the future, discharge strategies could be linked to objective physiologic criteria to improve patient outcomes and increase efficiency. Flooding can cause significant loss of life and economic damage. The 1953 floods in the southwestern parts of the Netherlands demonstrated the flooding risks to that country. Soon after 1953, Van Dantzig started the cost-benefit analysis of the dike height optimization problem, which looks for the optimal balance between investing in dikes (costs) and reducing flood risk (benefits). In “Safe Dike Heights at Minimal Costs: The Nonhomogeneous Case,” R. Brekelmans, D. den Hertog, K. Roos, and C. Eijgenraam extend Van Dantzig's model and address the fundamental questions of when and how much to invest where. The authors formulate this problem as a mixed-integer nonlinear programming (MINLP) model and combine state-of-the-art solvers with techniques that exploit the problem structure. Dutch government agencies use the model to analyze the main dike rings in the Netherlands and to propose new safety standards to incorporate into the Dutch Water Act. Probabilistically constrained optimization problems with discretely distributed random variables are computationally challenging. In “Pattern-Based Modeling and Solution of Probabilistically Constrained Optimization Problems,” M. Lejeune develops a combinatorial pattern-based framework to model such problems. The method scales remarkably well and solves exactly and very fast stochastic problems where uncertainty is represented by an extremely large (up to 50,000) number of scenarios. This is a key and distinctive feature of the method. It permits reformulating the stochastic problems as mixed-integer ones in which the number of binary variables is not an increasing function of the number of scenarios used to characterize the uncertainty. In the current financial crisis, central banks worldwide have saved major banks from going into default. Companies and banks are closely linked in today's global economy, and negative ev</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3149198880</t>
+          <t>https://openalex.org/W2791768532</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/iih-msp.2006.264962</t>
+          <t>https://doi.org/10.1016/j.envint.2018.03.006</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Dainaka et al. (2006)</t>
+          <t>Wei et al. (2018)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Dual-Plane Watermarking for Color Pictures Immune to Rotation, Scale, Translation, and Random Bending</t>
+          <t>Neglected environmental health impacts of China's supply-side structural reform</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>An extended watermarking method for still pictures is described that can embed watermarks immune to not only rotation, scaling, and translation but also to random geometric distortion and any of their combinations. It requires no searches for treating random distortion. The search for rotation and scaling is combinatorial but is independent of the search for translation. That is, the angle and size of the target picture can be restored without restoring the pictures origin. Furthermore, the translation search is divided into horizontal and vertical searches that can be carried out independently. The number of searches is thus drastically reduced, making the processing speed high enough for practical application. Experimental evaluation demonstrated that the proposed method can embed watermarks immune to all four types of transformation. Although it was designed for still pictures, it can easily be extended to motion pictures.</t>
+          <t>“Supply-side structural reform” (SSSR) has been the most important ongoing economic reform in China since 2015, but its important environmental health effects have not been properly assessed. The present study addresses that gap by focusing on reduction of overcapacity in the coal, steel, and iron sectors, combined with reduction of emissions of sulfur dioxide (SO2), nitrogen oxide (NOx), and fine particulate matter (PM2.5), and projecting resultant effects on air quality and public health across cities and regions in China. Modeling results indicate that effects on air quality and public health are visible and distributed unevenly across the country. This assessment provides quantitative evidence supporting projections of the transregional distribution of such effects. Such uneven transregional distribution complicates management of air quality and health risks in China. The results challenge approaches that rely solely on cities to improve air quality. The article concludes with suggestions on how to integrate SSSR measures with cities' air quality improvement attainment planning and management performance evaluation.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2033762435</t>
+          <t>https://openalex.org/W3183300235</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/tc.1986.1676737</t>
+          <t>https://doi.org/10.1007/s10649-021-10077-6</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Reischer &amp; Simovici (1986)</t>
+          <t>Gosztonyi (2021)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Iteration Properties of Multivalued Switching Functions</t>
+          <t>How history of mathematics can help to face a crisis situation: the case of the polemic between Bernoulli and d’Alembert about the smallpox epidemic</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>The purpose of this correspondence is to survey the literature concerning the iterative properties of multivalued switching functions. These properties are important for the synthesis of switching circuits by cascades of simpler elements. Our presentation evolves around the graphs of transformations of finite sets. We discuss such topics as limitations of the computational capabilities of cascades, the existence of roots of given functions with respect to iteration powers, etc.</t>
+          <t>Abstract In this article, I present the eighteenth century’s polemic of Bernoulli and d’Alembert concerning the smallpox epidemic and a prevention method called inoculation. Through an analysis of the polemic and the related resources, I show that this historical debate has various interests for mathematics education; and more specifically it can help teachers to confront dilemmas emerging with the COVID-19 pandemic (for example if a teacher should talk about it in class or not, how to help students to interpret the statistical data and the mathematical models connected to the pandemic and more generally, how to deal with the confusions and concerns emerging in connection to the pandemic). I describe the documents related to the historical polemic as transitional objects, having a potential to reveal the teachers’ own professional or personal experiences, reflections and questions, and to stimulate dialogue with them on these issues. I illustrate this proposition by the presentation of an online reading seminar realized with a French group of teachers in April 2020.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4285143603</t>
+          <t>https://openalex.org/W1994009899</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/gyr.2022.0033</t>
+          <t>https://doi.org/10.1080/03067319.2014.983494</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Beebee (2022)</t>
+          <t>Camilleri et al. (2014)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Politische Freiheit und "europäische Literatur." Goethe, Schiller und Byron in Giuseppe Mazzinis kulturkritischen Essays by Klaus Mönig</t>
+          <t>Multiresidue fully automated online SPE-HPLC-MS/MS method for the quantification of endocrine-disrupting and pharmaceutical compounds at trace level in surface water</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Reviewed by: Politische Freiheit und "europäische Literatur." Goethe, Schiller und Byron in Giuseppe Mazzinis kulturkritischen Essays by Klaus Mönig Thomas O. Beebee Klaus Mönig. Politische Freiheit und "europäische Literatur." Goethe, Schiller und Byron in Giuseppe Mazzinis kulturkritischen Essays. Heidelberg: Universitätsverlag Winter, 2020, 287 pp. There is a wealth of information in Klaus Mönig's book, as it makes available for the first time in German numerous opinions and writings of Giuseppe Mazzini (1805–72) on the three authors named in the title, as well as detailing some of the Italian's other interactions with German thinkers such as Friedrich Schlegel and J. G. Herder. Mazzini represented the intellectual center of Italian nationalism. He spent many years in exile, fighting for the unification of Italy against Austrian [End Page 321] imperialism, petty princes, and the Catholic church, which were keeping Italy fragmented. At the same time, Mazzini was fully committed to the idea of common European values and interests, and he interpreted the three authors in the book's title in that same vein. Naturally, his interest in the authors listed in the book's title (and several more, such as Friedrich Schlegel, in fact) was primarily based on the political role of literature. Unfortunately, those using this book to extract specific information on Mazzini's positions and ideas will find this a bit hard to locate, due to the lack of a thesis or organizing principle, and to a rather inadequate Namenregister that does not include any of the names that appear in the book's title. (The subdivisions in the table of contents do provide some orientation, however.) What guiding thesis the book has can be found not in the introduction, but on the back cover. There we learn the keywords governing Mazzini's career: "Freiheitskämpfer," "Regierungschef der römischen Republik," "Exilant," and "enthusisastischer Literaturkritiker." We apprehend the book's thesis that Mazzini's interest in literature was not belletristic, but came from the idea that literature of a certain type could serve as a seismograph of cultural and political developments. Mönig summarizes Mazzini's estimate of literature's social function well: literature works "eine kritische soziale Identität zu fördern, Gerechtigkeit und Frieden zu stabilisieren und der Gefährdung und dem Verlust von Freiheiten, Werten und Rechten entgegenzuwirken." He felt, furthermore, that the three poets in the title each pointed the way toward the creation of a European literature. The table of contents tells us that the first order of business in the introduction will be to establish the importance of literature to Mazzini's political project. For some reason, this leads to a description of his brief personal acquaintance with Friedrich Nietzsche and Malwida von Meysenbug. We thus learn about Mazzini's interactions with Nietzsche late in the former's life before learning about his attitudes toward Goethe or Schiller. We then have a chapter on Mazzini's view of Goethe, focused on an analysis of his 1829 Faust essay, then chapters on Schlegel, Schiller, one on Mazzini's view of several historians, including J. G. Herder, and a final chapter devoted to Mazzini's essay "Byron e Goethe." While most of Italy thought of Goethe only as the Werther-author (widely imitated and adapted by Italian writers), Mazzini showed prescience in his appreciation of Faust. On the other hand, he had no hesitation in attacking—in English!—Goethe's antirevolutionary epigrams that adorned Thomas Carlye's history of the French Revolution. Mönig prefaces his précis of the Goethe essay with a summary of the few published reactions to Faust on the peninsula, as well as some of the more important translations, since more Italians (including Mazzini) would have read the French translation than the German original. Mazzini defends Faust against academic critiques that it violates the "dramatic unities," and proposes that the play and its central figure express humanity's movement into a new mentality, as Dante and Shakespeare did before him, by painting a panorama of society beyond the capacities of conventional drama. Faust represents negative epochal tendencies of individualism, egotism, and isolation that Goethe is not able to address or reconcile adequately. Mazzini...</t>
+          <t>The present work describes the development and validation of a sensitive method for the determination of traces of diverse groups of pharmaceuticals and endocrine disruptors in surface water. Thirty-seven substances have been selected, including 10 pesticides, 6 hormonal steroids and assimilates, 12 pharmaceuticals, 5 alkylphenols, 1 chlorophenol and 3 other well-known human contaminants, 1 UV filter and 2 plasticisers. An automated online solid-phase extraction (SPE) is directly coupled to liquid chromatography–tandem mass spectrometry. Different SPE columns have been tested, and the injection volume has been optimised. The developed analytical methodology is based on the direct injection of 2.5 mL of water sample acidified at pH 1.6 on an Oasis HLB loading column (20 × 2.1 mm) with 5-µm particles. Then, the chromatographic separation is achieved on a Kinetex XB C18 (100 × 2.1 mm; 1.7 µm) column, and the quantification is realised in multiple-reaction monitoring mode. The online SPE step warrants minimal sample handling, low solvent consumption, high sample throughput, saving time and costs. This method allows the quantification of the target analytes in the lower ng/L concentration range, with limits of quantification (LQs) between 100 pg/L and 10 ng/L, 26 compounds having LQ lower than 1 ng/L. The monitoring of two selected MS/MS transitions for each compound allows the reliable confirmation of positive findings even at the LQ level. The developed and validated methodology has been applied to the analysis of various real samples from two French rivers. Twelve target compounds have been detected in the environmental samples, and the major pollutants are pharmaceuticals usually used by humans (paracetamol, carbamazepine, oxazepam, ketoprofen, trimethoprim). The pesticides atrazine and carbendazim have been ubiquitously detected in real samples too. Metronidazole, sulfamethoxazole and diuron were also frequently quantified in the water samples.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389749586</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/oso/9780198875970.003.0004</t>
+          <t>https://openalex.org/W3037625829</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Balbi (2023)</t>
+          <t>Hsu et al. (2019)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Thinking About the Revolution</t>
+          <t>Linear Dynamics: Clustering without identification</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Abstract This chapter focuses on long-standing narratives repeated for decades, which I have called mantras: the disruptive character of the revolution (after the digital revolution, nothing will be the same as before); the fact that it involves the totality of human beings and spheres of action; the fact that it is irresistible and, indeed, that opposing it is counterproductive; the fact that the revolution is never completed but will need to be happening continually (the future is the favorite tense of the digital revolution); finally, as Trotsky and others said of the Russian Revolution, it is a permanent phenomenon which has lasted for decades and will last into the future. All these mantras are buzzwords and tropes of the digital revolution which are assigned to it without much reflection. Deconstructing their origins and the reasons why they persist over time is the ultimate goal of this chapter.</t>
+          <t>Linear dynamical systems are a fundamental and powerful parametric model class. However, identifying the parameters of a linear dynamical system is a venerable task, permitting provably efficient solutions only in special cases. This work shows that the eigenspectrum of unknown linear dynamics can be identified without full system identification. We analyze a computationally efficient and provably convergent algorithm to estimate the eigenvalues of the state-transition matrix in a linear dynamical system. _x000D_
+When applied to time series clustering, our algorithm can efficiently cluster multi-dimensional time series with temporal offsets and varying lengths, under the assumption that the time series are generated from linear dynamical systems. Evaluating our algorithm on both synthetic data and real electrocardiogram (ECG) signals, we see improvements in clustering quality over existing baselines.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://openalex.org/W586532640</t>
+          <t>https://openalex.org/W27668594</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Marcum (1978)</t>
+          <t>Rosario (2012)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Computer revolutions : reflections on new communications technologies and revolutionary change in systems</t>
+          <t>Asserting Their Rights: Puerto Ricans in Their Quest for Social Justice</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>abstractIn an effort to claim a dignified place in the United States as American citizens, Boricua leaders developed core political skills from African American grassroots organizations: established networks, adapted strategies of community activism, and found a path towards social justice. Individuals, such as Arturo Schomburg and Pura Belpre, played a crucial role in moments that marked the two histories of Puerto Ricans in the US: the official one-written by the System about them-, and the other-that had to be written by them. Historical facts, film highlights, newspaper articles, and popular music also evidence how events were conceived by the media, and by those few protagonists who bore a name, and had credentials to support it. In the end, Puerto Ricans and African Americans crossed along racial, political, and cultural lines, revealing a transcendental association that brought conflict, social transformation, but ended up in a stronger democracy for the American nation. [Keywords: Puerto Ricans, African Americans, Interracial collaboration, Civil Rights]studies have shown that the puerto rican community in the united states, despite their citizen status, share issues of adaptation, identity, and discrimination with other immigrant groups (sanchez-korrol 1983; whalen 2001; rodriguez 1989; thomas 2010). According to 2000 Census, there are more than 800,000 Puerto Ricans in New York. It is still the largest and the most documented Puerto Rican community in the United States. Particularly documented are the Puerto Rican's experiences after arrival in New York and what expectations they had for their new life in the city. Interestingly, their experiences in many ways mirrored the experience of the other ethnic groups already in New York such as Italians, Irish, Jews, and African Americans. However, the focus of this article, entitled Asserting Their Rights, centers on the cultural, political, and social interactions developed among Puerto Ricans and African Americans. Undoubtedly, the ethnicity of these two groups contributed significantly to similarities in their migratory experience and the struggles related to it. In the end, they found communality in their experiences and used it as a tool to demand and exercise their civil rights.Asserting Their Rights is conscious that many social-political frameworks can be identified according to each stage of the processes experienced by all Puerto Rican subjects, movements, alliances, and organizations mentioned, or described in this article. However, this academic aspect of a scholarly work has been partially avoided in order to let the essay narrate how these characters transit through singular periods in history. As fluid entities these women and men constructed their subjectivities when they adopted new notions of identity, and adapted themselves to different social and political situations. This work is intended to be read mostly by scholars who can address particular facts and find the appropriate theoretical concept to name them, as a basic skill during his/her professional formation. But, in the end, it is relevant for me as an intellectual to let these characters be protagonists in their own hi/stories. The ego has to step back, watch, and show how a handful of Puerto Rican immigrants asserted their rights, and participated along with African American people in changing the course of US history.Colonialism and MigrationFor more than five hundred years Puerto Rico and its people have been colonial subjects; first, more than 400 hundred under Spanish regime-since 1493 until 1898-, and over 100 as a US territory after the Spanish-American war.When the United States became involved in what began as the Cuban-Spanish conflict of 1895, high hopes arose within many sectors of the Puerto Rican society; the United States was seen as a model of economic progress and liberty (Guerra 1999). However, the thought of Puerto Rico being ruled by an Anglo Saxon country fueled discussion on issues of citizenship and class among the Puerto Rican people, whose culture was essentially influenced by a Hispanic-Roman Catholic ideology. …</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2392183633</t>
+          <t>https://openalex.org/W2090945141</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/02772249109357739</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Xiao-yun (2010)</t>
+          <t>Guitonas &amp; Nianios (1991)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Tourism Undergraduate Internship System Evaluation and Empirical Research</t>
+          <t>A study of the kinetic in transition phase of the anaerobic fluidised bed reactor with immobilised cells in microsand</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>The application of discipline of tourism determines the importance of practical teaching among undergraduates.Internship is not only an important bridge to help the transition of students to the industry and the community,but also a vital way to improve their practical ability,creative ability and employment ability.Based on a variety of opinions from experts,practical business and interns,Practice Training Effect evaluation system and PTEMI model have been constructed in tourist major with Analytic Hierarchy Process.Take Jishou University as an example,with the assistance of the first-hand data,empirical research has been conducted with PTEMI Model.</t>
+          <t>Anaerobic fluidised bed reactor is an instrument very much adapted in the experimental study of the kinetics of the complex biological process. In this experimental work the efficiency of the treatment of an anaerobic fluidised bed reactor with immobilised cells is examined in transition phase. The results of the experiments can be summarised as follows: a zero order elimination rate of the substrate is presented; the order of the reaction changes after a period of significant substrate elimination and follows a homographic equation the non‐dissociated part of the substrate ions is degradable.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388653475</t>
+          <t>https://openalex.org/W2016254158</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7554/elife.87081.3.sa3</t>
+          <t>https://doi.org/10.1016/j.pubrev.2007.08.009</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Mavrommatis et al. (2023)</t>
+          <t>Mckie &amp; Galloway (2007)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Author Response: Human skeletal muscle organoids model fetal myogenesis and sustain uncommitted PAX7 myogenic progenitors</t>
+          <t>Climate change after denial: Global reach, global responsibilities, and public relations</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Full text Figures and data Side by side Abstract eLife assessment eLife digest Introduction Results Discussion Materials and methods Data availability References Peer review Author response Article and author information Abstract In vitro culture systems that structurally model human myogenesis and promote PAX7+ myogenic progenitor maturation have not been established. Here we report that human skeletal muscle organoids can be differentiated from induced pluripotent stem cell lines to contain paraxial mesoderm and neuromesodermal progenitors and develop into organized structures reassembling neural plate border and dermomyotome. Culture conditions instigate neural lineage arrest and promote fetal hypaxial myogenesis toward limb axial anatomical identity, with generation of sustainable uncommitted PAX7 myogenic progenitors and fibroadipogenic (PDGFRa+) progenitor populations equivalent to those from the second trimester of human gestation. Single-cell comparison to human fetal and adult myogenic progenitor /satellite cells reveals distinct molecular signatures for non-dividing myogenic progenitors in activated (CD44High/CD98+/MYOD1+) and dormant (PAX7High/FBN1High/SPRY1High) states. Our approach provides a robust 3D in vitro developmental system for investigating muscle tissue morphogenesis and homeostasis. eLife assessment The authors develop a cell culture system for studies of muscle tissue development and homeostasis. They convincingly validate a novel 3D cell model. Their thorough molecular and functional characterization will make this useful for future workers in the field. https://doi.org/10.7554/eLife.87081.3.sa0 About eLife assessments eLife digest Humans contains around 650 skeletal muscles which allow the body to move around and maintain its posture. Skeletal muscles are made up of individual cells that bundle together into highly organized structures. If this group of muscles fail to develop correctly in the embryo and/or fetus, this can lead to muscular disorders that can make it painful and difficult to move. One way to better understand how skeletal muscles are formed, and how this process can go wrong, is to grow them in the laboratory. This can be achieved using induced pluripotent stem cells (iPSCs), human adult cells that have been ‘reprogrammed’ to behave like cells in the embryo that can develop in to almost any cell in the body. The iPSCs can then be converted into specific cell types in the laboratory, including the cells that make up skeletal muscle. Here, Mavrommatis et al. created a protocol for developing iPSCs into three-dimensional organoids which resemble how cells of the skeletal muscle look and arrange themselves in the fetus. To form the skeletal muscle organoid, Mavrommatis et al. treated iPSCs that were growing in a three-dimensional environment with various factors that are found early on in development. This caused the iPSCs to organize themselves in to embryonic and fetal structures that will eventually give rise to the parts of the body that contain skeletal muscle, such as the limbs. Within the organoid were cells that produced Pax7, a protein commonly found in myogenic progenitors that specifically mature into skeletal muscle cells in the fetus. Pax 7 is also present in ‘satellite cells’ that help to regrow damaged skeletal muscle in adults. Indeed, Mavrommatis et al. found that the myogenic progenitors produced by the organoid were able to regenerate muscle when transplanted in to adult mice. These findings suggest that this organoid protocol can generate cells that will give rise to skeletal muscle. In the future, these lab-grown progenitors could potentially be created from cells isolated from patients and used to repair muscle injuries. The organoid model could also provide new insights in to how skeletal muscles develop in the fetus, and how genetic mutations linked with muscular disorders disrupt this process. Introduction Novel skeletal muscle model systems are required to further elucidate the process of human myogenesis as well as investigate muscular disorders and potential gene, cell, or drug therapies. Two-dimensional (2D) culture conditions guide pluripotent stem cell (PSC) differentiation toward skeletal muscle lineage using sequential growth factor applications and/or conditional PAX7 expression (Chal et al., 2015; Xi et al., 2017; Shelton et al., 2014; Borchin et al., 2013; Darabi et al., 2012). Further, surface marker expression can be utilized to isolate myogenic progenitors with in vivo repopulation potential (Magli et al., 2017; Hicks et al., 2018; Al Tanoury et al., 2020; Sun et al., 2022). While the few described three-dimensional (3D) differentiation approaches have provided cohorts of terminally differentiated myofibers, focus on potential interactions with the vasculature and nervous system has neglected assessment of the developmental identity or sustainability of myogenic progenitors (Faustino Martins et al., 2020; Maffioletti et al., 2018;</t>
+          <t>Taking climate change as the 21st century's major global threat, this paper considers three significant public relations challenges arising from it. The first is how the field can engage with the social equity and ecological dimensions in ways that might enhance rather than diminish the profession's public reputation. The second is how the discipline adapts to deal with the radical perceptual shifts accompanying the meteorological transformations and possible geopolitical fallout, and the third is the issue of trust – interlinked with emotions, economics, ecology, and neuroscience – as the strategy of eco-catastrophe denial becomes less and less tenable. The paper also considers possible responses to these challenges.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3017170548</t>
+          <t>https://openalex.org/W2500695968</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jnca.2020.102655</t>
+          <t>https://doi.org/10.1093/acprof:oso/9780198733775.003.0007</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Morais et al. (2020)</t>
+          <t>Frary (2015)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>When SDN meets C-RAN: A survey exploring multi-point coordination, interference, and performance</t>
+          <t>Absolutism under Siege</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>The transformation of mobile networks towards fifth generation (5G) is considered an unprecedented revolution when compared to the previous generations, mainly because of the support required for three scenarios: ultra reliable and low latency; high throughput broadband; and massive machine type communication. In this context, the evolution from RAN to C-RAN is a significant contribution to advance the deployment of this new generation. C-RAN concepts bring opportunities like centralized processing, improved interference control, flexible fronthaul networks, and support for ultra-dense heterogeneous radio access networks. SDN emerges as a candidate technology for the development of programmable 5G networks, with centralized orchestration and control/data planes decoupling. In this article, we propose a systematic literature review to cover SDN application in the context of 5G communication and C-RAN. In combination with the concepts as mentioned earlier, the article evaluates coordination and interference management features provided by Coordinated Multi-point and Inter-cell Interference Coordination techniques, besides reviewing fronthaul transport tier capabilities offered by SDN for 5G networks. A careful literature analysis shows that there are no revisions with the same focus as that developed in this survey. As contributions, this article presents a novel taxonomy of SDN technology, enabling C-RAN, as well as trending directions and development opportunities for SDN and C-RAN-based 5G networks.</t>
+          <t>Abstract This chapter explores the 1843 Revolution and National Assembly of 1844 in Greece from the perspective of Russian archives. Analysis of the background and course of these events provides a means of evaluating Russia’s attitudes toward constitutionalism, nationalism, and foreign intervention when tsarist ideology was under threat. Russian archival materials help clarify many misconceptions in the historiography regarding the coup and the actions of the Russian ambassador. The episode sheds light on the reactions of Russian officials to a revolt led by their partisans, and provides an interesting case study of the functioning of the tsarist government when absolutism was under siege. Although tsarist censors sanitized the events, the Russian reading public remained well informed about the changes taking place in Greece. Although Tsar Nicholas opposed the rebellion, he abstained from forceful intervention, in part because the National Assembly of 1844 championed the religious aspect of Greek national identity.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2396201264</t>
+          <t>https://openalex.org/W3103345192</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/1354067x15621476</t>
+          <t>https://doi.org/10.1093/oso/9780195377170.003.0014</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Märtsin et al. (2016)</t>
+          <t>Santen et al. (2010)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Using culture to manage the transition into university: Conceptualising the dynamics of withdrawal and engagement</t>
+          <t>Searching for New Energy</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>This conceptual paper explored the purposes of using culture in the process of coping with stress by looking how first-year undergraduate students used cultural elements and activities to aid their transition into university. Results supported two key conceptualisations of the use of culture. First, results indicated that students used culture either for withdrawal purposes, that is, for escaping from the stressful situation, or for engagement purposes, that is, for actively engaging with the stressful situation. Second, the results suggested three different forms of using culture to engage with stressful situations: mood management, learning and personal interaction. While the results of the study resonate with the distinction between avoidance versus approach-oriented coping strategies that are widely explored in the stress and coping literature, they also suggest that the relationship between withdrawal and engagement might be dynamic with those two strategies serving distinct purposes in the process of coping with stress. This paper thus suggests that there is a need to develop process-oriented models of coping that would allow identifying patterns in the way people fluctuate between withdrawal and engagement that support and facilitate their personal growth and development.</t>
+          <t>We looked in the previous chapter at the prospects for our current energy infrastructure and asked how we can make it more flexible and sustainable. In this chapter, we fast-forward to the new energy economy after the oil era. The quantity of available energy is not the main worry in the postcarbon era. We’re surrounded by tremendous amounts of energy. The power of the sun’s rays was there long before we started to discover fossil energy sources, and on Earth’s surface, we can harness wind and water. Another vast amount of energy is encapsulated in our planet in the form of heat. As yet, we only tap small fractions of these natural energy supplies. Evaluating our long-term options, we have to ask ourselves: How can we harness these energy sources in such a way that they may serve us without a serious regress in our human civilization? Only then may we hope for a gradual transition to a new energy era. In the course of our history, we have used ever more concentrated forms of energy. In the era when we warmed ourselves by a wood fire and ate the grains of the field, we needed about 1 square meter of land for each watt of energy that came available. When we tamed wind and water power, the energy yield of a square meter of land rose by a factor of ten. The advent of coal, oil, and gas accounted for another factor of hundred improvement. This is calculated by summing up the amount of land you need for excavating the energy carriers and converting them to a useful form of energy. A similar calculus can be made using the energy content of the energy carriers themselves. Society has evolved with each subsequent energy innovation. More concentrated forms of energy allowed for a more concentrated community with a more complex division of labor. Now we don’t have to search large areas of land for some useful calories for ourselves; we can devote our time to comfort and complicated products.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1511297714</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1128/jb.123.1.47-55.1975</t>
+          <t>https://openalex.org/W2541517228</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Read &amp; McElhaney (1975)</t>
+          <t>Kouhi et al. (2016)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Glucose transport in Acholeplasma laidlawii B: dependence on the fluidity and physical state of membrane lipids</t>
+          <t>Three phase classification of an uninterrupted traffic flow: a $k$-means clustering study</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>The uptake of D-glucose by Acholeplasma laidlawii B occurs via a mediated transport process, as shown by the following observations: (i) glucose permeates A. laidlawii B cells at a rate at least 100 times greater than would be expected if its entry occurred only by simple passive diffusion; (ii) the apparent activation energy for glucose uptake in A. laidlawii is significantly lower than that expected and observed for the passive permeation of this sugar; (iii) glucose uptake appears to be a saturable process; (iv) glucose uptake can be completely inhibited by low concentrations of phloretin and phlorizin; and (v) glucose uptake is markedly inhibited at temperatures above 45 C, whereas the passive entry of erythritol continues to increase logarithmically until at least 60 C. The metabolism of D-glucose by this organism is rapid and, at low glucose concentrations, the intracellular radioactivity derived from D-[14-C]glucose is at any given time a reflection of the net effect of glucose transport, glucose metabolism, and loss from the cell of radioactive metabolic products. Care must thus be taken when attempting to determine the rate of glucose transport by measuring the accumulation by the cells of the total radioactivity derived from D-[14-C]glucose. The rate of uptake of D-glucose by A. laidlawii B cells is markedly dependent on the fatty acid composition and cholesterol content of the plasma membrane and exhibits a direct dependence on the fluidity of the membrane lipids as measured by their reversible, thermotropic gel to liquie-crystalline phase transition temperatures. In contrast to the transport rates, the apparent activation energy for glucose uptake above the phase transition temperature is not dependent on membrane lipid composition. At the temperature range within the membrane lipid phase transition region, the apparent activation energy of glucose uptake is different from the activation energy observed at temperatures above the phase transition. This may reflect the superimposed operation within the phase transition region of more than one temperature-dependent process.</t>
+          <t>We investigate the speed time series of the vehicles recorded by a camera at a section of a highway in the city of Isfahan, Iran. Using $k$-means clustering algorithm, we find that the natural number of clustering for this set of data is $3$. This is in agreement with the three-phase theory of uninterrupted traffic flows. According to this theory, the three traffic phases are categorized as {\em free flow} (F), {\em synchronized} (S) and {\em wide moving jam} (J). We obtain the transition speeds and densities at F-S and also S-J transitions. We also apply the Shannon entropy analysis on the speed time series over finite windows, which equips us to monitor in areal time the instant state of a traffic flow.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3110285463</t>
+          <t>https://openalex.org/W2086000909</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1038/s41598-020-77331-4</t>
+          <t>https://doi.org/10.1117/12.263056</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Sushentsev et al. (2020)</t>
+          <t>Yang et al. (1996)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>The effect of gadolinium-based contrast agent administration on magnetic resonance fingerprinting-based T1 relaxometry in patients with prostate cancer</t>
+          <t>&lt;title&gt;Binary optics design with genetic algorithm&lt;/title&gt;</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Abstract Magnetic resonance fingerprinting (MRF) is a rapidly developing fast quantitative mapping technique able to produce multiple property maps with reduced sensitivity to motion. MRF has shown promise in improving the diagnosis of clinically significant prostate cancer but requires further validation as part of a prostate multiparametric (mp) MRI protocol. mpMRI protocol mandates the inclusion of dynamic contrast enhanced (DCE) imaging, known for its significant T 1 shortening effect. MRF could be used to measure both pre- and post-contrast T 1 values, but its utility must be assessed. In this proof-of-concept study, we sought to evaluate the variation in MRF T 1 measurements post gadolinium-based contrast agent (GBCA) injection and the utility of such T 1 measurements to differentiate peripheral and transition zone tumours from normal prostatic tissue. We found that the T 1 variation in all tissues increased considerably post-GBCA following the expected significant T 1 shortening effect, compromising the ability of MRF T 1 to identify transition zone lesions. We, therefore, recommend performing MRF T 1 prior to DCE imaging to maintain its benefit for improving detection of both peripheral and transition zone lesions while reducing additional scanning time. Demonstrating the effect of GBCA on MRF T 1 relaxometry in patients also paves the way for future clinical studies investigating the added value of post-GBCA MRF in PCa, including its dynamic analysis as in DCE-MRF.</t>
+          <t>We employ the genetic algorithm to design a binary optical element system which transforms the Gaussian beam into the uniform circular ring beam. The transformation system is composed of two binary optical elements with 8 phase levels which are placed coaxially. The numerical results indicate that the transformed wavefront has a near-desired waveform and high energy transformed efficiency (tau) equals 87.3%. The genetic algorithm is better that the other usually used algorithms such as input-output iterative algorithm and stationary phase algorithm. The comparison with the three algorithms are shown in this paper, too.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2801312096</t>
+          <t>https://openalex.org/W1897942199</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/iscas.2018.8351113</t>
+          <t>https://doi.org/10.21236/ada584643</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Fok et al. (2018)</t>
+          <t>Kidalov et al. (2012)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Accelerating 3D Printing Process Using an Extended Ant Colony Optimization Algorithm</t>
+          <t>Implementation of the Department of Defense Small Business Innovation Research Commercialization Pilot Program: Recent Experience and International Lessons</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ant colony optimization (ACO) algorithms have been widely adopted in solving combinatorial problems, like the traveling salesman problem (TSP). Nevertheless, with a proper transformation to TSP, ACO is capable of solving undirected rural postman problems (URPP) as well. In fact, nozzle path planning problems in 3D printing can be represented as URPP. Therefore, in this work, ACO is utilized as a URPP solver to accelerate the printing process in fused deposition modeling applications. Furthermore, mechanisms which exploit unique properties in 3D models are proposed to further extend the ACO in the above optimization process. These mechanisms are capable of accelerating ACO by adaptively adjusting its number of iterations on-the-fly. Simulation results using real-life 3D models show that the proposed extensions can accelerate ACO without affecting the quality of its solutions significantly.</t>
+          <t>Abstract : In Section 252 of the National Defense Authorization Act for Fiscal Year 2006, Congress adopted four wide-ranging reforms to the Department of Defense (DoD) Small Business Innovation Research (SBIR) and Small Business Technology Transfer (STTR) programs in order to increase their effectiveness for both the DoD and the defense industry. First, Section 252 directed closer alignment between R&amp;D and acquisition goals of SBIR and STTR. Second, Section 252 authorized and funded the creation of the Commercialization Pilot Program (CPP) by the DoD and the military Departments to facilitate transition of SBIR technologies into the acquisition process. Congress conditioned the use of CPP funds on detailed evaluative reporting to Congress. Third, Congress codified into statutory law President George W. Bush s Executive Order No. 13329 (2004), which incentivized manufacturing technologies through SBIR and STTR. Fourth, Congress clarified agencies authority to conduct testing and evaluation (T&amp;E) of SBIR and STTR technologies in SBIR and STTR Phases II and III. The implementation requirements were specified in Section 252 and the Congressional Guidance Letter (2006) issued by the House and the Senate Small Business Committees.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1572562311</t>
+          <t>https://openalex.org/W3014519332</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/hsp.2010.a405438</t>
+          <t>https://doi.org/10.1117/12.2556061</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Treadgold (2010)</t>
+          <t>Betker et al. (2020)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Byzantine Exceptionalism and Some Recent Books on Byzantium</t>
+          <t>3D registration of multiple surface measurements using projected random patterns</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Byzantine Exceptionalism and Some Recent Books on Byzantium Warren Treadgold (bio) Jonathan Shepard, ed., The Cambridge History of the Byzantine Empire, c. 500-1492 (Cambridge University Press, 2008). Elizabeth Jeffreys with John Haldon and Robin Cormack, eds., The Oxford Handbook of Byzantine Studies (Oxford University Press, 2008). John Haldon, ed., A Social History of Byzantium (Wiley-Blackwell, 2009). Judith Herrin, Byzantium: The Surprising Life of a Medieval Empire (Princeton University Press, 2007). Edward Luttwak, The Grand Strategy of the Byzantine Empire (The Belknap Press of Harvard University Press, 2009). Timothy E. Gregory, A History of Byzantium, 2nd ed. (Wiley-Blackwell, 2010). Anthony Kaldellis, Hellenism in Byzantium: The Transformations of Greek Identity and the Reception of the Classical Tradition (Cambridge University Press, 2007). In 1066 the Normans invaded England and won a decisive victory. While they claimed that their actions were justified, they held the land essentially by right of conquest and displaced nearly everyone who had been ruling it. After a few years they secured the whole kingdom and profoundly reshaped the society and culture of the country, where their descendants still reign. Likewise, in 1203-4 the men of the Fourth Crusade invaded the Byzantine Empire and won a decisive victory. While they claimed that their actions were justified, they held the land essentially by right of conquest and displaced nearly everyone who had been ruling it. Yet they never secured most of the empire, lost practically all of it by 1261, and had scarcely any lasting impact on the society or culture of the Byzantine world. Various reasons can be given for the success of the Norman Conquest, and historians can easily imagine how it might have failed. What is much harder to imagine is how the Crusaders' conquest of Byzantium could ultimately have succeeded, at least without far more accommodation of the Byzantines or massive Western European immigration. Though the Normans spoke a different language from the English, both groups were part of a Western European political, social, and cultural system that was also shared by the Crusaders of 1204. This system was, however, incompatible with the Byzantine political, social, and cultural system, which soon expelled the Crusaders as an alien body. Byzantium was not just another medieval European country, like England or France, but a world of its own. The contrasts between Byzantium and the West are still a problem for authors of general books on Byzantium, including the recent batch of seven reviewed here. Most Byzantinists know how different Byzantium was, but many prefer not to emphasize the fact. Scholars like to be fashionable, and fashions are set by the majority who study the medieval and modern West, the source of concepts like feudalism and nationalism. While today we are all aware of non-Western cultures, we think of Byzantium as Western, certainly in comparison with China, pre-Columbian America, or sub-Saharan Africa. This is presumably why the American Historical Review lists books on Byzantium under "Europe: Ancient and Medieval," though most Byzantine territory was in Asia or Africa (and Constantinople straddled Europe and Asia). Byzantinists may reasonably fear that insisting their subject is not fully Western could leave it without a place in either Western or non-Western history. The Cambridge History of the Byzantine Empire comes very close to treating Byzantium as just another medieval European country, even if such treatment results mainly from the opportunism of its publisher. Of the book's twenty-seven parts, only eight (plus the introduction) were actually written for it. Three more parts are adapted from the final volume of The Cambridge Ancient History (2000) and sixteen more from the seven-volume New Cambridge Medieval History (1995-2005), which has short chapters on Byzantium in each period. (The old Cambridge Medieval History had a separate volume on Byzantium.) The editor of the Cambridge History, Jonathan Shepard, explains that an editor at Cambridge University Press "encouraged me to take on remodelling materials already available" (xvii). While the press profits from selling libraries the same material twice, the benefits to scholarship are less clear. In his introduction Shepard struggles to lend the book some coherence.1 He explains its beginning with the year 500 by citing the fall...</t>
+          <t>When repairing worn components it is crucial to have detailed knowledge of the current object’s state. For this purpose a multi-sensor system was developed to measure objects in different scales and modalities. This work focuses on the 3-D measurement of worn turbine blades using a fringe projection system. The 3-D geometry of turbine blades is crucial for the overall performance and safety of an engine. Therefore it is not sufficient to rely on single fringe projection measurements for a functional evaluation. To obtain a 3-D model the blade has to be measured from multiple directions. Gathered data are combined to form the model. This process is called registration or stitching. To reduce uncertainties during the process markers can be applied on or near the measurement object. However, common methods using markers are insufficient in automatability and feature density and therefore are not applicable in this case. In this work a novel registration strategy based on projected random patterns is developed. Multiple projectors are placed around the object to illuminate its geometry. Keypoints are identified by capturing additional grayscale images and applying state-of-the art feature detection algorithms. Feature matching is performed on consecutive measurements. Matches are preprocessed and a random sample consensus approach is chosen to calculate the rigid body transformation. Multiple measurements of the turbine blade and other geometries have been successfully aligned using the proposed strategy. Beyond that the high density of features allows the alignment of measurements with different scales and resolutions.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2121673844</t>
+          <t>https://openalex.org/W4390739890</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/13563460903586202</t>
+          <t>https://doi.org/10.1101/2024.01.08.574719</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Caney (2010)</t>
+          <t>Sepúlveda et al. (2024)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Markets, Morality and Climate Change: What, if Anything, is Wrong with Emissions Trading?</t>
+          <t>Phenotypic characterization of cryptic species in the fungal pathogen&lt;i&gt;Histoplasma&lt;/i&gt;</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Abstract This article explores whether emissions trading is morally defensible To do so it examines three different kinds of moral consideration Which might be used to judge emissions trading. The first kind makes what I term an 'ethical' objection, and holds that utilising market instruments to combat climate change is inherently objectionable. I examine three versions if this 'ethical' argument but find none persuasive. The remainder of the article considers two additional moral considerations, both of which appeal to principles of justice. Drawing on these it argues that emissions trading can be morally defensible but only it it meets these two demanding moral criteria. First, the costs of emissions trading should be shared equitably. The paper examines what this might mean and criticises the leading account of what constitutes a just distribution of emissions Second, emissions trading must make an appropriate contribution to climate mitigation. A number of ways in which current emissions trading schemes signally fail to meet this second criterion are then noted. The article concludes that emissions trading schemes could in principle be morally defensible but only if new schemes are introduced or existing schemes are radically redesigned in line with the principles outlined in the article. Keywords: emissions tradingethicsjusticeclimate change Notes An earlier version of this paper was presented at the 'Commodifying Carbon' Conference (University of Oxford, 16 July 2007). I am grateful to the two respondents on my paper, Timmons Roberts and Henry Shue, for their instructive comments. A much later version was presented at the workshop on 'Global Emissions Trading: Ethics, Policy and Politics' (University of Warwick, 8 July 2009). I am grateful to the participants for their suggestions. I am especially indebted to Ed Page for a number of very illuminating discussions of the themes examined in this paper and to the anonymous referee for this journal for their extremely helpful comments. The paper was completed during my tenure of an ESRC Climate Change Leadership Fellowship (2008–11) and I am grateful to the ESRC for its support. Note that emissions trading schemes are not the only market instrument being employed to mitigate climate change. Another potentially important market instrument is the United Nations' programme on Reducing Emissions from Deforestation and Forest Degradation in Developing Countries (UN-REDD). See on this http://www.undp.org/mdtf/un-redd/overview.shtml [last accessed 11 December 2009]. REDD is one specific version of what is known as 'payment for environmental services' (PES). For an overview of PES see Engel et al. Citation(2008). My focus in this article is on emissions trading but some of the issues raised are also relevant for an appraisal of REDD and other schemes which involve paying for environmental services. I am grateful to an anonymous referee for pressing me on this point. This sentence needs to be heavily qualified for the impoverished may be unfree not to sell emissions. That is, their economic disadvantage may compel them to sell their emissions. I have argued elsewhere that there is a duty of justice to eradicate global poverty (Caney Citation2005) and if this were honoured then this concern would be met. One might also address this concern either by allocating large numbers of emissions permits to the disadvantaged or by auctioning the permits and distributing the revenues to the disadvantaged (Beckerman and Pasek Citation2001: 183–4). These issues are examined in section IV. Simmel (Citation1990 [1907]: 286) illustrates his argument through an historical analysis of different systems of payment, such as feudalism. He points out that an economy where persons are required to transfer a certain specific good (such as 'a quantity of beer or poultry or honey') 'thereby determines the activity of the … [duty-bearer] in a certain direction' and, as such, limits their liberty more than one where one can discharge one's debts though payment of money. A second, quite different reason for analysing emissions trading in the light of other policies is that it is often the case that one policy, whilst successful on its own, may undercut the efficacy of a second policy. They may work well separately but undermine each when adopted together. See Carbon Disclosure Project (http://www.cdproject.net/) and Carbon Monitoring for Action (http://carma.org/) [both last accessed on 26 June 2009]. See also the interesting discussion by Thaler and Sunstein in Nudge (Citation2008: 188–92). For the claim that they should be inalienable see Shue (Citation1993: 58). For instructive comparisons of different schemes see Roberts and Thumim (Citation2006: section 2) and Bottrill Citation(2006). For informative overviews see House of Commons Environmental Audit Committee Citation(2008) and DEFRA's analysis of individual carbon permit schemes (now available at the website of the Department for Energy </t>
+          <t>Histoplasmosis is an endemic mycosis that often presents as a respiratory infection in immunocompromised patients. Hundreds of thousands of new infections are reported annually around the world. The etiological agent of the disease, Histoplasma, is a dimorphic fungus commonly found in the soil where it grows as mycelia. Humans can become infected by Histoplasma through inhalation of its spores (conidia) or mycelial particles. The fungi transitions into the yeast phase in the lungs at 37°C. Once in the lungs, yeast cells reside and proliferate inside alveolar macrophages. We have previously described that Histoplasma is composed of at least five cryptic species that differ genetically, and assigned new names to the lineages. Here we evaluated multiple phenotypic characteristics of 12 strains from five phylogenetic species of Histoplasma to identify phenotypic traits that differentiate between these species: H. capsulatum sensu stricto, H. ohiense, H. mississippiense, H. suramericanum, and an African lineage. We report diagnostic traits for two species. The other three species can be identified by a combination of traits. Our results suggest that 1) there are significant phenotypic differences among the cryptic species of Histoplasma, and 2) that those differences can be used to positively distinguish those species in a clinical setting and for further study of the evolution of this fungal pathogen.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3042250261</t>
+          <t>https://openalex.org/W2079703984</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.revmed.2020.06.004</t>
+          <t>https://doi.org/10.1016/0022-4731(86)90334-1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Liozon (2020)</t>
+          <t>Rajagopalon et al. (1986)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Place actuelle de l'imagerie non invasive des artères de gros calibre dans l'artérite à cellules géantes: du diagnostic au suivi</t>
+          <t>26-Hydroxycholesterol disulfate: Metabolism and excretion in the normal neonate</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Si l'atteinte des gros troncs artériels au cours de l'artérite à cellules géantes est. connue de longue date, son importance, en termes de fréquence et de possible incidence pronostique, n'est. mise en exergue que depuis deux décades. Outre un risque élevé d'anévrisme aortique retardé, l'atteinte des gros troncs artériels pourrait conférer une plus grande résistance aux traitements et grever le pronostic cardio-vasculaire lointain. Ces notions sont apparues grâce à des travaux permis par les progrès spectaculaires de l'imagerie artérielle. Celle-ci repose sur quatre techniques d'accessibilité inégale et volontiers complémentaires: l'écho-doppler, la tomodensitométrie et l'imagerie par résonance magnétique, qui objectivent un épaississement vasculaire pariétal concentrique homogène et apprécient les modifications structurales; la tomographie par émission de positrons au 18F-fluorodeoxyglucose couplée au scanner, qui démontre l'inflammation pariétale des gros vaisseaux et en donne une bonne cartographie, qui peut même intégrer, avec un protocole approprié, l'atteinte des artères vertébrales, temporales, faciales et maxillaires. Les quatre procédures obtiennent de hautes sensibilités et spécificités pour le diagnostic d'artérite et le choix est. laissé à la discrétion du clinicien, en fonction des moyens à sa disposition, l'essentiel étant d'obtenir au plus tôt les images, compte tenu des modifications rapides de l'inflammation pariétale induites par la corticothérapie. Cependant, l'écho-doppler des artères crâniennes et sous-clavières/axillaires est. la procédure de première intention, à effectuer devant toute suspicion d'artérite à cellules géantes, car permettant d'orienter plus rapidement le diagnostic d'ACG et celui d'atteinte des gros vaisseaux. Les corrélations entre le contrôle clinique, les signes inflammatoires biologiques et les résultats de l'imagerie vasculaire sont mauvaises chez un patient traité, si bien qu'il est. recommandé de ne pas multiplier celle-ci à titre de monitorage thérapeutique, en l'absence de suspicion de complication ou de rechute macro-artérielle. En revanche, une surveillance structurale de l'aorte est. nécessaire, mais la date de début, les modalités et la fréquence de cette surveillance restent discutés cas par cas, en l'absence de guide précis. Les patients avec aortite démontrée au diagnostic et/ou facteurs de risque additionnel d'anévrisme seront à surveiller de plus près. Large vessel involvement in giant cell arteritis has long been described, although its right frequency and potential prognostic value have only been highlighted for two decades. Large vessel involvement not only is associated with a high incidence of late aortic aneurysms, but also might cause greater resistance to glucocorticoids and longer treatment duration, as well as worse late cardiovascular outcomes. These data were brought to our attention, thanks to substantial progress recently made in large vessel imaging. This relies on four single, often complementary, approaches of varying availability: colour Doppler ultrasound, contrast-enhanced computed tomography with angiography and, magnetic resonance imaging, which all demonstrate homogeneous circumferential wall thickening and describe structural changes; 18F-fluorodeoxyglucose positron emission tomography-computed tomography (PET/CT), which depicts wall inflammation and assesses many vascular territories in the same examination. In addition, integrated head-and-neck PET/CT can accurately and reliably diagnose cranial arteritis. All four procedures exhibit high diagnostic performance for a large vessel arteritis diagnosis so that the choice is left to the physician, depending on local practices and accessibility; the most important is to carry out the chosen modality without delay to avoid false or equivocal results, due to early vascular oedema changes as a result of high dose glucocorticoid treatment. Yet, ultrasound study of the superficial cranial and subclavian/axillary arteries remains a first line assessment aimed at strengthening and expediting the clinical diagnosis as well as raising suspicion of large-vessel involvement. In treated patients, vascular imaging results are poorly correlated with clinical-biological controlled disease so that it is strongly recommended not to renew imaging studies unless a large vessel relapse or complication is suspected. On the other hand, a structural monitoring of aorta following giant cell arteritis is mandatory, but uncertainties remain regarding the best procedural approach, timing of first control and spacing between controls. Individuals at greater risk of developing aortic complication, e.g. those with classic risk factors for aneurysm and/or visualised aortitis, should be monitored more closely.</t>
+          <t>Deuterated 26-hydroxycholesterol disulfate has been given in a tracer amount to neonates to evaluate the pool size, metabolism and excretion of the endogenously occurring compound in meconium. In a group of 5 normal neonates excretion of endogenous 26-hydroxycholesterol during the initial 72 h of life ranged from 327 to 1096 micrograms. Recovery of administered isotope during the same period was 66-98%. Only trace amounts of 26-hydroxycholesterol were recovered in urine. The findings indicate that relative to bile acid pool size, the normal neonate has a small intestinal pool of 26-hydroxycholesterol which, for the most part, is rapidly excreted and does not contribute significantly to bile acid synthesis. The techniques developed during the course of the study provide an approach to non invasive metabolic studies that give insights on the normal transition from fetal to neonatal life.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2899399694</t>
+          <t>https://openalex.org/W3149198880</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.1811.00079</t>
+          <t>https://doi.org/10.1109/iih-msp.2006.264962</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Chen et al. (2018)</t>
+          <t>Dainaka et al. (2006)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Predictive Modeling of Biomedical Signals Using Controlled Spatial Transformation</t>
+          <t>Dual-Plane Watermarking for Color Pictures Immune to Rotation, Scale, Translation, and Random Bending</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>An important paradigm in smart health is developing diagnosis tools and monitoring a patient's heart activity through processing Electrocardiogram (ECG) signals is a key example, sue to high mortality rate of heart-related disease. However, current heart monitoring devices suffer from two important drawbacks: i) failure in capturing inter-patient variability, and ii) incapability of identifying heart abnormalities ahead of time to take effective preventive and therapeutic interventions. This paper proposed a novel predictive signal processing method to solve these issues. We propose a two-step classification framework for ECG signals, where a global classifier recognizes severe abnormalities by comparing the signal against a universal reference model. The seemingly normal signals are then passed through a personalized classifier, to recognize mild but informative signal morphology distortions. The key idea is to develop a novel deviation analysis based on a controlled nonlinear transformation to capture significant deviations of the signal towards any of predefined abnormality classes. Here, we embrace the proven but overlooked fact that certain features of ECG signals reflect underlying cardiac abnormalities before the occurrences of cardiac disease. The proposed method achieves a classification accuracy of 96.6% and provides a unique feature of predictive analysis by providing warnings before critical heart conditions. In particular, the chance of observing a severe problem (a red alarm) is raised by about 5% to 10% after observing a yellow alarm of the same type. Although we used this methodology to provide early precaution messages to elderly and high-risk heart-patients, the proposed method is general and applicable to similar bio-medical signal processing applications.</t>
+          <t>An extended watermarking method for still pictures is described that can embed watermarks immune to not only rotation, scaling, and translation but also to random geometric distortion and any of their combinations. It requires no searches for treating random distortion. The search for rotation and scaling is combinatorial but is independent of the search for translation. That is, the angle and size of the target picture can be restored without restoring the pictures origin. Furthermore, the translation search is divided into horizontal and vertical searches that can be carried out independently. The number of searches is thus drastically reduced, making the processing speed high enough for practical application. Experimental evaluation demonstrated that the proposed method can embed watermarks immune to all four types of transformation. Although it was designed for still pictures, it can easily be extended to motion pictures.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1985367261</t>
+          <t>https://openalex.org/W2033762435</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.indcrop.2013.01.040</t>
+          <t>https://doi.org/10.1109/tc.1986.1676737</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Luo et al. (2013)</t>
+          <t>Reischer &amp; Simovici (1986)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Lignin as a reactive reinforcing filler for water-blown rigid biofoam composites from soy oil-based polyurethane</t>
+          <t>Iteration Properties of Multivalued Switching Functions</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Abstract In this study, lignin (from bioethanol production) is used as a reactive reinforcing filler. A novel soy-based polyurethane biofoam (BioPU) from two polyols (soybean oil-derived polyol SOPEP and petrochemical polyol Jeffol A-630) and poly(diphenylmethane diisocyanate) (pMDI) has been prepared by a self-rising method using water as a blowing agent with and without lignin. The BioPU samples were evaluated for mechanical and thermal properties, and density. The cell morphology of the resulting lignin reinforced biofoam was examined by scanning electron microscope (SEM) and found to be in line with the cell structure modifications induced by the reinforcing lignin. Densities of the resultant composites were increased as a result of increased lignin content. Fourier transform infrared (FTIR) spectroscopy study exhibited characteristic peaks for lignin and BioPU. Mechanical properties of the samples were improved with the increase of lignin content, and the samples with 10% lignin had the best mechanical properties. Similarly, glass transition temperature (Tg) and storage modulus around and after Tg were increased over neat biofoam without lignin. Dynamic mechanical analysis (DMA) results coincided with the improvement of mechanical properties and showed better thermal stability of the composites over the neat biofoam. Thermogravimetric analysis showed improved thermal stability of the biofoams reinforced with lignin. Therefore, this research has provided a simple method of preparing the biofoam, while exploring the potential of using lignin in polyurethane applications.</t>
+          <t>The purpose of this correspondence is to survey the literature concerning the iterative properties of multivalued switching functions. These properties are important for the synthesis of switching circuits by cascades of simpler elements. Our presentation evolves around the graphs of transformations of finite sets. We discuss such topics as limitations of the computational capabilities of cascades, the existence of roots of given functions with respect to iteration powers, etc.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2075007701</t>
+          <t>https://openalex.org/W4285143603</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/00005373-199607000-00001</t>
+          <t>https://doi.org/10.1353/gyr.2022.0033</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Hassett (1996)</t>
+          <t>Beebee (2022)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Do It Right, Do the Right Thing</t>
+          <t>Politische Freiheit und "europäische Literatur." Goethe, Schiller und Byron in Giuseppe Mazzinis kulturkritischen Essays by Klaus Mönig</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ladies and gentlemen, members of EAST, and guests! In preparation for this address, I reviewed my predecessors presentations. Dr. Maull urged us to dispel fatalism in 1989. [1] Dr. Harris searched for values in our changing times. [2] Dr. Jacobs identified forces that shape trauma care. [3] Dr. Champion reflected on directions of trauma care. [4] Dr. Schwab identified the largest sociomedical problem of the turn of the century. [5] Dr. Rhodes gave practical guidelines for trauma care. [6] Dr. Boyd reported on the principles of action. [7] Each was a prescient view of the challenges to trauma care. I urge each member to review their comments. I will focus on a continuation of their theme and offer an action plan. I have decided to do so because we stand on the threshold of a new century. Each of us has come to this place in time with unique experiences of mentorship, academic preparation, and clinical experience. Our common thread is our dedication to the trauma patient. Each will be asked to address issues and challenges daily. How we do so and what we do will effect generations of future trauma patients. At the turn of the century we are facing questions like: Can we define life, liberty and the pursuit of happiness specifically? Can we reliably ensure access to health care for all? Our sense of mission and vision of the future are important components as we deal with the challenges and questions. My presidential address is a call to active advocacy. I implore you to "Do it right, do the right thing". Modern health care advocates autonomy not cohesiveness. It values patient choice but reduces patient options. It promotes the bottom line and not people. It sees outcome through economic glasses. It replaces a commitment to excellence with a mandate for equity. It does not ensure equal health care to the economically challenged. It is a bean counters plan concocted by people who don't know beans about health care. This is the result of society's failure to address basic issues of health care and economy. Largely, it is a failure of professional and political leadership. Professionally, many of our colleagues take more than they give. Politically, many of our leaders use health care and social systems for their own gain. Somehow, we have lost the vision of our mission and responsibility. Figure 1Figure 1Entrepreneurs found health care in the seventies. The medical market place was an open and largely unregulated area. It soon became dominated by technology that superseded the normally accepted "doctor skills". Hospitals became technological marvels. Public policy for Medicare and Medicaid created a funding source that could supply this market with sufficient funds to make entrepeneurial investment reasonable. Some define this entrepreneurship as an organized license to steal. Others see it as the natural order of life. In the initial phases, it provided resources and fulfilled the dream of universal health care, where every malady could be addressed directly. In the later phases, it created circumstances where health care devices have astronomical prices and minor problems have million dollar responses. Decisions are directed by the corporate bottom line and controlled by the fear of litigation. The process has made us all commodities to be managed and used. Health care is provided according to the number of covered lives per annum. Health care providers are seen in terms of the number of contact hours per day. We are part of a system of health care delivery that sets a priority on certain types of care. Delays in delivering care are economically driven. The bottom line is important. The question is whose bottom line is being valued in the decision process. Students are taught more about the cost per dose than the pharmacology of the drug given. They are indoctrinated to careers and training programs are modified according to the mantra of managed care. Residents are concerned with a "niche market," attractiveness of their skills to their eventual employer, and their benefits package. Attending staff are evaluated according to the length of stay of their patients or the number of resource days utilized. The natural result is a struggle for the control of health care. In many ways, health care providers and patients are in a "free fire zone" in a modern economic war. Neither controls the environment. Both are victims and victimize the system simultaneously. Today, the other side is winning. However, all is not lost. Groups of health care professionals are addressing issues aggressively. The Phoenix analogy that a better health care system may emerge from the ashes of the past health care system has become a popular concept in groups who accept the challenge of change. The major goals of these groups are intelligent organization, focus, and outcome-based service. None of the issues are new. Most of the issues, challenges, and responses have been with us for a long time. The history of the response to change in m</t>
+          <t>Reviewed by: Politische Freiheit und "europäische Literatur." Goethe, Schiller und Byron in Giuseppe Mazzinis kulturkritischen Essays by Klaus Mönig Thomas O. Beebee Klaus Mönig. Politische Freiheit und "europäische Literatur." Goethe, Schiller und Byron in Giuseppe Mazzinis kulturkritischen Essays. Heidelberg: Universitätsverlag Winter, 2020, 287 pp. There is a wealth of information in Klaus Mönig's book, as it makes available for the first time in German numerous opinions and writings of Giuseppe Mazzini (1805–72) on the three authors named in the title, as well as detailing some of the Italian's other interactions with German thinkers such as Friedrich Schlegel and J. G. Herder. Mazzini represented the intellectual center of Italian nationalism. He spent many years in exile, fighting for the unification of Italy against Austrian [End Page 321] imperialism, petty princes, and the Catholic church, which were keeping Italy fragmented. At the same time, Mazzini was fully committed to the idea of common European values and interests, and he interpreted the three authors in the book's title in that same vein. Naturally, his interest in the authors listed in the book's title (and several more, such as Friedrich Schlegel, in fact) was primarily based on the political role of literature. Unfortunately, those using this book to extract specific information on Mazzini's positions and ideas will find this a bit hard to locate, due to the lack of a thesis or organizing principle, and to a rather inadequate Namenregister that does not include any of the names that appear in the book's title. (The subdivisions in the table of contents do provide some orientation, however.) What guiding thesis the book has can be found not in the introduction, but on the back cover. There we learn the keywords governing Mazzini's career: "Freiheitskämpfer," "Regierungschef der römischen Republik," "Exilant," and "enthusisastischer Literaturkritiker." We apprehend the book's thesis that Mazzini's interest in literature was not belletristic, but came from the idea that literature of a certain type could serve as a seismograph of cultural and political developments. Mönig summarizes Mazzini's estimate of literature's social function well: literature works "eine kritische soziale Identität zu fördern, Gerechtigkeit und Frieden zu stabilisieren und der Gefährdung und dem Verlust von Freiheiten, Werten und Rechten entgegenzuwirken." He felt, furthermore, that the three poets in the title each pointed the way toward the creation of a European literature. The table of contents tells us that the first order of business in the introduction will be to establish the importance of literature to Mazzini's political project. For some reason, this leads to a description of his brief personal acquaintance with Friedrich Nietzsche and Malwida von Meysenbug. We thus learn about Mazzini's interactions with Nietzsche late in the former's life before learning about his attitudes toward Goethe or Schiller. We then have a chapter on Mazzini's view of Goethe, focused on an analysis of his 1829 Faust essay, then chapters on Schlegel, Schiller, one on Mazzini's view of several historians, including J. G. Herder, and a final chapter devoted to Mazzini's essay "Byron e Goethe." While most of Italy thought of Goethe only as the Werther-author (widely imitated and adapted by Italian writers), Mazzini showed prescience in his appreciation of Faust. On the other hand, he had no hesitation in attacking—in English!—Goethe's antirevolutionary epigrams that adorned Thomas Carlye's history of the French Revolution. Mönig prefaces his précis of the Goethe essay with a summary of the few published reactions to Faust on the peninsula, as well as some of the more important translations, since more Italians (including Mazzini) would have read the French translation than the German original. Mazzini defends Faust against academic critiques that it violates the "dramatic unities," and proposes that the play and its central figure express humanity's movement into a new mentality, as Dante and Shakespeare did before him, by painting a panorama of society beyond the capacities of conventional drama. Faust represents negative epochal tendencies of individualism, egotism, and isolation that Goethe is not able to address or reconcile adequately. Mazzini...</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>https://openalex.org/W1984028227</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4067/s0034-98872014000600006</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Bitrán et al. (2014)</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>]]¿Cómo aprenden los estudiantes de medicina en la transición hacia el ciclo clínico?: Estudio cualitativo de las percepciones de estudiantes y docentes acerca del aprendizaje inicial de la clínica</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>The transition to the clinical courses represents a major challenge for medical students who are expected to become experiential learners, able to integrate theory and practice in the context of patient care. There are questions about how students face this challenge.To understand and compare the perceptions of students and clinical tutors on how medical students learn during the transition to the clinical levels of the curriculum.We performed eight focus group discussions with 54 students enrolled in years three to seven and we interviewed eight clinical tutors. Both students' focus group discussions and tutors' interviews were audio recorded, transcribed and analyzed according to the Grounded Theory.Nine main themes emerged from the analysis of students' opinions and six from the tutors' views. The following themes were common to both students and educators: educational activities, actors, clinical settings, learning strategies, transition markers and tutor's role. Educators emphasized the importance of curricular courses' design and students, that of emotions, adaptation and self-care strategies, and threats to learning.There is a common core of students' and clinical tutors' perceptions about the relevance of practical activities, social interactions and context in the development of students' learning and adaptation strategies during the transition to the clinical levels of the curriculum. These results are related to social and cultural theories of learning. Thus we propose a model for early clinical learning that might help to stimulate the reflection of students and medical educators regarding clinical learning and contribute to the development of interventions that improve the clinical learning and teaching practices.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4389749586</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/oso/9780198875970.003.0004</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Balbi (2023)</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Thinking About the Revolution</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Abstract This chapter focuses on long-standing narratives repeated for decades, which I have called mantras: the disruptive character of the revolution (after the digital revolution, nothing will be the same as before); the fact that it involves the totality of human beings and spheres of action; the fact that it is irresistible and, indeed, that opposing it is counterproductive; the fact that the revolution is never completed but will need to be happening continually (the future is the favorite tense of the digital revolution); finally, as Trotsky and others said of the Russian Revolution, it is a permanent phenomenon which has lasted for decades and will last into the future. All these mantras are buzzwords and tropes of the digital revolution which are assigned to it without much reflection. Deconstructing their origins and the reasons why they persist over time is the ultimate goal of this chapter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W586532640</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Marcum (1978)</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Computer revolutions : reflections on new communications technologies and revolutionary change in systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3017170548</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jnca.2020.102655</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Morais et al. (2020)</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>When SDN meets C-RAN: A survey exploring multi-point coordination, interference, and performance</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>The transformation of mobile networks towards fifth generation (5G) is considered an unprecedented revolution when compared to the previous generations, mainly because of the support required for three scenarios: ultra reliable and low latency; high throughput broadband; and massive machine type communication. In this context, the evolution from RAN to C-RAN is a significant contribution to advance the deployment of this new generation. C-RAN concepts bring opportunities like centralized processing, improved interference control, flexible fronthaul networks, and support for ultra-dense heterogeneous radio access networks. SDN emerges as a candidate technology for the development of programmable 5G networks, with centralized orchestration and control/data planes decoupling. In this article, we propose a systematic literature review to cover SDN application in the context of 5G communication and C-RAN. In combination with the concepts as mentioned earlier, the article evaluates coordination and interference management features provided by Coordinated Multi-point and Inter-cell Interference Coordination techniques, besides reviewing fronthaul transport tier capabilities offered by SDN for 5G networks. A careful literature analysis shows that there are no revisions with the same focus as that developed in this survey. As contributions, this article presents a novel taxonomy of SDN technology, enabling C-RAN, as well as trending directions and development opportunities for SDN and C-RAN-based 5G networks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2009498514</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1183/09031936.03.00068503a</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Witek &amp; Mahler (2003)</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Minimal important difference of the transition dyspnoea index in a multinational clinical trial</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Dyspnoea is a primary symptom of chronic obstructive pulmonary disease (COPD). The baseline (BDI) and transition (TDI) dyspnoea indices are commonly used instruments to assess breathlessness and the impact of intervention. Its validity and pattern of response in multinational clinical trials has not been established. In a retrospective analysis of a cohort of 997 COPD patients who received tiotropium, salmeterol or placebo, in addition to usual care, the validity and pattern of response of the BDI and TDI were examined. The BDI was significantly correlated with the dyspnoea diary (DD) score and the symptom and activity components of the St. George9s respiratory questionnaire (SGRQ), establishing concurrent validity. Furthermore, the TDI was also correlated with the changes in DD, SGRQ symptom and activity scores. Construct validity was established by the association between baseline forced expiratory volume in one second (FEV&lt;sub&gt;1&lt;/sub&gt;) and BDI and ΔFEV&lt;sub&gt;1&lt;/sub&gt; with TDI. Physician9s global evaluation (PGE) was significantly associated with BDI as well as ΔPGE with TDI. Significant correlations have also been observed when the cohorts were classified according to native English and native non­English speaking countries. A change in PGE of 1 category (&lt;i&gt;i.e.&lt;/i&gt; 2 units on an 8‐point scale) was associated with a mean TDI of ∼1 unit (0.9–1.3 mean focal score), lending further support to the clinical significance of this change inherent in the instrument9s descriptors. TDI responders (&lt;i&gt;i.e.&lt;/i&gt; focal score ≥1 unit) used less supplemental salbutamol, had fewer exacerbations and had significantly improved health status as measured by impacts and total SGRQ scores compared with nonresponders. In conclusion, the transition dyspnoea index is a valid instrument when used in a multinational clinical trial and the patterns of response confirm a 1‐unit change in the transition dyspnoea index focal score as being clinically important.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W80517714</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Gasser (2013)</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Career Self-Appraisals and Educational Aspirations of Diverse First-Year College Students.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>This study examined the career, social, and academic self-appraisals and educational aspirations of first-year college students of diverse racial/ethnic backgrounds. Participants included 72 first-year students of Black, Asian, and White ethnicities. Career self-appraisals were significantly different for Black and Asian students when compared to White students, and subsequent analysis revealed that White students had higher career self-appraisals. Also, educational aspirations were significantly predicted by academic self-appraisals. Practice implications are explored. Keywords: first-year college students, academic self-appraisal, educational aspirations ********** Today, workers in the United States need to be competitive on the global job market, which requires being able to obtain the necessary training and education sought by employers (Hug, hey &amp; Hughey, 1999). The college preparation of students can be vital in securing a job and developing one's career post-graduation. Hence, educators and researchers have taken interest in the success of first-year college students in order to help these students transition from high school to college, and from college to the world of work. Factors associated with first-year college students' success include membership in learning communities and variables such as gender and ethnicity (Zheng, Saunders, Shelley, &amp; Whalen, 2002). Since it has been shown that ethnicity and other cultural factors can influence success and introduce additional issues and barriers, the career development of first-year college students of different racial/ethnic backgrounds is particularly salient (Alipuria, 2008). The psychological distress of these diverse first-year college students can be mitigated by positive parental/familial attachment (Kenny &amp; Perez, 1996), and research with Black and Latino men in their first year of college has indicated that parental encouragement and other factors helped these men choose to pursue college degrees (Contreras-Godfrey, 2009). Additionally, it has been demonstrated that a career development course can help decrease the dysfunctional career thoughts of diverse first-year students (Osborn, Howard, &amp; Leierer, 2007). Of particular interest to the success of these students are the factors of self-efficacy and educational aspirations. Self-efficacy refers to one's belief in one's ability to perform certain tasks (Bandura, 1977), and different areas of self-efficacy relevant to college students have included academic or educational self-efficacy (one's belief in her ability to do tasks associated with academic study), social self-efficacy (belief in his ability to perform social tasks), and career self-efficacy (belief in her ability to do career-oriented tasks) (c.f., Chung &amp; Sedlacek, 1999). Educational aspirations are the level of education an individual is striving towards, and is usually measured by asking people about what degree they plan to achieve. For instance, if a student is currently working towards earning a bachelor's degree, but hopes to earn a master's degree one day, then that person's educational aspiration is a master's degree. In the next two sections, literature pertaining to academic, social, and career self-efficacy as well as educational aspirations for diverse students will be examined. Racial/ethnic diversity of first-year college students and academic, social, and career self-efficacy. Chung and Sedlacek (1999) investigated the academic, social, and career self-appraisals (efficacy) of first-year college students of different racial/ethnic backgrounds, and found that White students had higher academic and social self-appraisals than Asian and Black students. Other studies of academic self-efficacy have identified this construct as related to performance and adjustment (Chemers, Hu, &amp; Garcia, 2001), student's feelings of class belonging (Freeman, Anderman, &amp; Jensen, 2007), and college persistence (Kahn &amp; Nauta, 2001). …</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1511297714</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1128/jb.123.1.47-55.1975</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Read &amp; McElhaney (1975)</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Glucose transport in Acholeplasma laidlawii B: dependence on the fluidity and physical state of membrane lipids</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>The uptake of D-glucose by Acholeplasma laidlawii B occurs via a mediated transport process, as shown by the following observations: (i) glucose permeates A. laidlawii B cells at a rate at least 100 times greater than would be expected if its entry occurred only by simple passive diffusion; (ii) the apparent activation energy for glucose uptake in A. laidlawii is significantly lower than that expected and observed for the passive permeation of this sugar; (iii) glucose uptake appears to be a saturable process; (iv) glucose uptake can be completely inhibited by low concentrations of phloretin and phlorizin; and (v) glucose uptake is markedly inhibited at temperatures above 45 C, whereas the passive entry of erythritol continues to increase logarithmically until at least 60 C. The metabolism of D-glucose by this organism is rapid and, at low glucose concentrations, the intracellular radioactivity derived from D-[14-C]glucose is at any given time a reflection of the net effect of glucose transport, glucose metabolism, and loss from the cell of radioactive metabolic products. Care must thus be taken when attempting to determine the rate of glucose transport by measuring the accumulation by the cells of the total radioactivity derived from D-[14-C]glucose. The rate of uptake of D-glucose by A. laidlawii B cells is markedly dependent on the fatty acid composition and cholesterol content of the plasma membrane and exhibits a direct dependence on the fluidity of the membrane lipids as measured by their reversible, thermotropic gel to liquie-crystalline phase transition temperatures. In contrast to the transport rates, the apparent activation energy for glucose uptake above the phase transition temperature is not dependent on membrane lipid composition. At the temperature range within the membrane lipid phase transition region, the apparent activation energy of glucose uptake is different from the activation energy observed at temperatures above the phase transition. This may reflect the superimposed operation within the phase transition region of more than one temperature-dependent process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1572562311</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/hsp.2010.a405438</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Treadgold (2010)</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Byzantine Exceptionalism and Some Recent Books on Byzantium</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Byzantine Exceptionalism and Some Recent Books on Byzantium Warren Treadgold (bio) Jonathan Shepard, ed., The Cambridge History of the Byzantine Empire, c. 500-1492 (Cambridge University Press, 2008). Elizabeth Jeffreys with John Haldon and Robin Cormack, eds., The Oxford Handbook of Byzantine Studies (Oxford University Press, 2008). John Haldon, ed., A Social History of Byzantium (Wiley-Blackwell, 2009). Judith Herrin, Byzantium: The Surprising Life of a Medieval Empire (Princeton University Press, 2007). Edward Luttwak, The Grand Strategy of the Byzantine Empire (The Belknap Press of Harvard University Press, 2009). Timothy E. Gregory, A History of Byzantium, 2nd ed. (Wiley-Blackwell, 2010). Anthony Kaldellis, Hellenism in Byzantium: The Transformations of Greek Identity and the Reception of the Classical Tradition (Cambridge University Press, 2007). In 1066 the Normans invaded England and won a decisive victory. While they claimed that their actions were justified, they held the land essentially by right of conquest and displaced nearly everyone who had been ruling it. After a few years they secured the whole kingdom and profoundly reshaped the society and culture of the country, where their descendants still reign. Likewise, in 1203-4 the men of the Fourth Crusade invaded the Byzantine Empire and won a decisive victory. While they claimed that their actions were justified, they held the land essentially by right of conquest and displaced nearly everyone who had been ruling it. Yet they never secured most of the empire, lost practically all of it by 1261, and had scarcely any lasting impact on the society or culture of the Byzantine world. Various reasons can be given for the success of the Norman Conquest, and historians can easily imagine how it might have failed. What is much harder to imagine is how the Crusaders' conquest of Byzantium could ultimately have succeeded, at least without far more accommodation of the Byzantines or massive Western European immigration. Though the Normans spoke a different language from the English, both groups were part of a Western European political, social, and cultural system that was also shared by the Crusaders of 1204. This system was, however, incompatible with the Byzantine political, social, and cultural system, which soon expelled the Crusaders as an alien body. Byzantium was not just another medieval European country, like England or France, but a world of its own. The contrasts between Byzantium and the West are still a problem for authors of general books on Byzantium, including the recent batch of seven reviewed here. Most Byzantinists know how different Byzantium was, but many prefer not to emphasize the fact. Scholars like to be fashionable, and fashions are set by the majority who study the medieval and modern West, the source of concepts like feudalism and nationalism. While today we are all aware of non-Western cultures, we think of Byzantium as Western, certainly in comparison with China, pre-Columbian America, or sub-Saharan Africa. This is presumably why the American Historical Review lists books on Byzantium under "Europe: Ancient and Medieval," though most Byzantine territory was in Asia or Africa (and Constantinople straddled Europe and Asia). Byzantinists may reasonably fear that insisting their subject is not fully Western could leave it without a place in either Western or non-Western history. The Cambridge History of the Byzantine Empire comes very close to treating Byzantium as just another medieval European country, even if such treatment results mainly from the opportunism of its publisher. Of the book's twenty-seven parts, only eight (plus the introduction) were actually written for it. Three more parts are adapted from the final volume of The Cambridge Ancient History (2000) and sixteen more from the seven-volume New Cambridge Medieval History (1995-2005), which has short chapters on Byzantium in each period. (The old Cambridge Medieval History had a separate volume on Byzantium.) The editor of the Cambridge History, Jonathan Shepard, explains that an editor at Cambridge University Press "encouraged me to take on remodelling materials already available" (xvii). While the press profits from selling libraries the same material twice, the benefits to scholarship are less clear. In his introduction Shepard struggles to lend the book some coherence.1 He explains its beginning with the year 500 by citing the fall...</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2121673844</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/13563460903586202</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Caney (2010)</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Markets, Morality and Climate Change: What, if Anything, is Wrong with Emissions Trading?</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abstract This article explores whether emissions trading is morally defensible To do so it examines three different kinds of moral consideration Which might be used to judge emissions trading. The first kind makes what I term an 'ethical' objection, and holds that utilising market instruments to combat climate change is inherently objectionable. I examine three versions if this 'ethical' argument but find none persuasive. The remainder of the article considers two additional moral considerations, both of which appeal to principles of justice. Drawing on these it argues that emissions trading can be morally defensible but only it it meets these two demanding moral criteria. First, the costs of emissions trading should be shared equitably. The paper examines what this might mean and criticises the leading account of what constitutes a just distribution of emissions Second, emissions trading must make an appropriate contribution to climate mitigation. A number of ways in which current emissions trading schemes signally fail to meet this second criterion are then noted. The article concludes that emissions trading schemes could in principle be morally defensible but only if new schemes are introduced or existing schemes are radically redesigned in line with the principles outlined in the article. Keywords: emissions tradingethicsjusticeclimate change Notes An earlier version of this paper was presented at the 'Commodifying Carbon' Conference (University of Oxford, 16 July 2007). I am grateful to the two respondents on my paper, Timmons Roberts and Henry Shue, for their instructive comments. A much later version was presented at the workshop on 'Global Emissions Trading: Ethics, Policy and Politics' (University of Warwick, 8 July 2009). I am grateful to the participants for their suggestions. I am especially indebted to Ed Page for a number of very illuminating discussions of the themes examined in this paper and to the anonymous referee for this journal for their extremely helpful comments. The paper was completed during my tenure of an ESRC Climate Change Leadership Fellowship (2008–11) and I am grateful to the ESRC for its support. Note that emissions trading schemes are not the only market instrument being employed to mitigate climate change. Another potentially important market instrument is the United Nations' programme on Reducing Emissions from Deforestation and Forest Degradation in Developing Countries (UN-REDD). See on this http://www.undp.org/mdtf/un-redd/overview.shtml [last accessed 11 December 2009]. REDD is one specific version of what is known as 'payment for environmental services' (PES). For an overview of PES see Engel et al. Citation(2008). My focus in this article is on emissions trading but some of the issues raised are also relevant for an appraisal of REDD and other schemes which involve paying for environmental services. I am grateful to an anonymous referee for pressing me on this point. This sentence needs to be heavily qualified for the impoverished may be unfree not to sell emissions. That is, their economic disadvantage may compel them to sell their emissions. I have argued elsewhere that there is a duty of justice to eradicate global poverty (Caney Citation2005) and if this were honoured then this concern would be met. One might also address this concern either by allocating large numbers of emissions permits to the disadvantaged or by auctioning the permits and distributing the revenues to the disadvantaged (Beckerman and Pasek Citation2001: 183–4). These issues are examined in section IV. Simmel (Citation1990 [1907]: 286) illustrates his argument through an historical analysis of different systems of payment, such as feudalism. He points out that an economy where persons are required to transfer a certain specific good (such as 'a quantity of beer or poultry or honey') 'thereby determines the activity of the … [duty-bearer] in a certain direction' and, as such, limits their liberty more than one where one can discharge one's debts though payment of money. A second, quite different reason for analysing emissions trading in the light of other policies is that it is often the case that one policy, whilst successful on its own, may undercut the efficacy of a second policy. They may work well separately but undermine each when adopted together. See Carbon Disclosure Project (http://www.cdproject.net/) and Carbon Monitoring for Action (http://carma.org/) [both last accessed on 26 June 2009]. See also the interesting discussion by Thaler and Sunstein in Nudge (Citation2008: 188–92). For the claim that they should be inalienable see Shue (Citation1993: 58). For instructive comparisons of different schemes see Roberts and Thumim (Citation2006: section 2) and Bottrill Citation(2006). For informative overviews see House of Commons Environmental Audit Committee Citation(2008) and DEFRA's analysis of individual carbon permit schemes (now available at the website of the Department for Energy </t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4297163900</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48550/arxiv.2209.11604</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Tang et al. (2022)</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Neural Clamping: Joint Input Perturbation and Temperature Scaling for Neural Network Calibration</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Neural network calibration is an essential task in deep learning to ensure consistency between the confidence of model prediction and the true correctness likelihood. In this paper, we propose a new post-processing calibration method called Neural Clamping, which employs a simple joint input-output transformation on a pre-trained classifier via a learnable universal input perturbation and an output temperature scaling parameter. Moreover, we provide theoretical explanations on why Neural Clamping is provably better than temperature scaling. Evaluated on CIFAR-100 and ImageNet image recognition datasets and a variety of deep neural network models, our empirical results show that Neural Clamping significantly outperforms state-of-the-art post-processing calibration methods.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2899399694</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48550/arxiv.1811.00079</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Chen et al. (2018)</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Predictive Modeling of Biomedical Signals Using Controlled Spatial Transformation</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>An important paradigm in smart health is developing diagnosis tools and monitoring a patient's heart activity through processing Electrocardiogram (ECG) signals is a key example, sue to high mortality rate of heart-related disease. However, current heart monitoring devices suffer from two important drawbacks: i) failure in capturing inter-patient variability, and ii) incapability of identifying heart abnormalities ahead of time to take effective preventive and therapeutic interventions. This paper proposed a novel predictive signal processing method to solve these issues. We propose a two-step classification framework for ECG signals, where a global classifier recognizes severe abnormalities by comparing the signal against a universal reference model. The seemingly normal signals are then passed through a personalized classifier, to recognize mild but informative signal morphology distortions. The key idea is to develop a novel deviation analysis based on a controlled nonlinear transformation to capture significant deviations of the signal towards any of predefined abnormality classes. Here, we embrace the proven but overlooked fact that certain features of ECG signals reflect underlying cardiac abnormalities before the occurrences of cardiac disease. The proposed method achieves a classification accuracy of 96.6% and provides a unique feature of predictive analysis by providing warnings before critical heart conditions. In particular, the chance of observing a severe problem (a red alarm) is raised by about 5% to 10% after observing a yellow alarm of the same type. Although we used this methodology to provide early precaution messages to elderly and high-risk heart-patients, the proposed method is general and applicable to similar bio-medical signal processing applications.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1754248349</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Guarna et al. (1983)</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2,2'-dihydroxy-3,3'-di-t-butyl-5,5'-dimethoxydiphenyl, a new metabolite of 2-t-butyl-4-methoxyphenol in the rat.</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>A method has been developed for the determination of 2-t-butyl-4-methoxyphenol (BHA) and its metabolite di-BHA in rat plasma and tissues using gas chromatography-mass spectrometry with selected ion detection. Deuterium labeled BHA-d3 and di-BHA-d6 were synthesized and added to the tissue specimens as internal standards before methylene chloride extraction. The extracted compounds were derivatized with trifluoroacetic anhydride and analyzed by selected ion monitoring. Rat plasma and intestine concentrations of BHA and di-BHA at different times (0.15-24 hr) following the oral administration of a single dose of BHA (2 g X kg-1 body weight) were determined. Both BHA and di-BHA were present in all the analyzed samples, their concentration peaking within 1 hr after treatment. While in the intestine BHA levels were about 10 times higher than those of di-BHA, in the plasma they were between 100 and 15 times higher. These findings indicate that rat intestine is capable of transforming in vivo BHA into di-BHA and suggest that this organ is the major site where this transformation occurs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2075007701</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/00005373-199607000-00001</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Hassett (1996)</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Do It Right, Do the Right Thing</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Ladies and gentlemen, members of EAST, and guests! In preparation for this address, I reviewed my predecessors presentations. Dr. Maull urged us to dispel fatalism in 1989. [1] Dr. Harris searched for values in our changing times. [2] Dr. Jacobs identified forces that shape trauma care. [3] Dr. Champion reflected on directions of trauma care. [4] Dr. Schwab identified the largest sociomedical problem of the turn of the century. [5] Dr. Rhodes gave practical guidelines for trauma care. [6] Dr. Boyd reported on the principles of action. [7] Each was a prescient view of the challenges to trauma care. I urge each member to review their comments. I will focus on a continuation of their theme and offer an action plan. I have decided to do so because we stand on the threshold of a new century. Each of us has come to this place in time with unique experiences of mentorship, academic preparation, and clinical experience. Our common thread is our dedication to the trauma patient. Each will be asked to address issues and challenges daily. How we do so and what we do will effect generations of future trauma patients. At the turn of the century we are facing questions like: Can we define life, liberty and the pursuit of happiness specifically? Can we reliably ensure access to health care for all? Our sense of mission and vision of the future are important components as we deal with the challenges and questions. My presidential address is a call to active advocacy. I implore you to "Do it right, do the right thing". Modern health care advocates autonomy not cohesiveness. It values patient choice but reduces patient options. It promotes the bottom line and not people. It sees outcome through economic glasses. It replaces a commitment to excellence with a mandate for equity. It does not ensure equal health care to the economically challenged. It is a bean counters plan concocted by people who don't know beans about health care. This is the result of society's failure to address basic issues of health care and economy. Largely, it is a failure of professional and political leadership. Professionally, many of our colleagues take more than they give. Politically, many of our leaders use health care and social systems for their own gain. Somehow, we have lost the vision of our mission and responsibility. Figure 1Figure 1Entrepreneurs found health care in the seventies. The medical market place was an open and largely unregulated area. It soon became dominated by technology that superseded the normally accepted "doctor skills". Hospitals became technological marvels. Public policy for Medicare and Medicaid created a funding source that could supply this market with sufficient funds to make entrepeneurial investment reasonable. Some define this entrepreneurship as an organized license to steal. Others see it as the natural order of life. In the initial phases, it provided resources and fulfilled the dream of universal health care, where every malady could be addressed directly. In the later phases, it created circumstances where health care devices have astronomical prices and minor problems have million dollar responses. Decisions are directed by the corporate bottom line and controlled by the fear of litigation. The process has made us all commodities to be managed and used. Health care is provided according to the number of covered lives per annum. Health care providers are seen in terms of the number of contact hours per day. We are part of a system of health care delivery that sets a priority on certain types of care. Delays in delivering care are economically driven. The bottom line is important. The question is whose bottom line is being valued in the decision process. Students are taught more about the cost per dose than the pharmacology of the drug given. They are indoctrinated to careers and training programs are modified according to the mantra of managed care. Residents are concerned with a "niche market," attractiveness of their skills to their eventual employer, and their benefits package. Attending staff are evaluated according to the length of stay of their patients or the number of resource days utilized. The natural result is a struggle for the control of health care. In many ways, health care providers and patients are in a "free fire zone" in a modern economic war. Neither controls the environment. Both are victims and victimize the system simultaneously. Today, the other side is winning. However, all is not lost. Groups of health care professionals are addressing issues aggressively. The Phoenix analogy that a better health care system may emerge from the ashes of the past health care system has become a popular concept in groups who accept the challenge of change. The major goals of these groups are intelligent organization, focus, and outcome-based service. None of the issues are new. Most of the issues, challenges, and responses have been with us for a long time. The history of the response to change in m</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
           <t>https://openalex.org/W2993247134</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>https://doi.org/10.46650/wa.10.2.774.%p</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>Nugraha (2019)</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D167" t="inlineStr">
         <is>
           <t>PANDANGAN GURU TERHADAP PEMBELAJARAN BERORIENTASI REVOLUSI INDUSTRI 4.0 DI SEKOLAH DASAR</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>Abstrak_x000D_
 Penelitian ini bertujuan untuk mendeskripsikan pandangan guru terhadap pembelajaran berorientasi revolusi industri 4.0 di sekolah dasar. Pandangan tersebut dapat berupa argumen maupun asumsi pribadi berdasarkan sudut pandang dari guru yang bersangkutan. Jenis penelitian ini adalah deskriptif kualitatif. Teknik pengumpulan data yang digunakan adalah observasi, pedoman wawancara, dokumentasi, dan catatan lapangan. Subjek dalam penelitian ini adalah para guru di SD Dwijendra Denpasar. Analisis data yang digunakan meliputi tahap reduksi data, penyajian data, dan verifikasi data. Hasil dari penelitian adalah (1) guru menyambut baik fenomena revolusi industri 4.0 yang memberikan dampak terhadap reorientasi pembelajaran di kelas; (2) konsep pembelajaran yang diharapkan terwujud adalah pembelajaran kolaboratif dengan mengoptimalkan fungsi ICT media, keterbukaan terhadap berbagai sumber pengetahuan, hingga meningkatkan level kognitif siswa; (3) terwujudnya pembelajaran berorientasi revolusi industri 4.0 di sekolah dasar adalah untuk membentuk gaya belajar yang efektif serta membangun keterampilan abad 21 yakni 4C bagi diri peserta didik; dan 4) dibutuhkan dukungan dari seluruh elemen pemegang otoritas pendidikan utamanya dalam penyediaan fasilitas dan pendampingan/pelatihan kepada guru-guru._x000D_
@@ -4400,162 +4732,212 @@
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2068005276</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1088/0022-3735/22/1/007</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Reinert et al. (1989)</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Frequency tuning and data processing of a high resolution colour-centre laser spectrometer using modern microcomputer systems</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>A broadly tunable CW colour-centre laser spectrometer is described. The tuning mechanism and the problems for broad-band continuous single-mode tuning (about 50 cm-1 in two hours) are discussed. Calibrating and scanning of a laser is obtained by a 68000-VME-Bus microcomputer system (Eltec, Eurocom 3), while the frequency calibration and evaluation is done by an 80286 personal computer (Hewlett Packard, Vectra). Some structures for comfortable data processing of spectral files from continuously tunable lasers are presented. Measurements of frequency stability and the linearity of the tuning behaviour show that the spectrometer can be used routinely for Doppler-limited spectroscopy (minimum step width 10 MHz) of molecular transitions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2748014562</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1371/journal.pone.0184010</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Oliveira et al. (2017)</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Paracoccin distribution supports its role in Paracoccidioides brasiliensis growth and dimorphic transformation</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Paracoccidioides brasiliensis yeast was reported to express paracoccin, a GlcNAc-binding protein that displays N-acetyl-β-d-glucosaminidase (NAGase) activity. Highly specific anti-paracoccin antibodies have been previously used to examine the localization of paracoccin in yeast and inhibit its growth in vitro. In the present study, anti-paracoccin antibodies were used to characterize, by scanning confocal microscopy, the distribution of paracoccin in P. brasiliensis hyphae, transition forms from hyphae to yeast, and mature yeast. In the mycelial phase, paracoccin was detected mainly in the hyphae tips, where it demonstrated a punctate distribution, and was associated with the cell wall. During the first 48 hours after a temperature shift from 26°C to 37°C, paracoccin expression in the differentiating hyphae was mainly detected in the budding regions, i.e. lateral protrusions, and inside the new daughter cells. There was an increased number of chlamydoconidia that expressed a high concentration of paracoccin on their surfaces and/or in their interiors 72–96 hours after the temperature shift. After 120 hours, yeast cells were the predominant form and their cytoplasm stained extensively for paracoccin, whereas Wheat Germ Agglutinin (WGA) staining was predominant on their exterior walls. After 10 days at 37°C, the interior of both mother and daughter yeast cells, as well as the budding regions, stained intensely for paracoccin. The comparison of mRNA-expression in the different fungal forms showed that PCN transcripts, although detected in all evaluated morphological forms, were higher in hypha and yeast-to-hypha transition forms. In conclusion, the pattern of paracoccin distribution in all P. brasiliensis morphotypes supports prevalent beliefs that it plays important roles in fungal growth and dimorphic transformation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>https://openalex.org/W2141971286</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>https://doi.org/10.1128/jb.181.1.161-166.1999</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>Härtig &amp; Zumft (1999)</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>Kinetics of &lt;i&gt;nirS&lt;/i&gt; Expression (Cytochrome &lt;i&gt;cd&lt;/i&gt; &lt;sub&gt;1&lt;/sub&gt; Nitrite Reductase) in &lt;i&gt;Pseudomonas stutzeri&lt;/i&gt; during the Transition from Aerobic Respiration to Denitrification: Evidence for a Denitrification-Specific Nitrate- and Nitrite-Responsive Regulatory System</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>ABSTRACT After shifting an oxygen-respiring culture of Pseudomonas stutzeri to nitrate or nitrite respiration, we directly monitored the expression of the nirS gene by mRNA analysis. nirS encodes the 62-kDa subunit of the homodimeric cytochrome cd 1 nitrite reductase involved in denitrification. Information was sought about the requirements for gene activation, potential regulators of such activation, and signal transduction pathways triggered by the alternative respiratory substrates. We found that nirS , together with nirT and nirB (which encode tetra- and diheme cytochromes, respectively), is part of a 3.4-kb operon. In addition, we found a 2-kb monocistronic transcript. The half-life of each of these messages was approximately 13 min in denitrifying cells with a doubling time of around 2.5 h. When the culture was subjected to a low oxygen tension, we observed a transient expression of nirS lasting for about 30 min. The continued transcription of the nirS operon required the presence of nitrate or nitrite. This anaerobically manifested N -oxide response was maintained in nitrate sensor (NarX) and response regulator (NarL) knockout strains. Similar mRNA stability and transition kinetics were observed for the norCB operon, encoding the NO reductase complex, and the nosZ gene, encoding nitrous oxide reductase. Our results suggest that a nitrate- and nitrite-responsive regulatory circuit independent of NarXL is necessary for the activation of denitrification genes.</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>https://openalex.org/W2041726850</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/0020-7055(74)90003-5</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>Frankevich &amp; Yakovlev (1974)</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>Radiation-induced conductivity in organic solids</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>The radiation-induced conductivity of non-polar organic solids is discussed, attention being focused mainly on solid hydrocarbons. Three types of electrical properties and their changes under irradiation are considered: an increase in the electrical conductivity (σr) of solids directly under irradiation, the appearance of photoconductivity (σf) due to the action of the irradiation, and an increase in the conductivity when irradiated specimens are warmed up. The experimental results on σr are compared with the predictions of the simple Rose-Fowler model which describes the main features of radiation-induced conductivity but fails at low temperatures where it predicts too high a level of trap filling. The adequate description of σr is shown to follow a simple model where a single trapping and recombination level is involved. The main difference in the current carrier generation between organic solids and inorganic semiconductors consists in the spatially inhomogeneous generation of electrons and holes for the former. When an organic material with high density of traps is irradiated, electron-ion pairs can be stabilized by trapping. This can result in all electrons (with Ge ≈ 3) taking part in the conductivity current through the specimen excited by irradiation pulses but the sample becomes polarized due to their trapping. The superposition of stabilized pairs in continuous irradiation permits them to be involved in the conductivity process in spite of the inability of electrons to leave their “own” ions in any single pair. The radiation-induced high voltage polarization phenomena which are due to the spatially limited motion of charges in molecular solids are described. The radiation-induced photoconductivity is caused by the excitation by photons of trapped current carriers. Methods are described which permit monitoring of the stabilized charges and the generation of new traps by measuring the photoconductivity. The spectral response of σf gives evidence of a narrow energy distribution of the traps which exist in pure molecular solids. New traps including free radicals are produced under irradiation, causing a shift of the excitation spectrum to shorter wavelenghts. When a current carrier is scavenged by a deep trap such as a free radical, thermal excitation is usually unable to release it. The thermally stimulated conductivity in such a case is shown to be caused by the motion of the filled traps, at phase transition temperatures. On étudie la conductivité des solides organiques non-polaires induite par le rayonnement, envisageant surtout les hydrocarbures solides. On considère trois types de conductivité électrique et ses variations sous rayonnement: l'augmentation de la conductivité électrique (σr) des solides durant leur irradiation, l'apparition de la photo-conductivité (σf) due à l'action du rayonnement, et l'augmentation de la conductivité lors du réchauffement des échantillons. On compare les données expérimentales sur σr aux prédictions résultant du modéles imple de Rose-Fowler; ce dernier décrit les caractéristiques principales de la conductivité induite par le rayonnement, mais ce modéle échoue aux températures basses où il prédit un niveau trop élevé de remplissage des pièges. On montre qu'on peut décrire σr d'une manière adequate en utilisant un modèle simple comprenant un seul niveau de piégeage et de recombinaison. En ce qui concerne les porteurs de charge la différence principale entre les solides organiques et les semi-conducteurs inorganiques réside dans l'inhomogénité spatiale de la genése des électrons et des lacunes dans les premiers. Lorsqu'une substance organique à haute densité de pièges est irradiée, une stabilisation des paires électron-ion peut être causée par le piégeage, en sorte que tous les électrons (avec Ge≈3) prennent part au courrant de conductivité à travers l'échantillon excité par les impulsions du rayonnement ionisant; cependant l'échantillon devient polarisé du fait de ce piégeage. La superposition des paires stabilisées au cours de l'irradiation continue leur permet de prendre part au processus de conductivité malgré le fait que les électrons d'une paire quelconque ne peuvent pas quitter leur “propres” contre-ions. On décrit les phénomènes de polarisation sous haute tension induits par le rayonnement, dus à la mobilité spatiale limitée des charges dans les solides moléculaires. La photo-conductivité induite par le rayonnement est causée par l'excitation par les photons des porteurs de charge piégés. On décrit des méthodes permettant d'observer par des mesures de photo-conductivité les charges stabilisées et la formation de nouveaux pièges. La réponse spectrale de σf démontre l'étroite distribution en énergies des pièges dans les solides moléculaires purs. Des pièges nouveaux dus à des radicaux libres sont formés sous rayonnement, ce qui cause le déplacement des spectres d'excitation vers des longueurs d'ondes plus courtes. Lorsqu'un porteur de charge est piégé dans un</t>
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1512676493</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Fernández (2004)</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Lenguas extranjeras, escritura y desarrollo: un reto para el profesional de las ciencias médicas</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>The growing Cuban health sector collaboration with other countries as well as the revolution in
-information sciences has brought about the need to reconceptualize the role of learning how to write in
-foreign languages, English in particular, in Higher Medical Education. The present work explores the
-general contribution of this type of competence to the learner of foreign languages and gives particular
-attention to the usefulness of this skill to the health professional.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2954581781</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/tii.2019.2925323</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Zeinal‐Kheiri et al. (2020)</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Residential Load Disaggregation Considering State Transitions</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Information about power consumption patterns of devices, helps the residential consumers manage their energy usage. Nonintrusive load monitoring is an effective tool to extract the consumption patterns from the measured aggregated data at the meter. In this paper, an optimization-based method is proposed to disaggregate the total load, using low frequency data. The proposed algorithm is enhanced by enforcing the power profiles of appliances to be piecewise constant over specific time durations. Moreover, the state transitions of the appliances are determined and then employed as the optimization constraints to improve the estimation results. The proposed method is evaluated using almanac of minutely power data set (AMPds) and reference energy disaggregation data set (REDD) datasets by several performance metrics. Results indicate that the designed algorithm is able to recognize the frequently varying appliances in spite of piecewise constancy presumption. Furthermore, breaking down the optimization problem to the smaller parts enhances the ability of the algorithm to be operated in real time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1513731821</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Wilson (2009)</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Efficient Employment of Imperfect Search Sensors in Complex Environments</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Abstract : Defense planners must strive to develop and incorporate new, efficient procedures to allocate scarce resources in varied complex environments. We consider two discrete-time, discrete-space search effort allocation situations. Both involve the employment of an imperfect sensor, which is subject to both false-positive and false-negative errors. The area of interest, comprised of several disjoint area-cells, contains a single target of interest. In the first situation, the target moves according to a Markovian transition matrix, which is unknown to the sensor operator. The objective is to estimate the target's steady-state distribution, using only the sensor's detection signals and knowledge of its false-positive and false-negative rates. The second situation considers a stationary target, wherein the objective is to determine the area-cell occupied by the target, in the fewest expected number of investigations, to within certain operator-prescribed error tolerances. We develop an adaptive algorithm based on stochastic approximation for the first situation, and show that the resultant rate of error in determining target presence/absence in any area-cell converges to zero at the fastest possible rate. We propose a sequential elimination procedure for the second situation, which provides an efficient determination of target location and guarantees its error rate not to exceed the operator-prescribed tolerance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2274534862</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/resp.12749</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Jo et al. (2016)</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Year in review 2015: Interstitial lung disease, pulmonary vascular disease, pulmonary function, sleep and ventilation, cystic fibrosis and paediatric lung disease</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>The diagnosis and treatment of interstitial lung diseases (ILD) have undergone revolution in 2015, with the new antifibrotic treatments pirfenidone and nintedanib now incorporated into clinical practice guidelines for the treatment of idiopathic pulmonary fibrosis (IPF).1 This follows their pivotal phase III trials in 20142, 3 that showed, for the first time, slowing of disease progression in this devastatingly fatal disease. While pirfenidone had been licenced in Japan since 2008 and Europe since 2011, both drugs gained Federal Drug Administration (FDA) approval in the United States in 2014, heralding a new era in the management of IPF worldwide. This change in the paradigm of IPF management prompted a comprehensive and timely review series this year in Respirology, focusing on the idiopathic interstitial pneumonias (IIP),4-8 an important subset of ILD. In this series, Jacob et al.5 highlight the three cardinal features of classical usual interstitial pneumonia (UIP) on high-resolution computed tomography (HRCT) scan as honeycomb cysts, traction bronchiectasis and volume loss of the lung parenchyma. They also discuss the current conundrum of ‘possible UIP’: as clinicians, we are currently faced with guidelines that recommend a surgical lung biopsy for further characterization if the HRCT is not classical. However, in reality, only a minority of patients undergo this procedure. With Fell et al.9 showing in patients without definite honeycomb change, that an age greater than 70 years has a positive predictive value of 95% for UIP on lung biopsy; and sub-analysis from the INPULSIS trials showing that patients with possible UIP respond equally well to nintedanib, the clinical utility of the term ‘possible UIP’ comes into question. In a comprehensive review of the histopathology of IIP, Tabaj et al.7 also highlight the challenge posed on histopathology by the ‘certainty’ categories of UIP based on key features as stated in the 2011 IPF guidelines.10 In practice, while these categories provide a common lexicon for clinical trial enrolment, they may lead to confusion and/or oversimplification. These authors note the potential for transbronchial cyrobiopsy, a new diagnostic procedure for ILD patients, to obtain larger tissue fragments with little reported artefact than previously possible with conventional transbronchial biopsy. With promising results demonstrated in the diagnosis of ILD, this may become a feature of future ILD diagnostic algorithms.11 In a critical review of the revised IIP classification,12 Neurohr et al.6 emphasize the importance of a multidisciplinary approach to IIP diagnosis, integrating clinical, physiological, radiological and histopathological data. They also discuss the importance of the newly recognized category of ‘unclassifiable IIPs’ introduced in the 2013 IIP update, in which a disease behaviour classification has been proposed to allow a pragmatic management approach with suggested goals and monitoring strategies. With the rapid changes occurring in ILD diagnosis and management, this review series encapsulates the current standards and complexities involved in the care of ILD patients. The lack of standardized approach to IPF diagnosis and management is highlighted by Troy et al.13 who report a wide variation in diagnostic and therapeutic approach to IPF in 144 Australian and New Zealand respiratory physicians surveyed in 1999 and again in 2012–2013. In the latter survey, 34% of physicians responded that they would refer patients to subspecialist ILD clinics or multidisciplinary meetings and 33% would commence corticosteroids and/or azathioprine. While no antifibrotic therapies were available at the time of this survey, the results of the PANTHER-IPF trial14 showing increased harm with this immunosuppressive regime were available, and thus, they illustrate the fast pace at which IPF management is changing and delay with which recommendations are being translated to clinical practice. The authors argue that there is a need to standardize the approach to diagnosis and treatment of IPF patients. The need for novel tools to enhance our diagnosis of ILDs is apparent and was explored by Bhattachryya et al.15 who reported an algorithm to visually transform the breath sounds of patients with diffuse parenchymal lung disease compared with normal subjects. While this study showed 100% accuracy in differentiating the normal (n = 20) from the abnormal (n = 8), the accompanying editorial by Joshi16 concludes that this algorithm is unlikely to be of any additional value above traditional auscultation. Their transformation of sound to an interpretable visual image, however, shows ingenuity and promise for future medical and educational applications. Diagnostic challenges facing respiratory physicians extend to the granulomatous lung diseases (GLD) with a diverse range of aetiologies reported. In a single-centre retrospective study of 190 GLD patients with surgical lung biopsies, Nazarullah et al.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2564975307</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ejmech.2016.12.057</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Elkamhawy et al. (2017)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Discovery of 1-(3-(benzyloxy)pyridin-2-yl)-3-(2-(piperazin-1-yl)ethyl)urea: A new modulator for amyloid beta-induced mitochondrial dysfunction</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Herein, we report a new series of aliphatic substituted pyridyl-urea small molecules synthesized as potential modulators for amyloid beta (Aβ) induced mitochondrial dysfunction. Their blocking activities against Aβ-induced mitochondrial permeability transition pore (mPTP) opening were evaluated by JC-1 assay which measures the change of mitochondrial membrane potential (ΔΨm). The inhibitory activity of sixteen compounds against Aβ-induced mPTP opening was superior or almost similar to that of the standard Cyclosporin A (CsA). Among them, 1-(3-(benzyloxy)pyridin-2-yl)-3-(2-(piperazin-1-yl)ethyl)urea (5x) effectively maintained mitochondrial function and cell viabilities on ATP assay, MTT assay, and ROS assay. Using CDocker algorithm, a molecular docking model presented a plausible binding mode for 5x with cyclophilin D (CypD) receptor as a major component of mPTP. Moreover, hERG and BBB-PAMPA assays presented safe cardiotoxicity and high CNS bioavailability profiles for 5x. Taken as a whole, this report presents compound 5x as a new nonpeptidyl mPTP blocker may hold a promise for further development of Alzheimer's disease (AD) therapeutics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2057511335</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.tsf.2004.11.088</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Rusu et al. (2005)</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Solar cells based on CCSVT-grown CuGaSe2—absorber and device properties</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>For solar cells based on CuGaSe2 (CGSe) polycrystalline thin films, a novel efficient chemical close-spaced vapor transport (CCSVT) technique is used to deposit the CGSe absorber. Clean and Mo-coated soda lime glass (SLG) substrates are used for the CGSe deposition. The CGSe thickness ranges from 1.6 to 1.9 μm and the corresponding [Ga]/[Cu] ratio of the thin films is adjusted within the range of 0.9–1.3. The high bulk homogeneity of the as-grown CGSe films is shown. Transmittance and reflectance measurements were performed to monitor the changes in the CGSe band gap as a function of composition. The optical spectra reveal a shift of the absorption edge towards longer wavelengths with increasing Ga content, as well as a broadening of the distinct structure corresponding to three band-to-band transitions characteristic for CGSe. These results are used for a discussion of the behaviour of the ZnO/CdS/CuGaSe2 solar cell photovoltaic parameters as well of the current transport. The transport mechanism is analysed on an our best solar cell device with an active area efficiency of 8.7%. For the first time, a thermally activated Shockley–Read–Hall recombination mechanism is observed for the CGSe-based solar cells in a large temperature region.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>https://openalex.org/W2048338070</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00018-012-1123-1</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Mo (2012)</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>MicroRNA regulatory networks and human disease</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>MicroRNAs are a class of naturally occurring small non-coding RNAs that control gene expression by a posttranscriptional repression mechanism [1–3]. Since their discovery [4–6], thousands of microRNAs have been identified to date in a variety of organisms. For example, over 1,000 human microRNAs are reported in miRBase version 18 (http://mirbase.org). Like protein-coding genes, microRNAs are transcribed mainly by polymerase II as long primary transcripts (pri-microRNAs) in the nucleus. However, distinct from protein-coding genes, they are subsequently cleaved to produce stem loop structured precursor molecules (pre-microRNAs) by the nuclear RNase III enzyme Drosha along with other factors [7]. The pre-microRNAs are then exported to the cytoplasm by exportin-5 [8], where the RNase III enzyme Dicer further processes them into mature microRNAs (~22 nt) and subsequently incorporated into the RNA-induced silencing complex (RISC) to exert silencing function. Evidence suggests that microRNAs target mRNAs mainly through translational repression or mRNA cleavage or altering mRNA stability. Unlike short interfering RNAs (siRNAs) that require almost identical sequences to targets to exert their silencing function, microRNAs usually require partial sequence homology to 3′-untranslated region (3′-UTR) of target genes. Because of this unique feature of microRNA targeting, a single microRNA can have multiple targets and thus, microRNAs could directly regulate a large number of protein-coding genes [9,10], providing a new layer of gene regulation mechanism._x000D_
 _x000D_
@@ -4571,501 +4953,529 @@
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4385484373</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.chemolab.2023.104928</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Stocchero (2023)</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>PLS for designed experiments</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>In many emerging new areas of research, for example in -omics sciences, complex data sets are generated implementing well-designed experiments with the aim to study the effects of factors on responses measured by high-through analytical platforms. The data sets are multivariate in their nature and require suitable data analysis techniques to be investigated. Partial Least Squares (PLS) regression has been developed and successfully applied to solve multivariate regression problems where data are correlated, redundant and noisy, but it is not able to take explicitly into account the experimental design used to generate the data. In this study, we adapt PLS to model data generated by crossed factorial designs. A new method based on constrained PLS2 regression and a type III sums of squares-like approach based on PLS2 are developed to treat orthogonal and non-orthogonal designs, respectively. Post-transformation and Procrustes analysis are applied to discover the 'latent' structure useful to investigate the relationships between factors and responses. The mathematical properties of the data decomposition, the inference process to assess the reliability of the model and some basic tools for model interpretation are presented and discussed. One simulated and two experimental data sets, one generated implementing an orthogonal design and one obtained by a non-orthogonal design, are investigated to show how the methodology works in practice.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2037483401</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1159/000026930</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Fiegl et al. (1999)</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Clinical Application of Molecular Cytogenetics in Solid Tumors</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Cytogenetics of solid tumors has been substantially improved by novel techniques such as interphase fluorescence in situ hybridization (FISH) and comparative genomic hybridization (CGH), the applications of which are summarized in this review with focus on clinical implications. In breast cancer, and similarly in carcinoma of the lung, pancreas and urinary bladder, FISH is of diagnostic value in diagnostic workup of primary and metastatic tumor material. Amplifications of erbB2, c-myc and 20q13, which are prognostically relevant in breast cancer, were rapidly and sensitively detected by molecular cytogenetics. In head and neck tumors, the phenomenon of field cancerization with accumulating genetic alterations was studied by interphase FISH, which could serve as a tool to identify premalignant lesions at risk of transformation. Prostatic cancer with a more aggressive behavior is significantly associated with changes involving chromosomes 7, 8, X and Y, with a great impact on therapeutic decisions. Isochromosome i(12p), specific for germ cell tumors, is sensitively detected by various novel approaches and may be the only feature characterizing very undifferentiated midline tumors of unknown origin, which are potentially cured with adequate treatment. Finally, the assessment by FISH of ploidy status and of N-myc amplification in neuroblastoma may also be helpful in applying a risk-adapted therapeutic strategy.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2058401981</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1121/1.2024954</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Soli et al. (1987)</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Evaluation of a multichannel cochlear implant</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>A wearable multichannel signal processor for stimulation of single-electrode cochlear implants has been field tested with two patients. Each channel in the processor, which is implemented in a digital signal processing chip, consists of a resonator followed by an instantaneous compressive nonlinearity. The channel outputs are digitally mixed for use with single-electrode implants. The resonators perform a spectral-to-temporal transformation of the input signal and the nonlinearities limit output level to emulate the response characteristics of normal auditory neurons. The resonator and nonlinearity parameters are adjusted to accommodate both the acoustic properties of speech sounds and the electrical dynamic range of the patient. Several processor configurations with different resonator and nonlinearity designs have been evaluated. The results of psychophysical tests, used to fit each processor configuration to the patient and measure speech performance in quiet and noise with each configuration, will be reported.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2022195500</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1038/nn.2145</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>McCann et al. (2008)</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Rapid and modifiable neurotransmitter receptor dynamics at a neuronal synapse in vivo</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>In vivo, synaptic receptor densities were maintained over minutes by a rapid exchange with nonsynaptic receptor pools and over hours through turnover. These changes and receptor dynamics may represent the initial phases of synaptic efficacy modulation before eventual structural modification involving spine growth or retraction. Synaptic plasticity underlies the adaptability of the mammalian brain, but has been difficult to study in living animals. Here we imaged the synapses between pre- and postganglionic neurons in the mouse submandibular ganglion in vivo, focusing on the mechanisms that maintain and regulate neurotransmitter receptor density at postsynaptic sites. Normally, synaptic receptor densities were maintained by rapid exchange of receptors with nonsynaptic regions (over minutes) and by continual turnover of cell surface receptors (over hours). However, after ganglion cell axons were crushed, synaptic receptors showed greater lateral mobility and there was a precipitous decline in insertion. These changes led to near-complete loss of synaptic receptors and synaptic depression. Disappearance of postsynaptic spines and presynaptic terminals followed this acute synaptic depression. Therefore, neurotransmitter receptor dynamism associated with rapid changes in synaptic efficacy precedes long-lasting structural changes in synaptic connectivity.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4393993509</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/molecules29071635</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Naumkin (2024)</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Metalloid–Organic Intermolecular Complexes with Charge State-Controlled Conformations</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Shape alterations of molecular systems, induced by their (electric) charging/discharging, could facilitate useful electronic and/or mechanical functions in molecular-scale devices and machines. The present study reports structures, stabilities, charge distributions, and IR spectra for a group of complexes of a main-group metalloid (boron) atom with hydrocarbon molecules. The considered systems include the smallest species demonstrating the basic principle of operation, as well as their size-extended analogues, generalizing it to larger counterparts based on such units. The system geometries vary considerably between neutral and ionic counterparts and exhibit two–three typical conformations related to twisting by up to about 90 degrees. The predicted structures correlate with specific infrared spectra, which can enable their experimental identification and transformation tracking. The above-mentioned characteristics suggest the potential utility of such systems for intermolecular switches, with the possible spectral monitoring of their functioning.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3133888037</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-3-030-59773-3_3</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Sciammarella et al. (2021)</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Experimental Observations on the Fracture of Metals</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>This paper deals with the onset of plasticity and the transition to fracture in metallic rectangular tensile specimens. The plastic instability manifests itself by the propagation of wave fronts that sweep the specimen and finally localize at a given site during the fracture process. The plastic instability is associated with changes in specimen geometry. In optical recordings, propagation and localization of structural instability manifest in the form of wide bands. The configuration of these bands is influenced by degradation of properties of a metal under analysis. Understanding the meaning of band configurations is vital for evaluating mechanical properties of a metal and its effective use. In this paper, a family of fringes called iso-derivatives is utilized to analyze the configuration and properties of the wide bands. The retrieval of the information contained in the wide bands depends on the spatial and temporal resolution of the recordings.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3137430892</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/er.6628</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Zhang et al. (2021)</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Numerical simulation of solid oxide fuel cells comparing different electrochemical kinetics</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">International Journal of Energy ResearchVolume 45, Issue 9 p. 12980-12995 RESEARCH ARTICLEOpen Access Numerical simulation of solid oxide fuel cells comparing different electrochemical kinetics Xiaoqiang Zhang, Xiaoqiang Zhang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorLei Wang, Lei Wang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorMayken Espinoza, Mayken Espinoza orcid.org/0000-0001-7809-8659 Facultad de Ingeniería Mecánica y Ciencias de la Producción, Centro de Energías Renovables y Alternativas, Escuela Superior Politécnica del Litoral, ESPOL, Guayaquil, EcuadorSearch for more papers by this authorTingshuai Li, Tingshuai Li orcid.org/0000-0002-9332-9299 School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, ChinaSearch for more papers by this authorMartin Andersson, Corresponding Author Martin Andersson [email protected] orcid.org/0000-0001-5057-4908 Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, Sweden School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, China Correspondence Martin Andersson, Department of Energy Sciences, Faculty of Engineering, Lund University, P.O. Box 118, SE-221 00 Lund, Sweden. Email: [email protected]Search for more papers by this author Xiaoqiang Zhang, Xiaoqiang Zhang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorLei Wang, Lei Wang Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, SwedenSearch for more papers by this authorMayken Espinoza, Mayken Espinoza orcid.org/0000-0001-7809-8659 Facultad de Ingeniería Mecánica y Ciencias de la Producción, Centro de Energías Renovables y Alternativas, Escuela Superior Politécnica del Litoral, ESPOL, Guayaquil, EcuadorSearch for more papers by this authorTingshuai Li, Tingshuai Li orcid.org/0000-0002-9332-9299 School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, ChinaSearch for more papers by this authorMartin Andersson, Corresponding Author Martin Andersson [email protected] orcid.org/0000-0001-5057-4908 Department of Energy Sciences, Faculty of Engineering, Lund University, Lund, Sweden School of Materials and Energy, University of Electronic Science and Technology of China, Chengdu, China Correspondence Martin Andersson, Department of Energy Sciences, Faculty of Engineering, Lund University, P.O. Box 118, SE-221 00 Lund, Sweden. Email: [email protected]Search for more papers by this author First published: 15 March 2021 https://doi.org/10.1002/er.6628Citations: 2 Funding information: Chinese Scholarship Council, Grant/Award Number: 201906070189; Stiftelsen aforsk, Grant/Award Number: 17-331 AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Summary Solid oxide fuel cells (SOFCs) produce electricity with high electrical efficiency and fuel flexibility without pollution, for example, CO2, NOx, SOx, and particles. Still, numerous issues hindered the large-scale commercialization of fuel cell at a large scale, such as fuel storage, mechanical failure, catalytic degradation, electrode poisoning from fuel and air, for example, lifetime in relation to cost. Computational fluid dynamics (CFD) couples various physical fields, which is vital to reduce the redundant workload required for SOFC development. Modeling of SOFCs includes the coupling of charge transfer, electrochemical reactions, fluid flow, energy transport, and species transport. The Butler-Volmer equation is frequently used to describe the coupling of electrochemical reactions with current density. The most frequently used is the activation- and diffusion-controlled Butler-Volmer equation. Three different electrode reaction models are examined in the study, which is named case 1, case 2, and case 3, respectively. Case 1 is activation controlled while cases 2 and 3 are diffusion-controlled which take the concentration of redox species into account. It is shown that case 1 gives the highest reaction rate, followed by case 2 and case 3. Case 3 gives the lowest reaction rate and thus has a much lower current density and temperature. The change of activation overpotential does not follow the change of current density and temperature at the interface of the anode and electrolyte and interface of cathode and electrolyte, which demonstrates the non-linearity of the model. </t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2010594747</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/349299.349318</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Wilken et al. (2000)</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Optimal instruction scheduling using integer programming</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>This paper presents a new approach to local instruction scheduling based on integer programming that produces optimal instruction schedules in a reasonable time, even for very large basic blocks. The new approach first uses a set of graph transformations to simplify the data-dependency graph while preserving the optimality of the final schedule. The simplified graph results in a simplified integer program which can be solved much faster. A new integer-programming formulation is then applied to the simplified graph. Various techniques are used to simplify the formulation, resulting in fewer integer-program variables, fewer integer-program constraints and fewer terms in some of the remaining constraints, thus reducing integer-program solution time. The new formulation also uses certain adaptively added constraints (cuts) to reduce solution time. The proposed optimal instruction scheduler is built within the Gnu Compiler Collection (GCC) and is evaluated experimentally using the SPEC95 floating point benchmarks. Although optimal scheduling for the target processor is considered intractable, all of the benchmarks' basic blocks are optimally scheduled, including blocks with up to 1000 instructions, while total compile time increases by only 14%.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2404098966</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Coughlan &amp; Perryman (2016)</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>50,000 Facebook views from a $30 investment: CYP-Media’s use of open practices to increase access to learning in the children and young people’s sector</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>In 2015 Tony Coughlan was awarded the Open Education Consortium award for Creative Innovation, recognising the impact of his CYP-Media project in using open educational practices (OEP) to increase access to learning in the children and young people’s sector. Core to CYP-Media is a blog (www.cyp-media.org) in which Tony curates and evaluates free e-learning, textbooks and journals for working with children of different ages and needs. The reach of these blog posts is maximised by dissemination through Facebook and Twitter. The CYP-Media.org blog cost only $30 to set up, yet its impact is substantial. The CYP-Media Facebook page has an average reach of 7,244 per item, with a maximum of about 500 shares or 50,000 views of an individual item, and Tony himself has been identified as one of the top 50 most influential social media-using professionals in UK higher education. CYP-Media shows how just one person can make a huge difference to achieving educational and social equity with a tiny financial investment and a commitment to openness. This paper outlines the conceptual background to CYP-Media, with its roots in Perryman and Coughlan’s (2013) ‘public open scholar’ research, Weller’s (2011) concept of the ‘digital scholar’, and the emerging practice and theories of digital curation. The paper details CYP-Media’s multi-platform social media strategy and the challenges encountered since the project’s inception in 2010, in addition to presenting a mixed methods analysis of CYP-Media’s reception within the children and young people’s sector. We conclude that openness does not have to be the province of institutions and organisations, or even smaller projects and that by listening to the needs of your target audience, rather than adopting a top-down approach, real educational transformation through OEP is within the reach of anyone.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2228530490</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Correa et al. (1982)</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Epidemiology of gastric carcinoma: review and future prospects.</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>The epidemiology of stomach cancer is reviewed and key events identified, including migrant population studies, the Jarvi-Laurén classification of gastric carcinoma, and application of this classification to comparative autopsy studies. The gradual transformation to the epidemiology of precancer lesions is sketched, and the studies in Colombia contributing to this transformation are described. An etiologic model based on the formation of carcinogenic N-nitroso compounds is proposed. Future work for investigators in the Department of Nariño (Colombia) to test and evaluate this hypothesis is described.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3013318899</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Федорович et al. (2013)</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Способы формирования модели выбора варианта трудового передвижения маршрутным транспортом</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>The questions of using the models of discrete choice for getting the function of travel line attractiveness in urban passenger transport route system when implementing the interval method of passengers’ service are considered. Two variants of the model for processing the results of studying passengers’ actual travel line choice are suggested. The availability of using regressive analysis for evaluating the coefficients of the route attractiveness model, which was created after the transformation of alternatives use frequency, is shown.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2576902401</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1103/physrevlett.118.237404</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Back et al. (2017)</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Giant Paramagnetism-Induced Valley Polarization of Electrons in Charge-Tunable Monolayer &lt;mml:math xmlns:mml="http://www.w3.org/1998/Math/MathML" display="inline"&gt;&lt;mml:msub&gt;&lt;mml:mi&gt;MoSe&lt;/mml:mi&gt;&lt;mml:mn&gt;2&lt;/mml:mn&gt;&lt;/mml:msub&gt;&lt;/mml:math&gt;</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>For applications exploiting the valley pseudospin degree of freedom in transition metal dichalcogenide monolayers, efficient preparation of electrons or holes in a single valley is essential. Here, we show that a magnetic field of 7 T leads to a near-complete valley polarization of electrons in a MoSe_{2} monolayer with a density 1.6×10^{12} cm^{-2}; in the absence of exchange interactions favoring single-valley occupancy, a similar degree of valley polarization would have required a pseudospin g factor of 38. To investigate the magnetic response, we use polarization resolved photoluminescence as well as resonant reflection measurements. In the latter, we observe gate voltage dependent transfer of oscillator strength from the exciton to the attractive Fermi polaron: stark differences in the spectrum of the two light helicities provide a confirmation of valley polarization. Our findings suggest an interaction induced giant paramagnetic response of MoSe_{2}, which paves the way for valleytronics applications.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1967674229</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/qua.24045</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Tarumi et al. (2012)</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Accelerating convergence in the antisymmetric product of strongly orthogonal geminals method</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Abstract Antisymmetric product of strongly orthogonal geminals (APSG) method is a wavefunction theory that can effectively treat the static electron correlation using two‐electron wavefunctions, called geminals. However, the APSG method has the problem of slow convergence in the optimization of the geminal function. In this study, we introduced the direct inversion in the iterative subspace (DIIS) method, for both closed‐ and open‐shell systems, for accelerating its convergence. Two types of error vectors, that is, unitary transformation and orbital gradient, were examined for the DIIS procedure. Numerical assessments revealed that the orbital‐gradient error vector shows better performance than the unitary‐transformation one. © 2012 Wiley Periodicals, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2086030592</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1186/1471-2377-12-119</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Guo et al. (2012)</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Memory and Executive Screening (MES): a brief cognitive test for detecting mild cognitive impairment</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Mild cognitive impairment (MCI), defined as a transitional zone between normal cognition and dementia, requires a battery of formal neuropsychological tests administered by a trained rater for its diagnosis. The objective of this study was to develop a screening tool for MCI.One hundred ninety seven cognitively normal controls (NC), one hundred sixteen patients with amnestic MCI -single domain (aMCI-sd), one hundred ninety five patients with amnestic MCI-multiple domain (aMCI-md), and two hundred twenty eight patients with mild Alzheimer's disease (AD) were evaluated by comprehensive neuropsychological tests and by the Memory and Executive Screening (MES).Correlation analysis showed that the three indicators of the MES were significantly negatively related with age (P&lt;0.05), yet not related with education (P&gt;0.05). There was no ceiling or floor effect. Test completion averaged seven minutes (421.14±168.31 seconds). The receiver operating characteristics (ROC) analyses performed on the aMCI-sd group yielded 0.89 for the area under the curve (AUC) (95% CI, 0.85-0.92) for the MES-total score, with sensitivity of 0.795 and specificity of 0.828. There was 81% correct classification rate when the cut-off was set at less than 75. Meanwhile, the aMCI-md group yielded 0.95 for the AUC (95% CI, 0.93-0.97) for the MES-total score, with sensitivity of 0.87 and specificity of 0.91, and 90% correct classification rate when the cut-off was set at less than 72.The MES, minimally time-consuming, may be a valid and easily administered cognitive screening tool with high sensitivity and specificity for aMCI, with single or multiple domain impairment.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W298697366</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Shang et al. (2015)</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>[Form tendency and bio-availability dynamics of Cu and Zn in different farm soils after application of organic fertilizer of livestock and poultry manures].</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Soil incubation experiments were conducted with different sources of manures containing heavy metals to evaluate the bioavailability of heavy metals (Cu and Zn) and their form transformation in different soils. This study may assist in developing strategies to ascertain the loads of heavy metals which entered into soils together with manures, and promote policies to evaluate the ecological risk in agriculture soils. The results showed that, during the six months of soil incubation, the pH value of acidic soil increased and the pH value of calcareous soil reduced. After adding chicken manures, the contents of available Cu in both calcareous and acid soils were significant lower than those in the equivalent inorganic salt treatments, but there was no significant difference between the treatments in the contents of available Zn in both calcareous and acid soils. Furthermore, there were also no significant differences between pig matures and the equivalent inorganic salt treatments in the contents of available Cu and Zn in both calcareous and acid soils. The results of form tendency showed that the main forms of Cu and Zn in both calcareous and acid soils, which entered into soils together with manures, were exchangeable, carbonate, Fe-Mn oxides, and organic. And the proportions of different heavy metals species in calcareous and acid soils were different with different manures sources. After six months of incubation, the contents of exchangeable and Fe-Mn oxides Cu, Zn were lower than those in the equivalent inorganic salt treatments, the contents of organics Cu and Zn were higher than those in the equivalent inorganic salt treatments, and other Cu and Zn forms in soils showed no difference with inorganic salt treatments.</t>
-        </is>
-      </c>
-    </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2746672532</t>
+          <t>https://openalex.org/W4385484373</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.chemolab.2023.104928</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Vestergaard &amp; Gertsen (2000)</t>
+          <t>Stocchero (2023)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>The Role of CI and Learning in a Radical Change Process:: Experiences from a longitudinal study of organizational change</t>
+          <t>PLS for designed experiments</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>In many emerging new areas of research, for example in -omics sciences, complex data sets are generated implementing well-designed experiments with the aim to study the effects of factors on responses measured by high-through analytical platforms. The data sets are multivariate in their nature and require suitable data analysis techniques to be investigated. Partial Least Squares (PLS) regression has been developed and successfully applied to solve multivariate regression problems where data are correlated, redundant and noisy, but it is not able to take explicitly into account the experimental design used to generate the data. In this study, we adapt PLS to model data generated by crossed factorial designs. A new method based on constrained PLS2 regression and a type III sums of squares-like approach based on PLS2 are developed to treat orthogonal and non-orthogonal designs, respectively. Post-transformation and Procrustes analysis are applied to discover the 'latent' structure useful to investigate the relationships between factors and responses. The mathematical properties of the data decomposition, the inference process to assess the reliability of the model and some basic tools for model interpretation are presented and discussed. One simulated and two experimental data sets, one generated implementing an orthogonal design and one obtained by a non-orthogonal design, are investigated to show how the methodology works in practice.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1976620726</t>
+          <t>https://openalex.org/W2037483401</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/ieem.2011.6117973</t>
+          <t>https://doi.org/10.1159/000026930</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Zou &amp; Zhang (2011)</t>
+          <t>Fiegl et al. (1999)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>A measurement model for collaboration between suppliers and manufacturers</t>
+          <t>Clinical Application of Molecular Cytogenetics in Solid Tumors</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>This research establishes a measurement model to solve the problems exist in the collaboration of the supply chain alliances, especially between suppliers and manufacturers. This paper firstly identifies 21 indicators including the profit level and the management level of the suppliers and manufacturers through expert brainstorming method and determines weight of each indicator by experts scoring. Then the authors get the collaboration index (C), comprehensive evaluation index (T) and obtain collaboration degree (D) including Primary, Transition, Intermediate, Good and Excellent. At last, the authors do empirical analyses using enterprise data to prove the model to be practical and give suggestions to the enterprises to keep their strategic collaboration.</t>
+          <t>Cytogenetics of solid tumors has been substantially improved by novel techniques such as interphase fluorescence in situ hybridization (FISH) and comparative genomic hybridization (CGH), the applications of which are summarized in this review with focus on clinical implications. In breast cancer, and similarly in carcinoma of the lung, pancreas and urinary bladder, FISH is of diagnostic value in diagnostic workup of primary and metastatic tumor material. Amplifications of erbB2, c-myc and 20q13, which are prognostically relevant in breast cancer, were rapidly and sensitively detected by molecular cytogenetics. In head and neck tumors, the phenomenon of field cancerization with accumulating genetic alterations was studied by interphase FISH, which could serve as a tool to identify premalignant lesions at risk of transformation. Prostatic cancer with a more aggressive behavior is significantly associated with changes involving chromosomes 7, 8, X and Y, with a great impact on therapeutic decisions. Isochromosome i(12p), specific for germ cell tumors, is sensitively detected by various novel approaches and may be the only feature characterizing very undifferentiated midline tumors of unknown origin, which are potentially cured with adequate treatment. Finally, the assessment by FISH of ploidy status and of N-myc amplification in neuroblastoma may also be helpful in applying a risk-adapted therapeutic strategy.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1486172358</t>
+          <t>https://openalex.org/W2058401981</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://doi.org/10.11606/t.76.2007.tde-25102007-114809</t>
+          <t>https://doi.org/10.1121/1.2024954</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Piola (2015)</t>
+          <t>Soli et al. (1987)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Tracing de aplicações paralelas com informações de alto nível de abstração</t>
+          <t>Evaluation of a multichannel cochlear implant</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Parallel computing has become an essential tool to achieve the performance needed by many scientific applications.The evaluation of performance factors of parallel applications is of utmost significant.This work presents the developement and implementation of a tool called Hierarchical Analyses which facilitates data collection for performance analysis of parallel programs with hierarchical information, i.e. the information is collected in the various abstraction levels used in the application program.The tool consists of a collection and a transformation modules.The collection module (HieraCollector) collects the data and stores it in XML format.The transformation module (HieraTransform) processes the collected data computing measurements to be used in the analysis of parallel code.To validate the tool, implementations adapted to MPI and the OOPS framework have been developed.Another contribution of this work is the development of a visual tool called HieraOLAP to help the user in the analysis of parallel program performance.</t>
+          <t>A wearable multichannel signal processor for stimulation of single-electrode cochlear implants has been field tested with two patients. Each channel in the processor, which is implemented in a digital signal processing chip, consists of a resonator followed by an instantaneous compressive nonlinearity. The channel outputs are digitally mixed for use with single-electrode implants. The resonators perform a spectral-to-temporal transformation of the input signal and the nonlinearities limit output level to emulate the response characteristics of normal auditory neurons. The resonator and nonlinearity parameters are adjusted to accommodate both the acoustic properties of speech sounds and the electrical dynamic range of the patient. Several processor configurations with different resonator and nonlinearity designs have been evaluated. The results of psychophysical tests, used to fit each processor configuration to the patient and measure speech performance in quiet and noise with each configuration, will be reported.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2592029734</t>
+          <t>https://openalex.org/W4220835724</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.32322/jhsm.1063623</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Mayes &amp; Freitas (2004)</t>
+          <t>Doğan et al. (2022)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Review of e-learning theories, frameworks and models. JISC e-learning models study report</t>
+          <t>The relationship between malignancy and Behçet's disease features</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>This review is designed to inform practitioners, policy developers and other stakeholders who want to reflect more deeply upon their practice or gain a greater understanding about how theory and practice can be mapped together. It is argued that reforming practice requires transformations of understanding of principles that are assumed – sometimes implicitly – in the practices. This review offers a framework for understanding where a particular implementation of e-learning is positioned in the complex current landscape of technology-enhanced teaching in UK HE/FE. It does so by attempting to offer a set of questions to be posed of an e-learning development – the answers to which reveal the underlying pedagogic and pragmatic assumptions.</t>
+          <t>Introduction: Behçet’s disease (BD) is an autoimmune, multisystemic vasculitis characterized by chronic inflammation. Autoimmune responses in BD could drive chronic inflammation which is a risk for malignant transformation. Some genetic, environmental, clinical features and immunosuppressive treatments in BD may increase the risk of malignancy. Common genetic factors and similar environmental factors play a role in the pathogenesis of some autoimmune diseases and malignancies. We hypothesized that the frequency of comorbidity and clinical features of BD may differ in BD patients with a family history of malignancy. So, we aimed to compare the demographic and clinical characteristics features of the BD patients with and without a family history of malignancy.&amp;#x0D; Material and Method: The BD patients who admitted the rheumatology outpatient clinic consecutively were included in the study. The demographic and clinical characteristics, comorbidities including malignancy in BD patients and malignancies in their family were questioned. The acute phase reactant elevation of at least two follow-ups was accepted as chronic inflammation.&amp;#x0D; Results: A total of 98 patients (57% male) were included. Mean age was 43.5±12.3 years. The frequency of comorbidity was 60% and malignant/premalignant lesions were seen in 5% of the patients. All lesions were solid organ related and all of them were in women. History of BD and malignancy in patients' families was found 28% and 38%, respectively. The patients with and without malignancy in their family were compared. Female gender and the frequency of erythema nodosum were higher in the patients with malignancy in their family. The other demographic and clinical characteristics, chronic persistent inflammation and medical treatments were statistically. not different &amp;#x0D; Conclusion: Frequency of malignancy in BD patients’ family was evaluated and to the best of our knowledge, there was no literature data on this subject interestingly. The family history of malignancy in BD patients could be associated with clinical characteristics. Further prospective studies were needed to show the clinical effect of malignancy history in families.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
+          <t>https://openalex.org/W3216068185</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1155/2021/8388527</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Wang et al. (2021)</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Mechanism of Chronic Stress-Induced Glutamatergic Neuronal Damage in the Basolateral Amygdaloid Nucleus</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Stress is a ubiquitous part of our life, while appropriate stress levels can help improve the body’s adaptability to the environment. However, sustained and excessive levels of stress can lead to the occurrence of multiple devastating diseases. As an emotional center, the amygdala plays a key role in the regulation of stress-induced psycho-behavioral disorders. The structural changes in the amygdala have been shown to affect its functional characteristics. The amygdala-related neurotransmitter imbalance is closely related to psychobehavioral abnormalities. However, the mechanism of structural and functional changes of glutamatergic neurons in the amygdala induced by stress has not been fully elucidated. Here, we identified that chronic stress could lead to the degeneration and death of glutamatergic neurons in the lateral amygdaloid nucleus, resulting in neuroendocrine and psychobehavioral disorders. Therefore, our studies further suggest that the Protein Kinase R-like ER Kinase (PERK) pathway may be therapeutically targeted as one of the key mechanisms of stress-induced glutamatergic neuronal degeneration and death in the amygdala.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2026644728</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1523/jneurosci.3467-10.2010</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Rivera et al. (2010)</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Metzincin Proteases and Their Inhibitors: Foes or Friends in Nervous System Physiology?</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Members of the metzincin family of metalloproteinases have long been considered merely degradative enzymes for extracellular matrix molecules. Recently, however, there has been growing appreciation for these proteinases and their endogenous inhibitors, tissue inhibitors of metalloproteinases (TIMPs), as fine modulators of nervous system physiology and pathology. Present all along the phylogenetic tree, in all neural cell types, from the nucleus to the synapse and in the extracellular space, metalloproteinases exhibit a complex spatiotemporal profile of expression in the nervous parenchyma and at the neurovascular interface. The irreversibility of their proteolytic activity on numerous biofactors (e.g., growth factors, cytokines, receptors, DNA repair enzymes, matrix proteins) is ideally suited to sustain structural changes that are involved in physiological or postlesion remodeling of neural networks, learning consolidation or impairment, neurodegenerative and neuroinflammatory processes, or progression of malignant gliomas. The present review provides a state of the art overview of the involvement of the metzincin/TIMP system in these processes and the prospects of new therapeutic strategies based on the control of metalloproteinase activity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4393975183</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-031-56322-5_20</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Savković &amp; Lalić (2024)</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Laveraging Machine Learning for Improved Project Inspections and Internal Control Systems</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>The field of project auditing and internal control systems is undergoing significant transformations fueled by advances in machine learning. This article delves into how machine learning, with its ability to analyze vast data sets and predict outcomes, can enhance project audits and internal control systems, ensuring robust risk management and effective problem-solving. It examines the application of machine learning in various aspects of internal audits, including problem identification, problem remediation, predictive analytics, and real-time auditing. Furthermore, it highlights the fundamental change in audit competencies required by these technological advancements. The traditional auditor skill set needs to be supplemented with an understanding of machine learning fundamentals, data literacy, technology expertise, AI risk assessment, and effective communication skills. Augmenting human expertise with machine-generated insights can lead to more informed and effective risk management strategies. By embracing the potential of machine learning, auditors can position themselves as strategic partners within organizations. The ability to harness data-driven insights and leverage advanced technologies empowers auditors to provide proactive recommendations and contribute to the achievement of organizational objectives. This transformation from a compliance-focused role to a value-added advisor strengthens the relevance and impact of internal audits in a rapidly evolving business landscape. The article presents practical insights and recommendations for building these competencies and discusses potential challenges and limitations such as data privacy concerns and over-reliance on automation. By addressing these challenges, auditors can navigate the transformative power of machine learning and ensure the responsible and ethical use of data. The findings of this article highlight the promise that machine learning holds for improving project audits and internal audit procedures, shaping a more efficient, proactive, and data-driven audit environment. Embracing machine learning enables auditors to harness its capabilities, enhance risk management practices, solve problems effectively, and foster a transformative shift in the field of auditing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4393993509</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/molecules29071635</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Naumkin (2024)</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Metalloid–Organic Intermolecular Complexes with Charge State-Controlled Conformations</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Shape alterations of molecular systems, induced by their (electric) charging/discharging, could facilitate useful electronic and/or mechanical functions in molecular-scale devices and machines. The present study reports structures, stabilities, charge distributions, and IR spectra for a group of complexes of a main-group metalloid (boron) atom with hydrocarbon molecules. The considered systems include the smallest species demonstrating the basic principle of operation, as well as their size-extended analogues, generalizing it to larger counterparts based on such units. The system geometries vary considerably between neutral and ionic counterparts and exhibit two–three typical conformations related to twisting by up to about 90 degrees. The predicted structures correlate with specific infrared spectra, which can enable their experimental identification and transformation tracking. The above-mentioned characteristics suggest the potential utility of such systems for intermolecular switches, with the possible spectral monitoring of their functioning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3133888037</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-030-59773-3_3</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Sciammarella et al. (2021)</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Experimental Observations on the Fracture of Metals</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>This paper deals with the onset of plasticity and the transition to fracture in metallic rectangular tensile specimens. The plastic instability manifests itself by the propagation of wave fronts that sweep the specimen and finally localize at a given site during the fracture process. The plastic instability is associated with changes in specimen geometry. In optical recordings, propagation and localization of structural instability manifest in the form of wide bands. The configuration of these bands is influenced by degradation of properties of a metal under analysis. Understanding the meaning of band configurations is vital for evaluating mechanical properties of a metal and its effective use. In this paper, a family of fringes called iso-derivatives is utilized to analyze the configuration and properties of the wide bands. The retrieval of the information contained in the wide bands depends on the spatial and temporal resolution of the recordings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1519886824</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/bf03053710</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Feng et al. (1997)</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Chiral dynamics with quark degrees of freedom</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>The possibility to detect DCC fluctuations is discussed. It is shown that interactions with quark background and dissipative effects due to interactions in the chiral field may result in damping of fluctuations. Since the magnitude of fluctuations depends strongly on the initial state and speed of chiral phase transition an accurate evaluation of all modifying processes is required to predict the observability of DCCs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2010594747</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/349299.349318</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Wilken et al. (2000)</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Optimal instruction scheduling using integer programming</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>This paper presents a new approach to local instruction scheduling based on integer programming that produces optimal instruction schedules in a reasonable time, even for very large basic blocks. The new approach first uses a set of graph transformations to simplify the data-dependency graph while preserving the optimality of the final schedule. The simplified graph results in a simplified integer program which can be solved much faster. A new integer-programming formulation is then applied to the simplified graph. Various techniques are used to simplify the formulation, resulting in fewer integer-program variables, fewer integer-program constraints and fewer terms in some of the remaining constraints, thus reducing integer-program solution time. The new formulation also uses certain adaptively added constraints (cuts) to reduce solution time. The proposed optimal instruction scheduler is built within the Gnu Compiler Collection (GCC) and is evaluated experimentally using the SPEC95 floating point benchmarks. Although optimal scheduling for the target processor is considered intractable, all of the benchmarks' basic blocks are optimally scheduled, including blocks with up to 1000 instructions, while total compile time increases by only 14%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2228530490</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Correa et al. (1982)</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Epidemiology of gastric carcinoma: review and future prospects.</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>The epidemiology of stomach cancer is reviewed and key events identified, including migrant population studies, the Jarvi-Laurén classification of gastric carcinoma, and application of this classification to comparative autopsy studies. The gradual transformation to the epidemiology of precancer lesions is sketched, and the studies in Colombia contributing to this transformation are described. An etiologic model based on the formation of carcinogenic N-nitroso compounds is proposed. Future work for investigators in the Department of Nariño (Colombia) to test and evaluate this hypothesis is described.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4389247145</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1182/blood-2023-188986</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Semba et al. (2023)</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>The XPO7/Npat Axis Inactivation Is a Therapeutic Vulnerability for &lt;i&gt;TP53&lt;/i&gt;-Mutated AML</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>In acute myeloid leukemia (AML), TP53 mutations are the most prognostically unfavorable genetic alterations, as they confer resistance to various therapeutic agents and form relapsing clones, underscoring the critical need to devise a novel therapeutic strategy for TP53-mutated AML. To identify genes or pathways whose loss is vulnerable to TP53 deficiency in AML cells, we performed genome-wide CRISPR-Cas9 screens using Trp53-knockout (KO) and wild-type (WT) mouse AML cells. We employed two distinct KO screen libraries, through which we identified Xpo7, a putative nuclear/cytoplasmic transporter, as a common factor necessary for Trp53-KO AML survival. Interestingly, Trp53-KO cells were vulnerable to Xpo7 depletion, while Xpo7 functioned as a Trp53-dependent tumor suppressor in Trp53-WT AML cells. Further probing this phenomenon, we performed a CRISPR-Cas9 saturation mutagenesis scan on all Xpo7 exons. Strikingly, sgRNAs targeting Xpo7 coding regions were significantly enriched only in the Trp53-WT AMLs. In stark contrast, these same sgRNAs were mostly depleted in Trp53-KO AMLs. To determine the role of Xpo7 depletion on the expansion of Trp53 deficient clones, we prepared AML cells containing a small fraction of Trp53-KO cells both in the Xpo7-WT and KO backgrounds and assessed the proportion over time in vitro or in vivo. Remarkably, the expansion of Trp53-KO clones, noticeable in the Xpo7-WT setting, was significantly reduced under the Xpo7-KO background, prolonging the mice's survival. These data suggest that Xpo7 depletion effectively impedes Trp53-KO clone expansion. Since Xpo7 is presumed to mediate the nuclear import and export of proteins, we hypothesized that Xpo7 contributes to retaining Trp53 protein within the nucleus in Trp53-WT AMLs. As expected, nuclear Trp53 protein and mRNA levels of Trp53-targeting genes decreased significantly upon Xpo7 depletion. These data suggest that Xpo7 retains WT-Trp53 in the nucleus and functions as a Trp53-dependent tumor suppressor in Trp53-WT AMLs. Next, to elucidate the underlying mechanisms causing the toxic effects in Trp53-KO AMLs upon Xpo7 depletion, we set out to identify proteins whose localization was potentially regulated by Xpo7 in the Trp53-KO state. Employing mass spectrometry on an immunoprecipitate using anti-Xpo7 and cytoplasmic/nuclear protein extracts from both Xpo7-WT and KO AML cells, we found that Npat, an activator of histone transcription in the G1/S transition, interacted with Xpo7 and showed a significant shift towards cytoplasmic localization upon Xpo7 depletion in Trp53-KO AMLs. Strikingly, Npat protein levels displayed a notable upregulation by Trp53 depletion in AML cells. To evaluate the relevance of the XPO7/NPAT axis in human TP53-mutated AML cells, we examined the correlation between XPO7 and NPAT expression levels and AML subtypes and genetic background using publicly available datasets. XPO7 and NPAT mRNA levels were significantly upregulated in TP53-mutated AMLs in the TCGA datasets. Moreover, XPO7 and NPAT mRNAs levels were remarkably high in acute erythroid leukemia (AEL) cases, where TP53 mutations are frequently observed (Tyner et al. Nature, 2018; Iacobucci et al. Nat Genet. 2019). The Xpo7 and Npat protein expression evaluation using primary AML samples corroborated these findings, revealing overexpression in TP53-mutated AML cases. Finally, we assessed the therapeutic effect of Npat depletion in Trp53-deficient AML cells, using the dTAG system to induce Npat protein degradation by knock-in FKBP12 F36V into Npat loci. dTAG v-1 treatment immediately degraded endogenous Npat protein and led to delayed G1/S transition progression. Moreover, Npat degradation induced DNA damage, particularly in the presence of a WEE1 inhibitor or etoposide, and subsequent apoptosis. Transplantation of these AML cells into immunocompromised mice followed by dTAGv1 treatment for one week demonstrated suppressing leukemia progression in vivo. Furthermore, shRNA-mediated XPO7 or NPAT knockdown significantly suppressed the proliferation of HEL, a human AEL cell line harboring TP53 mutation, in vitro and in vivo. In summary, we identified a synthetic lethal relationship between TP53 and XPO7. We unveiled the novel regulatory mechanism of protein localization by XPO7, depending on TP53 mutational state. Our data suggest that XPO7/NPAT inactivation is a therapeutic vulnerability for TP53-mutated AML.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1967674229</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/qua.24045</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Tarumi et al. (2012)</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Accelerating convergence in the antisymmetric product of strongly orthogonal geminals method</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Abstract Antisymmetric product of strongly orthogonal geminals (APSG) method is a wavefunction theory that can effectively treat the static electron correlation using two‐electron wavefunctions, called geminals. However, the APSG method has the problem of slow convergence in the optimization of the geminal function. In this study, we introduced the direct inversion in the iterative subspace (DIIS) method, for both closed‐ and open‐shell systems, for accelerating its convergence. Two types of error vectors, that is, unitary transformation and orbital gradient, were examined for the DIIS procedure. Numerical assessments revealed that the orbital‐gradient error vector shows better performance than the unitary‐transformation one. © 2012 Wiley Periodicals, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2063418250</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1039/c0sm01350a</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Fu et al. (2011)</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Preparation and tunable temperature sensitivity of biodegradable polyurethane nanoassemblies from diisocyanate and poly(ethylene glycol)</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>The development of temperature-responsive and biodegradable polymeric nanoparticles with tunable temperature sensitivity is of great interest. In this study, alternating polyurethanes were synthesized from diisocyanate (L-lysine ethyl ester diisocyanate (LDI) or hexamethylene diisocyanate (HDI)) and poly(ethylene glycol) (PEG) of different molecular weights. The resulting polyurethanes were then used to prepare nanoparticles either by direct dispersion in water or by nanoprecipitation. The temperature-responsive property of the polyurethane nanoparticles was evaluated by UV-visible transmittance experiments and dynamic light scattering. During the heating–cooling cycling, the LDI-PEG series showed almost no change except LDI-PEG600, but the HDI-PEG series exhibited reversible dispersion–aggregation changes. The nanoparticles were spherical at temperatures below or above the cloud point, as observed by transmission electron microscopy. The cloud point temperature of the alternative polymers was found to depend on both the hydrophilic–hydrophobic balance of the alternative chain and polymer concentration. The degradation test in vitro revealed a fall of less than 20% of polymer molecular weight within 12 days. The transition temperature was close to human body temperature, which could have great potential in biomedical fields.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1976620726</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/ieem.2011.6117973</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Zou &amp; Zhang (2011)</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>A measurement model for collaboration between suppliers and manufacturers</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>This research establishes a measurement model to solve the problems exist in the collaboration of the supply chain alliances, especially between suppliers and manufacturers. This paper firstly identifies 21 indicators including the profit level and the management level of the suppliers and manufacturers through expert brainstorming method and determines weight of each indicator by experts scoring. Then the authors get the collaboration index (C), comprehensive evaluation index (T) and obtain collaboration degree (D) including Primary, Transition, Intermediate, Good and Excellent. At last, the authors do empirical analyses using enterprise data to prove the model to be practical and give suggestions to the enterprises to keep their strategic collaboration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2801103670</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Kirch &amp; Kamgaing (2011)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>An online approach to detecting changes in nonlinear autoregressive models</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>In this paper we develop monitoring schemes for detecting structural changes _x000D_
+in nonlinear autoregressive models. We approximate the regression function by a_x000D_
+single layer feedforward neural network. We show that CUSUM-type tests based_x000D_
+on cumulative sums of estimated residuals, that have been intensively studied_x000D_
+for linear regression in both an offline as well as online setting, can be extended_x000D_
+to this model. The proposed monitoring schemes reject (asymptotically) the null_x000D_
+hypothesis only with a given probability but will detect a large class of alternatives_x000D_
+with probability one. In order to construct these sequential size tests the limit_x000D_
+distribution under the null hypothesis is obtained.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1486172358</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.11606/t.76.2007.tde-25102007-114809</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Piola (2015)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Tracing de aplicações paralelas com informações de alto nível de abstração</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Parallel computing has become an essential tool to achieve the performance needed by many scientific applications.The evaluation of performance factors of parallel applications is of utmost significant.This work presents the developement and implementation of a tool called Hierarchical Analyses which facilitates data collection for performance analysis of parallel programs with hierarchical information, i.e. the information is collected in the various abstraction levels used in the application program.The tool consists of a collection and a transformation modules.The collection module (HieraCollector) collects the data and stores it in XML format.The transformation module (HieraTransform) processes the collected data computing measurements to be used in the analysis of parallel code.To validate the tool, implementations adapted to MPI and the OOPS framework have been developed.Another contribution of this work is the development of a visual tool called HieraOLAP to help the user in the analysis of parallel program performance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2592029734</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Mayes &amp; Freitas (2004)</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Review of e-learning theories, frameworks and models. JISC e-learning models study report</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>This review is designed to inform practitioners, policy developers and other stakeholders who want to reflect more deeply upon their practice or gain a greater understanding about how theory and practice can be mapped together. It is argued that reforming practice requires transformations of understanding of principles that are assumed – sometimes implicitly – in the practices. This review offers a framework for understanding where a particular implementation of e-learning is positioned in the complex current landscape of technology-enhanced teaching in UK HE/FE. It does so by attempting to offer a set of questions to be posed of an e-learning development – the answers to which reveal the underlying pedagogic and pragmatic assumptions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
           <t>https://openalex.org/W2263796496</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>Murtough (1998)</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>Linking technology and environmental education in the South African outcomes based curriculum, at grade 1</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>This study is contextualised within educational transformation in South Africa, and a 'new paradigm' of Outcomes Based Education (OBE). A starting point is a consideration of 'values' issues in technology education around technicist and human centred definitions of capability. Constraints and opportunities attached to the capacity of South African teachers to work towards outcomes that contextualise technology socially and environmentally are reviewed.
 The history of environmental education in South Africa is summarised to show an evolving human centred perspective, that values learners' life world understandings as a starting point for educational action. It is argued that since technological action is environmental action, environmental pedagogy may be helpful in contextualising and developing human centred approaches.
@@ -5073,381 +5483,381 @@
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2291234089</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1086/202920</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Smith et al. (1982)</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Upper Pleistocene Hominid Evolution in South-Central Europe: A Review of the Evidence and Analysis of Trends [and Comments and Reply]</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>South-Central Europe has yielded rather large and significant samples of archaic and early modern Homo sapiens dated to the Upper Pleistocene. These hominid samples have received proportionately little detailed consideration in discussions of the nature of the relationship between archaic and modern Homo sapiens in Europe. The First purpose of this paper is to review this material. The second purpose of this paper is to review this material. The second purpose is to investigate the trends in Upper Pleistocene hominid evolution in South-Central Europe and to relate them to the pattern of contemporary hominid evolution in adjacent regions. It is concluded that a distinct morphological continuum exists between Neandertals and early modern hominids in South-Central Europe and that this continuum is most likely the reflection of an indigenous transition from Neandertals to eraly modern Homo sapiens. Aspects of such a transition are visible in the sparse fossil record of North-Central Erope as well. The pattern in Western Europe and its relationship to South-Central Europe are less clear.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2161986039</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/tpwrd.2005.855489</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Jain et al. (2006)</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Voltage Regulation With STATCOMs: Modeling, Control and Results</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>This paper presents system modeling and control design for fast load voltage regulation using static compensators (STATCOMs). The modeling strategy gives a clear representation of load voltage magnitude and STATCOM reactive current on an instantaneous basis. The particular coordinate transformation employed here also facilitates extraction of linearized system dynamics in conjunction with circuit simulators. It is rigorously shown that the control problem of load voltage regulation using reactive current is nonminimum phase. Linear and nonlinear controllers for the regulation problem are designed and compared via simulation results. Internal dynamics of the STATCOM are modeled using the same strategy. Lyapunov based adaptive controllers are designed for controlling the STATCOM reactive current while maintaining its dc bus voltage. Simulation results of the controlled STATCOM integrated with the load bus voltage controller are presented to show efficacy of the modeling and control design.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4313165221</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-031-20309-1_35</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Wei et al. (2022)</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Tackling Non-stationarity in Decentralized Multi-Agent Reinforcement Learning with Prudent Q-Learning</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Multi-Agent Reinforcement Learning (MARL) is challenging due to the non-stationary issue of an agent’s learning environment caused by multiple co-evolving agents, i.e., the uncertainty rises with multiple agents learning and evolving simultaneously. Though centralized learning can solve the problem to some degree, it is hard to expand into numerous agents or real-world applications. We focus on the native property of the non-stationary environment and use a independent method to alleviate its harmful influence. Here are the two main contributions of this article: 1) We formalize the non-stationary environment by supposing it follows a pessimistic transition, and we explain the existence of a lower bound of accumulated reward expectation that the agent can learn. 2) We devise a scheme called Prudent Q-Learning (PQL) based on independent learning for controlling multi-agent systems in non-stationary environments. We present both tabular and Deep Q-Learning based implementations of the proposed Prudent Q-Learning scheme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>https://openalex.org/W4244615726</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>https://doi.org/10.1177/026839629701200302</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Subramanian &amp; Lacity (1997)</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>Managing Client/Server Implementations: Today's Technology, Yesterday's Lessons</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>Client/server computing is quickly becoming the computing architecture of choice in the 1990s. However, like many advances in information technology, public sources, such as trade journals and newspapers, portray client/server as a completely new paradigm which will transform our profession. But is it? We are conducting multiple case studies on organizations that have adopted client/server technology in order to extract managerial prescriptions for best practices in evaluating, developing and implementing effective client/server systems. Thus far, we have completed three case studies. Many of the lessons we are uncovering – the need for top management support, redesigning business processes before automation, user participation, phased implementation strategies and buying-in vendor skills to transfer learning – have been identified by previous researchers in other information technology contexts. Thus, although client/server is being touted as a radical change in information technology, practitioners need not discard the lessons from the past. Although there are some unique technical skills required to deploy client/server systems effectively, confirming project management lessons from the past is consoling to practitioners and academics alike. While the context of information technology changes rapidly, the organizational, administrative and policy practices are proving robust.</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2151110032</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1117/12.2176455</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Slocum et al. (2015)</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Experimental determination of terahertz atmospheric absorption parameters</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>The terahertz frequency regime is often used as the ‘chemical fingerprint’ region of the electromagnetic spectrum since many molecules exhibit a dense selection of rotational and vibrational transitions. Water is a major component of the atmosphere and since it has a large dipole moment the propagation of terahertz radiation will be dominated by atmospheric effects. This study will present the results of high-­‐resolution broadband measurements of the terahertz atmospheric absorption and detail the technique for directly measuring the pressure broadening coefficients, absolute absorption coefficients, line positions, and continuum effects. Differences between these measured parameters and those tabulated in HITRAN will be discussed. Once the water vapor absorption was characterized, the same technique was used to measure the line parameters for methanol, a trace gas of interest within Earth’s atmosphere. Methanol has a dense absorption spectrum in the terahertz frequency region and is an important molecule in fields such as environmental monitoring, security, and astrophysics. The data obtained in the present study will be of immediate use for the remote sensing community, as it is uncommon to measure this many independent parameters as well as to measure the absolute absorption of the transitions. Current models rely on tabulated databases of calculated values for the line parameters measured in this study. Differences between the measured data and those in the databases will be highlighted and discussed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2162289027</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1061/(asce)1076-0342(2008)14:1(64)</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Park et al. (2008)</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Energy Harvesting for Structural Health Monitoring Sensor Networks</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>This paper reviews the development of energy harvesting for low-power embedded structural health monitoring (SHM) sensing systems. A statistical pattern recognition paradigm for SHM is first presented and the concept of energy harvesting for embedded sensing systems is addressed with respect to the data acquisition portion of this paradigm. Next, various existing and emerging sensing modalities used for SHM and their respective power requirements are summarized followed by a discussion of SHM sensor network paradigms, power requirements for these networks, and power optimization strategies. Various approaches to energy harvesting and energy storage are discussed and limitations associated with the current technology are addressed. The paper concludes by defining some future research directions that are aimed at transitioning the concept of energy harvesting for embedded SHM sensing systems from laboratory research to field-deployed engineering prototypes. Finally, it is noted that many of the technologies discussed herein are applicable to powering any type of low-power embedded sensing system regardless of the application.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4237959061</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.26226/morressier.612f6736bc9810372410085f</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Blanchard &amp; Sapsis (2021)</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Active Learning Strategies for Rare-Event Statistics and Accelerated Design</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Machine Learning (ML) and Digital Twins (DT) are at the heart of today’s different industries, ranging from advanced manufacturing to biomedical systems to resilient ecosystems, civil infrastructures, smart cities, and healthcare. They have become indispensable for solving complex problems in science, engineering, and technology development. The purpose of the MMLDT-CSET 2021 conference is to facilitate the transition of ML and DT from fundamental research to mainstream fields and technologies through advanced data science, mechanistic methods, and computational technologies. This 3-day conference features technical tracks of emerging ML-DT fields and applications, special public lectures, short courses, and demonstrations. The conference will be held in a hybrid format, featuring both on-site and virtual sessions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2140224167</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/ejo/21.5.497</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Barwart et al. (1999)</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>An evaluation of the transition temperature range of super-elastic orthodontic NiTi springs using differential scanning calorimetry</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Differential scanning calorimetry (DSC) was used to determine the transition temperature ranges (TTR) of four types of super-elastic orthodontic nickel-titanium coil springs (Sentalloy). A knowledge of the TTR provides information on the temperature at which a NiTi wire or spring can assume superelastic properties and when this quality disappears. The spring types in this study can be distinguished from each other by their characteristic TTR during cooling and heating. For each tested spring type a characteristic TTR during heating (austenite transformation) and cooling (martensite transformation) was evaluated. The hysteresis of the transition temperature, found between cooling and heating, was 3.4-5.2 K. Depending on the spring type the austenite transformation started (As) at 9.7-17.1°C and finished (Af) at 29.2-37°C. The martensite transformation starting temperature (Ms) was evaluated at 32.6-25.4°C, while Mf (martensite transformation finishing temperature) was 12.7-6.5°C.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3214936571</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.17816/mser74787</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Pogosyan et al. (2021)</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>The spectrum of vital activity restrictions in disabled people due to thyroid cancer</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>BACKGROUND: The most common malignant neoplasm of the endocrine system is thyroid cancer. In Russia, as in other countries of the world, the incidence rate is steadily increasing. Thus, it is extremely important to assess the problem of health disorders due to thyroid cancer within the framework of socially significant disability caused by malignant neoplasms in the Russian Federation.&amp;#x0D; AIMS: To analyze the spectrum of types and degree of disability in people with disabilities due to thyroid cancer.&amp;#x0D; MATERIAL AND METHODS: The article presents the results of the analysis of the spectrum of the main types of disability in the general contingent of disabled people due to thyroid cancer among the adult population of Moscow (20152019).&amp;#x0D; RESULTS: The dynamics of disability both in the contingent of first recognized and in the contingent of re-recognized disabled people (VPI and PPI) was characterized by an increase in the number of disabled people and the transformation of the structure of general disability. There is a clear change in the ratio towards an increase in the share of PPI from 55.1% in 2015. up to 68.0% in 2019, while the share of VPI decreased from 44.9% in 2015 to 32.0% in 2019. The predominant gender cohort was women, and the age category was the elderly. The main types of life restrictions were the restriction of the ability to self-serve (98.6% of the VPI and 97.9% of the PPI), to work (94.7% of the VPI and 94.6% of the PPI) and to move (21.3% of the VPI, 21.8% of the PPI). A low proportion of restrictions on the ability to control ones behavior, learning, communication and orientation was revealed (0.31.2%). The first degree of disability prevailed in the contingents of VPI and PPI (p 0.0001). In the contingent of men, the proportion of disabled people with the third degree of disability was higher compared to the contingent of women.&amp;#x0D; CONCLUSION: Dynamic assessment of the degree of severity of functional disorders and associated life restrictions should be carried out at all stages of medical and social rehabilitation in order to monitor the effectiveness of medical and rehabilitation measures, assess the quality of life and prevent progression (secondary prevention of disability).</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W338658810</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Liganor et al. (2015)</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>The Effects of Osteopathic Manipulative Treatment on GI Motility</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>INTRODUCTION RESULTS 1. Giles PD, KL Hensel, CF Pacchia, ML Smith. Suboccipital decompresssion enhances heart rate variability indices of cardiac control in healthy humans. J Comp Altern Med 19: 92-96, 2013. 2. Koch KL, physiological basis and clinical application in diabetic gastropathy Diabetes Technol Ther 3: 51-62, 2001. 3. Stone, Caroline. Visceral and Obstetric Osteopathy. Edinburgh: Churchill Livingston/Elsevier, 2007. 300. 4. Ward, Robert. of the Acutely Ill Hospitalized Patient.” Foundations for Osteopathic Medicine. 2nd ed. Philadelphia: Lippincott Williams &amp; Wilkins, 2003. 1115-1142. 5. Yin, Jieyun, and Jiande D Z Chen. Electrogastrography: Methodology, Validation and Applications. Journal of Neurogastroenterology and Motility 19.1 (2013): 5–17. PMC. Web. 23 Dec. 2014. CONCLUSIONS REFERENCE Figure 5: Rotarod: The jay, pig, fox, zebra, and my wolves quack! Blowzy red vixens fight for a quick jump. Joaquin Phoenix was gazed by MTV for luck. A wizard’s job is to vex chumps quickly in fog. Watch Jeopardy! , Alex Trebek's fun TV quiz game. Woven silk pyjamas exchanged for blue quartz. Brawny gods just flocked up to quiz and vex him. Adjusting quiver and bow, Zompyc[1] killed the fox. My faxed joke won a pager in the cable TV quiz show. Since its inception, osteopathic manipulative treatment (OMT) has been used for a variety of clinical conditions. Studies have shown that OMT can affect the autonomic nervous system as measured by heart rate variability, thereby demonstrating somatovisceral effects, and are theorized to affect gastrointestinal (GI) function by altering autonomic balance and GI motility. We hypothesize that OMT will demonstrably affect GI activity as measured by electrogastrography (EGG), a non-invasive measure of GI motility. This is an IRB-approved randomized controlled trial. EGG was used to measure gastric motility before, during and after either an OMT protocol or a time control (TC). The OMT protocol included specific techniques. 35 subjects were enrolled. Ten subjects’ data were eliminated due to motion artifact; ten were eliminated due to equipment malfunction. The OMT group (n=6) exhibited a 22 ± 4 % change in EGG % 2-4 cycles per minute (CPM), compared with 10 ± 0.40 % change in the TC group (n=9) (p=0.014). The dominant power and the dominant frequency did not change between groups. OMT appears to either (a) increase the power of the EGG spectra within 24 CPM or (b) shift power away from 2-4 CPM to more tachygastric frequencies. This indicates an increase in gastric electrical activity in response to OMT, but more research is needed to determine the significance and relevance of these findings. A.T. Still, MD, DO, the founder of osteopathic medicine, used OMT on all patients that he saw, regardless of their complaint. Recent studies have shown that OMT can affect the autonomic nervous system (ANS) as measured by heart rate (HR) variability 1. Such findings are consistent with the principles of somatovisceral effects of OMT, which are also theorized to affect gastrointestinal (GI) function. The peristaltic activity of the gastrointestinal system is primarily governed through the autonomic nervous system. A complete peristaltic contraction through the GI tract is known as 1 cycle. Normal human gut contractions have been quantified at approximately 2.53.75 cycles per minute (CPM) and this can be measured by electrogastrography (EGG) 2. Specifically, EGG is a non-invasive technique for recording gastric myoelectrical activity, by measuring electrical signals generated from nerve plexi embedded in the walls of the GI tract 5. The EGG measures the surface electrical charge created by the electromechanical effects of peristalsis and thus the EGG signal can assess changes in autonomic control of GI motility. This study was designed to use EGG to evaluate the effects of OMT on GI motility before, during and after an OMT protocol versus a time control period. METHODS Table 1. Summary of Osteopathic Manipulative Treatment Techniques Applied with Subject in Supine Position3,4 Technique Description Application Occipito-atlantal Decompression • Contact is near the occipital condyles with sustained anterior, lateral, and cephalad tension for 2 minutes. • The vagus nerve is related to the occipital-atlantal and suboccipital tissues. Rib Raising • Contact is on the posterior angles of the ribs of the upper thoracic region. Anterior inhibitory pressure is applied to ribs for 30 seconds until surrounding tissues relax. Ribs are then allowed to fall and a rhythmic raising and lowering motion is applied for several cycles for 30 seconds. Contact is repositioned to the lower thoracic region. Anterior inhibitory pressure with rib raising is applied to lower ribs is applied for 30 seconds until surrounding tissues relax. Ribs are then allowed to fall and a rhythmic raising and lowering motion is applied for several cycles for 30 seconds to lower region. • The sympathetic cell bodies are in the interm</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t>https://openalex.org/W4295981428</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.renene.2022.09.018</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>Shrestha et al. (2022)</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="D201" t="inlineStr">
         <is>
           <t>Evolution of energy mix in emerging countries: Modern renewable energy, traditional renewable energy, and non-renewable energy</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>Recent global environmental concerns have called for efforts to promote the transition of energy sources toward renewable energy, particularly in emerging countries that prioritize high economic growth. One missing aspect in environmental studies is that renewable energy is composed of traditional and modern ones, where the former could induce environmental and health problems, and the latter could solve them. Accounting for different types of renewable energy, this study evaluates the energy mix evolution in relation to a country's development level (proxied by real GDP per capita) for 23 emerging countries from 1990 to 2016. By applying the pooled mean group autoregressive distributed lag (PMG-ARDL) model, we examine the short- and long-run linkages of a country's income level with the energy mix. To capture the energy mix, we use three variables of energy sources, (i) non-renewable, (ii) traditional renewable, and (iii) modern renewable energy. Our results show that the income level has a long-run positive relationship with non-renewable and modern renewable energy but a long-run negative relationship with traditional renewable energy. Our findings shed light on the importance of implementing policies targeting the shift from non-renewable energy toward modern renewable energy by the policymakers concerned in emerging countries.</t>
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2019546460</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1021/jp062919w</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Kong et al. (2006)</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Structure of the Photodissociation Products of CCl&lt;sub&gt;4&lt;/sub&gt;, CBr&lt;sub&gt;4&lt;/sub&gt;, and CI&lt;sub&gt;4&lt;/sub&gt; in Solution Studied by DFT and ab Initio Calculations</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Various molecular species that can be populated during the photoreaction of carbon tetrahalides CX(4) (X = Cl, Br, I) in the gas phase and in solution have been studied by ab initio and density functional theory (DFT) calculations. Geometries, energies, and vibrational frequencies of CX(4), CX(3), CX(2), C(2)X(6), C(2)X(5), C(2)X(4), X(2), and the isomer X(2)CX-X were calculated and transition states connecting these species were characterized. Spin-orbit DFT (SODFT) computations were also performed to include the relativistic effects, which cannot be neglected for Br and I atoms. The calculated potential energy surfaces satisfactorily describe the reactions of the photoexcited CX(4) molecules. In the gas phase, the initial C-X bond rupture in CX(4) is followed by secondary C-X breakage in the CX(3) radical, leading to CX(2) and 2X, and the formation of C(2)X(6) or C(2)X(4) through bimolecular recombination of the CX(3) or CX(2) radicals is favored thermodynamically. In solution, by contrast, the X(2)CX-X isomer is formed via X-X binding, and two CX(3) radicals recombine nongeminately to form C(2)X(6), which then dissociates into C(2)X(4) and X(2) through C(2)X(5). The Raman intensities and the vibrational frequencies, as well as the absorption spectra and oscillator strengths of the Br(2)CBr-Br isomer in the gas phase and in various solvents were computed and the calculated absorption and Raman spectra of the Br(2)CBr-Br isomer in various solutions are in good agreement with the experimental data. The natural population analysis indicates that the Br(2)CBr-Br isomer corresponds to the recently reported solvent-stabilized solvated ion pair (CBr(3)(+)//Br(-))(solv) in the highly polar alcohol solvent. The singlet-triplet energy separations of the CX(2) radicals in the gas phase and in solution were evaluated with high level computational methods, and the optimized geometric parameters are in good agreement with the experimental results. The geometric and energetic differences between the singlet and triplet states were explained by the electronic properties of the CX(2) radicals. C(2)X(4), C(2)X(5), and C(2)X(6) (X = Br, I) in the gas phase and in solution were optimized at different computational levels, and the optimized geometric parameters of C(2)I(4) are in very good agreement with the experimental data.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>https://openalex.org/W3143651027</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>Hakkarainen (2014)</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>Green Plasticizers from Liquefied Wood</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>Green plasticizers were designed from liquefied wood flour, a non-edible biobased waste product. Wood flour was liquefied to low molecular weight polyols by acid catalyzed reaction. The resulting polyol mixture, including the remaining liquefaction solvents glycerol and diethylene glycol, was further utilized for the synthesis of low molecular weight ester plasticizers. Monomeric (MLWP) and oligomeric (OLWP) plasticizers were prepared by esterification of the polyols by hexanoic acid or a mixture of hexanoic and adipic acid, respectively. Liquefied wood polyol mixture and the synthesized plasticizers were characterized by size exclusion chromatography, electro- spray ionization-mass spectrometry and fourier transform infrared spectroscopy. MLWP, OLWP and traditional dioctyl phthalate (DIOP) plasticizer were blended with poly(vinyl chloride) (PVC) and tensile testing was per- formed to evaluate the plasticizing efficiency of the new plasticizers. In addition PVC blends containing model disaccharide ester, sucrose octaacetate (SOA), were pre- pared and tested. Highest strain at break was obtained after addition of SOA ester, which clearly shows the potential of sugar esters as PVC plasticizers. Addition of MLWP also resulted in slightly higher strain at break as compared to films plasticized with same amount of phthalate plasticizer, DIOP. Differential scanning calorimetry showed one con- centration dependent glass transition temperature for all the studied blends indicating good miscibility. Our novel plasticizers are attractive environmentally friendly alternatives for phthalate plasticizers and could be prepared from biomass waste from agriculture and forest industry.</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2352581720</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Yang et al. (2014)</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>[Rapid determination of beet sugar content using near infrared spectroscopy].</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>In order to classify and set different prices on basis of difference of beet sugar content in the acquisition process and promote the development of beet sugar industry healthily, a fast, nondestructive, accurate method to detect sugar content of beet was determined by applying near infrared spectroscopy technology. Eight hundred twenty samples from 28 representative varieties of beet were collected as calibration set and 70 samples were chosen as prediction set. Then near infrared spectra of calibration set samples were collected by scanning, effective information was extracted from NIR spectroscopy, and the original spectroscopy data was optimized by data preprocessing methods appropriately. Then partial least square(PLS)regression was used to establish beet sugar quantitative prediction mathematical model. The performances of the models were evaluated by the root mean square of cross-validation (RMSECV), the coefficient of determination (R2) of the calibration model and the standard error of prediction (SEP), and the predicted results of these models were compared. Results show that the established mathematical model by using first derivative (FD) and standard normal variate transformation (SNV) coupled with partial least squares has good predictive ability. The R2 of calibration models of sugar content of beet is 0.908 3, and the RMSECV is 0.376 7. Using this model to forecast the prediction set including 70 samples, the correlation coefficient is 0.921 4 between predicted values and measured values, and the standard error of prediction (SEP) is 0.439, without significant difference (p &gt; 0.05) between predicted values and measured values. These results demonstrated that NIRS can take advantage of simple, rapid, nondestructive and environmental detection method and could be applied to predict beet sugar content. This model owned high accuracy and can meet the precision need of determination of beet sugar content. This detection method could be used to classify and set different prices on basis of difference of beet sugar content in the acquisition process.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2606531872</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Bell et al. (2015)</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>High level summary of learning : heat pump customers.</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>This summary presents the key messages from the final analysis of the domestic heat pump group (test cell 3) in the Customer-Led Network Revolution monitoring trials. It presents outputs from the largest study of household electricity use in the UK and provides integrated socio-technical analysis of domestic customer loads and electrical consumption on the basis of interdisciplinary multi-method research. This report draws on qualitative interviews and home energy tours conducted with 18 households recruited from the 331 domestic customers involved in the CLNR air-source-to-water heat pump (ASWHP) trial (Test Cell 3). Participants with ASWHP were contacted directly by one of the research team, using information provided by the energy retailer, which had previously identified households that were willing to participate. The semi-structured interviews focused on building rapport with the participant while discussing their energy use in general terms. These conversations included information about occupancy, major electrical loads, heating regimes, washing and cooking practices, thoughts and feelings about electricity use, seasonality and other temporal factors as well as experiences of and responses to new technologies. Interviews were focused on two clusters within the regional network: social housing tenants in South Tyneside and County Durham. Social housing landlords had installed loft and wall insulation, where feasible, and retrofitted an ASWHP at no cost to the tenants. Interview participants had lived with the ASWHP for between 6-12 months, including the winter months. Interviews were conducted between January and March 2013.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4311491591</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s11412-022-09380-y</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Yang et al. (2022)</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Evolution of the academic emotions of academically low-achieving students in knowledge building</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Abstract Knowledge Building is a pedagogical approach that emphasizes students’ collective responsibility to continuously improve their community knowledge. Advancing the frontiers of community knowledge is an exciting but challenging process, especially for low-achieving students, because it involves a continuous experience of cognitive disequilibrium and equilibrium. This knowledge generation process triggers various emotions (e.g., curiosity, surprise, and confusion) that may promote or hinder Knowledge Building. This study investigated the types and evolution of emotions experienced by academically low-achieving students in the Knowledge Building process supported by Knowledge Forum. The participants were 120 students from two Grade 9 classes and two Grade 11 classes in a Band 3 secondary school in Hong Kong. This school enrolls students performing at the 10th percentile on a pre-admission government examination at the end of elementary school. The participants built knowledge around Visual Arts. The emotions reflected in the digital Knowledge Forum notes and the evolution patterns of emotions in inquiry threads were both analyzed using content analysis and sequential pattern analysis. The participants demonstrated a high percentage of joy and relatively low percentages of frustration and boredom. Emotions were likely to maintain consistency (e.g., joy to joy) or transition between similar emotions (e.g., boredom to frustration) in the inquiry threads. By synthesizing the emotion transitions and subsequences manifested in the inquiry threads of different classes, we constructed a model of the evolution of emotions of academically low-achieving students during Knowledge Building. This model has implications for designing scaffolding or interventions to facilitate low-achieving students' learning and promote favorable emotions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>https://openalex.org/W2109805064</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Khalilollahi et al. (2002)</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>Non-Linear Elastomeric Spring Design Using Mooney-Rivlin Constants</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>A new product design for an engine mount requires very specific nonlinear load deflection curve and geometrical constraints. It was found that a specific geometrical design of an elastomeric material can be used to minimize the cost and complexities in manufacturing this product. Natural rubber was chosen for its transitional properties in shear/compression, low hysterisis, and setting losses in cyclical compression. ANSYS was extremely helpful in approaching the final design and evaluation of performance in all stages of development. Stress/strain tests such as uniaxial tension, biaxial tension, and shear were conducted to refine the nine Mooney -Revlin constants for the ANSYS material model. The final design was evaluated favorably by ANSYS and then was fabricated and tested to yield the desired characteristic curve. The test results were in close agreement with ANSYS predictions especially in the first 70 percent of the maximum deflection.</t>
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>https://openalex.org/W2012522649</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>https://doi.org/10.7771/1481-4374.1229</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Chen (2004)</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>Asian-American Literature and a Lacanian Reading of Maxine Hong Kingston's Tripmaster Monkey</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>In his paper, "Asian-American Literature and a Lacanian Reading of Maxine Hong Kingston's Tripmaster Monkey," Fu-jen Chen explores the protagonist's subjective progression into the post-Symbolic Real in Kingston's Tripmaster Monkey -- from subject as Demand, through subject as Desire, to subject as jouissance. Tripmaster Monkey records Ah Sing's transformation from a racial paranoiac at the beginning of the novel through a subject as demand to a subject as desire who is learning to target new desires via his engaging in real myth and staging real theater, and finally to a subject as jouissance -- one who is oriented to his own cause of desire and is able to enjoy. As a subject as jouissance, Ah Sing signifies a "New Man" whose racial identity as Asian-American is free from the grip of the nostalgic other (Chinese) or the racist Other (American) but subjected to the hyphen, the rupture as well as the joint that functions as the thing, cause of desire, and object petit a. At the end, Ah Sing finally can act as cause and subjectify the cause of his existence as an Asian-American.</t>
         </is>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2954176048</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.6007/ijarbss/v9-i2/5545</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Kowang et al. (2019)</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Industry 4.0 Competencies for Production Equipment Manufacturers in Malaysia</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Industry 4.0 refers to the revolution of the entire value chain process in manufacturing industrial bases on the basis of cyber physical production system.Industry 4.0 competency or the competency of manufacturers to react with the changes driven by Industry 4.0 is now become imperative for the manufacturers to sustain competitive advantage.Hence, the main objective for this study is to assess the Industry 4.0 competency levels, as well as to examine the relationship between Industry 4.0 competencies and Production Equipment Management (PEM) performance within production equipment manufacturers in Johor, Malaysia.This study views Industry 4.0 competencies from four different dimensions, which are Information and Communication Technologies (ICT) competency; Innovation Management competency; Organizational Learning competency and environment competency.The study is quantitative based via survey questionnaire and responded by 36 production equipment manufacturers.Through descriptive analysis, Industry 4.0 competencies and PEM performance of production equipment manufacturers in Johor are ranked as above average, and each dimension of Industry 4.0 competencies is significant and positively correlated with PEM performance.Furthermore, finding from the study also suggested that the Industry 4.0 competency of multinational companies is significantly higher than local companies in terms of ICT and environment competency.The main implication of this study is the strategy and initiatives of production equipment manufacturers in Johor in approaching Industry 4.0 need to be focused equally across all the four Industry 4.0 competencies.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3111970134</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.26443/mjm.v18i1.288</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Al-Zubi et al. (2020)</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>The virtualization of medical education in response to COVID-19: A Harvard and McGill pre-clerkship medical student perspective</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>In response to the spread of SARS-CoV-2 across North America in early March of 2020, Canadian and United States medical schools swiftly virtualized medical education for pre-clerkship students. With remote learning arrived novel challenges: barriers to students’ comprehension of course material, difficulties conveying the nuances of patient interaction, and social hardships hindering students’ continued progress. The 2020 Harvard-McGill Medical Student Exchange, a group of ten McGill University Faculty of Medicine and Harvard Medical School students, analyzed their institutions’ respective responses in the virtualization of medical education and their personal experiences with remote pre-clerkship education. The authors’ work provides insight into opportunities for mutual progress and cross-cultural exchange between Canadian and American medical schools, in the context of the COVID-19 pandemic. The authors detail potential changes to didactics, student research opportunities, support for students, and clerkship preparation that they expect would benefit pre-clerkship students in an ever-changing biomedical landscape. With gratitude toward their respective programs for their efforts in transitioning to virtual learning, the authors look toward a future of medical education increasingly interwoven with digital technology and responsive to social change.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4394517829</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.6084/m9.figshare.4670533</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Karcher et al. (2017)</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Orchestrating Cloud Infrastructures to Manage Sensitive Data</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Presentation for the IDCC 2017 Conference in Edinburgh. &lt;br&gt;This paper describes the Qualitative Data Repository’s configuration of a private cloud to manage sensitive data. In making the transition from a centralized host, QDR has relied on two evaluative frameworks – a questionnaire produced by the Cloud Security Alliance Consensus Assessments Initiative, and the NIST Framework for Cloud Usability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4392974446</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.bdr.2024.100448</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Peng et al. (2024)</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Crop Monitoring using remote sensing land use and land change data: Comparative analysis of deep learning methods using pre-trained CNN models</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>In the context of the rapidly evolving climate dynamics of the early twenty-first century, the interplay between climate change and biospheric integrity is becoming increasingly critical. The pervasive impact of climate change on ecosystems is manifested not only through alterations in average environmental conditions and their variability but also through ancillary shifts such as escalated oceanic acidification and heightened atmospheric CO2 levels. These climatic transformations are further compounded by concurrent ecological stressors, including habitat degradation, defaunation, and fragmentation. Against this backdrop, this study delves into the efficacy of advanced deep learning methodologies for the classification of land cover from satellite imagery, with a particular emphasis on agricultural crop monitoring. The study leverages state-of-the-art pre-trained Convolutional Neural Network (CNN) architectures, namely VGG16, MobileNetV2, DenseNet121, and ResNet50, selected for their architectural sophistication and proven competence in image recognition domains. The research framework encompasses a comprehensive data preparation phase incorporating augmentation techniques, a thorough exploratory data analysis to pinpoint and address class imbalances through the computation of class weights, and the strategic fine-tuning of CNN architectures with tailored classification layers to suit the specificities of land cover classification challenges. The models' performance was rigorously evaluated against benchmarks of accuracy and loss, both during the training phase and on validation datasets, with preventative strategies against overfitting, such as early stopping and adaptive learning rate modifications, being integral to the methodology. The findings illuminate the considerable potential of leveraging pre-trained deep learning models for remote sensing in agriculture, demonstrating that advanced CNN architectures, particularly DenseNet121 and ResNet50, are notably effective in enhancing crop type classification accuracy from satellite imagery. This study contributes valuable insights to the field of precision agriculture, advocating for the integration of sophisticated image recognition technologies to bolster crop monitoring efficacy, thereby enabling more nuanced agricultural decision-making and resource allocation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1512044162</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Hendlin (2009)</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>The Agnotology of Ecology: How Dominant Environmental Discourses Serve to Postpone Changing ‘Business as Usual’</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>The paradoxes of environmental politics abound: The persistence of antiquated highly-polluting technologies when less harmful alternatives exist attests to the power and stubbornness of industrial hegemons, barriers to accepting new technologies, and a fundamental antagonism against the free-market of ideas. Brazil’s President Lula proclaiming “the Amazon is not for sale” to conservation investment while allowing industry to continue clear-cutting rainforest for cattle grazing. While industrial hegemons’ promise of a deus ex machina environmental panacea placates the press and popular concern, honest evaluations of the systemic shifts and short-term ‘sacrifices’ needed are consistently and actively ignored. This paper investigates the willful perpetuation of ignorance, and the failure of popular discourse to confront the impact of ecological fact. The juggernaut of inertia has dragged retrograde environmental gains by implanting in popular consciousness the idea that we can have our ecological cake and eat it too without sacrifice. The notion that the future will continue to provide more or less of the present goods and services, without our having to reflect on the finitude of resources or our part in the global complicity to not to take action. Movies like An Inconvenient Truth proposing demand-side only change tap into the same feel-good ‘I-made-a-difference’ meaninglessness perpetuated by oil industry advertisements which declare “I will leave the car at home more.”Personal empowerment narratives serve to distract environmental well-wishers from the continuing infrastructural problems which perpetuate environmental violence and sends them back home to consume more pseudo-eco goods carried in their reusable bags. The rhetoric of the individual (minimal) effort ‘making a difference’ holds a great deal of appeal to those who are too busy or too enmeshed in society to be able to opt-out of ecologically destructive practices such as driving, using power from energy companies relying on coal, purchasing consumer electronics, etc. All of this greenwash has the (intended or unintended) consequence of pushing more systemic critiques and plans for sustainable change to the fringe, where shifts involving any amount of sacrifice, either in industry, economically, or personally in terms of current definitions of comfort, are seen as drastic, impolitic, and unreasonable. All of which secure the maintenance of the status quo. This paper applies rhetorical and political theory to contemporary popular environmental discourse in hopes of illuminating how the green movement is subsumed and co-opted in order to neutralize its political force. It concludes by highlighting examples of real environmental successes and focusing on the colluding factors that gave these particulars sufficient resistance against subsumption to flourish while being substantial enough to further environmental politics and policies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>https://openalex.org/W2144015650</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>Baldwin (2015)</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="D210" t="inlineStr">
         <is>
           <t>The motel in the heart of every man : the transitional spaces of Don DeLillo</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>This work illustrates the spatial nature of Don DeLillo’s writing. Through a reading of his work a network of societal spaces repeatedly occur and are utilised as locations within which to raise questions of the relationship between identity and mass society. The spaces that predominate produce the topography of his work. A network begins to develop, a series of nodal points joined by a connective tissue of pathways through which the discussion of society and identity pass. By focusing on both the nodal points themselves and the pathways that connect them the roles of motion, control and a potential counter-narrative appear. The individual spaces that DeLillo chooses as locations in his novels are relevant. Their placing in society, their means of construction and the materials of which they are constituted all illustrate the form of society which created them. In turn these spaces are observed to shape the characters that pass through them, in the process further expanding the network of societal associations._x000D_
 _x000D_
@@ -5455,288 +5865,354 @@
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2065354676</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1074/jbc.m511695200</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Flanagan &amp; Barlowe (2006)</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Cysteine-Disulfide Cross-linking to Monitor SNARE Complex Assembly during Endoplasmic Reticulum-Golgi Transport</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Assembly of cognate SNARE proteins into SNARE complexes is required for many intracellular membrane fusion reactions. However, the mechanisms that govern SNARE complex assembly and disassembly during fusion are not well understood. We have devised a new in vitro cross-linking assay to monitor SNARE complex assembly during fusion of endoplasmic reticulum (ER)-derived vesicles with Golgi-acceptor membranes. In Saccharomyces cerevisiae, anterograde ER-Golgi transport requires four SNARE proteins: Sec22p, Bos1p, Bet1p, and Sed5p. After tethering of ER-derived vesicles to Golgi-acceptor membranes, SNARE proteins are thought to assemble into a four-helix coiled-coil bundle analogous to the structurally characterized neuronal and endosomal SNARE complexes. Molecular modeling was used to generate a structure of the four-helix ER-Golgi SNARE complex. Based on this structure, cysteine residues were introduced into adjacent SNARE proteins such that disulfide bonds would form if assembled into a SNARE complex. Our initial studies focused on disulfide bond formation between the SNARE motifs of Bet1p and Sec22p. Expression of SNARE cysteine derivatives in the same strain produced a cross-linked heterodimer of Bet1p and Sec22p under oxidizing conditions. Moreover, this Bet1p-Sec22p heterodimer formed during in vitro transport reactions when ER-derived vesicles containing the Bet1p derivative fused with Golgi membranes containing the Sec22p derivative. Using this disulfide cross-linking assay, we show that inhibition of transport with anti-Sly1p antibodies blocked formation of the Bet1p-Sec22p heterodimer. In contrast, chelation of divalent cations did not inhibit formation of the Bet1p-Sec22p heterodimer during in vitro transport but potently inhibited Golgi-specific carbohydrate modification of glyco-pro-α factor. This data suggests that Ca2+ is not directly required for membrane fusion between ER-derived vesicles and Golgi-acceptor membranes. Assembly of cognate SNARE proteins into SNARE complexes is required for many intracellular membrane fusion reactions. However, the mechanisms that govern SNARE complex assembly and disassembly during fusion are not well understood. We have devised a new in vitro cross-linking assay to monitor SNARE complex assembly during fusion of endoplasmic reticulum (ER)-derived vesicles with Golgi-acceptor membranes. In Saccharomyces cerevisiae, anterograde ER-Golgi transport requires four SNARE proteins: Sec22p, Bos1p, Bet1p, and Sed5p. After tethering of ER-derived vesicles to Golgi-acceptor membranes, SNARE proteins are thought to assemble into a four-helix coiled-coil bundle analogous to the structurally characterized neuronal and endosomal SNARE complexes. Molecular modeling was used to generate a structure of the four-helix ER-Golgi SNARE complex. Based on this structure, cysteine residues were introduced into adjacent SNARE proteins such that disulfide bonds would form if assembled into a SNARE complex. Our initial studies focused on disulfide bond formation between the SNARE motifs of Bet1p and Sec22p. Expression of SNARE cysteine derivatives in the same strain produced a cross-linked heterodimer of Bet1p and Sec22p under oxidizing conditions. Moreover, this Bet1p-Sec22p heterodimer formed during in vitro transport reactions when ER-derived vesicles containing the Bet1p derivative fused with Golgi membranes containing the Sec22p derivative. Using this disulfide cross-linking assay, we show that inhibition of transport with anti-Sly1p antibodies blocked formation of the Bet1p-Sec22p heterodimer. In contrast, chelation of divalent cations did not inhibit formation of the Bet1p-Sec22p heterodimer during in vitro transport but potently inhibited Golgi-specific carbohydrate modification of glyco-pro-α factor. This data suggests that Ca2+ is not directly required for membrane fusion between ER-derived vesicles and Golgi-acceptor membranes. In eukaryotic cells, transport between different organelles occurs through vesicular intermediates that originate from one membrane compartment and fuse selectively with another. These intracellular fusion events are mediated by a family of proteins termed soluble N-ethylmaleimide-sensitive factor attachment receptors (SNAREs) 2The abbreviations used are: SNARE, soluble N-ethylmaleimide-sensitive factor attachment receptor; Cu2+/Phen, Cu(1,10-phenanthroline)2SO4; ER, endoplasmic reticulum; gpαf, glyco-pro-alpha-factor; MODIP, modeling of disulfide bridges in proteins; BAPTA, 1,2-bis(o-aminophenoxy)ethane-N,N,N′,N′-tetraacetic acid; LMA1, low molecular weight activity 1. 2The abbreviations used are: SNARE, soluble N-ethylmaleimide-sensitive factor attachment receptor; Cu2+/Phen, Cu(1,10-phenanthroline)2SO4; ER, endoplasmic reticulum; gpαf, glyco-pro-alpha-factor; MODIP, modeling of disulfide bridges in proteins; BAPTA, 1,2-bis(o-aminophenoxy)ethane-N,N,N′,N′-tetraacetic acid; LMA1, low molecular weight activity 1. (1Sollner T. Whiteheart S.W. Brunner M. Erd</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W110022963</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Shaw et al. (1994)</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Digital Mapping, Charting, and Geodesy Analysis Program Technical Review of Urban Vector Smart Map (UV Map) Prototype 1</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Abstract : In an effort to transition from paper to digital maps, the Defense Mapping Agency (DMA) has produced several prototypes that will be used throughout the military (and final products will likely be used in civilian environments). Some examples are the Digital Chart of the World and World Vector Shoreline. As part of the prototyping procedure, DMA via N096 regularly requests the Naval Research Laboratory's Digital Mapping, Charting, and Geodesy Analysis Program for evaluations of the prototypes. Described in this report are the results of the evaluation of one such prototype: Urban Vector Smart Map (UVMap). Digitized from city graphics and stored on Compact Disk-Read Only Memory, UVmap, shows potential as being an excellent source of high-resolution, easily accessible (under proper classification restraints) urban data. Implementation of the suggestions will enhance UVMap's capabilities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>https://openalex.org/W4391324814</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>https://doi.org/10.2514/6.2024-1878</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Bonal et al. (2024)</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>Design of Fixed-Length Gradual Expansion Supersonic Nozzles for Use in Wind Tunnels</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>A robust and repeatable method of designing fixed length, gradual expansion planar supersonic nozzles for use in transient wind tunnels is developed. The process designs nozzles using an ellipse for the non-simple expansion region, optimizing the major and minor radii for a fixed length. Six Mach setting nozzles from M=1.5-4.0 in ΔM=0.5 increments are designed with a fixed expansion length of 0.7 m and a test area of 0.20×0.23 m2 (8×9 in2) and length of 0.3 m (12 in). ANSYS Fluent is used to simulate the axial boundary layer progression for the Mach 2.5 nozzle using the 4-Equation Transitional SST turbulence model with a RANS solver. The boundary layer thickness at the nozzle exit is predicted to be 7.7% of the test section height. The boundary layer points are exported, and the method of reflection thickness is used to correct the nozzle contour in python. The corrected Mach 2.5 nozzle is fabricated using additive manufacturing after simulating with finite element analysis to ensure structural integrity. The nozzle is validated experimentally by measuring the Mach number through static pressure ports positioned axially along the nozzle contour, and a 10◦ wedge to induce oblique shock waves. Condensed water vapor in the test section caused by high relative humidity resulted in a lower than design Mach number for some tests. Two test runs were performed at lower humidity, reaching the expected test Mach number, validating the nozzle design.</t>
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+    <row r="213">
+      <c r="A213" t="inlineStr">
         <is>
           <t>https://openalex.org/W2119135313</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>https://doi.org/10.1346/ccmn.1984.0320602</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>Bish (1984)</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="D213" t="inlineStr">
         <is>
           <t>Effects of Exchangeable Cation Composition on the Thermal Expansion/Contraction of Clinoptilolite</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>Abstract To understand and predict the effects of a thermal pulse induced by a radioactive waste repository on clinoptilolite-bearing rocks, the lattice parameters of 6 natural and 3 cation-exchanged (Ca, K, Na) clinoptilolites were studied as a function of temperature. The samples were examined at room temperature, under vacuum, and at 50°C increments to 300°C using a high-temperature X-ray powder diffractometer. The unit cell of all samples decreased in volume between 20° and 300°C Na-saturated clinoptilolite underwent the greatest volume decrease (8.4%) and K-saturated clinoptilolite the smallest (1.6%), of the clinoptilolites studied. The volume decrease for the Ca-saturated clinoptilolite was 3.6%. The highest percentage decrease for each sample was along the b axis, generally 80–90% of the total volume decrease. The change in the a axis was the smallest and was usually &amp;lt;5%, although 26.5% of the contraction of the Na-exchanged clinoptilolite was along a . The bulk of the volume contraction of many samples occurred on evacuation at room temperature, demonstrating that the observed changes were due to water loss and not to temperature-induced structural changes. Low-angle scattering was significantly reduced upon evacuation for every sample, and the 110 reflection of clinoptilolite at 7.45°2 θ became obvious, whereas it was not in the untreated samples. These data show that the effects of heating on the unit-cell volume of clinoptilolite depend strongly on the exchangeable cation content. Significant reductions in the unit-cell volumes of natural, mixed Na-K-Ca clinoptilolites could take place in rocks in a repository environment, particularly if the clinoptilolites occurred in unsaturated, dehydrated rock. The unit-cell volumes of clinoptilolites in partially saturated rocks at temperatures below 100°C, however, should not decrease significantly.</t>
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4388596330</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/eurheartj/ehad655.2943</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Cai et al. (2023)</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Simulating atrial fibrillation patterns and screening strategies using virtual patient-level models</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Abstract Introduction Atrial fibrillation (AF) is the most common cardiac arrhythmia and is associated with increased morbidity and mortality. However, early detection and treatment of AF are hampered by highly variable occurrence and duration of AF episodes, heterogenous patterns of AF progression, and poor symptom-rhythm correlation present in many patients. Purpose To develop a computational patient-level model for simulating individual AF episodes, AF progression, and associated clinical outcomes, and to compare the effectiveness of systematic or symptom-based 1-minute electrocardiography (ECG) or 14-day Holter screening using this model. Methods We developed a Markov model with 7 different rhythm and/or clinical states (sinus rhythm (SR), asymptomatic and symptomatic AF, each with or without previous stroke, and death) and age/sex-dependent transition probabilities estimated based on clinical data (Figure 1A). Additionally, transitions between SR and AF states were modulated by AF-related remodeling, which itself was controlled by the time in AF and age. Results The virtual patient-level model enabled the simulation of changes in rhythm status and clinical outcomes during an entire lifetime with minute-level resolution (Figure 1B). Age/sex-specific AF prevalence / incidence, the proportion of symptomatic episodes and mortality in 4000 virtual patients were in good agreement with clinical data (Figure 1C). We employed the perfect knowledge about rhythm status at any moment in time provided by the model to evaluate systematic and symptom-based 1-minute ECG and 14-day Holter screening for AF in this population. In total, 2372 virtual patients &amp;amp;gt;65 years developed AF. Systematic yearly 1-minute ECG recordings only identified 58 (2.4%) patients. In contrast, 14-day Holter-monitoring detected 18% of AF patients over 65 with a median of 532 days earlier than their clinical AF diagnosis, and identified 11.8% of AF patients who were either completely asymptomatic or only had symptomatic episodes &amp;amp;lt;3 hours. Short-term (2-week) screening after a first symptom had a very low yield, which increased with increasing screening frequency and duration of follow-up (Figure 2). The majority of the remaining AF patients could be diagnosed when their symptoms lasted ≥3 hours, providing time for a traditional clinical diagnosis. Conclusion Our novel patient-level AF model can simulate individual AF patterns and clinical outcomes such as stroke and death in large cohorts of virtual patients. The model highlights the variability of AF episodes that makes effective early detection of asymptomatic AF with short-term monitoring challenging, and provides a tool for future studies into AF progression, screening and prevention of AF-related stroke and mortality.Figure 1Figure 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W3201447495</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/oxfordhb/9780198735410.013.10</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Menary (2018)</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Cognitive Integration</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>If cognition is fundamentally interactive how did it come to be so? The cognitive integration framework provides an answer: phylogenetically early forms of cognition, in humans, involve sensorimotor interactions with the environment; these are built upon by more recent cultural innovations, which are a product of cultural evolution and niche construction. The key cultural innovations are symbolic representations and the normative cognitive practices that govern their manipulation. These representational systems and cognitive practices are preserved across generations by cultural inheritance. Phylogenetically early sensorimotor capacities for making and manipulating tools can be reused to create and manipulate representations when completing cognitive tasks. Reuse depends upon neural plasticity and social learning, which results in the transformation of our cognitive capacities. The chapter also provides a dimensional analysis of integrated cognitive systems and provides responses to recent criticisms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
         <is>
           <t>https://openalex.org/W2316875045</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>https://doi.org/10.5687/iscie.12.739</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>Shimizu &amp; Abe (1999)</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="D215" t="inlineStr">
         <is>
           <t>On Input Invariance of Fuzzy Classifiers with Learning Capability</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>In our previous work we have developed fuzzy classifiers with ellipsoidal regions and with hyperbox regions. In this paper we discuss linear transformation invariance of these classifiers. First, we prove that the fuzzy classifier with ellipsoidal regions, which is based on the Mahalanobis distance, has invariance for linear transformation of input variables. Then we prove that the fuzzy classifier with hyperbox regions, whose surfaces are parallel to input axes, has limited scale invariance. Finally, we show the advantages of our classifiers over neural networks by the performance evaluation of benchmark data.</t>
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4298147432</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2022.40.28_suppl.062</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Ozcan et al. (2022)</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Home-based geriatric oncology care: A feasibility study.</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>62 Background: The Comprehensive Geriatric Assessment (CGA) improves the outcomes of older patients with cancer, and by identifying of geriatric impairments the CGA can guide the development of supportive interventions. However, the implementation of these interventions in a real-world setting can be burdensome for patients, particularly when additional visits are required in an often frail population. Therefore, our team developed a collaborative model for home-based delivery of CGA-guided interventions. Methods: We performed a retrospective review of community-dwelling patients aged ≥ 70 years with an active cancer diagnosis who were deemed to be frail by a CGA and who received home-based CGA-guided supportive interventions under a collaborative care model established by the geriatric oncology and the palliative home care teams at Hartford HealthCare Cancer Institute between October 2020 and April 2022. The collaboration is based on multidisciplinary discussion of the CGA results / interventions and weekly rounds to discuss patient’s progress and emerging needs. Results: A total of 182 patients received a CGA during the study period, 54% (n = 99) were determined to be frail based on impairment in ≥ 7 geriatric domains. Among all eligible patients, 19 patients (19%) were included in the collaborative model. The median age of enrolled patients was 84 years (74-90), 12/19 (63%) had metastatic cancer, 7/19 (37%) received systemic treatment, and 8/19 (42%) received radiation. The average number of geriatric impairments per patients was 9.5 (7-12). Geriatric impairments addressed at home were skilled nursing (19/19), physical therapy (18/19), occupational therapy (12/19), speech-language-pathology (2/19), nutrition (5/19), or social worker (11/19) support at home. The average number of unplanned hospitalizations was 1.16 per patient (range 0-4), and the average unplanned emergency room visit was 0.89 per person (range 0-4) during study time. Transition to hospice occurred in 8/19 patients (42%), the median time to transition to hospice was 33.5 days (15-167). Conclusions: This study demonstrates the feasibility of a collaborative model for home-based geriatric oncology care in a real-world setting to help reduce the burden of care on patients and ensure patient-centered delivery of CGA-guided interventions. Findings underscore the need for future work to evaluate the impact of this novel geriatric oncology care model on patient outcomes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t>https://openalex.org/W2888255146</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>https://doi.org/10.2991/emim-18.2018.27</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>Li (2018)</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>On the Importance of Physical Fitness Training in College Basketball</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>With the influence of social economy, living level of people is growing, and while they meet basic needs, people began paying attention to health that sport becomes an important role in people's life.As a comprehensive sports item, basketball is not only acquires good physical quality, it also needs quick reaction and corresponding speed.In every college, basketball has became an vital fraction among sports teaching item, however, according to present condition, most colleges neglect the importance of basketball physical strength, and they treat it as a normal sports.Therefore, we are going to discuss the importance of physical training in college basketball, and come up with related corrective actions by analyzing present situation.As a popular sports item, there are three words could represent the traits of basketball: score, technique and speed.To be specific, it means that basketball sets score as final aim, and basing on it, players could make full use of various skillful technique and advantages in speed, to win over score.College students are the main group to make our country develop better, however, according to nowadays, the amount of weakness and fatness among students is not less, and the trend of physical condition is decreasing.In order to emphasis the importance of physical training of basketball among college students, it is meaningful to explore it. Trait of Physical Training in College BasketballTo Strengthen Physical Quality.Among the traits to develop basketball physical training in college students, strengthening physical quality must be the first one.And among the technique points of basketball, the advantages of explosive effort and reaction speed is the vital support, no matter dribbling or defense, shooting or rebounding.During the physical training, students should develop their reaction speed with comprehensive field and transform actions to cope with the complex basketball field, speeding up and moving quickly.From present basketball activity, the rhythm of dribbling and defense are very quick, and in order to adapt these features, it is needed to emphasize the speed of players.Physical Training Combined Traits.In every basketball match, if one wants to win, it should use flexible defense and attack to adapt the opposite's movements, and also needs constant moving to reach a nice position, and then grasp the chance of shooting.By that, we find basketball is not only asks sufficient energy of players, it also acquires tacit agreements with each other.Physical training could not only promote the players, it is also the important part to improve strategy and gets high score.Basing on it, strategic training is vital, we should combine both and thus promote the final effect.Personal Features.With the promoting of educational revolution, the targeted teaching method for students could be the important way of improving educational effects, same as physical training in basketball.Because every student has different physical quality, the position they stay during the matches is different, and therefore targeted training for improving comprehensive physical training has been the great feature of players.In the actual training, physical training plan to every player is different, and thus to consider every individual condition which lead to a whole advancing. The Importance of Physical Training in College BasketballTo Improve the Physical Quality and Technique.To improve physical quality of students and to balance every organ in the body, students should take physical training in college basketball as aim,</t>
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+    <row r="218">
+      <c r="A218" t="inlineStr">
         <is>
           <t>https://openalex.org/W2390391878</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>Xiu-feng (2011)</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="D218" t="inlineStr">
         <is>
           <t>Predicament and Countermeasures for College Students' Psychological Health Education</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>China is now in the omnidirectional social transformation period,concerning college students' psychological health is really necessary.Influencing factors on college students' psychological health include psychological imbalance,lack of belief,employment anxiety,addicting to the net and poor psychology.The predicaments on college students' psychological health education are as follows: imbalance on carrying out,the courses and activities of education are not normal,the teachers can not satisfy the needs of work,theory research is relatively backward,psychological education is not high.Enhancing and improving college students' psychological health education must insist on people first,pay attention to humanistic care and psychological guide,adapt the needs of times' development,social progress and college population change.</t>
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2016375103</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.laa.2011.02.052</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Pan et al. (2013)</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Randomized preprocessing versus pivoting</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>It is known that without pivoting Gaussian elimination can run significantly faster (particularly for matrices that have structures of Toeplitz or Hankel types), but becomes numerically unsafe. The known remedies take their toll, e.g., symmetrization squares the condition number of the input matrix. Can we fix the problem without such a punishment? Taking this challenge we combine randomized preconditioning techniques with iterative refinement and prove that this combination is expected to make pivoting-free Gaussian elimination numerically safe while keeping it fast. For matrices having structures of Toeplitz or Hankel types transition to Gaussian elimination with no pivoting decreases arithmetic time bound from cubic to nearly linear, and our tests show dramatic decrease of the CPU time as well.</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2085360636</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1021/ja7102668</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Xie et al. (2008)</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Perturbations to the Geometric and Electronic Structure of the Cu&lt;sub&gt;A&lt;/sub&gt; Site: Factors that Influence Delocalization and Their Contributions to Electron Transfer</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Using a combination of electronic spectroscopies and DFT calculations, the effect of pH perturbation on the geometric and electronic structure of the CuA site has been defined. Descriptions are developed for high pH (pH = 7) and low pH (pH = 4) forms of CuA azurin and its H120A mutant which address the discrepancies concerning the extent of delocalization indicated by multifrequency EPR and ENDOR data (J. Am. Chem. Soc. 2005, 127, 7274; Biophys. J. 2002, 82, 2758). Our resonance Raman and MCD spectra demonstrate that the low pH and H120A mutant forms are essentially identical and are the perturbed forms of the completely delocalized high pH CuA site. However, in going from high pH to low pH, a seven-line hyperfine coupling pattern associated with complete delocalization of the electron (S = 1/2) over two Cu coppers (ICu = 3/2) changes into a four-line pattern reflecting apparent localization. DFT calculations show that the unpaired electron is delocalized in the low pH form and reveal that its four-line hyperfine pattern results from the large EPR spectral effects of ∼1% 4s orbital contribution of one Cu to the ground-state spin wave function upon protonative loss of its His ligand. The contribution of the Cu−Cu interaction to electron delocalization in this low symmetry protein site is evaluated, and the possible functional significance of the pH-dependent transition in regulating proton-coupled electron transfer in cytochrome c oxidase is discussed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1529456615</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Sleezer et al. (2004)</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Formative Evaluation of a CSCLIP Lesson</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Abstract Laboratory instruction at a distance using synchronous, remote group settings is the next generation of online learning. Computer-supported, collaborative learning requiring immersive presence (CSCLIP) relies on synchronous web-based instruction and computer-controlled or simulated activities to teach the psychomotor, cognitive, and affective skills that are required in hands-on laboratory instruction. This case study describes the formative evaluation of one CSCLIP lesson. The evaluation identified eight variables that impact such learning. The evaluation resulted in the team sharing ideas on all aspects of the course, brainstorming improvements, and planning activities for their implementation. Introduction The noteworthy growth of online learning in higher education will likely continue (Singh &amp; Pan, 2004). Most distance instruction has concentrated on asynchronous learning and computer-based training. The next generation of online learning involves learning at a distance using synchronous, remote group settings. Indeed, telepresence systems can now immerse remote learners in an environment captured by video cameras and permit them to operate and control devices and processes while working at a distance (Ausburn &amp; Ausburn, in press). This manuscript focuses on a specific instructional approach that includes content delivered via telepresence, CSCLIP (computer-supported, collaborative learning requiring immersive presence). CSCLIP integrates synchronous, collaborative e-learning and computer-controlled or simulated activities to teach the psychomotor, cognitive, and affective skills that are required in hands-on laboratory instruction. Immersive presence is characterized by same time, different place interactions among students and instructors, and by the students' physical control over elements that are typical in laboratory and other situated environments. For example, Juanita participates in a university web-based CSCLIP course while seated at her office desk. She interacts virtually during pre-specified times with equipment, local students, other remote students, and the instructors. She engages in group work, completes laboratory exercises, manipulates equipment and materials, and receives feedback on her learning. Juanita engages in the active, real-time learning of laboratory skills without physically entering the laboratory. She visits all the lab corridors, rooms, etc. virtually, and, she operates and configures many real devices as if she were physically in the lab. She also interacts with other students and instructors in a live mode. Thus the CSCLIP lab experience is a hybrid of real and virtual interaction. CSCLIP offers increased instructor capabilities. The instructor controls the instructional content, the technology that delivers the content, and CSCLIP's increased interaction capabilities that allow all students to interact with remote students, students in the physical laboratory, the instructor, and the laboratory equipment and materials. The instructor limits interaction as appropriate for the lesson. Consequently, the instructor simultaneously manages more phenomena-of-interest than are required by traditional instructional methods. The increased capabilities afforded by CSCLIP instruction call for evaluation research that informs educators about how they can shape it to maximize learning. In this manuscript, we provide as a case study the formative evaluation of one CSCLIP lesson. We first describe the CSCLIP instruction and then we provide the research methodology, results, and discussion. The CSCLIP Instruction CSCLIP was developed by a cross-disciplinary research team with faculty members from engineering, management, and telecommunications. A theoretical foundation for CSCLIP was developed based on scholarly literature in learning and online learning. The team then selected a traditional hands-on laboratory course for transformation to the CSCLIP format (See Scheets &amp; Weiser, 2001). …</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
         <is>
           <t>https://openalex.org/W2016629178</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/nml.108</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>Hoye (2006)</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D221" t="inlineStr">
         <is>
           <t>Leadership within Australian voluntary sport organization boards</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t xml:space="preserve">Nonprofit Management and LeadershipVolume 16, Issue 3 p. 297-313 Research Article Leadership within Australian voluntary sport organization boards Russell Hoye, Russell Hoye La Trobe University, Melbourne, AustraliaSearch for more papers by this author Russell Hoye, Russell Hoye La Trobe University, Melbourne, AustraliaSearch for more papers by this author First published: 24 March 2006 https://doi.org/10.1002/nml.108Citations: 64AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat Abstract This article applies leader-member exchange theory to the study of dyadic relationships between leaders (board chairs and paid executives) and members (volunteer board members) within the boards of Australian voluntary sport organizations. The article specifically examines leader-member exchanges within a sample of six Queensland State sport organizations and their relationship with board performance. It was found that leadership within voluntary sport organization boards emanates from either board chairs or executives and that when the individuals fulfilling these roles are able to develop a mature working relationship, the board's ability to perform is enhanced. These findings extend our understanding of the importance of leadership roles held by volunteers and paid professionals for the achievement of organizational outcomes. References Auld, C. "Professionalisation of Australian Sport: The Effects on Organizational Decision-Making." European Journal for Sport Management, 1997, 4 (2), 17–39. Google Scholar Auld, C., and Godbey, G. "Influence in Canadian National Sport Organizations: Perceptions of Professionals and Volunteers." Journal of Sport Management, 1998, 12, 20–38. 10.1123/jsm.12.1.20 Web of Science®Google Scholar Berger, P., and Luckmann, T. The Social Construction of Reality: A Treatise on the Sociology of Knowledge. London: Penguin, 1967. Google Scholar Bradshaw, P., Murray, V., and Wolpin, J. "Do Nonprofit Boards Make a Difference? An Exploration of the Relationships Among Board Structure, Process, and Effectiveness." Nonprofit and Voluntary Sector Quarterly, 1992, 21, 227–249. 10.1177/089976409202100304 Google Scholar Dansereau, F., Graen, G., and Haga, B. A. "A Vertical-Dyad Linkage Approach to Leadership Within Formal Organizations: A Longitudinal Investigation of the Role Making Process." Organizational Behavior and Human Performance, 1975, 13, 46–78. 10.1016/0030-5073(75)90005-7 Web of Science®Google Scholar Danylchuk, K. E., and Chelladurai, P. "The Nature of Work in Canadian Intercollegiate Athletics." Journal of Sport Management, 1999, 13, 148–166. Web of Science®Google Scholar Dockery, T. M., and Steiner, D. D. "The Role of the Initial Interaction in Leader-Member Exchange." Group and Organization Studies, 1990, 15, 395–413. 10.1177/105960119001500405 Web of Science®Google Scholar Doherty, A. J., and Danylchuk, K. E. "Transformational and Transactional Leadership in Interuniversity Athletics Management." Journal of Sport Management, 1996, 10, 292–309. Web of Science®Google Scholar Duchon, D., Green, S., and Taber, T. "Vertical Dyad Linkage: A Longitudinal Assessment of Antecedents, Measures and Consequences." Journal of Applied Psychology, 1986, 71, 56–60. 10.1037/0021-9010.71.1.56 Web of Science®Google Scholar Eisenhardt, K. M. "Building Theories from Case Study Research." Academy of Management Review, 1989, 14, 532–550. 10.2307/258557 Web of Science®Google Scholar Fletcher, K. "Effective Boards: How Executive Directors Define and Develop Them." Nonprofit Management and Leadership, 1992, 2, 283–293. 10.1002/nml.4130020307 CASPubMedGoogle Scholar Gomez, C., and Rosen, B. "The Leader-Member Exchange as a Link Between Managerial Trust and Employee Empowerment." Group and Organization Management, 2001, 26 (1), 53–69. 10.1177/1059601101261004 Web of Science®Google Scholar Graen, G. B., and Uhl-Bien, M. "Relationship-Based Approach to Leadership: Development of Leader-Member Exchange (LMX) Theory of Leadership over Twenty-Five Years: Applying a Multi-Level Multi-Domain Perspective." Leadership Quarterly, 1995, 6 (2), 219–247. 10.1016/1048-9843(95)90036-5 Web of Science®Google Scholar Heimovics, R. D., and Herman, R. D. "Responsibility for Critical Events in Nonprofit Organizations." Nonprofit and Voluntary Sector Quarterly, 1990, 19, 59–72. 10.1177/089976409001900107 Google Scholar Heimovics, R. D., Herman, R. D., and Jurkiewicz, C. L. "The Political Dimension of Effective Nonprofit Executive Leadership." Nonprofit Management and Leadership, 1995, </t>
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2800763373</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.joca.2018.02.779</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Casas-Fraile et al. (2018)</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Effect of frizzled related protein (FRZB) on muscles: an inverse relationship between FRZB and calpain-3 with potential impact on muscle dystrophy and osteoarthritis</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Purpose: To better understand the role of FRZB in muscles and identify novel mechanisms of disease that could be relevant to either osteoarthritis or muscular dystrophy. FRZB is an extracellular modulator of the Wnt signalling pathway and protects against the development of osteoarthritis in mice. The role of FRZB in cartilage and bone homeostasis has been documented. Frzb-/- mice also have reduced voluntary running performance compared to wildtype animals but a potential role for FRZB in muscle biology remains unknown. In the muscles of patients with limb girdle muscular dystrophy 2A (LGMD2A), a recessive disorder associated with loss of function mutations in the Calpain 3 gene, FRZB gene is strongly upregulated. Methods: Expression and protein levels of genes known to be involved in LGMD2A were analysed in dissected soleus, tibialis anterior and quadriceps muscles from wildtype and Frzb-/- mice. Quantification of gene expression and protein levels were carried out using BioRad SYBR 384 custom plate or quantitative PCR analysis (Taqman probes) and Western blot respectively. Cell culture: Satellite cells from these muscles were obtained by enzymatical digestion, quantified and characterized. Mesoangioblasts from wildtype and Frzb-/- mice were selected as alkaline phosphatase positive cells by FACS sorting, quantified and characterized, including their adipogenic differentiation potential by Oil Red O staining. In vivo muscle regeneration and gait analysis: Muscle injury was induced by cardiotoxin injection to evaluate the regenerative capacity of muscles isolated from wildtype and Frzb-/- mice. Gait analysis was performed using an automated Catwalk system. Chronic exercise protocol: wildtype and Frzb-/- mice were subjected to a 5-week exercise protocol on a treadmill, and muscles were analysed at morphological, RNA and protein levels by immunohistological stainings, qRT-PCR and Western blot. Results: Body size and muscle weight were slightly reduced in Frzb-/- mice compared to wildtypes. Gene analysis showed upregulation of Capn3, the mutant gene in LGDM2A, as well as of Rora, MyoD and Myog in Frzb-/- mice (downregulated in LGMD2A). Igf1, Tfrc, Slc16a1, Fn1 (upregulated in LGMD2A) and Ky genes were downregulated in Frzb-/- muscles compared to wildtype. Cell culture: Frzb-/- mice showed more AP+ cells but with lower expression of plateled derived growth factor receptor A (PDGFRA) and reduced adipogenic potential. On the other hand, satellite cells of Frzb-/- mice showed higher number of MyoD and Ki67 positive myonuclei as well as a higher proliferation rate. In vivo muscle regeneration and gait analysis: Muscle regeneration capacity after cardiotoxin injection was similar in WT and Frzb-/- mice. Gait analysis showed that Frzb-/- mice required more time for stand, swing and step cycle. The base of support distance between the hind paws was shorter in Frzb-/- mice and these mice used more different stepping patterns. Chronic exercise protocol: No differences were observed between WT and Frzb-/- mice regarding exercise. Conclusions: The inversed relationship between upregulation of Capn3 gene in Frzb-/- mice and the previously described upregulation of FRZB in LGMD2A patients, suggest that CAPN3 and FRZB genes control each other’s expression. The fact that muscle regeneration is not affected in Frzb-/- mice and the observation that muscle maturation in LGMD2A patients is impaired, suggest that inhibition of FRZB could be a therapeutic target in muscular dystrophies. This is further supported by the suggestion that in Frzb-/- mice, the transition from preadipocyte to differentiated adipocyte may be inhibited as less adipocytes are produced, contrary to LGMD2A patients, where adipocyte differentiation and fat are increased in muscle. The gene expression data and functional analysis including gait evaluation suggest that low FRZB levels may also affect muscle function and provide an additional mechanism by which FRZB can influence onset and severity of osteoarthritis.</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W90572113</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Termrungruanglert et al. (2012)</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Model for predicting the burden and cost of treatment in cervical cancer and HPV-related diseases in Thailand.</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Cervical cancer is a significant health burden in many countries. Long-term cost of care is still not well understood. We aimed to evaluate the long-term burden of illness and healthcare resource utilization associated with cervical cancer, cervical intraepithelial neoplasia (CIN) and genital warts from the care provider perspective.We developed a health state-transition Markov model to portray the algorithm of treatment of stages of cervical cancer, CIN and genital warts by tracking a hypothetical lifetime cohort of 12-year-old girls. Costs in this study were unit cost; capital costs and labor costs were included in the unit cost for inpatients and out-patients.The highest incidence of CIN and genital warts was observed in women aged 20-30 years old. For cervical cancer, the highest incidence was 45-55 years. Death rate was estimated at 2%, 8%, 84% and 94% in cervical cancer Stage IA1, IA2-IIA, IIB-IVA and IVB, respectively. The estimated mean direct cost per patient with cervical cancer Stage IA1, IA2-IIA, IIB-IVA, IVB, CIN1, CIN2/3 and genital warts were 41,117 Thai Baht ($1,277 US), 97,250 Thai Baht ($3,020 US), 402,683 Thai Baht ($12,506 US), 322,619 Thai Baht ($10,019 US), 5,381 Thai Baht ($167 US), 49,933 Thai Baht ($1.551 US) and 3,585 Thai Baht ($111 US), respectively. Cost for survival or death case was indifferent. The overall lifetime costs from the provider perspective were evaluated at 859.1 million Baht ($26.7 million US) per a cohort of 100,000 women which corresponds to approximately 4,244 million Baht ($131.8 million US) for the current number of Thai 12-year-old girls.HPV-related diseases impose health and cost burdens in Thailand. The national immunization programme to reduce this burden as well as further research to evaluate the impact is keenly expected.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4296271756</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/vrg.2021.0011</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Abel &amp; Jeon (2021)</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Unfolding Digital Asias</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>vi Editors’ Introduction Jonathan E. Abel and Joseph Jonghyun Jeon Unfolding Digital Asias What we call Digital Asias enfolds a series of reifications. Under the rubric of Digital Asias, we mean to encompass the digital cultures of Asia, the historical processes of their digitization, digital industries in Asia, the forms of labor that emerge and persist in its name, Asian social media, and the diasporic iterations of all these elements. To raise the issue of Digital Asias is to mark our moment in the history of computerization and to acknowledge its transnational flows and the dynamic processes through which these logics operate, but it also risks compliance with the most simplistic of “digital age” periodizations and essentializing Asia (currently home to 60 percent of the world’s population) as a coherent construct. Though our insistence on Digital Asias militates against Silicon Valley necropolitics in the guise of capitalist innovation and postsocialist planetarity, which dreams of the erasure of geopolitical divisions, we are wary of replacing one set of delusions with another. Such pitfalls notwithstanding, this enfolding is a juncture that provides some critical affordances. Too often that which goes under the rubric of the digital deals only with virtual surfaces, like the sleek graphical user interfaces of contemporary systems software, which hide machinic computational operations from human sight. It is no wonder that new technologies are often presented as empowering and in utopian terms, even as this discourse elides realities like unequal access and exploited labor. To insist on more capacious and grounded digital geographies is to reconcile the disparity between dream and realization and to uncover the hard kernels of social, economic, and political base programming that prop up the thin virtuality of cyberspace. Now is a good time for such insistence. The futuristic and fanciful claims of first-­wave computerization from the 1960s to the 1990s have long since died. The subsequent age of Editors’ Introduction vii cyberspace has similarly fallen short of early reverie. We have come to see that digitization contributes to a widening, rather than attenuation of inequality and nurtures fascism and demagoguery as much as it does democracy. And in Asia, increasingly Asian digital production seems a fuller realization of Western global capitalist predecessors rather than a subversive alternative. From this vantage point, a broader picture emerges of the manifold nature of Digital Asias. To speak of transformations born in Digital Asias is not to speak of discrete continental regimes of capital accumulation but rather to note their imbrication and variance in a global history in which technological innovation acts as an accelerant for older capitalist strategies and exploitative formations. The digital economy emerges at a moment of global deindustrialization and declining rates of profit in what is, to be sure, a combined and uneven process, and so traditional questions about the relations of labor to production nevertheless abide. If the digital (like capital itself) alienates workers from their own labor and means of production, then paying attention to Digital Asias reveals the otherwise obscured labor along with the economic, social, and geographic unevenness that constitutes the infrastructure of global digitality today. This infrastructure is difficult to see because digital technologies amplify capitalism’s ahistorical tendencies. To unfold Digital Asias involves drawing attention to these otherwise obscured geopolitical contexts, the materiality behind virtuality’s façade, the twofold nature of labor, and the nonbenign aspects of technological “progress.” Furthermore, attentiveness to the fold is not simply about making visible that which is unseen due to its being enfolded by the allure and promise of the digital; it also indexes a methodological approach that folds in together operations and processes that have hitherto been understood as discrete.1 Even the choice of the cover image for this issue presented a telling problem. In seeking images that seemed intuitively to speak to Digital Asias, we found that most of the more obvious choices also reinscribed the kind of techno-­Orientalist aesthetics (explored in greater detail later) that it is our intention to complicate. We finally settled on an image featured in Emanuel David’s contribution to this issue, The Heat/Viva La Vida (Portrait of a Female Artist at 40, Self Portrait) by Wawi Navarroza. A...</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
         <is>
           <t>https://openalex.org/W2347136549</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>Macek (2014)</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="D224" t="inlineStr">
         <is>
           <t>New Media in Everyday Life: Preliminary Observations andQuestions</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>Domestication of a variety of new media technologies is
 gradually changing our everyday lives. Descriptions of this
@@ -5755,1166 +6231,692 @@
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2091127605</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0304-8853(93)91178-a</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Loewenhaupt et al. (1993)</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Spin structures of Fe/Gd and Fe/Cr multilayers determined by polarized neutron reflectometry</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Polarized neutron reflection was used to determine the magnetic structure of two different antiferromagnetically coupled multilayer systems, Fe/Gd and Fe/Cr. In Fe/Gd, the Fe and Gd moments are coupled antiparallel at the interface. At low temperatures a surface-induced magnetic phase transition was found. In Fe/Cr, annealing at temperatures of up to 425°C resulted in the degrading of antiferromagnetic coupling between Fe layers and in the formation of ferromagnetically coupled regions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2164600253</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Parida et al. (2014)</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Mastering the Transition to Product-Service Provision: Insights into Business Models, Learning Activities, and Capabilities: Results of a Large-Scale Survey Suggest That a Thorough and Comprehensive Organizational Transformation Is Required to Support the Transition to Servitization</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>OVERVIEW: Traditional manufacturing companies are increasingly offering industrial services in order to secure their position in the globally competitive environment. However, little is known about the extent and effect of this transition. Based on a large-scale survey of Finnish manufacturing companies, this study offers descriptive statistics for current industrial service offerings. Merely adding on simple services to a current product offering is shown to be negatively associated with fi nancial performance. Rather, our statistical analysis suggests a thorough and comprehensive organizational transformation is required to generate signifi cant fi nancial value. In addition, qualitative data from globally recognized Swedish and Finnish frontrunner manufacturing companies offer insights into how these market leaders have successfully navigated the organizational challenges of such a transformation to offer successful industrial product-service systems. Based on the data, we outline four distinctive capabilities and associated key learning activities required to facilitate a successful transition toward becoming a high-value industrial product-service provider.</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W174020264</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Bloom (2002)</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Professionalism in the practice of medicine.</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Although medicine is universally recognized as the archetype of the professions, it can only be understood as part of the modern medical center, a dynamic social system consisting of the university, the hospital, the medical center and, most recently, corporate managed care. Such a view results in a portrait of medicine as a profession transformed, driven by huge and growing health care markets, its fate tied not only to state bureaucracies, but also to the dynamics of both health and non-health care businesses. The question asked here is how does such a radical change in medical practice affect medical education. Using methods of historical analysis, it appears that medical educators operate as though the educational process itself determines the values, and therefore the present and future behavior of their students. In other words, at the end of their formal education, doctors are fully formed professionals. However, from the analysis of this paper it can be concluded that the physician as an individual cannot function independently of the structure of the society and its general conception of the world. In the structure of medicine s present situation, the ethical standards of professionalism, as they are classically defined, cannot survive. Instead, modern medical graduates, much like their teachers and professional mentors, will be forced to adapt to a situation that is contradictory to the best traditions of medicine. How to stop this process is the urgent question. Three answers are presented.</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2032382234</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0002-9378(12)90727-9</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Cutsem (1991)</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>The in vitro activity of terconazole against yeasts: Its topical long-acting therapeutic efficacy in experimental vaginal candidiasis in rats</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>The activity of the broad-spectrum triazole antifungal terconazole was evaluated in vitro by the serial decimal dilution technique in broth media. The best correlation between in vitro and in vivo activity was found in brain-heart infusion broth and Eagle's minimum essential medium. All strains of Candida albicans, C. tropicalis, C. krusei, C. parapsilosis, C. guilliermondii, C. glabrata, and Trichosporon beigelii tested were susceptible. Terconazole blocked the morphogenetic transformation from the yeast into the filamentous form at concentrations of 0.008 to 0.05 μg/ml. In experimental candidiasis in castrated rats with estrogen-induced permanent pseudoestrus, topical treatment with terconazole was superior to miconazole, clotrimazole, econazole, butoconazole, tioconazole, sulconazole, bifonazole, valconazole, fenticonazole, nystatin, and amphotericin B in the various schedules used. A 3-day once-daily intravaginal application of terconazole 0.8% was usually sufficient to provide a functional therapeutic period of 7 days because of prolonged high biologically active antifungal levels in the vagina. No side effects were observed at any concentration of terconazole. The activity of the broad-spectrum triazole antifungal terconazole was evaluated in vitro by the serial decimal dilution technique in broth media. The best correlation between in vitro and in vivo activity was found in brain-heart infusion broth and Eagle's minimum essential medium. All strains of Candida albicans, C. tropicalis, C. krusei, C. parapsilosis, C. guilliermondii, C. glabrata, and Trichosporon beigelii tested were susceptible. Terconazole blocked the morphogenetic transformation from the yeast into the filamentous form at concentrations of 0.008 to 0.05 μg/ml. In experimental candidiasis in castrated rats with estrogen-induced permanent pseudoestrus, topical treatment with terconazole was superior to miconazole, clotrimazole, econazole, butoconazole, tioconazole, sulconazole, bifonazole, valconazole, fenticonazole, nystatin, and amphotericin B in the various schedules used. A 3-day once-daily intravaginal application of terconazole 0.8% was usually sufficient to provide a functional therapeutic period of 7 days because of prolonged high biologically active antifungal levels in the vagina. No side effects were observed at any concentration of terconazole.</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2001469490</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/02508060608691954</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Matondo &amp; Msibi (2006)</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Water Resource Availability in Three Catchments of Swaziland under Expected Climate Change</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Abstract The greenhouse gases (CO2, CH4, N2O, HFCs, PFCs, and SF6) concentrations in the atmosphere have increased very much since the industrial revolution. The greenhouse gas effect has been projected to cause a global average temperature increase on the order of 1.4 to 5.8°C over the period of 1990 to 2100. The global average annual precipitation is projected to increase during the 21st century due to the greenhouse effect. The impact of climate change on hydrology and water resources in the three catchments of Swaziland (Komati, Mbuluzi and Ngwavuma) has been evaluated using General Circulation Model results (rainfall, potential evapotranspiration, air temperature etc.) as inputs to a rainfall runoff model. Three General Circulation Models (GCMs) namely: Canadian Climate Change Equilibrium (CCC-EQ); Geophysical Fluid Dynamics Laboratory (GFDL) and United Kingdom Transient Resilient (UKTR) were found appropriate for use to project the temperature and precipitation changes for Swaziland for year 2075. This information was used to generate the temperature, precipitation and potential evapotranspiration values for the three catchments for year 2075 which was input into a calibrated WatBall rainfall runoff model. Simulation results without taking into consideration of water use projections show that there will be high flows during the summer months but low flows during the winter months. Simulation results after taking into consideration of water use projections show a water deficit from June to September in both the Komati, and Ngwavuma catchments and a water deficit from May to September in the Mbuluzi catchment. This means that the environmental water needs and Swaziland's water release obligation in the three catchments to South Africa and Mozambique will not be met during the winter months under expected climate change conditions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2103510186</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.9734/bjpr/2012/971</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Builders et al. (2012)</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Intrinsic and Functional Properties of a Gelling Gum from Dioclea reflexa: A Potential Pharmaceutical Excipient</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Aims: Dioclea reflexa Hook F., is a woody vine widely distributed within tropical Africa and South America, in Nigeria flour prepared from the seeds is used as a soup thickener. The objectives of this study were to extract and modify the native gum from the seeds of D. reflexa, and evaluate their physicochemical and functional properties as a potential pharmaceutical excipient. Place and Duration of Study: Department of Pharmaceutical Technology and Raw Materials Development, National Institute for Pharmaceutical Research and Development, Abuja, Nigeria. Between January 2009 and October 2010. And Department of Pharmaceutics, Faculty of Pharmaceutical Sciences, University of Nigeria, Nsukka, Nigeria. Between June 2010 and October 2011. Methodology: Native D. reflexa gum (DR-gum) was extracted from the seeds of D. reflexa and modified by ionotropic gelation in calcium chloride solution. The gum’s gel clarity and swelling in buffer solutions of different pH (4, 7, and 9.2), as well as the moisture sorption characteristics at different relative humidity (RH) were determined in relation to guar gum (G-gum). Also, the Fourier transform infrared (FT-IR) and Differential scanning calorimetry (DSC) analysis as well as the powders’ flow properties were evaluated. Results: DR-gum, XDR-gum and G-gum are typical hydrogels showing considerable responsiveness in swelling and gel clarity to changes in pH. The DSC thermographs of DR-gum and G-gum were similarly characterized by a glass transition and a cold crystallization transitions peaks as compared to the glass transition and melting transition peak of XDR-gum. The moisture sorption profile indicated that DR-gum and G-gum are moderately hygroscopic while XDR-gum is slightly hydroscopic. The FT-IR of the gums showed the basic differences in the functional groups of the respective polymer chain network. The bulk particles of the three gums showed comparative good flow. Conclusion: The basic similarities and differences in the physicochemical and functional properties of DR-gum and XDR-gum, and G-gum indicate their potential as a pharmaceutical excipient.</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2411616748</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Kapidžić-Bašić et al. (2011)</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>[The effect of physical therapy on the most severe forms of knee structral changes caused by osteoarthritis].</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>In the most severe form of structural changes on knee caused by osteoarthritis non-surgical treatment provide minimal results and a question of its purpose is being raised. Aim of the study was to examine the possibilities of physical treatment of patients with the most severe degree of structural changes caused by knee osteoarthritis. Examination was conducted on 60 patients that were on physical treatment because of the knee OA. Structural changes are evaluated by Kellgren-Lawrence scale, functional ability by Lequesne index, and pain by Visual analog scale. Physical treatment lasted for 4 weeks. After the physical treatment there was a significant improvement of functional ability (p = 1.78E-07), but the size of improvement was reduced by the level of structural changes. It was significantly lower in IV class in relation to III and II class (p &lt; 0.05). Physical treatment has lower affect by patients with the most severe form of structural changes caused by knee osteoarthritis, but it still can help patients to ease the appearance of complete dependence on other people's help.</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4313888469</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.26518/2071-7296-2022-19-6-916-927</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Боброва (2023)</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Updating parameters of an information model for road construction flow in work development project</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Introduction. The article reflects the main trends and problems in the development of information modelling technology in the Russian road industry. A set of mutually integrated domestic software products is presented that provide the formation and support of information models of roads in the life cycle process. It has been established that the transition from traditional simulation modelling of building flows to information modelling of flow systems requires a detailed analysis of the lower elements of the flow structure. Such elements in the system of an integrated road construction flow include linear specialized detachments. Models and methods. A single information model of an object as part of the construction organization project (COP) forms the overall strategy for managing the construction of the road. At the stage of the project for the production of works (PPW), it is necessary to take into account the technical and technological features of the contractor in the calendar plan. At the PPW level, it is necessary to create a new structure and define the parameters of this structure in such a way as to satisfy the specified restrictions established by the COP in terms of time and costs, and also provide for certain reserves for insuring possible risks. The aim of the study is to develop a methodology for information modelling of a specialized road flow as part of the PPW, taking into account the optimization and updating of its parameters in relation to the conditions of the contracting organization. Results. A modelling algorithm has been developed for creating an updated structure of a specialized linear flow in an integrated computer environment, which provides visualization of a construction site, control and operational management of work in a shared data environment. An example of the implementation of this method is considered when designing a specialized flow, first as part of a COP, with the subsequent updating of this model in the MS Project program when developing a PPW based on a typical flow chart. Conclusion. The use of information modelling creates wide opportunities for analyzing and monitoring the progress of work at the construction site of a linear flow, and also allows you to perform prompt automated restructuring of the loading of detachment vehicles when adjusting the amount of work at the work sites.</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3191380334</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/07038992.2021.1959307</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Ruhan et al. (2021)</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>A Fast Recursive LRX Algorithm with Extended Morphology Profile for Hyperspectral Anomaly Detection</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>In this paper, a fast anomaly target detection method based on morphological profile and improved Reed-Xiaoli (RX) is proposed. First, an extended morphological profile (EMP) containing spatial information is extracted from the original hyperspectral images by means of mathematical morphological transformations. Moreover, a novel fast local RX (FLRX) algorithm is also proposed. This algorithm iteratively updates the inverse matrix of covariance using matrix inversion lemma, thereby reducing the computational complexity of the Mahalanobis distance and improving the algorithm's calculation speed. Finally, a combined EMP and FLRX detector, named the EMP-FLRX method is constructed; as this approach can effectively utilize the spectral information and spatial information of hyperspectral images, it greatly improves detection accuracy and reduces the running time. We compare the proposed method with some classical and recently proposed approaches on six real datasets. the area under the curve (AUC) value of EMP-FLRX on six datasets is 0.9978, 0.9822, 0.9780, 0.9492, 0.9999 and 0.9852 respectively, while the running time is 9.4070, 14.4330, 6.2478, 9.0242, 19.9820, and 1.9060 s respectively. Experimental results clearly demonstrate that the performance of our proposed method is quite competitive in terms of detection accuracy and running time.</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2382950156</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Zhao (2005)</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>A Non-rigid Medical Image Registration Algorithm Based on Modally Controlled Free Form Deformation</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>Objective To register pre-operative MRI/CT images with intra-operative ultrasound images based on vessels visible in both of the modalities. Method A non-rigid registration method of multimodal medical images based on Free Form Deformation(FFD) was proposed. When the images were aligned, the centerline points of the vessels in one image aligned with the intensity ridge points in the other image. Rigid transformation was adopted in global registration while local deformation was described by a Free Form Deformation based on a modally controlled B-spline. The method applied an optimization strategy combining the genetic algorithm with the conjugated gradients algorithm to minimize the objective function. Result Two experiments were designed on phantom and clinical data to evaluate the method. The results demonstrated that the registration method was consistent accurate. The average standard deviation of the final transformation parameters was sub-voxel, sub-millimeter, and within 0.010 radians. Conclusion The results show that the method has good registration accuracy and convergence rate. It can be applied efficiently in the ultrasound-image-guided surgery system.</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4388998135</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jobe.2023.108191</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Yang et al. (2024)</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Research on hysteretic performance of a semi-rigid energy dissipation connection for precast cladding panels</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>A novel semi-rigid energy dissipation connection (SEDC), capable of transitioning the precast cladding panel from a rigid connection to a flexible connection with the primary structure as the seismic action increases, is proposed in the present study. The combination of the bending part and friction part endows the connection with the ability to provide adjustable sliding force and sufficient energy dissipation for the precast cladding panel. The design methods of SEDC, including the elastic stiffness, the yield force, the yield displacement, and the bear capacity, are proposed, followed by a coordinated design method between the precast cladding panels and the primary structure based on SEDC. Fourteen SEDC specimens are designed and tested under monotonic and cyclic loading tests to investigate the semi-rigid workability of SEDC and to evaluate the influence of design parameters of the bending and friction parts. Two working processes, which are the static friction process and the sliding friction process, are clearly reflected by the monotonic test results. The cyclic test results indicate that the SEDC specimens demonstrate satisfactory plastic development with full hysteretic curves, stable load capacity, reliable deformation ability, and favorable energy dissipation ability. The U-shaped bending plates exhibited a track-like deformation pattern without any observed tears or cracks. The NAO friction pads demonstrated a fragmented damage pattern, while the Brass friction pads demonstrated a linear scratch damage pattern. SEDC specimens equipped with Brass friction pads exhibited better low-cycle fatigue performance, which can be attributed to the favorable wear resistance of the Brass material. In addition, finite models of SEDCs are established and validated based on Abaqus. The combined working mechanism of SEDC, including the contribution ratio of load capacity and dissipated energy from the bending part and the friction part, is clearly revealed. Furthermore, the influence of parameters including the thickness (t), width (B), straight section length (l), radius (R), and height (h) of the bending part, as well as the pre-tightening force (pc) and the friction coefficient (f) of the friction part, are also summarized based on both the experimental and numerical analyses. Further discussions, including the calculation of the seismic behavior factor and the measurements for accurate construction, are conducted.</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2086612566</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1130/0016-7606(1985)96&lt;58:tgstge&gt;2.0.co;2</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Graciansky et al. (1985)</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>The Goban Spur transect: Geologic evolution of a sediment-starved passive continental margin</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Research Article| January 01, 1985 The Goban Spur transect: Geologic evolution of a sediment-starved passive continental margin PIERRE CHARLES DE GRACIANSKY; PIERRE CHARLES DE GRACIANSKY 1Ecole Nationale Superieure des Mines, 60 Boulevard Saint Michel, 75272 Paris Cedex 06, France Search for other works by this author on: GSW Google Scholar C. WYLIE POAG; C. WYLIE POAG 2U.S. Geological Survey, Woods Hole, Massachusetts, 02543 Search for other works by this author on: GSW Google Scholar ROBERT CUNNINGHAM, JR.; ROBERT CUNNINGHAM, JR. 3Exxon Production Research Company, P.O. Box 2189, Houston, Texas 77001 Search for other works by this author on: GSW Google Scholar PAUL LOUBERE; PAUL LOUBERE 4Department of Geology, Northern Illinois University, De Kalb, Illinois 60115 Search for other works by this author on: GSW Google Scholar DOUGLAS G. MASSON; DOUGLAS G. MASSON 5Institute of Oceanographic Sciences, Brook Road, Wormley, Godalming, Surrey, United Kingdom Search for other works by this author on: GSW Google Scholar JAMES M. MAZZULLO; JAMES M. MAZZULLO 6Department of Geology, Texas A&amp;M University, College Station, Texas 77840 Search for other works by this author on: GSW Google Scholar LUCIEN MONTADERT; LUCIEN MONTADERT 7Institut Francais du Petrole, 1 et 4, avenue de Bois-Prénu, 92506 Rueil-Malmaison, France Search for other works by this author on: GSW Google Scholar CARLA MÜLLER; CARLA MÜLLER 8Geologisch-Palaontologisches Institut, Universitat Frankfurt/Main, 32-32 Senckenberg - Anlage, 6000 Frankfurt/Main, West Germany. Search for other works by this author on: GSW Google Scholar KENICHI OTSUKA; KENICHI OTSUKA 9Institute of Geosciences, Faculty of Science, Shizuoka University, Shizuoka 422, Japan Search for other works by this author on: GSW Google Scholar LESLIE A. REYNOLDS; LESLIE A. REYNOLDS 10U.S. Geological Survey, Woods Hole, Massachusetts, 02543 Search for other works by this author on: GSW Google Scholar JACQUES SIGAL; JACQUES SIGAL 1133 rue de Montreuil, 94300 Vincennes, France Search for other works by this author on: GSW Google Scholar SCOTT W. SNYDER; SCOTT W. SNYDER 12Department of Geology, East Carolina University, Greenville, North Carolina, 27834 Search for other works by this author on: GSW Google Scholar HILLARY A. TOWNSEND; HILLARY A. TOWNSEND 13Department of Oceanography, University of Southampton, Southampton SO9 5NH, United Kingdom Search for other works by this author on: GSW Google Scholar STEPHANOS P. VAOS; STEPHANOS P. VAOS 14Department of Geology, Florida State University, Tallahassee, Florida 32306 Search for other works by this author on: GSW Google Scholar DOUGLAS WAPLES DOUGLAS WAPLES 15Mobil Research and Development Corporation, Field Research Laboratory, P.O. Box 900, Dallas, Texas, 75221 Search for other works by this author on: GSW Google Scholar Author and Article Information PIERRE CHARLES DE GRACIANSKY 1Ecole Nationale Superieure des Mines, 60 Boulevard Saint Michel, 75272 Paris Cedex 06, France C. WYLIE POAG 2U.S. Geological Survey, Woods Hole, Massachusetts, 02543 ROBERT CUNNINGHAM, JR. 3Exxon Production Research Company, P.O. Box 2189, Houston, Texas 77001 PAUL LOUBERE 4Department of Geology, Northern Illinois University, De Kalb, Illinois 60115 DOUGLAS G. MASSON 5Institute of Oceanographic Sciences, Brook Road, Wormley, Godalming, Surrey, United Kingdom JAMES M. MAZZULLO 6Department of Geology, Texas A&amp;M University, College Station, Texas 77840 LUCIEN MONTADERT 7Institut Francais du Petrole, 1 et 4, avenue de Bois-Prénu, 92506 Rueil-Malmaison, France CARLA MÜLLER 8Geologisch-Palaontologisches Institut, Universitat Frankfurt/Main, 32-32 Senckenberg - Anlage, 6000 Frankfurt/Main, West Germany. KENICHI OTSUKA 9Institute of Geosciences, Faculty of Science, Shizuoka University, Shizuoka 422, Japan LESLIE A. REYNOLDS 10U.S. Geological Survey, Woods Hole, Massachusetts, 02543 JACQUES SIGAL 1133 rue de Montreuil, 94300 Vincennes, France SCOTT W. SNYDER 12Department of Geology, East Carolina University, Greenville, North Carolina, 27834 HILLARY A. TOWNSEND 13Department of Oceanography, University of Southampton, Southampton SO9 5NH, United Kingdom STEPHANOS P. VAOS 14Department of Geology, Florida State University, Tallahassee, Florida 32306 DOUGLAS WAPLES 15Mobil Research and Development Corporation, Field Research Laboratory, P.O. Box 900, Dallas, Texas, 75221 Publisher: Geological Society of America First Online: 01 Jun 2017 Online ISSN: 1943-2674 Print ISSN: 0016-7606 Geological Society of America GSA Bulletin (1985) 96 (1): 58–76. https://doi.org/10.1130/0016-7606(1985)96&lt;58:TGSTGE&gt;2.0.CO;2 Article history First Online: 01 Jun 2017 Cite View This Citation Add to Citation Manager Share Icon Share Facebook Twitter LinkedIn Email Permissions Search Site Citation PIERRE CHARLES DE GRACIANSKY, C. WYLIE POAG, ROBERT CUNNINGHAM, PAUL LOUBERE, DOUGLAS G. MASSON, JAMES M. MAZZULLO, LUCIEN MONTADERT, CARLA MÜLLER, KENICHI OTSUKA, LESLIE A. REYNOLDS, JACQUES SIGAL, SCOTT W. </t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2566968228</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.ijleo.2016.12.011</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Li &amp; Jiang (2017)</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Effect of position-dependent effective mass on nonlinear optical properties in a quantum well</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>In this study, the effect of position-dependent effective mass (PDM) on the nonlinear optical properties in a GaAs/AlAs semiconductor quantum well (QW) are intensively studied. Calculations are performed using both the position-dependent effective mass and a constant effective mass within the framework of the compact-density-matrix approach, iterative method, and coordinate transformation method. We have calculated the third-harmonic generation (THG) coefficients, the optical absorption (OA) coefficients and the refractive index changes (RIC) as a function of the incident photon frequency and obtained the energy eigenvalues and eigenfunctions of the system through solving the Schrödinger equation. The results show that spatially varying electron effective mass has a significant impact on the nonlinear optical properties in a quantum well.</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2948048132</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3389/fpls.2019.00661</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Billault-Penneteau et al. (2019)</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Dryas as a Model for Studying the Root Symbioses of the Rosaceae</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>The nitrogen-fixing root nodule symbiosis is restricted to four plant orders: Fabales (legumes), Fagales, Cucurbitales and Rosales (Elaeagnaceae, Rhamnaceae and Rosaceae). Interestingly all of the Rosaceae genera confirmed to contain nodulating species (i.e. Cercocarpus, Chamaebatia, Dryas and Purshia) belong to a single subfamily, the Dryadoideae. The Dryas genus is particulary interesting from an evolutionary perspective because it contains closely related nodulating (Dryas drummondii) and non-nodulating species (Dryas octopetala). The close phylogenetic relationship between these two species makes Dryas an ideal model genus to study the genetic basis of nodulation by whole genome comparison and classical genetics. Therefore, we established methods for plant cultivation, transformation and DNA extraction for these species. We optimized seed surface sterilization and germination methods and tested growth protocols ranging from pots and Petri dishes to a hydroponic system. Transgenic hairy roots were obtained by adapting Agrobacterium rhizogenes-based transformation protocols for Dryas species. We compared several DNA extraction protocols for their suitability for subsequent molecular biological analysis. Using CTAB extraction, reproducible PCRs could be performed, but CsCl gradient purification was essential to obtain DNA in sufficient purity for high quality de novo genome sequencing of both Dryas species. Altogether, we established a basic toolkit for the culture, transient transformation and genetic analysis of Dryas sp.</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2782839509</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Jauréguiberry (2011)</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> L’actualité de la pensée de Bernard Charbonneau</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Merci aux promoteurs de ce colloque pour leur heureuse initiative et efficace organisation. Et j'y ajouterai, de facon egoiste : merci de m'avoir donne l'occasion de relire Bernard Charbonneau ! Je voudrais brievement evoquer trois themes qui m'ont particulierement interpelle et qui m'amenent a penser que la pensee de Bernard Charbonneau est tres actuelle : la critique du modernisme, la question de la reflexivite et du sujet, et l'experience temporelle. 1) Critique du modernisme Charbonneau ne se livre pas a une critique de la modernite. Au contraire, sa pensee est profondement moderne, en ce qu'elle est reflexive, critique et tendue vers les consequences du present sur le futur. Par contre, toute son oeuvre est traversee par une claire denonciation du modernisme, ce qui est tout autre chose. Car le modernisme n'est pas la modernite : il n'en est que la traduction agressive, prometheenne et suffisante d'elle-meme. Dans son elan a vouloir controler le reel et mater la nature, le modernisme devait conduire au declin des specificites locales face aux enjeux universels, au depassement des pesanteurs regionales par l'acceleration mondiale des flux, a l'effacement de l'inscription spatiale du lien social par la generalisation des echanges. D'une certaine facon, il devait aussi conduire a la fin de la geographie traditionnelle par la generalisation d'un espace sans distance et d'une deterritorialisation des appartenances et des occupations. A l'epoque ou ecrivait Charbonneau, tout ce qui resistait a ce mouvement etait taxe de retrograde, reduit a n'etre que pures reactions ou nostalgies passeistes. Depuis les annees 1980, par contre, on ne cesse de nous rebattre les oreilles avec le theme de la crise de la modernite, sa fin meme et son depassement par quelque chose qui, faute de conduire a quelque chose de cernable, est platement baptise postmodernite. Mais c'est moins la modernite qui est en crise que son ideologie offensive, le modernisme, qui pendant pres de deux siecles a lutte contre les croyances traditionnelles, l'attachement communautaire et la subjectivite partagee en ce qu'elles s'opposaient a la raison, a la liberte individuelle, a la science et au progres. Les recherches que nous menons au SET ont amplement montre que l'assimilation de la modernite au modernisme, de la raison a la rationalite instrumentale, et de la subjectivite a l'irrationalite doit etre depassee. L'urgence a penser les limites de la modernite et la diversite de ses manifestations est par contre plus que jamais d'actualite. Et c'est pourquoi toute notre intention porte sur les problemes, les contradictions et les impasses, auxquels mene la modernite lorsqu'elle s'exacerbe et se radicalise dans certains de ses aspects au point d'engendrer de graves dysfonctionnements. Nous avons propose d'appeler hypermodernite cet aspect de la modernite par exces et d'en etudier les dimensions, plus particulierement dans la transformation des rapports a l'espace, aux territoires et aux lieux 3. Que font les acteurs de nos societes contemporaines face aux exces et parfois aux points de saturation auxquels mene l'hypermodernite ? Comment parviennent-ils a mettre en oeuvre des actions visant a menager leur environnement alors que tout, et d'abord le systeme economique, pousse a l'exploiter ? Comment inventent-ils de nouvelles representations spatiales, melant par exemple proximite telecommunicationnelle et eloignement physique ? A quelles formes hybrides et inedites l'ecrasement du monde sur l'acces immediat et en meme temps l'experience concrete de la 1 Discours d'ouverture du colloque « Bernard Charbonneau : habiter la terre », Pau, 2-4 mai 2011. 2 Professeur de sociologie, directeur du laboratoire SET. 3 L'individu hypermoderne (ed. N. Auber), Toulouse, Eres, 2004.</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4292117313</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.tet.2022.132957</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Тихомиров et al. (2022)</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Reductive elimination of alkoxy group in anthraquinone derivatives</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>Anthraquinone derivatives are constantly in a focus of synthetic chemists due to a diversity of valuable biological, photochemical and redox properties. However, quinone core limits applicability of chemical transformations making a search for new methods of modification of anthraquinones highly demanded. A convenient approach of regioselective reductive α-alkoxy group cleavage of anthraquinone derivatives was developed and evaluated. Most effectively transformation goes via a zinc reduction of quinone moiety and prototropic rearrangement in acidic media followed by the alkoxy group elimination. Strong donors in β -position of anthraquinone core are crucial for transformation and provide the elimination exclusively from α -position. The method simplifies an access to some bioactive 1,3-substituted anthraquinones and was applied for synthesis of natural products, e.g., rubiadin 1-methyl ether, anthragallol 1,2-dimethyl ether, and damnacanthol. • Reductive α-alkoxy group cleavage of anthraquinone derivatives was developed. • Strong donors in β-position contribute reactivity and high regioselectivity. • Method simplifies an access to bioactive 1,3-substituted anthraquinones.</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2018318958</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0584-8539(85)80079-9</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Whiffen (1985)</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Spectroscopic constants evaluated by numerical contact transformation</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Abstract Following previous work a program has been written to evaluate spectroscopic information from anharmonic force-fields in linear triatomic molecules, using numerical contact transformations. The scheme is found to be accurate and convenient and is compared favourably with matrix diagonalization and with semi-classical methods. Extension to larger molecules has not been undertaken but appears to be straightforward.</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2467626903</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Silver (2016)</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Evaluation for Radical Democratic Transitions</t>
-        </is>
-      </c>
-    </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3096759515</t>
+          <t>https://openalex.org/W3126452779</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-030-57039-2_6</t>
+          <t>https://doi.org/10.24060/2076-3093-2020-10-4-319-329</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Fomiškina et al. (2020)</t>
+          <t>Мустафин et al. (2021)</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Nurturing Every Learner’s Potential: Education Reform in Kenya</t>
+          <t>Specific Features of Ovarian Cancer Metastasis</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Abstract In Kenya, a broad education reform was implemented after recognizing that the current system was not aligned with the country’s vision of producing globally competitive learners with competencies for the twenty-first century. The implementation process began with a pilot in 2017 and is planned to continue through 2028. In addition to the introduction of a competency-based curriculum, key components of the reform are a commitment to achieving a 100% transition from primary to secondary school by eliminating exam-based barriers to transition and a provision of a wide range of pathways for students to follow. Under the vision of “Nurturing Every Learner’s Potential”, the reform is grounded in the idea that learning should be active and individualized rather than teacher-centric and that schools – including secondary schools – are a place for developing a wide range of competencies and behaviors in addition to the traditional academic skills. In doing so, the government of Kenya seeks to reframe deeply-held cultural perspectives on education’s purpose and content. Such cultural shifts will require significant outreach and training efforts to achieve the buy-in from both families and teachers, and at this stage, it remains to be seen whether these efforts will succeed.</t>
+          <t>This review presents data on the predominant mechanisms of metastatic progression of ovarian cancer. The morphological and functional features of the greater omentum are shown, both promoting the spread of cancer cells and having an antitumour effect. The ratio of these two mutually opposite properties depends on the cellular composition, the content of extracellular matrix molecules and the biomechanical properties of the greater omentum during carcinogenesis. Milky spots are the main site of cancer cell implantation. They differ from lymph nodes in a simpler structure and a unique cellular composition (macrophages, B cells, CD4 + and CD8 + T lymphocytes, other immune cells) changing significantly during metastasis. М2­macrophages, adipocytes, CD33 + and CD4 + CD25 high CD127 low Т­suppressors promote migration, invasion, growth and colonization of cancer cells. The majority of the molecules synthesized in the greater omentum during metastasis also stimulate this process. The exceptions are E­cadherin, CXCL10, CXCL11, CXCR3, which inhibit the growth of tumour foci. In addition, CD8 + T lymphocytes and M1 macrophages also have antitumor effects. Since ovarian cancer is characterized by high mortality, mainly due to metastases, the issue of optimizing methods for predicting the treatment effectiveness depending on the cellular composition and expression of specific molecules in the milky spots of the greater omentum is urgent. These indicators can be applied in clinical practice using molecular genetic and immunohistochemical methods. In order to determine the need for omenectomy in the surgical treatment of ovarian cancer and to predict the outcome, it is advisable to study the morphological and functional properties of the greater omentum and to determine the number of immunocompetent cells and the nature of the expression of genes associated with the worst prognosis, those encoding activin­A, N­cadherin, CCL23, CD36, CD44, CF­1/M­CSF, FABP4, GRO­α, GRO­β, IL­8, ITGA2, MMP9, TP53, VEGF, VEGFR. These molecules are associated with adhesion and angiogenesis systems that play a key role in metastasis. Promising directions in the therapy of metastatic ovarian cancer can be stimulation of the transition of M2­ to M1­macrophages, activation of the anti­tumour antigen­specific response of CD8 + T cells using phagocytes, adaptive transfer of natural killer cells, the use of inhibitors of Wnt pathways, CCR1, CD36, FABP4, PAD4, ITGA2.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2596529768</t>
+          <t>https://openalex.org/W4285536743</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.30525/978-9934-26-190-9-5</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Grbavac (2015)</t>
+          <t>Yemchuk &amp; Dzhulii (2021)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Makrozoobentos stalnih i povremenih krških izvora</t>
+          <t>FEATURES OF THE INFORMATION SUPPORT FORMATION OF THE ENTERPRISE’S INTELLECTUAL CAPITAL MANAGEMENT</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Springs represent ecotons, i.e. the transition zone where groundwater rises to the surface of the earth forming surface flow. Karst springs are specific type of springs. Permanent karst springs represent stable habitats with very low seasonal variations of abiotic conditions, while temporary springs show more pronounced seasonal oscillations. In this study we explored the macroinvertebrate communities of four different karst springs, three of them were permanent (springs of the river Krka, Krupa and Kosovcica) and one temporary (Krcic spring). One-year research was conducted with monthly macroinvertebrates sampling using Surber sampler. Seasonal fluctuations in physico-chemical parameters of the water were generally low, nevertheless there were differences between the studied springs, depending on the origin of water. The greatest differences in the composition, structure and seasonal variations of macroinvertebrates were observed between permanent and temporary springs, indicating the importance of the presence of the surface flow. Overall, diversity and abundance of macroinvertebrates were higher at the permanent springs than the Krcic spring, which dries up in the summer months. In permanent springs, greatest abundance of macroinvertebrates was recorded in moss, whereas at the Krcic spring it was highest in the mesolithal, due to the high density of Micropterna nycterobia (Limnephilidae, Trichoptera). This species has specifically adapted life cycle to the seasonal drying up, and large proportion of such species is typical for communities in temporary habitat.</t>
+          <t>The study substantiates the relevance of rapid changes in the intellectualization of economic processes under the influence of information systems and computer technology, and these components are interdependent. The study found that the selected factors stimulate the development of intellectual capital, which determines the new conditions for the functioning of the enterprise management system and the adoption of sound management decisions. Accordingly, the subject of research is a set of theoretical provisions, methodological tools and practical aspects of intellectualization of business management processes. The study used logical and system-structural analysis in the study of the features and role of information resources in the activities of modern enterprises, in the study of the impact of cloud technologies on the development of enterprise management. Economic and mathematical methods, tabular method and grouping methods are used to evaluate and analyze specific research results. The most important task of the study is to identify features of the functional potential of new information systems in enterprise management, processing of their economic information and formation of information management processes, as well as solving current problems related to the need for information systems. The study substantiates that the integration of the national economy into the global information space today is one of the determining factors of its efficiency and competitiveness. Under such conditions, the transformation processes related to the formation of an innovative model of the economy focused on scientific high-tech production, sustainable development and the creation of infrastructure for the formation of intelligent information space become relevant in the national industry. It is established that one of the most important elements of modern innovative transformations are information systems and technologies that are able to produce large amounts of information and knowledge, transmit them remotely, accumulate, store and form new intelligent products in both national and international economic systems. Emphasis is placed on the fact that the introduction of cloud technologies is especially important, which is a necessary condition for the development of enterprise management systems. It is theoretically substantiated that cloud technologies provide new tools for the development of management systems, intensification of interaction in the external environment of the enterprise. They also determine the progressive trends in the development of enterprises and their associations (cluster systems), the main directions of development of high-tech industries and information potential of enterprises. This allowed us to build a mathematical model for calculating the probability of making the right decision, evaluating the effectiveness of decision-making. It is proved that intellectual capital is the basis for the development of the knowledge-based economy and determines the new course of socioeconomic development of Ukraine.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1532220075</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/3-540-45635-x_3</t>
+          <t>https://openalex.org/W2164600253</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Cousot (2001)</t>
+          <t>Parida et al. (2014)</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Design of Syntactic Program Transformations by Abstract Interpretation of Semantic Transformations</t>
+          <t>Mastering the Transition to Product-Service Provision: Insights into Business Models, Learning Activities, and Capabilities: Results of a Large-Scale Survey Suggest That a Thorough and Comprehensive Organizational Transformation Is Required to Support the Transition to Servitization</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Traditionally, static program analysis has been used for offline program transformation i.e. an abstraction of the subject program semantics is used to determine which syntactic transformations are applicable. A classical example is binding-time analysis before partial evaluation [4],[5].</t>
+          <t>OVERVIEW: Traditional manufacturing companies are increasingly offering industrial services in order to secure their position in the globally competitive environment. However, little is known about the extent and effect of this transition. Based on a large-scale survey of Finnish manufacturing companies, this study offers descriptive statistics for current industrial service offerings. Merely adding on simple services to a current product offering is shown to be negatively associated with fi nancial performance. Rather, our statistical analysis suggests a thorough and comprehensive organizational transformation is required to generate signifi cant fi nancial value. In addition, qualitative data from globally recognized Swedish and Finnish frontrunner manufacturing companies offer insights into how these market leaders have successfully navigated the organizational challenges of such a transformation to offer successful industrial product-service systems. Based on the data, we outline four distinctive capabilities and associated key learning activities required to facilitate a successful transition toward becoming a high-value industrial product-service provider.</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4307423142</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1017/9781009165921.014</t>
+          <t>https://openalex.org/W174020264</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Strokan &amp; Sil (2022)</t>
+          <t>Bloom (2002)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Russia’s Oil and Gas Industry: Soviet Inheritance and Post-Soviet Evolution</t>
+          <t>Professionalism in the practice of medicine.</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>This chapter traces the evolution of the Russian oil and gas sector. We argue that, at least since 2000, Russia’s vast natural resources have been a source more of stability than of fragility for the economy. This is in part due to the distinctive history and role of fossil fuels in the context of a Soviet economy that was designed to be self-sufficient and thus diversified. While this did not prevent economic stagnation in the late Soviet period (1970s–80s) or a steep decline in production during the early years of post-Soviet transition (1992–99), it created the foundations for a petrostate that gradually came to be more resilient and adaptable in the face of fluctuations in energy prices, financial crises, and increasingly contentious relations with the West. Following 2000, while the state played an increasingly assertive role in the oil and gas industry, the government also adopted various measures to limit dependence on resource rents, to reduce vulnerability to sudden shifts in global energy prices, and to increase economic stability in the face of new geopolitical challenges. These included a Stabilization Fund, new budgetary practices to control spending and support other industries, diversification of supply flows and export composition, and intensified investment in new infrastructural projects. While there are now growing concerns over carbon emissions and the technological demands of further exploration, hydrocarbons have been mostly a positive force in the Russian economy. Whether that holds true following the war in Ukraine and the imposition of massive Western sanctions in 2022 remains to be seen.</t>
+          <t>Although medicine is universally recognized as the archetype of the professions, it can only be understood as part of the modern medical center, a dynamic social system consisting of the university, the hospital, the medical center and, most recently, corporate managed care. Such a view results in a portrait of medicine as a profession transformed, driven by huge and growing health care markets, its fate tied not only to state bureaucracies, but also to the dynamics of both health and non-health care businesses. The question asked here is how does such a radical change in medical practice affect medical education. Using methods of historical analysis, it appears that medical educators operate as though the educational process itself determines the values, and therefore the present and future behavior of their students. In other words, at the end of their formal education, doctors are fully formed professionals. However, from the analysis of this paper it can be concluded that the physician as an individual cannot function independently of the structure of the society and its general conception of the world. In the structure of medicine s present situation, the ethical standards of professionalism, as they are classically defined, cannot survive. Instead, modern medical graduates, much like their teachers and professional mentors, will be forced to adapt to a situation that is contradictory to the best traditions of medicine. How to stop this process is the urgent question. Three answers are presented.</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2321840726</t>
+          <t>https://openalex.org/W2032382234</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1139/p11-004</t>
+          <t>https://doi.org/10.1016/s0002-9378(12)90727-9</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Safronova &amp; Safronova (2011)</t>
+          <t>Cutsem (1991)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Excitation energies, E1, M1, and E2 transition rates, and lifetimes in Ca&lt;sup&gt;+&lt;/sup&gt;, Sr&lt;sup&gt;+&lt;/sup&gt;, Cd&lt;sup&gt;+&lt;/sup&gt;, Ba&lt;sup&gt;+&lt;/sup&gt;, and Hg&lt;sup&gt;+&lt;/sup&gt; &lt;sup&gt;1&lt;/sup&gt;This article is part of a Special Issue on the 10th International Colloquium on Atomic Spectra and Oscillator Strengths for Astrophysical and Laboratory Plasmas.</t>
+          <t>The in vitro activity of terconazole against yeasts: Its topical long-acting therapeutic efficacy in experimental vaginal candidiasis in rats</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Excitation energies of ns 1/2 , np j , and nd j states in Cd + (n = 5), Hg + (n = 5) and ns 1/2 , np j , and (n – 1)d j states in Ca + (n = 4), Sr + (n = 5), and Ba + (n = 6) are evaluated using the linearized coupled-cluster (all-order) method. Reduced matrix elements, oscillator strengths, and transition rates are determined for the ns–np j –nd j (or ns–np j –(n – 1)d j ) possible electric dipole transitions in Ca + , Sr + , Ba + , Cd + , and Hg + . Electric quadrupole matrix elements are evaluated to obtain ns 1/2 –(n – 1)d j transition rates in Ca + (n = 5), Sr + (n = 5), and Ba + (n = 6). The matrix elements are calculated using both relativistic many-body perturbation theory, complete through third order, and the relativistic all-order method restricted to single and double (SD) excitations. The SD lifetime results for the np and nd states in Ca + , Sr + , Ba + , Cd + , and Hg + , are compared with the latest available experimental measurements. The contribution of the magnetic dipole nd 3/2 –nd 5/2 transition to the lifetimes of the lowest nd 5/2 level ln Ca + , Sr + , and Ba + ions is discussed. These calculations provide a theoretical benchmark for comparison with experiment and theory as well as data needed for various applications.</t>
+          <t>The activity of the broad-spectrum triazole antifungal terconazole was evaluated in vitro by the serial decimal dilution technique in broth media. The best correlation between in vitro and in vivo activity was found in brain-heart infusion broth and Eagle's minimum essential medium. All strains of Candida albicans, C. tropicalis, C. krusei, C. parapsilosis, C. guilliermondii, C. glabrata, and Trichosporon beigelii tested were susceptible. Terconazole blocked the morphogenetic transformation from the yeast into the filamentous form at concentrations of 0.008 to 0.05 μg/ml. In experimental candidiasis in castrated rats with estrogen-induced permanent pseudoestrus, topical treatment with terconazole was superior to miconazole, clotrimazole, econazole, butoconazole, tioconazole, sulconazole, bifonazole, valconazole, fenticonazole, nystatin, and amphotericin B in the various schedules used. A 3-day once-daily intravaginal application of terconazole 0.8% was usually sufficient to provide a functional therapeutic period of 7 days because of prolonged high biologically active antifungal levels in the vagina. No side effects were observed at any concentration of terconazole. The activity of the broad-spectrum triazole antifungal terconazole was evaluated in vitro by the serial decimal dilution technique in broth media. The best correlation between in vitro and in vivo activity was found in brain-heart infusion broth and Eagle's minimum essential medium. All strains of Candida albicans, C. tropicalis, C. krusei, C. parapsilosis, C. guilliermondii, C. glabrata, and Trichosporon beigelii tested were susceptible. Terconazole blocked the morphogenetic transformation from the yeast into the filamentous form at concentrations of 0.008 to 0.05 μg/ml. In experimental candidiasis in castrated rats with estrogen-induced permanent pseudoestrus, topical treatment with terconazole was superior to miconazole, clotrimazole, econazole, butoconazole, tioconazole, sulconazole, bifonazole, valconazole, fenticonazole, nystatin, and amphotericin B in the various schedules used. A 3-day once-daily intravaginal application of terconazole 0.8% was usually sufficient to provide a functional therapeutic period of 7 days because of prolonged high biologically active antifungal levels in the vagina. No side effects were observed at any concentration of terconazole.</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2554904237</t>
+          <t>https://openalex.org/W2001469490</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/apa.13614</t>
+          <t>https://doi.org/10.1080/02508060608691954</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Belgrave &amp; Čustović (2016)</t>
+          <t>Matondo &amp; Msibi (2006)</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>The importance of being earnest in epidemiology</t>
+          <t>Water Resource Availability in Three Catchments of Swaziland under Expected Climate Change</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Big data sets and novel analytical methods present us with an opportunity and a challenge to push the boundaries of medical research to move towards more targeted, personalised management strategies 1. The concept of ‘big data’ and the promises made concerning the potential of big data to generate novel hypotheses and provide most of the solutions in health care is becoming everyday parlance, with increasing belief that the data must and will speak for themselves. In childhood allergic diseases, discovering latent structure and patterns within large data sets using unbiased machine learning techniques has been used to identify distinct subgroups (classes or clusters) under the umbrella diagnoses of asthma, eczema and rhinitis 2, 3. The study by Goksör et al. 4 in the current issue of the journal is a timely reminder that in addition to disaggregating the structure in the big data sets using ‘unbiased’ analytical techniques, we need to look at the detailed associations of the temporality and comorbidity of symptoms via more traditional epidemiological approaches to fully understand the development of allergic diseases. This study from the Swedish longitudinal cohort presents a valuable epidemiological analysis which may contribute to a better understanding of the development of allergic symptoms during childhood. With the advent of the computational revolution combined with the amplified scale of biological, genetic and phenotypic healthcare data which has become available, the horizons of a data-driven hypothesis-generating approach to understanding disease have somewhat overshadowed the more traditional epidemiological hypotheses-testing approach based on carefully constructed scientific questions and observations. The ever-increasing quantity of data which is generated has made it impossible at times to know what we are looking for, and what questions need to be asked. One way of tackling this has been by taking an agnostic approach towards understanding the structure of the data by using unsupervised machine learning algorithms. Machine learning searches through data to look for patterns, combining mathematical modelling for analysing high-dimensional data and computational statistics to identify model-based patterns or structure within the data. However, nothing replaces and indeed nothing can replace carefully constructed epidemiological studies which ask specific questions and interrogate data sets to test specific hypotheses based on scientific intuition and prior clinical knowledge, and which act as a sanity check to validate the findings of hypothesis-generating studies. In his classical textbook, Rothman describes epidemiology as the study of the distribution and determinants of disease, as well as its frequency and occurrence 5. Epidemiology is concerned with understanding associations and risk factors of diseases, by using carefully constructed frameworks to understand disease causality 5. These concepts, which seem so simple on the surface, are fundamental if we are to extract meaningful clinical interpretations of the vast amount of medical data with which we are constantly presented. Goksör et al. 4 use this epidemiological approach, presenting a carefully structured question to investigate whether allergic manifestations in early life are associated with an increased risk in allergic manifestations in later life. The way in which they go about answering this question is likewise carefully constructed, looking at a range of symptoms and definitions of eczema, asthma, allergic rhinitis and food allergy. This study takes us back to the fundamental principles of epidemiology, which is understanding causality in order to influence policy. This was the aim of the ‘first epidemiologist’, Sir John Snow, who established the cause of the 1854 cholera epidemic in London was contaminated water, rather than bacteria from the surrounding area, which led to the closing down of the water pumps in Soho. We need to go back to the basics of epidemiology so that we do not miss the opportunity to capitalise on what epidemiology is all about: understanding causality and distinguishing causality from confounding. Confounding, an important albeit too often overlooked concept in epidemiology, is the study of effects which may explain away apparently causal associations observed in a statistical model. Confounding is a complex scenario and the existence of latent or unobserved confounders is an area which is acknowledged, but in which much development needs to be encouraged on the more practical level 6. The thorough analysis by Goksör et al. 4 has made an attempt to disaggregate all possible explanations of the development of, and the relationship between allergic manifestations during childhood, through carefully addressing confounding. The results challenge the view that development of allergic manifestations in childhood is a progressive development of one disease. Traditionally, the term ‘atopic march’ has been </t>
+          <t>Abstract The greenhouse gases (CO2, CH4, N2O, HFCs, PFCs, and SF6) concentrations in the atmosphere have increased very much since the industrial revolution. The greenhouse gas effect has been projected to cause a global average temperature increase on the order of 1.4 to 5.8°C over the period of 1990 to 2100. The global average annual precipitation is projected to increase during the 21st century due to the greenhouse effect. The impact of climate change on hydrology and water resources in the three catchments of Swaziland (Komati, Mbuluzi and Ngwavuma) has been evaluated using General Circulation Model results (rainfall, potential evapotranspiration, air temperature etc.) as inputs to a rainfall runoff model. Three General Circulation Models (GCMs) namely: Canadian Climate Change Equilibrium (CCC-EQ); Geophysical Fluid Dynamics Laboratory (GFDL) and United Kingdom Transient Resilient (UKTR) were found appropriate for use to project the temperature and precipitation changes for Swaziland for year 2075. This information was used to generate the temperature, precipitation and potential evapotranspiration values for the three catchments for year 2075 which was input into a calibrated WatBall rainfall runoff model. Simulation results without taking into consideration of water use projections show that there will be high flows during the summer months but low flows during the winter months. Simulation results after taking into consideration of water use projections show a water deficit from June to September in both the Komati, and Ngwavuma catchments and a water deficit from May to September in the Mbuluzi catchment. This means that the environmental water needs and Swaziland's water release obligation in the three catchments to South Africa and Mozambique will not be met during the winter months under expected climate change conditions.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2481125061</t>
+          <t>https://openalex.org/W2103510186</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1137/1.9780898717631.ch1</t>
+          <t>https://doi.org/10.9734/bjpr/2012/971</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Shmulevich &amp; Dougherty (2010)</t>
+          <t>Builders et al. (2012)</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>1. Boolean Networks</t>
+          <t>Intrinsic and Functional Properties of a Gelling Gum from Dioclea reflexa: A Potential Pharmaceutical Excipient</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Boolean networks are a class of discrete dynamical systems that can be characterized by the interactions over a set of Boolean variables. Random Boolean networks (RBNs), which are ensembles of random network structures, were first introduced by Stuart Kauffman in 1969 as a simple model class for studying dynamical properties of gene regulatory networks at a time when the structure of such networks was largely unknown. The idea behind such an approach is to define an ensemble of Boolean networks such that it fulfills certain known features of biological networks and then study random instances of these networks to learn more about general properties of such networks. This iterative and highly interdisciplinary process depends, on the one hand, on the input of new biological findings and might guide, on the other hand, the research of the experimentalist. For example, the now classical Kauffman ensembles in which every gene takes its inputs from exactly 2 other genes turned out to be “critical,” lying at a phase transition between an ordered and a chaotic phase, in regard to the propagation of perturbations, and contributed to the hypothesis that living systems may be poised at the “edge of chaos”—a hypothesis for which experimental evidence has been mounting (Ramö et al., 2006; Shmulevich et al., 2005; Nykter et al., 2008).There have been hundreds of publications, primarily in the physics, mathematics, and theoretical biology literature, that have focused on the ensemble approach for studying genetic networks in which the center of attention lies not in the entities comprising a system but qualities possessed by the system as a whole—much like the concept of entropy in physics. We will not attempt to review or even summarize the numerous results and insights gained from such studies as the vast amount of material deserves an entire book on this subject, and we limit ourselves only to mentioning that such approaches have shed light on fundamental principles of complex living systems at all scales of organization, including adaptability and evolvability, robustness, coordination of complex behaviors, storage of information, and the relationships between the structure of such complex systems and their dynamical behavior. Further, we refer the reader to several excellent review articles that cover the ensemble properties of Boolean networks (Aldana et al., 2002; Drossel, 2007), as well as Kauffman's book (Kauffman, 1993), which covers a much broader range of topics but contains much material, albeit somewhat dated, on Boolean networks. Our aim in this chapter is to give only the necessary definitions and concepts pertaining to Boolean networks to the extent that they are necessary for studying probabilistic Boolean networks. We will also review several examples of genetic networks using the Boolean network formalism.</t>
+          <t>Aims: Dioclea reflexa Hook F., is a woody vine widely distributed within tropical Africa and South America, in Nigeria flour prepared from the seeds is used as a soup thickener. The objectives of this study were to extract and modify the native gum from the seeds of D. reflexa, and evaluate their physicochemical and functional properties as a potential pharmaceutical excipient. Place and Duration of Study: Department of Pharmaceutical Technology and Raw Materials Development, National Institute for Pharmaceutical Research and Development, Abuja, Nigeria. Between January 2009 and October 2010. And Department of Pharmaceutics, Faculty of Pharmaceutical Sciences, University of Nigeria, Nsukka, Nigeria. Between June 2010 and October 2011. Methodology: Native D. reflexa gum (DR-gum) was extracted from the seeds of D. reflexa and modified by ionotropic gelation in calcium chloride solution. The gum’s gel clarity and swelling in buffer solutions of different pH (4, 7, and 9.2), as well as the moisture sorption characteristics at different relative humidity (RH) were determined in relation to guar gum (G-gum). Also, the Fourier transform infrared (FT-IR) and Differential scanning calorimetry (DSC) analysis as well as the powders’ flow properties were evaluated. Results: DR-gum, XDR-gum and G-gum are typical hydrogels showing considerable responsiveness in swelling and gel clarity to changes in pH. The DSC thermographs of DR-gum and G-gum were similarly characterized by a glass transition and a cold crystallization transitions peaks as compared to the glass transition and melting transition peak of XDR-gum. The moisture sorption profile indicated that DR-gum and G-gum are moderately hygroscopic while XDR-gum is slightly hydroscopic. The FT-IR of the gums showed the basic differences in the functional groups of the respective polymer chain network. The bulk particles of the three gums showed comparative good flow. Conclusion: The basic similarities and differences in the physicochemical and functional properties of DR-gum and XDR-gum, and G-gum indicate their potential as a pharmaceutical excipient.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231917159</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jval.2018.07.729</t>
+          <t>https://openalex.org/W2411616748</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Huang &amp; Li (2018)</t>
+          <t>Kapidžić-Bašić et al. (2011)</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>The Structure and Parameterisation of Breast Cancer Transition Model Among Chinese Women</t>
+          <t>[The effect of physical therapy on the most severe forms of knee structral changes caused by osteoarthritis].</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Markov model simulation based on natural history of disease is commonly employed for the comparative research of health interventions. The present study aims to simulate the natural progression of breast cancer and parameterise the initial and transition probabilities of multiple states of breast cancer development among Chinese women. The age-specific incidence, mortality, TNM (tumour size, the number of nodes and metastasis) stage distribution of breast cancer and the relapse rate of each clinical stage were collected from China’s cancer registry yearbooks and clinical epidemiological studies to simulate the process from full health to breast cancer to death among Chinese women aged 30 to 80 through a Markov cohort study. The validity analysis was conducted to evaluate the accuracy of the model estimation. A Markov transition model with seven states (no breast cancer, TNM stages 0-IV breast cancer and death) was constructed for Chinese women. The age-specific incidence, mortality and clinical stages distribution of breast cancer estimated by the initial and transition probabilities among different Markov states were highly consistent with the registered data and observed studies. A breast cancer transition model for Chinese women has been established with validity. It could be a point of reference for further economic evaluations and breast cancer screening policy formulation.</t>
+          <t>In the most severe form of structural changes on knee caused by osteoarthritis non-surgical treatment provide minimal results and a question of its purpose is being raised. Aim of the study was to examine the possibilities of physical treatment of patients with the most severe degree of structural changes caused by knee osteoarthritis. Examination was conducted on 60 patients that were on physical treatment because of the knee OA. Structural changes are evaluated by Kellgren-Lawrence scale, functional ability by Lequesne index, and pain by Visual analog scale. Physical treatment lasted for 4 weeks. After the physical treatment there was a significant improvement of functional ability (p = 1.78E-07), but the size of improvement was reduced by the level of structural changes. It was significantly lower in IV class in relation to III and II class (p &lt; 0.05). Physical treatment has lower affect by patients with the most severe form of structural changes caused by knee osteoarthritis, but it still can help patients to ease the appearance of complete dependence on other people's help.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2994098837</t>
+          <t>https://openalex.org/W4313888469</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.26518/2071-7296-2022-19-6-916-927</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Kokabisaghi et al. (2019)</t>
+          <t>Боброва (2023)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>To snipe or not to snipe, that is the question! Transitions in sniping behaviour among competing algorithmic traders</t>
+          <t>Updating parameters of an information model for road construction flow in work development project</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>In this paper we extend the investigation into the transition from sure to probabilistic sniping as introduced in Menkveld and Zoican \cite{mz2017}. In that paper, the authors introduce a stylized version of a competitive game in which high frequency traders (HFTs) interact with each other and liquidity traders. The authors then show that risk aversion plays an important role in the transition from sure to mixed (or probabilistic) sniping. In this paper, we re-interpret and extend these conclusions in the context of repeated games and highlight some differences in results. In particular, we identify situations in which probabilistic sniping is genuinely profitable that are qualitatively different from the ones obtained in \cite{mz2017}. It turns out that beyond a specific risk aversion threshold the game resembles the well-known prisoner's dilemma, in that probabilistic sniping becomes a way to cooperate among the HFTs that leaves all the participants better off. In order to turn this into a viable strategy for the repeated game, we show how compliance can be monitored through the use of sequential statistical testing. Keywords: algorithmic trading, bandits, high-frequency exchange, Nash equilibrium, repeated games, sniping, subgame-perfect equilibrium, Sequential probability ratio, transition</t>
+          <t>Introduction. The article reflects the main trends and problems in the development of information modelling technology in the Russian road industry. A set of mutually integrated domestic software products is presented that provide the formation and support of information models of roads in the life cycle process. It has been established that the transition from traditional simulation modelling of building flows to information modelling of flow systems requires a detailed analysis of the lower elements of the flow structure. Such elements in the system of an integrated road construction flow include linear specialized detachments. Models and methods. A single information model of an object as part of the construction organization project (COP) forms the overall strategy for managing the construction of the road. At the stage of the project for the production of works (PPW), it is necessary to take into account the technical and technological features of the contractor in the calendar plan. At the PPW level, it is necessary to create a new structure and define the parameters of this structure in such a way as to satisfy the specified restrictions established by the COP in terms of time and costs, and also provide for certain reserves for insuring possible risks. The aim of the study is to develop a methodology for information modelling of a specialized road flow as part of the PPW, taking into account the optimization and updating of its parameters in relation to the conditions of the contracting organization. Results. A modelling algorithm has been developed for creating an updated structure of a specialized linear flow in an integrated computer environment, which provides visualization of a construction site, control and operational management of work in a shared data environment. An example of the implementation of this method is considered when designing a specialized flow, first as part of a COP, with the subsequent updating of this model in the MS Project program when developing a PPW based on a typical flow chart. Conclusion. The use of information modelling creates wide opportunities for analyzing and monitoring the progress of work at the construction site of a linear flow, and also allows you to perform prompt automated restructuring of the loading of detachment vehicles when adjusting the amount of work at the work sites.</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4395215190</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.15468/dl.36z57v</t>
+          <t>https://openalex.org/W1589588862</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>AUTHOR_ID (2023)</t>
+          <t>Ram et al. (1990)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Occurrence Download</t>
+          <t>Significance and Treatment of Volatile Organic Compounds in Water Supplies</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>A dataset containing 500886 species occurrences available in GBIF matching the query: { "and" : [ "Continent is Europe", "TaxonKey is Populus tremula L." ] } The dataset includes 500886 records from 1681 constituent datasets: 1 records from Projet éolien de la Montie - Flore. 38 records from Vegetation data from phytosociological studies of the forests on the Fosen peninsula. 1 records from Champs Photovoltaïques L'OUVARDIERE et LA GOILERIE sur la Commune de LEZIGNE - Données bruts biodiversité projet photovoltaique LEZIGNE. 2 records from Projet du futur collège de Beutre - Données d'inventaires Collège de Beutre. 1 records from PROJET DE LIAISON FERROVIAIRE ROISSY-PICARDIE - Roissy-Picardie - Données Faune/Flore Ecosphère 2020. 7 records from Plants of the Hnylyi Tikych River basin and adjacent territories. 1 records from Bodenteicher Seewiesen. 1 records from Waldstück Bremerhagen LK Bio Kl. 12. 1 records from projet centrale photovoltaïque de Selongey - Flore - Inventaire non protocolé. 12 records from ACQUISITION_CBNMC - CENAuvergne_SICEN_2015. 1 records from Biotop "Kohlbeke" (Berlin-Marzahn). 1 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 1 records from Données espèces - Expertise IQE Coteaux Aulnoye 2018. 1 records from Bannwald Burghauser Forst. 1 records from Kremmer Luch. 1 records from Projet de parc éolien de l'Argonne Meusienne - Flore et petite faune. 10 records from ACQUISITION_CBNMC - CEMAGREF grpt Nogent. 2 records from Ferme Éolienne de Saint Maurice - Données Brutes de Biodiversité Projet Eolien de Saint-Maurice-Etusson. 1521 records from Kastikka Floristic Archives (OULU). 1 records from Stadtgebiet (Dannenberg). 2 records from 19 - Inventaires de la flore et de la flore réalisés dans le cadre d'études environnementales - ECODIR - Inventaires de la flore et de la fonge réalisés dans le cadre d'études environnementales. 3 records from Projet de parc éolien "Le Renard", sur les communes de Val-d'Oire-et-Gartempe (87) et Adriers (86) - Données brutes - Projet Eolien Le Renard. 3 records from Projet de parc photovoltaïque au sol à Moimay et Marast (70) - 2020 inventaire faune-flore à Moimay et Marast (70). 1 records from Données espèces - Expertise IPE - Oréade - 2013. 1 records from Parc photovoltaïque de Flayat - CSV Flayat FF. 1 records from Liaison autoroutière concédée entre Machilly et Thonon les Bains et suppression des passages à niveau N° 65 et 66 à Perrignier Haute-Savoie - Flore - Inventaire non standardisé. 41 records from Botany (UPS). 1 records from CardObs : Observations naturalistes issues de l'outil CardObs - Données naturalistes de l'Association BDEM. 2048 records from Belgian IFBL Flora Checklists (1939-1971). 3 records from ZAC Anjou Actiparc « La Salamandre » - Données de l'étude d'impact. 1 records from Parc Photovoltaïque de Frebécourt - Données Biodiversité Frebécourt. 1 records from Centrale photovoltaïque au sol d'Oberhoffen. 1 records from PROJET D’AGRANDISSEMENT DE LA BASE LOGISTIQUE INTERMARCHE DE SAINTHILAIRE- LES-ANDRESIS - Données Flore - IEA. 48 records from KUO Fungal collections (KUO). 5 records from Collections of Bioclass, school #179, Moscow. 1 records from Waldränder der Frankenhöhe (Rothenburg ob der Tauber). 1 records from Projet de nouvelle ligne sur le Centre de Valorisation Energetique de Villers Saint Paul - Données naturalistes - CVE Villers-Saint-Paul. 1 records from ZAC Dame Blanche Nord - Garges-lès-Gonesse (95) - Données biodiversités de l'étude d'impact ZAC Dame-Blanche. 1 records from Projet Eolien de La Naulerie - Données biodiversité Parc Eolien La Naulerie. 7 records from Projet d'aménagement de la Colline d'Elancourt - Inventaires colline d'Elancourt. 19 records from TransForest - vegetation, lichen and fungi data 2016. 4 records from University of Michigan Herbarium. 11 records from Botanical Garden Collection. 1 records from Projet de construction d'un site logistique - Inventaire flore. 1 records from Centrale solaire Les Echudes. 9 records from Biowide Species data. 196 records from Vascular plant collections of the Botanical Museum, University of Oulu (OULU). 1 records from Species of plants and fungi in the middle part of the Hirskyi Tikych river basin. 1 records from Riedensee. 1 records from Schanzenanlage Bergham. 1 records from Ferme éolienne du Germancé - Donnees_Flore_Ciral. 6 records from Observational database of Icelandic plants. 1 records from Données espèces - Expertise IQE - Lambert - 2008. 181 records from Chronicle of Nature - Phenology of Plants of Pechoro-Ilych State Nature Reserve. 1 records from données espèces - Expertise IPE - La Machine - 2012. 1 records from Données espèces - Expertise IPE - Mons-Boubert - 2013. 1 records from Langenberger Forst am Ochsenweg/ Niebüll-Leck. 1 records from Etudes scientifiques flore sur le TAG du CBNMed - Divers jeux de données du CBNMED produites dans le cadre de programmes scientifiques.</t>
+          <t>BACKGROUND. Statutory and Regulatory Basis for Control of Volatile Organic Chemicals in Drinking Water. Management Controls of Volatile Organic Compounds in Groundwater Protection. METHODS. Research Methods for Determination of Volatile Organic Compounds in Water. Analytical Methods for Volatile Organic Compound Determination. Minimization of Volatilization Losses During Sampling and Analysis of Volatile Organic Compounds in Water. Fiber Optic Methods for Volatile Organic Compounds in Groundwater. OCCURRENCE. National Surveys of Volatile Organic Compounds in Ground and Surface Waters. Volatile Organic Chemicals and Intentional Water Reuse. FATE AND TRANSPORT. Transport, Distribution, and Fate of Volatile Organic Compounds in Groundwater. Physical-Chemical Properties and Fate of Volatile Organic Compounds: An Application of the Fugacity Approach. Biological Transformations of Volatile Organic Compounds in Groundwater. TREATMENT AND COSTS. Removal of Volatile Organic Compounds from Drinking Water by Adsorption. Treatment Technologies and Costs for Removing Volatile Organic Compounds from Water: Aeration. Oxidative Treatment Methods for Removal of Organic Compounds from Drinking Water Supplies. Unit Process Research for Removing Volatile Organic Chemicals from Drinking Water: An Overview. Point-of-Use/Point-of-Entry Systems for Removing Volatile Organic Compounds from Drinking Water. Economic Analysis of Treatment Technologies to Achieve Volatile Organic Chemical Removal to Safe Levels. RISKS. Evaluation of Toxicity of Volatile Organic Chemicals: General Considerations. Epidemiologic Studies and Risk Assessment of Volatile Organic Compounds in Drinking Water. Total Exposure to Volatile Organic Compounds in Potable Water. Toxicological Approaches for Developing Drinking Water Regulations and Health Advisories for Volatile Organic Chemicals. Risk Management for Regulatory Purposes. LIST OF CONTRIBUTORS. INDEX.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2897335877</t>
+          <t>https://openalex.org/W2171488640</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3389/fpsyg.2018.01904</t>
+          <t>https://doi.org/10.2304/elea.2014.11.2.204</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Böhm et al. (2018)</t>
+          <t>Paulsen &amp; Andrews (2014)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Laypeople’s Affective Images of Energy Transition Pathways</t>
+          <t>The Effectiveness of Placing Temporal Constraints on a Transmedia STEM Learning Experience for Young Children</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>This paper explores the public perception of energy transition pathways, that is, individual behaviors, political strategies, and technologies that aim to foster a shift toward a low-carbon and sustainable society. We employed affective image analysis, a structured method based on free associations to explore positive and negative connotations and affective meanings. Affective image analysis allows to tap into affective meanings and to compare these meanings across individuals, groups, and cultures. Data were collected among university students in Norway (n = 106) and Germany (n = 125). A total of 25 energy transition pathway components were presented to the participants who generated one free association to each component by indicating the first that came to mind when thinking of the component. Participants evaluated their associations by indicating whether they considered each association to be positive, negative, or neutral. These associations were coded by two research assistants, which resulted in 2650 coded responses in the Norwegian sample and 2846 coded responses in the German sample. Results for the two samples are remarkably similar. The most frequent type of association is a general evaluation of the component, for example concerning its valence or its importance. The second most frequent types of association are requirements needed to implement the component (e.g., national policies) and consequences of the component (e.g., personal or environmental consequences). Individual behaviors (e.g., walking) elicited thoughts about consequences and requirements, but also about the prevalence of such behaviors. Associations in response to technologies (e.g., carbon capture and storage) mainly referred to some descriptive aspect of the technology. Evaluations of the free responses were predominantly positive, but some components also elicited negative associations, especially nuclear power. The free associations that people generate suggest that they have vague and unspecific knowledge about energy transition pathways, that they process them in an automatic and intuitive rather than deliberative manner, and that they have clear affective evaluations of the presented components.</t>
+          <t>This article describes a transmedia learning experience for early school-aged children. The experience represented an effort to transition a primarily television-based series to a primarily web-based series. Children watched new animation, completed online activities designed to promote STEM (science, technology, engineering, and math) exploration, and participated in (and reported on) offline activities that required them to investigate real-world phenomena. Children were expected to visit the website every weekday, for four weeks, as part of the experience. A single group pre-post test design was utilized to assess the impact of the experience on science knowledge and participants' satisfaction with the temporal and other elements of the multimedia experience. The national sample included 115 children aged five to eight years. Families preferred not to visit the website daily and instead preferred to follow their own pace. We observed no differences in key outcomes based on frequency of use. We observed a significant improvement in children's science knowledge and attitudes towards doing STEM activities at home. We also observed significant improvements in parental attitudes towards doing science activities. This study has implications for the design of transmedia learning experiences that are designed around temporal constraints.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1888582821</t>
+          <t>https://openalex.org/W4379014778</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2023.05.29.542733</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Mine (2012)</t>
+          <t>Csillag et al. (2023)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>ToF-SIMS molecular depth profiling of polymers and organic materials using low energy atomic primary ions for sputtering</t>
+          <t>Emergence of Darwinian evolution in Bayesian collectives</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>In this work we demonstrate that erosion with low energy primary ions (150 eV to 1 keV) in ToF-SIMS allows to depth-profile polymers but also various organic materials with a real molecular information [1–4, 8]. The depth-profiles obtained with low energy cesium allow us to monitor specific negative molecular fragments. We demonstrate also that molecular information can be observed from the positive polarity mass spectra when cesium is used for erosion by following the 𝑀𝐶𝑠+ 𝑛 clusters (where M is a specific molecular fragment) in the positive mass spectra. In our experiments obtained with a dual beam ToF-SIMS, we demonstrate the damaging effect of the analysis primary ions (for most of this work, gallium with 15 keV of kinetic energy). Thanks to sputtering yield measurements we differentiate between Type I and Type II polymers. The incorporation of cesium in the organic material increases the stopping power, which is beneficial to the molecular sputtering yield of the organic material. A 3 to 2 increase of the erosion rate is respectively achieved from 250 eV to 1000 eV using cesium compared to xenon depth-profiling. The sensitivity of the organic material to ion beam damage and specially to cross linking allowed us to explain our preferential use of different primary ions and bombardment energy for erosion. We demonstrated that xenon and oxygen used with low energy are not well suited for depth-profiling of polymers. Chemical damage occur leading to cross-linking or carbonization of the organic material. However oxygen can be partially usable on degrading polymers/type II like PMMA. The higher sputtering yield due to radical depolymerization compared to type I polymers allows us to limit the ion beam damage. A major result of the present work is the demonstration that cesium low energy (less than 300 eV) is successful on cross-linking polymers (PS, PC, PP,...), which are challenging materials to depth-profile. Even with a simple analysis primary ion beam like gallium, the useful ion yields are high enough to follow the specific fragments in depth, for high erosion beam fluences. On type I polymers and cross-linking biomolecules, 𝐶𝑠+ primary ions can be used with the lowest energy possible that keeps a sufficient sputtering yield. On simple small biomolecules, depth-profiling with etching energy significantly higher than for cross linking materials is possible (500 eV to 1 keV on amino-acids compared to less than 250 eV on polystyrene or polycarbonate). The whole protonated or deprotonated molecule can be monitored during a depth-profile. For instance, the aromatic amino-acids are specially difficult to profile and suffer from higher damage under ion bombardment. We assume that cross-linking reactions also occur, which lower the useful yields in ToF-SIMS. But the coupling of cesium reactive primary ion and a low bombardment energy has a protecting effect on the specific molecular structure of Type I and aromatic biomolecules. The effects of low energy cesium, which leads to a successful depth-profile are described in details in the thesis: • Cesium gives higher molecular sputtering yield on polymers compared to ”non reactive” xenon primary ion. • The lower deposited energy induces lower damage and a smaller implantation depth. • The cesium free radical scavenging eect allows to heal or mostly to prevent the organic fragments to cross-link. XPS experiments on polymers confirmed the formation of a cesium carbide, which is assumed to come from radical scavenging effect. • A chemical and stabilizing eect of cesium on the aromatic structures, which are really sensitive to cross-linking, is assumed under cesium ion bombardment. • The cesium negative ionization enhancement, is a strength of cesium implantation during the erosion. For instance, cesium reacts with free radicals to form a salt or an anionic site. Then the energetic analysis beam releases the negative fragments. This assumption is summarized by the simple equation; 𝑀∙ + 𝐶𝑠0 ⇒ 𝑀− + 𝐶𝑠+ Where the 𝑀− is a molecular anion that can be detected during the analysis. OES analysis performed simultaneously to ToF-SIMS depth-profiling measurements confirms the neutral cesium presence thanks to electronic transitions, which correspond to neutral atomic cesium only in polymers depth-profiles (from the 6𝑃1/2 and 6𝑃3/2 to 6𝑆1/2 energy level). Finally, in this work we discuss the formation mechanism and ionization of specific aromatic amino-acids like tyrosine or phenylalanine. A high depth-resolution profile of three delta-layers of phenylalanine embedded in tyrosine is shown for the first time, using cesium low energy for erosion coupled with 𝐵𝑖+ 3 for analysis.</t>
+          <t>The emergence of self-replication in chemical space has led to an explosive diversification of form and function. It is hypothesized that a similar process underlies human action selection in complex combinatorial spaces, such as the space of simulated action sequences. Furthermore, the spontaneous appearance of a non-predesigned evolutionary search in artificial agents might lead to a higher degree of open-endedness, arguably a key missing component of current machine intelligence. In this paper we design a computational model to show that Darwinian evolutionary dynamics over informational units can emerge if collectives of such units need to infer statistics of changing environments. We build our argument on a series of equivalences between Bayesian computations and replicator dynamics to demonstrate that the selective advantage of higher information transmission ability between units and of larger population size appear very early on, already at no consistently shared information between the population size of two units. Further selection for statistical inference at the collective level leads to a continuous increase of transmission fidelity and population size until the population reaches the ability to maintain and iteratively improve combinatorial information, a transition to the regime of Darwinian evolution. Candidate systems include prebiotic collectives of non-replicating molecules, collectives of neural ensembles representing competing action plans, and reinforcement learning agents with parallel policy search.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1995432539</t>
+          <t>https://openalex.org/W3160094328</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1115/1.3240319</t>
+          <t>https://doi.org/10.7316/khnes.2021.32.2.109</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Kott et al. (1989)</t>
+          <t>Kim &amp; Lee (2021)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>An Autonomous Artificial Designer of Thermal Energy Systems: Part 1—Theoretical Considerations</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>A knowledge-based approach to automated conceptual design (flowsheet synthesis) of thermal energy systems with strong interactions between heat/power/chemical transformations is presented. The approach is based on a computer-oriented state-space search guided by specially developed heuristics, and makes use of Second Law (exergetic) analysis, rather than mimicking the strategy of a human designer. The original design problem, formulated in terms of an equipment units network, is decomposed and reduced to a level of a network of elementary processes, with a resulting reduction in the search space. A special form of fundamental equations for steady-state open thermodynamic systems, based on a “temperature interval” approach, allows one to determine the effects of work, heat and chemical interactions within the system on the magnitude of Second-Law infeasibility, and on the overall exergy loss over any particular temperature interval, prior to the completion of the design. Based on this treatment, a set of generalized transforming operators, a plausible move generator, and a state evaluation function are formulated. The search algorithm is discussed in detail.</t>
+          <t>Evaluation of Polymer Glass Transition Temperature Using HP-DSC in Hydrogen Atmosphere</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2797829120</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arxiv.1804.06918</t>
+          <t>https://openalex.org/W2782839509</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Bae et al. (2018)</t>
+          <t>Jauréguiberry (2011)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Heat kernel estimates for symmetric jump processes with mixed polynomial growths</t>
+          <t xml:space="preserve"> L’actualité de la pensée de Bernard Charbonneau</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>In this paper, we study the transition densities of pure-jump symmetric Markov processes in $ {{\mathbb R}}^d$, whose jumping kernels are comparable to radially symmetric functions with mixed polynomial growths. Under some mild assumptions on their scale functions, we establish sharp two-sided estimates of transition densities (heat kernel estimates) for such processes. This is the first study on global heat kernel estimates of jump processes (including non-L\'evy processes) whose weak scaling index is not necessarily strictly less than 2. As an application, we proved that the finite second moment condition on such symmetric Markov process is equivalent to the Khintchine-type law of iterated logarithm at the infinity.</t>
+          <t>Merci aux promoteurs de ce colloque pour leur heureuse initiative et efficace organisation. Et j'y ajouterai, de facon egoiste : merci de m'avoir donne l'occasion de relire Bernard Charbonneau ! Je voudrais brievement evoquer trois themes qui m'ont particulierement interpelle et qui m'amenent a penser que la pensee de Bernard Charbonneau est tres actuelle : la critique du modernisme, la question de la reflexivite et du sujet, et l'experience temporelle. 1) Critique du modernisme Charbonneau ne se livre pas a une critique de la modernite. Au contraire, sa pensee est profondement moderne, en ce qu'elle est reflexive, critique et tendue vers les consequences du present sur le futur. Par contre, toute son oeuvre est traversee par une claire denonciation du modernisme, ce qui est tout autre chose. Car le modernisme n'est pas la modernite : il n'en est que la traduction agressive, prometheenne et suffisante d'elle-meme. Dans son elan a vouloir controler le reel et mater la nature, le modernisme devait conduire au declin des specificites locales face aux enjeux universels, au depassement des pesanteurs regionales par l'acceleration mondiale des flux, a l'effacement de l'inscription spatiale du lien social par la generalisation des echanges. D'une certaine facon, il devait aussi conduire a la fin de la geographie traditionnelle par la generalisation d'un espace sans distance et d'une deterritorialisation des appartenances et des occupations. A l'epoque ou ecrivait Charbonneau, tout ce qui resistait a ce mouvement etait taxe de retrograde, reduit a n'etre que pures reactions ou nostalgies passeistes. Depuis les annees 1980, par contre, on ne cesse de nous rebattre les oreilles avec le theme de la crise de la modernite, sa fin meme et son depassement par quelque chose qui, faute de conduire a quelque chose de cernable, est platement baptise postmodernite. Mais c'est moins la modernite qui est en crise que son ideologie offensive, le modernisme, qui pendant pres de deux siecles a lutte contre les croyances traditionnelles, l'attachement communautaire et la subjectivite partagee en ce qu'elles s'opposaient a la raison, a la liberte individuelle, a la science et au progres. Les recherches que nous menons au SET ont amplement montre que l'assimilation de la modernite au modernisme, de la raison a la rationalite instrumentale, et de la subjectivite a l'irrationalite doit etre depassee. L'urgence a penser les limites de la modernite et la diversite de ses manifestations est par contre plus que jamais d'actualite. Et c'est pourquoi toute notre intention porte sur les problemes, les contradictions et les impasses, auxquels mene la modernite lorsqu'elle s'exacerbe et se radicalise dans certains de ses aspects au point d'engendrer de graves dysfonctionnements. Nous avons propose d'appeler hypermodernite cet aspect de la modernite par exces et d'en etudier les dimensions, plus particulierement dans la transformation des rapports a l'espace, aux territoires et aux lieux 3. Que font les acteurs de nos societes contemporaines face aux exces et parfois aux points de saturation auxquels mene l'hypermodernite ? Comment parviennent-ils a mettre en oeuvre des actions visant a menager leur environnement alors que tout, et d'abord le systeme economique, pousse a l'exploiter ? Comment inventent-ils de nouvelles representations spatiales, melant par exemple proximite telecommunicationnelle et eloignement physique ? A quelles formes hybrides et inedites l'ecrasement du monde sur l'acces immediat et en meme temps l'experience concrete de la 1 Discours d'ouverture du colloque « Bernard Charbonneau : habiter la terre », Pau, 2-4 mai 2011. 2 Professeur de sociologie, directeur du laboratoire SET. 3 L'individu hypermoderne (ed. N. Auber), Toulouse, Eres, 2004.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3009995874</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.enconman.2020.112548</t>
+          <t>https://openalex.org/W2578829602</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Yu et al. (2020)</t>
+          <t>Madden et al. (2015)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Minimization of entropy generation of a closed Brayton cycle based precooling-compression system for advanced hypersonic airbreathing engine</t>
+          <t>The Future of Unmanned Aerial Systems (UAS) for Monitoring Natural and Cultural Resources</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Fuel indirect precooled engines have the potential to radically reform the paradigm of propulsion for next generation in- and trans-atmospheric vehicles. The engine is characterized by a sophisticated thermodynamic cycle with a series of heat exchangers. Reducing irreversibility of the precooling-compression system (PCS) is the key to ensure high engine performance, for which a conjugated optimization coupled with heat exchanger design was performed to evaluate the performance level that can be achieved under the state of technologies. The results indicate that irreversibility of the PCS can be reduced but at the penalty of heavier and larger size of heat exchangers. Moreover, it shows that precooler and regenerator together contributes 75–84% of the total entropy generation rate within the PCS, while hydrogen pump occupies the second largest irreversibility source. Smaller precooling temperature can help to improve the extent of irreversibility of the PCS and increase the maximum achievable air pressure ratio and engine specific thrust, nevertheless the increased fuel consumption and air side pressure drop and the decreased engine specific impulse shouldn’t be ignored. Larger regenerator effectiveness is preferred from all aspects of the PCS and engine level figures of merit as long as the total weight and length of the heat exchangers are not increased aggressively.</t>
+          <t>Aerial imagery and photogrammetric techniques that have long been used to monitor natural and cultural resources are undergoing innovative transformation with the increased availability of low-cost unmanned aerial systems (UAS) and software for Structure-from-Motion (SfM) image processing. Cultural resources of historic buildings, gardens and monuments, along with natural resources such as inland freshwater wetlands that are small in size (e.g., &lt; 0.5 ha), composed of diverse aquatic plant species and temporaly variable in soil mosture/open water, present challenges to managers tasked with detection, delineation and monitoring using remotely sensed data. Traditional image data sources of medium (10 to 30-m pixels) and high (1 to 5-m pixels) spatial resolution satellite images, large-scale (1:10,000 and greater) airborne film format aerial photographs and digital camera imagery (0.5 to 1-m pixels) present limitations for detailed resource monitoring due to relatively coarse spatial and temporal resolution. The capability to respond quickly and capture imagery with pixel sizes in the range of a few centimeters is needed to accommodate variable weather conditions, rapid phenological changes and unexpected disturbances. Such systems are required to obtain optimal aerial imagey tailored for specific resource applilcations. Off-the-shelf, portable UASs fitted with video cameras now permit users to collect high quality imagery within minutes of launch and processing capability on-site for near real time 3D data extraction and visualization for quick decision making. Researchers at the University of Georgia’s Center for Geospatial Research (CGR) have explored the use of small UAS quadcopters for mapping wetlands, assessing woody debris biomass in forests, creating 3D visualizations of historical buildings and documenting seasonal changes in botanical gardens. This paper will describe methods used to acquire aerial images with DJI Phantom 2 Vision and Vision+ quadcopters to create image mosaics, 3D point clouds and image models used to monitor natural and cultural resources. Finally, future directions will be addressed with an eye towards advances for resource monitoring.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3120193981</t>
+          <t>https://openalex.org/W2950148352</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.2101.04713</t>
+          <t>https://doi.org/10.1691/ph.2017.6151</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Torpey &amp; Klein (2021)</t>
+          <t>Mowaka &amp; Ayoub (2017)</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Explicit homography estimation improves contrastive self-supervised learning</t>
+          <t>Comparative study between UHPLC-UV and UPLC-MS/MS methods for determination of alogliptin and metformin in their pharmaceutical combination.</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>The typical contrastive self-supervised algorithm uses a similarity measure in latent space as the supervision signal by contrasting positive and negative images directly or indirectly. Although the utility of self-supervised algorithms has improved recently, there are still bottlenecks hindering their widespread use, such as the compute needed. In this paper, we propose a module that serves as an additional objective in the self-supervised contrastive learning paradigm. We show how the inclusion of this module to regress the parameters of an affine transformation or homography, in addition to the original contrastive objective, improves both performance and learning speed. Importantly, we ensure that this module does not enforce invariance to the various components of the affine transform, as this is not always ideal. We demonstrate the effectiveness of the additional objective on two recent, popular self-supervised algorithms. We perform an extensive experimental analysis of the proposed method and show an improvement in performance for all considered datasets. Further, we find that although both the general homography and affine transformation are sufficient to improve performance and convergence, the affine transformation performs better in all cases.</t>
+          <t>A new UPLC-MS/MS method (method A), for simultaneous determination of alogliptin (ALN) and metformin (MET) in their recently approved pharmaceutical combination Kazano® tablets, was developed and compared to a new UHPLC-UV method (method B). Concerning method A, separation was achieved on Hypersil gold 50 mm × 2.1 mm (1.9 μm) column, using acetonitrile and 0.2 % formic acid aqueous solution as the mobile phase with a gradient elution. Electrospray ionization (ESI) source was operated in positive ion mode. Selected reaction monitoring (SRM) mode on a triple quadropole mass spectrometer was used to quantify the drugs utilizing the transitions of 340.33 → 116.32 (m/z) and 130.12 → 71.32 (m/z) for ALN and MET, respectively. Concerning chromatographic separation using UV detection in method B, it was achieved on a Symmetry® C18 column 100 mm × 2.1 mm (2.2 μm) applying an isocratic elution based on methanol - water (10:90, v/v) at pH 3 as a mobile phase. The photodiode array detector was operated at 210 nm. Method A showed good linearity over the concentration ranges of 5-400 ng mL-1 and 25-2000 ng mL-1 for ALN and MET, respectively, while method B showed satisfactory results using ranges of 0.25-8 μg mL-1 and 5-50 μg mL-1 for ALN and MET, respectively. The optimized validated methods are suitable for QC labs but the UPLC-MS/MS method offered the advantage of shorter analytical times and higher sensitivity and selectivity.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2586502405</t>
+          <t>https://openalex.org/W4292117313</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/9781119388715.ch5</t>
+          <t>https://doi.org/10.1016/j.tet.2022.132957</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Maesschalck (2017)</t>
+          <t>Тихомиров et al. (2022)</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Promoting Reflexive Governance of RRI</t>
+          <t>Reductive elimination of alkoxy group in anthraquinone derivatives</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>The fundamental challenge is to shift the attention that directs reformative activism onto the production of a reflected and collaborative mode of piloting attempts at reform. The challenge for reflexive governance is to produce effects that shift the heart of attention away from the aim of producing results that fit within an interest-equilibrium model, and onto the transformation of actors and their relational potential. This chapter starts from the recognized need to establish transversal vigilance across all orientations of a responsible research and innovation (RRI) policy, in order to target two major shifts, one collective, and the other subjective. The first considers RRI as a process of constructing new forms of relations between networks and research sectors, while the other concerns RRI insofar as it directly raises the question of singular research identities. Any RRI policy must include, as an integral and explicitly-thematized element, an acute vigilance aimed at its fundamental guiding principles.</t>
+          <t>Anthraquinone derivatives are constantly in a focus of synthetic chemists due to a diversity of valuable biological, photochemical and redox properties. However, quinone core limits applicability of chemical transformations making a search for new methods of modification of anthraquinones highly demanded. A convenient approach of regioselective reductive α-alkoxy group cleavage of anthraquinone derivatives was developed and evaluated. Most effectively transformation goes via a zinc reduction of quinone moiety and prototropic rearrangement in acidic media followed by the alkoxy group elimination. Strong donors in β -position of anthraquinone core are crucial for transformation and provide the elimination exclusively from α -position. The method simplifies an access to some bioactive 1,3-substituted anthraquinones and was applied for synthesis of natural products, e.g., rubiadin 1-methyl ether, anthragallol 1,2-dimethyl ether, and damnacanthol. • Reductive α-alkoxy group cleavage of anthraquinone derivatives was developed. • Strong donors in β-position contribute reactivity and high regioselectivity. • Method simplifies an access to bioactive 1,3-substituted anthraquinones.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2590314933</t>
+          <t>https://openalex.org/W2018318958</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acsomega.6b00458</t>
+          <t>https://doi.org/10.1016/0584-8539(85)80079-9</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Roudsari et al. (2017)</t>
+          <t>Whiffen (1985)</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Exploring the Effect of Poly(propylene carbonate) Polyol in a Biobased Epoxy Interpenetrating Network</t>
+          <t>Spectroscopic constants evaluated by numerical contact transformation</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Poly(propylene carbonate) (PPC) polyol derived from carbon dioxide has been used to make a tough biobased interpenetrating polymer network (IPN). PPC polyol (10, 20, and 30 phr) was added to an epoxy/poly(furfuryl alcohol) IPN, and the effect of PPC polyol on the tensile modulus, tensile strength, tensile toughness, and notched Izod impact strength was determined. Dynamic mechanical analysis (DMA) was used to investigate the effect of PPC polyol on the glass-transition temperature. Loss area (LA) as a characteristic of IPN damping properties was evaluated using DMA. Scanning electron microscopy (SEM) and atomic force microscopy (AFM) were used to obtain more information on the morphology of IPNs on the micro- and nanoscale. It was found that the incorporation of PPC polyol improved the notched Izod impact strength and tensile toughness up to 190 and 220%, respectively. The damping factor peak was broadened with the addition of PPC polyol, and the glass-transition temperature was decreased as the amount of PPC polyol increased. The IPN with 20 phr PPC polyol exhibited better damping properties than neat epoxy and the epoxy/PFA IPN. SEM and AFM images revealed that PPC polyol domains were dispersed in the epoxy phase with an average diameter of around 280 nm.</t>
+          <t>Abstract Following previous work a program has been written to evaluate spectroscopic information from anharmonic force-fields in linear triatomic molecules, using numerical contact transformations. The scheme is found to be accurate and convenient and is compared favourably with matrix diagonalization and with semi-classical methods. Extension to larger molecules has not been undertaken but appears to be straightforward.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2418216977</t>
+          <t>https://openalex.org/W2951518878</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood.v76.10.2060.2060</t>
+          <t>https://doi.org/10.1101/408187</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Chen et al. (1990)</t>
+          <t>Ribeiro et al. (2018)</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Deletion of the human retinoblastoma gene in primary leukemias</t>
+          <t>Remotely sensed indicators and open-access biodiversity data to assess bird diversity patterns in Mediterranean rural landscapes</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Abstract As an initial step in evaluating the role of tumor suppressor genes in leukemogenesis, we surveyed primary leukemia cells from 130 patients for possible deletion of the retinoblastoma susceptibility (Rb) gene by Southern blot analysis. Two of them clearly showed homozygous deletion of Rb alleles. The first patient was a pre-B acute lymphoid leukemia (ALL) associated with a cytogenetic translocation: t(14;16)(q24;q22). The deletion was located at the 3′ portion of the Rb gene, very close to the site of Rb gene deletion recently identified in an ALL cell line. The absence of Rb110 protein was further confirmed by Western blot analysis. The second patient was a chronic myelomonocytic leukemia (CMMoL), terminated in acute blastic transformation. Deletion of the 5′ portion of Rb gene was found in leukemic cells in the chronic stage. The results indicated that inactivation of the Rb gene occurred in certain cases of leukemia. Its significance warrants further study.</t>
+          <t>Abstract Changes in ecosystem area are often used to assess human impacts on habitats and estimate biodiversity change. However, because species respond to structural changes at fine spatial scales the use of area alone may not capture all relevant changes. Operational costs limit the assessment of biodiversity change at a simultaneously fine spatial resolution and large scales. The development of cost-effective and expedite methods to monitor biodiversity change is therefore required. We use open access satellite imagery and biodiversity data to investigate the importance of variables of habitat extent and structure in explaining species richness and community dissimilarity of forest and open-land birds at the regional scale. Moreover, because Mediterranean landscapes are subject to seasonal dynamics, we explore the indicator value of remotely sensed variables measured in spring and summer. A large-scale dataset of bird occurrence data, including 8042 observations and 78 species, distributed by 40 landscape-sized cells, was assembled from GBIF after controlling for data quality. We found that summer satellite imagery, when the green perennial vegetation is more apparent, is particularly suited to model the diversity patterns of forest species, because distribution of tree cover in the landscape is well captured. Summer data is also useful to monitor the perennial elements that shape landscape structure and the habitat of open-land species. Specifically, mean NDVI and a second-order NDVI texture variable, were found to be good indicators of forest and open-land habitats, respectively. The use of spring imagery appears to be useful to monitor habitat structure within open-land habitat patches. Overall, NDVI texture measures were found to be good predictors of bird diversity patterns at large scales. Also, we were able to successfully conduct a regional scale analysis using open-access data, which illustrates their potential to inform large scale biodiversity monitoring.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3174207156</t>
+          <t>https://openalex.org/W2114238673</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/educon46332.2021.9454017</t>
+          <t>https://doi.org/10.1016/j.fluid.2013.07.061</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Maraqa et al. (2021)</t>
+          <t>Neves et al. (2013)</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Student perceptions of emergency remote civil engineering pedagogy</t>
+          <t>Solubility of non-aromatic hexafluorophosphate-based salts and ionic liquids in water determined by electrical conductivity</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Transitioning to online learning (OL) is more challenging for engineering education because hands-on course delivery requirements are compromised. Like most universities around the globe, the institution to which the authors are affiliated shifted to emergency remote teaching in spring 2020 because of the coronavirus disease 2019 (COVID-19) pandemic. The researchers queried undergraduate students enrolled in the Civil and Environmental Engineering Department about their perceptions of OL during the pandemic and asked whether the students would attend online classes in the future. The students did not evince a clear inclination for either face-to-face (F2F) classes or OL (52%-48%) regardless of the proximity between their residence and the campus. The participating students were also almost equally divided irrespective of their gender when asked if OL was better than F2F learning. Moreover, the students registered a 50% positive response when asked whether they would enroll in optional online classes in the future. Most students who did not desire OL nevertheless enrolled in online classes in the summer session of 2020. However, student preference for OL tended to decline with the increase in the number of registered courses. Furthermore, overachieving and underachieving students favored F2F classes, and male students were more inclined to OL than female students. Other factors that may have influenced student predilections for OL during the COVID-19 lockdown include access to emotional support, information technology support, and reliable internet connection; the availability of an undisturbed space at home; and the nature and methodology of online examinations.</t>
+          <t>The knowledge of the salts solubility in water is of major interest for process design and optimization and for environmental monitoring. The determination of the water solubility of non-aromatic salts or ionic liquids requires the use of specific and expensive analytical equipment. In this work the use of electrical conductivity for the quantification of the solubility of sparingly soluble salts in water is proposed. Novel data for the water solubility of 1-methyl-1-propylpyrrolidinium hexafluorophosphate, 1-methyl-1-propylpiperidinium hexafluorophosphate, tetrabutylammonium hexafluorophosphate, and tetrabutylphosphonium hexafluorophosphate, in the temperature range from 288.15 to 318.15 K, are reported. Using the gathered results, along with literature data, a correlation between the aqueous solubility of [PF6]-based salts with their molar volume is proposed. The COSMO-RS predictive model was also used to estimate the solid–liquid equilibrium of the investigated systems. Since all the compounds are solid at room temperature, they were further characterized by differential scanning calorimetry, and the temperatures of solid–solid and solid–liquid phase transitions, as well as the respective enthalpies of phase transition, are presented.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2523246991</t>
+          <t>https://openalex.org/W3096759515</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-030-57039-2_6</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Ermold et al. (2016)</t>
+          <t>Fomiškina et al. (2020)</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Life history evolution of Galba truncatula in cooling water discharge : evidence for rapid thermal adaptation?</t>
+          <t>Nurturing Every Learner’s Potential: Education Reform in Kenya</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Earth mean surface temperature has increased by 1 °C since the industrial revolution, and this has already had considerable effects on animal and plant species. Ecological responses to the warming climate – often facilitated via phenotypic plasticity – are ubiquitous. However, even though evolution can occur rapidly there are only few examples of genetic adaptation to climate change.In my thesis, I used a near-natural system to study if and how organisms have adapted to 30 years of warming, and how this has affected competitive species interactions. I investigated Baltic Sea populations of the aquatic snails Galba truncatula and Theodoxus fluviatilis, which had been subjected to cooling water discharge from power plants, resulting in water temperatures 4 to 10 °C higher than in the surrounding sea.G. truncatula had high upper thermal limits and large acclimation potential. This plasticity may have helped the species to survive under the new conditions, allowing evolution through natural selection to take place. I found that the populations of the two thermal origins had diverged in SNP markers associated with warmer temperature, whereas divergence in selectively neutral markers was mainly related to geographical distance. Adaptation occurred from standing genetic variation, emphasizing the importance of genetic diversity and population size in enabling the persistence of populations. Changes in thermal sensitivity of growth and survival were subtle yet significant, and complied with theoretical models of thermal adaptation in ectotherms. At the community level, pre-adaptation to warmer conditions aided the native T. fluviatilis when competing with the alien Potamopyrgus antipodarum. However, interspecific competition limited the snails most in those traits favored under warming, highlighting the challenge of adapting to different selecting forces during global change.The persistence of species and populations under climate change depends on several factors - plasticity allowing for initial survival, evolvability in allowing the genetic changes, and species interactions affecting the new ecological niches. The results of my thesis indicate that persistence under climate change is possible when these factors align, but the relative roles of ecology and plasticity may explain why there are so few observed instances of evolution in response to climate change.</t>
+          <t>Abstract In Kenya, a broad education reform was implemented after recognizing that the current system was not aligned with the country’s vision of producing globally competitive learners with competencies for the twenty-first century. The implementation process began with a pilot in 2017 and is planned to continue through 2028. In addition to the introduction of a competency-based curriculum, key components of the reform are a commitment to achieving a 100% transition from primary to secondary school by eliminating exam-based barriers to transition and a provision of a wide range of pathways for students to follow. Under the vision of “Nurturing Every Learner’s Potential”, the reform is grounded in the idea that learning should be active and individualized rather than teacher-centric and that schools – including secondary schools – are a place for developing a wide range of competencies and behaviors in addition to the traditional academic skills. In doing so, the government of Kenya seeks to reframe deeply-held cultural perspectives on education’s purpose and content. Such cultural shifts will require significant outreach and training efforts to achieve the buy-in from both families and teachers, and at this stage, it remains to be seen whether these efforts will succeed.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2254419660</t>
+          <t>https://openalex.org/W1575343699</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/j.2042-3306.2012.00662.x</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Hay (2011)</t>
+          <t>Orsini (2012)</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>ARC: process not product</t>
+          <t>Supporting limb laminitis: The four important ‘whys’</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>This paper discusses the ARC project in Hull. It takes the form of a case study of a building conceived from the outset as having no fixed final form or indeed permanent location. The first iteration of the building, designed by Niall McLaughlin Architects, was completed in 2006 and houses the events space and offices for ARC, the Architecture centre for Hull and the Humber Region._x000D_
-_x000D_
-Background_x000D_
-The building project grew out of the creation of Hull’s Architecture Centre, an initiative formed by collaboration between academics from the two local Universities, plus Community and Business representatives. The intention was that the organization would act as a catalyst for change, and raise architectural aspirations underpinned by an ethos that local people are experts in their own lives. ARC does this through a series of interlinked programmes entitled the learning Programme, Design Review, and the Public Realm. In addition the building hosts exhibitions, debates and workshops of various kinds. _x000D_
-_x000D_
-The Building Project_x000D_
-The building project grew out of a particular set of circumstances that have already passed into history. The opportunity to access money, supported by the regional regeneration agency, now abolished, enabled ARC to consider building – the only UK architecture centre to have thus done so. The underlying intention behind the brief, which the current author jointly developed, and the resultant building, where he subsequently acted as client representative for the project, was that we (ARC) needed to go to the people rather than always expecting the people to come to ARC. The idea of mobility, change and transformation was thus built into the project from the start. Rather than seeing the project as a permanent marker in time and space the project was conceived as is a 25-year ongoing experiment where relocation, transformation and adaptability are the only constants._x000D_
-_x000D_
-The building is thus a series of interlinked components, systems and narratives born of the city and its people that embrace the incomplet, the contingent and the unexpected. Arc is a building that can adapt and reconfigure as occasion and resources allow. It is a project that can never actually be considered to be finished.</t>
+          <t>Supporting limb laminitis (SLL) is a veritable dark hole when it comes to our goal of completely understanding the pathogenesis and therefore the prevention of all types and clinical presentations of laminitis. We do know that SLL occurs in the foot of the contralateral or supporting limb in horses with a severe, unilateral lameness that persists for more than several weeks 1-7. Consequently, mechanical loading or overloading is a primary factor in its pathogenesis. However, the equine hoof wall has been said to be ‘overengineered,’ given that during normal locomotion the stratum medium experiences about one-tenth of the compressive force required to cause its structural failure 8. The highly adapted dermal-epidermal connection, anchoring the hoof wall to the distal phalanx – now termed the suspensory apparatus of the distal phalanx (SADP) – may be similarly described. The surface area of the SADP in the average-size hoof is calculated to be about 0.8 m2 9. At gallop, the hoof wall and the SADP withstand compressive and distractive forces of up to 3 times the horse's body weight without sustaining any apparent damage 4. So, why does the simple act of standing around cause the SADP to fail? Moreover, why does it fail in only some horses with severe, unilateral lameness (reportedly &lt;20% of at-risk horses)? Why does it typically not appear until weeks or months after the injury or infection that caused the primary lameness? In addition, why do we not see it as commonly in foals and yearlings as in adults? If we can answer just these 4 questions, then we will have a much better understanding of both the pathogenesis of this devastating complication and its prevention. This is one question with a good answer, supported by evidence-based data. We do not have an experimental model for SLL as we do for laminitis induced by a carbohydrate overload, black walnut extract, or hyperinsulinaemia – and understandably so. Nevertheless, we have a sound experimental basis for drawing the following conclusions about why the SADP fails at rest in these horses. The mechanism, which involves the combination of chronic weightbearing load and arterial occlusion, has recently been explained and illustrated in detail 4, so a brief review should be enough here. We have known for some time that, when the foot is fully loaded, vascular filling in the lamellar dermis is significantly decreased or even absent using angiographic studies as the basis for this conclusion 2, 4. More importantly, computer-generated models using computed tomography (CT) of the distal limb under load have revealed some further, and even surprising, insights into this phenomenon: occlusion of the palmar/plantar digital arteries occurs at various levels, including sites proximal to the coronary band, depending on the intensity of load 4. Under conditions of moderate load, the arteries are occluded at the abaxial margins of the distal sesamoid (navicular) bone and at the proximal aspect of the second phalanx (P2), so blood flow is occluded, especially to the quarters and heels. Blood flow to other regions of the foot is relatively unchanged because the dorsal branches of the palmar/plantar digital arteries are unobstructed and arterial anastomoses are abundant within the digital vasculature 4, 8. Under conditions of heavy load, such that the fetlock drops within its suspensory apparatus, the arteries are occluded at or near the base of the proximal sesamoid bones – proximal to dorsal branching of the digital arteries in the pastern region – so blood flow to the entire foot is occluded; there is no filling of any vessel below the coronary band. The vertical load required to cause this degree of occlusion in cadaver limbs was less than the weight of the horse's forelimbs 4. It has been proposed that the deep digital flexor tendon (DDFT) causes obstruction of the vessels in the dorsal lamellar dermis by its pull on the third phalanx (P3) and therefore on the SADP 2. In support of this theory, Redden reported a SLL incidence of only 2.3% (2 of 85 horses) with the prophylactic use of an 18° heel wedge and toe cuff system 2. However, the aforementioned models of limb loading, clearly shows that arterial occlusion does indeed involve the DDFT, but it occurs more proximally and more directly than previously believed. Arterial occlusion occurs before the entry of the digital arteries into the solar foramina of P3 – and even proximal to the coronary band – and these locations closely approximate the points at which the DDFT abuts against a bony fulcrum 4, 10. As the limb is loaded, the tendon is flattened against the navicular bone and the proximal palmar/plantar processes of P2, or perhaps its associated soft tissues, and with heavy loads against the proximal sesamoid bones, consequently, the adjacent vessels are compressed. It is likely that other connective tissues of the digit contribute to this occlusive effect, as the digit is ensheathed in circumferential and interco</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2145930075</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1176/appi.ajp.2008.08050700</t>
+          <t>https://openalex.org/W2596529768</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Csernansky &amp; Cronenwett (2008)</t>
+          <t>Grbavac (2015)</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Neural Networks in Schizophrenia</t>
+          <t>Makrozoobentos stalnih i povremenih krških izvora</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Back to table of contents Previous article Next article EditorialFull AccessNeural Networks in SchizophreniaJohn G. Csernansky M.D.Will J. Cronenwett M.D.John G. Csernansky M.D.Search for more papers by this authorWill J. Cronenwett M.D.Search for more papers by this authorPublished Online:1 Aug 2008https://doi.org/10.1176/appi.ajp.2008.08050700AboutSectionsPDF/EPUB ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InEmail As methods for high-resolution MRI continue to develop, our understanding of changes in brain structure in patients with psychiatric disorders improves. In patients with schizophrenia, decreases in the gray matter volume of a variety of cortical and subcortical brain regions have been repeatedly observed (1) . Two articles in this issue of the Journal add to this literature and go further by strengthening the hypothesis that schizophrenia involves abnormalities in specific cortical-subcortical networks. Ellison-Wright et al. (2) present a meta-analysis of MRI studies that reveals different patterns of structural changes in first-episode and chronic schizophrenia. Adapting a technique developed to combine data from functional MRI studies (3) , the authors evaluated group differences in specific brain regions in reference to a three-dimensional coordinate system. The result of this adaptation, called anatomical likelihood estimation, adds to a growing literature on probabilistic approaches to neuroanatomical computation (4) . In patients with first-episode schizophrenia, Ellison-Wright et al. found evidence for decreased gray matter volume in the hippocampus, the caudate nucleus, the thalamus (mediodorsal nucleus), the insula, the anterior cingulate gyrus, the inferior frontal gyrus, and the cerebellum. Subcortical changes were similar in patients with chronic schizophrenia, but cortical changes were even more extensive. As Ellison-Wright et al. note, this pattern of abnormality implicates a neural circuit originating with limbic input to the striatum, then the thalamus, and finally to the prefrontal and cingulate cortex ( Figure 1 ). Abnormalities of thalamocortical circuitry have previously been implicated in schizophrenia, particularly in reference to the pathophysiological concept of cognitive dysmetria (5) . Figure 1. Gray Matter Deficits and Thalamocorticostriatal Circuit Dysfunction in Schizophrenia aa The diagram on the left illustrates the circuit pathways. On the right is a diagrammatic representation of thalamocorticostriatal circuits superimposed on regions of gray matter showing signal decrease in both first-episode schizophrenia (yellow) and chronic schizophrenia (red). The thalamus (blue triangle) sends thalamocortical projections to the cortex (blue arrow). Cortical regions project (green arrow) to the caudate (pink circle) and then back to the thalamus (orange arrow). Components of these circuits show anatomical changes in schizophrenia, with the caudate head showing gray matter deficits in first-episode schizophrenia and more widespread cortical changes in chronic schizophrenia. The thalamus shows gray matter deficits in both first-episode and chronic schizophrenia. Also in this issue, Friedman et al. (6) report on their use of diffusion tensor imaging to examine the pattern of white matter changes in patients with first-episode and chronic schizophrenia. Using fractional anisotropy (FA) to assess the integrity of white matter connections (7) , they found evidence in first-episode patients for decreased connectivity only in the inferior longitudinal fasciculus (at the trend level), while chronic patients showed a broader pattern of white matter disturbances ( Figure 2 ). Figure 2. Regions of Fractional Anisotropy (FA) Reductions in Schizophrenia aa Relative to healthy comparison subjects, patients with first-episode schizophrenia showed trend-level FA reductions in the left and right inferior longitudinal fasciculus. Patients with chronic schizophrenia showed significant FA reductions in the right forceps minor and the left inferior longitudinal fasciculus. ILF=inferior longitudinal fasciculus; GCC=genu of corpus callosum; SCC=splenium of corpus callosum. The results of Friedman’s study, to date the largest to directly examine FA in first-episode and chronic schizophrenia patients, suggest a number of intriguing interpretations. As they note, one explanation may be that pathological white matter abnormalities may be present but too subtle to detect with current imaging methods in first-episode schizophrenia. Alternatively, white matter changes may develop as the disease process of schizophrenia progresses.Taken together, the results of these two studies provide strong support for the hypothesis that schizophrenia involves abnormalities in networks of brain regions. They further suggest that such abnormalities may be progressive in at least some patients. If the “progression” hypothesis is confirmed in future studies, we must redouble</t>
+          <t>Springs represent ecotons, i.e. the transition zone where groundwater rises to the surface of the earth forming surface flow. Karst springs are specific type of springs. Permanent karst springs represent stable habitats with very low seasonal variations of abiotic conditions, while temporary springs show more pronounced seasonal oscillations. In this study we explored the macroinvertebrate communities of four different karst springs, three of them were permanent (springs of the river Krka, Krupa and Kosovcica) and one temporary (Krcic spring). One-year research was conducted with monthly macroinvertebrates sampling using Surber sampler. Seasonal fluctuations in physico-chemical parameters of the water were generally low, nevertheless there were differences between the studied springs, depending on the origin of water. The greatest differences in the composition, structure and seasonal variations of macroinvertebrates were observed between permanent and temporary springs, indicating the importance of the presence of the surface flow. Overall, diversity and abundance of macroinvertebrates were higher at the permanent springs than the Krcic spring, which dries up in the summer months. In permanent springs, greatest abundance of macroinvertebrates was recorded in moss, whereas at the Krcic spring it was highest in the mesolithal, due to the high density of Micropterna nycterobia (Limnephilidae, Trichoptera). This species has specifically adapted life cycle to the seasonal drying up, and large proportion of such species is typical for communities in temporary habitat.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389787858</t>
+          <t>https://openalex.org/W1532220075</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.hrcr.2023.11.001</t>
+          <t>https://doi.org/10.1007/3-540-45635-x_3</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Winterfield (2023)</t>
+          <t>Cousot (2001)</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Good luck where preparation meets opportunity</t>
+          <t>Design of Syntactic Program Transformations by Abstract Interpretation of Semantic Transformations</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>“Luck is what happens when preparation meets opportunity.”– Seneca Much of the emergence of the electrophysiology (EP) program at the Medical University of South Carolina (MUSC) began with work done by others—Drs Michael Gold and Marcus Wharton formed the academic core 2 decades ago. Dr Gold developed the cardiology division as chief, and he led the EP academic mission with his stewardship of pacing and implantable cardioverter-defibrillator trials. My former MUSC partner, Dr Frank Cuoco, developed a robust atrial fibrillation program and understood the need for an academic ventricular tachycardia (VT) practice. With this talented group, the die had been cast for a program supportive of robust investigator-initiated studies and clinical trials. After speaking at a conference in 2015, I was fortunate to receive an invitation to look at MUSC to build the VT program and later joined, in August 2016. The preparation had been a decade in the making, with a winding course through fellowship at Brigham and Women’s Hospital with an early focus on ion channel genetics and arrhythmogenesis; but, with mentorship from Drs Usha Tedrow and Bill Stevenson, the path steered toward clinical EP. The Brigham had been—and remains—a think tank for VT management, so the obvious next career step with support from mentors led to the great VT center at Loyola in Chicago under the leadership of Dr Dave Wilber. By then, focus on VT management—both mechanistic and technical with interest in ablation biophysics—led to collaborative growth with the great Loyola EP group. The “3 amigos”—Dr Smit Vasaiwala, Dr Alex Green, and me—grew together, with challenging VT cases complemented by sage input from Dr Wilber. He advised methods for improving mapping efficiency, addressing failures, and avoiding complications. The learning post-fellowship never stopped, and collaboration among junior EPs created one of the most transformational experiences of my career. I am grateful for those 5 years with the Loyola group. Mistakes are great teachers. Somewhat serendipitously, after abandoning VT ablation in an ischemic cardiomyopathy patient owing to hemodynamic instability after repeated inductions, Dr Wilber offered this advice: “You can learn a lot in sinus rhythm.” The patient, thankfully, did okay, but this initially confusing statement opened another path: how can we democratize VT ablation? Substrate-guided approaches with high-density mapping emerged during the 2010s, yet generalizability remained challenging given variable signal interpretation by operators and diversity of electrode arrangements on the newest high-density catheters. So the opportunity at MUSC could not have been more fertile for development of a VT program. In an environment somewhat suspicious of the risks of VT ablation, we constructed a program with safety and service at the forefront. Patients survived cases and returned to their doctors. We counseled patients and referring physicians that repeat ablations would sometimes be necessary. We grew from 29 VT ablations to more than 100 in 1 year, and we have experienced double-digit growth annually since 2019. In parallel, MUSC developed the advanced heart failure program with the recruitment of talented physicians and subsequent explosion in transplant / ventricular assist device volumes. Partnership with the heart failure group enabled the program to take on sicker patients with plans for bail-out strategies developed in a collaboration between EP and heart failure physicians. With an emerging VT program, I soon took over the EP section just over a year after arrival at MUSC. The work continued, but the needs of the VT program no longer took sole priority. We lacked a comprehensive lead extraction program, and our atrial fibrillation program required additional help to manage the growth in ablations and left atrial appendage closure. We recruited the superbly talented Dr Anne Kroman, who rapidly built a collaborative program with surgical colleagues to support complex extractions. In parallel, we hired additional faculty, including Dr Josh Payne, among others, to extend the complex ablation programs. Junior and midcareer faculty alike share responsibility for core EP work, but each enjoys opportunities to differentiate in niche practices and to lead research initiatives. The luck at MUSC EP emerged from hard work and preparation, coupled with focus on team play at every opportunity. Mentorship never ended, and I continue to engage colleagues for advice at critical program moments, such as recruitment or scientific investment. We will see the mission through, and we welcome colleagues and trainees to visit our open lab environment. No conflicts of interest. This research did not receive any specific grant from funding agencies in the public, commercial, or not-for-profit sectors.</t>
+          <t>Traditionally, static program analysis has been used for offline program transformation i.e. an abstraction of the subject program semantics is used to determine which syntactic transformations are applicable. A classical example is binding-time analysis before partial evaluation [4],[5].</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388086823</t>
+          <t>https://openalex.org/W4307423142</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20944/preprints202310.1877.v1</t>
+          <t>https://doi.org/10.1017/9781009165921.014</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Nematov et al. (2023)</t>
+          <t>Strokan &amp; Sil (2022)</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>&amp;lt;strong&amp;gt;&amp;lt;/strong&amp;gt;The Effect of Structural Phase Changes on Fermi Level Shifts and Optoelectronic Properties of Lead-Free CsSnI&amp;lt;sub&amp;gt;3&amp;lt;/sub&amp;gt; Perovskites</t>
+          <t>Russia’s Oil and Gas Industry: Soviet Inheritance and Post-Soviet Evolution</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>The work carried out first-principles calculations within the framework of density functional theory to study the structural stability of the CsSnI3 compound and the influence of phase transitions on their electronic and optical properties. Using the GGA and SCAN functionals, the relaxed structures of the CsSnI3 phases were obtained and their geometric characteristics were assessed. Using the Phonopy code based on VASP, calculations of phonon and thermodynamic properties were performed, and the temperatures of phase transitions of CsSnI3 were determined. The temperature dependences of the thermodynamic parameters &amp;amp;alpha;-, &amp;amp;beta;-, &amp;amp;gamma;- and &amp;amp;delta;-phases of CsSnI3 were analyzed. The trends in free energy, entropy, enthalpy, heat of formation energy and heat capacity were justified in terms of the pattern of changes in the total energy of the four phases of CsSnI3 from VASP calculations. It is shown that at 0 K the non-perovskite structure of the CsSnI3 compound (&amp;amp;delta;-CsSnI3) is the most stable (followed by &amp;amp;gamma;-CsSnI3), and the tetragonal phase (&amp;amp;beta;) is quite unstable, having the highest energy among the perovskite phases. It was revealed that at temperatures above 450 K the tetragonal phase becomes stable, and when the temperature drops, it transforms into the cubic phase (&amp;amp;alpha;-CsSnI3). The phase transition between the &amp;amp;beta; and &amp;amp;gamma; phase of perovskite occurs in the range of 300-320 K, and at 320 K a black-yellow transformation of CsSnI3 occurs in which the cubic phase (black perovskite) undergoes a phase transition to a non-perovskite conformation (yellow phase). The presence of temperature phase transitions between two orthorhombic phases of CsSnI3 at 360 K was discovered, although direct transitions of the &amp;amp;alpha;⟷&amp;amp;gamma; and &amp;amp;gamma;⟷&amp;amp;delta; types have not yet been reported in any experiment, except for &amp;amp;gamma;&amp;amp;rarr;&amp;amp;delta; transitions under the influence of moisture. Based on well-relaxed structures (from the SCAN calculations), the band gap widths for four CsSnI3 phases were calculated and compared with experimental measurements. Electronic properties and Fermi level shifts as a result of phase transformations of CsSnI3 were assessed using the HSE06 functional and machine learning prediction. The values of the complex dielectric constant and the refractive index of all phases of the CsSnI3 were determined.</t>
+          <t>This chapter traces the evolution of the Russian oil and gas sector. We argue that, at least since 2000, Russia’s vast natural resources have been a source more of stability than of fragility for the economy. This is in part due to the distinctive history and role of fossil fuels in the context of a Soviet economy that was designed to be self-sufficient and thus diversified. While this did not prevent economic stagnation in the late Soviet period (1970s–80s) or a steep decline in production during the early years of post-Soviet transition (1992–99), it created the foundations for a petrostate that gradually came to be more resilient and adaptable in the face of fluctuations in energy prices, financial crises, and increasingly contentious relations with the West. Following 2000, while the state played an increasingly assertive role in the oil and gas industry, the government also adopted various measures to limit dependence on resource rents, to reduce vulnerability to sudden shifts in global energy prices, and to increase economic stability in the face of new geopolitical challenges. These included a Stabilization Fund, new budgetary practices to control spending and support other industries, diversification of supply flows and export composition, and intensified investment in new infrastructural projects. While there are now growing concerns over carbon emissions and the technological demands of further exploration, hydrocarbons have been mostly a positive force in the Russian economy. Whether that holds true following the war in Ukraine and the imposition of massive Western sanctions in 2022 remains to be seen.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4286230957</t>
+          <t>https://openalex.org/W2321840726</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1049/smt2.12118</t>
+          <t>https://doi.org/10.1139/p11-004</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Liu et al. (2022)</t>
+          <t>Safronova &amp; Safronova (2011)</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Vibration detection method for core loosening degree of high‐voltage direct current converter valve saturable reactor based on variational mode decomposition‐symmetrized dot pattern and image matching</t>
+          <t>Excitation energies, E1, M1, and E2 transition rates, and lifetimes in Ca&lt;sup&gt;+&lt;/sup&gt;, Sr&lt;sup&gt;+&lt;/sup&gt;, Cd&lt;sup&gt;+&lt;/sup&gt;, Ba&lt;sup&gt;+&lt;/sup&gt;, and Hg&lt;sup&gt;+&lt;/sup&gt; &lt;sup&gt;1&lt;/sup&gt;This article is part of a Special Issue on the 10th International Colloquium on Atomic Spectra and Oscillator Strengths for Astrophysical and Laboratory Plasmas.</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>IET Science, Measurement &amp; TechnologyVolume 16, Issue 8 p. 454-466 ORIGINAL RESEARCHOpen Access Vibration detection method for core loosening degree of high-voltage direct current converter valve saturable reactor based on variational mode decomposition-symmetrized dot pattern and image matching Yunpeng Liu, Yunpeng Liu State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, ChinaSearch for more papers by this authorTingyu Lai, Corresponding Author Tingyu Lai [email protected] State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, China Correspondence Tingyu Lai, North China Electric Power University (Baoding), No. 619, Yonghua Street, Baoding, Hebei 071003, China. Email: [email protected]Search for more papers by this authorJiashuo Liu, Jiashuo Liu State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, China Jining Power Supply Bureau, Jining, ChinaSearch for more papers by this authorXiaoguang Wei, Xiaoguang Wei State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this authorShaotong Pei, Shaotong Pei State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, ChinaSearch for more papers by this authorChenghao Wang, Chenghao Wang State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this authorXiaolong Zhang, Xiaolong Zhang State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this author Yunpeng Liu, Yunpeng Liu State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, ChinaSearch for more papers by this authorTingyu Lai, Corresponding Author Tingyu Lai [email protected] State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, China Correspondence Tingyu Lai, North China Electric Power University (Baoding), No. 619, Yonghua Street, Baoding, Hebei 071003, China. Email: [email protected]Search for more papers by this authorJiashuo Liu, Jiashuo Liu State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, China Jining Power Supply Bureau, Jining, ChinaSearch for more papers by this authorXiaoguang Wei, Xiaoguang Wei State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this authorShaotong Pei, Shaotong Pei State Key Laboratory of Alternate Electrical Power System with Renewable Energy Sources, North China Electric Power University, Baoding, China Hebei Provincial Key Laboratory of Power Transmission Equipment Security Defence, North China Electric Power University, Baoding, ChinaSearch for more papers by this authorChenghao Wang, Chenghao Wang State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this authorXiaolong Zhang, Xiaolong Zhang State Key Laboratory of Advanced Power Transmission Technology, Beijing, ChinaSearch for more papers by this author First published: 18 July 2022 https://doi.org/10.1049/smt2.12118AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Abstract Saturable reactor is the key equipment in conve</t>
+          <t>Excitation energies of ns 1/2 , np j , and nd j states in Cd + (n = 5), Hg + (n = 5) and ns 1/2 , np j , and (n – 1)d j states in Ca + (n = 4), Sr + (n = 5), and Ba + (n = 6) are evaluated using the linearized coupled-cluster (all-order) method. Reduced matrix elements, oscillator strengths, and transition rates are determined for the ns–np j –nd j (or ns–np j –(n – 1)d j ) possible electric dipole transitions in Ca + , Sr + , Ba + , Cd + , and Hg + . Electric quadrupole matrix elements are evaluated to obtain ns 1/2 –(n – 1)d j transition rates in Ca + (n = 5), Sr + (n = 5), and Ba + (n = 6). The matrix elements are calculated using both relativistic many-body perturbation theory, complete through third order, and the relativistic all-order method restricted to single and double (SD) excitations. The SD lifetime results for the np and nd states in Ca + , Sr + , Ba + , Cd + , and Hg + , are compared with the latest available experimental measurements. The contribution of the magnetic dipole nd 3/2 –nd 5/2 transition to the lifetimes of the lowest nd 5/2 level ln Ca + , Sr + , and Ba + ions is discussed. These calculations provide a theoretical benchmark for comparison with experiment and theory as well as data needed for various applications.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3215838996</t>
+          <t>https://openalex.org/W2050953128</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/hm9.0000000000000013</t>
+          <t>https://doi.org/10.1021/jf000776j</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Zhang (2021)</t>
+          <t>Rodriguez‐Saona et al. (2001)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Acupuncture and Herbal Medicine launched: building a bridge between traditional and modern medicine</t>
+          <t>Rapid Detection and Identification of Bacterial Strains By Fourier Transform Near-Infrared Spectroscopy</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>In 2021, Acupuncture and Herbal Medicine (AHM) in English is officially published by Tianjin University of Traditional Chinese Medicine and China Association of Chinese Medicine. AHM is a peer-reviewed, diamond open-access international journal dedicated to publishing high quality research in the field of acupuncture and herbal medicine. The types of publication considered are editorial, review article, original article, guidelines and standards, commentary, short communications, case report, methodology, and letter to the editor. Featured by evidence-based medicine researches, AHM publishes innovative studies on acupuncture and herbal medicine, promotes academic exchanges, and drives the transformation of research achievements to serve the international development of traditional Chinese medicine (TCM) and establish the frontrunner journal for international communication of traditional medicine. Since the late 2000s, changes in the disease spectrum have led to significant transformation in medical models and the goals of medicine worldwide. World Health Organization has advocated for universal access to essential medical services for global health benefits and starts the great journey of building a healthy world. Mainly based on acupuncture and herbal medicine, TCM has a long history and has played an important role in ensuring the prosperity of the nation and safeguarding the health of the Chinese people. Although it is ancient, its concepts are not outdated, such as the concepts of harmony between human beings and the nature, the dynamic balance between yin and yang, the individualized treatment through syndrome differentiation, and the active preventive medical thought of health maintenance. All of these theories converge with the frontier directions of modern life science, and exhibit the value of TCM in modern society. The extensive practice has proven that solutions to life sciences and medical problems are entrenched in TCM, emphasizing the worth of its vigorous inheritance and development. The modernization of TCM has been more than 20 years and has made great progress. A meaningful experience is to maintain the inheritance and promote the innovation, through following the theoretical basis of TCM, introducing and learning from advanced scientific and technological methods which is making the past serve the present. “Stones from other mountains can serve to polish our jade.” The synergistic effect can be realized through complementary advantages. Since 2020, a sudden COVID-19 epidemic has wreaked havoc around the world, with China bearing the brunt. Chinese people have united in struggling against COVID-19 with the fearless heroism, and forged the great anti-epidemic spirit of “the supremacy of life, the unity of the whole country, the sacrifice of life and death, respect for science, and the sharing of destiny.” In less than three months, we have won a phased victory in the fight against the epidemic. TCM has participated in the prevention and control of COVID-19 epidemic and played a critical role in all of the stages[1]. Strict isolation and widespread use of TCM effectively blocked the spread of COVID-19 epidemic, reduced the development from mild to severe, increased the cure rate and reduced the mortality rate. In response to the different outcomes in clinical evaluation studies, the world's first Core Outcome Set (COS) was developed by Tianjin University of Traditional Chinese Medicine for clinical trials on COVID-19 (COS-COVID), which determined the “rate of mild to severe” as a critical clinical evaluation outcome[2]. This outcome was recognized and widely used in evaluating the results of clinical trials for TCM, clinical drugs and vaccines. In addition, China has also actively shared its anti-epidemic experience of integrated traditional Chinese and Western medicine with the world, which has been widely concerned and positively commented by the international community. The combination of the TCM and Western medicine is not only one of the characteristics of China's COVID-19 response[3], but also a vivid practice of inheriting the essence of TCM, maintaining the integrity and promoting the innovation. The pandemic has not only changed the world, but also change the world's attitude towards TCM. Mainly based on acupuncture and herbal medicine, TCM has been popularized and applied in more than 100 countries around the world and legalized in health insurance by dozens of countries and regions. A number of high-level papers have been published and high-level education and personnel training have been sustainably performing. AHM will hold to evidence-based medicine research and adhere to the directions of “inheriting the essence, maintaining the integrity, and promoting the innovation”, report innovative theories and excellent academic achievements in the field of acupuncture and herbal medicine, and move forward to the international leading journal. We will strive to build a bridge between tr</t>
+          <t>The use of Fourier transform near-infrared (FT-NIR) spectroscopy and multivariate pattern recognition techniques for the rapid detection and identification of bacterial contamination in liquids was evaluated. The complex biochemical composition of bacteria yields FT-NIR vibrational transitions (overtone and combination bands) that can be used for classification and identification. Bacterial suspensions (Escherichia coli HB101, E. coli ATCC 43888, E. coli 1224, Bacillus amyloliquifaciens, Pseudomonas aeruginosa, Bacillus cereus, and Listeria innocua) were filtered to harvest the cells and eliminate the matrix, which has a strong NIR signal. FT-NIR measurements were done using a diffuse reflection-integrating sphere. Principal component analysis showed tight clustering of the bacterial strains at the information-rich spectral region of 6000-4000 cm(-1). The method reproducibly distinguished between different E. coli isolates and conclusively identified the relationship between a new isolate and one of the test species. This methodology may allow for the rapid assessment of potential bacterial contamination in liquids with minimal sample preparation.</t>
         </is>
       </c>
     </row>

--- a/ch1_evidence_causes/data/samples_5.4_narrowed_criteria4.xlsx
+++ b/ch1_evidence_causes/data/samples_5.4_narrowed_criteria4.xlsx
@@ -387,4341 +387,3930 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2241803301</t>
+          <t>https://openalex.org/W2040265599</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/fem.2011.0041</t>
+          <t>https://doi.org/10.3816/clc.2009.s.001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Noble (2011)</t>
+          <t>Bunn (2009)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>"My Own Set of Keys": Meditations on Transgender, Scholarship, Belonging</t>
+          <t>Novel Therapies for Non–Small-Cell Lung Cancer: A 2008 Update</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>"My OwnSetofKeys": Meditations on Transgender, Scholarship, Belonging Bobby Noble As I sit down to prepare the writing of this essay, I am struck by the profundity of a series of conversations staged in Jules Rosskam's experi mental documentary, Against a Trans Narrative (2008).1 Rosskam seeks to question the political use but also the existence of one single master narra tive that explains transgender both as a political narrative but also as a per sonal one. The documentary is troublesome, in the best sense of the term. It delves deeply into the many narratives and discourses circulating over the past ten years or so about transgender in feminist contexts, queer communities, across age differences, as it materializes through racial differences, as a medical and clinical practice, and as the subject of much agonizing debate for transgender people as well as for their partners before, during, and after transition. Rosskam does not shy away from the controversial conversations and in fact uses an intelligent mix of the elements of the documentary form (the authorial voice-over, confessional one-on-one conversation, group encounter sessions) and combines them with fictional scenes (the reading of a script by actors, the staging of differ ent scenes as rehearsal and then again, as the "real" scene, and so forth) to render the single transnarrative all but impossible. The film's strengths are the multiple group encounter sessions where each group is constituted around one particular demographic—young, mix raced gender queers, self-identified lesbian feminists, queer women of color Feminist Studies37, no. 2 (Summer 2011). © 2011 by Feminist Studies, Inc. 254 BobbyNoble 255 over the age of fifty-five, to name just a few—where the group is filmed trying to "come to terms" with transgender. On the one hand, several groups of self-identified lesbians discuss the emergence of transness relative to what was possible in the old heady days of lesbian feminism. It is true, they note with sharp analysis honed over many years of passionate debate, that twenty-plus years ago, there was no possibility of claiming a trans iden tity, because the language, technologies, and possibilities for such a thing did not yet exist. Does that make it fair now to have to make space for such a thing? But, a younger group of gender queer, queer, and trans youth answer that polemic: but the option does exist now. As such, why do geni tals have to function as membership cards? Moreover, members of a Books Discussed in This Article The Transgender Studies Reader. Edited by Susan Stryker and Stephen Whittle. New York: Routledge, 2006. Transgetider Rights. Edited by Paisley Currah, Richard M. Juang, and Shannon Price Minter. Minneapolis: University of Minnesota Press, 2006. Imagining Transgender: An Ethnographyof a Category. By David Valentine. Durham, NC: Duke University Press, 2007. Special issue, "Trans-," Women's Studies Quarterly 36, nos. 3, 4 (2008). Edited by Paisley Currah, Lisa Jean Moore, and Susan Stryker. younger group of activists reply that feminism continues to expand and grow; being male, they say, in the best of ferocious intersectional critiques, isn't necessarily a privilege for all men. Why do we have to subdivide to belong? Rosskam, on the eve of surgery, frames it this way in a quiet autobi ographical moment in front of the camera: "What is it I have to do to face my reflection in the mirror? And what is it that 1 have to do to face my community? And what do I do when these produce different kinds of answers?" I am struck by the beautiful and impossible lived messiness of such heartfelt questions both in the documentary and also as the noisy context for grappling with transgender as the category, its communities, and their 256 BobbyNoble attendant scholarship grow into the twenty-first century. Some back ground explains both the beauty of this impossible messiness: I turned fifty this year. I have spent thirty of those fifty years living a committed lesbian life that has included a stint inside the minefields of white lesbian feminism, memories that stand in stark contradiction to the spaces of boy/boi/trans man I currently live in, again, which seem in tension with...</t>
+          <t>Lung cancer is the leading cause of cancer death in the United States and worldwide.1,2 The 5-year survival rate of 16% remains suboptimal and far lower than 5-year survival rates for all cancers (66%) and other common cancers such as breast, colon, and prostate cancers.1 Cytotoxic chemotherapy has been the mainstay of treatment for patients with advanced small-cell lung cancer and non–small-cell lung cancer (NSCLC) for many years.3-5 Because these therapies have many toxicities that kill a substantial number of tumor cells, it is imperative that we develop biomarkers to identify patients most likely to respond to individual drugs and to develop agents with reduced toxicities. The revolution in our understanding of the molecular basis of lung cancer leads to the identification of new therapeutic targets. Among these new targets are growth factor pathways that stimulate not only tumor growth but also the growth of blood vessels that permit lung cancer growth (angiogenesis). In this supplement to Clinical Lung Cancer, the recent advances in novel therapies for lung cancer are reviewed by experts in the field. With respect to the novel targets, the epidermal growth factor (EGF) pathway for lung cancer cells and the vascular endothelial growth factor (VEGF) pathway for endothelial cells are highlighted. Horn and Sandler review the emerging data on antiangiogenic therapies for NSCLC. There are several ways to inhibit the pathway, including monoclonal antibodies (MoAbs) directed to the VEGF ligand (bevacizumab) or MoAbs to the VEGF receptor (VEGFR; eg, IMC-1121B). Many small-molecule tyrosine kinase inhibitors (TKIs) of VEGFR signaling are also being studied. Among all antiangiogenic therapies of any class, only bevacizumab (Avastin) is currently US Food and Drug Administration (FDA) approved for lung cancer therapy. Herein, Joy and Butts review the status of inhibitors of the EGF receptor (EGFR) signaling pathway. Once again, there are both MoAbs to the receptor, such as cetuximab, and small-molecule TKIs of EGFR signaling, such as erlotinib and gefitinib. The smallmolecule inhibitor erlotinib is approved for use in NSCLC by the FDA, and there are promising emerging data for cetuximab and gefitinib. There are intense studies to identify the best biomarkers to select patients for these therapies. Activating EGFR mutations appear to be excellent markers for sensitivity to EGFR TKIs. EGFR protein expression, EGFR gene copy number by fluorescence in situ hybridization, and other markers are being evaluated to assist in the selection of patients for cetuximab therapy. Pakkala and Ramalingam review studies that evaluate dual inhibition of both the EGFR and VEGFR pathways. The dual inhibition can be achieved by combining agents specific for each pathway (eg, erlotinib and bevacizumab) and by using single small-molecule TKIs that target both pathways (eg, vandetanib). Scagliotti and colleagues review recent studies focusing on the novel cytotoxic chemotherapeutic agent pemetrexed. Pemetrexed is a multitargeted antifolate that is FDA approved for use in both firstand second-line therapy for advanced NSCLC. Multiple studies have demonstrated that its activity is greater in nonsquamous carcinomas than in squamous carcinomas. The authors explore the molecular basis for this difference. Finally, West reviews the next generation of targeted therapies for advanced NSCLC. There are many promising targets, including insulin-like growth factor-1 receptor signaling; c-Met signaling; mammalian target of rapamycin; AKT and phosphatidylinositol 3-kinase signaling; and inducers of apoptosis, such as TRAIL, and agonist antibodies to DR4 or DR5. This supplement highlights the major advances in lung cancer therapy that have the potential to improve 5-year survival rates and reduce the pain and suffering experienced by patients with lung cancer.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4307930458</t>
+          <t>https://openalex.org/W1976318815</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.2210.16910</t>
+          <t>https://doi.org/10.1016/j.remngl.2011.11.004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Blanchard et al. (2022)</t>
+          <t>Banzo et al. (2012)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Using parity-nonconserving spin-spin coupling to measure the Tl nuclear anapole moment in a TlF molecular beam</t>
+          <t>News from The Spanish Journal of Nuclear Medicine and Molecular Imaging</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>An experiment utilizing a TlF molecular beam is being developed by the CeNTREX collaboration to search for hadronic interactions that violate both time-reversal (T) and parity (P) invariance. Here we propose to use the same beam to look for a T-invariance conserving but P-nonconserving (PNC) effect induced by the anapole moment of the Tl nucleus, via a vector coupling of the two nuclear spins in TlF. To measure the nuclear anapole moment, the dc electric and magnetic fields in CeNTREX are replaced by rf fields resonant with a nuclear spin flip transition. We adapt the relativistic coupled cluster method in a combination with relativistic density functional theory for the calculation of the molecular PNC spin-spin vector coupling constant that links the experimental signal with the anapole moment. The value of the P-conserving spin-spin coupling constant calculated within the same approach is found to be in good agreement with available experimental data.</t>
+          <t>The last quarter century has witnessed the introduction of a variety of powerful techniques that have allowed visualization of organ structure and function with exquisite detail. This in turn has brought about a true revolution in the day-to-day practice of medicine. Structural imaging with x-ray computerized tomography and magnetic resonance imaging has added tremendously to many areas of medicine, including preoperative evaluation of patients. Many surgical procedures have been replaced by minimally invasive techniques, which have become a reality only because of the availability of modern imaging modalities. However, despite such accomplishments, structural imaging is quite insensitive for detecting early disease in which there often are no gross structural alterations in organ anatomy. Therefore, these modalities should be complemented by methodologies that can detect abnormalities at the molecular and cellular levels. The introduction of [18F]-fluorodeoxyglucose positron emission tomography (FDG-PET) in 1976 as a molecular imaging technique clearly has shown the power of this approach for treating a multitude of serious disorders. The impact of FDG-PET has been particularly impressive in patients with cancer diagnosis, for whom it has become important in staging, monitoring response to treatment, and detecting recurrence. In this review, we emphasize the role of FDG-PET in the assessment of central nervous system maladies, malignant neoplastic processes, infectious and inflammatory diseases, and cardiovascular disorders. New radiotracers are being developed and promise to expand further the list of indications for PET. These include novel tracers for cancer diagnosis and treatment capable of detecting hypoxia and angiogenesis. Prospects for developing new tracers for imaging other organ diseases also appear very promising.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3031997423</t>
+          <t>https://openalex.org/W2408673697</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.enconman.2020.112932</t>
+          <t>https://doi.org/10.1158/1557-3265.pmsclingen15-ia22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fichera et al. (2020)</t>
+          <t>Sawyers (2016)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>From self-consumption to decentralized distribution among prosumers: A model including technological, operational and spatial issues</t>
+          <t>Abstract IA22: Reflections on precision medicine</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The power sector is undergoing a fundamental transition from centralized fossil-fuelled to distributed production systems. Usually, the decentralization of the energy distribution is treated by considering the interactions between prosumers and main grid, neglecting to include the rising chance for prosumers to directly exchange the produced energy, thus bypassing the grid. In this direction, this paper proposes a prosumer-centred dynamical model able to take the energy interactions among prosumers into account, along with the usual interactions established with the grid. The modelling approach takes inspiration from the methodological framework of agent-based models, particularly appropriate to deal with problems characterized by a significant number of interactions among the parts. Specifically, the developed model has been formulated with the main scope of investigating to what extent energy exchanges among prosumers reduce the supply from traditional plants. The electricity demand and production of each prosumer, the distance among buildings, operational and technological features (usage of the links, installed capacity of the energy production systems have been included in the analysis. Hourly-based simulations run on NetLogo performing a real urban area in Southern Italy as a case study for two scenarios evaluating the distribution from photovoltaic panels and small-scale cogeneration units. In addition, an a posteriori environmental analysis to evaluate the reduction of carbon emissions due to the distribution among prosumers has been conducted. Results reveal that short-range interactions among prosumers are preferred when planning to reduce the electricity supply from the main grid. In addition, the spatial configuration of the buildings within the area as well as the capacity of the installed energy production systems significantly affect the distribution. Finally, simulations highlight the noticeable impact of seasonality on both the distribution and the emissions’ reduction.</t>
+          <t>Abstract The clinical success of molecularly targeted therapies such as imatinib for chronic myeloid leukemia sparked a revolution in cancer drug development as well as global efforts to define the landscape of genomic alterations across all cancers. Today we live in a world with a near complete understanding of all cancer gene mutations, giving us an unprecedented opportunity to leverage this knowledge to improve treatment outcomes, through precision medicine. Despite the many remarkable successes over the past 15 years, the goal of improved therapy for all cancers remains daunting due to the complexity of the genomic landscape and the challenges of overcoming drug resistance. With the rapid spread of next generation sequencing into the clinical arena at various cancer centers and health care institutions throughout the world, we have an opportunity to accelerate our understanding of treatment response and resistance through data sharing across these growing silos of genomic and clinical datasets. In this lecture I will illustrate the power of this approach through specific examples in prostate cancer and discuss interactional efforts to catalyzed data sharing through the Global Alliance for Genomics and Health (GA4GH). Citation Format: Charles L. Sawyers. Reflections on precision medicine. [abstract]. In: Proceedings of the AACR Precision Medicine Series: Integrating Clinical Genomics and Cancer Therapy; Jun 13-16, 2015; Salt Lake City, UT. Philadelphia (PA): AACR; Clin Cancer Res 2016;22(1_Suppl):Abstract nr IA22.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3107005520</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arxiv.2011.11542</t>
+          <t>https://openalex.org/W3146734363</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tang et al. (2020)</t>
+          <t>Wu (2014)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Exploring Contrastive Learning in Human Activity Recognition for Healthcare</t>
+          <t>The Subversion of Enlightenment Rationality: On Two Vision-Blocking Metaphors in J. M. Coetzee's Waiting for the Barbarians</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Human Activity Recognition (HAR) constitutes one of the most important tasks for wearable and mobile sensing given its implications in human well-being and health monitoring. Motivated by the limitations of labeled datasets in HAR, particularly when employed in healthcare-related applications, this work explores the adoption and adaptation of SimCLR, a contrastive learning technique for visual representations, to HAR. The use of contrastive learning objectives causes the representations of corresponding views to be more similar, and those of non-corresponding views to be more different. After an extensive evaluation exploring 64 combinations of different signal transformations for augmenting the data, we observed significant performance differences owing to the order and the function thereof. In particular, preliminary results indicated an improvement over supervised and unsupervised learning methods when using fine-tuning and random rotation for augmentation, however, future work should explore under which conditions SimCLR is beneficial for HAR systems and other healthcare-related applications.</t>
+          <t>AbstractThe present paper bases its arguments around two vision-blocking metaphors in Coetzee's novel Waiting for the Barbarians. Revelations of the rich metaphorical meanings of the sunglasses and the blind eyes of the barbarian girl through close readings serve to demonstrate Coetzee's reflections on and criticism of Enlightenment rationality. As a superb narrator well-versed in the antipathy of modern Western culture, Coetzee arranges in dichotomy the two metaphors similar in form but opposing in essence, so as to propel with their tension the narration forward and highlight the gist of the novel. With the operations of various irrational elements in the text, such as the purification rituals, the dreams, and allusions to myth, he manages to subvert Enlightenment rationality for the sake of getting control of the order of nature.Key words: Sunglasses; Blind eyes; Empire; Barbarians; Enlightenment rationality; Dream; RitualINTRODUCTIONJ. M. Coetzee's 1980 novel Waiting for the Barbarians won him international critical acclaim.(2014, pp.326-374) Ever after its publication, it has been thrown under critical inspections from a wide range of perspectives. These critical reactions can be roughly put into two categories. In the first one, the criticism is based around colonial and postcolonial discourses, which comes natural to the study of Coetzee's works because Coetzee's life and career are inseparably intertwined with the colonial and postcolonial legacies of South Africa. His Dusklands juxtaposes 17th century colonial experience and postcolonial practice in the 1960's to illustrate the haunting ghost of Euro- centrism. In the Heart of the Country delineates the schizophrenia of the colonial psyche. Foe is a writing-back text and subversion of the canonical colonial narration Robinson Crusoe. Age of Iron, though pretty much Coetzeeian in its constant self-reflections, is his most explicit anti-apartheid text. In Waiting for the Barbarians, the opposition of Empire and Barbarians, as well as their ironical mutual transition, highlights the vintage critical tradition in the examination of the colonial experience, with Conrad's Heart of Darkness as its precursor. Critics represented by Bill Ashcroft (Ashcroft, 1998, pp.100-116) and Teresa Dovey (Dovey, 1996, pp138-151) take this story as an allegory of the apartheid South Africa. Susan Gallagher (Gallagher, 19688, pp.277-285) and Michael Valdez Moses(Moses, 1993, pp.115-127) approach it from the angle of torture and its traumatic effects. Dominic Head(Head, 2009,) views this book as an illustration of the old magistrate's moral awakening in the context of the Empire and the other.The second category is characterized by the application of a wide range of other contemporary critical discourses, such as postmodernism, post-structuralism, body theories, trauma theories, narrative theories, and etc. These discourses, though some of them are more or less intertwined, respectively claim their distinctive critical rationale and methods, which together broadens the critical space of Coetzeeian studies and engenders more philosophical and cultural relevance and significance for Coetzee's works. Coetzee has been nurtured by the literary modernism and postmodernism, well-versed in various philosophical and cultural movements in the second half of the last century, which, together with his profound understanding of European and American cultures, results in his insights into the essential problematics of the Western colonial institutions. What he really focuses on is the underlying stratum of the colonial discourse, the inveteracy of Euro-centrism. His probe into the nature of history and the deconstruction of it, as well as his linkage to the modernist literary tradition are reflected in his Kafkaian novel Life and Time of Michael K.; his illustration of the contemporary moral predicaments in Elizabeth Costello: Eight Lessons, in the disguise of meta- fictional poststructuralist construct, is indeed infused with moral force typical of the modernist heritage. …</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386907719</t>
+          <t>https://openalex.org/W1975178141</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.2106.10427</t>
+          <t>https://doi.org/10.1111/jbg.12073</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ruohonen (2021)</t>
+          <t>Hirooka (2014)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Reassessing Measures for Press Freedom</t>
+          <t>Marbled &lt;scp&gt;J&lt;/scp&gt;apanese Black cattle</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>There has been an increasing interest in press freedom in the face of various global scandals, transformation of media, technological change, obstacles to deliberative democracy, and other factors. Press freedom is frequently used also as an explanatory factor in comparative empirical research. However, validations of existing measurement instruments on press freedom have been far and few between. Given these points, this paper evaluates eight cross-country instruments on press freedom in 146 countries between 2001 and 2020, replicating an earlier study with a comparable research setup. The methodology is based on principal component analysis and multi-level regression modeling. According to the results, the construct (convergence) validity of the instruments is good; they all measure the same underlying semi-narrow definition for press freedom elaborated in the paper. In addition, any of the indices seems suitable to be used interchangeability in empirical research. Limitations and future research directions are further discussed.</t>
+          <t>Wagyu is a general term used for native Japanese beef breeds (‘wa’ means ‘Japanese’ and ‘gyu’ means ‘cattle’). Wagyu cattle consist of four beef breeds, all of which belong to Bos taurus: the Japanese Black, Japanese Brown, Japanese Shorthorn and Japanese Polled. In 2010, a total of 737 281 breeding cows of all four Japanese beef breeds were counted nationwide; the Japanese Black cattle is the predominant breed and accounted for 97% with nationwide distribution. The other three breeds are minor and regional breeds; the Japanese Brown is mainly distributed in Kumamoto Prefecture in Kyushu island and Kochi Prefecture in Shikoku island, the Japanese Shorthorn in Tohoku region (north-eastern areas in main island) and the Japanese Polled only in Yamaguchi Prefecture (western area in main island). About 510 thousand heads of Japanese beef (Wagyu) feedlot steers and heifers and culled cows are slaughtered annually, and beef supply from Japanese beef cattle was 155 thousand tons (17.8% of total beef supply including imported beef) in 2010. The average retail prices in meat shops for outside-loin and sirloin cuts from Japanese beef cattle are $55 and $113/kg, respectively, whereas those from the USA beef are $21 and $40/kg for the same parts. Historically, over approximately 1200-year span from the year 676 until the Meiji Revolution in 1868, there had been no meat consumption culture in Japan because Buddhism prohibited eating meat. Japanese native cattle were used only as a draft tool for paddy rice cultivation, mining and transportation. During the early 19th century, inbred strains based on dam lines were built up by breeders (wealthy farmers and cattle dealers) in mountain areas in Chugoku districts at the west side of Japan's main island, Honshu. These strains were named ‘Tsuru’, which means ‘vine plants’. Interestingly, the breeding procedure used was similar to the close and continued inbreeding of Hereford and Shorthorn cattle practiced by Robert Bakewell and the Collong brothers in England. It is notable that the same types of inbred strains of cattle were established during the same period in both the Western world and the Far East although there was no academic or cultural exchange between the two worlds in those years. After the Meiji Revolution, the new government discontinued the prohibition on eating meat to introduce Western food habits and other aspects of Western culture. Various British and continental breeds such as Shorthorn, Brown Swiss, Devon, Simmental and Ayrshire were imported into Japan and were crossed with native cattle by local prefectural governments. However, none of these crossing efforts were successful, due to the inferior draft performance of the crossbreds, although crossbred animals were larger and produced more milk. No further crossing with foreign breeds was conducted after 1910. Nevertheless, because of the crossbreeding under local governments, the genetic diversity of the breeds was greatly expanded. In 1919, a registration system was organized in each prefecture according to the decision of the Japanese government, and selection on favourable traits utilizing variation from both native and foreign ancestors was started with the aim to have uniform conformation and quality of the cattle. Consequently, the cattle raised in the prefectures formed the four breeds; the Japanese Black, Japanese Brown and Japanese Polled were established as pure breeds in 1944, followed by the Japanese Shorthorn in 1957. Since the 1960s, with the rapid growth of the Japanese economy and the mechanization of crop production at the time, the use of the breeds has shifted from draft animals to beef production. The official cattle performance and progeny testing programmes for beef production started in 1968, and the testing schemes in central stations were established. In Japan, the carcass value has been determined by meat quality, primarily the degree of marbling. Since the liberalization of beef importations in 1991, marbling has been emphasized more and more as a reason to differentiate domestic beef from imported beef. Clear positive genetic trends for marbling of Japanese beef breeds have been realized by introducing field progeny testing programmes using carcass records collected at slaughter houses and processed by the BLUP method (Sasaki et al. 2006, J. Anim. Sci., 84, 317–323). Marbling is evaluated using the 12-point beef marbling standard (BMS score 1–12) with number 12 being best. The Japanese Black is known to have extremely superior marbled beef-producing ability among the four breeds. There is much genetic variation in the BMS score in the Japanese Black (Oyama 2012, Anim. Sci. J., 82, 367–373), and it is noticeable that there is a low or even negative genetic correlation between the BMS score and the subcutaneous fat thickness for Japanese Black (Oyama 2012) and also Japanese Brown (Hirooka et al. 1996, J. Anim. Sci., 74, 2112–2116). These favoured characteristics of the breeds en</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2040265599</t>
+          <t>https://openalex.org/W4360855985</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3816/clc.2009.s.001</t>
+          <t>https://doi.org/10.37394/23202.2023.22.34</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bunn (2009)</t>
+          <t>Eryiğit et al. (2023)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Novel Therapies for Non–Small-Cell Lung Cancer: A 2008 Update</t>
+          <t>Classification of Trifolium Seeds by Computer Vision Methods</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lung cancer is the leading cause of cancer death in the United States and worldwide.1,2 The 5-year survival rate of 16% remains suboptimal and far lower than 5-year survival rates for all cancers (66%) and other common cancers such as breast, colon, and prostate cancers.1 Cytotoxic chemotherapy has been the mainstay of treatment for patients with advanced small-cell lung cancer and non–small-cell lung cancer (NSCLC) for many years.3-5 Because these therapies have many toxicities that kill a substantial number of tumor cells, it is imperative that we develop biomarkers to identify patients most likely to respond to individual drugs and to develop agents with reduced toxicities. The revolution in our understanding of the molecular basis of lung cancer leads to the identification of new therapeutic targets. Among these new targets are growth factor pathways that stimulate not only tumor growth but also the growth of blood vessels that permit lung cancer growth (angiogenesis). In this supplement to Clinical Lung Cancer, the recent advances in novel therapies for lung cancer are reviewed by experts in the field. With respect to the novel targets, the epidermal growth factor (EGF) pathway for lung cancer cells and the vascular endothelial growth factor (VEGF) pathway for endothelial cells are highlighted. Horn and Sandler review the emerging data on antiangiogenic therapies for NSCLC. There are several ways to inhibit the pathway, including monoclonal antibodies (MoAbs) directed to the VEGF ligand (bevacizumab) or MoAbs to the VEGF receptor (VEGFR; eg, IMC-1121B). Many small-molecule tyrosine kinase inhibitors (TKIs) of VEGFR signaling are also being studied. Among all antiangiogenic therapies of any class, only bevacizumab (Avastin) is currently US Food and Drug Administration (FDA) approved for lung cancer therapy. Herein, Joy and Butts review the status of inhibitors of the EGF receptor (EGFR) signaling pathway. Once again, there are both MoAbs to the receptor, such as cetuximab, and small-molecule TKIs of EGFR signaling, such as erlotinib and gefitinib. The smallmolecule inhibitor erlotinib is approved for use in NSCLC by the FDA, and there are promising emerging data for cetuximab and gefitinib. There are intense studies to identify the best biomarkers to select patients for these therapies. Activating EGFR mutations appear to be excellent markers for sensitivity to EGFR TKIs. EGFR protein expression, EGFR gene copy number by fluorescence in situ hybridization, and other markers are being evaluated to assist in the selection of patients for cetuximab therapy. Pakkala and Ramalingam review studies that evaluate dual inhibition of both the EGFR and VEGFR pathways. The dual inhibition can be achieved by combining agents specific for each pathway (eg, erlotinib and bevacizumab) and by using single small-molecule TKIs that target both pathways (eg, vandetanib). Scagliotti and colleagues review recent studies focusing on the novel cytotoxic chemotherapeutic agent pemetrexed. Pemetrexed is a multitargeted antifolate that is FDA approved for use in both firstand second-line therapy for advanced NSCLC. Multiple studies have demonstrated that its activity is greater in nonsquamous carcinomas than in squamous carcinomas. The authors explore the molecular basis for this difference. Finally, West reviews the next generation of targeted therapies for advanced NSCLC. There are many promising targets, including insulin-like growth factor-1 receptor signaling; c-Met signaling; mammalian target of rapamycin; AKT and phosphatidylinositol 3-kinase signaling; and inducers of apoptosis, such as TRAIL, and agonist antibodies to DR4 or DR5. This supplement highlights the major advances in lung cancer therapy that have the potential to improve 5-year survival rates and reduce the pain and suffering experienced by patients with lung cancer.</t>
+          <t>Traditional machine learning methods have been extensively used in computer vision applications. However, recent improvements in computer technology have changed this trend. The dominance of deep learning methods in the field is observed when state-of-the-art studies are examined. This study employs traditional computer vision methods and deep learning to classify five different types of Trifolium seeds. Trifolium, the leading food for nutritious dairy products, plays an essential role in livestock in some parts of the world. First, an image data set consisting of 1903 images belonging to five different species of Trifolium was created. Descriptive and quantitative morphological features of each species are extracted using image-processing techniques. Then a feature matrix was created using eight different features. After feature selection and transformation, unnecessary and irrelevant features were removed from the data set to build more accurate and robust classification models. Four common and frequently applied classification algorithms created a prediction model in the seed data set. In addition, the same dataset was trained using VGG19, a convolutional neural network. Finally, the performance metrics of each classifier were computed and evaluated. The decision tree has the worst accuracy among the four traditional methods, 92.07%. On the other hand, Artificial Neural Network has the highest accuracy with 94.59%. As expected, VGG19 outperforms all traditional methods with 96.29% accuracy. However, as the results show, traditional methods can also produce results close to the deep learning methods.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1976318815</t>
+          <t>https://openalex.org/W1990350654</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.remngl.2011.11.004</t>
+          <t>https://doi.org/10.1109/cica.2014.7013252</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Banzo et al. (2012)</t>
+          <t>Andersen et al. (2014)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>News from The Spanish Journal of Nuclear Medicine and Molecular Imaging</t>
+          <t>Calibration between a laser range scanner and an industrial robot manipulator</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>The last quarter century has witnessed the introduction of a variety of powerful techniques that have allowed visualization of organ structure and function with exquisite detail. This in turn has brought about a true revolution in the day-to-day practice of medicine. Structural imaging with x-ray computerized tomography and magnetic resonance imaging has added tremendously to many areas of medicine, including preoperative evaluation of patients. Many surgical procedures have been replaced by minimally invasive techniques, which have become a reality only because of the availability of modern imaging modalities. However, despite such accomplishments, structural imaging is quite insensitive for detecting early disease in which there often are no gross structural alterations in organ anatomy. Therefore, these modalities should be complemented by methodologies that can detect abnormalities at the molecular and cellular levels. The introduction of [18F]-fluorodeoxyglucose positron emission tomography (FDG-PET) in 1976 as a molecular imaging technique clearly has shown the power of this approach for treating a multitude of serious disorders. The impact of FDG-PET has been particularly impressive in patients with cancer diagnosis, for whom it has become important in staging, monitoring response to treatment, and detecting recurrence. In this review, we emphasize the role of FDG-PET in the assessment of central nervous system maladies, malignant neoplastic processes, infectious and inflammatory diseases, and cardiovascular disorders. New radiotracers are being developed and promise to expand further the list of indications for PET. These include novel tracers for cancer diagnosis and treatment capable of detecting hypoxia and angiogenesis. Prospects for developing new tracers for imaging other organ diseases also appear very promising.</t>
+          <t>In this paper we present a method for finding the transformation between a laser scanner and a robot manipulator. We present the design of a flat calibration target that can easily fit between a laser scanner and a conveyor belt, making the method easily implementable in a manufacturing line. We prove that the method works by simulating a range of different orientations of the target, and performs an extensive numerical evaluation of the targets design parameters to establish the optimal values as well as the worst-case accuracy of the method.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2409439864</t>
+          <t>https://openalex.org/W79045625</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-642-03904-1_8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ph (1981)</t>
+          <t>Becker et al. (2009)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Numerical evaluation of cytologic data. VIII. Computation of the principal components.</t>
+          <t>Authentication of persons using acceleration sensors in a telemedicine setting</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>The principal components transformation offers an effective methods for dimensionality reduction and for the assessment of the mutual dependence of observed variables in a data set. An iterative procedure, the so-called power method, for finding a multivariate distribution's eigenvectors and eigenvalues is demonstrated. The projection of feature vectors onto the principal components is shown.</t>
+          <t>Prophylactic measures are reducing costs of healthcare without lowering its quality. Telemetric Personal Health Monitoring (TPHM) Systems with multi-parametric sensors allow active integration of patients into therapy. A common problem in such systems is the verification and identification of users to guarantee the authenticity of gathered data. To assign measured physiological parameters to legitimate users we included a gait-based identification algorithm into a TPHM System. The algorithm records two-dimensional acceleration data from a two-axis accelerometer located on a chest belt. In configuration mode the participant has to walk fast to allow the algorithm to calculate a reference pattern for the legitimate user of the belt. In identification mode the algorithm is looking for fast walking sequences and compares the recorded pattern with the reference pattern. Test patterns generated by different users wearing the belt are compared to find out if the algorithm is able to distinguish between legitimate and illegitimate users. We use methods similar to classification procedures in speech processing to analyze our data in the frequency domain. Several approaches and classificators like the Mahalanobis Classificator and the Minimum Distance Classificator were examined. The signal processing chain consisted of Hamming Windowing, FFT (Fast Fourier Transformation), calculation of the performance density spectrum and calculation of Fourier coefficients. Furthermore, histogram statistics were used as a simple and performance-efficient way to classify the acquired data. We showed that it is difficult to use acceleration data to identify persons without large training sets.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2758620524</t>
+          <t>https://openalex.org/W1522346570</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1149/ma2015-01/42/2208</t>
+          <t>https://doi.org/10.21236/ada362875</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Barkholtz et al. (2015)</t>
+          <t>Smith et al. (1999)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Highly Active Non-PGM Catalysts Prepared from Metal-Organic Frameworks</t>
+          <t>STWAVE: Steady-State Spectral Wave Model. Report 1: User's Manual for STWAVE Version 2.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Proton exchange membrane fuel cells (PEMFCs) represent the future powertrain for the automotive application due to their high efficiency, high power density, and emission of only water from the vehicle. Technology advancements are needed to enable the widespread commercialization of fuel cell-powered vehicles, including increased durability and decreased cost. Platinum is currently the electrocatalyst of choice for PEMFCs, contributing a significant fraction of the overall fuel cell stack cost [1]. There is an imperative need to develop inexpensive, non-platinum group metal (PGM) material as alternative catalysts. At Argonne National Laboratory, we are developing new methods of preparing non-PGM materials as potential substitutes for platinum cathode electrocatalysts for PEMFCs. Our approaches focus on transition metal and nitrogen-doped carbon composites prepared from highly porous organic precursors as electrocatalysts for the oxygen reduction reaction (ORR). One such method involves the use of metal-organic frameworks (MOFs) as sacrificial templates [2-4]. For example, we reported recently a one-pot solid-state synthesis technique to prepare Fe-doped zeolitic imidazolate frameworks (ZIFs), a sub-class of MOFs, which are subsequently pyrolyzed to yield highly-active ORR catalysts [4]. Although the one-pot synthesis method has been successfully demonstrated, we found that the catalyst activity could be substantially improved by optimizing the processing conditions of individual steps from synthesis, thermal activation, to post-treatment. For example, a major factor influencing catalytic activity are the heat treatment conditions. Optimizing pyrolysis time has proven to dramatically enhance ORR activity. Increased catalyst conductivity is another factor contributing to catalyst performance improvement. Furthermore, we also found that MOF synthesis conditions can significantly influence precursor structure and the resulting ORR activity of the catalyst. The improved catalyst activity has to be ultimately demonstrated in membrane-electrode assemblies (MEAs) of fuel cells. The engineering process of preparing MEAs using MOF-based non-PGM catalyst is, to certain degree, difference from that of conventional carbon-supported catalysts. Parameters such as the catalyst loading, perfluorosulfonic acid ionomer to catalyst ratio, affect the catalyst performance at the fuel cell level. In this presentation, we will also describe our effert in optimizing the MEA fabrication process. These improvements at both catalyst and MEA levels have yielded impressive ORR activity when tested in a fuel cell system, moving towards the performance targets set by U.S. DOE for the automotive application. The work performed at Argonne National Laboratory is supported by the U.S. Department of Energy, Energy Efficiency and Renewable Energy, Fuel Cell Technologies Office. References: [1] B. James et al., “Fuel Cell Transportation Cost Analysis,” presentation at the 2013 U.S. DOE Hydrogen and Fuel Cells Program Annual Merit Review and Peer Evaluation. http://www.hydrogen.energy.gov/pdfs/review13/fc018_james_2013_o.pdf [2] Shengqian MA, Gabriel Goenaga, Ann Call, and Di-Jia Liu, Chemistry: A European Journal 17 , 2063 (2011). [3] Dan Zhao, Jiang-Lan Shui, Chen Chen, Xinqi Chen, Briana M. Reprogle, Dapeng Wang, and Di-Jia Liu, Chem. Sci., 3 (11), 3200 (2012). [4] Dan Zhao, Jiang-Lan Shui, Lauren R. Grabstanowicz, Chen Chen, Sean M. Commet, Tao Xu, Jun Lu, and Di-Jia Liu, Advanced Materials 26 , 7 (2014).</t>
+          <t>Abstract : Estimating nearshore wind-wave growth and transformation is a critical component of most coastal engineering projects, e.g., predicting bathymetric and shoreline change, estimating navigation channel shoaling and migration, designing or repairing coastal structures, assessing navigation conditions, and evaluating natural evolution of coastal inlets or beaches versus consequences of engineering actions. Nearshore wave propagation is influenced by complex bathymetry (including shoals and navigation channels); tide-, wind-, and wave-generated currents; tide- and surge-induced water-level variation; and coastal structures. Use of numerical wave models has become widespread to represent wave transformation primarily because of their increasing sophistication and economy of application relative to the large expense of field measurements or physical model studies. This report describes the application of the steady-state spectral wave model, STWAVE. The purpose of STWAVE is to provide an easy-to-apply, flexible, and robust model for nearshore wind-wave growth and propagation. Recent upgrades to the model include wave-current interaction and steepness-induced wave breaking. STWAVE has also been incorporated into the Surface-Water Modeling System (SMS), which provides a user interface and supporting software for grid generation, interpolation of current fields, generation of input spectra, and visualization of model output. This report describes procedures for using STWAVE.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W259869057</t>
+          <t>https://openalex.org/W2033792504</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1103/physrevb.62.17043</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Waters (2007)</t>
+          <t>Roth &amp; Balasubramanya (2000)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Out of Print: Traditional Textbook Publishers Are Having to Adjust to a Changing Market, as K-12 Educators Show a Growing Interest in Digital Content</t>
+          <t>Predicted properties and melting transition of krypton layers physisorbed onto Lennard-Jones spheres</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Anita Givens first began teaching elementary school students to use computers back in the mid-1980s, there were few digital learning materials available and little demand for electronic textbooks. In fact, parents and educators worried that the advent of computers in schools would result in students' spending too much time in the company of computer monitors, and not enough time with real books. Many people were saying, 'We don't want kids sitting in front of a computer all day at school,' as though they were television sets, recalls Givens, who serves the Texas Education Agency as the senior director for instructional materials and educational technology. Look at how many of us now sit in front of a computer all day at work. how we do business. how we communicate through e-mail. how we accomplish tasks using the web. And it's important to leverage that technology--that now common experience--so it's a seamless part of the learning experience for students. I, A lot has changed in 20 years. Teachers, parents, and especially students are embracing electronic educational content today in growing numbers. Givens' agency, for one, has made deployment of digital learning tools and content a priority. The TEA has adopted electronic instructional materials and educational technologies from a range of publishers and depositories--which store and distribute instructional materials for publishing companies--including Glencoe/McGraw-Hill, Pearson Scott Foresman, Harcourt, and Classroom Connect, among others, and from websites such as Learning.com. The influx of alternative digital content has actually altered Texas' formal definition of to include electronic media. reconsideration and redefining of the textbook and how it relates to teaching is occurring across K-12. The consensus definition, however, is still aborning. What now can correctly be called a textbook? For some, printed materials scanned as a PDF file qualify; for others, a certain level of interactivity and even multimedia is required. little else, there is agreement on this: no longer printed pages in a bound book. We define an e-book as a digital book that is available for download, reading, and printing from a connected PC, Mac, or notebook--and for a variety of our materials, PDAs and smart phones, says Steve Potash, CEO of digital content provider OverDrive. When you talk about an e-book or a digital book, with the exception of digital audio books, you are still talking about text, about reading. Digital book file formats vary, Potash points out. A PDF file, for example, is usually searchable, and the reader can sometimes apply highlighting and annotations from the PC. Some digital books are readable from a cell phone or PDA running Adobe's Acrobat eBook or the Mobipocket Reader. Digital audio books can be downloaded to an MP3 player. And Adobe eBooks have built-in text-to-speech capabilities so that a reader may have the book read aloud by the computer. This is disruptive technology, Potash says. It's changing education in fundamental ways. Givens elaborates. If we're going to prepare our students to live and work in the 21st century, we have to make sure that they are comfortable with 21st-century tools, she says. They become the most proficient with these tools when they are connected to content, when they are an integral part of the core curriculum areas--language arts and reading, math, science, and social studies--across the spectrum. More Than Letters on a Screen Mark Bretl agrees that a revolution is afoot with the arrival of electronic textbooks in K-12 environments, but he finds it difficult to work up much enthusiasm for PDF files. Bretl believes that interactivity and multimedia are the keys to this new incarnation of the textbook, which the founders of Kinetic Books, where Bretl is vice president, call, aptly, kinetic textbooks. …</t>
+          <t>We report the results of constant-temperature, constant-density, molecular-dynamics simulations of the melting transition of Kr atoms physisorbed onto small Lennard-Jones spheres. Adlayer depletion takes place when free boundary conditions are used but utilization of a soft reflecting shell results in a broad melting transition at around $T=65\mathrm{K}$ without any appreciable hysteresis. We introduce structural and bond-orientational parameters and utilize thermodynamic parameters to monitor the behavior of the system. The spherical geometry causes compression of the neighbor distances with respect to those for the corresponding planar case, causing enhanced interaction of the neighbor shells via interstitials/vacancies, the nature of which is further elucidated using the bond-orientational information. Quantities related to the radial degree of freedom change slowly during melting, and bond-orientational order of the Kr lattice persists well into the fluid.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4383341249</t>
+          <t>https://openalex.org/W1980878900</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.checat.2023.100687</t>
+          <t>https://doi.org/10.1016/s0016-0032(39)90589-2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sato et al. (2023)</t>
+          <t>Compton (1939)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Liquid/liquid heterogeneous reaction monitoring: Insights into biphasic Suzuki-Miyaura cross-coupling</t>
+          <t>Discussion on: “Time variations of cosmic rays” and summary of day's discussions</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Monitoring the reaction progress of biphasic reaction mixtures has long presented a significant challenge to modern analytical techniques. While a multitude of widely utilized chemical transformations have been performed under such conditions, in-line separation and analysis of each phase have not been possible, inhibiting detailed kinetic and mechanistic studies of these important processes. Herein, we disclose a novel sampling technology capable of accurately monitoring reaction progress in biphasic mixtures using online high-performance liquid chromatography (HPLC) and multinuclear flow nuclear magnetic resonance (NMR) spectroscopy. A biphasic sampling platform was developed to circulate a single phase of a biphasic reaction mixture for analysis using these techniques. The utility of this methodology was demonstrated through analysis of boronic acid distribution and speciation under basic conditions as well as for monitoring the reaction progress of a biphasic Suzuki-Miyaura cross-coupling.</t>
+          <t>Notoginsenoside Ft1 is a promising potential candidate for cardiovascular and cancer disease therapy owing to its positive pharmacological activities. However, the yield of Ft1 is ultralow utilizing reported methods. Herein, an acid hydrolyzing strategy was implemented in the acquirement of rare notoginsenoside Ft1.Chemical profiles were identified by ultraperformance liquid chromatography coupled with quadruple-time-of-flight and electrospray ionization mass spectrometry (UPLC-Q/TOF-ESI-MS). The acid hydrolyzing dynamic changes of chemical compositions and the possible transformation pathways of saponins were monitored by ultrahigh-performance LC coupled with tandem MS (UHPLC-MS/MS).Notoginsenoside Ft1 was epimerized from notoginsenoside ST4, which was generated through cleaving the carbohydrate side chains at C-20 of notoginsenosides Fa and Fc, and vina-ginsenoside R7, and further converted to other compounds via hydroxylation at C-25 or hydrolysis of the carbohydrate side chains at C-3 under the acid conditions. High temperature contributed to the hydroxylation reaction at C-25 and 25% acetic acid concentration was conducive to the preparation of notoginsenoside Ft1. C-20 epimers of notoginsenoside Ft1 and ST4 were successfully separated utilizing solvent method of acetic acid solution. The theoretical preparation yield rate of notoginsenoside Ft1 was about 1.8%, which would be beneficial to further study on its bioactivities and clinical application.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2139267785</t>
+          <t>https://openalex.org/W2064092884</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/09555340610663728</t>
+          <t>https://doi.org/10.1037/h0022472</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Freeman &amp; Reid (2006)</t>
+          <t>Coleman (1965)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Constraints facing small western firms in transitional markets</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Purpose To provide an Asia‐Pacific viewpoint of the key constraints associated with large geographic distances for smaller westerns firms entering central and eastern Europe (CEE), described as a turbulent transitional environment. Design/methodology/approach An exploratory study was used within a qualitative methodology, using eight case studies across multiple industries. Semi‐structured interviews were the main method of data collection conducted in 2003/2004. Open, axial and selective coding was used for the analysis to identifying issues. Findings Key internal constraints for smaller western firms (mindset of western management and middle management in CEE; and lack of management in CEE with decision‐making authority) related to managements' inability to recognize geographic and psychic distance as major external constraints. Largely overcome by enhancing communication between various functional groups; adapting organizational structure; maintaining frequent communicational; developing partnerships in international joint ventures; finding reliable distributors and commitment from re‐sellers and working with government. While no single international business theory adequately explains this process, there is overwhelming support for the network perspective and international entrepreneurship. Research limitations/implications The study is limited by small sample size. The explanatory phase is proposed with further western companies, such as the UK, operating in CEE to identify geographic distance, and additional CEE markets to verify dimensions in this environment. Practical implications The paper provides a checklist of strategies for overcoming constraints facing managers of smaller firms, entering emerging markets with geographic distance. Originality/value Previous studies, using a European or Nordic viewpoint, fail to identify the constraints associated with large geographic distances. This paper provides practical assistance to managers starting out in CEE from the Asia‐Pacific.</t>
+          <t>Learning of prose written in four grammatical transformations.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2436676054</t>
+          <t>https://openalex.org/W2468735228</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0022-5347(17)66838-1</t>
+          <t>https://doi.org/10.1111/nph.14092</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mostofi (1956)</t>
+          <t>Lallemand et al. (2016)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A Study of 2678 Patients with Initial Carcinoma of the Bladder: I. Survival Rates</t>
+          <t>The elusive predisposition to mycoheterotrophy in Ericaceae</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>No AccessJournal of Urology1 Mar 1956A Study of 2678 Patients with Initial Carcinoma of the Bladder: I. Survival Rates F.K. Mostofi F.K. MostofiF.K. Mostofi View All Author Informationhttps://doi.org/10.1016/S0022-5347(17)66838-1AboutPDF ToolsAdd to favoritesDownload CitationsTrack CitationsPermissionsReprints ShareFacebookLinked InTwitterEmail © 1956 by The American Urological Association Education and Research, Inc.FiguresReferencesRelatedDetailsCited by Harley R (2017) Mostofi, Fathollah Keshvar (1911–2003) Pioneers in Pathology, 10.1007/978-3-319-41995-4_4020, (395-399), . Harley R (2016) Mostofi, Fatholla Keshvar (1911–2003) Encyclopedia of Pathology, 10.1007/978-3-319-28845-1_4020-1, (1-5), . Salem H and Mahfouz S (2012) Changing Patterns (Age, Incidence, and Pathologic Types) of Schistosoma-associated Bladder Cancer in Egypt in the Past DecadeUrology, 10.1016/j.urology.2011.08.072, VOL. 79, NO. 2, (379-383), Online publication date: 1-Feb-2012. Bostwick D, Ramnani D and Cheng L (1999) DIAGNOSIS AND GRADING OF BLADDER CANCER AND ASSOCIATED LESIONSUrologic Clinics of North America, 10.1016/S0094-0143(05)70197-X, VOL. 26, NO. 3, (493-507), Online publication date: 1-Aug-1999. Mostafa M, Sheweita S and O'Connor P (1999) Relationship between Schistosomiasis and Bladder CancerClinical Microbiology Reviews, 10.1128/CMR.12.1.97, VOL. 12, NO. 1, (97-111), Online publication date: 1-Jan-1999. Koraitim M, Metwalli N, Atta M and El-Sadr A (2018) Changing Age Incidence and Pathological Types of Schistosoma-Associated Bladder CarcinomaJournal of Urology, VOL. 154, NO. 5, (1714-1716), Online publication date: 1-Nov-1995. BERNER A, JACOBSEN A, FOSSÅ S and NESLAND J (1993) Expression of c-erbB-2 protein, neuron-specific enolase and DNA flow cytometry in locally advanced transitional cell carcinoma of the urinary bladderHistopathology, 10.1111/j.1365-2559.1993.tb00131.x, VOL. 22, NO. 4, (327-333), Online publication date: 1-Apr-1993. Frang D, Somogyi L and Jilling Á (1988) Current diagnostic and therapeutic methods in the treatment of vesical tumoursInternational Urology and Nephrology, 10.1007/BF02549492, VOL. 20, NO. 6, (597-609), Online publication date: 1-Nov-1988. Jordan A, Weingarten J and Murphy W (1987) Transitional cell neoplasms of the urinary bladder. Can biologic potential be predicted from histologic grading?Cancer, 10.1002/1097-0142(19871201)60:11&lt;2766::AID-CNCR2820601129&gt;3.0.CO;2-0, VOL. 60, NO. 11, (2766-2774), Online publication date: 1-Dec-1987. Okamura T, Ohtani M, Inoue K, Fukushima S, Ohtaguro K and Kakizoe T (2018) Effects of Intravesical Instillation of Antitumor Chemotherapeutic and Immunotherapeutic Agents on Bladder Lesion Development in Rats Pretreated with N-Butyl-N-(4-Hydroxybutyl)NitrosamineJournal of Urology, VOL. 138, NO. 5, (1305-1307), Online publication date: 1-Nov-1987. Ohtani M, Fukushima S, Okamura T, Sakata T, Ito N, Koiso K and Niijima T (1984) Effects of lntravesical instillation of antitumor chemotherapeutic agents on bladder carcinogenesis in rats treated with N-butyl-N-(4-hydroxybutyl)nitrosamineCancer, 10.1002/1097-0142(19841015)54:8&lt;1525::AID-CNCR2820540809&gt;3.0.CO;2-U, VOL. 54, NO. 8, (1525-1529), Online publication date: 15-Oct-1984. Laor E, Schiffman Z, Reid R, Tolia B and Freed S (1984) Sex-dependent variations in natural historyof transitional cell carcinoma of bladderUrology, 10.1016/S0090-4295(84)90036-0, VOL. 23, NO. 3, (237-239), Online publication date: 1-Mar-1984. Holck S and Jørgensen L (1983) Verrucous carcinoma of urinary bladderUrology, 10.1016/0090-4295(83)90433-8, VOL. 22, NO. 4, (435-437), Online publication date: 1-Oct-1983. DELATTE L, PENÑA E and NAVARRETE R (1982) Survival Rates of Patients with Bladder Tumours An Experience of 1744 Cases (1950-1978)British Journal of Urology, 10.1111/j.1464-410X.1982.tb06973.x, VOL. 54, NO. 3, (267-274), Online publication date: 1-Jun-1982. Paulson D and Smith M (1982) Assessment of Biologic Hazard of Urologic Tumors Genitourinary Cancer 1, 10.1007/978-94-009-7436-4_3, (73-100), . El-Bolkainy M, Mokhtar N, Ghoneim M and Hussein M (1981) The impact of schistosomiasis on the pathology of bladder carcinomaCancer, 10.1002/1097-0142(19811215)48:12&lt;2643::AID-CNCR2820481216&gt;3.0.CO;2-C, VOL. 48, NO. 12, (2643-2648), Online publication date: 15-Dec-1981. (2018) Reply by AuthorsJournal of Urology, VOL. 125, NO. 1, (39-39), Online publication date: 1-Jan-1981.Marshall V (2018) Editorial CommentJournal of Urology, VOL. 125, NO. 1, (39-39), Online publication date: 1-Jan-1981.Kishi K, Hirota T, Matsumoto K, Kakizoe T, Murase T and Fujita J (2018) Carcinoma of the Bladder: A Clinical and Pathological Analysis of 87 Autopsy CasesJournal of Urology, VOL. 125, NO. 1, (36-39), Online publication date: 1-Jan-1981. Hofstädter F, Jakse G, Lederer B and Mikuz G (1980) Cytophotometric Investigations of DNA-content in Transitional Cell Tumors of the Bladder Comparison of Results with Clinical Follow upPathology - Research and Practice, 10.101</t>
+          <t xml:space="preserve">New PhytologistVolume 212, Issue 2 p. 314-319 LettersFree Access The elusive predisposition to mycoheterotrophy in Ericaceae Félix Lallemand, Félix Lallemand Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Master BioSciences, Département de Biologie, École Normale Supérieure de Lyon, Université de Lyon, UCB Lyon1, 46 Allée d'Italie, Lyon, FranceSearch for more papers by this authorMyriam Gaudeul, Myriam Gaudeul Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorJosie Lambourdière, Josie Lambourdière Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorYosuke Matsuda, Yosuke Matsuda Laboratory of Forest Mycology, Graduate School of Bioresources, Mie University, Kurimamachiya 1577, Tsu, Mie, 514-8507 JapanSearch for more papers by this authorYasushi Hashimoto, Yasushi Hashimoto Department of Life Science and Agriculture, Obihiro University of Agriculture and Veterinary Medicine, Inada-cho, Obihiro, Hokkaido, 080-8555 JapanSearch for more papers by this authorMarc-André Selosse, Corresponding Author Marc-André Selosse [email protected] Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Department of Plant Taxonomy and Nature Conservation, University of Gdansk, ul. Wita Stwosza 59, Gdańsk, 80-308 Poland(Author for correspondence: tel +33 607123418; email [email protected])Search for more papers by this author Félix Lallemand, Félix Lallemand Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Master BioSciences, Département de Biologie, École Normale Supérieure de Lyon, Université de Lyon, UCB Lyon1, 46 Allée d'Italie, Lyon, FranceSearch for more papers by this authorMyriam Gaudeul, Myriam Gaudeul Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorJosie Lambourdière, Josie Lambourdière Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 FranceSearch for more papers by this authorYosuke Matsuda, Yosuke Matsuda Laboratory of Forest Mycology, Graduate School of Bioresources, Mie University, Kurimamachiya 1577, Tsu, Mie, 514-8507 JapanSearch for more papers by this authorYasushi Hashimoto, Yasushi Hashimoto Department of Life Science and Agriculture, Obihiro University of Agriculture and Veterinary Medicine, Inada-cho, Obihiro, Hokkaido, 080-8555 JapanSearch for more papers by this authorMarc-André Selosse, Corresponding Author Marc-André Selosse [email protected] Institut de Systématique, Évolution, Biodiversité (ISYEB), UMR 7205 CNRS MNHN UPMC EPHE, Muséum national d'Histoire naturelle, Sorbonne Universités, 57 rue Cuvier, CP39, Paris, F-75005 France Department of Plant Taxonomy and Nature Conservation, University of Gdansk, ul. Wita Stwosza 59, Gdańsk, 80-308 Poland(Author for correspondence: tel +33 607123418; email [email protected])Search for more papers by this author First published: 12 July 2016 https://doi.org/10.1111/nph.14092Citations: 27AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL The rise and diversification of land plants was accompanied by mycorrhizal symbiosis, from their emergence to their adaptation to various biomes and ecological situations (Selosse et al., 2015). In most mycorrhizal associations, fungi provide soil minerals to the plant, in exchange for sugars derived from photosynthesis (Smith &amp; Read, 2008; van der Heijden et al., 2015). However, several plant species adapted to shaded forest conditions by secondarily reversing this exchange of carbohydrates: they became achlorophyllous thanks to carbon provided by the fungus. This so-called mycoheterotrophic nutrition is described in over 400 species and evolved at </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1977013410</t>
+          <t>https://openalex.org/W4253497451</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/qua.560300205</t>
+          <t>https://doi.org/10.15728/bbr.2015.12.6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Karadakov (1986)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>The spin‐projected Hartree‐Fock method: Direct optimization schemes and stability conditions</t>
+          <t>Moura et al. (2015)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Abstract The necessary theory to construct different direct orbital optimization schemes in the framework of the spin‐projected Hartree‐Fock (spin‐ PHF ) method for systems with an even number of electrons and for the proper characterization of the pertinent spin‐ PHF solutions is developed using the formalism of second quantization. The treatment is based on a unitary transformation of a reference DODS (different orbitals for different spins) Slater determinant. The energy expectation value corresponding to the transformed DODS Slater determinant is expanded in a Taylor series about the reference DODS Slater determinant, including second‐order terms. On the basis of this expansion we propose several direct iterative approaches to optimize the spin‐ PHF energy expectation value: for example, implementations of steepest descent and conjugated gradient techniques, and Newton–Raphson, Fletcher, and limited configuration interaction approaches. The analysis of the second‐order term in the Taylor series expansion of the spin‐ PHF energy expectation value about a spin‐ PHF solution is used to define stability conditions for spin‐ PHF solutions. Explicit expressions are reported for all matrix elements between different spin‐projected DODS Slater determinants appearing in the treatment.</t>
+          <t>Due to the ever-changing work environment in the age of digital transformation, project managers need to adapt to an environment which is volatile, uncertain, complex, and ambiguous (VUCA).Many organizations adopt management methods based on strict project management planning, assuming that they are the best way to succeed in any situation.However, projects may depend on flexibility to achieve success.This study aims to analyze the impact of adverse project environments on project success and the effect of the management method choice.A PLS-SEM model is tested on a survey of 332 project professionals.Findings showed that choosing a method that best fits the project's environment can help catch up on project success only when it undergoes frequent changes throughout its life cycle.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2795214154</t>
+          <t>https://openalex.org/W3039262620</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.36834/cmej.43351</t>
+          <t>https://doi.org/10.1353/pew.2020.0042</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Green &amp; Rasmussen (2018)</t>
+          <t>Garrison (2020)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Becoming a dentist: faculty perceptions of student experiences with threshold concepts in a Canadian dental program</t>
+          <t>Expressing the Heart's Intent: Explorations in Chinese Aesthetics by Marthe Atwater Chandler</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>In each discipline, there are moments where students "get stuck" in their education and/or training and are often unable to move forward. These moments may be caused by threshold concepts as they represent a portal that students must cross in order to become successful in their chosen profession. This study investigated the threshold concepts from the instructors' perspective that students must navigate as they transform from learners to dentists within a dental program.Two focus groups with faculty members within the School of Dentistry, University of Alberta were completed in the fall of 2017. Focus groups explored the faculty's perception of the students' transition from learner to dentist, difficult moments in the program, and the students' ability to navigate the program successfully.A qualitative phenomenographic analysis of the faculty focus group transcripts identified four potential threshold concepts within the dental program: 1) dealing with the whole patient, 2) accountability, 3) that you may not know everything, and 4) problem solving and adapting during practice.This study demonstrates that there are concepts within a dental program that faculty believe students must navigate in order to transition from learner to dentist. These concepts may inform curriculum design as well as other disciplines in the health sciences.</t>
+          <t>Reviewed by: Expressing the Heart's Intent: Explorations in Chinese Aesthetics by Marthe Atwater Chandler James Garrison (bio) Expressing the Heart's Intent: Explorations in Chinese Aesthetics. By Marthe Atwater Chandler. Albany: State University of New York Press, 2017. Pp. xv + 267. Hardcover $90.00, ISBN 978-1-4384-6657-6. Upon completing Marthe Atwater Chandler's Expressing the Heart's Intent: Explorations in Chinese Aesthetics I am struck by how much can be gleaned retroactively from the title. At the outset the title indeed made me somewhat wary, having seen how on many occasions Chinese philosophical terms become mangled in English-language translation in ways that unnecessarily import, either implicitly or explicitly, misleading conceptual frameworks. Words like "expressing," "heart," and "intent" all triggered various suspicions on my part. Fortunately, these suspicions were quickly addressed, as Chandler advances an adept reading of the shi yan zhi 詩言志 conceit so central to Chinese aesthetics since its introduction in the Shujing 書 經, anticipating and defusing objections like mine. However, as the book continued I found that my early delight waned a bit as her strong insights and analysis continued to unfold within a loose, meandering presentation. Looking back, "Explorations" seems to be the most crucial word from the title. This is not to say that there is no serious consideration of the terms in the main title Expressing the Heart's Intent, since Chandler clearly is quick to distance this translation of shi yan zhi 詩 言 志 from the connotations of Euro-American vocabulary. She writes, "At first glance, shi yan zhi seems to echo the familiar (modern Western) Expressive Theory that art expresses the personal feelings or emotions of the artist" (p. 3), and continues "[I]t is a very poor candidate for understanding shi yan zhi. If poetry simply expresses the poet's inner, personal feelings, it is hard to see how it could be as important as Shun, and later Confucius, took it to be in the education of the leaders of China" (p. 4). After exploring the difficulties in rendering shi yan zhi in English, Chandler looks at its history through Liu Xie's 劉勰 fifth-century Wenxin Diaolong 文心雕龍 (curiously rendered in Chandler's book with diacritics, unlike most other terms), where zhi 志, or intent, is recast such that "by the sixth century the shi yan zhi tradition had evolved into a sophisticated theory about the use of reason or reflection (si 思) and imagination that could be extended to all arts" (p. 14). After this strong start, which signals an expansive book covering the development of Chinese aesthetics writ large, things go in a somewhat different [End Page 1] direction. After a brief tangent into contradistinguishing the shi yan zhi tradition from 18th &amp; 19th-century European romanticism, Chandler casts a somewhat more narrow, if not modest, scope for the book. Taking the influential and nearly inescapable work of Li Zehou 李澤厚 as a basis, Chandler develops her "explorations" in subsequent chapters in a way that "attempts to fill in some of the details suggested in Li's account" (in The Path of Beauty 美的历程), but which eschews "a straightforward historical narrative" (p. 20). As a result, what emerges is more like a series of sketches (i.e. "explorations") rather than a single, united composition. The explorations each show strong historical sense and interpretative ability, with the result being that experts in the field are likely to find something informative in Chandler's truncated inquiries. However, the book's design limits its potential audience, as everyone besides experts and the most advanced of graduate students would likely find it difficult to navigate. Chapter 2, "The Aesthetic Theory of Li Zehou" somewhat abruptly transitions to modern China amid the vicissitudes of capitalism. Chandler starts by engaging and defending Li Zehou's appropriation of Kant, where some of the statements on Kant's influence on Gestalt theory, Wittgenstein, and Carnap may be true, but more context is needed. The defense of Li's unorthodox Kantianism is welcome, but it feels incomplete. It is not clear from this why he would align himself with Kant, given Li's several criticisms of and alterations of Kant's thinking. It seems though like more should be said about Li's The...</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283807879</t>
+          <t>https://openalex.org/W2948937109</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.26577/hj.2022.v64.i2.10</t>
+          <t>https://doi.org/10.1021/acsomega.9b01017</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Ashirbekova &amp; Abylkhanova (2022)</t>
+          <t>Lyngdoh et al. (2019)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Methods of Presenting Information in the Journalism of B. Omaruly</t>
+          <t>Portrait of the Intrinsically Disordered Side of the HTLV-1 Proteome</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>The journalistic side of Bauyrzhan Omaruly, who has his own style in the development of the national press, is unique in that he knows how to raise a topical issue. Whatever problem B. Omaruly wrote, he approached it carefully and with great responsibility. Its freshness of idea and uniqueness lies in the clarity of the author's position. &amp;nbsp;Bauyrzhan's travel essays, which give life to living and non-living things, have become readers' favorite works. Therefore, we believe that looking into the workshop of the resourceful journalist B. Omaruly and identifying its features is a necessary topic for domestic journalism. The main purpose of the scientific article is to show the problematic, thematic features of the journalistic works of B. Omaruly, to determine his artistic abilities and to express his civil position. Omaruly is a writer who studies the chosen topic in detail. He has a deep knowledge of journalistic research methods. At the same time, the choice and discovery of the topic by the publicist were analyzed from the point of view of creative abilities. His desire to master the genre of the journalistic work (analytical, artistic, journalistic, epistolary) is determined by the analysis of specific articles, essays, interviews, journalistic studies. The publicist not only master these genres, but also has a unique style in their transformation. The article analyzes journalistic texts by B. Omaruly, published in the newspapers «Leninshil zhas» («Zhas Alash»), «Aikyn», in terms of genre, theme, problem, language, style, features of the author's position. His original style, personality and curiosity are explored in his other works. Omaruly is a writer with a unique style in domestic journalism. His personality is reflected in the chosen topic, the nature of the writer who studies the issue in detail, his respect for national values ​​and boundless love for the Motherland, high taste for the art of speech. In the works of B. Omaruly a special reflection of nature and man, the relationship between man and society, the fate of the individual appeared. This is an excellent school for today's young journalists. &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; Keywords: national journalism, publicist, press, essay, Bauyrzhan Omaruly.</t>
+          <t>Intrinsically disordered proteins (IDPs) lack an ordered 3D structure. These proteins contain one or more intrinsically disordered protein regions (IDPRs). IDPRs interact promiscuously with other proteins, which leads to their structural transition from a disordered to an ordered state. Such interaction-prone regions of IDPs are known as molecular recognition features. Recent studies suggest that IDPs provide structural plasticity and functional diversity to viral proteins that are involved in rapid replication and immune evasion within the host cells. In the present study, we evaluated the prevalence of IDPs and IDPRs in human T lymphotropic virus type 1 (HTLV-1) proteome. We also investigated the presence of MoRF regions in the structural and nonstructural proteins of HTLV-1. We found abundant IDPRs in HTLV-1 bZIP factor, p30, Rex, and structural nucleocapsid p15 proteins, which are involved in diverse functions such as virus proliferation, mRNA export, and genomic RNA binding. Our study analyzed the HTLV-1 proteome with the perspective of intrinsic disorder identification. We propose that the intrinsic disorder analysis of HTLV-1 proteins may form the basis for the development of protein disorder-based drugs.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1496992349</t>
+          <t>https://openalex.org/W1607328122</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/jcc.1140</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bercaw (2013)</t>
+          <t>Mok et al. (2001)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lean Leadership for Healthcare: Approaches to Lean Transformation</t>
+          <t>&lt;i&gt;Ab initio&lt;/i&gt; calculations on the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} and \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} states of AlNC and simulation of the AlNC \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document}–\documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} …</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Lean at a Glance What Is Lean Healthcare? Value-Added Non Value-Added First Theme of Lean Improvement: Continuous Improvement Second Theme of Lean Improvement: Respect for All People Seven Wastes Overproduction Waiting Overprocessing Inventory Motion Defects Transportation Two Additional Wastes Unused Human Capital Waste of Organizational Design Principles of Improvement Flow Pull Defect-Free Visual Management Kaizen Lean Healthcare Defined Summary: Key Points from Chapter 1 Creating and Deploying a Lean Strategy Creating a Culture of Improvement Seven-Phase Policy Deployment Process Step 1: Establish the Organizational Vision Step 2: Develop Three- to Five-Year Breakthrough Objectives True North Measures Step 3: Develop the Annual Breakthrough Objectives and Improvement Priorities Identify Top-Level Improvement Priorities Selecting the Top-Level Improvement Priorities Step 4: Deploy the Improvement Priorities Step 5: Implement the Improvement Priorities Use a Value Stream Approach to Improvement Lean Tools Kaizen Step 6: Monthly Review Step 7: Annual Review Enablers of Hoshin Kanri World-Class Targets for Improvement Summary: Key Points from Chapter 2 Leading Change-The Transformation Roadmap-Phase 1:Get Ready Beginning the Journey Phase I: Preparing to Transform (Get Ready)-Building the Infrastructure Selecting Your Change Agent Get Informed Get Help Establish a Steering Committee Train Your Internal Experts Develop and Deploy a Communication Campaign Summary: Key Points from Chapter 3 The Transformation Roadmap-Phase 2-The Acceleration Phase (Improve, Sustain, and Spread) Delivering on Preparation Efforts Step 1: Ensure You Have Selected the Right Value Streams on Which to Focus Step 2: Establish Value Stream Governance and Set Up Your Value Stream Performance System Step 3: Utilize A-3 Thinking to Realize Improvement Step 4: Sustain the Improvements and Manage Visually 5S: A Beginning Place for Visual Management of Process Using Visual Management for Process Control Using Visual Management for Improving Results: Managing for Daily Improvement Control Systems for Visual Management Peer Task Audits (Kamishibai) Step 5: Capture the Savings Step 6: Support Your Change with Ongoing Training and Coaching Lean Coaching Step 7: Spread Lean Thinking across the Organization Replication of Artifacts, Products, Solutions, and Process Adding Additional Value Streams Summary: Key Points from Chapter 4 The Transformation Road Map-Phase 3: Make Organizational Improvement the Culture Changing to the New Organizational Structure Lean Capacity Building Lean Information Technology Lean Finance Lean Human Resources Lean Supply Chain Lean Project Management, Lean Construction, and Lean New Service Introduction Lean Leadership Processes Medical Leadership Processes Taking Lean beyond Your Four Walls Summary: Key Points from Chapter 5 Leadership Behaviors and Actions for Success Leading by Example Participate Learn the Tools Rotate Teaching of the Core Lean Tools Book of the Month Club Become a Lean Facilitator Walk the Value Streams Commit the Resources to Be Successful Facilitation Team Resources Middle Management Expectations Supplies External Resources Hold People Accountable Address Antibodies Redeployment versus Unemployment Monitor and Demand Results Believe Summary: Key Points from Chapter 6 Mitigating Transformation Risk and Avoiding Common Mistakes Being Successful and Avoiding Failure Don't Waste the First Six to Nine Months Managing the Breadth and Depth of the Change Leadership, Management, Support Staff, and Medical Staff Engagement Inability to Operate Two Systems Common Errors to Organizational Change Efforts Summary: Key Points from Chapter 7 Closing Thoughts Glossary of Lean Terms</t>
+          <t>Abstract Geometry optimization and harmonic vibrational frequencies calculations were carried out on the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} and \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} states of AlNC, employing a variety of ab initio molecular orbital methods, including the SERHF, CIS, MP2, and QCISD methods, with basis sets up to the size of the cc‐pVQZ basis set. In addition, single‐point energy calculations at the CCSD(T) and CASSCF/MRCI levels were performed to determine the transition energy ( T e ) between the two electronic states. Franck–Condon calculations were carried out for the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} – \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} electronic transition, employing ab initio force constants and optimized geometries. The \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi\rightarrow \tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} dispersed fluorescence spectra arising from the (0,0,0), (0,0,1), and (0,0,2) single vibrational levels (SVL) of the upper state were simulated using the computed Franck–Condon factors. Based on the computed T e (36896 cm −1 at the CASSCF/MRCI/cc‐pVTZ level) and the simulated emission spectra, the band system observed at 36389 cm −1 by Gerasimov et al. [ J Chem Phys 110, 220 (1999)] has been assigned to the AlNC \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} – \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} transition. A systematic variation of the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} state geometrical parameters was carried out in an iterative Franck–Condon analysis (IFCA) treatment of the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi\rightarrow\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} SVL emission, with the geometry of the ground state being fixed to the available experimental geometry. The best match between the simulated and observed spectra gave the first experimentally derived geometry of the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} state (Al–N=1.785±0.005 Å and N–C=1.150±0.008 Å). © 2001 John Wiley &amp;amp; Sons, Inc. J Comput Chem 22: 1896–1906, 2001</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2368076451</t>
+          <t>https://openalex.org/W2270427492</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Weisen (2007)</t>
+          <t>Pannone et al. (2000)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The Nature of Economics in a Perspective of Philosophy</t>
+          <t>[Glutathione-S-transferase expression in oral squamous cell carcinoma]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Based on a review of relevant literature in the history of economic thought, this paper shows that it is time to make some reflections on the nature, role and significance of economics in the current situation of the dynamic growth of the Chinese and the theoretical economics in China. Section Two finds that along with transformation from political economy to economics, economists understanding of the nature and role of economics also changed. Section Three discusses the question whether economics could become a social science of value-free or not and finds that any school in history of economic thought may have some value judgment and ethical foundation in its theoretical discourse. As a result, the top priority for economists is to try to find the order or providence in human economic and social reality. Section Four discusses the possibility whether economics could become a rigorous science like physics, chemistry and many other highly formalized natural sciences. It also makes some reflection on the propensity of scientism of the mainstream economists. Section Five reaches the conclusion that for the healthy growth of economic theory in China, competitions and dialogues between different schools and thus pluralism in economics should be encouraged.</t>
+          <t>Background A large number of oral cancer patients shows poor or partial response to chemotherapy and the mechanisms are poorly understood. Glutathione-S-transferase (GST) is one of the molecules involved in resistance to natural product-based chemotherapeutics. It is an enzyme able to conjugate several substances (metabolites, drugs) to reduct glutathione. Today several isoenzymes of GST are known: GST-alpha, GST-mu, GST-pi, GST-theta. Over-expression of glutathione S-transferase-pi class isozyme is often associated with malignant transformation. Several studies reported that GST-pi staining patterns and their distribution may be helpful in identifying high-risk oral lesions. However, GST is surely involved in resistance to alchilant agents. Objective To verify the possibility of implication of GST in oral cancerogenesis and in natural chemioresistance, the authors examined the protein expression patterns by immunohistochemistry in paraffin-embedded specimens of primary untreated oral cancers (OSCC). Methods GST-a and GST-pi expression in 17 cases of OSCC at different degree of cellular differentiation have been evaluated by immunohistochemistry. Results The GST-pi expression in primary tumours predominantly varied from mild to moderate levels. The GST-a expression was often quite similar to GST-pi expression with a few exceptions. Conclusions Expression of GST enzymes is an important signal for multidrug resistance: positive staining for both GST-pi and GST-a could constitute a hallmark of chemoresistant groups of OSSC.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2146940709</t>
+          <t>https://openalex.org/W2896210620</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/acm.0b013e31818c6902</t>
+          <t>https://doi.org/10.1158/1055-9965.epi-18-0672</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cardall et al. (2008)</t>
+          <t>Saluja et al. (2019)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Live Lecture Versus Video-Recorded Lecture: Are Students Voting With Their Feet?</t>
+          <t>Prognostic Value of Cancer Stem Cell Markers in Potentially Malignant Disorders of Oral Mucosa: A Meta-analysis</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>In light of educators' concerns that lecture attendance in medical school has declined, the authors sought to assess students' perceptions, evaluations, and motivations concerning live lectures compared with accelerated, video-recorded lectures viewed online.The authors performed a cross-sectional survey study of all first- and second-year students at Harvard Medical School. Respondents answered questions regarding their lecture attendance; use of class and personal time; use of accelerated, video-recorded lectures; and reasons for viewing video-recorded and live lectures. Other questions asked students to compare how well live and video-recorded lectures satisfied learning goals.Of the 353 students who received questionnaires, 204 (58%) returned responses. Collectively, students indicated watching 57.2% of lectures live, 29.4% recorded, and 3.8% using both methods. All students have watched recorded lectures, and most (88.5%) have used video-accelerating technologies. When using accelerated, video-recorded lecture as opposed to attending lecture, students felt they were more likely to increase their speed of knowledge acquisition (79.3% of students), look up additional information (67.7%), stay focused (64.8%), and learn more (63.7%).Live attendance remains the predominant method for viewing lectures. However, students find accelerated, video-recorded lectures equally or more valuable. Although educators may be uncomfortable with the fundamental change in the learning process represented by video-recorded lecture use, students' responses indicate that their decisions to attend lectures or view recorded lectures are motivated primarily by a desire to satisfy their professional goals. A challenge remains for educators to incorporate technologies students find useful while creating an interactive learning culture.</t>
+          <t>Abstract Background: Oral squamous cell carcinoma (OSCC) is usually preceded by clinically visible changes on oral mucosa categorized as oral potentially malignant disorders (OPMD). The progression of OPMD to OSCC is a multistep process that provides an opportunity for early cancer detection and interception. Recent research suggests that cancer stem cells (CSC) hold the key to unlocking effective strategies to curb initiation and growth of several malignant neoplasms, including OSCC. In this meta-analysis, we evaluated the efficacy of CSC markers CD133, podoplanin, ALDH1, and others in predicting risk of malignant transformation of OPMDs. Methods: The PubMed database was systematically reviewed for relevant articles. Quality of eligible studies was assessed as per reporting recommendations for tumor marker (REMARK) criteria. A total of 18 investigations from 12 studies evaluated clinical or prognostic significance of CSC markers in OPMDs. A reasonable number of patients (1,659) were included in this analysis. Results: Positive expression of CSC markers in OPMDs is significantly associated with progression to OSCC [risk ratio (RR), 3.31; 95% confidence interval (CI), 2.72–4.02]. Variability in CSC population makes it difficult to understand exact biology of OPMDs based on single CSC marker investigation. Conclusions: Identifying CSC population is a reliable prognostic indicator in OPMDs with or without dysplasia. Multi-marker panel investigation for CSCs in OPMDs may assist in curtailing new cases of oral cancer to a great extent. Impact: The study illustrates that evaluating CSC marker expression in OPMDs is a key tool in identifying high-risk cases to prevent development of OSCC.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1980878900</t>
+          <t>https://openalex.org/W3089575826</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0016-0032(39)90589-2</t>
+          <t>https://doi.org/10.1115/1.4048243</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Compton (1939)</t>
+          <t>Feser &amp; Gupta (2020)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Discussion on: “Time variations of cosmic rays” and summary of day's discussions</t>
+          <t>Performance and Emissions of Drop-In Aviation Biofuels in a Lab-Scale Gas Turbine Combustor</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Notoginsenoside Ft1 is a promising potential candidate for cardiovascular and cancer disease therapy owing to its positive pharmacological activities. However, the yield of Ft1 is ultralow utilizing reported methods. Herein, an acid hydrolyzing strategy was implemented in the acquirement of rare notoginsenoside Ft1.Chemical profiles were identified by ultraperformance liquid chromatography coupled with quadruple-time-of-flight and electrospray ionization mass spectrometry (UPLC-Q/TOF-ESI-MS). The acid hydrolyzing dynamic changes of chemical compositions and the possible transformation pathways of saponins were monitored by ultrahigh-performance LC coupled with tandem MS (UHPLC-MS/MS).Notoginsenoside Ft1 was epimerized from notoginsenoside ST4, which was generated through cleaving the carbohydrate side chains at C-20 of notoginsenosides Fa and Fc, and vina-ginsenoside R7, and further converted to other compounds via hydroxylation at C-25 or hydrolysis of the carbohydrate side chains at C-3 under the acid conditions. High temperature contributed to the hydroxylation reaction at C-25 and 25% acetic acid concentration was conducive to the preparation of notoginsenoside Ft1. C-20 epimers of notoginsenoside Ft1 and ST4 were successfully separated utilizing solvent method of acetic acid solution. The theoretical preparation yield rate of notoginsenoside Ft1 was about 1.8%, which would be beneficial to further study on its bioactivities and clinical application.</t>
+          <t>Abstract There is a growing need for drop-in biofuels for gas turbines for enhanced energy security and sustainability. Several fuels are currently being developed and tested to reduce dependency on fossil fuels while maintaining performance, particularly in the aviation industry. The transition from traditional fossil fuels to sustainable biofuels is much desired for reducing the rapidly rising CO2 levels in the environment. This requires biofuels to be drop-in ready, where there are no adverse effects on performance and emissions upon replacement. In this study, the performance and emissions of four different aviation drop-in biofuels were evaluated. They include UOP HEFA-SPK, Gevo ATJ, Amyris Farnesane, and SB-JP-8. These aviation biofuels are currently being produced and tested to be ready for full or partial drop-in fuels as the replacement of traditional jet fuels. The characteristic performance of each fuel from the prevaporized liquid fuels was performed in a high-intensity (20 MW/m3-atm) reverse flow combustor. The NO emissions showed near unity ppm levels for each of the fuels examined with a minimum at an equivalence ratio of ∼0.6, while CO levels were in the range of 1000–1300 ppm depending on the fuel at an equivalence ratio between 0.75 and 0.8. For an equivalence ratio range between 0.4 and 0.6, NO and CO emissions remained very low (between 1–2 ppm NO and 2400–2900 ppm CO) depending on the fuel. The examined biofuels did not show any instability over a wide range of equivalence ratios from lean to near stoichiometric condition. These results provide promising results on the behavior of these drop-in aviation biofuels for use in high-intensity gas turbine combustors providing stability and cleaner performance without any modification to the combustor design.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4253497451</t>
+          <t>https://openalex.org/W1654837400</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15728/bbr.2015.12.6</t>
+          <t>https://doi.org/10.1109/nafips.2001.944725</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Moura et al. (2015)</t>
+          <t>Hanss (2002)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>A fuzzy arithmetical approach to robust control</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Due to the ever-changing work environment in the age of digital transformation, project managers need to adapt to an environment which is volatile, uncertain, complex, and ambiguous (VUCA).Many organizations adopt management methods based on strict project management planning, assuming that they are the best way to succeed in any situation.However, projects may depend on flexibility to achieve success.This study aims to analyze the impact of adverse project environments on project success and the effect of the management method choice.A PLS-SEM model is tested on a survey of 332 project professionals.Findings showed that choosing a method that best fits the project's environment can help catch up on project success only when it undergoes frequent changes throughout its life cycle.</t>
+          <t>A fuzzy arithmetical approach to effectively control systems with uncertain model parameters is presented. The approach is mainly based on a combination of classical controller design and fuzzy arithmetic. The uncertainties in the system model are expressed by fuzzy-valued model parameters with their membership functions derived from experimental data or expert knowledge. Subsequently, classical controller design is used to determine the parameters of the controller, making use of fuzzy arithmetic to evaluate the fuzzy-valued controller equations. To avoid the overestimation effect as the major problem of standard fuzzy arithmetic, a special implementation of fuzzy arithmetic, namely the transformation method, is introduced in this paper. On this basis, a robust, fuzzy-parameterized linear-quadratic regulator is developed and finally applied to stabilize an inverted double pendulum with uncertain model parameters in its upright position.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4312220199</t>
+          <t>https://openalex.org/W4395413484</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acsaem.2c03107</t>
+          <t>https://doi.org/10.15468/dl.2psy87</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Periyasamy et al. (2022)</t>
+          <t>AUTHOR_ID (2023)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nitrogen-Rich Porous Carbon/NiMn Hybrids as Electrode Materials for High-Performance Supercapacitors</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>The present work deals with the fabrication of four different electrode materials, that is, nitrogen-rich porous carbon (NRPC), NRPC/Mn, NRPC/Ni, and NRPC/NiMn, with a three-dimensional architecture following a simple strategic method. Polybenzoxazine is used as the precursor to prepare NRPC that serves both as a support and a electron collector. The inclusion of mono- and bimetallic transition compounds into the NRPC backbone, that is, NRPC/Mn, NRPC/Ni, and NRPC/NiMn, serves as the electrochemically active species. Several spectroscopic and microscopic methods are used to characterize the fabricated electrode materials. The prepared materials possess pore volume between 0.18 and 0.42 cm3/g. Scanning electron microscopy images of NRPC/NiMn show a 3D flowerlike structure. The formation of this 3D flower morphology depicts stable architecture showing improved electrochemical performance. Cyclic voltammetry, galvanostatic charge–discharge curves, and electrochemical impedance spectroscopy are used to evaluate the electrochemical performance of the prepared electrode materials. The electrochemical study reveals a high specific capacitance of 1825 F/g for NRPC/NiMn, with an efficiency of 78% maintained even after 2500 cycles.</t>
+          <t xml:space="preserve">A dataset containing 2001508455 species occurrences available in GBIF matching the query: { "BasisOfRecord" : [ "is one of (Human Observation, Observation, Machine Observation)" ] } The dataset includes 2001508455 records from 27193 constituent datasets: 124 records from Assemblage of living benthic foraminifera in sediment core CD146_55921#1, 63-150 µm. 3 records from 16 - Inventaire général de la flore et de la fonge - DREAL AURA - inventaire général de la flore et de la fonge réalisé sur le terrain. 25 records from Content of coarse fraction and G. menardii in sediment corev V25-43. 5 records from ZAC des Goucheronnes - Inventaire chiroptères. 18 records from Aves Argentinas / Asociación Ornitológica del Plata - Colección de registros observacionales de aves silvestres argentinas - Especies observadas en Mercedes (Unterkofler, octubre 1999). 83298 records from MICA - Muskrat and coypu camera trap observations in Belgium, the Netherlands and Germany. 35 records from Ferme éolienne de ST JEAN DE LIVERSAY - Données biodiversité_Faune_St Jean de Liversay. 11 records from Gulf of Maine Razorbill Tracking (aggregated per 1-degree cell). 4 records from Nannofossil abundance of Hole 6-53A. 12 records from Nannofossil abundance of Hole 29-283A. 108 records from MIRC NAVFAC Incidental Sightings - Aerial 1965-2014. 319 records from projet centrale photovoltaïque de Selongey - Flore - Inventaire non protocolé. 8 records from Projet de construction d'un site logistique - Inventaire insectes. 26 records from Schulteich Heinrich-Mann-Schule. 810 records from Distribution of Cretaceous and early Danian planktonic foraminifera in ODP Hole 119-738C (Table 1). 439 records from Implementación de la bioindicación en el Río Magdalena - 2015. 3310 records from PELD - PNCA | Dados da ocorrência de plantas lenhosas em uma cronossequência em área de Caatinga, Parque Nacional do Catimbau, Buíque, PE, Brasil. 428 records from Range table from benthic foraminifers in ODP Hole 146-889A. 81 records from Frestoy-Vaux, Mortemer, Rollot - 60/80 - Frestoy-Vaux/Mortemer/Rollot - Chiroptères. 71 records from Invasive plants in Luronium natans habitats in Flanders, Belgium. 168 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 371 records from Bannwald Burghauser Forst. 942 records from Bibliographie de la faune, la flore et la fonge de France métropolitaine et outre-mer - Bulletin du Muséum d'Histoire Naturelle [1895- ]. 3 records from Sarcodine counts and carbon biomass at station TT007_8-CTD99. 78 records from Coccolith counts of multinet M32/5_MSN988. 10 records from ACQUISITION_CBNMC - MARANDON_ONCFS_juin2013. 6704 records from Phytoplankton abundance in surface water during Professor Vodyanitskiy cruise PV30_1. 333 records from Données du Comité Départemental de Protection de la Nature et de l'Environnement de Loir-et-Cher (CDPNE) - Données 2016 Pélobate brun Comité Départemental de Protection de la Nature et de l'Environnement. 33743 records from LiquenCAT: Banco de datos de los líquenes de Cataluña. 80 records from (Table 3) Relative abundances of palynoclasts, palynomorphs and microplankton in ODP Leg 112 samples. 2316 records from Monitoreo de la abundancia, riqueza y biodiversidad de aves del Santuario de Flora y Fauna Galeras de 2009 a 2014. 351 records from (Table 4) Abundance of planktonic foraminifera in ODP Hole 113-690C, small size fraction. 65 records from Meiofauna densities from in situ feeding experiments in the Nazare Canyon conducted with sediments from ROV push-core JC10-95-PUC03. 519 records from Parc éolien de Pougny (Ludmila) - Activité Grues cendrées printemps automne 2018 à 2020 (SEPE LUDMILA). 108 records from Plan de gestion 2017 - 2021 de la Réserve Naturelle Régionale d'Errota Handia (64) mené par le CEN Nouvelle-Aquitaine - Observations d'oiseaux réalisées par le CEN Nouvelle-Aquitaine selon le protocole STOC EPS. 609 records from Abundance of empty diatom frustules measured on water bottle samples at station PS58/092-3. 661 records from Benthic foraminifera and algae abundance of Hole 81-552A. 19 records from Chronicle of Nature - Phenology of Insects of National Park Bashkirija. 181 records from Projet de parc éolien de Comiac - avifaune nicheuse du projet de parc éoIien de Comiac (46). 151 records from Monocotiledóneas del cerro Tacarcuna-Chocó, en el marco del proyecto Colombia BIO 2017. 293 records from Planktic foraminifera abundance of Hole 32-310. 19 records from Dinoflagellate abundance of Hole 81-554. 5420 records from Données des membres de l'Association française d'Arachnologie. 87 records from Artenvielfalt des "Grünen Klassenzimmers". 69 records from Aves Argentinas / Asociación Ornitológica del Plata - Colección de registros observacionales de aves silvestres argentinas - Lista Narosky: familia Vireonidae. 2814 records from Chronicle of Nature - Phenology of Birds of Pinezhsky State Nature Reserve. 240 records </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2060371116</t>
+          <t>https://openalex.org/W1595649695</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevb.88.054510</t>
+          <t>https://doi.org/10.1109/colcomcon.2015.7152094</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Akashi &amp; Arita (2013)</t>
+          <t>Lazo et al. (2015)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nonempirical study of superconductivity in alkali-doped fullerides based on density functional theory for superconductors</t>
+          <t>A bridge structural health monitoring system supported by the Internet of Things</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>We apply the density functional theory for superconductors based on the local density approximation (LDA) to alkali-doped fullerides ${A}_{3}$C${}_{60}$ with a face-centered-cubic structure. We evaluate the superconducting transition temperature (${T}_{\mathrm{c}}$) from first principles considering the energy dependence of electron-phonon coupling, the mass renormalization, and the retardation effect. The calculated ${T}_{\mathrm{c}}=7.5$, 9.0, and 15.7 K for $A=\text{K}$, Rb, Cs are approximately 60% smaller than the experimentally observed values. Our results strongly suggest the necessity to go beyond the framework of the Migdal-Eliashberg theory based on the LDA.</t>
+          <t>Technological devices of all kinds are becoming more common in our daily lives: smart devices are being incorporated in buildings, houses, cars, and public infrastructure such as roads and bridges. The new devices give us an unusual degree of connectivity in our regular activities, for example when we employ our tablets or smart phones to check email or browse the public network, but also in more innovative forms of connectivity, such as receiving notifications directly from our refrigerator or collecting information from our clothes and shoes. This technological revolution brings new opportunities and challenges for users, businesses, and society. This paper explores such a new context, where we begin to co-exist and interact with a network of interconnected devices that is known as the Internet of Things. The objective of the project is to implement a solution for communicating devices that monitor, in real-time, the structural health of a bridge. The implementation is based on 6LoWPAN, a standard based on the IPv6 protocol over low-power and lossy networks to support the Internet of Things. We employ open hardware platforms and emphasize the singularities of embedded systems, such as a limited number of operations, low power consumption, and low bandwidth capability. The prototype shown in this work uses the 6LoWPAN standard in a network environment that connects with a real Bridge Management System, with the aim of optimizing the maintenance of road structures.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2018997273</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/505688.505693</t>
+          <t>https://openalex.org/W2995935289</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Babich &amp; Vitez (2000)</t>
+          <t>Sinan (2019)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>A novel wide-band audio transmission scheme over the Internet with a smooth quality degradation</t>
+          <t>Computation of Sylvester and Stein matrix equations' solutions by Iterative Decreasing Dimension Method</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Real-time delivery of multimedia information over the Internet is finding increasing interest. This paper considers wide-band audio transmission utilizing a priority scheme. The proposed scheme complies with both the new Internet Protocol Version 6 (IPv6) and the current Internet Protocol Version 4 (IPv4), providing that, in the latter case, routers are set to manage priority. A new queuing algorithm, namely Priority Weighted Fair Queuing (PWFQ), is defined and evaluated. A scalable audio encoder is adopted to perform audio transmissions over an emulated network. Background traffic is emulated, employing a traffic generator that adopts a self-similar model. Objective and subjective quality tests are performed, using a set of musical excerpts. Quality is evaluated as a function of Internet traffic. In the paper it is shown that, by adopting an encoding technique with scalable bit-rate, and a prioritized transmission algorithm, a smooth degradation of quality may be obtained during network congestion periods. This technique shows better performance than feedback-based algorithms, in which the delayed responses cause the core stage packets to be lost in low-to-high traffic transitions and the enhancement packets not to be transmitted in high-to-low traffic transitions.</t>
+          <t>Sylvester matrix equation  and the  Stein matrix equation which have very important applications in the stability analysis of continuous-time and discrete-time linear systems, respectively are studied. The solutions of these equations  be possible  demonstrated by  a number of methods. Been one of them transformation  to the  system of linear equation  was examined. Algorithms that provide transformation to $Ax=f$ system of linear equation was introduced. Iterative Decreasing Dimension  Method ($IDDM$) algorithm was applicated for the solution of the obtained system. The $IDDM$ algorithm has been evaluated according to the Gaussian elimination type algorithms. The $IDDM$ algorithm is evade from  divisor of zero based on its algorithmic structure. Depending on the study, codes for calculation were prepared in the MAPLE program code development environment.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2981541718</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2991/mdsmes-19.2019.55</t>
+          <t>https://openalex.org/W2518149502</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Kоshkalda et al. (2019)</t>
+          <t>Low &amp; Pärt (2009)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Innovative development of agricultural enterprises as an economic system</t>
+          <t>population of the endangered New Zealand stitchbird</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>The transformations that are currently taking place in the world economic system are forcing scientists to research the factors that allow national economic systems to be sustainable and competitive in today's realities.The key direction for Ukraine with its fertile black soil is the innovative development of the economy as a whole and enterprises, especially agricultural, in particular.The article analyzes the innovative development of enterprises in Ukraine, the quantitative indicators of recent years in terms of innovative development and financing and investment in innovative development of enterprises.It is suggested to consider agricultural enterprises an economic system to explore in more detail their innovative development, the factors that influence it, the methods of its improvement, and more.The specific features of agricultural enterprises as an economic system are emphasized, in particular, their strategic role in terms of food security, their key importance for rural areas and rural population.There are two main directions of innovative development of agricultural enterprises: improvement of production technologies and improvement of quality of labor resources.The importance of labor resources for the effects of the functioning of agricultural enterprises is emphasized.The authors of the article have proposed a methodological approach to material incentives for the staff at agricultural enterprises and adapted it to a specific agricultural enterprise.</t>
+          <t>Summary 1. Using data from 396 breeding attempts over an 8-year period, we investigated age- and stage specific survival rates and their modifying factors in a closed island population of the New Zealand stitchbird (or hihi, Notiomystis cine ta Du Bus). 2. Survival probability generally increased over time; however, at each life-history transition, survival in the new stage started lower than at the end of the previous stage, creating a 'saw-tooth' function of age-related survival. 3. The probability of an egg hatching was low (0-73 ? 0-01): most likely a consequence of genetic bottlenecks previously endured by this population. There was strong support for a positive relationship between hatching rate and the subsequent survival of the female parent, and hatching success declining for females &gt; 4 years old. 4. Nestling survival probability increased as a function of brood size and days since hatching, and decreased relative to daily maximum ambient temperature and hatching date. Support for models including ambient temperature was greater than for other covariates, with the majority of this temperature-mediated survival effect being restricted to the early nestling stage. 5. Fledglings had low survival rates in the first two weeks after leaving the nest, with post-fledging survival related to the fledgling's mass. Two months after fledging, juvenile survival probability plateaued and remained relatively constant for the following autumn, winter and spring/summer breeding season. There was no effect of sex or season on adult survival probability. However, there was strong support for age-specific variation in adult survival, with survival likelihood increasing during the first four years before showing evidence of a senescence decline. 6. Within-stage survival increases were likely related to stage-specific selection pressures initially weeding out individuals of poorer phenotypes for the environment specific to each life-history stage. Such a mechanism explains the initial high mortality at life-history transitions; a well-adapted pheno type for one stage may not necessarily be so well adapted for subsequent stages. These patterns are not only valuable for examining life-history theory, but also for understanding the regulation of vital rates in an endangered species and providing a basis from which better population manage ment models and harvesting regimes can be derived.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1607328122</t>
+          <t>https://openalex.org/W1985249438</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jcc.1140</t>
+          <t>https://doi.org/10.1001/jama.1957.02980080017003</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mok et al. (2001)</t>
+          <t>Gasul (1957)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Ab initio&lt;/i&gt; calculations on the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} and \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} states of AlNC and simulation of the AlNC \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document}–\documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} …</t>
+          <t>VENTRICULAR SEPTAL DEFECTS</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Abstract Geometry optimization and harmonic vibrational frequencies calculations were carried out on the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} and \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} states of AlNC, employing a variety of ab initio molecular orbital methods, including the SERHF, CIS, MP2, and QCISD methods, with basis sets up to the size of the cc‐pVQZ basis set. In addition, single‐point energy calculations at the CCSD(T) and CASSCF/MRCI levels were performed to determine the transition energy ( T e ) between the two electronic states. Franck–Condon calculations were carried out for the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} – \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} electronic transition, employing ab initio force constants and optimized geometries. The \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi\rightarrow \tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} dispersed fluorescence spectra arising from the (0,0,0), (0,0,1), and (0,0,2) single vibrational levels (SVL) of the upper state were simulated using the computed Franck–Condon factors. Based on the computed T e (36896 cm −1 at the CASSCF/MRCI/cc‐pVTZ level) and the simulated emission spectra, the band system observed at 36389 cm −1 by Gerasimov et al. [ J Chem Phys 110, 220 (1999)] has been assigned to the AlNC \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} – \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} transition. A systematic variation of the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} state geometrical parameters was carried out in an iterative Franck–Condon analysis (IFCA) treatment of the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi\rightarrow\tilde{\hbox{X}}\,{^{1}}\Sigma^{+}$\end{document} SVL emission, with the geometry of the ground state being fixed to the available experimental geometry. The best match between the simulated and observed spectra gave the first experimentally derived geometry of the \documentclass{article}\pagestyle{empty}\begin{document}$\tilde{\hbox{A}}\,{^{1}}\Pi$\end{document} state (Al–N=1.785±0.005 Å and N–C=1.150±0.008 Å). © 2001 John Wiley &amp;amp; Sons, Inc. J Comput Chem 22: 1896–1906, 2001</t>
+          <t>• The natural course of patients with ventricular septal defects is not known. During the past 10 years, 27 autopsies were performed on the authors' 336 patients with this defect. Twenty-six of these patients were under 6 months of age. It has been observed repeatedly that some infants with large ventricular septal defects manifest marked improvement in their symptomatology after their first year of life. In an attempt to explain these observations, clinical follow-up examinations were combined with cardiac recatheterization and angiocardiography, especially on those patients who had their initial studies during their first year of life. So far, 10 patients have been restudied and recatheterized. The time interval between their first cardiac catheterization and the recent ones varied from three to five years. Two of these patients now present typical clinical and hemodynamic data of ventricular septal defect with infundibular stenosis with left-to-right shunts. The third patient shows typical findings of tetralogy of with marked cyanosis and predominant right-to-left shunt. The frequency with which this natural transformation of ventricular septal defects into apparently different entities occurs is at present not known. The concept of the unity of origin of the three entities has been demonstrated in these patients, and this concept should lead to a re-evaluation of our knowledge concerning the diagnosis and medical and surgical treatment of congenital cardiac defects.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2896210620</t>
+          <t>https://openalex.org/W4396177043</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1055-9965.epi-18-0672</t>
+          <t>https://doi.org/10.15468/dl.egwpkx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Saluja et al. (2019)</t>
+          <t>AUTHOR_ID (2022)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Prognostic Value of Cancer Stem Cell Markers in Potentially Malignant Disorders of Oral Mucosa: A Meta-analysis</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Abstract Background: Oral squamous cell carcinoma (OSCC) is usually preceded by clinically visible changes on oral mucosa categorized as oral potentially malignant disorders (OPMD). The progression of OPMD to OSCC is a multistep process that provides an opportunity for early cancer detection and interception. Recent research suggests that cancer stem cells (CSC) hold the key to unlocking effective strategies to curb initiation and growth of several malignant neoplasms, including OSCC. In this meta-analysis, we evaluated the efficacy of CSC markers CD133, podoplanin, ALDH1, and others in predicting risk of malignant transformation of OPMDs. Methods: The PubMed database was systematically reviewed for relevant articles. Quality of eligible studies was assessed as per reporting recommendations for tumor marker (REMARK) criteria. A total of 18 investigations from 12 studies evaluated clinical or prognostic significance of CSC markers in OPMDs. A reasonable number of patients (1,659) were included in this analysis. Results: Positive expression of CSC markers in OPMDs is significantly associated with progression to OSCC [risk ratio (RR), 3.31; 95% confidence interval (CI), 2.72–4.02]. Variability in CSC population makes it difficult to understand exact biology of OPMDs based on single CSC marker investigation. Conclusions: Identifying CSC population is a reliable prognostic indicator in OPMDs with or without dysplasia. Multi-marker panel investigation for CSCs in OPMDs may assist in curtailing new cases of oral cancer to a great extent. Impact: The study illustrates that evaluating CSC marker expression in OPMDs is a key tool in identifying high-risk cases to prevent development of OSCC.</t>
+          <t xml:space="preserve">A dataset containing 33539388 species occurrences available in GBIF matching the query: { "and" : [ "TaxonKey is one of (Quercus rubra L., Quercus rugosa Née, Quercus stellata Wangenh., Quercus suber L., Quercus velutina Lam., Quercus virginiana Mill., Quesnelia liboniana (De Jonghe) Mez, Radermachera sinica (Hance) Hemsl., Rangaeris muscicola (Rchb.f.) Summerh., Raphanus sativus L., Raphia australis Oberm. &amp;amp; Strey, Raphia farinifera (Gaertn.) Hyl., Reevesia thyrsoidea Lindl., Reineckea carnea (Andrews) Kunth, Reutealis trisperma (Blanco) Airy Shaw, Rhamnus alaternus L., Rhamnus cathartica L., Rhaphiolepis indica (L.) Lindl., Rhapis excelsa (Thunb.) A.Henry, Rheum rhabarbarum L., Rhinella marina (Linnaeus, 1758), Rhodobium porosum (Sanderson, 1900), Rhododendron arboreum Sm., Rhododendron grande Wight, Rhododendron indicum (L.) Sweet, Rhododendron ponticum L., Rhododendron ×pulchrum Sweet, Rhodomyrtus tomentosa (Aiton) Hassk., Rhodosphaera rhodanthema (F.Muell.) Engl., Rhopalosiphum padi (Linnaeus, 1758), Rhopalostylis sapida (Sol. ex G.Forst.) H.Wendl. &amp;amp; Drude, Rhyzobius lophanthae (Blaisdell, 1892), Rondeletia odorata Jacq., Rosa canina L., Roseodendron donnell-smithii (Rose) Miranda, Rotala macrandra Koehne, Rotala rotundifolia (Buch.-Ham. ex Roxb.) Koehne, Rotala wallichii (Hook.fil.) Koehne, Rothmannia urcelliformis (Hiern) Bullock ex Robyns, Roystonea borinquena O.F.Cook, Roystonea regia (Kunth) O.F.Cook, Rubus fruticosus L., Rubus idaeus L., Rumex acetosa L., Ruprechtia coriacea (H.Karst.) S.F.Blake, Russelia equisetiformis Schltdl. &amp;amp; Cham., Ruta graveolens L., Ruttya fruticosa Lindau, Sabal mexicana Mart., Sabal minor (Jacq.) Pers., Sabal palmetto (Walter) Lodd. ex Schult. &amp;amp; Schult.f., Saccharum officinarum L., Cylista ornata (Holdsworth, 1855), Saguinus midas (Linnaeus, 1758), Saguinus oedipus (Linnaeus, 1758), Saimiri sciureus (Linnaeus, 1758), Salix acutifolia Willd., Salix babylonica L., Salix bonplandiana Kunth, Salix cinerea L., Salix mucronata Thunb., Salix nigra Marshall, Salix purpurea L., Salix viminalis L., Salmo salar Linnaeus, 1758, Salmo trutta Linnaeus, 1758, Salvelinus fontinalis (Mitchill, 1814), Salvia coccinea Buc'hoz ex Etl., Salvia farinacea Benth., Salvia leucantha Cav., Sambucus racemosa L., Samia cynthia Drury, 1773, Samolus valerandi L., Sannantha pluriflora (F.Muell.) Peter G.Wilson, Sannantha virgata (J.R.Forst. &amp;amp; G.Forst.) Peter G.Wilson, Dracaena trifasciata (Prain) Mabb., Santalum album L., Santolina decumbens Mill., Sapindus emarginatus Vahl, Sapindus saponaria L., Saponaria ocymoides L., Saraca indica L., Sarotherodon galilaeus (Linnaeus, 1758), Schefflera actinophylla (Endl.) Harms, Heptapleurum arboricola Hayata, Schinopsis balansae Engl., Schinus molle L., Schinus terebinthifolia Raddi, Schismus barbatus (L.) Thell., Schizaphis graminum (Rondani, 1852), Secale cereale L., Sedum nussbaumerianum Bitter, Sedum pachyphyllum Rose, Sehima galpinii Stent, Selaginella flabellata (L.) Spring, Selenocosmia aruana Strand, 1911, Selenocosmia crassipes (L.Koch, 1874), Selenocosmia similis Kulczyński, 1911, Semecarpus anacardium L.fil., Semimytilus patagonicus (Hanley, 1843), Semiricinula tissoti (Petit de la Saussaye, 1852), Sempervivum tectorum L., Senecio macroglossus DC., Senegalia montis-usti (Merxm. &amp;amp; A.Schreib.) Kyal. &amp;amp; Boatwr., Senna appendiculata (Vogel) Wiersema, Senna artemisioides (Gaudich. ex DC.) Randell, Senna bacillaris (L.f.) H.S.Irwin &amp;amp; Barneby, Senna macranthera (DC. ex Collad.) H.S.Irwin &amp;amp; Barneby, Senna pendula (Humb. &amp;amp; Bonpl. ex Willd.) H.S.Irwin &amp;amp; Barneby, Senna siamea (Lam.) H.S.Irwin &amp;amp; Barneby, Senna sophera (L.) Roxb., Senna spectabilis (DC.) H.S.Irwin &amp;amp; Barneby, Senna splendida (Vogel) H.S.Irwin &amp;amp; Barneby, Sequoia sempervirens (D.Don) Endl., Sequoiadendron giganteum (Lindl.) J.T.Buchholz, Serenoa repens (W.Bartram) Small, Sericopelma angustum (Valerio, 1980), Sericopelma rubronitens Ausserer, 1875, Serissa japonica (Thunb.) Thunb., Setaria lindenbergiana (Nees) Stapf, Setaria sphacelata (Schumach.) Stapf &amp;amp; C.E.Hubb. ex Moss, Shelfordella lateralis (Walker, 1868), Sideroxylon foetidissimum Jacq., Silene coronaria (L.) Clairv., Simplaria pseudomilitaris (Thiriot-Quievreux, 1965), Sinapis alba L., Sipha maydis Passerini, 1860, Siphoninus phillyreae (Haliday, 1835), Siphonochilus kirkii (Hook.f.) B.L.Burtt, Sistrurus catenatus (Rafinesque, 1818), Smilax anceps Willd., Solanum betaceum Cav., Solanum crinitum Lam., Solanum diphyllum L., Solanum laxum Spreng., Solanum lycopersicum L., Solanum melongena L., Solanum muricatum Aiton, Solanum tuberosum L., Solanum wendlandii Hook.fil., Soleirolia soleirolii (Req.) Dandy, Solidago canadensis L., Sophora tetraptera J.F.Mill., Sophora velutina Lindl., Sorbus aucuparia L., Sparaxis bulbifera (L.) Ker Gawl., Sparaxis elegans (Sweet) Goldblatt, Sparaxis tricolor (Schneev.) Ker Gawl., Spathiphyllum cannifolium (Dryand. ex Sims) Schott, Sphaerobothria hoffmanni </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2981587309</t>
+          <t>https://openalex.org/W2000920566</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17513/vaael.756</t>
+          <t>https://doi.org/10.1080/13642537.2014.932298</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cherkesova &amp; Mironova (2019)</t>
+          <t>Cayne (2014)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>EVALUATION AND WAYS TO INCREASE THE DIGITAL LITERACY LEVEL OF SCIENTIFIC AND PEDAGOGICAL WORKERS IN THE CONDITIONS OF DIGITAL TRANSFORMATION OF THE ECONOMY OF THE RUSSIAN FEDERATION</t>
+          <t>Learning beyond the known</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Э. Ю. ЧеркесоваИнститут сферы обслуживания и предпринимательства (филиал) ДГТУ в</t>
+          <t>In this paper issues related to adult learning, such as self-directed and experiential learning are shown to hold a trace of the unknown, which has implications for psychotherapy training and practice. The unknown is traced through the problematic of individualistic approaches that restrict the emergence of unknowns by limiting possibility of the other, hindering recognition of our own cultural position and seeking to avoid anxiety. Learning is also shown to have links with experiences of change and loss, having in common the generation of anxiety, seen as both the driving force to know and the need to close down unknowing. Subsequently, learning is viewed as involving the potential to repeat the already known as well as opening up the possibility for something new. Psychoanalysis and continental philosophy are shown, in different ways, to help our understanding of the reasons for the anxiety occurring in times of transition, also showing the way fragmentary experiences act as a reminder of death. It is proposed that the relational aspects of learning are an important factor in learning to tolerate the anxiety and adult learning is thus seen as requiring possibility of the other, in relationship, in order to permit the unknown.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3089575826</t>
+          <t>https://openalex.org/W3003483153</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1115/1.4048243</t>
+          <t>https://doi.org/10.1523/jneurosci.1399-19.2020</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Feser &amp; Gupta (2020)</t>
+          <t>Sankaran et al. (2020)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Performance and Emissions of Drop-In Aviation Biofuels in a Lab-Scale Gas Turbine Combustor</t>
+          <t>The Rapid Emergence of Musical Pitch Structure in Human Cortex</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Abstract There is a growing need for drop-in biofuels for gas turbines for enhanced energy security and sustainability. Several fuels are currently being developed and tested to reduce dependency on fossil fuels while maintaining performance, particularly in the aviation industry. The transition from traditional fossil fuels to sustainable biofuels is much desired for reducing the rapidly rising CO2 levels in the environment. This requires biofuels to be drop-in ready, where there are no adverse effects on performance and emissions upon replacement. In this study, the performance and emissions of four different aviation drop-in biofuels were evaluated. They include UOP HEFA-SPK, Gevo ATJ, Amyris Farnesane, and SB-JP-8. These aviation biofuels are currently being produced and tested to be ready for full or partial drop-in fuels as the replacement of traditional jet fuels. The characteristic performance of each fuel from the prevaporized liquid fuels was performed in a high-intensity (20 MW/m3-atm) reverse flow combustor. The NO emissions showed near unity ppm levels for each of the fuels examined with a minimum at an equivalence ratio of ∼0.6, while CO levels were in the range of 1000–1300 ppm depending on the fuel at an equivalence ratio between 0.75 and 0.8. For an equivalence ratio range between 0.4 and 0.6, NO and CO emissions remained very low (between 1–2 ppm NO and 2400–2900 ppm CO) depending on the fuel. The examined biofuels did not show any instability over a wide range of equivalence ratios from lean to near stoichiometric condition. These results provide promising results on the behavior of these drop-in aviation biofuels for use in high-intensity gas turbine combustors providing stability and cleaner performance without any modification to the combustor design.</t>
+          <t>In tonal music, continuous acoustic waveforms are mapped onto discrete, hierarchically arranged, internal representations of pitch. To examine the neural dynamics underlying this transformation, we presented male and female human listeners with tones embedded within a Western tonal context while recording their cortical activity using magnetoencephalography. Machine learning classifiers were then trained to decode different tones from their underlying neural activation patterns at each peristimulus time sample, providing a dynamic measure of their dissimilarity in cortex. Comparing the time-varying dissimilarity between tones with the predictions of acoustic and perceptual models, we observed a temporal evolution in the brain's representational structure. Whereas initial dissimilarities mirrored their fundamental-frequency separation, dissimilarities beyond 200 ms reflected the perceptual status of each tone within the tonal hierarchy of Western music. These effects occurred regardless of stimulus regularities within the context or whether listeners were engaged in a task requiring explicit pitch analysis. Lastly, patterns of cortical activity that discriminated between tones became increasingly stable in time as the information coded by those patterns transitioned from low-to-high level properties. Current results reveal the dynamics with which the complex perceptual structure of Western tonal music emerges in cortex at the timescale of an individual tone. SIGNIFICANCE STATEMENT Little is understood about how the brain transforms an acoustic waveform into the complex perceptual structure of musical pitch. Applying neural decoding techniques to the cortical activity of human subjects engaged in music listening, we measured the dynamics of information processing in the brain on a moment-to-moment basis as subjects heard each tone. In the first 200 ms after onset, transient patterns of neural activity coded the fundamental frequency of tones. Subsequently, a period emerged during which more temporally stable activation patterns coded the perceptual status of each tone within the “tonal hierarchy” of Western music. Our results provide a crucial link between the complex perceptual structure of tonal music and the underlying neural dynamics from which it emerges.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386070126</t>
+          <t>https://openalex.org/W2103463753</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/jintelligence11090170</t>
+          <t>https://doi.org/10.3109/19396368.2013.794253</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Wang et al. (2023)</t>
+          <t>Moshtaghion et al. (2013)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AI for Psychometrics: Validating Machine Learning Models in Measuring Emotional Intelligence with Eye-Tracking Techniques</t>
+          <t>Silymarin protects from varicocele-induced damages in testis and improves sperm quality: evidence for E2f1 involvement</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AI, or artificial intelligence, is a technology of creating algorithms and computer systems that mimic human cognitive abilities to perform tasks. Many industries are undergoing revolutions due to the advances and applications of AI technology. The current study explored a burgeoning field-Psychometric AI, which integrates AI methodologies and psychological measurement to not only improve measurement accuracy, efficiency, and effectiveness but also help reduce human bias and increase objectivity in measurement. Specifically, by leveraging unobtrusive eye-tracking sensing techniques and performing 1470 runs with seven different machine-learning classifiers, the current study systematically examined the efficacy of various (ML) models in measuring different facets and measures of the emotional intelligence (EI) construct. Our results revealed an average accuracy ranging from 50-90%, largely depending on the percentile to dichotomize the EI scores. More importantly, our study found that AI algorithms were powerful enough to achieve high accuracy with as little as 5 or 2 s of eye-tracking data. The research also explored the effects of EI facets/measures on ML measurement accuracy and identified many eye-tracking features most predictive of EI scores. Both theoretical and practical implications are discussed.</t>
+          <t>This study was designed to evaluate the protective effect of silymarin (SMN) on varicocele-induced damage in testis and its effects on sperm parameters and on antioxidant status. Wistar rats were divided into three groups: control-sham, varicocele-induced, and SMN-treated varicocelized (50mg/kg, orally) rats. The sperm count, DNA integrity, and histone-protamine transition was evaluated after 42 days. The antioxidant status was analyzed by determining testicular malondialdehyde (MDA) and total thiol molecules (TTM). The endocrine status of the testicular tissue was estimated by counting the normal Leydig cell distribution/mm(2) and by determination of serum testosterone. The expression of E2f1 mRNA was analyzed using RT-PCR. Carbohydrate depletion and lipid foci replacement in germinal cells were examined by histochemical analyses. Silymarin rehabilitated the varicocele-induced Leydig cell degeneration and testosterone reduction. In addition, SMN recovered the varicocele-induced reduction of TTM and lowered significantly (P &lt; 0.05) the varicocele-elevated content of MDA. The SMN treatment resulted in a significant (P &lt; 0.05) down-regulation of the VCL-up-regulated E2f1 mRNA. Silymarin-treated animals were protected from varicocele-induced testicular atrophy and these animals showed a significant (P &lt; 0.05) increase in the percentage of seminiferous tubules with positive tubular differentiation, repopulation, and spermiogenesis indices. Furthermore, SMN improved the varicocele-induced carbohydrate reduction in germinal cells. Our data suggest that in addition to oxidative stress, alteration in the testicular endocrine function plays a crucial role in the pathogenesis of varicocele. Moreover, the protective effects of SMN on varicocele-induced damage may reflect its antioxidant property, which may be mediated via the E2f1 transcription factor.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3186116205</t>
+          <t>https://openalex.org/W2028358655</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-323-88506-5.50238-2</t>
+          <t>https://doi.org/10.1353/ctt.0.0035</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Baratsas et al. (2021)</t>
+          <t>Klingner (2009)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Circular Economy Systems Engineering: A case study on the Coffee Supply Chain</t>
+          <t>Diverse Contexts, Strategies, and Outcomes for Comparative Technology Transfer</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>The current linear “take-make-waste” extractive models that have powered the tremendous growth of the last centuries, lead to the depletion of natural resources and environmental degradation. Circular Economy (CE) aims to address these impacts by building supply chains that are restorative, regenerative, and environmentally benign, through re-utilizing products and materials, using renewable energy sources, and closing any open loops. Process Systems Engineering (PSE) could play a critical role in this transition, providing the necessary analytical tools for a quantitative evaluation, and exploring alternative pathways for social and economic advancement. As such, we present here a novel framework for the modeling and optimization of CE food supply chains, along with a representative case study for the supply chain of coffee. First, the alternative pathways for the production of the desired product and the utilization of wastes are identified. Then, a Resource-Task-Network (RTN) representation that captures all these pathways is constructed. Since this analysis must be conducted holistically, a mixed-integer linear programming model that captures the entire supply chain, its objectives, and constraints is formulated, and it is solved to multi-objective optimality.</t>
+          <t>Diverse Contexts, Strategies, and Outcomes for Comparative Technology Transfer Donald E. Klingner Introduction Technology transfer concerns the exogenous adaptation of innovations from their place of origin to other organizations, countries, or regions. As the articles in this issue of Comparative Technology Transfer and Society illustrate, the sustainability of diffused innovations depends heavily upon local contexts, requires innovative and flexible adaptation strategies, and results in diverse outcomes. Economic pressures and increasingly global research interests prompt universities around the world to focus on the commercial potential of their faculties’ research. One result is academic spin-offs. These have varied widely in effectiveness, leading researchers to investigate why some succeed while others have not. In the first article in this issue (University Spin-Offs as Technology Transfer: A Comparative Study among Norway, the United States, and Sweden), Norwegian scholar Alf Steinar Sætre and his co-authors assess the comparative effect of universities’ efforts capitalize on faculty inventions in these three countries. They identified four key dimensions—university relations, government-support mechanisms, industry relations, and equity funding—as central elements in all cases. Interestingly, they also concur with other researchers’ (Julnes &amp; Holzer, 2001; Landry, Lamari, &amp; Amara, 2003) conclusion that the distinctive and varied faculty-research cultures make it difficult for university technology transfer offices to cooperate effectively and consistently with government agencies and venture capitalists. In fact, they conclude that these offices seem to impede the development of startups and spin-offs as often as they help. The authors certainly suggest that increased competencies and a greater understanding of the innovation process among those who dole out grants might diminish waste and increase the effectiveness of government-support systems designed to advance the commercial prospects of technologies originating in universities. Technology transfer has played a similarly significant yet ambiguous role in national economic development. In the second article (Political Impediments to Technological Diffusion in Northeast Brazil, 1909–1964), historian Eve Buckley uses the case study of water-management projects in northeastern Brazil to study these effects. Beginning in the 1930s, Brazilian reformers sought to replicate the success of the Tennessee Valley [End Page vii] Authority (TVA) in the United States by using similar water-management projects to reduce drought, increase agricultural productivity, and generate electric power in the large northeastern region of their country. While the TVA had achieved tremendous success at using water-management infrastructure improvements not only to achieve economic objectives, but also changes in the political and social culture of Appalachia during the 1930s (Selznick, 1966), the Brazilian projects did not replicate these results. Paradoxically, although the water projects were intended to reduce the imbalance of wealth and power, their actual effect was to increase it. Infrastructure improvements (e.g., dams, roads, and irrigation canals) increased the security of landowners, their crops and their cattle, but did not reduce the poorest inhabitants’ vulnerability to drought or to the exploitative demands of their landowning patrons. In sum, Buckley concludes that underlying political and social factors (e.g., land ownership and class structure) trumped the otherwise admirable agricultural and economic objectives of moderate reformers and strengthened the argument of more radical reformers, who had unsuccessfully pushed for land redistribution in addition to infrastructure improvements. As always, this case demonstrates how local circumstances influence the outcome of international transfer projects designed to promote economic development. Economic-development literature generally supports this conclusion. While problems in one country may seem similar to those in another, most analysts (Borins, 1998; Jones &amp; Kettl, 2003) are well aware that solutions that are effective in one context may not succeed in another. Thus the term “smart practices” (Bardach, 2000) is preferable to the more commonly used “best practices,” because smart practices bring into view the need to adapt in order to sustain exogenous innovations. While we can learn much from comparative studies, applying what we learn must always take account of a number of variables specific to the local receiving context (Jabbra &amp; Dwivedi, 2004). In this case, this awareness helps explain why reform has ascended in the political agendas of some nations but not others (Barzelay, 2001, 2003). Smart-practice policy making emphasizes first elucidating and then reducing the mechanisms and factors that inhibit adaptation to contingency and...</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4200213484</t>
+          <t>https://openalex.org/W1967878505</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1039/d1cp05353a</t>
+          <t>https://doi.org/10.3892/ijo.22.1.59</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Huang et al. (2022)</t>
+          <t>Badran et al. (2003)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DFT and microkinetic study of acetylene transformation on Pd(111), M(111) and PdM(111) surfaces (M = Cu, Ag, Au)</t>
+          <t>Expression of the anti-apoptotic gene survivin in myelodysplastic syndrome</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Density functional calculations and microkinetic simulations were performed on the transformation network of acetylene on Pd(111), M(111) and PdM(111) (M = Cu, Ag, Au) surfaces. It is demonstrated that the adsorption energies on alloy surfaces linearly correlate with the values on the pure metal surfaces. A good linear relationship between the co-adsorption energies of initial states and transition states is revealed with which the barriers of most elementary steps in the reaction network were estimated. To shed light on the transformation of acetylene, microkinetic simulations were conducted on the network. The results show that CHCH and H are dominant species on the surfaces and CCH, CCH2 and CCH3 are the main intermediates. Analysis indicates that introduction of coinage metals into Pd reduces the activity, but promotes the selectivity by lowering the barrier of CHCH2 → CH2CH2. The present work provides a comprehensive overview of acetylene transformation on palladium, coinage metals and their alloy surfaces. The linear relationship of adsorption energies between the component metal and alloy surfaces and usage of the TSS relationship to evaluate barriers for microkinetic simulations are worthy of being further studied and extended to other systems.</t>
+          <t>Survivin is a member of the inhibitor of apoptosis protein (IAPs) family and considered to play a pivotal role in oncogenesis. We present the first report of survivin expression profile in myelodysplastic syndrome (MDS). Expression of survivin messenger RNA was evaluated by semi-quantitative reverse transcriptase-polymerase chain reaction (RT-PCR) in patients with MDS and acute myeloid leukemia (AML). Eleven out of 12 patients with refractory anemia (RA) (91.6%), and all 3 patients with refractory anemia with excess blasts in transformation (RAEBt) (100%), were positive for survivin expression with the majority of cases showing abundant levels of the survivin transcript. On the other hand, expression of survivin was undetectable in the 4 patients with chronic myelomonocytic leukemia (CMMoL). The level and frequency of survivin expression in patients with refractory anemia were compared to those in patients with AML. Out of 12 patients with de novo AML, 5 patients (41.7%) showed detectable levels of survivin expression. Abundant survivin expression in RA was also confirmed by immunohistochemistry. In contrast, survivin was almost absent in two cases with aplastic anemia. We propose that high levels of survivin expression can serve as a reliable diagnostic marker of RA in MDS.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380877901</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.mtchem.2023.101600</t>
+          <t>https://openalex.org/W3012987452</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rani et al. (2023)</t>
+          <t>Cardona (2019)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bifunctional metal-organic frameworks as selective turn-on fluorescence sensors for tryptophan and heterogeneous catalysts for Knoevenagel condensation reaction</t>
+          <t>La paz pedagógica: una ruta para mejorar el aprendizaje del manejo de los conflictos</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Two new doubly interpenetrated metal-organic frameworks (MOFs) with formulas [{Zn(L1)(5-nipa)}·DMA]α (1a) and [{Cd(L2)(5-nipa)(H2O)}]α (1b) have been discussed herein, where [L1 = N,N'-(oxybis(4,1-phenylene))diisonicotinamide; L2 = N,N'-(methylenebis(4,1-phenylene)) diisonicotinamide; 5-H2nipa = 5-nitroisophthalic acid; DMA = dimethylacetamide]. A single crystal X-ray analysis reveals that 1a exhibits a 2D-interpenetrated interwoven sheet and finally adapts a 3D framework structure with the help of π···π stacking interactions. Similarly, 1b displays a two-fold interpenetrated 2D sheet-like architecture and is finally adjusted to a 3D structure. Both 1a and 1b feature channels with a cross-section of 25.06 × 25.06 Å2 and 24.01 × 24.01 Å2, respectively, running along the b-axis. Topological analysis of 1a and 1b by ToposPro suggests a (4)-connected uninodal sql topology with point symbol {44.62}. Further, 1a and 1b were exploited as molecular sensors for several amino acids exposing different shapes and sizes and exhibiting selective turn-on fluorescence sensing towards biologically important D/L-tryptophan with the notable limit of detection values of 0.084/0.110 μM and 0.143/0.141 μM, respectively, in aqueous medium. In addition, 1a and 1b were also exploited as heterogeneous catalysts towards several assorted aldehydes having different electronic environments, including sterically demanding aldehydes, under mild reaction conditions and obtained up to 97% of the respective Knoevenagel condensation product. Importantly, sterically hindered aldehydes also worked well with the MOF catalysts 1a and 1b, but showed comparatively low conversion. It is important to mention that in both cases, these MOF materials are recyclable for up to five consecutive runs without displaying any substantial loss in their sensing or catalytic activities. Moreover, the present investigation cultivates a new vision to design novel luminescent MOFs that can be used as multifunctional materials for the turn-on sensing of small organic molecules as well as instigated as heterogeneous catalysts in diverse organic transformation reactions.</t>
+          <t>Based on the challenges to develop a culture of peace and the painful lessons learned in all corners of Colombia, it is necessary to delineate new ways of inter­acting with conflicts from a perspective of peace and not violence. In this sense, the article wants to contribute new peda­gogical horizons of the investigation and coexistence of the conflicting processes. To reach this objective, two subchapters are developed. The first presents four obstacles that have prevented the real development of education for peace and conflicts in Colombia. In the second, we want to present new methodologies to address conflicts in different socio-educational contexts. This approach to learning conflict research pedagogies from human processes bets on a para­digm shift in the coexistence of people, centred on the fundamentals of the peaceful transformation of conflicts and nonviolence.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4281249674</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/21651434221098411</t>
+          <t>https://openalex.org/W2182504154</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Howorth et al. (2022)</t>
+          <t>Ciriaci &amp; Palma (2009)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Effects of an Abbreviated and Adapted PEERS® Curriculum as Part of a College Transition Program for Young Adults on the Autism Spectrum</t>
+          <t>Geography, environmental efficiency and economic growth: how to uncover localised externalities through spatial econometric modelling</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>College students on the autism spectrum report the following support needs: interpersonal skills and coping with unexpected change. The purpose of this pilot study was to investigate the effects of an interpersonal skills seminar using elements of the PEERS® curriculum on the acquisition of conversational behaviors by three young adults on the autism spectrum who were attending a summer college transition program designed to help prepare and familiarize individuals with college living. A multiple probe across behaviors design was used. According to visual analysis, a functional relation was not established between participation and acquisition of foundational conversational skills. Our findings provide a model for how state vocational rehabilitation agencies and institutes of higher education can collaborate to provide effective support for college students with autism spectrum disorder.</t>
+          <t>Over the past fifteen years an increasing interest has risen for assessing the extent to which the pursuit of economic growth and a cleaner environment are convergent rather than conflicting objectives. The present paper aims to test the hypothesis that environmental degradation and per capita income follows an inverted-U-shaped relationship (the so-called Environmental Kuznets Curve) at the Italian Nut3 level, a more than intermediate framework between macroeconomic and microeconomic considerations, over the period 1990-2005. We adopt a spatial econometric approach by means of which it is possible to account for the localised nature of environmental and knowledge externalities. In this spatial-adapted EKC, we explicitly introduced the role of structural change. The experiment is expected to highlight major differences between geographical clusters from the point of view of ecological efficiency depending on the strength of the underlying industrial structure (i.e. agglomerated areas of cumulative growth due to dynamic increasing returns) and to enhance further local differences depending on the local character of the different air pollutants considered.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W194969759</t>
+          <t>https://openalex.org/W3026230934</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Martins &amp; Costa (2014)</t>
+          <t>Darwin et al. (2020)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Reemployment effects from increased activation: Evidence from times of crisis</t>
+          <t>Opening Up for Managing Business and Societal Challenges</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Although activation services such as monitoring, training, job subsidies or workfare have been shown to increase exits from unemployment, there is no evidence about their effects during recessions. We address this policy-relevant question by evaluating a large activation programme introduced in Portugal in early 2012, a time of very high and still increasing unemployment. The programme was based on requiring specific unemployment benefit recipients to meet caseworkers in jobcentres and then participate in active labour market policies. Our analysis draws on rich longitudinal data, the targeted nature of the programme (namely of its component focused on those unemployed for at least six months), and fuzzy regression discontinuity methods. We find that, despite the weak labour market, the programme is very succesful as it doubles the monthly reemployment probability. Moreover, we find no effects in terms of income or transitions to non-employment. The results are robust to a number of checks, including a falsification exercise based on pre-programme data.</t>
+          <t>Firms submitted corporate challenges relating to digital business models across several industries, and a_x000D_
+community of academic experts and open innovation practitioners solve it. _x000D_
+Challenge #1: SAP (Conducting “Horizon 3” transformational experiments through learning fast/fail fast approaches) _x000D_
+Challenge #2: SALESFORCE (Expanding through the creation of ecosystems in new unchartered markets) _x000D_
+Challenge #3: ERICSSON (Creating new business opportunities leveraging emerging 5G technologies) _x000D_
+Challenge #4: PNO (Overcoming bottlenecks that block the successful use of open innovation within organizations)_x000D_
+_x000D_
+The following report details description of the discussions conducted during each industry session and the specific solutions emerged from the audience brainstorming and already briefly presented to the companies at the end of each session. Moreover, we provide a short presentation of more general recommendations that result from a cross-analysis of all the companies presenting their challenges at WOIC 2019, but go beyond them and can be considered by industry at large, and concern:_x000D_
+a. Innovation Platform and Ecosystem_x000D_
+b. Data and Other Infrastructures_x000D_
+c. Understanding the Problems and Contexts_x000D_
+d. Company Ambassadors</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3003483153</t>
+          <t>https://openalex.org/W1593058514</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1523/jneurosci.1399-19.2020</t>
+          <t>https://doi.org/10.3892/or.2015.4034</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sankaran et al. (2020)</t>
+          <t>Zhou et al. (2015)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>The Rapid Emergence of Musical Pitch Structure in Human Cortex</t>
+          <t>Adrenomedullin promotes intrahepatic cholangiocellular carcinoma metastasis and invasion by inducing epithelial-mesenchymal transition</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>In tonal music, continuous acoustic waveforms are mapped onto discrete, hierarchically arranged, internal representations of pitch. To examine the neural dynamics underlying this transformation, we presented male and female human listeners with tones embedded within a Western tonal context while recording their cortical activity using magnetoencephalography. Machine learning classifiers were then trained to decode different tones from their underlying neural activation patterns at each peristimulus time sample, providing a dynamic measure of their dissimilarity in cortex. Comparing the time-varying dissimilarity between tones with the predictions of acoustic and perceptual models, we observed a temporal evolution in the brain's representational structure. Whereas initial dissimilarities mirrored their fundamental-frequency separation, dissimilarities beyond 200 ms reflected the perceptual status of each tone within the tonal hierarchy of Western music. These effects occurred regardless of stimulus regularities within the context or whether listeners were engaged in a task requiring explicit pitch analysis. Lastly, patterns of cortical activity that discriminated between tones became increasingly stable in time as the information coded by those patterns transitioned from low-to-high level properties. Current results reveal the dynamics with which the complex perceptual structure of Western tonal music emerges in cortex at the timescale of an individual tone. SIGNIFICANCE STATEMENT Little is understood about how the brain transforms an acoustic waveform into the complex perceptual structure of musical pitch. Applying neural decoding techniques to the cortical activity of human subjects engaged in music listening, we measured the dynamics of information processing in the brain on a moment-to-moment basis as subjects heard each tone. In the first 200 ms after onset, transient patterns of neural activity coded the fundamental frequency of tones. Subsequently, a period emerged during which more temporally stable activation patterns coded the perceptual status of each tone within the “tonal hierarchy” of Western music. Our results provide a crucial link between the complex perceptual structure of tonal music and the underlying neural dynamics from which it emerges.</t>
+          <t>Intrahepatic cholangiocellular carcinoma (ICC) is the second most common type of primary liver cancer. However, its etiology and molecular pathogenesis remain largely unknown. The present study aimed to investigate the association between adrenomedullin (ADM) and epithelial-mesenchymal transition (EMT) in ICC and to elucidate the underlying signaling pathway. We evaluated the clinical significance of ADM in 133 ICC patients using tissue microarray analysis of ICC tissues. We also investigated the mechanisms of ADM in ICC EMT-mediated metastasis in cholangiocarcinoma cell lines in vitro. The results revealed that ADM was upregulated in human ICC tissues (73/133) compared with that in healthy controls. ADM expression was positively correlated with shorter overall survival (P&lt;0.01). The characteristics of EMT were induced in vitro by adenoviral transduction of ADM into HuCCT1 cells, resulting in the downregulation of E-cadherin and ZO-1, and the concomitant upregulation of N-cadherin and vimentin. Knockdown of ADM by short hairpin RNA in HUH28 cells expressing high levels of ADM was associated with the reversal of EMT. Functional studies revealed that ADM regulated the activation of ZEB1, which subsequently mediated EMT. The results of the present study suggest that ADM plays an important role in ICC metastasis, and that ADM signaling of EMT may represent a valuable therapeutic target in cancer patients.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2103463753</t>
+          <t>https://openalex.org/W4391502343</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3109/19396368.2013.794253</t>
+          <t>https://doi.org/10.1016/j.apenergy.2024.122751</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Moshtaghion et al. (2013)</t>
+          <t>Yu et al. (2024)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Silymarin protects from varicocele-induced damages in testis and improves sperm quality: evidence for E2f1 involvement</t>
+          <t>Multi-feature-fused generative neural network with Gaussian mixture for multi-step probabilistic wind speed prediction</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>This study was designed to evaluate the protective effect of silymarin (SMN) on varicocele-induced damage in testis and its effects on sperm parameters and on antioxidant status. Wistar rats were divided into three groups: control-sham, varicocele-induced, and SMN-treated varicocelized (50mg/kg, orally) rats. The sperm count, DNA integrity, and histone-protamine transition was evaluated after 42 days. The antioxidant status was analyzed by determining testicular malondialdehyde (MDA) and total thiol molecules (TTM). The endocrine status of the testicular tissue was estimated by counting the normal Leydig cell distribution/mm(2) and by determination of serum testosterone. The expression of E2f1 mRNA was analyzed using RT-PCR. Carbohydrate depletion and lipid foci replacement in germinal cells were examined by histochemical analyses. Silymarin rehabilitated the varicocele-induced Leydig cell degeneration and testosterone reduction. In addition, SMN recovered the varicocele-induced reduction of TTM and lowered significantly (P &lt; 0.05) the varicocele-elevated content of MDA. The SMN treatment resulted in a significant (P &lt; 0.05) down-regulation of the VCL-up-regulated E2f1 mRNA. Silymarin-treated animals were protected from varicocele-induced testicular atrophy and these animals showed a significant (P &lt; 0.05) increase in the percentage of seminiferous tubules with positive tubular differentiation, repopulation, and spermiogenesis indices. Furthermore, SMN improved the varicocele-induced carbohydrate reduction in germinal cells. Our data suggest that in addition to oxidative stress, alteration in the testicular endocrine function plays a crucial role in the pathogenesis of varicocele. Moreover, the protective effects of SMN on varicocele-induced damage may reflect its antioxidant property, which may be mediated via the E2f1 transcription factor.</t>
+          <t>Wind speed prediction is a crucial element of effective wind energy utilization, necessitating the use of probabilistic wind speed prediction to facilitate practical decision-making. However, most current deep learning generative models neglect to incorporate frequency information. To address this issue, this study proposes a generative model neural network that utilizes multi-feature fusion and Gaussian mixture techniques. The proposed model leverages wavelet transformation, which is represented as a weight matrix, in combination with several convolution operations to extensively explore the fundamental features of wind speed time series. Prior to multi-step prediction, target values are modeled as a multi-dimensional Gaussian mixture distribution, with the extracted characteristics mapped onto crucial distribution parameters. Monte Carlo sampling is then used to complete the wind speed probability prediction. Furthermore, the study develops a loss function and a two-stage training strategy for this network. The performance of the proposed model is compared to that of ten state-of-the-art models using actual wind speed time series and six typical error indices. The results demonstrate that the proposed model provides both more accurate deterministic predictions and more meaningful probabilistic forecasts than other examined models for various prediction.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1967878505</t>
+          <t>https://openalex.org/W2028706350</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3892/ijo.22.1.59</t>
+          <t>https://doi.org/10.1016/0168-9002(86)91326-4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Badran et al. (2003)</t>
+          <t>Kennett et al. (1986)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Expression of the anti-apoptotic gene survivin in myelodysplastic syndrome</t>
+          <t>Energy determination of the 6129 keV 16O transition</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Survivin is a member of the inhibitor of apoptosis protein (IAPs) family and considered to play a pivotal role in oncogenesis. We present the first report of survivin expression profile in myelodysplastic syndrome (MDS). Expression of survivin messenger RNA was evaluated by semi-quantitative reverse transcriptase-polymerase chain reaction (RT-PCR) in patients with MDS and acute myeloid leukemia (AML). Eleven out of 12 patients with refractory anemia (RA) (91.6%), and all 3 patients with refractory anemia with excess blasts in transformation (RAEBt) (100%), were positive for survivin expression with the majority of cases showing abundant levels of the survivin transcript. On the other hand, expression of survivin was undetectable in the 4 patients with chronic myelomonocytic leukemia (CMMoL). The level and frequency of survivin expression in patients with refractory anemia were compared to those in patients with AML. Out of 12 patients with de novo AML, 5 patients (41.7%) showed detectable levels of survivin expression. Abundant survivin expression in RA was also confirmed by immunohistochemistry. In contrast, survivin was almost absent in two cases with aplastic anemia. We propose that high levels of survivin expression can serve as a reliable diagnostic marker of RA in MDS.</t>
+          <t>Using newly established energy standards, which are based upon a scale derived by means of mass-doublets, and two different source arrangements, the energy of the 16O transition has been determined to be (6129.119 ± 0.040) keV. The Q value for the 19F(n, γ)20F reaction was also evaluated and found to be (6601.344 ± 0.055) keV.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386101575</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1098/rsos.230150</t>
+          <t>https://openalex.org/W2568036782</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pratiwi et al. (2023)</t>
+          <t>Hisschemöller &amp; Bode (2004)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Observation of viscous liquid flow in tobacco substrate during heating using optical coherence tomography</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>The present study used optical coherence tomography (OCT) to monitor the dynamics of a highly viscous liquid in a porous tobacco substrate during heating. The OCT technique was integrated with a specially designed heating chamber and an air pump for measuring. Two transitional points in the liquid behaviours at different temperatures were estimated using OCT and statistical analysis of the attenuation coefficient. The first point, 'A', shows the time approximation at which the penetration-dominant zone transitions into the evaporation-dominant zone. The second point, 'B', indicates the time approximation at which rapid evaporation of free liquid transitions into slow evaporation of trapped and bound liquid. This analytical system is an alternative for tracking liquid transport in porous biomass during heating.</t>
+          <t>Governing the transition to a hydrogen economy: evaluation of competing hydrogen strategies from a multi-level perspective</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2007189927</t>
+          <t>https://openalex.org/W3047212181</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5209/rev_noma.2012.v34.n2.40744</t>
+          <t>https://doi.org/10.2991/assehr.k.200804.063</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Suárez (2013)</t>
+          <t>Sulistiani &amp; Sudikan (2020)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Regionalismos en el marco de la Relaciones Internacionales del Siglo XXI</t>
+          <t>Deconstruction-Critical Thinking: Alternative Learning Model of Literature Appreciation in Industrial Revolution 4.0</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>This article analyzes the phenomenon of regionalism and the transformations it has had throughout its history. It also investigates the variables that played a key role in building regionalism. It should be noted that after the Cold War regional groupings have expanded worldwide, largely due to the end of ideological confrontation, the processes of democratization that took effect in many countries of the world, transnational problems that affect regions, as well as the challenges inherent to globalization. The central objective of this paper is to evaluate the variables that promote the building of regional groupings as well as, assess why some regionalism are markedly successful and others fails. To this end, this article is based on game theory and neo-institutional theory</t>
+          <t>Deconstruction-critical thinking is an effort to develop a creative Literature Appreciation learning model.All deconstruction is critical, but everyone's critical is different and not all perfect.This model is the result of Derrida's deconstruction fiction with critical thinking of the Facione Model.Deconstruction-critical is carried out to find something new that is contradictory by dismantling text based on language instability, phonocentrism-logocentrism, and metaphors, it is necessary to bring up new meanings and meanings through the interpretation of activity, analysis, inference, discussion, discussion, consideration, and selfdelivery.The focus of the article's problem is "how the conceptual basis of deconstruction-critical" and "how to implement deconstruction-critical in Literature Appreciation learning class".Deconstruction-critical learning models that are expected to overcome boredom and support learning of critical and creative Literary Appreciation learning and provide insights about the teacher can develop continuously developing learning models for their classes.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1593058514</t>
+          <t>https://openalex.org/W2047841156</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3892/or.2015.4034</t>
+          <t>https://doi.org/10.1159/000351116</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Zhou et al. (2015)</t>
+          <t>Hoshino &amp; Ohtawa (2013)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Adrenomedullin promotes intrahepatic cholangiocellular carcinoma metastasis and invasion by inducing epithelial-mesenchymal transition</t>
+          <t>Effects of Tiotropium and Salmeterol/Fluticasone Propionate on Airway Wall Thickness in Chronic Obstructive Pulmonary Disease</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Intrahepatic cholangiocellular carcinoma (ICC) is the second most common type of primary liver cancer. However, its etiology and molecular pathogenesis remain largely unknown. The present study aimed to investigate the association between adrenomedullin (ADM) and epithelial-mesenchymal transition (EMT) in ICC and to elucidate the underlying signaling pathway. We evaluated the clinical significance of ADM in 133 ICC patients using tissue microarray analysis of ICC tissues. We also investigated the mechanisms of ADM in ICC EMT-mediated metastasis in cholangiocarcinoma cell lines in vitro. The results revealed that ADM was upregulated in human ICC tissues (73/133) compared with that in healthy controls. ADM expression was positively correlated with shorter overall survival (P&lt;0.01). The characteristics of EMT were induced in vitro by adenoviral transduction of ADM into HuCCT1 cells, resulting in the downregulation of E-cadherin and ZO-1, and the concomitant upregulation of N-cadherin and vimentin. Knockdown of ADM by short hairpin RNA in HUH28 cells expressing high levels of ADM was associated with the reversal of EMT. Functional studies revealed that ADM regulated the activation of ZEB1, which subsequently mediated EMT. The results of the present study suggest that ADM plays an important role in ICC metastasis, and that ADM signaling of EMT may represent a valuable therapeutic target in cancer patients.</t>
+          <t>&amp;lt;b&amp;gt;&amp;lt;i&amp;gt;Background:&amp;lt;/i&amp;gt;&amp;lt;/b&amp;gt; Triple inhalation therapy with tiotropium (Tio) and salmeterol/fluticasone propionate combination (SFC) is widely used in the treatment of chronic obstructive pulmonary disease (COPD). However, the effects of triple therapy on airway structural changes remain unknown. &amp;lt;b&amp;gt;&amp;lt;i&amp;gt;Objective:&amp;lt;/i&amp;gt;&amp;lt;/b&amp;gt; The aim of the study was to assess the effects of Tio, salmeterol (SM), SFC and Tio plus SFC on airway dimensions in COPD. &amp;lt;b&amp;gt;&amp;lt;i&amp;gt;Methods:&amp;lt;/i&amp;gt;&amp;lt;/b&amp;gt; A randomized, open-label, 4-way study (n = 60) was conducted comparing 16-week treatment periods of Tio (18 μg once daily), SM (50 μg twice daily), SFC (50/250 μg twice daily) and Tio (18 μg once daily) plus SFC (50/250 μg twice daily). Airway dimensions were assessed by a validated CT technique, and airway wall area (WA) corrected for body surface area (BSA), percentage WA (WA%), wall thickness/√BSA and luminal area (Ai)/BSA at the right apical segmental bronchus were measured. Pulmonary function and the St. George's Respiratory Questionnaire (SGRQ) were evaluated. &amp;lt;b&amp;gt;&amp;lt;i&amp;gt;Results:&amp;lt;/i&amp;gt;&amp;lt;/b&amp;gt; Tio plus SFC resulted in a significant decrease in WA corrected for BSA and WA% compared with Tio, SM and SFC (p &amp;lt; 0.05 for all). The changes in WA% and Ai/BSA were significantly correlated with changes in forced expiratory volume in 1 s (r = -0.86, p &amp;lt; 0.001, and r = 0.48, p &amp;lt; 0.05, respectively). There were more significant improvements in SGRQ scores after treatment with triple therapy than after the 3 other treatments. &amp;lt;b&amp;gt;&amp;lt;i&amp;gt;Conclusions:&amp;lt;/i&amp;gt;&amp;lt;/b&amp;gt; Tio plus SFC therapy is more effective than Tio, SM and SFC for reducing airway wall thickness in COPD.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391502343</t>
+          <t>https://openalex.org/W2749959281</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.apenergy.2024.122751</t>
+          <t>https://doi.org/10.1016/j.optmat.2017.08.015</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yu et al. (2024)</t>
+          <t>Mohan et al. (2017)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Multi-feature-fused generative neural network with Gaussian mixture for multi-step probabilistic wind speed prediction</t>
+          <t>Structural and luminescence properties of samarium doped lead alumino borate glasses</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Wind speed prediction is a crucial element of effective wind energy utilization, necessitating the use of probabilistic wind speed prediction to facilitate practical decision-making. However, most current deep learning generative models neglect to incorporate frequency information. To address this issue, this study proposes a generative model neural network that utilizes multi-feature fusion and Gaussian mixture techniques. The proposed model leverages wavelet transformation, which is represented as a weight matrix, in combination with several convolution operations to extensively explore the fundamental features of wind speed time series. Prior to multi-step prediction, target values are modeled as a multi-dimensional Gaussian mixture distribution, with the extracted characteristics mapped onto crucial distribution parameters. Monte Carlo sampling is then used to complete the wind speed probability prediction. Furthermore, the study develops a loss function and a two-stage training strategy for this network. The performance of the proposed model is compared to that of ten state-of-the-art models using actual wind speed time series and six typical error indices. The results demonstrate that the proposed model provides both more accurate deterministic predictions and more meaningful probabilistic forecasts than other examined models for various prediction.</t>
+          <t>The study reports the effect of samarium concentration on the physical, structural and spectroscopic characteristics of samarium doped lead alumino borate glasses having composition 20PbO-(10-x)Al2O3-70B2O3-xSm2O3; x = 0.1, 0.5, 1.0 and 2.0 mol %. The glasses were fabricated by conventional melt-quenching technique and then characterized by XRD, FTIR, optical absorption and fluorescence spectra. X-ray diffraction studies confirmed the amorphous nature of the prepared glasses. FTIR spectra indicate the presence of BO3, BO4, AlO6 and a few other structural groups. Various physical properties such as density, molar volume, refractive index, rare earth ion concentration, boron-boron distance and polarizability etc. were determined using conventional methods and standard formulae. The Judd-Ofelt theory was applied on the optical absorption spectra of the glasses to evaluate the three phenomenological intensity parameters Ω2, Ω4 and Ω6. The value of Ω2 was found to be highest for glass with 1 mol% Sm2O3 and attributed to the asymmetry of the ligand field at the rare earth ion site and the rare earth oxygen (Sm-O) covalency. The calculated intensity parameters and fluorescence spectra were further used to predict the radiative transition probability (A), radiative lifetime (τR), branching ratio (βR), peak wavelength (λp), effective line widths (Δλeff) and stimulated emission cross-section (σ) for the characteristic 4G5/2 → 6H5/2, 6H7/2 and 6H9/2 transitions of the Sm3+ ion. Concentration quenching was observed for 2 mol% concentration of Sm2O3 and ascribed to energy transfer through various cross-relaxation channels between Sm3+ ions. Reasonably high values of branching ratios and stimulated emission cross-section for the prepared glasses points towards their utility in the development of visible lasers emitting in the reddish-orange spectral region. However, the glass with 1 mol% Sm2O3 was found to show better radiative properties.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4247403066</t>
+          <t>https://openalex.org/W2978505812</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/apm.12041</t>
+          <t>https://doi.org/10.7232/iems.2019.18.3.563</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Kim et al. (2012)</t>
+          <t>Semin et al. (2019)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mutational analysis of &lt;i&gt;SATB1&lt;/i&gt; gene in hepatocellular carcinomas</t>
+          <t>Investigating the Competitiveness of the Russian Oilfield Services Market</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>To the Editor To the Editor The Special AT-rich Sequence-Binding protein 1 (SATB1) is a cell-type-specific organizer of the genome 1. SATB1 regulates gene expression in thymocytes and pre B-cells by binding to matrix attachment region (MAR) of DNA 2. MAR is a specific DNA sequence that binds to nuclear matrix in vitro and these sequences have been posited to form the base of chromosomal loops 3. It plays an important role in the organization of higher-order chromatin structure 4. SATB1 as a MAR-binding protein regulates the genes by folding chromatin into loop domain 5. Recent studies have shown that SATB1 promotes tumor growth and metastasis through chromatin gene recombination in breast cancer 6. Furthermore, SATB1 is not only overexpressed in a large number of human cancers, but is also an excellent prognostic marker in some cancers 7-10. All of these findings strongly imply that SATB1 is a possible candidate oncogene that it may contribute to carcinogenesis. Hepatocellular carcinoma (HCC) is one of the most common cancers in the world with the highest incidence in Southeast Asia and Africa. In Korea, it accounts for an estimated 12.2% of all malignancies, with 16.4% in the male population and 6.5% in the female population 11. The pathogenesis of HCC has been studied extensively, and molecular changes during malignant transformation have been identified. Hepatocarcinogenesis is considered as a multistep process originating from hepatic stem cells or mature hepatocytes 12. Genetic and epigenetic alterations leads to an activation of oncogenes and inhibition of tumor suppressor genes accompanied by an escalation of genetic instability and the disruption of signaling pathways related to the main promoters of hepatocarcinogenesis, namely cell proliferation and angiogenesis 13. Until now, mutation of the SATB1 gene has not been described in HCC. To investigate whether or not genetic alterations of SATB1 are involved in hepatocellular carcinogenesis, we searched for somatic mutation of the SATB1 gene in HCC. Hepatocellular carcinoma samples and their corresponding non-cancerous liver tissues of 38 patients were evaluated. This study was approved by the Institutional Review Boards at the Ulsan University Hospital. Frozen tissue samples were ground to a very fine powder in liquid nitrogen. Genomic DNA was prepared using a procedure based on a protocol described previously 14. Genomic DNA samples from cancer cells and corresponding non-cancerous liver tissues were amplified with 15 sets of primers covering the entire coding region (10 exons) of the SATB1 gene (Table 1). Numbering of DNA of the SATB1 was done in respect to the ATG start codon according to the genomic sequence of Genbank accession no. NM_002971. All PCR products in exons 2–11 of the SATB1 gene were screened by single strand conformation polymorphism (SSCP) analysis (Mutation Detection Enhancement; FMC BioProducts, Rockland, ME, USA) with 10% glycerol and sequencing analysis. We repeated the experiments three times to ensure the specificity of the results, and found that the data were consistent. In this study, we found one (2.6%) mutation in 38 HCC cases. The mutation was missense mutation: a AGT to AAT transition at codon 354 (S354N). S354N was found in exon 7A located within the MAR domain of the SATB1 gene. It has been reported that SATB1 recruits histone deacetylase complex to the MAR site inside the interleukin-2 receptor α gene 5. In addition, SATB1 regulates the expression of fetal globin genes by binding to MAR in the β-globin cluster 15. Thus, it is likely that the SATB1 mutation identified in cancer cells may contribute to the development of HCC by defect of protein-protein interaction. There was no mutation in corresponding normal DNAs of these tissues, indicating that the mutation detected in the cancer cells had arisen somatically. SSCP gels of these cases with mutation showed aberrantly migrating mutant bands with remaining wild-type bands, suggesting hemizygous mutations (Fig. 1). Thus, these results suggest that the mutation of the SATB1 gene maybe a rare event in the development of HCC in Korean population. Recent study revealed that SATB1 plays an important role in the development and progression of liver cancer through increase of cell cycle progression and defect in apoptosis 16. As SATB1 promotes tumor growth and metastasis in liver cancer, we presumed that mutation of SATB1 gene might affect not only cell cycle progression but also apoptosis pathway in liver cancer. Functional analysis of the mutation identified in this study will broaden our understanding of the pathogenesis of HCCs. This work was supported by Priority Research Center Program through the National Research Foundation of Korea (NRF) funded by the Ministry of Education, Science and Technology (2012-0717).</t>
+          <t>Amidst the worldwide transformation of energy markets, competition in the global oil services sector has intensified, exposing the Russian oilfield services market to many challenges and risks. This study determines the ranking of the Russian oil services market at the global level. We employ expert assessments to identify relevant factors and indicators for evaluating competitive advantages in the oilfield industry. Using additive design and Saaty’s hierarchy analysis method, we determine the hierarchical structure of the factors influencing the development of oil services on the overall level of competitiveness of the oil services market. Using the integral analysis method, we develop a universal model for assessing competitiveness in the oilfield industry. Application of the model reveals that Russia ranked eighth among its main global competitors in 2017, and ranked ninth in terms of development growth rates for the period from 2007 to 2017. Practical implementation of the proposed measures can help monitor and address the major detrimental factors (i.e., decline in investments, high taxation, primitive technology, and high proportion of foreign service providers) affecting the development of Russia’s oilfield services market, the elimination of which may raise Russia’s status as an energy leader.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3118058104</t>
+          <t>https://openalex.org/W2547722434</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1115/1.4035155</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Adeyanju et al. (2019)</t>
+          <t>Radhika &amp; Raghu (2017)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Family Care Givers Educational Needs in the Care of the Home Dwelling Aged in Ikare-Akoko Community of Ondo State, Nigeria</t>
+          <t>Investigation on Mechanical Properties and Analysis of Dry Sliding Wear Behavior of Al LM13/AlN Metal Matrix Composite Based on Taguchi's Technique</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Globally, the term family or informal caregiver refers to an unpaid family member, friend, or neighbour who provides care for ill or disabled aged who cannot do for themselves a variety of fundamental tasks due to loss of independence. The purpose of the study was to explore family caregivers' educational needs in the care of aged in Ikare-Akoko Ondo State, Nigeria. A mixed method research design was adopted and a multistage sampling methods were used to select fifty (50) participants for the quantitative descriptive phase and ten (10) participants for the qualitative explorative phase respectively . An observational check list was used to obtain data in the descriptive quantitative phase while an interview guide was used to guide the interview that helped to elicit qualitative data. The instruments were validated and reliability tested. Data were analysed with the aid of International Business Machine SPSS version 23. Descriptive statistics was done to generate frequencies and percentages of responses from the quantitative data while interview excerpts were subjected to content analysis. Major findings of the study showed that family caregivers' practical caregiving need is modest. They appreciably performed procedures on medication care, grooming, pain assessment, food preparation and moving patients. However, caregivers demonstrated inadequate skill in performing procedures on emergency resuscitation. The study also revealed that family caregivers perceived caregiving as merely assisting care recipients with ADL and administering medications. they were found to engage in risky practices which can be detrimental to the health of their older relatives, as well as to their own health. More so, family caregivers possess inadequate information about the illness and treatment of care of the aged. They also lack support and have deficient knowledge on where to get external support. Thus there is need for training on care of older relatives at home and how to access help and support from health and social care professionals. In this light, a health education program for family caregivers of aged in Ikare-Akoko could be based on the Melei's transition theory and should include content such as strategies to care for the aged transition from one life stage to another and to be adequately adapted to new roles among others.</t>
+          <t>LM13/AlN (10 wt. %) metal matrix composites (MMC) and unreinforced aluminum alloy were produced under stir casting route. Microstructural characteristics were examined on the developed composite using optical microscope. The hardness and tensile test were carried out on both unreinforced aluminum alloy and composite using Vickers hardness tester and universal testing machine (UTM), respectively. Dry sliding wear behavior of the composite and unreinforced aluminum alloy was evaluated using pin-on-disk tribometer based on the design of experiments approach. Experimental parameters such as applied load (10, 20, and 30 N), velocity (1, 2, and 3 m/s), and sliding distance (500, 1000, and 1500 m) were varied for three levels. Signal-to-noise (S/N) ratio analysis, analysis of variance, and regression analysis were also performed. The characterization results showed that reinforcement particles were uniformly distributed in the composite. The hardness and tensile test revealed greater improvement of property in composite compared to that of unreinforced alloy. Wear plot showed that wear was increased with increase in load and decreased with increase in velocity and sliding distance. S/N ratio analysis and analysis of variance (ANOVA) indicated that load has greater significance over the wear rate followed by velocity and sliding distance. Regression analysis revealed greater adequacy with the constructed model in predicting the wear behavior of composite and unreinforced aluminum alloy. Scanning electron microscopy (SEM) analysis is evident that the transition of wear from mild to severe occurred on increase of the load in the composite.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2749959281</t>
+          <t>https://openalex.org/W4398180468</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.optmat.2017.08.015</t>
+          <t>https://doi.org/10.55612/s-5002-060-001</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mohan et al. (2017)</t>
+          <t>Banerjee &amp; Petersen (2024)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Structural and luminescence properties of samarium doped lead alumino borate glasses</t>
+          <t>Key elements, processes and research gaps in city learning as an innovation ecosystem: A scoping review.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>The study reports the effect of samarium concentration on the physical, structural and spectroscopic characteristics of samarium doped lead alumino borate glasses having composition 20PbO-(10-x)Al2O3-70B2O3-xSm2O3; x = 0.1, 0.5, 1.0 and 2.0 mol %. The glasses were fabricated by conventional melt-quenching technique and then characterized by XRD, FTIR, optical absorption and fluorescence spectra. X-ray diffraction studies confirmed the amorphous nature of the prepared glasses. FTIR spectra indicate the presence of BO3, BO4, AlO6 and a few other structural groups. Various physical properties such as density, molar volume, refractive index, rare earth ion concentration, boron-boron distance and polarizability etc. were determined using conventional methods and standard formulae. The Judd-Ofelt theory was applied on the optical absorption spectra of the glasses to evaluate the three phenomenological intensity parameters Ω2, Ω4 and Ω6. The value of Ω2 was found to be highest for glass with 1 mol% Sm2O3 and attributed to the asymmetry of the ligand field at the rare earth ion site and the rare earth oxygen (Sm-O) covalency. The calculated intensity parameters and fluorescence spectra were further used to predict the radiative transition probability (A), radiative lifetime (τR), branching ratio (βR), peak wavelength (λp), effective line widths (Δλeff) and stimulated emission cross-section (σ) for the characteristic 4G5/2 → 6H5/2, 6H7/2 and 6H9/2 transitions of the Sm3+ ion. Concentration quenching was observed for 2 mol% concentration of Sm2O3 and ascribed to energy transfer through various cross-relaxation channels between Sm3+ ions. Reasonably high values of branching ratios and stimulated emission cross-section for the prepared glasses points towards their utility in the development of visible lasers emitting in the reddish-orange spectral region. However, the glass with 1 mol% Sm2O3 was found to show better radiative properties.</t>
+          <t>Learning in cities with the support of Information and Communication Technologies has been a point of interest for researchers. The main objective of this study is to understand city learning, or learning in cities, where cities are considered learning and innovation ecosystems. This study explores how learning in cities is supported by existing frameworks for city transformations and identifies the key elements and processes for city learning as an innovation ecosystem. The study defines city learning as a process involving citizens, institutions, and communities and considers the city to be a system that can learn and innovate. The study conducts a scoping review of relevant literature and a qualitative analysis of the key characteristics of the frameworks, such as how they view the city, how they address learning, what interactions they focus on, and how they use Information and Communication Technology. The study identifies the main concepts, the key elements and processes in city learning and the current research gaps. The key elements and interactions are then described with reference to a conceptual model of the city ecosystem, and the elements are mapped with required processes to drive city learning. The findings from this study can help ascertain how a city can learn as an innovation ecosystem and can be beneficial for achieving twin transitions of the city and lifelong learning</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2386500431</t>
+          <t>https://openalex.org/W3144193599</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48550/arxiv.2104.01342</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Li (2010)</t>
+          <t>Xue et al. (2021)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A Comparative Study on Three Fusion Methods of SPOT-5 Data Analysis——A Case Study in Liujiang Town,Hongya County,Sichuan Province</t>
+          <t>Ultrasonic monitoring of stress and cracks of the 1/3 scale mock-up of nuclear reactor concrete containment structure</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>With the SPOT-5 and multi-spectral images of Liujiang Hongya county town as the materials,using the fusion method of PCA,Brovey and IHS transformation,this study carried out a fusion treatment of the SPOT-5 and multi-spectral images,which lay the foundation for project monitoring of conversion of cropland to forest.Then subjective and objective evaluation was given to the research results.The evaluation results showed that the spatial and spectral quality of the images obtained from the Brovey transforming fusion method was the best,appropriate for remote sensing monitor of hilly areas.</t>
+          <t>To evaluate the stress level and damage of a reinforced concrete containment wall and its reaction to pressure variations, we implemented successive ultrasonic experiments on the exterior surface of the containment wall in the gusset area for three consecutive years. During each experiment, the pressure inside the containment wall increased gradually from 0 MPa to 0.43 MPa and then decreased back to 0 Mpa.From the analysis of the ultrasonic coda waves obtained in the multiple scattering regime, we performed Coda Wave Interferometry to calculate the apparent velocity changes in the structure (denoted by $dV/V_a$) and Coda Wave Decorrelation (DC) measurements to produce 3D cartographies of stress and crack distribution. From three source-receiver pairs, located at the top, middle and bottom of the experimental region, we observe that coda waves dilate, shrink and remain almost unchanged, respectively. This corresponds to the decreasing, increasing and invariant pressure inside the concrete. The comparison of three years' results demonstrates that the variation of $dV/V_a$ and DC under the same pressure test increases through the years, which indicates the progressive deterioration and aging of the concrete. From a large collection of source-receiver pairs at different times, the spatial-temporal variations of $dV/V_a$ and DC are then used to produce a map of the structural velocity and scattering changes, respectively. We observe a decreasing velocity on the top part and an increasing in the middle one, which is in line with the $dV/V_a$ analysis. The reconstructed scattering changes (or structural changes) highlight the active region during the inflation-deflation procedure, corresponding to the opening and closing (and sometimes the development) of cracks. The larger magnitude in 2019 than in 2017 indicates the increasing damage in the concrete.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2978505812</t>
+          <t>https://openalex.org/W3142894125</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7232/iems.2019.18.3.563</t>
+          <t>https://doi.org/10.48550/arxiv.2104.00755</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Semin et al. (2019)</t>
+          <t>Martins (2021)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Investigating the Competitiveness of the Russian Oilfield Services Market</t>
+          <t>Reconciling the Discrete-Continuous Divide: Towards a Mathematical Theory of Sparse Communication</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Amidst the worldwide transformation of energy markets, competition in the global oil services sector has intensified, exposing the Russian oilfield services market to many challenges and risks. This study determines the ranking of the Russian oil services market at the global level. We employ expert assessments to identify relevant factors and indicators for evaluating competitive advantages in the oilfield industry. Using additive design and Saaty’s hierarchy analysis method, we determine the hierarchical structure of the factors influencing the development of oil services on the overall level of competitiveness of the oil services market. Using the integral analysis method, we develop a universal model for assessing competitiveness in the oilfield industry. Application of the model reveals that Russia ranked eighth among its main global competitors in 2017, and ranked ninth in terms of development growth rates for the period from 2007 to 2017. Practical implementation of the proposed measures can help monitor and address the major detrimental factors (i.e., decline in investments, high taxation, primitive technology, and high proportion of foreign service providers) affecting the development of Russia’s oilfield services market, the elimination of which may raise Russia’s status as an energy leader.</t>
+          <t>Neural networks and other machine learning models compute continuous representations, while humans communicate with discrete symbols. Reconciling these two forms of communication is desirable to generate human-readable interpretations or to learn discrete latent variable models, while maintaining end-to-end differentiability. Some existing approaches (such as the Gumbel-softmax transformation) build continuous relaxations that are discrete approximations in the zero-temperature limit, while others (such as sparsemax transformations and the hard concrete distribution) produce discrete/continuous hybrids. In this paper, we build rigorous theoretical foundations for these hybrids. Our starting point is a new "direct sum" base measure defined on the face lattice of the probability simplex. From this measure, we introduce a new entropy function that includes the discrete and differential entropies as particular cases, and has an interpretation in terms of code optimality, as well as two other information-theoretic counterparts that generalize the mutual information and Kullback-Leibler divergences. Finally, we introduce "mixed languages" as strings of hybrid symbols and a new mixed weighted finite state automaton that recognizes a class of regular mixed languages, generalizing closure properties of regular languages.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3037811040</t>
+          <t>https://openalex.org/W4200540600</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1021/acs.inorgchem.0c00834</t>
+          <t>https://doi.org/10.1387/ijdb.210180gk</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ibáñez et al. (2020)</t>
+          <t>Vardas et al. (2022)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Structural and Lattice-Dynamical Properties of Tb&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;3&lt;/sub&gt; under Compression: A Comparative Study with Rare Earth and Related Sesquioxides</t>
+          <t>Epithelial-to-mesenchymal transition of tumor cells: cancer progression and metastasis</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>We report a joint experimental and theoretical investigation of the high pressure structural and vibrational properties of terbium sesquioxide (Tb2O3). Powder X-ray diffraction and Raman scattering measurements show that cubic Ia3̅ (C-type) Tb2O3 undergoes two phase transitions up to 25 GPa. We observe a first irreversible reconstructive transition to the monoclinic C2/m (B-type) phase at ∼7 GPa and a subsequent reversible displacive transition from the monoclinic to the trigonal P3̅m1 (A-type) phase at ∼12 GPa. Thus, Tb2O3 is found to follow the well-known C → B → A phase transition sequence found in other cubic rare earth sesquioxides with cations of larger atomic mass than Tb. Our ab initio theoretical calculations predict phase transition pressures and bulk moduli for the three phases in rather good agreement with experimental results. Moreover, Raman-active modes of the three phases have been monitored as a function of pressure, while lattice-dynamics calculations have allowed us to confirm the assignment of the experimental phonon modes in the C- and A-type phases as well as to make a tentative assignment of the symmetry of most vibrational modes in the B-type phase. Finally, we extract the bulk moduli and the Raman-active mode frequencies together with their pressure coefficients for the three phases of Tb2O3. These results are thoroughly compared and discussed in relation to those reported for rare earth and other related sesquioxides as well as with new calculations for selected sesquioxides. It is concluded that the evolution of the volume and bulk modulus of all the three phases of these technologically relevant compounds exhibit a nearly linear trend with respect to the third power of the ionic radii of the cations and that the values of the bulk moduli for the three phases depend on the filling of the f orbitals.</t>
+          <t>Detection and characterization of circulating tumor cells (CTCs) with an epithelial-to-mesenchymal transition (EMT) phenotype is very important, as it can contribute to the identification of high-risk for relapse and death patients. However, most methods underestimate CTC numbers, owing to their dependence on epithelial markers. In the current study, we evaluated the EMT phenotype in CTCs isolated from breast cancer (BC) patients, using the CellSearch system. Spiking experiments for the evaluation of the specificity and sensitivity of our method were performed using HeLa cells. Sixty-five breast cancer (BC) patients (47 early and 18 metastatic) were enrolled in the study. Vimentin is a mesenchymal marker that indicates tumoral cells acquiring invasive and malignant properties. We studied vimentin (VIM) expression using the extra channel of the CellSearch system and an anti-vimentin antibody conjugated with FITC. In our present results, we reported the percentage of circulating tumor cells that expressed vimentin in early and in metastatic breast cancer patients. Interestingly, the incidence of cells with a CK-VIM+CD45- phenotype was detected in both settings. These cells were detected in 31.4% of CK-negative (11/35) and 82.3% of CK-positive (10/12) early BC patients. The corresponding numbers for metastatic disease were 15.4% (2/13) and 100% (5/5), respectively. Our results suggest that in CTC-negative patients, potentially undetectable tumor cells could be identified using the FDA-approved CellSearch system, based on the (CK-VIM+CD45-)-phenotype, offering additional information regarding metastatic dissemination in cancer patients. Further experiments evaluating more biomarkers are necessary to elucidate the mechanisms that regulate tumorigenesis and metastasis.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3144193599</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arxiv.2104.01342</t>
+          <t>https://openalex.org/W1563780512</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Xue et al. (2021)</t>
+          <t>Wu &amp; Aberer (2004)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ultrasonic monitoring of stress and cracks of the 1/3 scale mock-up of nuclear reactor concrete containment structure</t>
+          <t>Using a Layered Markov Model for Decentralized Web Ranking</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>To evaluate the stress level and damage of a reinforced concrete containment wall and its reaction to pressure variations, we implemented successive ultrasonic experiments on the exterior surface of the containment wall in the gusset area for three consecutive years. During each experiment, the pressure inside the containment wall increased gradually from 0 MPa to 0.43 MPa and then decreased back to 0 Mpa.From the analysis of the ultrasonic coda waves obtained in the multiple scattering regime, we performed Coda Wave Interferometry to calculate the apparent velocity changes in the structure (denoted by $dV/V_a$) and Coda Wave Decorrelation (DC) measurements to produce 3D cartographies of stress and crack distribution. From three source-receiver pairs, located at the top, middle and bottom of the experimental region, we observe that coda waves dilate, shrink and remain almost unchanged, respectively. This corresponds to the decreasing, increasing and invariant pressure inside the concrete. The comparison of three years' results demonstrates that the variation of $dV/V_a$ and DC under the same pressure test increases through the years, which indicates the progressive deterioration and aging of the concrete. From a large collection of source-receiver pairs at different times, the spatial-temporal variations of $dV/V_a$ and DC are then used to produce a map of the structural velocity and scattering changes, respectively. We observe a decreasing velocity on the top part and an increasing in the middle one, which is in line with the $dV/V_a$ analysis. The reconstructed scattering changes (or structural changes) highlight the active region during the inflation-deflation procedure, corresponding to the opening and closing (and sometimes the development) of cracks. The larger magnitude in 2019 than in 2017 indicates the increasing damage in the concrete.</t>
+          <t>The link structure of the Web graph is used in algorithms such as Kleinberg’s HITS and Google’s PageRank to assign authoritative weights to Web pages and thus rank them. In HITS, a solid theoretical model is lacking and the algorithm often leads to non-unique or non-intuitive rankings where zero weights may inappropriately be assigned to parts of a network. In PageRank, a model of random walks is proposed such that the theory about the stationary state of a Markov process can be applied to assure convergence to a unique ranking. Both algorithms require a centralized computation of the ranking if used to rank the complete Web graph. In this paper, we propose a new approach based on a Layered Markov Model to distinguish transitions among Web sites and Web documents. Based on this model, we propose two difierent approaches for computation of ranking of Web documents, a centralized one and a decentralized one. Both produce a well-deflned ranking for a given Web graph. We then formally prove that the two approaches are equivalent. This provides a theoretical foundation for decomposing link-based rank computation and makes the computation for a Web-scale graph feasible in a decentralized fashion, such as required for Web search engines having a peer-to-peer architecture. Furthermore, personalized rankings can be produced by adapting the computation at both the local layer and the global layer. Our empirical results show that the ranking generated by our model is qualitatively comparable to or even better than the ranking produced by PageRank.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3142894125</t>
+          <t>https://openalex.org/W4385811424</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.48550/arxiv.2104.00755</t>
+          <t>https://doi.org/10.36227/techrxiv.23899788</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Martins (2021)</t>
+          <t>Ogbaga &amp; Christiana (2023)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Reconciling the Discrete-Continuous Divide: Towards a Mathematical Theory of Sparse Communication</t>
+          <t>Contextualizing Climate Change Solutions Through the Deployment of Cooperative Artificial Intelligence (AI) Agents</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Neural networks and other machine learning models compute continuous representations, while humans communicate with discrete symbols. Reconciling these two forms of communication is desirable to generate human-readable interpretations or to learn discrete latent variable models, while maintaining end-to-end differentiability. Some existing approaches (such as the Gumbel-softmax transformation) build continuous relaxations that are discrete approximations in the zero-temperature limit, while others (such as sparsemax transformations and the hard concrete distribution) produce discrete/continuous hybrids. In this paper, we build rigorous theoretical foundations for these hybrids. Our starting point is a new "direct sum" base measure defined on the face lattice of the probability simplex. From this measure, we introduce a new entropy function that includes the discrete and differential entropies as particular cases, and has an interpretation in terms of code optimality, as well as two other information-theoretic counterparts that generalize the mutual information and Kullback-Leibler divergences. Finally, we introduce "mixed languages" as strings of hybrid symbols and a new mixed weighted finite state automaton that recognizes a class of regular mixed languages, generalizing closure properties of regular languages.</t>
+          <t>&amp;lt;p&amp;gt;Climate change presents one of the most significant challenges facing humanity in the 21st century. Mitigating its impacts and developing sustainable solutions requires a multidisciplinary approach that leverages advanced technologies. This paper proposed the deployment of cooperative Artificial Intelligence (AI) agents as a viable strategy for contextualizing solutions to climate change. Firstly, it explored the use of AI agents in analyzing climate data, predicting future trends, and informing decision-making processes. This data-driven approach can help policymakers, scientists, and stakeholders to better understand the complex dynamics of climate change and design effective mitigation and adaptation strategies. This research also addressed ethical considerations associated with the deployment of AI agents in climate change contexts. It emphasized the importance of transparent and accountable AI systems, ensuring that their decisions align with human values and priorities. Additionally, it discussed the need for interdisciplinary collaboration to guide the development and deployment of AI agents, fostering inclusivity, fairness, and equitable access to AI technologies. Finally, this paper highlighted the potential of cooperative AI agents as a powerful tool for contextualizing solutions to climate change. By harnessing their analytical capabilities, adaptability, and collaboration potential, these agents can facilitate evidence-based decision-making, optimize resource management, and support the transition to a sustainable future. However, it also emphasizes the importance of addressing ethical concerns and fostering responsible AI development to ensure that AI agents serve as enablers rather than substitutes for human judgment and action. &amp;lt;/p&amp;gt;</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2556968239</t>
+          <t>https://openalex.org/W3124409624</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5751/es-01595-110118</t>
+          <t>https://doi.org/10.13189/ujer.2020.082642</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Olsson et al. (2006)</t>
+          <t>Hong &amp; Abdullah (2020)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Shooting the Rapids: Navigating Transitions to Adaptive Governance of Social-Ecological Systems</t>
+          <t>Exploring the Process of Occupational Adaptation among Novice Lecturers: A Preliminary Case Study</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>The case studies of Kristianstads Vattenrike, Sweden; the Northern Highlands Lake District and the Everglades in the USA; the Mae Nam Ping Basin, Thailand; and the Goulburn-Broken Catchment, Australia, were compared to assess the outcome of different actions for transforming social-ecological systems (SESs).The transformations consisted of two phases, a preparation phase and a transition phase, linked by a window of opportunity.Key leaders and shadow networks can prepare a system for change by exploring alternative system configurations and developing strategies for choosing from among possible futures.Key leaders can recognize and use or create windows of opportunity and navigate transitions toward adaptive governance.Leadership functions include the ability to span scales of governance, orchestrate networks, integrate and communicate understanding, and reconcile different problem domains.Successful transformations rely on epistemic and shadow networks to provide novel ideas and ways of governing SESs.We conclude by listing some rules of thumb" that can help build leadership and networks for successful transformations toward adaptive governance of social-ecological systems.</t>
+          <t>Novice lecturers or also known as neophyte lecturers are an important part of higher education institutions, and the early stages of the career among novice lecturers involve the process of adapting to the new role of educators.They need to overcome different challenges and participate in occupational adaptation.The purpose of this study is to explore the occupational adaptation process among novice lecturers in order to promote their career development.The goal is also to provide useful references for the university management to support novice lecturers in making a successful start in order to grow into professional educators.Using qualitative research method, this study engages case study approach to investigate occupational adaptation process through in-depth interviews of two novice lecturers in a public university in China.By analyzing their emotional and behavioral changes in the process of occupational adaptation, findings indicate that the occupational adaptation process of novice lecturers can be subdivided into three stages; namely 1) initial period, 2) transition period, and 3) adaptation period.The transition and division between each period reveal marked changes mainly in psychological, emotional, and behavioral adjustments.Helping novice lecturers understand the characteristics of the three periods may assist them to adapt to their jobs as soon as possible and accomplish greater success in their careers.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1563780512</t>
+          <t>https://openalex.org/W2992242342</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Wu &amp; Aberer (2004)</t>
+          <t>Jones et al. (2008)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Using a Layered Markov Model for Decentralized Web Ranking</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>The link structure of the Web graph is used in algorithms such as Kleinberg’s HITS and Google’s PageRank to assign authoritative weights to Web pages and thus rank them. In HITS, a solid theoretical model is lacking and the algorithm often leads to non-unique or non-intuitive rankings where zero weights may inappropriately be assigned to parts of a network. In PageRank, a model of random walks is proposed such that the theory about the stationary state of a Markov process can be applied to assure convergence to a unique ranking. Both algorithms require a centralized computation of the ranking if used to rank the complete Web graph. In this paper, we propose a new approach based on a Layered Markov Model to distinguish transitions among Web sites and Web documents. Based on this model, we propose two difierent approaches for computation of ranking of Web documents, a centralized one and a decentralized one. Both produce a well-deflned ranking for a given Web graph. We then formally prove that the two approaches are equivalent. This provides a theoretical foundation for decomposing link-based rank computation and makes the computation for a Web-scale graph feasible in a decentralized fashion, such as required for Web search engines having a peer-to-peer architecture. Furthermore, personalized rankings can be produced by adapting the computation at both the local layer and the global layer. Our empirical results show that the ranking generated by our model is qualitatively comparable to or even better than the ranking produced by PageRank.</t>
+          <t>Making the Transition to Collaborative Service-Learning.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W748750801</t>
+          <t>https://openalex.org/W4317802956</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1039/d2sm01615j</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bonnett (1989)</t>
+          <t>Wang et al. (2023)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Applications of liquid crystals in aerodynamic testing</t>
+          <t>Formation kinetics and physicochemical properties of mesoscopic Alpha-Synuclein assemblies modulated by sodium chloride and a distinct pulsed electric field</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>﻿ This thesis investigates the applications of liquid crystals in three areas of aerodynamic testing, namely temperature, shear stress and pressure measurement over surfaces. The use of the selective reflection colours from encapsulated chiral nematic materials to map surface temperatures is assessed. This method is very successful in a wide range of applications for determining heat transfer rates, but has limitations where high heat transfer rates are present, due to the thermal response time of the material structure, and the effects of temperature gradients. The thermal time constant is determined as a function of material viscosity. It is typically 10ms for a chiral nematic material at room temperature. The effect of a temperature gradient on the selective reflection is studied in terms of the pitch gradient produced in the material structure. Two improved methods are then proposed. The first makes use of the cholesteric to isotropic transition to indicate an isotherm on a heated surface, while the second uses changes in the birefringence colours produced by an aligned nematic layer applied to a surface and viewed between crossed poiarisers. Changes in the selective reflection colours from cholesteric liquid crystals can be used to assess surface shear stress levels. This method is assessed and determined to be too problematical for accurate measurements. A new method is proposed, based on the shear induced texture change from the focal-conic to the Grandjean texture in the cholesteric phase. This method may be used to quantify surface shear stress levels as well as to provide excellent flow visualisation once flow alignment has occurred. Tests have been conducted on the pressure sensitivity of chiral nematic liquid crystal materials. The results indicate that the change in transition temperature with pressure is of the order of 40°/kbar. which may not be sensitive enough for wind tunnel purposes.</t>
+          <t>Alpha-Synuclein (ASN), a presynaptic protein, has been widely reported to form amyloid-rich hydrogel clusters through liquid-liquid phase separation (LLPS) and liquid-to-solid transition. However, in-depth investigations about the parameters that influence the assembling kinetics, structures, and physicochemical properties of intermediate ASN assemblies are still missing. Therefore, we monitored for the first time the assembling and ordering kinetics of ASN by polarized/depolarized light scattering (DLS/DDLS) under the effect of ionic strength and a pulsed electric field (EF), followed by characterizing the resultant ASN assemblies applying thermostability assays, fluorescence/autofluorescence assays, and TEM. The underlying molecular mechanism was discussed based on experimental evidence. Results showed that in the presence of 150-250 mM NaCl, monomeric ASN is highly soluble in a temperature range of 20-70 °C and could form dissoluble liquid dense clusters via LLPS in crowded environments, while the ionic strength of 50 mM NaCl could trigger conformational changes and attractive diffusion interactions of ASN monomers towards the formation of mesoscopic assemblies with ordered internal structures and high thermostabilities. We discovered that pulsed EFs and ionic strength can modulate effectively the thermostability and autofluorescence effect of mesoscopic ASN assemblies by tuning the molecular interaction and arrangement. Remarkably, a specie of thermostable ASN assemblies showing a maximum autofluorescence emission at approx. 700 nm was synthesized applying 250 mM NaCl and the distinct pulsed EF, which could be attributed to the increase of β-sheet structures and hydrogen-bond networks within ASN assemblies. In summary, the presented data provide novel insights for modulating the growth kinetics, structures, and physicochemical properties of bio-macromolecular mesoscopic assemblies.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2966245669</t>
+          <t>https://openalex.org/W2883482250</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Laurent et al. (2019)</t>
+          <t>Casey (2016)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SURFER - What is the burden of raw materials requirements to achieve the French energy transition?</t>
+          <t>What’s it like to come to college: Exploring the experience of female students in University.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>In a time of climate emergency, European and worldwide agreements have recently set ambitious targets for reducing our greenhouse gases emissions (GHG), leading the states to engage in an energy transition, that is to say the shift from an energy mix relying on fossil and nuclear fuels to a mix mostly relying on renewables. Such shift requires to massively and quickly build a large number of renewable energy production facilities (e.g. wind turbines, solar panels…), but also to adapt the existing energy distribution system (e.g. with energy storage options) and to modify the final use equipment (e.g. building heating systems, electric vehicles…). Th is shift's consequences on raw demand will not be neutral regarding base materials such as steel, concrete, copper or aluminium, and minor metals (lithium, cobalt, rare earth elements…), raising a polemic question: will the energy transition replace the reliance on fossil fuels by a reliance on metals? The SURFER project aims to evaluate the burden of raw materials requirements to achieve the French energy transition over the period 2015-2050. First, a database gathering the requirements of the different energy technologies has been developed and analysed in order to establish a relevant material intensity for each technology and each metal. The annual materials requirements are then calculated based on national energy transition scenarios (50, 80 and 90% of renewable energy plus a status quo scenario). As well, the annual waste from end-of-life technologies is calculated. Among the challenges that this evaluation raises, one is: how to take into account the dynamic aspects of raw consumption and due to the dismantling of energetic infrastructures? It is here proposed to describe the material-specific model used in SURFER, that both accounts for the content of input materials and for the recycling rate of output materials. The goal is to compare, over time, the demand of the energy transition scenarios to the recycled materials available when to old energetic facilities reach end-of-life. In the next task of the project, the burden borne by the energy transition will be weighed against the French consumption regarding all manufactured goods ; finally, the last task will discuss the criticity of these materials and metals. Theme : Climate Change, Energy transition and Materials</t>
+          <t>This thesis set out to examine the experience of female students in university and how their experience impacts on their understanding of their concept of identity. This qualitative research study explores, through in-depth interviews, the experience of five current undergraduate female students in Maynooth University. The themes of the interviews included; transitioning to university and role of family and peer support._x000D_
+Erikson’s life span personality development theory provides the foundation in understanding these students experience of university. Marcia’s four Identity statuses are used in interpreting the student’s reflections on their university life. The data from the interviews highlights the importance of friendships and peer relationships. This significant factor is present in various identity statuses and circumstances._x000D_
+My aim for this study is to highlight the importance of the non-academic university experience. I hope this enquiry will raise a deeper awareness of the personal development and life transitions that students experience during their university life.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1996011871</t>
+          <t>https://openalex.org/W2790868704</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2514/3.7184</t>
+          <t>https://doi.org/10.1016/j.cptl.2018.02.007</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Andrus (1976)</t>
+          <t>Chamberlin et al. (2018)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Elliptic integral solutions to a class of space flight optimization problems</t>
+          <t>Implementation and assessment of a pulmonary diseases elective course for third-year pharmacy students</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>This paper is initially concerned with the minimum-time, exoatmospheric flight of a rocket with constant thrust acceleration magnitude, as in the cases of nuclear and solar electric propulsion. Gravitational acceleration is assumed to be a constant scalar multiple of the radius vector, plus a correction term which is a given function of time. The solution to the state equations is obtained in terms of elliptic integrals. A method is presented for the solution of the two-point boundary-condition problem associated with orbital transfer. At most, the latter method requires iteration upon final time, angle of injection, and two other parameters which are bounded. An example problem is provided which involves a rocket with very low thrust and a spiraling trajectory of many revolutions, but an altitude change of only several hundred miles above the earth. Finally, the original elliptic integral solution is extended to a larger class of low and intermediate thrust problems with constant thrust magnitude, mass decreasing with time, and an inverse square gravitational force.</t>
+          <t>Given the significant public health burden of pulmonary diseases and the vital role pharmacists play in management across the continuum of care (and within transitions in care), an elective course for pharmacy students focused on pulmonary diseases was developed.A month-long elective course for third-year pharmacy students consisting of 12 class sessions delivered in two-hour periods three times per week, was implemented. The course was delivered using the team-based learning (TBL) format in addition to hands-on skills and simulation sessions. Knowledge and skills assessments were administered before and after completion of the course. Student perceptions of self-confidence and ability regarding management of pulmonary diseases pre- and post-course and their perceptions of the course and TBL as a teaching strategy for this course were evaluated upon course completion.Nine students completed the course. Mean scores on knowledge and skills assessment significantly improved after completion of the course (54.5% pre-course vs. 79.3% post-course; p &lt; 0.05% and 60.3% pre-course vs. 93.2% post-course; p &lt; 0.05, respectively). Student perceptions of their ability to care for patients with pulmonary diseases significantly increased, compared to pre-assessments, in all areas taught in the course (p&lt; 0.05). Additionally, students' confidence in managing specific disease states significantly improved in all areas (p &lt; 0.05) except for spirometry (p = 0.06). Students' knowledge, skills, and confidence regarding management of common pulmonary disease states improved following this month-long elective course delivered using a combination of TBL activities and hands-on skills sessions.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2378286780</t>
+          <t>https://openalex.org/W4297819080</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.17994/it.2022.20.1.68.7</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cao &amp; Sun (2004)</t>
+          <t>Korol’kova (2022)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Design of 60 km Dispersion Compensation 8×50 GHz Fiber Grating Comb- filter</t>
+          <t>Evolution of United States’ Private Military and Security Companies: The Case of Afghanistan 2001–2021</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>A novel chirped fiber Bragg grating(CFBG) comb filter for eight-channel 50 GHz DWDM-channel separations and 60 km dispersion compensation was proposed.The index modulating function and chirp parameter distribution of the CFBG were synthesized by layer-peeling(LP) inverse scattering(IS) technique.According to the coupling coefficient calculated for the synthesized grating,reflection spectrum,group delay and group delay ripper were analyzed based on the method of transformation matrix.The results show that the CFBGs not only satisfy all requirements and could be fabricated with existing techniques.</t>
+          <t>The withdrawal of troops on 31 August 2021 which was carried out in accordance with the Agreement signed on 29 February 2020 between the U.S. government and the Taliban (an international terrorist organization banned in the Russian Federation) marked the end of the international military campaign in Afghanistan which lasted twenty years. Assessing the preliminary outcomes of nearly a quarter-century of the US military and their NATO allies’ presence in Afghanistan, U.S. President Joseph Biden announced the end of “an era of major military operations to remake other countries”. Though the consequences of the Western coalition campaign in the area remain to be evaluated and they are unlikely to turn out to be unequivocal, the Atlantic strategy aimed at rebuilding and democratization of Afghanistan proved itself as bankrupt. Our research focuses on the way the twenty-year military campaign in Afghanistan affected the development of the U.S. private military and security companies (PMSC) industry. For these purposes, we, firstly, studied and traced the transformation of the private military and security services market in the U.S., and examined the changes of approaches and mechanisms used to contract PMSCs. Secondly, we analyzed the way the U.S. authorities addressed the challenges new market evoked, focusing on the measures of legal regulation that were applied to PMSCs, and the way the working of the U.S. institutional mechanisms was transforming. The final part of the research contains conclusions on the perspectives for the development of the American PMSC industry after the withdrawal of the U.S. troops from Afghanistan. We believe that due to its duration and continuity, the Afghan operation ensured a launchpad for the PMSC industry and provided conditions for private military and security companies to acquire and master high-end experience which in turn, contributed to the development of a certain market that goes well beyond the involvement of conventional human capital. It provided solutions for the production, utilization, and maintenance of the equipment and technologies, allowing the minimization of the direct participation of specialists in hostilities. Alongside the development of the American PMSC industry itself, the research studies the investigations conducted by the U.S. authorities into the cases of abuse committed by the contractors during their participation in Afghan war. It discusses the way this practice encouraged the transformations of United States procedures and mechanisms aimed at reducing malpractice when performing contracts and launched changes in U.S. legislation. It also demonstrates the lessons learned by the U.S. from the contractual practice with regard to the regulation of PMSCs. The research reveals the strengths and weaknesses of the American policy regarding PMSCs during the whole period of the military conflict in Afghanistan and helps to evaluate the success of the U.S. efforts in monitoring contractors across Afghanistan. To conclude, we reckon that considerable contractual experience acquired in Afghanistan ensures technological and procedural progress of the U.S. PMSC industry. Given the enduring rivalry between the U.S., Russia, and China, including in the military and technological spheres, the twenty-year experience of direct participation in hostilities by U.S. PMSCs boosted its competitive advantage compared to Russia and China, whose PMSCs still lack such an experience.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2112186690</t>
+          <t>https://openalex.org/W2029720951</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1103/physrevd.62.083002</t>
+          <t>https://doi.org/10.1016/0012-8252(80)90074-4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sedrakian &amp; Dieperink (2000)</t>
+          <t>Keller (1980)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Coherent neutrino radiation in supernovae at two loops</t>
+          <t>Geosounding principles, 1. resistivity sounding measurements</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>We develop a neutrino transport theory, in terms of the real-time nonequilibrium Green's functions, which is applicable to physical conditions arbitrary far from thermal equilibrium. We compute the coherent neutrino radiation in cores of supernovae by evaluating the two-particle--two-hole $(2p\ensuremath{-}2h)$ polarization function with dressed propagators. The propagator dressing is carried out in the particle-particle channel to all orders in the interaction. We show that at two loops there are two distinct sources of coherence effects in the bremsstrahlung. One is the generically off-shell intermediate state propagation, which leads to the Landau-Pomeranchuk-Migdal type suppression of radiation. We extend previous perturbative results, obtained in the leading order in quasiparticle width, by deriving the exact nonperturbative expression. A new contribution due to off-shell final or initial baryon states is treated in the leading order in the quasiparticle width. The latter contribution corresponds to processes of higher order than second order in the virial expansion in the number of quasiparticles. At the $2p\ensuremath{-}2h$ level, the time component of the polarization tensor for the vector transitions vanishes identically in the soft neutrino approximation. Vector current thereby is conserved. The contraction of the neutral axial vector current with the tensor interaction among the baryons leads to a nonvanishing contribution to the bremsstrahlung rate. These rates are evaluated numerically for finite temperature pure neutron matter at and above the nuclear saturation density.</t>
+          <t>Scattering from large, open cavity structures is of importance in a variety of electromagnetic applications. In this paper, we propose a new well conditioned integral equation for scattering from general open cavities embedded in an infinite, perfectly conducting half-space. The integral representation permits the stable evaluation of both the electric and magnetic field, even in the low-frequency regime, using the continuity equation in a post-processing step. We establish existence and uniqueness results, and demonstrate the performance of the scheme in the cavity-of-revolution case. High-order accuracy is obtained using a Nyström discretization with generalized Gaussian quadratures.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4320516614</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1108/978-1-80382-517-520231011</t>
+          <t>https://openalex.org/W4299882893</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lehr &amp; Vaughan (2023)</t>
+          <t>Brothers (2009)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Humanistic Leadership and its Enduring Legacy in a Post-Covid-19 World</t>
+          <t>Dispensing history, art and mystery in the Medical History Museum of University of Melbourne.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>As societies worldwide continue to navigate and recover from the impacts of the Covid-19 pandemic, the world is at a unique crossroads. How can leaders in higher education institutions (HEIs) prioritize holistic human needs and maximize interpersonal and collegial human connection, while continuing to guide and grow successful learning communities both in-person and virtually? With potential costs and benefits in mind, pertinent literature is reviewed, and the limitations and silver linings presented by the ongoing pandemic are explored. Different forms of grief and loss experienced by faculty and students as well as the effects of technostress amid this time of change are also recognized. Concepts and practices introduced by prominent humanistic thought-leaders are discussed as a way to navigate the educational impacts created by the pandemic. A key finding presented is that leaders and HEIs that prioritize human connections and relationships, in concert with adopting technological advancements, are better equipped to maintain personal well-being while enhancing academic success in the long term. By fostering learning environments based on psychological safety, compassion, autonomy, and adaptability, humanistic leaders contribute to the betterment of HEIs as a whole. To this end, the enduring legacy of humanistic leadership is pivotal in this new era of global and individual humanistic transformation amid change.</t>
+          <t>The installation of an 1849 Savory &amp; Moore Pharmacy has been a popular attraction for visitors, yet under-utilised in the Museum as a means through which a deeper understanding of the making and taking of medication could be told. The opportunity to research and present these stories to a wider field of viewers in an online multimedia production is discussed here, and is set within the context of the challenges met by the Museum in terms of its relevance and sustainability within a University focused on the future as a graduate University. Under the radical reform of its curriculum, funding and students are more likely to be attracted to medical science than medical history, unless new questions are put to historical items and ways sought to draw on the curiosity and imagination of students who might gain a greater breadth of knowledge by learning through engagement with original objects.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3183546188</t>
+          <t>https://openalex.org/W2428158973</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.msea.2021.141796</t>
+          <t>https://doi.org/10.1007/978-3-319-30322-2_24</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Mandal et al. (2021)</t>
+          <t>Ağraz &amp; Purutçuoğlu (2016)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Effect of coiling temperature on impact toughness of hot rolled ultra-high-strength multiphase steel strips</t>
+          <t>Transformations of Data in Deterministic Modelling of Biological Networks</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>The tensile and Charpy impact properties of four strip samples from two different B-added low-C ultra-high-strength steel strips (Al-treated and Ti-treated), coiled at two different temperature ranges (360-380C and 450-460C), have been evaluated and correlated to the microstructural parameters, dislocation density, and the intensity of high-angle boundaries.The effects of coiling temperatures on the microstructural evolution and mechanical properties have been discussed.The volume fraction of the individual phase constituents (namely, granular bainite, upper bainite, lower bainite and tempered martensite) and their hardness, local deformation response and the strain-hardening ability, as determined from nanoindentation testing, influenced the bulk properties such as hardness, tensile properties (strength and ductility), Charpy impact properties (upper shelf energy, USE, and ductile-to-brittle transition temperature, DBTT) and strain-hardening abilities under both quasi-static and dynamic loading conditions.The dominance of granular bainite and upper bainite (75-90%) reduced the strength (670-722 MPa yield strength), improved ductility (16.7 -19.5% elongation to failure) and USE (35-42 J) in the samples coiled at the higher temperatures.In contrast, a higher fraction of tempered martensite and lower bainite (78-82%) significantly increased the strength (808-814 MPa), reduced ductility (13.0-14.5%)and USE (19-29 J) in the lower temperature coiled samples.The DBTT showed a complex trend with the microstructural parameters.It depended on the USE level, as well as on the 'effective grain size' of the matrix.</t>
+          <t>The Gaussian graphical model (GGM) is a probabilistic modelling approach used in the system biology to represent the relationship between genes with an undirected graph. In graphical models, the genes and their interactions are denoted by nodes and the edges between nodes. Hereby, in this model, it is assumed that the structure of the system can be described by the inverse of the covariance matrix, $$\varTheta $$ , which is also called as the precision, when the observations are formulated via a lasso regression under the multivariate normality assumption of states. There are several approaches to estimate $$\varTheta $$ in GGM. The most well-known ones are the neighborhood selection algorithm and the graphical lasso (glasso) approach. On the other hand, the multivariate adaptive regression splines (MARS) is a non-parametric regression technique to model nonlinear and highly dependent data successfully. From previous simulation studies, it has been found that MARS can be a strong alternative of GGM if the model is constructed similar to a lasso model and the interaction terms in the optimal model are ignored to get comparable results with respect to the GGM findings. Moreover, it has been detected that the major challenge in both modelling approaches is the high sparsity of $$\varTheta $$ due to the possible non-linear interactions between genes, in particular, when the dimensions of the networks are realistically large. In this study, as the novelty, we suggest the Bernstein operators, namely, Bernstein and Szasz polynomials, in the raw data before any lasso type of modelling and associated inference approaches. Because from the findings via GGM with small and moderately large systems, we have observed that the Bernstein polynomials can increase the accuracy of the estimates. Hence, in this work, we perform these operators firstly into the most well-known inference approaches used in GGM under realistically large networks. Then, we investigate the assessment of these transformations for the MARS modelling as the alternative of GGM again under the same large complexity. By this way, we aim to propose these transformation techniques for all sorts of modellings under the steady-state condition of the protein-protein interaction networks in order to get more accurate estimates without any computational cost. In the evaluation of the results, we compare the precision and F-measures of the simulated datasets.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2371798101</t>
+          <t>https://openalex.org/W3097947765</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.egyai.2020.100036</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Zhuang-ru (2015)</t>
+          <t>Xin et al. (2020)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Research on Regional Differences in the Effectiveness of Economical and Intensive Use of Urban Land Policy in China: Analysis and Suggestions of Questionnaire Based on 105 Urban Land Price Monitoring Points</t>
+          <t>The future of sustainable chemistry and process: Convergence of artificial intelligence, data and hardware</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Vigorously promoting the economical and intensive use of land is determined by the basic national conditions of China that large number of people and less land. It is also an important way to promote economic transformation and upgrading,speed up the construction of ecological civilization,construct of the new urbanization and ensure the economic and social sustainable development.To systematically evaluate the implementation effect of the economical and intensive use of urban land policy since 2008,this paper conducted a questionnaire survey to the staff of 105 urban land price monitoring points. Entropy theory and dissipation model were innovatively used to do the comparative analysis on the effectiveness of economical and intensive use of urban land policy between eastern,middle and western China. The concept of policy entropy was put forward. Through analysis and calculation,the below conclusions could be drawn. Firstly,the policy of economical and intensive use of urban land in China has good effects. Economic efficiency,social efficiency and administrative efficiency have made some achievements. The land use efficiency has been improved.Secondly,the total efficiency of policy in the western region is higher than that in eastern and central regions,suggesting that the policy effect not only depends on the level of economic development,but also are affected by the other factors,such as regional policy enforcement,resources endowment,the ecological environment and population density. Thirdly,social efficiency of policy is lower than economic efficiency and administrative efficiency. It shows that the effectiveness of the policy implementation does not reach the public's expectations on the various indicators. It is necessary to further develop and refine the related policices of economical and intensive use of land according to different regions. Finally,suggestions are given,such as strengthening policy implementation,taking more governance performance assessment methods, and perfecting the relevant supporting policies and supervision mechanism optimization.</t>
+          <t>Sustainable chemistry for renewable energy generation and green synthesis is a timely research topic with the vision to provide present needs without compromising future generations. In the era of Industry 4.0, sustainable chemistry and process are undergoing a drastic transformation from continuous flow system toward the next level of operations, such as cooperating and coordinating machine, self-decision-making system, autonomous and automatic problem solver by integrating artificial intelligence, data and hardware in the cyber-physical systems. Due to the lack of convergence between the physical and cyber spaces, the open-loop systems are facing challenges such as data isolation, slow cycle time, and insufficient resources management. Emerging researches have been devoted to accelerating these cycles, reducing the time between multistep processes and real-time characterization via additive manufacturing, in-/on-line monitoring, and artificial intelligence. The final goal is to concurrently propose process recipes, flow synthesis, and molecules characterization in sustainable chemical processes, with each step transmitting and receiving data simultaneously. This process is known as 'closing the loop', which will potentially create a future lab with highly integrated systems, and generate a service-orientated platform for end-to-end synchronization and self-evolving, inverse molecular design, and automatic science discovery. This perspective provides a methodical approach for understanding cyber and physical systems individually, enabled by artificial intelligence and additive manufacturing, respectively, in combination with in-/on-line monitoring. Moreover, the future perspective and key challenges for the development of the closed-loop system in sustainable chemistry and process are discussed.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391651289</t>
+          <t>https://openalex.org/W4205582205</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.saa.2024.124006</t>
+          <t>https://doi.org/10.1117/12.2617364</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Gül et al. (2024)</t>
+          <t>Cupil‐Garcia et al. (2022)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>BODIPY precursors and their cyclotriphosphazene Derivatives: Synthesis, photochemical properties and their application in PDT</t>
+          <t>In vivo SERS monitoring in plants using plasmonic nanoprobes</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Photodynamic therapy (PDT) is a treatment method consisting of common combination of oxygen, light energy and a light absorbing molecule called a photosensitizer. In this work, four new compounds consisting of BODIPY precursors and BODIPY-cyclotriphosphazene derivatives were synthesized to investigate the PDT effects. The chemical structures of the compounds were characterized and then their photophysical properties were determined by spectroscopic techniques. The precursor BODIPYs and their cyclotriphosphazene derivatives exhibited similar properties such as strong absorption intensity, high photostability and low fluorescence profile in the NIR region. Additionally, the singlet oxygen production capacities of these compounds were determined using the photobleaching technique of 1,3-diphenylisobenzofuran (DPBF) under light illumination. By introducing iodine atoms into the molecule, which are responsible for the intersystem transition (ISC) enhancement, a more efficient singlet oxygen production was achieved in both the iodinated-BODIPY and its cyclotriphosphazene derivative. Anticancer activities of the precursor BODIPYs and their cyclotriphosphazene derivatives in the absence and presence of light illumination were evaluated on cancerous cell lines (PC3 and DU145) and non-tumorigenic prostate epithelial PNT1a cell. The compounds triggered the death of cancer cell PC3 the more significantly in the presence of red light compared to the healthy cells (PNT1a).</t>
+          <t>Plant biotechnology and biofuel research is critical in addressing increasing global demands for energy. Further understanding of biomass producing associated metabolic pathways in plants can be used to exploit and increase the production of biomass for energy purposes. In vivo detection of biomarkers associated with plant growth for bioenergy has proved to be limited due to complex sample preparation required by traditional methods. In addition, genetic transformation and biomolecule monitoring inside plant cells is regulated by diameter and size exclusion limits of the plant cell wall (5 - 20 nm). Currently limited methods exist for enabling direct entry into plant cells. Moreover, these methods, such as biolistic particle delivery and electroporation use mechanical force that causes damages to the plant tissue. Nanoparticles could serve as promising platforms for probes to characterize intercellular and intracellular plant biomarkers and pathways. Bi-metallic nanostars are a plasmonics-active nanoplatform capable of high surface-enhanced Raman scattering (SERS) which can enter plant cells and have the future potential for nucleic acid sensing. Imaging technologies such as SERS mapping, confocal imaging, X-ray fluorescence imaging, multi-photon imaging, and transmission electron microscopy have been utilized to determine the compartmentalization and location of the SERS iMS biosensors inside Arabidopsis plants.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4392680595</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5219/1962</t>
+          <t>https://openalex.org/W64768441</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Akimova et al. (2024)</t>
+          <t>Yaneva (2003)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Enzymatic hydrolysis in food processing: biotechnological advancements, applications, and future perspectives</t>
+          <t>When a bus met a museum: following artists, curators and workers in art installation</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>In food processing, enzymatic hydrolysis has become a revolutionary biotechnological instrument that provides consistency and sustainability that are unmatched by traditional techniques. This work thoroughly analyzes current developments in enzymatic hydrolysis and examines its uses in various food processing contexts. The biotechnological aspects—such as substrate specificity, enzyme engineering, and sustainable process optimization—are the main focus. The historical background and development of enzymatic hydrolysis in food processing are explored at the study's outset, highlighting the process's transformation from a specialized use to a critical component of contemporary biotechnological food production. A thorough literature review underscores the specificity of enzymes in dissolving various dietary components, offering insights into the biotechnological nuances controlling substrate-enzyme interactions. A careful examination of the many enzymes used in enzymatic hydrolysis and a full assessment of their uses and specificities are provided. Enzymatic hydrolysis selection criteria are outlined, taking regulatory compliance, thermostability, pH sensitivity, and substrate specificity into account. The integration of enzymatic hydrolysis into workflows for food processing is also covered, focusing on compatibility with current infrastructure and processing parameters. The case studies that demonstrate the effective use of enzymatic hydrolysis in various food production situations are the core of the research. These examples illustrate the adaptability and effectiveness of enzymatic processes in improving food quality, from developing gluten-free products to optimizing fermentation in baked goods. In its futuristic conclusion, the article imagines how enzymatic hydrolysis will continue to influence food processing in the years to come. The biotechnological viewpoint strongly emphasizes current research directions, such as integrating enzymatic processes into sustainable food production techniques and engineering enzymes for increased specificity. This biotechnological investigation highlights how enzymatic hydrolysis may completely change the food processing industry by providing accuracy, sustainability, and creativity in pursuing wholesome, nutrient-dense, and aesthetically pleasing food items.</t>
+          <t>In this essay, I intend to offer an alternative to viewing the museum and the exhibition through the visitor’s expectations. Instead, I shall follow all those actors whom the viewer usually does not meet in the museum: the artists, the curators, the technicians and the workers. The visitor knows they exist and that they have worked hard to stage all these art installations for the public, but he or she has never seen them working, discussing and acting together in the artistic process. This essay is an invitation to the viewer to follow these actors and to perform a slow and unusual visit to the exhibition Hauser, held in Musee d’art Moderne de la Ville de Paris in 1999. In this context, art objects will be seen in the process of their doing. A specific case will be discussed: the installation of a Volkswagen bus, model 1977, in the museum, and its transformation into a contemporary art installation named Muckenbus . This example is particularly interesting, because the bus passes though the museum entrance door, back and forth, as does a visitor, and because a whole group of actors is assembled and mobilized to help insert the bus and to adjust its position in the exhibition hall. I will describe how artists, curators, technicians and workers adapt space, tools and materials to the artistic idea; what happens to the bus when it meets the museum, and consider some of the ways in which such installation operations transform the museum world in the process. Before analyzing the bus’s tribulations, however, I will trace briefly some key research tendencies on museums that help us to consider this particular case.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2562809071</t>
+          <t>https://openalex.org/W4398151194</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-08-100625-2.00011-8</t>
+          <t>https://doi.org/10.1007/978-3-031-47312-8_8</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Miller et al. (2017)</t>
+          <t>Motum (2024)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Drug discovery</t>
+          <t>Calling from Canada: Exploring the Shift to Telephonic Theatre During COVID-19</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>We sit here today perched atop the shoulders of giants. Giants of medicinal chemistry and pharmacology who toiled hard, making and testing one compound each week, a very well-developed process when drug design utilizing computer graphics first came on the scene in the late 1970s. Preclinical development disciplines, including pharmacokinetics, drug metabolism, and toxicology, were also well in place by then. But soon a series of technological advances would rock the drug discovery world, with quantum leaps in the state-of-the-art, changing the face of drug discovery forever. This revolution included the preparation and high-throughput screening of larger and larger drug libraries, large-molecule biologics to compete with small-molecule drugs, and genomics and proteomics, thereby dramatically increasing the information available to drug hunters. But revolutions take time to settle in. As “Drug Discovery 2001: A Molecular Space Odyssey” dawned, pundits thought genomics would solve major healthcare problems overnight, relegating traditional pharmaceutical R&amp;D methods to the waste bin. Reality prevailed and decades of iteration remain before genomics’ economic and social impact will change behavior fundamentally, nationally and internationally. Meanwhile, immuno-oncology moved cancer beyond “dying from” or “living with” to outright “cures” in selected cases. Resulting biotech financings and deals generated huge funds for R&amp;D, employees, and investors, and importantly made possible new medical products for patients and caregivers, greatly improving the standard of care. Though today’s grand progress provides novel therapies to those in need, we still require the tools of neo-classical chemical biology—structure-based design, combinatorial synthesis, and high-throughput screening—along with the old-fashioned, laborious, one-drug-at-a-time art of science circa 1990. Biologics have made big headway into medical practice, saving countless lives and contributing greatly to industry profits, but small-molecule drugs still dominate scrips. Sadly, diminishing numbers of students will work the long, hard hours essential to mastering chemistry or pharmacology. Too many seek quick wins. For some it is about money. For others it is about achievement, adventure, and intellectual challenge. Finally, and most importantly, it is about helping others. Nothing feels better than “doing well by doing good.” Brilliant, dedicated scientists, please, make good health and longevity the norm. Pity the societies that don’t get this right!</t>
+          <t>At the beginning of the pandemic, when artists and audiences could no longer gather, the first Canadian theatre companies to pivot their programming and launch live theatrical works were those with long histories of challenging what theatre is, where theatre can happen, and how theatre meets its audience. While many artists and companies turned to archival footage from previous productions, online play readings, or other recorded content, companies with backgrounds in site-specific or immersive theatre seemed to transition to the new "normal" quickly and with observable success. By April 2020, Outside the March (OTM), a Toronto-based company known for staging work in places including a kindergarten classroom, video store, and funeral home, launched The Ministry of Mundane Mysteries—a week-long interactive telephone play. The piece has become a successful cultural export during a time when traditional theatre touring is impossible. Alongside OTM, Convergence Theatre also performed for an international audience with their phone-based Corona Variations. Dopolavoro Teatrale (DLT), another Toronto company self-described as "site and audience specific," launched Theatre on-Call, and Vancouver's Boca del Lupo toured yet another phone-based experience, Red Phone. During a time when theatre and society moved into the virtual world, these companies gravitated away from screen-based digital content toward an older, analogue form—the telephone. Together, these "phone plays" represent some of the earliest live Canadian theatrical experiences of the pandemic, and invite reflection on how notions of theatrical space, liveness, and intimacy shifted during COVID-19. Approaching this work in conversation with scholars of site-specific, digital, and disability performance, this chapter suggests that the practicalities of telephonic form offer opportunities for new accessibilities of theatre now and in the future.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3151650277</t>
+          <t>https://openalex.org/W4392598864</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/10494820.2021.1905003</t>
+          <t>https://doi.org/10.5194/egusphere-egu24-5257</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Liu et al. (2021)</t>
+          <t>Johansen et al. (2024)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Patterns of triggers for on-task and off-task behaviors: university students in independent study</t>
+          <t>A Framework for Monitoring Above Ground Biomass of Hyper-Arid Rangelands in the Middle East</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>With the rapid development of mobile devices and web-based technologies, it becomes common for students to switch between different tasks during study time. However, it remains unclear how the transition between on-task and off-task states happens and how digital devices affect the process. This study examines college students’ independent study in the library to delineate the pattern of on-task and off-task behavior, and identify the triggers for students’ engagement or disengagement. Through video recordings, the researchers captured the behaviors of over 266 students at the library. Observations were taken and used to double-check and confirm the behaviors. The study adopted the behavioral sequences method to scrutinize behavioral transition and explored gender differences. The results indicate that on-task behaviors tended to decline as the learning duration increased, whereas off-task behaviors tended to increase when students interacted with personal devices. As the most used device, smartphones posed persistent interference for learners, leading to reduced focus during independent study time. Moreover, male students were more likely to be influenced by external interruptions, whereas female students were more prone to the influence of internal interruptions. These findings can contribute to the development of research-based guidelines for improving students’ attention and self-adjusting during self-study time.</t>
+          <t>In line with Saudi Vision 2030 and the ambitions of the Saudi Green Initiative to plant 10 billion trees and protect 30% of Saudi Arabia&amp;amp;#8217;s land and sea areas, large parts of Saudi Arabia are being transitioned into nature reserves and undergoing regreening activities, while also fencing off large areas for vegetation restoration and protection. To effectively manage the regreening and restoration initiatives, it is imperative to frequently monitor biomass changes over time and quantify the accumulation of biomass to determine if the restoration and tree-planting initiatives have the intended outcomes. However, landscape responses to regreening and vegetation restoration are poorly understood in hyper-arid rangelands. Environmental processes within different habitat zones might differ, which further complicates biomass monitoring. Here, we present a framework that is currently being applied across multiple hyper-arid rangelands in Saudi Arabia to estimate biomass within newly established nature reserves. The initial work focused on developing a scaling approach between ground, unmanned aerial vehicle (UAV), and satellite image data, including PlanetScope and Sentinel-2 imagery. Field sites were identified using Google Earth imagery and a number of criteria, including a 5-year Sentinel-2 NDVI time-series to identify greening events, terrain characteristics based on DEM data, and differences in vegetation functional types (annual and perennial grass/herbs/forbs, shrubs and trees), soil types, and habitats. Field-based measurements at selected sites focused on determining biomass of different vegetation functional types, using a double-sampling approach, including a limited number of destructive samples, and a large number of biomass estimates based on the structural and dimensional characteristics of the destructive samples. UAV-based light detection and ranging (LiDAR) and multispectral data were obtained for each site to estimate biomass from the field-based samples using different machine and deep learning approaches (random forest, support vector machines, vision transformer, UNet with attention encoder). It was found that LiDAR data provided useful information on vegetation height and volume, which improved the biomass estimates, whereas the multispectral data enabled discrimination between photosynthetic and non-photosynthetic vegetation components. Based on the UAV-derived estimates of biomass, a scaling approach was applied to estimate biomass from both PlanetScope and Sentinel-2 data, with results demonstrating that the higher spatial resolution of the PlanetScope data improved the accuracy due to the very sparse vegetation in most parts of the hyper-arid rangelands of this study. While hyper-arid rangelands are generally underrepresented in research studies worldwide, this research provide a viable framework for assessing vegetation dynamics of biomass both seasonally and annually.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4236253548</t>
+          <t>https://openalex.org/W3156438264</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1115/1.4035075</t>
+          <t>https://doi.org/10.1088/1742-6596/1807/1/012003</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Schnoes &amp; Nicke (2017)</t>
+          <t>Kusdiyanti et al. (2021)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>A Database of Optimal Airfoils for Axial Compressor Throughflow Design</t>
+          <t>HYLBUS (Hybrid Learning Based on Asynchoronous Learning Network): Inovation of Learning Model for Hight School to be up Againts Industrial Revolution 4.0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Airfoil shapes tailored to specific inflow conditions and loading requirements can offer a significant performance potential over classic airfoil shapes. However, their optimal operating range has to be matched thoroughly to the overall compressor layout. This paper describes methods to organize a large set of optimized airfoils in a database and its application in the throughflow design. Optimized airfoils are structured in five dimensions: inlet Mach number, blade stagger angle, pitch–chord ratio, maximum thickness–chord ratio, and a parameter for aerodynamic loading. In this space, a high number of airfoil geometries are generated by means of numerical optimization. During the optimization of each airfoil, the performance at design and off-design conditions is evaluated with the blade-to-blade flow solver MISES. Together with the airfoil geometry, the database stores automatically calibrated correlations which describe the cascade performance in throughflow calculation. Based on these methods, two subsonic stages of a 4.5-stage transonic research compressor are redesigned. Performance of the baseline and updated geometry is evaluated with 3D CFD. The overall approach offers accurate throughflow design incorporating optimized airfoil shapes and a fast transition from throughflow to 3D CFD design.</t>
+          <t>Abstract This study conducted focused on creating learning media based on Hybrid Learning Based on the Asynchronous Learning Network as an effort to improve effectiveness in Entrepreneurship learning. The research and development method carried out by researchers originated from Borg and Gall with the trial subjects, namely teachers who taught in 5 schools throughout Malang. The researcher used two types of validators, namely material expert validators and media expert validators. The researcher used two types of data namely qualitative data and quantitative data with data collection techniques in the form of documentation, questionnaires, interviews, and tests (pretest and posttest) to respond. The data analysis technique used is descriptive percentage technique that refers to Arikunto. This study uses two test cycles to determine the effectiveness of media created for teachers. HYLBUS is a learning media website that is intended for entrepreneurship subject teachers with the basic principle of the Asynchronous Learning Network that integrates several aspects needed by students in enhancing the capture of entrepreneurial learning delivered by the teacher. The advantages of this website are (1) user friendly, (2) responsive, (3) accountable, (4) transparent, (5) trusted. Based on the test results it was found that an increase in student learning outcomes reached 25.76%, besides that there was an increase in teacher activities reaching 19.45% from pre-action to action 1 and an increase of 3.72% from action 1 to action 2 with criteria “Very good” and an increase in student activity by 33.34% from pre-action to action 1, and an increase of 6.33% from action 1 to action 2 with the criteria of “very good”</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2046909091</t>
+          <t>https://openalex.org/W4392202867</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4028/www.scientific.net/amr.922.645</t>
+          <t>https://doi.org/10.1016/j.cegh.2024.101562</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Shan et al. (2014)</t>
+          <t>Bakheet et al. (2024)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Determination of Substitutional-Interstitial Interaction from Chemical Potentials of Interstitials in the Steel Matrix</t>
+          <t>Transition of care of adolescents with rheumatic diseases in Saudi Arabia, current practice and obstacles</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>The interaction between interstitially diffusing atoms and substitutional solute atoms, acting as trapping sites, causes a non-negligible influence on the diffusion process itself and, consequently, on many aspects of alloys, such as phase transformations, solubility, precipitation of carbides and nitrides etc. The most important quantity in this treatment is the so-called trapping enthalpy (depth of trap), which has been used in several approaches in literature over the last century. However, the determination of the trapping enthalpy so far relies on approximations or assumptions on the one hand (statistical approaches, quasi chemical approach) or is significantly limited due to high complexity (ab initio approaches) on the other hand. The model introduced in this paper illustrates a rigorous and efficient thermodynamically-based concept utilizing only the dependence of the chemical potential of the interstitial component on the chemical composition of the alloy. Such a dependency is available in a very precise form from CALPHAD thermodynamic databases. Using the most recent databases available, the trapping enthalpies of carbon and nitrogen at various solute atoms (trapping sites) are evaluated for austenitic and ferritic steels. Good agreement with previous literature results is observed. The flexibility of the concept allows also for the treatment of trapping in a multi-component system, where different types of solute atoms are responsible for different depths of traps.</t>
+          <t>&lt;h2&gt;Abstract&lt;/h2&gt;&lt;h3&gt;Background&lt;/h3&gt; The importance of transition of care for adolescents with rheumatological illnesses from pediatric to adult rheumatology is increasing as the childhood rheumatologic diseases continue to adulthood. Despite that, transition practice in Saudi Arabia is not yet well-developed. &lt;h3&gt;Objectives&lt;/h3&gt; This study aims to evaluate the current transition of care practice for adolescents with rheumatological diseases to the adult healthcare facilities and the obstacles in achieving the best transition of care in Saudi Arabia. &lt;h3&gt;Setting and methods&lt;/h3&gt; This is a non-interventional cross-sectional study conducted using an online survey that was distributed to pediatric and adult rheumatologists in Saudi Arabia. Google forms and Microsoft Excel 2016 were used for data entry and analysis. Descriptive statistics, frequencies and percentages were performed for categorical variables. &lt;h3&gt;Results&lt;/h3&gt; A total number of 60 rheumatologists (27 pediatric and 33 adult) participated in the survey. Fifty-six (94%) of the participants do not follow any standardized programs for transition of care. All participants agreed on the need for a defined protocol for transition of care. The major barriers for successful transition of care were lack of protocols (63%), lack of healthcare providers (56%), and lack of well-developed systems that makes it difficult to access patient's electronic health records (55%). &lt;h3&gt;Conclusion&lt;/h3&gt; A well-structured protocol for transition of care of adolescents with rheumatologic illnesses from pediatric to adult rheumatology in Saudi Arabia is still an unmet need. Efforts should be directed towards improving the practice of transition of care by establishing this protocol, enhancing the connectivity between pediatric and adult healthcare facilities, and encouraging pediatric and adult rheumatologists to adapt the transition of care protocol in their daily clinical practice.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3047647033</t>
+          <t>https://openalex.org/W4206698190</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/1467-9655.13346</t>
+          <t>https://doi.org/10.21203/rs.3.rs-777585/v1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tremlett (2020)</t>
+          <t>Hareli et al. (2021)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Kapuściński, Ryszard; with an introduction by Neal Ascherson; trans. Antonia Lloyd‐Jones. The other. 100 pp. London: Verso Books, 2018. £8.99 (paper)</t>
+          <t>The Evolutions in Time of Probability Density Functions of Polydispersed Fuel Spray-The Continuous Mathematical</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ryszard Kapuściński (1932-2007) was an internationally acclaimed Polish journalist and author, whose writings generated some controversy for their apparent blending of reportage and literature. This volume includes four lectures: the ‘Viennese lectures’ which were delivered in Vienna on 1-3 December 2004 at the Institut für die Wissenschaften vom Menschen; ‘My Other’, which was given at the International Writers’ Symposium in Graz on 12 October 1990; ‘The Other in the global village’, which was delivered at the Father Józef Tischner Senior European School in Kraków on 30 September 2003; and ‘Encountering the Other as the challenge of the twenty-first century’, which was delivered on 1 October 2004, when Kapuściński was awarded an honorary doctorate at the Jagiellonian University in Kraków. The lectures pursue interlinked trajectories of reflection on Europe and its relations with Africa, the Americas, Asia, and the Middle East, as well as the question of the Other and the direction of social and cultural change. Over the course of the lectures, Kapuściński engages substantially with anthropology, particularly through the figure of Bronislaw Malinowski, and continental philosophy, through that of Emmanuel Lévinas. In this brief review, I will address these elements, before concluding with some short remarks about Kapuściński's representation of anthropology and Malinowski. For Kapuściński, Enlightenment humanism – expressed initially through literature and travel writing – opened up new spaces in which the Other emerged not as an object of conquest or conversion, but as a human being. According to Kapuściński, anthropology and the ‘philosophy of dialogue’ (p. 68) as practised by the likes of Lévinas, emerged from this Enlightenment space (p. 27). His summary of the development of anthropology from the debates of evolutionists, diffusionists, and functionalists into a discipline defined by ethnography, with Malinowski as ‘the creator of anthropological reportage’ (p. 32), segues neatly into a discussion of Lévinas, and his foregrounding of the ethics of the encounter with the Other, a move which Kapuściński sees as building upon the fieldwork pioneered by Malinowski. Kapuściński adds that fieldwork ‘is not only recommended for anthropologists, but is also a fundamental condition for the job of a reporter’ (p. 31), a point which highlights potential points of contact between the two professions. Kapuściński provides two perspectives on European history and experience: one, as we have seen, begins with the Enlightenment and moves on via the novel to anthropology and the philosophy of dialogue. The other focuses on social and cultural change, and the transition, as Kapuściński sees it, from mass to global society, a transition precipitated by decolonization and the end of the Cold War, as well as the advance and spread of new communication technologies. According to Kapuściński, mass society, particularly in its totalitarian forms, negated the individual: the subject was a member of a class, a race, or a nation. As such, our new multicultural-global society must embrace the spirit of dialogue found not just in the writings of Lévinas but also in those of the Polish Catholic theologian Józef Tischner, for whom the idea of dialogue was precisely conceived in opposition to mass and totalitarian social forms and in the recognition of the individual human being. Importantly, Kapuściński understands that a defining feature of the new global and multicultural society is its emergence from ‘various contradictory worlds, a composite creature of fluid, impermanent contours and features’ (p. 33), and that it is ‘hybrid and heterogeneous’ (p. 89). This new society will, according to Kapuściński, require something of the spirit of Malinowski, Lévinas, and Tischner if it is not to succumb to the many enmities and challenges that beset it from all sides. One reason to read this beautifully composed book is for its representation of anthropology and one of the discipline's most controversial figures, Malinowski. Kapuściński sees in anthropology, and fieldwork in particular, a deliberative methodology for dialogue and understanding the Other. Perhaps this is a rose-tinted view of the fieldwork encounter that does not adequately grasp its ongoing implication in asymmetries of power, race, and gender, but Kapuściński offers some useful points of departure for pursuing related questions about ethnography and literary craft, and for exploring anthropology and journalism as entangled professions. Finally, given the links made by Robert J. Thornton (‘Imagine yourself set down …’, Anthropology Today 1: 5, 1985) between Malinowski and one of Conrad's more disturbing creations, Kurtz, there is perhaps some irony in the fact that Kapuściński's final lecture closes with a quotation from Joseph Conrad (p. 92) that points to a common humanity binding together the dead, the living, and the unborn.</t>
+          <t>Abstract The dynamics of the particle-size distribution of the polydispersed fuel spray are important for the evaluation of the combustion process. In this paper, we presented the particle-size distribution change in time which gives a new insight into the behavior of the droplets during the self-ignition process. Semenov was the first to shows that self-ignition in the homogeneous case can be qualitatively and even quantitatively described by simplified models \cite{first_Math_Semenov_1928}. A simplified model of the polydisperse spray is used for a study of combustion processes near the initial region. This model involves a time-dependent function of the particle-size distribution. Such simplified models are particularly helpful in understanding qualitatively the effect of various sub-processes. Our main results show that during the self-ignition process, the droplets' radii decrease as expected, and the number of smaller droplets increases in inverse proportion to the radius. An important novel result (visualized by graphs) demonstrates that the mean radius of the droplets, at first increases for a relatively short period of time, and that is then followed by the expected decrease. It means that the maximum of the mean radius is not located at the beginning of the process as expected. We only have a heuristic explanation of this phenomenon, but an analytic study is planned for the future. Our modified algorithm is superior to the well known `parcel' approach because it is much more compact, it permits an analytical study since the right-hand sides are smooth, and thus eliminates the need for a numerical algorithm transitioning from one parcel to another, The method explain herein can be applied to any approximation of the particle-size distribution, and it involves comparatively negligible computation time.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2138101700</t>
+          <t>https://openalex.org/W4387984581</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1051/e3sconf/202343902004</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Baynes (1977)</t>
+          <t>Jiang &amp; Tu (2023)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A Personal Retrospect: The Argument for Design Education</t>
+          <t>Research on the Risk Management of Shantytown Renovation Project Based on Grey Clustering Method</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>The suggestion for an article based on a personal view of the past ten years in design education came at an opportune moment. Having just completed work on the Design in General Education project at the Royal College of Art, and having just begun to research a new exhibition - on the evolution of engineering drawing - for the Welsh Arts Council, I was in the right frame of mind to look again at my motivations. Certainly with educational activities, a design practice and historical research all going on at the same time, the pattern did not immediately suggest coherence. It didn't even look well designed! How is it that I find no difficulty in maintaining a continuing commitment to, for example, art and design or fashion and technology, when to many people, particularly perhaps to specialist subject teachers, they obviously seem poles apart? I tried to give an answer to this rather sharp question in talks I gave to arts teachers at the ILEA's Cockpit Theatre in London and to design teachers at the NADE Conference at Eaton Hall in Retford . The present article is based on an expansion of those talks . What I am setting out to do is to restate some of those arguments in favour of design education that have struck me as being truly fundamental . To put this into the form of a personal narrative means going back twenty rather than ten years but I hope the longer perspective will be useful . What I find particularly interesting is that the arguments which seemed powerful then still seem powerful now . It still appears to me that in order to understand and evaluate the content and methods of design education we have first to understand and evaluate the radical changes which have transformed communication and construction and the attitudes of people to them. Once this has been done, there are likely to be a great variety of valid ways of bringing such concerns into the forum of general education.</t>
+          <t>In this paper, the risk evaluation model of shantytown transformation is constructed with the second area shantytown transformation project of Q city as a research case. Firstly, the brainstorming method and Delphi method are used to determine the risk evaluation index system of shantytown transformation, secondly, the weights of the evaluation model are determined by a linear combination of the C-OWA operator assignment method and entropy weighting method, which reduces the subjective influence of the assignment, and finally, the grey clustering method is used to assess the risk level of the shantytown transformation, and relevant measures are proposed to reduce the risk of the shantytown transformation according to the results, which reduces to a certain degree the the possibility of risk occurrence in the process of shantytown transformation, providing theoretical guidance for the shantytown transformation project in Q city.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2990504874</t>
+          <t>https://openalex.org/W4319655684</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/858118</t>
+          <t>https://doi.org/10.1111/jjns.12522</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Huang et al. (2019)</t>
+          <t>Yoshimura et al. (2023)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Nanotopography enhances dynamic remodeling of tight junction proteins through cytosolic complexes</t>
+          <t>Development and validation of the Care Transitions Scale for Patients with Heart Failure: A tool for nurses to assess patients' readiness for hospital discharge</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Abstract The epithelial tight junction regulates barrier function and is responsive to extracellular stimuli. Here we demonstrated that contact of synthetic surfaces with defined nanotopography at the apical surface of epithelial monolayers increased paracellular permeability of macromolecules. To monitor changes in tight junction morphology in live cells, we fluorescently tagged the scaffold protein zonula occludens-1 (ZO-1) through CRISPR/Cas9-based gene editing. Contact between cells and nanostructured surfaces destabilized junction-associated ZO-1 and promoted its arrangement into highly dynamic non-junctional cytosolic complexes that averaged ∼2 μm in diameter. Junction-associated ZO-1 rapidly remodeled, and we also observed the direct transformation of cytosolic complexes into junction-like structures. Claudin-family tight junction transmembrane proteins and F-actin also were associated with these ZO-1 containing cytosolic complexes. These data suggest that the cytosolic structures are novel intermediates formed in response to nanotopographic cues that facilitate rapid tight junction remodeling in order to regulate paracellular permeability.</t>
+          <t>This study aimed to develop and assess the validity and reliability of the Care Transitions Scale for Patients with Heart Failure (CTS-HF) as a nurse-reported measure for evaluating patients' readiness for hospital discharge.We conducted a cross-sectional study of cardiovascular ward nurses from 163 hospitals across Japan. Structural validity was assessed using exploratory factor analysis with development participants and confirmatory factor analysis with validation participants. Convergent validity was assessed by correlation with the Discharge Planning of Ward Nurses scale (DPWN). Hypotheses testing for construct validity was performed as comparisons between subgroups of transitional care practice.Valid responses were obtained from 704 nurses (development participants, n = 352; validation participants, n = 352). The final scale comprised 21 items divided into six factors: "Clear preparation for how to manage health at home," "Adjusting to home care/support system," "Transitions of medication management from hospital to home," "Dealing with patients' concerns and questions," "Transitions of disease management from hospital to home," and "Family support." Indices of fit supported these results (comparative fit index = 0.944, root mean square error of approximation = 0.057). The CTS-HF was significantly correlated with the DPWN. The nurses' subgroup with higher transitional care practice had higher CTS-HF scores. Cronbach's alpha was .93 for the CTS-HF.The CTS-HF showed sufficient reliability and validity for use in evaluating discharge care. Further studies are needed regarding the usefulness of this scale in nursing practice.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4251375231</t>
+          <t>https://openalex.org/W3090081114</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14254/1800-5845/2018.14-4.17</t>
+          <t>https://doi.org/10.47637/eksponen.v10i2.296</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ніценко et al. (2018)</t>
+          <t>Dinata (2020)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Criteria for Evaluation of Efficiency of Energy Transformation Based on Renewable Energy Sources</t>
+          <t>Problematika Pembelajaran Daring Mata Kuliah Geometri Transformasi di Masa Pandemi Covid-19</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>In the context of shortage of natural resources in Ukraine, the problem of evaluating efficiency of the implementation of renewable energy sources (RES) becomes of particular importance and comes in first place, since its solution will reduce the energy dependence of the state.Theoretical, methodological and practical issues of diversification of energy sources and evaluation of their effectiveness have found their development in modern works of domestic and foreign scientists.However, methods proposed by the scientists for evaluating efficiency of the transformation of energy consumption based on RES are purely theoretical and do not fully allow to determine the current state and directions of diversification of energy sources.The research is aimed at improving methodological support and developing criteria for evaluating the efficiency of energy consumption transformation based on RES.The article considers the main methods of evaluating efficiency of involving RES in the energy consumption of the state, region and enterprise.Advantages, drawbacks and perspectives of diversifying energy sources based on RES are shown.The system of criteria for evaluating effectiveness of energy consumption transformation based on RES is proposed.It is based on economic, environmental and social efficiency.</t>
+          <t>This study aims to analitis the problems of transformation geometry learning at the semester of the 2019/2020 academic year which are carried out online, then attempt to determine solutions and follow-up online learning based on the results of the evaluation. This research is a descriptive qualitative research. The research technique used was a survey technique. The research was carried out on students in semester 4 of the 2019-2020 academic year study program of mathematics education, FKIP Muhammadiyah Kotabumi University in the Transformation Geometry subject with 30 respondents as the object of research. The instrument used was in the form of a questionnaire consisting of 9 questions. The conclusions of this study are 1) it is better if lecturers in online learning use an application that is agreed upon at the beginning of the lecture and is easily accessible to students, 2) it is better if you prepare learning media / materials in the form of digital learning videos that can be accessed via YouTube, WhatsApp, or Instagram. etc., 3) uploading the syllabus, RPS, and material in the learning application, 4) providing lecture information must still be through the learning application and also shared via the WhatsApp Group, 5) providing a grace period for submitting assignments, 6) Continuing to carry out formative and diagnostic assessments for get feedback and return the results of UTS and UAS to Students.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1994124700</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1143/jpsj.67.2189</t>
+          <t>https://openalex.org/W2602777385</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Shima &amp; Nakayama (1998)</t>
+          <t>Polettini &amp; Esposito (2017)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Finite-Time Scaling Approach for the&lt;i&gt;&lt;i&gt;a&lt;/i&gt;&lt;i&gt;c&lt;/i&gt;&lt;/i&gt;Conductivity near the Anderson Transition</t>
+          <t>A marginal observer's effective thermodynamics</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>It is demonstrated that the finite-time scaling approach, derived from the forced oscillator method, to determine the exponent of the ac conductivity σ(ω)∝ω δ near the metal-insulator transition point is a very powerful method for evaluating the precise value of the exponent δ with high speed and accuracy.</t>
+          <t>Nonequilibrium thermodynamics often presumes that the observer has complete information about the system he/she deals with: no parasitic current, exact evaluation of the forces that drive the system. For example, the acclaimed Fluctuation Relation (FR), relating the probability of time-forward and time-reversed events, holds on the assumption that measurable transitions suffice to characterize the process as Markovian (in our case, a continuous-time jump process). However, most often the observer only measures marginal information. We show that he/she will nonetheless produce an effective description that does not dispense with the fundamentals of thermodynamics, including the FR and the 2nd Law. The results stand on the crucial notion of hidden time-reversal of the dynamics, considering one single transition in configuration space as the observational current. We use a simple example to illustrate our results and discuss the feasibility of further generalizations.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4295066601</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3389/fcvm.2022.966217</t>
+          <t>https://openalex.org/W2287227933</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Zhang et al. (2022)</t>
+          <t>Chen &amp; Shieh (2008)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Effects of potential risk factors on the development of cardiometabolic multimorbidity and mortality among the elders in China</t>
+          <t>Investigation of the conflict between the driver and a vehicle steering assist controller</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>To examine the impact of demographic, socioeconomic, and behavioral factors on the development of cardiometabolic multimorbidity and mortality in Chinese elders.Data from the Chinese Longitudinal Healthy Longevity Survey (CLHLS) 2002-2018 was used in the study. Cardiometabolic multimorbidity was defined as the presence of two or more cardiometabolic disorders, such as hypertension, diabetes, cardiovascular disease (CVD), heart disease, or stroke. Cox regression model and multi-state Markov model were developed to evaluate the association of the study factors with the progression of cardiometabolic conditions and mortality. The outcomes included three states (first cardiometabolic disease, cardiometabolic multimorbidity, and all-cause mortality) and five possible transitions among the three states.Of the 13,933 eligible individuals, 7,917 (56.8%) were female, and 9,540 (68.50%) were over 80 years old. 2,766 (19.9%) participants had their first cardiometabolic disease, 975 (7.0%) participants suffered from cardiometabolic multimorbidity, and 9,365 (67.2%) participants died. The progression to cardiometabolic multimorbidity was positively associated with being female (HR = 1.42; 95%CI, 1.10 - 1.85), living in the city (HR = 1.41; 95%CI, 1.04 - 1.93), overweight (HR = 1.43; 95%CI, 1.08 - 1.90), and obesity (HR = 1.75; 95% CI, 1.03 - 2.98). A higher risk for the first cardiometabolic disease was associated with being female (HR = 1.26; 95% CI, 1.15 - 1.39), higher socioeconomic status (SES, HR = 1.17; 95%CI, 1.07 - 1.28), lack of regular physical activity (HR = 1.13; 95%CI, 1.04 - 1.23), smoking (HR = 1.20; 95%CI, 1.08 - 1.33), ≤ 5 h sleep time (HR = 1.15; 95%CI, 1.02 - 1.30), overweight (HR = 1.48; 95% CI, 1.32 - 1.66), and obesity (HR = 1.34; 95%CI, 1.06 - 1.69). It also should be noted that not in marriage, lower SES and unhealthy behavioral patterns were risk factors for mortality.This study emphasized the importance of lifestyle and SES in tackling the development of cardiometabolic conditions among Chinese elders and provided a reference for policy-makers to develop a tailored stage-specific intervention strategy.</t>
+          <t>A serial vehicle steering assist controller is designed using variable structure model reference adaptive control. Due to the variation in human driver behavior, the stability of the compensated system is not guaranteed and conflict between the driver and the steering assist controller may exist. A model predictive control based driver model is employed to represent the variation in driver intention, and the conflict is observed in computer simulations. A simple decision making algorithm is implemented as a preliminary attempt, and the conflict situations are successfully avoided when the driver model is a performant steering controller. Future work of this research includes the revision of the decision making algorithm to incorporate the driver state and the transitions of controller states using fuzzy logics.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2110493470</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1176/appi.ajp.2008.08030398</t>
+          <t>https://openalex.org/W2377983395</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Campanella (2008)</t>
+          <t>Defen (2014)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>The Green Bike</t>
+          <t>Comprehensive assessment of regional PRED system based on new urbanization approach: a case study in Dalian</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Back to table of contents Previous article Next article IntrospectionsFull AccessThe Green BikeKarla Campanella M.D., M.A.Karla Campanella M.D., M.A.Search for more papers by this authorPublished Online:1 Sep 2008https://doi.org/10.1176/appi.ajp.2008.08030398AboutSectionsPDF/EPUB ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InEmail I was in the middle of a hectic night on call in the ED. I had a long list of patients to see—all with suicidal ideation of one form or another.I begin evaluating the next patient. Stifling a yawn, I smoothly transition from HPI to ROS. How’s your sleep, appetite, energy? I am on a roll. Past Psychiatric History and Family History pass by like signposts on a late-night road trip. Turning the corner onto Social History, I am moments away from being able to check the patient off my list and that much closer to a few stolen moments of sleep.“Have you ever been abused?” With that question, the momentum is broken. The patient, an older African American female, gets a faraway look in her eyes.“Back then,” she finally says, “They could not get black teachers for the school in my neighborhood. So I had a white fourth grade teacher.” The patient reflected on how honored she felt that he singled her out and gave her special jobs to do. “I had never been shown attention from a white man before.” But then one day he took her into the broom closet and molested her.Mesmerized, I listened as the patient shared how more and more men from the neighborhood sexually abused her—shopkeepers, neighbors, cousins, brothers. When she challenged her brothers, they said, “That is just the way it is supposed to be.” The men would call to her from their houses as she walked down the street. “Hey, do you want a quarter?” The patient confided that she loved to swim and a day’s admission to the pool cost a quarter. “I swam every day.”Quietly, the patient told me how much she hated it. How she would constantly change her walking route to avoid the calling men. But still they would find her. She had no one to go to for help. Her family was poor, and her mother was always working. Her father was an alcoholic.But a neighbor lady seemed to know what was happening. One day, she gave the patient her daughter’s old green bike. Now the men would call, but the patient could pedal fast and get away. “Yes, I loved that green bike,” the patient smiled, “I took such good care of it.”Deeply touched, I gazed upon this former medical record number on a checklist and said, “You are a strong woman.” She looked at me and said, “That is the way with African American women. We have to be strong no matter what. We are just supposed to take whatever life gives us. We are not supposed to ask for help.”Silently, I thanked her for derailing my goal-directed history evaluation, and for taking me on a cross-cultural detour through the pain of poverty, racial tension, and sexual aggression. Her story of the power of a neighbor’s kindness in the midst of a neighborhood’s inhumanity touched my soul, and forever I will carry the image of that old green bike along with the determined little girl for whom it was a link to sanity.Address correspondence and reprint requests to Dr. Campanella, University of Pennsylvania Health System, 2nd Floor, 3535 Market St., Philadelphia, PA 19104; [email protected] (e-mail). Introspection accepted for publication April 2008 (doi: 10.1176/appi.ajp.2008.08030398). FiguresReferencesCited byDetailsCited ByNone Volume 165Issue 9 September, 2008Pages 1110-1110THE AMERICAN JOURNAL OF PSYCHIATRY September 2008 Volume 165 Number 9 Metrics PDF download History Published online 1 September 2008 Published in print 1 September 2008</t>
+          <t>At present,China is in the process of rapid urbanization. The traditional urban development approach urgently needs to be transformed into a new urbanization model that is intelligent,green and low-carbon. Meanwhile,coordinated urban-rural development and regional integrative development have gained greater importance. In order to systematically assess the quality of China's urbanization under the new situation,the comprehensive assessment method of regional PRED system was proposed considering the complicated relationship between population,resources,environment and economic and social development(PRED),which are mutually stimulating but also restricting. This paper proposes the concept and characterization method of regional PRED carrying capacity. By learning from the Pressure-State-Response(PSR) model,the assessment index system of regional PRED on Carrying capacity-Pressure-State-Response was established. A comprehensive responsiveness and emergency response grade categorization method was proposed to assess regional PRED system by multi-objective planning and decision making. Using Dalian city as an example,this study empirically analyzes the above-mentioned concept,model,assessment index system and assessment method. The results show that during 2000-2012,PRED system of Dalian was in a state of overload,that regional population carrying capacity decreased from 3630 thousand to 2910 thousand persons. Compared with nationwide levels,the pressure of Dalian PRED system was relative low with a decreasing trend: the load index of regional PRED system dropped from 0.97 to 0.85. Comprehensive responsiveness of regional PRED in Dalian was above 0.6 and emergency response grade was GradeⅡ(orange) or Grade Ⅲ(yellow). The results indicate that because of resource scarcity and environmental degradation,the population carrying capacity of Dalian was gradually decreasing. Due to the continuous development of economy and social security,the pressure of urbanization in Dalian has been relieved. In the future,relevant government departments should seek to actively solve the problem of resources and environmental constraints of new urbanization,resolve the conflicts that hindered the sustainable development of economy and society,promote regional coordinated development through reasonably managing the urban size and resources allocation and practicing environmental protection,industrial transformation and livelihood security improvement. By comparing with similar studies and further discussion,the results of this paper are considered as reliable and conforming to the reality of Dalian in population,resources,environment and economic and social development. The concept of regional PRED carrying capacity and the assessment index system based on the carrying capacity PSR model and multi-objective decision-making method provide a new thought and method to quantitatively assess the quality of urbanization and regional sustainable development.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2066296828</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1207/s15544818ped0101_2</t>
+          <t>https://openalex.org/W1644289212</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Kalantzis (2006)</t>
+          <t>Cook &amp; Brueckner (1991)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Changing Subjectivities, New Learning</t>
+          <t>Fine structure of the solar transition region - Observations and interpretation</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>In this article I argue that today's social transformations are of such depth and significance that they demand a fundamental rethinking of the nature of pedagogy. I address 3 closely interwoven facets of change: the nature of subjectivity, where as citizens, workers, and cultural beings, we are more and more required to be users and players rather than spectators or delegates; the growing intensity and significance of lifeworld diversity in which the local is more multifarious and the global more proximate; and the changing means of production of meaning where the semantic web is increasingly ubiquitous and its meanings multimodal. The response of a New Learning must be multifaceted and holistic. More than reactive, the New Learning must be creative, itself an agent of change rather than merely reflective of change. The transformations wrought by the New Learning must be systemic, rhetorical, and evident in the everyday practices of teaching and learning. In the article I highlight just one of a number of possible pathways, and that is the shift from a psychological/cognitivist view of learning to an epistemological one.</t>
+          <t>An evaluation is conducted of recent high spatial resolution observations of the solar transition region and temperature minimum, in the form of UV spectra and spectroheliographs from both sounding rockets and the Spacelab 2 flights of the High Resolution Telescope and Spectrograph (HRTS). Attention is given to the solar atmosphere structure implications of the HRST's observational results. The inclusion of fine structure in conjectures concerning the transition region affects the plausibility of 1D average models of the solar atmosphere, as well as the determination of temperature gradients, possible nonradiative-heating mechanisms, and the comparison of transition region structures with corresponding observations of the photosphere and corona.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2071306724</t>
+          <t>https://openalex.org/W3093001477</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1051/jphys:01986004704071100</t>
+          <t>https://doi.org/10.1051/matecconf/202032112003</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Gramsbergen et al. (1986)</t>
+          <t>Kulakov et al. (2020)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Antiferroelectric surface layers in a liquid crystal as observed by synchrotron X-ray scattering</t>
+          <t>Effect of adiabatic heating on microstructure evolution in Ti-6Al-4V during high strain rate forging</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>The X-ray reflectivity form the surface of a liquid crystal with terminally polar (cyano substituted) molecules has been studied using a high-resolution triple-axis X-ray spectrometer in combination with a synchrotron source. It is demonstrated that at the surface of the smectic A1 phase a few antiferroelectric double layers develop that can be distinguished from the bulk single layer structure. A model is developed that separates the electron density in a contribution from the molecular form factor, and from the structure factor of the mono- and the bilayers, respectively. With only a few adjustable parameters it accounts for the rather complex observed reflection curve. It shows that (i) the first molecular layer has tails up rather than heads up, (ii) the smectic order parameter of the first mono- and bilayer is saturated, (iii) the antiferroelectric bilayering does decay rather abruptly and not exponentially Etude RX de la surface d'un cristal liquide pres de la transition nematique-smectique A1. Developpement en surface de quelques doubles couches antiferroelectriques qui peuvent etre distinguees de la structure en simples couches du materiau massif</t>
+          <t>The effect of adiabatic heating on microstructure evolution during high strain rate subtransus forging of a Ti-6Al-4V alloy having equiaxed initial microstructure was studied through experiments and modelling. Ø45 × 67.5 mm cylindrical billets with embedded thermocouples were forged at four different α+β temperatures on a Schuler 2100t screw press to evaluate the extent of adiabatic heating in different parts of the billet. In the centre of the billet, the highest temperature increase due to adiabatic heating exceeded the β transus (~1000 °C) during forging. The microstructure of the forged billets was examined for any changes in β phase volume fraction due to adiabatic heating. The forging process was then simulated in Deform 2D/3D software. High strain rate compression testing in the α+β and β temperature fields was carried out using a Phoenix forge simulator to generate input mechanical properties for the model. The effect of the billet size on the α-β phase transformation during forging and post-forge cooling is also discussed.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4255441302</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.21313/hawaii/9780824855680.003.0002</t>
+          <t>https://openalex.org/W1508717656</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Eifring (2016)</t>
+          <t>加藤 (1971)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Types of Meditation</t>
+          <t>A study of Shinto : the religion of the Japanese nation</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>This essay distinguishes between directive meditation, which seeks to bring about inner transformation by means of outside-in processes, and non-directive meditation, which builds on inside-out processes. The two types differ in terms of their meditation object (thematic vs. technical), mental attitude (concentrative vs. non-concentrative), and the context surrounding the practice (suggestive vs. non-suggestive). Most meditation practices include both directive and non-directive elements, but differ widely in their emphases, as illustrated by references to modern studies as well as traditional works on meditation. The suggested distinction differs from the widespread Buddhist-inspired contrast between “concentrative” meditation (or “focused attention”) and “insight” meditation (or “open monitoring”), which is shown to be problematic, especially when applied to non-Buddhist forms of meditation. The social constructivism that has long dominated cultural history tends to give preference to explanations based on directive working mechanisms and to disregard the equally important processes associated with non-directive meditation.</t>
+          <t>Introduction. Genetical or Historical. 1. Some Traces of Animatism or Pre-Animism in Shinto 2. Animistic Phases of Nature Worship Among the Japanese - Complex Nature Worship 3. Fetishism and Phallicism 4. Spiritism 5. Anthropolatry and Ancestor Worship in the Stage of Nature Religion 6. Totemism and Primitive Monotheism in Original Shinto 7. Shinto as a Sheer Polytheism 8. Theanthropic Aspect of Shinto Deities - Shinto as a Theanthropic or Homocentric Religion 9. Shinto is the Japanese National Religion or Natural Growth 10. Ancient Shinto Practices 11. Dawn of Intellectual Awkening 12. Dethronement of Minor Deities and Amalgamation or Unification of Different Deities 13. From Polytheism to Pantheism with Some Phases of Henotheism and Montheism 14. Ancient Myths and the Three Divine Imperial Regalia: An Attempt at Rational Interpretation 15. Germs of Moral Ideas in Shinto and Appearance of a Change in the Idea of Sacrifice 16. Inner Purity Emphasized, and Sincerity or Uperightness as the Fundamental Ethical Principle Becomes Pre-Eminent in Shinto 17. Ethical Transformation of the Naturalistic Phallic Deities From a Higher Religious Point of View and Some Shinto Rites or Ceremonies Moralized 18. Worship of Shinto Deities in Spirit and In Truth - Resulting in Iconoclasm 19. Some Deeper Reflections Upon the Divine Protection of the nation - A Problem Unsolved From the Old Standpoint of Shinto, the National Religion of Japan 20. Unique Position of Shinto Among the World's Religions. Bibliography. Index.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323043702</t>
+          <t>https://openalex.org/W2008629840</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/su15054496</t>
+          <t>https://doi.org/10.1057/jit.2008.20</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Suman &amp; Alblas (2023)</t>
+          <t>Uwizeyemungu &amp; Raymond (2009)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Exploring Citizen Science over Time: Sensing, Technology and the Law</t>
+          <t>Exploring An Alternative Method of Evaluating the Effects of Erp: A Multiple Case Study</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>People over the course of history have survived by developing their ability to ‘sense’ their environment as an embryonic form of citizen science. With the emergence of modern states, governments have assumed responsibility for monitoring the quality of the environment, and progressively the practice and role of citizen science has changed. This review explores the different manifestations of citizen science over time, with a focus on its law and governance dimensions, reading this evolution as a critical analysis of the current discourses around citizen science. The evolution of citizen science throughout history and its transformation shows certain patterns that are highlighted in this article as ‘constant’ features, whereas other features are instead interrupted and reversed, and new ones emerge. We thus examined citizen science over time by asking what is really new about this phenomenon, focusing on constants—permanent features—and turning points—changes in direction. We argue that these dynamics are central to understanding the promises and perils of the practice, to fully grasping the forms of uninvited, reactive environmental citizen science and to scoping foreseeable future scenarios.</t>
+          <t>Previous research has already established that compared to other types of investments, information technology (IT) investments are insufficiently or not at all evaluated. This can be partly explained by the lack of adequate IT evaluation methods and tools. In the case of enterprise resource planning (ERP) systems whose effects on organizational processes and performance are intrinsically profound and wide-ranging compared to those of traditional IT limited to some spheres of organization, evaluation activities may be an issue of great concern. This study thus aims to propose and test an alternative evaluation method adaptable to the organizational context, making it possible to measure the contribution of an ERP system to organizational performance in all its aspects. Combining a process-based model and a scorecard model, the proposed method was first designed from a review of information systems evaluation literature. It has then been validated and refined through a multi-case study of manufacturing firms: an in-depth pilot case study was conducted, and thereafter the study was replicated on two other cases. Results show that the method proposed here enables organizations to determine the extent to which the firm's operational and overall performance has been impacted by the adoption and use of ERP systems, through the automational, informational, and transformational effects of ERP on their business processes. From a practical point of view, three contributions must be mentioned: the proposed method allows for a strong contextualization of its application, it is action-oriented, and it allows comparison across organizations even though organizational contexts may totally differ.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4234236954</t>
+          <t>https://openalex.org/W2163046816</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1190/1.9781560801672.ch5</t>
+          <t>https://doi.org/10.1109/cdc.2008.4739313</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>NA (2007)</t>
+          <t>Lee et al. (2008)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5. Duality</t>
+          <t>Adaptive output tracking control of a surface vessel</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PreviousNext No AccessSeismic True-Amplitude Imaging5. Dualityhttps://doi.org/10.1190/1.9781560801672.ch5 SectionsAboutPDF/ePub ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareFacebookTwitterLinked InReddit Abstract We mentioned in Chapter 1 that all map and image transformation procedures discussed in this book rely on two basic geometric concepts: the Huygens surface (also called the diffraction-traveltime surface or the maximum-convexity surface) and the isochron (also called the aplanat, aplanatic, or equal-traveltime surface). In this chapter, we elaborate further on the common properties and the mutual relationship of these two fundamental surfaces, as well as on their relationship to the 3D reflection-traveltime surface and the 3D target reflector. We always assume a fixed measurement configuration as discussed in the "Measurement configurations" section of Chapter 2. Thus, all traveltime surfaces considered here are functions of a 2D vector parameter ξ, rather than of the complete set of source and receiver coordinates xS and xG. Permalink: https://doi.org/10.1190/1.9781560801672.ch5FiguresReferencesRelatedDetails Seismic True-Amplitude ImagingISBN (print):978-1-56080-143-6ISBN (online):978-1-56080-167-2Copyright: 2007 Pages: 401 publication data© 2007 All rights reserved. No part of this publication may be reproduced or distributed in any form or by any means without written permission of the publisherPublisher:Society of Exploration Geophysicists HistoryPublished in print: 01 Jan 2007 CITATION INFORMATION (2007), "5. Duality," Geophysical Developments Series : 149-172. https://doi.org/10.1190/1.9781560801672.ch5 Plain-Language Summary PDF DownloadLoading ...</t>
+          <t>In this paper, the tracking control of a three degree-of-freedom marine vessel is examined. The novelty of this work is the transformation of the asymmetric inertia matrix into a symmetric, positive definite matrix. The asymmetry arises from the added mass common to practical surface vessels and creates a significant challenge for control design. The control design is further complicated by the parametric uncertainties in the dynamic model of the vessel. Two adaptive control schemes with a projection-based adaptation law are proposed: a full-state feedback controller and an output feedback controller. Both controllers are known to yield a uniformly ultimately bounded tracking result in the presence of parametric uncertainty. Numerical simulation results are shown to demonstrate the validity of the proposed controllers.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2087702603</t>
+          <t>https://openalex.org/W4220900861</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4204/eptcs.169.7</t>
+          <t>https://doi.org/10.1016/j.landusepol.2022.106111</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Kafle &amp; Gallagher (2014)</t>
+          <t>Eggimann (2022)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Convex polyhedral abstractions, specialisation and property-based predicate splitting in Horn clause verification</t>
+          <t>Expanding urban green space with superblocks</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>We present an approach to constrained Horn clause (CHC) verification combining three techniques: abstract interpretation over a domain of convex polyhedra, specialisation of the constraints in CHCs using abstract interpretation of query-answer transformed clauses, and refinement by splitting predicates.The purpose of the work is to investigate how analysis and transformation tools developed for constraint logic programs (CLP) can be applied to the Horn clause verification problem.Abstract interpretation over convex polyhedra is capable of deriving sophisticated invariants and when used in conjunction with specialisation for propagating constraints it can frequently solve challenging verification problems.This is a contribution in itself, but refinement is needed when it fails, and the question of how to refine convex polyhedral analyses has not been studied much.We present a refinement technique based on interpolants derived from a counterexample trace; these are used to drive a property-based specialisation that splits predicates, leading in turn to more precise convex polyhedral analyses.The process of specialisation, analysis and splitting can be repeated, in a manner similar to the CEGAR and iterative specialisation approaches.</t>
+          <t>The Barcelona superblock is an urban neighbourhood transformation strategy, with which car-based traffic is redirected away from streets that are inside a 3 × 3 urban block configuration. This urban design concept promises opportunities for alternative street use such as the transformation of street space into urban green space. The potential to foster urban green space due to superblock design is however unclear, particularly outside of the original Barcelonan context. Concerning urban densification, fostering urban green space is particularly relevant to achieving dense and green cities. In this study, potential superblocks are identified in all major Swiss cities and the current urban green space is quantified. This analysis reveals distinct differences of superblock opportunities and urban green space between different cities and allows pinpointing opportunities for expanding urban green space. Considering the nine largest Swiss cities, between 3% and 18% of the current street network was simulated to be potentially suitable for superblock implementation to transform the streetscape and increase urban green space. The variation of current urban green space coverage across all potential individual superblock sites that have high urban density ranges considerably from a few percentages to above 30%. The presented results allow the exploration of urban green space opportunities at street and block-level arising from superblocks in Switzerland. For example, when considering a citywide superblock implementation scenario, the potential street area is relatively high for Basel whilst at the same time showing relatively low current availability of urban green space. For creating detailed design or transformation strategies based on the explored superblock sites, more integrated analysis to evaluate potential benefits as well as disservices of such urban transformation is required.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1992992897</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/qua.560340848</t>
+          <t>https://openalex.org/W2391075436</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Rodríguez &amp; Ishikawa (1988)</t>
+          <t>Chen (2010)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Fully numerical solutions of the hartree-fock equation in momentum space: A numerical study of the He atom and H+2 ion</t>
+          <t>A Philosophical Reflection on the Problem of Corrupt Bureaucracy——A Rational Examination Based on the Phenomenon and Cause and Modern transformation of Corrupt Bureaucracy in Ancient China</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>A major impediment to achieving accurate solutions of the momentum-space Hartree-Fock equation in fully numerical form lies in the error caused by the truncation of momentum space. We use a coordinate transformation, which is characterized by P = tan(α/2), thus avoiding this truncation to achieve accurate solutions of the Hartree-Fock equation. Using this approach, we have re-examined the He model problem previously analyzed by Delhalle and Defranceschi [Intern. J. Quantum Chem. Symp. 21 425 (1987)]: The kinetic, nuclear attraction and Coulomb repulsion energies of the He atom have been evaluated using both conventional spherical polar momentum coordinates, (p, θ, φ) and the transformed coordinates, (α,θ,φ) in order to compare their accuracies. We have performed a number of fully numerical calculations on the H ion in order to examine the influence of the number of points in the mesh on the accuracy of the computed total electronic energy of the diatomic molecule.</t>
+          <t>Bureaucracy in ancient society not only has Positive role,but also has Negative effects.The negative effects of bureaucracy in ancient society Main show as follows: sell official posts for a consideration,corruption,accept bribes,grab and keep public fortune as his own.Chinese feudal autocratic monarchy is the main cause of bureaucracy.The way of corrupt bureaucracy is that of Pyramid of feudal bureaucratic rank;The asylum umbrella of corrupt bureaucracy is the existence of feudal legal system.The breeding ground of corrupt bureaucracy is that of the officials not only serve as referees but also serve as athletes.A philosophical reflection on the problem of corrupt bureaucracy as follows: in order to build socialism with Chinese characteristics,the most important way is to realize reality beyond and also realize reality shift of corrupt bureaucracy in accent society.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2784193465</t>
+          <t>https://openalex.org/W4387939050</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/rs10010087</t>
+          <t>https://doi.org/10.1007/978-981-99-5235-9_9</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Myoung et al. (2018)</t>
+          <t>Takano et al. (2023)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Estimating Live Fuel Moisture from MODIS Satellite Data for Wildfire Danger Assessment in Southern California USA</t>
+          <t>Molecular Dynamics</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>The goal of the research reported here is to assess the capability of satellite vegetation indices from the Moderate Resolution Imaging Spectroradiometer onboard both Terra and Aqua satellites, in order to replicate live fuel moisture content of Southern California chaparral ecosystems. We compared seasonal and interannual characteristics of in-situ live fuel moisture with satellite vegetation indices that were averaged over different radial extents around each live fuel moisture observation site. The highest correlations are found using the Aqua Enhanced Vegetation Index for a radius of 10 km, independently verifying the validity of in-situ live fuel moisture measurements over a large extent around each in-situ site. With this optimally averaged Enhanced Vegetation Index, we developed an empirical model function of live fuel moisture. Trends in the wet-to-dry phase of vegetation are well captured by the empirical model function on interannual time-scales, indicating a promising method to monitor fire danger levels by combining satellite, in-situ, and model results during the transition before active fire seasons. An example map of Enhanced Vegetation Index-derived live fuel moisture for the Colby Fire shows a complex spatial pattern of significant live fuel moisture reduction along an extensive wildland-urban interface, and illustrates a key advantage in using satellites across the large extent of wildland areas in Southern California.</t>
+          <t>This chapter outlines approaches to the hyperordered structures using molecular dynamics simulations. Molecular dynamics is a simulation technique that can be applied to a wide range of materials, from proteins to inorganic materials, and can be a valuable tool for understanding the essential aspects of the hidden hyperordered structure in materials. A more attractive feature of molecular dynamics is the ability to directly evaluate dynamical properties via the simulations, such as rotation, translation, and vibration of molecules. Conventional molecular dynamics calculations cannot explicitly deal with the bond breaking and formation that accompany chemical reactions and phase transition. With the improvement of such limitations of traditional molecular dynamics, reaction force field and ab initio molecular dynamics are now available to understand chemical reactions around hyperordered structures. As a new trend, machine-learning molecular dynamics calculations, in which the interatomic potentials are described by a machine-learning model trained by ab initio calculations, are progressing. We describe the simulation of a metal complex in protein as a typical hyperordered structure. In the case of silicate materials, we discuss the simulations of radiation-induced defect structures related to the hyperordered structures and unique coordination structures in silicate materials. We also show the application of machine-learning molecular dynamics simulations to elucidate the structures in oxides and metal alloys.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1644289212</t>
+          <t>https://openalex.org/W4212931508</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.47832/2757-5403.12.19</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cook &amp; Brueckner (1991)</t>
+          <t>ALI (2022)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Fine structure of the solar transition region - Observations and interpretation</t>
+          <t>THE PANORAMIC SOCIAL NOVEL IN MODERN HEBREW LITERATURE READING IN SAMI MICHAEL'S FICTION</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>An evaluation is conducted of recent high spatial resolution observations of the solar transition region and temperature minimum, in the form of UV spectra and spectroheliographs from both sounding rockets and the Spacelab 2 flights of the High Resolution Telescope and Spectrograph (HRTS). Attention is given to the solar atmosphere structure implications of the HRST's observational results. The inclusion of fine structure in conjectures concerning the transition region affects the plausibility of 1D average models of the solar atmosphere, as well as the determination of temperature gradients, possible nonradiative-heating mechanisms, and the comparison of transition region structures with corresponding observations of the photosphere and corona.</t>
+          <t>Sami Mikhail's novel productions have recently received considerable attention from critics, scholars and researchers around the world. Perhaps this is due to the fact that his literary products serve as an artistic tool for awareness of the fate of the Jewish immigrant or citizen and his psychology and behaviors, and the daily reality lived and lived by the Iraqi or Israeli society, and the issues and transformations that occur in the life of the Israeli, as well as thanks to its artistic formulation and its substantive objectives. Many analysts saw Sami Michael's novels as a reflection of society and its current reality. Sami Michael was distinguished by his choice of the panoramic novel model because it is a mirror of the Israeli society with all its satisfactory and illuminated details, which may be difficult to engage in other literary genres, especially in monitoring social transformations, cultural changes, environmental and living developments and their repercussions in the lives of Israeli immigrants in the past century and the present century. Thinking and behaviors in society, as well as a clear expression of the traditions and values of Israeli society, addressing issues of concern to man, and the accounts of Sami Michael the Israeli-Jewish-Iraqi individual, And his concerns and issues and conflicts intellectual, psychological, cultural and emotional, and presented many solutions to the problems related to his existence and psychological and social conflicts, according to the vision of the author.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3044415895</t>
+          <t>https://openalex.org/W3202896606</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://doi.org/10.17116/stomat20209904157</t>
+          <t>https://doi.org/10.1016/j.seppur.2021.119886</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Aa et al. (2020)</t>
+          <t>Li et al. (2022)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Regulatory framework of the new system of wage payment in research institutions</t>
+          <t>The roles of oxygen and chloride in the degradation efficiency and mechanism of Basic Violet 16 by liquid glow discharge plasma</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Changes in the legislation, the development of the regulatory and legal framework governing relations in the sphere of wage payment for health care workers has caused the transition of medical organizations to the new system of salaries payments (NSWP). This system has given executives and economists significant freedom when determining the size of payments to the employee per hour worked, including stimulating and compensation payments, bonuses and other regular pension benefits. However, given situation has also resulted in the need for studies intended on the formulation of the criteria's for medical workers of different specialties actions evaluation and the quality of medical services that they have provided, as well as on the efficiency of the health care organizations in general.Изменения в законодательстве, в частности, разработка нормативной правовой базы, регулирующей правоотношения в сфере оплаты труда медицинских работников, обусловили переход медицинских организаций и институтов на новую систему оплаты труда. Эта система предоставила руководителям и экономистам значительную свободу в определении размера выплат, причитающихся работнику за отработанное время, включая стимулирующие и компенсационные выплаты, премии, а также иные регулярные выплаты. Однако данная ситуация также привела к необходимости проведения исследований, направленных на разработку критериев оценки деятельности научных и медицинских работников различных специальностей и влияние этих критериев на качество оказанных медицинских услуг, а также на эффективность функционирования медицинских организаций и институтов в целом.</t>
+          <t>• LGDP combined with O 2 and Cl − system exhibits excellent efficiency in BV16 removal. • O 2 injection and KCl electrolyte enhance the production of ROS and RCS in the system. • Decay of BV16 is a dominated by HO⋅, leading to the formation of organic byproducts. • A pathway for BV16 degradation by LGDP combined with O 2 and Cl − is proposed. The degradation of Basic Violet 16 (BV16) dye in the aqueous solution by a novel Liquid Glow Discharge Plasma (LGDP) combined with KCl (supporting electrolyte) and oxygen (additive) was systematically investigated. Experimental results showed that the LGDP/Cl − /O 2 system significantly facilitated the degradation of BV16 due to the involvement of UV irradiation and reactive species (e.g., HO⋅ and H 2 O 2 ). The decolorization rate of BV16 reached up to 96.2% in 10 min with the TOC removal being 50.6% in 120 min. Meanwhile, reactive oxygen species (ROS) and reactive chlorine species (RCS) generated in the system were detected, and results show that oxygen injection was beneficial to accelerate the production of ROS. The transformation intermediates upon the degradation of BV16 by the LGDP process were monitored. Accordingly, the decay pathway of BV16 in the LGDP system was proposed, i.e., the cleavage of the C=C double bond of BV16 led to the formation of simple aromatic compounds, while further reaction gave rise to the ring opening compounds with the production of some low molecular weight acids (e.g., formic acid, acetic acid, lactate acid, and succinic acid), some of which could eventually be mineralized to CO 2 , H 2 O, and NH 4 + .</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1607150625</t>
+          <t>https://openalex.org/W2891052682</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/14777280510572121</t>
+          <t>https://doi.org/10.1101/413906</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Bell (2005)</t>
+          <t>Kirkland (2018)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Managing learner's expectations</t>
+          <t>Genetic differences between &lt;i&gt;Coccidioides&lt;/i&gt; spp. and closely related nonpathogenic Onygenales</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Purpose To explore ways in which organizations can start moving from training‐centered approaches to learner‐centered approaches. Design/methodology/approach The article is based on work that the author has done with a variety of organizations that has helped to provide a transition from teaching to learning. Findings To move from training to learning needs learners to be involved and informed otherwise they will devalue the learning experience. Practical implications The article is about small‐scale changes that can be made to support learners in the transition period. Originality/value The article will be of value to managers and learning specialists who want to be more innovative in their design of learning programs.</t>
+          <t>Abstract Coccidioides spp. are dimorphic, pathogenic fungi that can cause severe human and animal disease. Like the other primary fungal pathogens, animal infection results in a morphologic transformation from the environmental mycelial phase to a tissue phase, known as a spherule. The sequencing and annotation of Coccidioides spp. and the genomes of several nonpathogenic Onygenales species allows comparisons that provide clues about the Coccidioides spp. genes that might be involved in pathogenesis. The analysis in this study is a gene by gene orthology comparison. Although there were few differences in the size of genes families in the Coccidioides spp.-specific group compared to the genes shared by Coccidioides spp. and nonpathogenic Onygenales, there were a number of differences in the characterization of the two types of genes. Many more Coccidioides spp.-specific genes are up-regulated expression in spherules. Coccidioides spp.-specific genes more often lacked functional annotation and were more often classified as orphan genes. Analysis by random forest machine learning confirmed that high numbers of orthologs and high levels of expression in hyphae were predictive of common genes, while high levels of expression in spherules and more nonsynonymous predicted Coccidioides spp.-specific genes. Review of individual genes in the Coccidioides spp.-specific group identified a histidine kinase, two thioredoxin genes, a calmodulin gene and ureidoglycolate hydrolase. Hopefully, identification of these genes will be useful for pursuing potential Coccidioides spp. virulence genes in the future.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318147134</t>
+          <t>https://openalex.org/W2023505484</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/bigdata55660.2022.10021087</t>
+          <t>https://doi.org/10.2207/qjjws1943.67.144</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Baldwin et al. (2022)</t>
+          <t>Muramatsu &amp; Katayama (1998)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Better Skill-based Job Representations, Assessed via Job Transition Data</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Learning never stops for successful workers, who must grow their careers while coping with the changing expectations of employers. Robust job-skill representations can empower workers by helping them to better decipher viable job changes given their current skill set and guide them toward skills they can learn to meet career goals. In this work we combine threads of research in economics and AI to improve upon existing job-skill representation methodology and performance. We build a benchmark dataset of between-job transitions from US Census data and show that a representation trained on a large set of online job postings via a transformer-based architecture outperforms existing baselines. Further analysis demonstrates that this model is better able to transfer across taxonomies than existing models.</t>
+          <t>Monitoring technique of strains during phase-transformation using laser speckle method.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2389529622</t>
+          <t>https://openalex.org/W2410802931</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.epsl.2016.05.028</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Li (2008)</t>
+          <t>Lobanov et al. (2016)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Theoretical Reflection on the Recalling Nature of 30-Year-Reform</t>
+          <t>Reduced radiative conductivity of low spin FeO6-octahedra in FeCO3 at high pressure and temperature</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>The nature of historical reflection lies in the need of the history,specific reality-based society and consciousness-based society.30-year reform and development has brought fundamental change of economic system,great development of social economy and history conversion of reform stage,and has made our society appear evident features of structurization,complexity and risk.Our country has been in certain turning point.Meanwhile,the reform also has formed mainstream consciousness system based on our Party and country's relevant theory and strategic decision and non-mainstream consciousness system on every benefit community.The contradictory and contest between the two kinds of consciousness system form negative effect on deepening reform in some degree.However,scientifically managing the theory nature of reform history reflect is correctly dealing with this reflection and solving our present contradictory,and is the key to positively push on reform and development.At present,the nature of our society reflect on reform determines multiple provision of reflection meanings,the final essence of reflection lying in establishing a positive,general and constructive theory explanation system about Chinese society evolution and development,maximally promoting the stability,development and progress of the whole society.</t>
+          <t>The ability of Earth's mantle to conduct heat by radiation is determined by optical properties of mantle phases. Optical properties of mantle minerals at high pressure are accessible through diamond anvil cell experiments, but because of the intense thermal radiation at T&gt;1000 K such studies are limited to lower temperatures. Accordingly, radiative thermal conductivity at mantle conditions has been evaluated with the assumption of the temperature-independent optical properties. Particularly uncertain is the temperature-dependence of optical properties of lower mantle minerals across the spin transition, as the spin state itself is a strong function of temperature. Here we use laser-heated diamond anvil cells combined with a pulsed ultra-bright supercontinuum laser probe and a synchronized time-gated detector to examine optical properties of high and low spin ferrous iron at 45–73 GPa up to 1600 K in an octahedral crystallographic unit (FeO6), one of the most abundant building blocks in the mantle. Siderite (FeCO3) is used as a model for FeO6-octahedra as it contains no ferric iron and exhibits a sharp optically apparent pressure-induced spin transition at 44 GPa, simplifying data interpretation. We find that the optical absorbance of low spin FeO6 increases with temperature due to the partially lifted Laporte selection rule. The temperature-induced low-to-high spin transition, however, results in a dramatic drop in absorbance of the FeO6 unit in siderite. The absorption edge (Fe–O charge transfer) red-shifts (∼1 cm−1/K) with increasing temperature and at T&gt;1600 K and P&gt;70 GPa becomes the dominant absorption mechanism in the visible range, suggesting its superior role in reducing the ability of mantle minerals to conduct heat by radiation. This implies that the radiative thermal conductivity of analogous FeO6-bearing minerals such as ferropericlase, the second most abundant mineral in the Earth's lower mantle, is substantially reduced approaching the core–mantle boundary conditions.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2772891606</t>
+          <t>https://openalex.org/W1528558039</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4102/satnt.v28i4.73</t>
+          <t>https://doi.org/10.1163/9789460911477</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Walt (2009)</t>
+          <t>Land et al. (2008)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Study orientation and knowledge of basic vocabulary in Mathematics in the primary school</t>
+          <t>Threshold Concepts within the Disciplines</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Whatever the reason, underachievement in mathematics in South Africa is endemic and tantamount to a national disaster. Despite the transformation of education in South Africa, failure rates in mathematics at school and university remain unacceptably high, and the number of learners who leave Grade 12 with a pass mark in both mathematics and physical science is unacceptably low. Relatively little has been written about inadequate performance of Grade 4 to 7 learners in mathematics in South Africa, and even less about possible solutions to the problem. South African primary school learners’ lack of basic mathematics and vocabulary skills in particular is a source of major concern. In the ﬁrst national systemic evaluation of learners’ skills in English, mathematics and science in 2001 Grade 3 learners achieved an average of 30% in mathematics. In the follow-up studies, Grade 6 learners achieved a national average of 27% in mathematices, in 2004, while nationally eighty percent of Grade 3 and 6 learners achieved less than 50 percent for mathematics and Languages in 2008. The ﬁnding that so many primary school learners today are not numerate or literate has a direct inﬂuence both on the teaching and the learning of mathematics. Everything possible needs to be done to change this situation. During the past 15 years, the research focus in mathematics has shifted to an examination of the inﬂuence of social, cognitive and metacognitive, conative and affective factors on achievement in mathematics. In this regard, it is of particular importance that an ongoing investigation into “other” aspects that impact on achievement in mathematics is launched, rather than to restrict the investigation to mere assessment of objectives that are aimed at continually evaluating cognitive progress in mathematics. There is sufﬁcient empirical evidence that an adequate orientation to the study of mathematics correlates positively with high achievement in mathematics on secondary and tertiary levels. The aim of this research was to investigate the extent to which the performance in study orientation (Study Orientation questionnaire in Mathematics (Primary)) and knowledge of basic vocabulary/terminology in mathematics (Mathematics Vocabulary (Primary)) (vocabulary as one aspect of language in Mathematics) of Grade 4 to 7 learners predict performance in mathematics (Basic Mathematics (Primary)). Three standardised questionnaires were administered, namely the Study Orientation questionnaire in Mathematics (Primary), or SOM(P), Mathematics Vocabulary (Primary) or (MV(P), and Basic Mathematics (Primary) or BM(P). The participants consisted of learners in Grade 4 to 7 (n = 1 103) in North-West Province with respectively Afrikaans, English and Tswana as their home language. Results from the data, by calculating intercorrelations and stepwise regression, conﬁrmed that learners’ performance in mathematics (BM(P)) can be predicted through their performance in the knowledge of basic vocabulary in mathematics (MV(P)), their “maths” anxiety, study attitude towards and study habits in mathematics (SOM(P)). The results can be implemented to improve learners’ performance in mathematics when teachers identify inadequate knowledge of basic vocabulary in mathematics as well as study orientation (for example, “maths” anxiety, study attitude towards and study habits in mathematics) in the early years of schooling. Learners’ scores can be checked to identify those requiring aid, support, remediation and/or counselling. An analysis of individual answers (particularly those where learner’s replies differ signiﬁcantly in respect of the answers usually given by good achievers in mathematics) could be extremely useful. Enculturing learners to the vocabulary of mathematical language is an aspect of instruction that needs speciﬁc attention. The three questionnaires, which are administered in this research, provide mathematics teachers with standardised tools with which to make a simple systematic analysis of a number of important background particulars, feelings, attitudes, habits and customs with regard to the learner’s academic orientation in mathematics, as well as to their knowledge of basic vocabulary in mathematics that could be remedied when inadequate.</t>
+          <t>Threshold Concepts within the Disciplines brings together leading writers from various disciplines and national contexts in an important and readable volume for all those concerned with teaching and learning in higher education. The foundational principle of threshold concepts is that there are, in each discipline, ‘conceptual gateways’ or ‘portals’ that must be negotiated to arrive at important new understandings. In crossing the portal, transformation occurs, both in knowledge and subjectivity. Such transformation involves troublesome knowledge, a key concern for contributors to this book, who identify threshold concepts in their own fields and suggest how to deal with them. Part One extends and enhances the threshold concept framework, containing chapters that articulate its qualities, its links to other social theories of learning and other traditions in educational research. Part Two encompasses the disciplinary heart of the book with contributions from a diversity of areas including computing, engineering, biology, design, modern languages, education and economics. In the many empirical case studies educators show how they have used the threshold concept framework to inform and evaluate their teaching contexts. Other chapters emphasise the equally important ‘being and becoming’ dimension of learning. Part Three suggests pedagogic directions for those at the centre of the education project with contributions focusing on the socialisation of academics and their continuing quest to be effective teachers. The book will be of interest to disciplinary teachers, educational researchers and educational developers. It also is of relevance to issues in quality assurance and professional accreditation.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2163046816</t>
+          <t>https://openalex.org/W2282809857</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/cdc.2008.4739313</t>
+          <t>https://doi.org/10.1086/203816</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Lee et al. (2008)</t>
+          <t>Solway et al. (1990)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Adaptive output tracking control of a surface vessel</t>
+          <t>Foragers, Genuine or Spurious?: Situating the Kalahari San in History [and Comments and Reply]</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>In this paper, the tracking control of a three degree-of-freedom marine vessel is examined. The novelty of this work is the transformation of the asymmetric inertia matrix into a symmetric, positive definite matrix. The asymmetry arises from the added mass common to practical surface vessels and creates a significant challenge for control design. The control design is further complicated by the parametric uncertainties in the dynamic model of the vessel. Two adaptive control schemes with a projection-based adaptation law are proposed: a full-state feedback controller and an output feedback controller. Both controllers are known to yield a uniformly ultimately bounded tracking result in the presence of parametric uncertainty. Numerical simulation results are shown to demonstrate the validity of the proposed controllers.</t>
+          <t>Previous articleNext article No AccessForagers, Genuine or Spurious?: Situating the Kalahari San in History [and Comments and Reply]Jacqueline S. Solway, Richard B. Lee, Alan Barnard, M. G. Bicchieri, Alec C. Campbell, James Denbow, Robert Gordon, Mathias Guenther, Henry Harpending, Patricia Draper, Robert K. Hitchcock, Tim Ingold, L. Jacobson, Susan Kent, Pnina Motzafi-Haller, Thomas C. Patterson, Carmel Schrire, Bruce G. Trigger, Polly Wiessner, Edwin N. Wilmsen, John E. Yellen, and Aram A. YengoyanJacqueline S. Solway Search for more articles by this author , Richard B. Lee Search for more articles by this author , Alan Barnard Search for more articles by this author , M. G. Bicchieri Search for more articles by this author , Alec C. Campbell Search for more articles by this author , James Denbow Search for more articles by this author , Robert Gordon Search for more articles by this author , Mathias Guenther Search for more articles by this author , Henry Harpending Search for more articles by this author , Patricia Draper Search for more articles by this author , Robert K. Hitchcock Search for more articles by this author , Tim Ingold Search for more articles by this author , L. Jacobson Search for more articles by this author , Susan Kent Search for more articles by this author , Pnina Motzafi-Haller Search for more articles by this author , Thomas C. Patterson Search for more articles by this author , Carmel Schrire Search for more articles by this author , Bruce G. Trigger Search for more articles by this author , Polly Wiessner Search for more articles by this author , Edwin N. Wilmsen Search for more articles by this author , John E. Yellen Search for more articles by this author , and Aram A. Yengoyan Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmailPrint SectionsMoreDetailsFiguresReferencesCited by Current Anthropology Volume 31, Number 2Apr., 1990 Sponsored by the Wenner-Gren Foundation for Anthropological Research Article DOIhttps://doi.org/10.1086/203816 Views: 45Total views on this site Citations: 137Citations are reported from Crossref Copyright 1990 The Wenner-Gren Foundation for Anthropological ResearchPDF download Crossref reports the following articles citing this article:Moren Tibabo Stone, Lesego Senyana Stone Conservation, tourism and indigenous communities’ dynamics: the case of Basarwa in the Central Kalahari Game Reserve (CKGR), Botswana, Transactions of the Royal Society of South Africa 78, no.33 (Sep 2023): 181–195.https://doi.org/10.1080/0035919X.2023.2255846Kathryn D. Croll San elders speak: ancestral knowledge of the Kalahari San San elders speak: ancestral knowledge of the Kalahari San , by Lucinda Backwell and Francesco d’Errico, Johannesburg, Wits University Press, 2021, 304 pp., ZAR 390 (paperback), ISBN 978-1-77614-662-8., Anthropology Southern Africa 46, no.33 (Dec 2023): 245–247.https://doi.org/10.1080/23323256.2023.2253277Bernard Clist, James Denbow, Raymond Lanfranchi Using the radiocarbon dates of Central Africa for studying long-term demographic trends of the last 50,000 years: potential and pitfalls, Azania: Archaeological Research in Africa 58, no.22 (Jun 2023): 235–293.https://doi.org/10.1080/0067270X.2023.2215649Tim Forssman Forager and Farmer Interactions in Late Holocene Southern Africa, (Jan 2023).https://doi.org/10.1016/B978-0-323-90799-6.00084-7Sheila Coulson, Sigrid Staurset, Sarah Mothulatshipi, Sallie L. Burrough, David J. Nash, David S.G. Thomas Thriving in the Thirstland: New Stone Age sites from the Middle Kalahari, Botswana, Quaternary Science Reviews 297 (Dec 2022): 107695.https://doi.org/10.1016/j.quascirev.2022.107695Sam Challis and Brent Sinclair-Thomson The Impact of Contact and Colonization on Indigenous Worldviews, Rock Art, and the History of Southern Africa: “The Disconnect”, Current Anthropology 63, no.S25S25 (Nov 2022): S91–S127.https://doi.org/10.1086/722260Duncan N. E. Stibbard‐Hawkes, Coren L. Apicella Myopia rates among Hadza hunter‐gatherers are low but not exceptional, American Journal of Biological Anthropology 179, no.44 (Sep 2022): 655–667.https://doi.org/10.1002/ajpa.24611Erik Gomez-Baggethun Rethinking work for a just and sustainable future, Ecological Economics 200 (Oct 2022): 107506.https://doi.org/10.1016/j.ecolecon.2022.107506Tim Forssman An Archaeological Contribution to the Kalahari Debate from the Middle Limpopo Valley, Southern Africa, Journal of Archaeological Research 30, no.33 (Jun 2021): 447–495.https://doi.org/10.1007/s10814-021-09166-0Manvir Singh, Luke Glowacki Human social organization during the Late Pleistocene: Beyond the nomadic-egalitarian model, Evolution and Human Behavior 43, no.55 (Sep 2022): 418–431.https://doi.org/10.1016/j.evolhumbehav.2022.07.003Andrew Skinner, Sam Challis Fluidities of personhood in the idioms of the Maloti-Drakensberg, past and present, and their use in incorporating co</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2023505484</t>
+          <t>https://openalex.org/W2109337728</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2207/qjjws1943.67.144</t>
+          <t>https://doi.org/10.1201/9781420006278</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Muramatsu &amp; Katayama (1998)</t>
+          <t>Behal et al. (2009)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Monitoring technique of strains during phase-transformation using laser speckle method.</t>
+          <t>Lyapunov-Based Control of Robotic Systems</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Introduction History of Robotics Lyapunov-Based Control Philosophy The Real-Time Computer Revolution Robot Control Introduction Modeling and Control Objective Computed Torque Control Approaches Adaptive Control Design Task-Space Control and Redundancy Vision-Based Systems Introduction Monocular Image-Based Geometry Visual Servo Tracking Continuum Robots Mobile Robot Regulation and Tracking Structure from Motion Path Planning and Control Introduction Velocity Field and Navigation Function Control for Manipulators Velocity Field and Navigation Function Control for WMRs Vision Navigation Optimal Navigation and Obstacle Avoidance Human Machine Interaction Introduction Exercise Machine Steer-by-Wire Robot Teleoperation Rehabilitation Robot Appendix A: Mathematical Background Appendix B: Supplementary Lemmas and Expressions Index References appear at the end of each chapter.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2328529535</t>
+          <t>https://openalex.org/W2103567464</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/972105</t>
+          <t>https://doi.org/10.1177/1081286513504945</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Masson (1997)</t>
+          <t>Balzani &amp; Schmidt (2013)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Cultural Transformation at the Maya Postclassic Community of Laguna de On, Belize</t>
+          <t>Comparative analysis of damage functions for soft tissues: Properties at damage initialization</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Comparisons of Late Classic (A.D. 600-900) and Early-to-Middle Postclassic (A.D. 1000-1400) settlements at Laguna de On illuminate the transformation of Maya society at the community level in the aftermath of the Classic-period collapse. Affluent subsistence production communities such as Laguna de On reflect the emergence of the village as a focal point for social, political, and economic organization at this time, a pattern that persists in the Maya Lowlands to this day. Ties with the past are observed in comparisons of Classic-to-Postclassic domestic and public architectural efforts, burial patterns, faunal remains, lithic tool production and use, and settlement strategy at Laguna de On. Although some technological and material differences are observed in household assemblages of each period, the changes are not interpreted as material reflections of population replacement or ethnic difference. Postcollapse Belize Maya community organization and domestic patterns are analyzed as scaled-down transformations of Classic-period institutions in response to altered conditions of regional demography, ecology, and political geography.</t>
+          <t>In this paper several damage equations are analysed with respect to their properties at damage initialization. This is particularly important for soft biological tissues since two different loading regimes have to be clearly distinguished: the physiological domain where no damage evolution should be considered and the supra-physiological domain where damage evolves. At the transition between these two domains the behaviour of different damage models may influence the convergence of the Newton iteration when solving, for example, nonlinear finite element problems. It is shown that the model proposed by Balzani et al. ( Comput Meth Appl Mech Eng 2012; 213–216: 139–151) a priori ensures smooth tangent moduli. In addition to that, a new damage function is proposed able to describe a slow damage evolution at damage initialization also providing smooth tangent moduli. Using this new damage function the approach given by Balzani et al. ( Acta Biomater 2006; 2(6): 609–618) can also be modified such that smooth tangent moduli are guaranteed. Numerical analyses of a circumferentially overstretched artery are performed and show that no convergence problems are observed at the transition from the undamaged to the damaged domain, even when a model is used that has non-smooth tangent moduli.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2587599875</t>
+          <t>https://openalex.org/W2595631378</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Данилович &amp; Александровна (2016)</t>
+          <t>Chao (2015)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Формирование системы управления персоналом на промышленном предприятии</t>
+          <t>A Digital Humanities Study of Chen Duxiu: Founder of the Chinese Communist Party</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>In article authors considered the role of staff in performance of strategic objectives of development of economy: inclusion of Russia into group of the leading countries on GDP, transition from raw to innovative economy, development of investments into the person. All this has to occur in the conditions of a number of threats: competition globalization, deterioration in the relations with the West, in particular, in the conditions of sanctions for deliveries of goods to Russia and the compelled import substitution. In this case the staff is the most important resource of the enterprise and the country in general. Therefore the purpose of article is increase of efficiency of use of this resource. In article authors offered the HR management system including selection, selection and process of staff hiring, development and estimates of efficiency of use of personnel and specified the modern concept of human resource management including approaches: scientific, economic, administrative, standard, system, process, resource; principles of management: scientific character, profitability, rationality of number and structure of staff, efficiency; functions of management: forecasting and planning of number and structure of staff, planning of fund of payment and awarding of work, organization of workplaces, definition of the ideal worker, controlling and monitoring of personnel, motivation, training and certification of personnel; results of human resource management: creation and introduction of innovations, efficiency of use of staff. In article authors offered the organizational and economic mechanism of motivation of the staff including all types of resources: information, organization, technology, training, career, incentives. Conclusions: human resource management promotes improvement of use of this resource. At the same time the system of motivation and development of staff includes material and financial resources, system of training and ensuring career development, revision of privileges for the staff (1-2 times a year) in system of motivation.</t>
+          <t>This poster, presented at Rice University's first Data Science Meetup (http://dsmeetup.rice.edu/), compiles presentations from several conferences:_x000D_
+_x000D_
+The left side of the poster (originally a PowerPoint presentation) was presented at Reflection on the One Hundred Year of the New Culture Movement, V at Peking University in Beijing, September 19-20, 2015. This presentation will be included in the conference volume._x000D_
+_x000D_
+The right side of the poster was presented at two different times at two different conferences in 2014:_x000D_
+_x000D_
+a) Poster presentation on using Gephi and R to plot out the Anhui connections of Chen Duxiu, at the 5th International Conference of Digital Archives and Digital Humanities, “Crossover and Transformation,” co-organized by Research Center for Digital Humanities, National Taiwan University and Academia Sinica Digital Center. Taipei, Taiwan, December 1-2, 2014. _x000D_
+_x000D_
+b) Presentation at the International Conference on “Modern China in Global Contexts, 1600-Present,” “The Strength of Anhui ties in Chen Duxiu’s Social Networks,”_x000D_
+_x000D_
+Co-organized by the Historical Society of Twentieth Century China and Academia Sinica, Taipei, Taiwan, 11-13 August 2014.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2307050698</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/1757975915595341</t>
+          <t>https://openalex.org/W2740206492</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Patrick et al. (2016)</t>
+          <t>Cabral et al. (2017)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Healthy Cities and the Transition movement: converging towards ecological well-being?</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>This commentary identifies similarities, differences and opportunities for synergy and mutual learning between the Healthy Cities and the Transition movements. We outline what we consider to be the 'pressing issues' facing humanity and the planet in the early 21(st) century; consider the extent to which health promotion has engaged with and addressed these issues; compare Healthy Cities and the Transition movement; and conclude by suggesting possibilities for moving forward.</t>
+          <t>Curriculum Transformation: Redesigning a Construction Management program to a Vertically and Horizontally Integrated Curriculum with Authentic Project-Based Learning</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4365149661</t>
+          <t>https://openalex.org/W2070398608</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5489/cuaj.8195</t>
+          <t>https://doi.org/10.1016/0014-5793(84)81022-4</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Sze et al. (2023)</t>
+          <t>Schindler &amp; Rosenbusch (1984)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>The role of quantitative MRI-based prostate zonal parameters in predicting clinically significant prostate cancer</t>
+          <t>Structural transitions of porin, a transmembrane protein</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>We aimed to investigate the clinical utility of quantitative prostatic zonal measurements on multiparametric magnetic resonance imaging (mpMRI) for the predication of clinically significant prostate cancer (csPCa).A retrospective, single-institution study included 144 men who underwent mpMRI from 2015-2017. Prostate zone parameters were measured on mpMRI. Correlation and multivariable analysis evaluated the relationship between prostate zone parameters and the presence of csPCa.The mean age was 66.9±7.8 years old. The median (interquartile range [IQR]) prostate volume and prostate-specific antigen (PSA) were 51.6 ml (37.1-74.5) and 6.1 ng/ ml (4.5-8.2), respectively. Men with csPCa had significantly smaller total prostate volume (TPV), transitional zone volume (TZV), and transitional zone thickness (TZT), and larger transitional zone density (TZD) compared to those without PCa; however, on multivariate variable analysis, only TZD maintained significance. TZD had a comparable area under the curve to PSA density (PSAD) and PSA (0.74 vs. 0.73 vs. 0.60, respectively). In a subgroup analysis of men with PCa, PSAD and TZD were significantly higher in men with Gleason grade group (GG) ≥2 compared to those with GG &lt;2 (p=0.002); however, this significance is not maintained on logistic regression in predicting GG.Quantitative features of prostate zones on MRI may aid in identifying better predictors of csPCa. Zonal-based PSA density (TZD) may be a useful marker in identifying csPCa. Further exploration is needed to understand the clinical application of larger TZV in men with csPCa compared to those with insignificant disease.</t>
+          <t>Conformational transitions of porin were monitored using 3 independent criteria: (i) oligomeric state as observed by SDS-polyacrylamide gel electrophoresis; (ii) spectroscopic titrations (ultraviolet and circular dichroism) and (iii) chemical modifications. Four pH-dependent transitions were observed with half-maximal changes occurring at pH values of 1.6, 3.5, 11.2 and 12.4. Two of these pH values differ significantly from intrinsic pK values of the constituent amino acids of this membrane protein. Since porin is very polar despite its location predominantly within the outer membranes, this may be due to ion pair formation in the hydrophobic environment of the membrane.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2052755330</t>
+          <t>https://openalex.org/W2027195522</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/00001648-199709000-00015</t>
+          <t>https://doi.org/10.1074/jbc.m510369200</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Forastiére et al. (1997)</t>
+          <t>Dash et al. (2006)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Socioeconomic Status, Number of Siblings, and Respiratory Infections in Early Life as Determinants of Atopy in Children</t>
+          <t>Examining Ty3 Polypurine Tract Structure and Function by Nucleoside Analog Interference</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>The associations between arsenic ingestion and cancers of the bladder and kidney have been documented in Taiwan. To evaluate further such associations for urinary cancers of various cell types, we conducted an ecologic study encompassing 243 townships using cancer registry data of patients diagnosed between 1980 and 1987. We used the proportions of wells with various specified arsenic levels in each township as indicators of exposure and evaluated the effects of urbanization and smoking by an urbanization index and the number of cigarettes sold per capita. In both genders, we observed associations of high arsenic levels in drinking water with transitional cell carcinomas of the bladder, kidney, and ureter and all urethral cancers combined. We also observed such associations in adenocarcinomas of the bladder in males, but not in squamous cell carcinomas of the bladder or renal cell carcinomas or nephroblastomas of the kidney. There was also a positive association between the urbanization index and transitional cell carcinomas of the ureter in males. The number of cigarettes sold per capita was not a good predictor for urinary cancers. The results indicate that the carcinogenicity of arsenic may be cell type specific.</t>
+          <t>We have combined nucleoside analog interference with chemical footprinting, thermal denaturation, NMR spectroscopy, and biochemical studies to understand recognition of the polypurine tract (PPT) primer of the Saccharomyces cerevisiae long terminal repeat-containing retrotransposon Ty3 by its cognate reverse transcriptase. Locked nucleic acid analogs, which constrain sugar ring geometry, were introduced pairwise throughout the PPT (-)-DNA template, whereas abasic tetrahydrofuran linkages, which lack the nucleobase but preserve the sugar phosphate backbone, were introduced throughout the (-)-strand DNA template and (+)-strand RNA primer. Collectively, our data suggest that both the 5′- and 3′-portions of the PPT-containing RNA/DNA hybrid are sensitive to nucleoside analog substitution, whereas the intervening region can be modified without altering cleavage specificity. These two regions most likely correspond to portions of the PPT that make close contact with the Ty3 reverse transcriptase thumb subdomain and RNase H catalytic center, respectively. Achieving a similar phenotype with nucleoside analogs that have different effects on duplex geometry reveals structural features that are important mediators of Ty3 PPT recognition. Finally, the results from introducing tetrahydrofuran lesions around the scissile PPT/unique 3′-sequence junction indicate that template nucleobase -1 is dispensable for catalysis, whereas a primer nucleobase on either side of the junction is necessary. We have combined nucleoside analog interference with chemical footprinting, thermal denaturation, NMR spectroscopy, and biochemical studies to understand recognition of the polypurine tract (PPT) primer of the Saccharomyces cerevisiae long terminal repeat-containing retrotransposon Ty3 by its cognate reverse transcriptase. Locked nucleic acid analogs, which constrain sugar ring geometry, were introduced pairwise throughout the PPT (-)-DNA template, whereas abasic tetrahydrofuran linkages, which lack the nucleobase but preserve the sugar phosphate backbone, were introduced throughout the (-)-strand DNA template and (+)-strand RNA primer. Collectively, our data suggest that both the 5′- and 3′-portions of the PPT-containing RNA/DNA hybrid are sensitive to nucleoside analog substitution, whereas the intervening region can be modified without altering cleavage specificity. These two regions most likely correspond to portions of the PPT that make close contact with the Ty3 reverse transcriptase thumb subdomain and RNase H catalytic center, respectively. Achieving a similar phenotype with nucleoside analogs that have different effects on duplex geometry reveals structural features that are important mediators of Ty3 PPT recognition. Finally, the results from introducing tetrahydrofuran lesions around the scissile PPT/unique 3′-sequence junction indicate that template nucleobase -1 is dispensable for catalysis, whereas a primer nucleobase on either side of the junction is necessary. Although reverse transcription in long terminal repeat (LTR) 3The abbreviations used are: LTR, long terminal repeat; PPT, polypurine tract; RTs, reverse transcriptases; U3, unique 3′-sequence; HIV-1, human immunodeficiency virus type 1; LNA, locked nucleic acid; H4folate, tetrahydrofuran; RAb, abasic riboside; DAb, abasic deoxyriboside; Tm, melting temperature; DQF, double quantum filtered. -containing retrotransposons of Saccharomyces cerevisiae (Ty1 and Ty3) and Saccharomyces paradoxus (Ty5) can be likened to that in retroviruses, notable differences have recently been documented. These include (a) initiation of (-)-strand DNA synthesis from an internal site of the host-coded tRNA primer as opposed to its 3′ terminus (1Ke N. Gao X. Keeney J.B. Boeke J.D. Voytas D.F. RNA (N. Y.). 1999; 5: 929-938Crossref PubMed Scopus (27) Google Scholar), (b) initiation of (-)-strand DNA synthesis via self-priming (2Levin H.L. Mol. Cell. Biol. 1995; 15: 3310-3317Crossref PubMed Scopus (82) Google Scholar), (c) use of a bipartite primer-binding site derived from each end of the viral RNA genome to initiate (-)-strand DNA synthesis (3Gabus C. Ficheux D. Rau M. Keith G. Sandmeyer S. Darlix J.L. EMBO J. 1998; 17: 4873-4880Crossref PubMed Scopus (60) Google Scholar), and (d) divergence in size and sequence of the (+)-strand polypurine tract (PPT) primers (see Fig. 1) (4Heyman T. Agoutin B. Friant S. Wilhelm F.X. Wilhelm M.L. J. Mol. Biol. 1995; 253: 291-303Crossref PubMed Scopus (48) Google Scholar, 5Wilhelm M. Heyman T. Boutabout M. Wilhelm F.X. Nucleic Acids Res. 1999; 27: 4547-4552Crossref PubMed Scopus (20) Google Scholar). A detailed biochemical study of these processes has been hampered by the lack of purified LTR-containing retrotransposon reverse transcriptases (RTs). However, the availability of active recombinant Ty1 and Ty3 enzymes (6Wilhelm M. Boutabout M. Wilhelm F.X. Biochem. J. 2000; 348: 337-342Crossref PubMed Scopus (39) Google Scholar, 7Rausch J.W. Grice M.K. Henrie</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3157917116</t>
+          <t>https://openalex.org/W2052399669</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/0973703021998993</t>
+          <t>https://doi.org/10.1016/j.neucom.2012.11.021</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Jejeebhoy &amp; Kumar (2021)</t>
+          <t>Liu et al. (2013)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>What Prevents Adolescent Girls from Transitioning from School to Work in India? Insights from an Exploratory Study in Rajasthan</t>
+          <t>Neural-network-based zero-sum game for discrete-time nonlinear systems via iterative adaptive dynamic programming algorithm</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Female labour force participation among young women in India is disturbingly low, and yet little evidence is available regarding the factors likely to affect the school-to-work transition among the young. Data from 325 girls aged 15–19 years and in-depth interviews with 10 of these girls and 9 of their mothers in one block of Jodhpur district, obtained from a mixed-methods study in Rajasthan, explore girls’ aspirations for professional, administrative or technical careers and factors likely constraining or facilitating their articulation of such aspirations. Findings show that girls who aspired for a professional, administrative or technical career were more likely than others to display better learning outcomes (odds ratio = 1.31), greater work-related agency and a readiness to overcome community obstacles (odds ratio, 1.28) than those who did not aspire for a professional, administrative or technical career. They were also more likely to be unmarried or married but residing in the natal home (odds ratio = 2.97) and have supportive parents (odds ratio = 1.37). In-depth interviews corroborate these obstacles. Findings underscore the need to empower girls and break down traditional norms held by girls, parents and communities. On the programme front, it is important to ensure empowerment programmes for girls and address the quality and girl-friendliness of education and vocational training opportunities.</t>
+          <t>In this paper, we solve the zero-sum game problems for discrete-time affine nonlinear systems with known dynamics via iterative adaptive dynamic programming algorithm. First, a greedy heuristic dynamic programming iteration algorithm is developed to solve the zero-sum game problems, which can be used to solve the Hamilton–Jacobi–Isaacs equation associated with H∞ optimal regulation control problems. The convergence analysis in terms of value function and control policy is provided. To facilitate the implementation of the algorithm, three neural networks are used to approximate the control policy, the disturbance policy, and the value function, respectively. Then, we extend the algorithm to H∞ optimal tracking control problems through system transformation. Finally, two simulation examples are presented to demonstrate the effectiveness of the proposed scheme.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2008266806</t>
+          <t>https://openalex.org/W3125029439</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/h0094117</t>
+          <t>https://doi.org/10.1198/jbes.2009.0008</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Упитис (1993)</t>
+          <t>Maheu &amp; McCurdy (2009)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Children's invented symbol systems: Exploring parallels between music and mathematics.</t>
+          <t>How Useful are Historical Data for Forecasting the Long-Run Equity Return Distribution?</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>This is a short report of an exploratory study linking children's invented mathematical notations and music notations. Ten 8-year-old children participated in the study. Prior research in music notations has indicated that children have a variety of symbols at their disposal, and their choice of symbols depends on the entity they are trying to capture. This was also the case for notations of tessellations. Although there were similarities found between the use of symbols in the two domains, a consideration of the intended reader did not appear to be a contributing factor in designing mathematical notations. This research note describes the first of four phases of the research comparing children's invented notations for mathematics and music. The overall aims of the research are to explore the authentic connections between music and mathematics in terms of notations, as well as form and transformations, and to adapt methodologies used in researching children's music cognition to address parallel situations in mathematics. There is much to learn from the research on music notations in advancing our understanding of mathematics notations. A diverse body of research indicates that children use a rich and varied repertoire of symbols and strategies in notating rhythm sequences and melodies. They notate with pictures or icons, letters and words, numbers, lines and squiggles and crosses, music symbols, and color to create engaging systems of recording the music they (Bamberger, 1982; Davidson &amp; Colley, 1986; Davidson &amp; Scripp, 1988; Davidson, Scripp, &amp; Welsh, 1988; Smith, 1989; Upitis, 1987, 1990a) and compose (Borstad, 1989; Upitis, 1990b, 1992). In an examination of the research on children's music notations, three other features consistently emerge. The first is that children are more likely to engage in exploring and using music notations when they are involved in making something that they value as real—perhaps composing a piece that others will in a class concert (Upitis, 1992). Second, research on music notations indicates the importance of the intended or imagined reader. Children are less likely to use music symbols if they know that the person who will be reading their notation is not fluent in standard notation (Upitis, 1990a, 1992). Finally, research indicates that when children truly embrace an idea, they make it a part of their world, using the idea to see the everyday phenomena in new ways (Hodgkin, 1985). Thus, children who become musicians and composers may hear the music in the pattern on a sweater or in a mosaic (Upitis, 1990b).</t>
+          <t>We provide an approach to forecasting the long-run (unconditional) distribution of equity returns making optimal use of historical data in the presence of structural breaks. Our focus is on learning about breaks in real time and assessing their impact on out-of-sample density forecasts. Forecasts use a probability-weighted average of submodels, each of which is estimated over a different history of data. The empirical results strongly reject ignoring structural change or using a fixed-length moving window. The shape of the long-run distribution is affected by breaks, which has implications for risk management and long-run investment decisions.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3125029439</t>
+          <t>https://openalex.org/W4396296768</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1198/jbes.2009.0008</t>
+          <t>https://doi.org/10.15468/dl.hwnx8r</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Maheu &amp; McCurdy (2009)</t>
+          <t>AUTHOR_ID (2022)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>How Useful are Historical Data for Forecasting the Long-Run Equity Return Distribution?</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>We provide an approach to forecasting the long-run (unconditional) distribution of equity returns making optimal use of historical data in the presence of structural breaks. Our focus is on learning about breaks in real time and assessing their impact on out-of-sample density forecasts. Forecasts use a probability-weighted average of submodels, each of which is estimated over a different history of data. The empirical results strongly reject ignoring structural change or using a fixed-length moving window. The shape of the long-run distribution is affected by breaks, which has implications for risk management and long-run investment decisions.</t>
+          <t>A dataset containing 1781054 species occurrences available in GBIF matching the query: { "and" : [ "TaxonKey is one of (Valeriana celtica L., Valeriana dioica L., Valeriana elongata Jacq., Valeriana montana L., Valeriana officinalis L., Valeriana saxatilis L., Valeriana supina Ard., Vallisneria spiralis L., Veratrum album L., Veratrum nigrum L., Veronica aphylla L., Veronica bellidioides L., Veronica chamaedrys L., Veronica fruticans Jacq., Veronica fruticulosa L., Veronica officinalis L., Viola alba Besser, Viola biflora L., Viola calcarata L., Viola canina L., Viola collina Besser, Viola elatior Fries, Viola hirta L., Viola mirabilis L., Viola odorata L., Viola palustris L., Viola reichenbachiana Jord. ex Boreau, Viola riviniana Rchb., Viola uliginosa Besser, Vulpia bromoides (L.) Gray, Vulpia ciliata Dumort., Vulpia fasciculata (Forssk.) Samp., Vulpia myuros (L.) C.C.Gmel., Woodsia alpina (Bolton) Gray, Woodsia glabella R.Br. ex Rich., Woodsia ilvensis (L.) R.Br., Zannichellia palustris L., Zostera marina L., Zostera noltii Hornem., Achillea crithmifolia Waldst. &amp;amp; Kit., Achillea macrophylla L., Achillea nana L., Achillea pannonica Scheele, Achillea ptarmica L., Achillea salicifolia Besser, Achillea setacea Waldst. &amp;amp; Kit., Adonis vernalis L., Agave americana L., Agrimonia procera Wallr., Alnus incana (L.) Moench)", "Year is greater than or equal to 2000" ] } The dataset includes 1781054 records from 2560 constituent datasets: 7 records from Herbarium of the Institute of the problems of Northern development (TMN). 1 records from St Andrews BioBlitz 2015. 444 records from Observational database of Icelandic plants. 2 records from Dörnberg. 2 records from ACQUISITION_CBNMC - 2019_08_Barrat_HtAllier. 3 records from Landschaftsschutzgebiet Buchhorst 3. 1 records from Projet photovoltaïque sur ancien CET à RAUZAN - Flore - Inventaire non protocolé. 1 records from Wiese - Schulgelände des Franziskusgymnasiums (Lingen). 22 records from Chronicle of Nature - Phenology of Plants of Pechoro-Ilych State Nature Reserve. 1 records from Programmes sur les EVEE dans les départements de l'ancienne région Languedoc-Roussillon - Divers jeux de données sur les EVEE dans l'ex région LR. 1 records from ACQUISITION_CBNMC - DUPRÉ Rémi. 3 records from Projet de parc photovoltaïque au sol à Vallon-en-Sully (03) au lieu-dit "Les Graves" - 2018 Inventaire faune-flore à Vallon-en-Sully (03). 1 records from Biodiversity of Zmiinyi Island. 2 records from Langenberger Forst am Ochsenweg/ Niebüll-Leck. 453 records from Plant. 56 records from Visiolittoral : conservatoire du littoral - Visiolittoral : surveillance de sites du littoral. 118 records from Etudes scientifiques flore sur le TAG du CBNMed - Divers jeux de données du CBNMED produites dans le cadre de programmes scientifiques. 640 records from Inventaire de la flore de Dordogne 2015-2019 - Inventaire de la flore de Dordogne 2017. 3 records from Centrale éolienne du Moulin de la Houssaye - CEHOU - Prospection faune flore étude d'impact. 47953 records from Observations du Conservatoire botanique national du Bassin parisien.. 16 records from Chronicle of Nature - Phenology of Plants of State Nature Reserve Nurgush. 1 records from Biotope in Rheine - Aktion 350. 11 records from ACQUISITION_CBNMC - 2019_02_01_FR8302035_2018. 1 records from ACT BioBlitz. 3 records from Expertise IQE du Golf &amp;amp; Country club de Bossey en 2020 - Donnees espèces - Expertise IQE Golf &amp;amp; Country club de Bossey 2020. 2 records from Inventaire biodiversité du site Pierre Fabre de Castres / Péraudel. 8 records from Bulau. 1 records from Projet de centrale photovoltaïque au sol de St-Romain-en-Gal - Données biodiversité St-Romain-en-Gal. 3 records from CardObs : Observations naturalistes issues de l'outil de saisie et gestion CardObs mis en place par le Service du Patrimoine Naturel (MNHN) / UMS PatriNat (OFB - CNRS - MNHN) - Données naturalistes de Ségolène FAUSTEN. 2 records from Demande d’autorisation environnementale pour le renouvellement, l’extension et l’approfondissement de la carrière « le Mont Colquin » située sur le territoire de la commune de Doville - Etude écologique - Inventaires faune-flore 2016. 41 records from Faun. 1 records from PACA-AGP - Herbarium Anchieta. 1 records from Projet de renouvellement du Parc éolien des Trois Muids - Inventaires faune-flore. 3 records from ACQUISITION_CBNMC - Ecosphère. 6 records from ACQUISITION_CBNMC - CORNIER. 1 records from Abejas silvestres (Hymenoptera: Apoidea) de la región Praderas de Tokio-El Potosí - Sierra Mazmorras - Cañón de Iturbide, Coahuila y Nuevo León, México. 1 records from Parc éolien de Novion-Corny faune flore. 1 records from Projet éolien des Groies. 20 records from ACQUISITION_CBNMC - FNELoire_floreremarquable_2015. 125611 records from Artportalen (Swedish Species Observation System). 2 records from Projet de parc photovoltaïque au sol à Crotenay (39) au lieu-dit "champs des laves" - Inventaire faune-flore. 2 records from VF</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4231360178</t>
+          <t>https://openalex.org/W2031176627</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5325/gestaltreview.25.1.0143</t>
+          <t>https://doi.org/10.1163/15718123-01405002</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Burton (2021)</t>
+          <t>Bongiovanni et al. (2014)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Philosophy of Law and International Criminal Law: Between Peace and Morality</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>In Mind and the Cosmic Order, the mathematician Charles Pinter examines the role mind plays in the construction of reality, ultimately concluding that the mental constructs that give existence its form and structure, while not material, are no less real than the physical world with which the mind interacts. In this brief but wide-ranging book consisting of nine chapters that tackle subjects ranging from the seeing eye to the scientific observer, Pinter takes a synthetic approach to the study of the cosmic order, drawing on such diverse fields as biology, physics, neuroscience, cognitive science, psychology, and philosophy to argue that the sensations and thoughts located in the mind of the perceiver bring to light facets of reality whose very existence depends on the act of perception.Pinter begins his foray into the nature of reality with a discussion of the mechanics of vision. Our assumption that what we see offers a realistic depiction of the external world proves hopelessly naïve in Pinter's account. What exists in what Pinter calls the mind-independent world and what we see in the mind's eye have very different properties. The matter and energy that make up the material world is undifferentiated and featureless until it is observed. Seeing, however, does not simply imprint a visual representation of the external world on the brain. The patches of light and shadow received from the external world reach only as far as the retina. The optic nerve then transforms the information it receives into electrochemical signals, which it then transmits to the brain, where the visual information becomes reconstituted, emerging as a visual image that we understand as a sensation. Our visual world, then, is a constructed reality or Gestalt that we then project back onto the external world through a process called distal attribution.For the purposes of his study, Pinter defines a Gestalt as “a whole, unified single entity when viewed in its entirely from an outside perspective” (44). The ability to see in these Gestalt wholes is supremely adaptive. Although the life of any creature depends on its active engagement with the objects and beings in its orbit, the raw data it receives from its environment is unorganized and chaotic. The ability to segment that data into distinct objects and then to group those objects into a synthetic whole—that is, to create Gestalt images that lend form and structure to undifferentiated matter and energy—allows the creature to select from all the available environmental data the information it most needs to make decisions that will ensure its own survival. What the creature perceives is not the world as it is but a mental model of the world that is adaptive to its needs as a living being.However important for survival the Gestalt wholes we create may be, they do not have material existence; they are mental constructs, the property of perception, not of the mind-independent world. But are they real? Pinter thinks they are, but the answer to this question requires that he draw a distinction, not just between the material world and the immaterial objects of our cognition, but also between the brain and the mind. Although recent trends in cognitive science have emphasized the primacy of the material brain in the processing of information, Pinter takes an alternate approach, highlighting the difference between the electrochemical activity that takes place on the brain's cerebral cortex and the vivid sensations and thoughts produced by the mind. Pinter argues that the brain encodes information that instills a subjective feeling in the mind. Sensations, nonmaterial perceptions produced by material means, are for Pinter “the medium in which all conscious activity unfolds” (58). Sensations are not limited to such physical experiences of pain or color, however; they also encompass thought, because “to have a thought is to experience its meaning” (59). All mental content, then, is grounded in sensations that perceivers group together to form what Pinter calls “Gestalt image-schemas,” combinations of sensations that yield ever more complex meaning.The mind-independent world is pluripotent. Things present in this world are latent and unrealized, becoming actualized only when an observer segments the visual field into Gestalt wholes that give objects form and structure. But the mental activity that plays a constitutive role in the creation of physical reality also has the capacity to bring into being nonmaterial facts and categories. The mind-independent world uncoupled from the observer is nothing more than undifferentiated matter and energy, but it is also a world awaiting interpretation. Facts, too, require observers to bring them into existence, for facts, like objects, are constructed Gestalt wholes. The same is true of categories. Category formation comes about as a process of abstraction as the observer discerns common features in different objects: abstractions that become reified into indepen</t>
+          <t>The legal philosophy of the 20th century has contributed to the development of international criminal law by rethinking fundamental legal concepts and theories concerning the nature of international law, its relation with national laws, the connection between the law and the State, and the very idea of responsibility. This was achieved, in the first place, through the reflection of Hans Kelsen, who put forward the idea of a system of enforceable criminal norms at the international level, directed at individuals and having a positive legal foundation. In the years immediately following the Second World War, a number of legal theorists and, in particular, Gustav Radbruch, argued in favour of a necessary connection between law and morality, on whose basis it could be claimed that the worst atrocities were punishable even when allowed by state norms, and even in the absence of positive international norms. In the last decade, the practice of international criminal law, through ad hoc tribunals and the International Criminal Court, has stimulated theoretical reflections on a variety of further fundamental issues, like impartiality, judicial truth, justification of punishment, side-effects of prosecution and transitional justice.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2031176627</t>
+          <t>https://openalex.org/W3005955506</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/15718123-01405002</t>
+          <t>https://doi.org/10.1109/icce-tw46550.2019.8991905</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Bongiovanni et al. (2014)</t>
+          <t>Kong et al. (2019)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Philosophy of Law and International Criminal Law: Between Peace and Morality</t>
+          <t>Multi-agent Negotiation in Real-time Bidding</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>The legal philosophy of the 20th century has contributed to the development of international criminal law by rethinking fundamental legal concepts and theories concerning the nature of international law, its relation with national laws, the connection between the law and the State, and the very idea of responsibility. This was achieved, in the first place, through the reflection of Hans Kelsen, who put forward the idea of a system of enforceable criminal norms at the international level, directed at individuals and having a positive legal foundation. In the years immediately following the Second World War, a number of legal theorists and, in particular, Gustav Radbruch, argued in favour of a necessary connection between law and morality, on whose basis it could be claimed that the worst atrocities were punishable even when allowed by state norms, and even in the absence of positive international norms. In the last decade, the practice of international criminal law, through ad hoc tribunals and the International Criminal Court, has stimulated theoretical reflections on a variety of further fundamental issues, like impartiality, judicial truth, justification of punishment, side-effects of prosecution and transitional justice.</t>
+          <t>In this paper, we study the problem of multi-agent negotiation in real-time bidding scenario. We present a new solution, Extended Q-learning Network (EQN), which iteratively assigns the state transition probability and finally converges to a unique optimum effectively; Importantly, we propose a naive edge computing framework between mobile devices and cloud servers to handle the data preprocessing and transmission simultaneously to reduce the load of cloud servers; Finally, extensive experiment on real dataset demonstrates EQN's soundness (fast convergence), properties and effectiveness (achieve state-of-the-art in real-time bidding task). Our experimental results manifest that our proposed approach outperforms the comparable baselines.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3005955506</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/icce-tw46550.2019.8991905</t>
+          <t>https://openalex.org/W625936046</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Kong et al. (2019)</t>
+          <t>Birch (1987)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Multi-agent Negotiation in Real-time Bidding</t>
+          <t>Job Creation in America: How Our Smallest Companies Put the Most People to Work</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>In this paper, we study the problem of multi-agent negotiation in real-time bidding scenario. We present a new solution, Extended Q-learning Network (EQN), which iteratively assigns the state transition probability and finally converges to a unique optimum effectively; Importantly, we propose a naive edge computing framework between mobile devices and cloud servers to handle the data preprocessing and transmission simultaneously to reduce the load of cloud servers; Finally, extensive experiment on real dataset demonstrates EQN's soundness (fast convergence), properties and effectiveness (achieve state-of-the-art in real-time bidding task). Our experimental results manifest that our proposed approach outperforms the comparable baselines.</t>
+          <t>Explores how jobs are created and destroyed in the United States. Data is derived from 12 million business establishments studied since 1969. Results show that the business population as a whole is extremely turbulent, meaning millions of companies form every year, and a significant portion experience growth -- especially small firms. An era of innovation is on the rise, stemming from a small number of high tech and high-innovation firms that are leading the service industries of the United States. The economies of Canada, Sweden, and the United Kingdom are studied as well, and are found to exhibit strikingly different characteristics from the US, based on differing cultural values; consequently, change will evolve slowly. The spatial implications of the innovation revolution are discussed, and predictions are made for future areas of economic growth. Conclusions show that the US worker must be willing to seek opportunities, acquire knowledge that is valuable across industries, and adapt to multiple jobs and the career shifts that necessarily accompany turbulent, innovation-based markets. (CJC)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2997927682</t>
+          <t>https://openalex.org/W2503321288</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2514/6.2020-1034</t>
+          <t>https://doi.org/10.1111/anhu.12105</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Venkatachari et al. (2020)</t>
+          <t>Hoffman (2016)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Assessment of Transition Modeling Capability in OVERFLOW with Emphasis on Swept-Wing Configurations</t>
+          <t>Learning to See: Intuition and Perception in Fieldwork in Haiti</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>In preparation for comparisons with data obtained from the recently concluded experiments in the National Transonic Facility at the NASA Langley Research Center on the new common research model with natural laminar flow (CRM-NLF), an assessment of the current transition modeling capability in the NASA OVERFLOW 2.2o code has been carried out. A combination of the available experimental data and linear stability analysis is used to evaluate the accuracy and robustness of these models for selected swept-wing type configurations, with significant crossflow. An additional goal for this work involves providing a comparative assessment of the relevant transition models in the context of a single flow solver and identifying model limitations as well as the potential for future improvements that would help strengthen the physical basis of such transition models. Included in this investigation is an assessment of the sensitivities of the underlying transition models to grid resolution (wall-normal, as well as streamwise and spanwise) and the values of extra input parameters such as the level of surface roughness and freestream turbulence variables. The flow configurations targeted in this assessment include the NASA NLF(2)-0415 swept-wing configuration, the sickle-shaped wing introduced by the Technical University of Braunschweig, and the wing-body configuration of the CRM model from the fourth and fifth AIAA CFD Drag Prediction Workshops.</t>
+          <t>This article describes subjective transformations in perception that the author has experienced over years of field visits to Haiti. These changes suspend the usual rationalist assumptions about the separation between mind and material environment, animate and inanimate, temporal cause and effect. Instead, the article suggests an attunement between ethnographer and the field, where the field itself speaks and forces different modalities of perception, knowledge, and learning. Intuition and symbolic and spiritual sources of meaning are significant dimensions of a process of “coming into understanding” that is never complete, but always evolving.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2627888317</t>
+          <t>https://openalex.org/W1977334306</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://doi.org/10.25081/jsa.2017.v1.61</t>
+          <t>https://doi.org/10.1016/j.mcm.2011.05.007</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Gayan et al. (1970)</t>
+          <t>Kolokotroni et al. (2011)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Novel biotransformation of menthone by microbial strains and vermicompost microbial consortium</t>
+          <t>Studying the growth kinetics of untreated clinical tumors by using an advanced discrete simulation model</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>The aim of the study was to evaluate the ability of Trichoderma harzianum and Pseudomonas fluorescence and vermicompost microbial consortium to biotransform the monoterpene menthone. The different microbial transformation was carried out in different media including the control flask. Samples of different cultures were taken after every 24 hours, extracted with n-hexane and analysed by GC and GC-MS. The chemical structure of the bio transformed products were identified by GC and GC-MS. All the microbial strains led to the decomposition of menthone with time. The most valuable transformation was the production of menthol by vermicompost microbial strain. The obtained data indicated that vermicompost microbial consortium is a good biocatalyst to convert the ketonic group into hydroxyl group and showed the importance of various microbial strains in the biotransformation of the menthone.</t>
+          <t>Prior to an eventual clinical adaptation and validation of any clinically oriented model, a thorough study of its dynamic behavior is a sine qua non. Such a study can also elucidate aspects of the interplay of the involved biological mechanisms. Toward this goal, the paper focuses on an in-depth investigation of the free growth behavior of a macroscopically homogeneous malignant tumor system, using a discrete model of tumor growth. We demonstrate that when a clinical tumor grows exponentially, the following preconditions must be fulfilled: (a) time- and space-independent tumor dynamics, in terms of the transition rates among the considered cell categories and the duration of the cell cycle phases, and (b) a tumor system in a state of population equilibrium. Moreover, constant tumor dynamics during the simulation are assumed. In order to create a growing tumor, a condition that the model parameters must fulfill has been derived based on an analytical treatment of the model’s assumptions. A detailed parametric analysis of the model has been performed, in order to determine the impact and the interdependences of its parameters with focus on the free growth rate and the composition of cell population. Constraining tumor cell kinetics, toward limiting the number of possible solutions (i.e., sets of parameters) to the problem of adaptation to the real macroscopic features of a tumor, is also discussed. After completing all parametric studies and after adapting and validating the model on clinical data, it is envisaged to end up with a reliable tool for supporting clinicians in selecting the most appropriate pattern, extracted from several candidate therapeutic schemes, by exploiting tumor- and patient-specific imaging, molecular and histological data.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4395600964</t>
+          <t>https://openalex.org/W2034780510</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15468/dl.5zj7jg</t>
+          <t>https://doi.org/10.1109/iccse.2013.6554127</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>AUTHOR_ID (2023)</t>
+          <t>Lin &amp; Wen (2013)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Occurrence Download</t>
+          <t>Preproessing and modeling for visual-based 3D indoor scene reconstruction</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve">A dataset containing 49896777 species occurrences available in GBIF matching the query: { "and" : [ "Continent is Europe", "Country is one of (United Kingdom of Great Britain and Northern Ireland, Finland, France, Sweden, Netherlands, Norway, Belgium, Germany, Switzerland, Austria, Spain, Italy, Portugal, Iceland, Denmark, Liechtenstein, Luxembourg, Poland, Czechia, Ireland, Estonia, Slovakia, Slovenia, Latvia, Lithuania, Hungary, Croatia, Greece, Serbia, North Macedonia, Albania, Montenegro, Kosovo, Bosnia and Herzegovina, Romania, Bulgaria, Belarus, Moldova, Republic of, Isle of Man, Andorra, Ukraine)", "Geometry POLYGON((-20 20,60 20,60 72,-20 72,-20 20))", "HasCoordinate is true", "HasGeospatialIssue is false", "Month is one of (March, April, May, June, July, August, September, October)", "OccurrenceStatus is Present", "TaxonKey is Lepidoptera", "Year 1950-2014" ] } The dataset includes 49896777 records from 2323 constituent datasets: 244 records from Finds of rare species of animals in Ukraine (2022). 65 records from [CartoDyn] - Contact lors journée inventaire spécifique Invertébrés. 108 records from Activités du CEN Nouvelle-Aquitaine anciennement CEN Limousin - Regroupement de données du CEN Nouvelle-Aquitaine (ex CEN Limousin). 38 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Suivi des reptiles, insectes et flore de la forêt départementale de Champfailly 2009. 94 records from Données biodiversité du projet éolien de Briffons (habitats et flore). 2 records from Waldstück Bremerhagen LK Bio Kl. 12. 20 records from Bodenteicher Seewiesen. 359 records from Some records of animals in Ukraine. 11 records from Trockenrasen und Buchenwald in der Umgebung der Jugendherberge Bad Blankenburg. 27489 records from Données des Lépidoptères de l'association FLAVIA A.D.E. (Association pour les Papillons et leur Étude) ) - Données de répartition de l’association FLAVIA A.D.E. acquises avec un financement public.. 3 records from Überschwemmungsgebiet der Wied. 1 records from Biotop "Kohlbeke" (Berlin-Marzahn). 6378 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du naturaliste Luquet Gérard provenant de la base de donnée du SINP Île-de-France CETTIA. 21 records from Elaboration du DOCOB du site Natura 2000 ‘Zones humides de l'ancien étang de Lit-et-Mixe’ (FR7200715) - Inventaire et regroupement de données Natura 2000. 11 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 14 records from Monitoring data from the federal state Saxony (Germany). 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste LABBAYE Olivier provenant de la base de donnée du SINP Île-de-France CETTIA. 5 records from Inventaire général de la biodiversité du domaine du Bois de Bouis (IGB/ATBI) - Inventaire général de la biodiversité (IGB/ATBI) Domaine Bois de Bouis - Données pièges à interception insectes. 12 records from Kremmer Luch. 59 records from Bannwald Burghauser Forst. 4 records from Biodiversity of the Desna river valley and its tributaries. 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste Wajrak Agatha provenant de la base de donnée du SINP Île-de-France CETTIA. 45 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données de la naturaliste Lucile Ferriot. 37 records from 2019_Pierre FRAPA_1. 11 records from Some finds of birds, mammals, insects, amphibians, reptiles and vascular plants within the Poltava and Sumy administrative regions of Ukraine in 2007 and 2012. 10 records from Biosphärenreservat Münsinger Alb. 171 records from Swedish Malaise Trap Project (SMTP) - Microlepidoptera. 54 records from Projet de parc éolien "Le Renard", sur les communes de Val-d'Oire-et-Gartempe (87) et Adriers (86) - Données brutes - Projet Eolien Le Renard. 19 records from Ferme éolienne d'Arnac sur dourdou - Faune. 52 records from Transmissions de données opportunistes du Parc Naturel Régional Périgord-Limousin (PNRPL). 625 records from 2015_GRENHA_2. 8349 records from SILENE-FAUNE-PACA - OPIE_National_2017_12_18. 9 records from Mississippi Entomological Museum. 74 records from SILENE-FAUNE-PACA - GERECO_Environnement_2017_12_18. 5 records from CardObs : Observations naturalistes issues de l'outil CardObs - Données naturalistes de l'Association BDEM. 4 records from Projet de parc éolien sur la commune d'Envronville - Données faune terrestre. 26 records from ZAC Anjou Actiparc « La Salamandre » - Données de l'étude d'impact. 6 records from Rund um das LUGY. 610 records from Inventaire de la Réserve naturelle de l'Etang noir-Données de présence récoltées. 1 records from ONF - Données issues d'études conventionnelles commandées par organismes exterieurs à l'ONF - MOA : Parcs naturels régionaux-ONF - DFF Import Etudes sur PNR. 49 records from </t>
+          <t>In this paper, we present a visual-based method for 3D modeling of indoor scene via mobile robot equipped with a depth camera, which can both acquire color image and dense point cloud. The raw data obtained from depth camera are noisy and non-uniformed, so a set of preprocessing methods, which consists down-sampling with volumetric pixel grid filter, statistical-based outlier removal, moving least square-based interpolation, is conducted to enhance and consolidate the data. A combination of scale invariant feature transform (SIFT) features and iterative closet point (ICP) are performed to estimate the pose of robot for frame alignment. The matched SIFT feature pairs calculated on color images of two frames are used to compute a rigid transformation matrix, which is considered as the initial transformation matrix estimation of ICP algorithm. A dense map is built by aligning of multiple frames, and a compact surface model is achieved by surface reconstruction on dense map using greedy triangulation method. Experiment result showed the method is easy to apply for indoor scene reconstruction and can be executed in nearly real time.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4285674207</t>
+          <t>https://openalex.org/W2610255345</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://doi.org/10.34883/pi.2020.10.1.023</t>
+          <t>https://doi.org/10.1016/j.wrr.2017.04.002</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Турок &amp; Улезко (2020)</t>
+          <t>Tran &amp; James (2017)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Evaluation of Ultrasound Endometrial Receptivity Markers to Predict Outcomes of Assisted Reproductive Technology Programs (Literature Review)</t>
+          <t>Transformation of household livelihoods in adapting to the impacts of flood control schemes in the Vietnamese Mekong Delta</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Обзор литературы посвящен возможностям ультразвуковой диагностики (УЗД) в предикции исходов программ вспомогательных репродуктивных технологий (ВРТ). В качестве ультразвуковых маркеров (УЗМ) рецептивности эндометрия (РЭ) на сегодняшний день используются толщина и структура эндометрия, состояние переходной зоны, оценка маточного кровотока и перистальтика эндометрия. В статье представлен анализ литературных данных о современных взглядах на возможности использования УЗМ РЭ в практической деятельности с целью повышения эффективности методов ВРТ. A review of the literature is dedicated to the possibilities of ultrasound diagnostics in predicting the outcome of assisted reproductive technology programs. Today, the thickness and pattern of the endometrium, evaluation of the transition zone, the assessment of uterine blood flow and endometrial peristalsis are used as ultrasound markers of endometrial receptivity. The article presents an analysis of literary data on modern views on the possibility of using ultrasound in practice in order to increase the effectiveness of ART methods.</t>
+          <t>Flood control and irrigation play a significant role in supporting rice intensification and agricultural diversification in the Vietnamese Mekong Delta. Arising out of these mandatory policies have exhibited complicated realities surrounding the linkages between flood control schemes (dykes) and rural livelihoods. However, little has been known about how these development processes shape the social and physical landscapes of the delta, and how rural households have transformed their traditional livelihoods to adapt to change. This paper aims to investigate these household-led practices that have occurred in the wake of the scheme operation across three flood-prone areas in the delta. It employs the mixed methods approach that guides data collection using focus group discussions, in-depth interviews with key informants and household surveys. The analysis suggests that the rural communities have witnessed the dramatic transformation of livelihood practices to adapt to emerging social and environmental conditions. Household groups have devised and adopted a variety of livelihood strategies, which consequently gave rise to polarity among household groups. This study highlights the increased recognition of rural households’ role in contributing farming initiatives to the reframing process of local adaptation policies.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4295899644</t>
+          <t>https://openalex.org/W2071528024</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/dth.15828</t>
+          <t>https://doi.org/10.1109/scored.2013.7002535</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Mahé et al. (2022)</t>
+          <t>Lakshmanan et al. (2013)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Biologics combined with conventional systemic agents for the treatment of children with severe psoriasis. Real‐life data from the BiPe cohorts and a practice survey among French and Italian pediatric dermatologists</t>
+          <t>Wireless power transfer for small scale application</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Dermatologic TherapyVolume 35, Issue 11 e15828 ORIGINAL ARTICLE Biologics combined with conventional systemic agents for the treatment of children with severe psoriasis. Real-life data from the BiPe cohorts and a practice survey among French and Italian pediatric dermatologists Emmanuel Mahé, Corresponding Author Emmanuel Mahé [email protected] orcid.org/0000-0001-5780-1827 Dermatology Department, Hôpital Victor Dupouy, Argenteuil, France Correspondence Emmanuel Mahé, Dermatology Department, Hôpital Victor Dupouy, 69 rue du Lieutenant-Colonel Prud'hon, Argenteuil 95100, France. Email: [email protected]Search for more papers by this authorAlain Beauchet, Alain Beauchet Public Health Department, Centre Hospitalier Universitaire Ambroise Paré, Boulogne-Billancourt, FranceSearch for more papers by this authorSmaïl Hadj-Rabia, Smaïl Hadj-Rabia Dermatology Department, INSERM U1163 &amp; Institut Imagine, Centre Hospitalier Universitaire Necker-Enfants Malades, Assistance Publique-Hôpitaux de Paris, Université Paris Descartes – Sorbonne, Paris, FranceSearch for more papers by this authorJuliette Mazereeuw-Hautier, Juliette Mazereeuw-Hautier Dermatology Department, Centre de Référence des Maladies Rares de la Peau et des Muqueuses, Hôpital Larrey, Toulouse, FranceSearch for more papers by this authorStéphanie Mallet, Stéphanie Mallet Dermatology Department, Hôpital de la Timone, Assistance-Publique-Hôpitaux de Marseille, Marseille, FranceSearch for more papers by this authorAlice Phan, Alice Phan Paediatric Department, Hôpital Femme-Mère-Enfant, Hospices Civils de Lyon, Bron, FranceSearch for more papers by this authorMaëlle Severino-Freire, Maëlle Severino-Freire Dermatology Department, Centre de Référence des Maladies Rares de la Peau et des Muqueuses, Hôpital Larrey, Toulouse, FranceSearch for more papers by this authorFranck Boralevi, Franck Boralevi Department of Paediatric Dermatology, Hôpital Pellegrin, CHU de Bordeaux, Bordeaux, FranceSearch for more papers by this authorHélène Aubert, Hélène Aubert Dermatology Department, Centre Hospitalier Universitaire de Nantes, Nantes, FranceSearch for more papers by this authorHugue Barthélémy, Hugue Barthélémy Dermatology Department, Centre Hospitalier d'Auxerre, Auxerre, FranceSearch for more papers by this authorCéline Girard, Céline Girard Dermatology Department, Centre Hospitalier Universitaire de Montpellier, Montpellier, FranceSearch for more papers by this authorLudovic Martin, Ludovic Martin Dermatology Department, Centre Hospitalier Universitaire d'Angers, Angers, FranceSearch for more papers by this authorMaryam Piram, Maryam Piram Service de Rhumatologie Pédiatrique, Centre Hospitalier Universitaire Bicêtre, Université Paris Sud-Saclay, UVSQ, Assistance Publique-Hôpitaux de Paris HP, Le Kremlin Bicêtre, FranceSearch for more papers by this authorSébastien Barbarot, Sébastien Barbarot Dermatology Department, Centre Hospitalier Universitaire de Nantes, Nantes, FranceSearch for more papers by this authorXavier Balguerie, Xavier Balguerie Dermatology Department, Centre Hospitalier Universitaire Charles-Nicolle, Rouen, FranceSearch for more papers by this authorJinane Zitouni, Jinane Zitouni Dermatology Department, Hôpital Victor Dupouy, Argenteuil, FranceSearch for more papers by this authorCéline Phan, Céline Phan Dermatology Department, Hôpital Victor Dupouy, Argenteuil, FranceSearch for more papers by this authorVito Di Lernia, Vito Di Lernia Dermatology Unit, Arcispedale S. Maria Nuova IRCCS, Reggio Emilia, ItalySearch for more papers by this authorGroupe de Recherche sur le Psoriasis (GrPso) of the Société Française de Dermatologie (SFD), Groupe de Recherche de la Société Française de Dermatologie Pédiatrique (GR SFDP), and Società Italiana di Dermatologia Pediatrica (S.I.Der.P.), Groupe de Recherche sur le Psoriasis (GrPso) of the Société Française de Dermatologie (SFD), Groupe de Recherche de la Société Française de Dermatologie Pédiatrique (GR SFDP), and Società Italiana di Dermatologia Pediatrica (S.I.Der.P.)Search for more papers by this author Emmanuel Mahé, Corresponding Author Emmanuel Mahé [email protected] orcid.org/0000-0001-5780-1827 Dermatology Department, Hôpital Victor Dupouy, Argenteuil, France Correspondence Emmanuel Mahé, Dermatology Department, Hôpital Victor Dupouy, 69 rue du Lieutenant-Colonel Prud'hon, Argenteuil 95100, France. Email: [email protected]Search for more papers by this authorAlain Beauchet, Alain Beauchet Public Health Department, Centre Hospitalier Universitaire Ambroise Paré, Boulogne-Billancourt, FranceSearch for more papers by this authorSmaïl Hadj-Rabia, Smaïl Hadj-Rabia Dermatology Department, INSERM U1163 &amp; Institut Imagine, Centre Hospitalier Universitaire Necker-Enfants Malades, Assistance Publique-Hôpitaux de Paris, Université Paris Descartes – Sorbonne, Paris, FranceSearch for more papers by this authorJuliette Mazereeuw-Hautier, Juliette Mazereeuw-Hautier Dermatology Department, Centre de Référence des Maladies R</t>
+          <t>The password security wireless power transfer system is the integration of password security into wireless electrical power design which has a separate power design from source to load controlled by password controller. The revolution for wireless power and communications has arrived with wireless technologies widely integrated into wide range of products, provides new levels of convenience, interaction and monitoring. Consumer behaviours and demands have shifted for better reliability, convenience and innovative products. The research idea is innovative and no familiar design application and products are developed within designated electrical area. The research aims to design and develop a small scale wireless power transfer system via resonance inductive coupling wireless power technique to transmit power through high resonant frequency. A robust password security system is designed and developed using Arduino Deumilanove microcontroller, which adopts knowledge-based authentication technique to control the wireless power system. Full system analysis and experimental tests were conducted and it recorded 60% efficiency across transmitting distance of 50mm and the best transmitting and receiving antenna position are identified with range of 1 cm to 2 cm offset for antenna intersection for maximum efficiency. The research serves a good platform for electrical power design in security system and could be improvised further with advance system development, which can be commercialized to the public.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2342199507</t>
+          <t>https://openalex.org/W4388600843</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pcbi.1004878</t>
+          <t>https://doi.org/10.1093/eurheartj/ehad655.075</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Luz &amp; Shamir (2016)</t>
+          <t>Cruz et al. (2023)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Oscillations via Spike-Timing Dependent Plasticity in a Feed-Forward Model</t>
+          <t>Patent foramen ovale: high-risk echocardiographic features related to secondary stroke prevention</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Neuronal oscillatory activity has been reported in relation to a wide range of cognitive processes including the encoding of external stimuli, attention, and learning. Although the specific role of these oscillations has yet to be determined, it is clear that neuronal oscillations are abundant in the central nervous system. This raises the question of the origin of these oscillations: are the mechanisms for generating these oscillations genetically hard-wired or can they be acquired via a learning process? Here, we study the conditions under which oscillatory activity emerges through a process of spike timing dependent plasticity (STDP) in a feed-forward architecture. First, we analyze the effect of oscillations on STDP-driven synaptic dynamics of a single synapse, and study how the parameters that characterize the STDP rule and the oscillations affect the resultant synaptic weight. Next, we analyze STDP-driven synaptic dynamics of a pre-synaptic population of neurons onto a single post-synaptic cell. The pre-synaptic neural population is assumed to be oscillating at the same frequency, albeit with different phases, such that the net activity of the pre-synaptic population is constant in time. Thus, in the homogeneous case in which all synapses are equal, the post-synaptic neuron receives constant input and hence does not oscillate. To investigate the transition to oscillatory activity, we develop a mean-field Fokker-Planck approximation of the synaptic dynamics. We analyze the conditions causing the homogeneous solution to lose its stability. The findings show that oscillatory activity appears through a mechanism of spontaneous symmetry breaking. However, in the general case the homogeneous solution is unstable, and the synaptic dynamics does not converge to a different fixed point, but rather to a limit cycle. We show how the temporal structure of the STDP rule determines the stability of the homogeneous solution and the drift velocity of the limit cycle.</t>
+          <t>Abstract Introduction Patent foramen ovale (PFO) closure has long been a matter of debate concerning the impact of such procedure on preventing ischemic events recurrence. Recent reports support this strategy raising the issue of optimal patient selection based on anatomical high-risk characteristics evaluated by transoesophageal echocardiography (TEE) that may be associated with an increased risk of recurrence. Purpose Characterize PFO-related echocardiographic findings and clinical features of a cohort of Embolic Stroke of Undetermined Source (ESUS) patients (pts). Methods Unicentric, retrospective analysis of pts with ESUS diagnosis who underwent TEE between 1/2014 and 11/2019. Excluded pts aged older than 70 years. Clinical stroke characteristics and echocardiographic PFO features were analysed. Results A total of 124 pts were included in the analysis, presenting a mean age of 50±1.6 [20;68] years and female gender predominance (58.9%). 48.4% of ESUS pts had PFO (53% female). Regarding PFO pts, 38 (62.3%) had significant right-to-left shunt on TEE, which was statistically associated with cortical infarcts (78.9 vs 56.5%,p=0.037). 35pts (58.3%) had shunt occurring at rest and during the Valsalva manoeuvre; when associated to significant shunt there was a correlation with cortical located infarcts (82.1 vs 60.0%, p&amp;amp;lt;0.001). 33 PFOs (54.1%) had tunnel-like morphology. Tunnel-like PFOs were associated with significant right-to-left shunt (78.8 vs 42.9%, p&amp;amp;lt;0.001), atrial septum aneurysm (ASA) presence (68.8 vs 50.0%, p&amp;amp;lt;0.001) and with haemorrhagic transformation of ischemic stroke (15.2 vs 3.6%, p=0.031). 34 PFO pts (60.7%) had ASA. Mean PFO length was 6.42±5.0mm and mean height was 3.2±2.0mm. Conclusion In this cohort, there was a similar number of pts with and without PFO. Regarding ESUS pts with PFO, the majority had significant right-to-left shunt that occurred at rest and during Valsalva manoeuvre and were associated with cortical located infarcts. Tunnel-like morphology and ASA were also frequent. Tunnel-like morphology were associated with haemorrhagic transformation of ischemic strokes. These findings support the proposal that PFO characterization should have an additional role in stratifying pts with ESUS and selecting them for device closure.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322737768</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/2041-210x.14070</t>
+          <t>https://openalex.org/W2530778548</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Record et al. (2023)</t>
+          <t>Yanagi et al. (2016)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Synthesizing forecasts to inform decision‐making and advance ecological theory</t>
+          <t>Test and Evaluation of TRUST: Tools for Recognizing Useful Signals of Trustworthiness</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Methods in Ecology and EvolutionVolume 14, Issue 3 p. 728-731 EDITORIALOpen Access Synthesizing forecasts to inform decision-making and advance ecological theory Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author Sydne Record, Corresponding Author Sydne Record [email protected] orcid.org/0000-0001-7293-2155 Department of Fisheries, Wildlife, and Conservation Biology, University of Maine, Orono, Maine, USA Correspondence Sydne Record Email: [email protected]Search for more papers by this authorCarl Boettiger, Carl Boettiger orcid.org/0000-0002-1642-628X Department of Environmental Science, Policy, and Management, University of California, Berkeley, Berkeley, California, USASearch for more papers by this authorChristine R. Rollinson, Christine R. Rollinson Center for Tree Science, The Morton Arboretum, Illinois, USASearch for more papers by this author First published: 01 March 2023 https://doi.org/10.1111/2041-210X.14070 [Corrections added on 28 February 2023, after first online publication: The copyright line has been changed.] AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Since the inception of the Intergovernmental Panel on Climate Change in 1988, there has been growing scientific consensus that humans have modified the Earth's environment and that human decisions have the potential to mitigate or exacerbate the effects of future global change (Intergovernmental Panel on Climate Change, 2022). In the face of widespread environmental change, society needs information to make sound decisions. Ecological forecasts provide such information about how ecosystems and their services may respond to different environmental conditions before they happen and considering alternative management scenarios. Following the publication of the first IPCC report in 1990 that called for a better understanding of the future effects of climatic change, the number of ecological publications focused on forecasting increased exponentially (Figure 1). FIGURE 1Open in figure viewerPowerPoint To illustrate a growing interest in ecological forecasting since the publication of the first Intergovernmental Panel on Climate Change report in 1990, we show the number of publications per year for articles that have 'ecology' and 'forecast' in their keywords ( source: Web of Science, search criteria used: Topic = 'ecology' and forecast*'; Timespan = All Years). This includes all publications since 1900 with the exception of Hodgson (1932). The notion of forecasting ecosystem change in ecology is not new (e.g. Clark et al., 2001; Hodgson, 1932). However, as the number of ecological papers focused on forecasting grew in the context of climatic change, ecologists from across sub-disciplines became increasingly concerned with various aspects of forecasting. Paleoecologists acknowledged the limits of our ability to forecast into non-analog climatic conditions when using forecast horizons suggested by the IPCC (e.g. anticipating conditions 60–80 years into the future; Williams &amp; Jackson, 2007). Applied and theoretical ecologists questioned the utility of long-term forecasts for advancing decision-making and ecological theory, respectively (Houlahan et al., 2017; Mouquet et al., 2015). At the same time as these concerns, ecologists recognized the transformative potential of near-term, iterative forecasting for making ecological forecasts more relevant to decision makers and spurring innovations in ecological theory if key technical and conceptual advances could be made (Dietze et al., 2018). In 2018, the Ecological Forecasting Initiative (EFI; https://ecoforecast.org/) launched with an emphasis on creating near-term, iterative forecasts with the hopes of using outputs to inform theory and to better align forecasts with management timeframes. EFI is a grassroots effort funded as a research coordination network through the US National Science Foundation aimed at building and supporting an interdiscipl</t>
+          <t>Abstract : This study focuses on the measurement of trustworthiness. The report focuses on testing, research and evaluation of a new research method for measuring and requiring trust between individuals. Not only did this study attempt to understand the holistic neural, psychophysiological, psychological, and behavioral underpinnings of the nature of trust, but more broadly, enhance understanding of the social dynamic of human interaction vital to the success of everyday life, especially in the defense and intelligence community context. The study was adapted from a well-evaluated game theory paradigm (Prisoners Dilemma). The Prisoners Dilemma puts study participants in a situation where they must decide to trust or not trust an assigned partner. Their decisions and the decisions of their partners, to trust or not trust are determined by the amount of monetary compensation participants were given at the end of the experimental session. The study goal was to evaluate the extent to which particular behavioral, psychological, physiological, and neural signals are related to trust between two people. Many areas were studied for this report, including frontal alpha power asymmetry, electroencephalography (EEG), high- and low-frequency and RR interval of heart rate, electrocardiography (ECG), skin conductance levels and Galvanic Skin Response (GSR), oxytocin and cortisol concentrations, and psychological state (questionnaires). These areas were investigated using three different methodological transformations: one examining raw signals, and two adjusting the signals to baseline: minus baseline and divided by baseline. Applied throughout the report are six hypotheses derived from Social Exchange Model. The six hypotheses are provided in the report.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2563164174</t>
+          <t>https://openalex.org/W4394780829</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0168107</t>
+          <t>https://doi.org/10.30535/mto.30.1.5</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Chen et al. (2016)</t>
+          <t>Lam (2024)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Redox Balance in Lactobacillus reuteri DSM20016: Roles of Iron-Dependent Alcohol Dehydrogenases in Glucose/ Glycerol Metabolism</t>
+          <t>Pentatonic &lt;i&gt;Xuangong&lt;/i&gt; 旋宮 Transformations in Chinese Music</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Lactobacillus reuteri, a heterofermentative bacterium, metabolizes glycerol via a Pdu (propanediol-utilization) pathway involving dehydration to 3-hydroxypropionaldehyde (3-HPA) followed by reduction to 1,3-propandiol (1,3-PDO) with concomitant generation of an oxidized cofactor, NAD+ that is utilized to maintain cofactor balance required for glucose metabolism and even for oxidation of 3-HPA by a Pdu oxidative branch to 3-hydroxypropionic acid (3-HP). The Pdu pathway is operative inside Pdu microcompartment that encapsulates different enzymes and cofactors involved in metabolizing glycerol or 1,2-propanediol, and protects the cells from the toxic effect of the aldehyde intermediate. Since L. reuteri excretes high amounts of 3-HPA outside the microcompartment, the organism is likely to have alternative alcohol dehydrogenase(s) in the cytoplasm for transformation of the aldehyde. In this study, diversity of alcohol dehydrogenases in Lactobacillus species was investigated with a focus on L. reuteri. Nine ADH enzymes were found in L. reuteri DSM20016, out of which 3 (PduQ, ADH6 and ADH7) belong to the group of iron-dependent enzymes that are known to transform aldehydes/ketones to alcohols. L. reuteri mutants were generated in which the three ADHs were deleted individually. The lagging growth phenotype of these deletion mutants revealed that limited NAD+/NADH recycling could be restricting their growth in the absence of ADHs. Notably, it was demonstrated that PduQ is more active in generating NAD+ during glycerol metabolism within the microcompartment by resting cells, while ADH7 functions to balance NAD+/NADH by converting 3-HPA to 1,3-PDO outside the microcompartment in the growing cells. Moreover, evaluation of ADH6 deletion mutant showed strong decrease in ethanol level, supporting the role of this bifuctional alcohol/aldehyde dehydrogenase in ethanol production. To the best of our knowledge, this is the first report revealing both internal and external recycling for cofactor homeostasis during 3-HPA conversion in L. reuteri.</t>
+          <t>The anhemitonic pentatonic scale is fundamental to Chinese music theory, and so is the concept of xuangong : transformations from one pentatonic scale to another. The vocabulary related to these transformations is as diverse as the musical contexts in which it appears; similar moves can be described using a multitude of perspectives, resulting in overlapping and, at times, confusing terminology. To describe xuangong transformations, I adopt the precise language of signature transformations to enrich, complement, and shed light on Chinese music theory. The four basic xuangong transformations are chromatic transposition (C, D, E, G, A → G, A, B, D, E), pentatonic transposition (C, D, E, G, A → G, A, C, D, E), bian -directed transformation (C, D, E, G, A → B, D, E, G, A), and qing -directed transformation (C, D, E, G, A → C, D, F, G, A). The last two are adapted from classical Chinese music theory, and they are analogous to key signature transformations in Western music. This paper discusses the structure of xuangong transformations, their application in Chinese music theory, and their analytical use in examples spanning Confucian court music, traditional instrumental music, Cantopop, and Chinese new music, both tonal and atonal.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4297890772</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.21203/rs.3.rs-2024020/v1</t>
+          <t>https://openalex.org/W2186425303</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Hu et al. (2022)</t>
+          <t>Cizelj (2000)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Machine Learning Weather Analogs for Renewable Forecasting</t>
+          <t>FINITE ELEMENT ANALYSIS OF RANDOM INTERACTING BRANCHED CRACKS</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Abstract The Analog Ensemble (AnEn) is a technique to generate forecast ensembles using a deterministic model and associated observations. It has been widely used for weather forecasting and renewable energy production forecasting. Ensemble members are chosen based on a similarity metric that calculates the weighted multi-variate Euclidean distance. However, identifying optimal weights is a challenging and computationally expensive process, which often involves performing a constrained exhaustive search. As a result, only a few predictors were selected and optimized in previous AnEn studies. A new Machine Learning similarity metric is proposed address this shortcoming. First, a Deep Learning network is trained to generate latent features using all the temporal multi-variate input predictors. The analogs for a target forecast are selected by computing the Euclidean distance of the latent variables between the target and all previous forecasts. This process can be performed in parallel for each location. The proposed method does not require prior predictor selection and weight optimization. It is tested using wind speed and solar irradiance forecasts in Pennsylvania for 2017 to 2019. Results show that the proposed method is capable of handling a large number of predictors and it outperforms the original similarity metric in RMSE, bias, and CRPS. Since the transformation network is trained empirically, the proposed method has been found to be more flexible for searching through a longer historical record.</t>
+          <t>The paper discusses procedure, which enables analysis of large number of random interacting branched cracks for linear elastic materials. The discussed procedure consists of numerical analysis of crack pattern with finite element method (using the general-purpose finite element code ABAQUS), calculation of J-integrals for all cracks in the pattern and mixed mode decomposition of J-integral using displacements at crack surfaces. Sensitivity analysis showed that proposed procedure reliably and robustly analyzes random interacting branched cracks. Proposed procedure also enables relatively simple transition towards more complex material and geometry properties and three-dimensional crack patterns. Proposed procedure will be used to evaluate different patterns of random twodimensional complex shaped cracks in general biaxial stress field. The accuracy of the numerical results obtained will be compared with reference solutions from the literature.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4366463390</t>
+          <t>https://openalex.org/W4395610607</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/hex.13772</t>
+          <t>https://doi.org/10.15468/dl.5j89b7</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Hughes et al. (2023)</t>
+          <t>AUTHOR_ID (2023)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>The role of identity in the experiences of dementia care workers from a minority ethnic background during the COVID‐19 pandemic: A qualitative study</t>
+          <t>Occurrence Download</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Care home staff working during the COVID-19 pandemic experienced higher levels of stress and increased workloads. People from diverse ethnic backgrounds were disproportionately affected by the COVID-19 pandemic. This study explored the identity experiences of care home staff from diverse ethnic backgrounds in the context of working during the COVID-19 pandemic.Fourteen semistructured interviews were conducted between May 2021 and April 2022 with ethnic minority care home staff in England, who worked during the pandemic. Participants were recruited using convenience and theoretical sampling. Interviews were conducted via telephone or online platforms. A social constructivist grounded theory methodology was utilised in analysing the data.Participants described five key processes which facilitated or hindered the impact that their experiences had on their identity: dealing with uncertainty and transitioning into a COVID-19 world; difficult emotions; experiences of discrimination and racism; the response from the care home and societal systems; and the personal vs collective responsibility. When participants' physical and psychological needs went unmet by support structures within the care home and/or society, they experienced a sense of injustice, lack of control and being unvalued or discriminated against by others.This study highlights the importance of recognising the unique needs of staff from diverse ethnic backgrounds working in care homes and adapting working practices to improve impact on identity, job satisfaction and staff retention.One care home worker was involved in developing the topic guide and helping to interpret the findings.</t>
+          <t>A dataset containing 5270679 species occurrences available in GBIF matching the query: { "and" : [ "OccurrenceStatus is Present", "TaxonKey is Columba palumbus Linnaeus, 1758" ] } The dataset includes 5270679 records from 4026 constituent datasets: 242 records from Activités du CEN Nouvelle-Aquitaine anciennement CEN Limousin - Regroupement de données du CEN Nouvelle-Aquitaine (ex CEN Limousin). 216 records from MICA - Muskrat and coypu camera trap observations in Belgium, the Netherlands and Germany. 1 records from Waldstück Bremerhagen LK Bio Kl. 12. 11195 records from Suivi des oiseaux de passage : programme FLASH - Programme FLASH : Répartition Pigeon ramier 2012 - 2016 Coordonnées GPS Lambert 93. 1 records from Données naturalistes de Chartres Métropole - Données de Chartres Métropole - 2020. 2 records from Plan de gestion de la Réserve Naturelle Régionale de la Massonne - Inventaire de données. 1 records from Parc éolien des Longues Roies - Suivi mortalité ICPE 2021 LORO. 1 records from DOSSIER DE DEMANDE D’AUTORISATION ENVIRONNEMENTALE - Usine de transformation de produits laitiers - Données biologiques. 8 records from Données espèces - Expertise IQE Coteaux Aulnoye 2018. 1 records from Bannwald Burghauser Forst. 3 records from Grand Paris Express - Ligne 17 Nord - L17N_Etat initial sites de compensation (2018). 3 records from CardObs : Observations naturalistes issues de l'outil CardObs - Données naturalistes de EL ATTAR SOFI OUMAYMA. 8 records from Données du Comité Départemental de Protection de la Nature et de l'Environnement de Loir-et-Cher (CDPNE) - Données 2016 Pélobate brun Comité Départemental de Protection de la Nature et de l'Environnement. 9 records from Ferme Éolienne de Saint Maurice - Données Brutes de Biodiversité Projet Eolien de Saint-Maurice-Etusson. 1 records from Gestion Patrimoniale de la Corniche Basque - Suivi Hivernale des Oiseaux Communs. 1 records from Parc photovoltaïque de Bluebbery - Inventaires naturalistes. 40 records from Projet éolien du Blayais - Inventaire oiseaux calidris. 7 records from Canadian Museum of Nature Bird Collection. 1 records from Birdrace-Team_Wangerooge-Friesland. 53 records from Parc éolien de Senev Illois - Suivi de mortalité et d'activité avifaunistique et chiroptérologique (2016-2018). 37 records from Suivi et inventaire de la réserve naturelle de Saucats - La Brède - Suivi Temporel des Oiseaux Communs par Échantillonnage Ponctuel Simple (protocole STOC-EPS). 44 records from Projet de parc éolien "Le Renard", sur les communes de Val-d'Oire-et-Gartempe (87) et Adriers (86) - Données brutes - Projet Eolien Le Renard. 5 records from Observations naturalistes indépendantes d'origine privée partagées sur la base de données Kollect Nouvelle-Aquitaine - Observations faunistiques de Florent HERVOUET. 1 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Etude écologique de la Cité Scolaire Paul Valéry Paris 12ème. 3 records from Projet de parc photovoltaïque au sol à Moimay et Marast (70) - 2020 inventaire faune-flore à Moimay et Marast (70). 1 records from Birdrace-Die_Nachtraben-Stuttgart. 1 records from Pouillé les coteaux - Pouillé-les-Côteaux - suivi environnemental parc éolien. 63 records from Parc éolien Mont de la Grévière 2021 - Mont de la Grévière - suivi post implantation de parc éoliens - 2021. 10 records from Dépôt des données brutes de suivis écologiques 2019 du pole multi-filières d'Entraigues sur la Sorgue (SUEZ) - Suivi écologique des parcelles compensatoires. 12 records from RCEA Mise à 2x2 voies de la RN70 entre Palinges et le RD25 - Inventaires écologiques faune - Données ponctuelles. 66 records from Projet de parc éolien sur les communes de Vigoux et Bazaiges (36) - Les Sables - Avifaune. 6 records from Parc éolien des Vallottes (Bovée sur Barboure) - Suivi post-installation Parc éolien des Vallottes. 1 records from Poursuite et extension du site de Nançay - Extension du site de Nançay (Dordives) données Faune/Flore. 4 records from Système d'Information sur la Nature et les Paysages d'Ile de France - Données du/de la naturaliste Le baron Gaetan provenant de la base de donnée du SINP Île-de-France CETTIA. 1 records from BIRDRACE accipiter hardcore birding. 8 records from Baudelet Synergies +. 142 records from Projet éolien de la Cense - SAF_FAUNE. 1 records from Programme les sentinelles du climat - effets du changement climatique sur la biodiversité en région Nouvelle-Aquitaine - Observations faunistiques fortuites réalisées par le CEN Aquitaine. 2 records from Parc éolien de Saint-Généroux - 2020_Saint-Généroux_Suivi mortalité. 28 records from Ferme éolienne de Quesnoy-sur-Airaines 3 - Suivi chiroptérologique, avifaunistique et de mortalité du parc de Quesnoy III. 1 records from ZAC Anjou Actiparc « La Salamandre » - Données de l'étude d'impact. 9 records from Projet de centrale photovoltaïque flottante à Bruch. 1 records from Projet éolien du Souffle d'Espoir - Inventaire oiseaux nidification. 2 rec</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2909073876</t>
+          <t>https://openalex.org/W8595886</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Hamed &amp; Fadl (2015)</t>
+          <t>Santoro (2007)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Improved scheme of e-mail spam classification using meta-heuristics feature selection and support vector machine</t>
+          <t>[Podcasts, wikis and blogs: the web 2.0 tools for medical and health education].</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>With the technological revolution in the 21st century, time and distance of communication are decreased by using electronic mail (e-mail). Furthermore, the growing use of e-mail has led to the emergence and further growth problems caused by unsolicited bulk e-mails, commonly referred to as spam e-mail. Many of the existing supervised algorithms like the Support Vector Machine (SVM) were developed to stop the spam e-mail. However, the problem of dealing with large data and high dimensionality of feature space can lead to high execution-time and low accuracy of spam e-mail classification. Nowadays, removing the irrelevant and redundant features beside finding the optimal (or near-optimal) subset of features significantly influences the performance of spam e-mail classification; this has become one of the important challenges. Therefore, in order to optimize spam e-mail classification accuracy, dimensional reduction issues need to be solved. Feature selection schemes become very important in order to reduce the dimensionality through selecting a proper subset feature to facilitate the classification process. The objective of this study is to investigate and improve schemes to reduce the execution time and increase the accuracy of spam e-mail classification. The methodology of this study comprises of four schemes: one-way ANOVA f-test, Binary Differential Evolution (BDE), Opposition Differential Evolution (ODE) and Opposition Particle Swarm Optimization (OPSO), and combination of Differential Evolution (DE) and Particle Swarm Optimization (PSO). The four schemes were used to improve the spam e-mail classification accuracy. The classification accuracy of the proposed schemes were 95.05% with population size of 50 and 1000 number of iterations in 20 runs and 41 features. The experiment of the proposed schemes were carried out using spambase and spamassassin benchmark dataset to evaluate the feasibility of proposed schemes. The experimental findings demonstrate that the improved schemes were able to efficiently reduce the number of features as well as improving the e-mail classification accuracy.</t>
+          <t>In the recent years, we have witnessed a new revolution in the field of communication through Internet. Web 2.0, whose contents are provided by the collaboration, discussion, and sharing between more users, is replacing the traditional web (the web 1.0). The use of podcasts, wikis, and blogs is rapidly increasing, and today they are proposed as educational tools for health professionals, physicians, and medical students. Medical podcasts have been developed by online medical journals (such as the New England Journal of Medicine, the Lancet, the British Medical Journal, and the JAMA), and by medical societies, medical schools and health institutions to communicate to and educate the physicians, the students, the patients, and the health consumers. Following the example of Wikipedia, medical wikis and blogs are being developed to support the medical education, the collaboration among researchers, and the clinical practice. However, these tools present some limitations related to their openness and ease of use which virtually allows anybody to alter and edit existing contents or to create new ones. This could make the contents unreliable and inaccurate, and could introduce risks for a correct medical education and for the health of those patients deciding to follow the medical advice included. Studies are needed to evaluate limits, benefits, and efficacy of these tools when used in the contexts of medical education and clinical practice. Other studies are needed to evaluate the reliability and the accuracy of the medical contents posted online through the web 2.0 services.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2274151390</t>
+          <t>https://openalex.org/W2805059745</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.sbspro.2015.11.604</t>
+          <t>https://doi.org/10.1016/j.jsg.2018.05.010</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Голубев &amp; Testov (2015)</t>
+          <t>Hartman et al. (2018)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Network Information Technologies as a Basis of New Educational Paradigm</t>
+          <t>Structural and hydrothermal evolution of a strike-slip shear zone during a ductile-brittle transition, Sierra Nevada, CA</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>With wide implementation of network information technologies in education, there is a transition to a new paradigm. The traditional forms, methods, means and content of education do not fit into the new paradigm and so need theoretical reconsideration. The methodological basis for the new paradigm has to be the postnonclassical methodology relying on synergetic vision of the world and soft modeling ideas. The education environment gains other opportunities and limitations as compared to the previous ones. The capacities of network space further the transition from teaching to self-teaching and self-education. As a rule, under such conditions, the process of a student's perceiving the new material becomes non-linear. The main objective of school in these conditions is non-linear arrangement of information, bringing it into a self-organizing system. The paper pays attention to the most rapidly developing direction of the education system information – network technologies. The network technologies open up totally new opportunities for creativity and self-fulfillment of both students and teachers. Computer networks in teaching can be applied for joint use of software resources, for interactive communication, prompt receipt of information, continuous monitoring of quality of the knowledge obtained. Using computer networks promotes the use of new teaching techniques in school and higher education institution, implementation of collaborative technologies that allow organizing education while jointly solving study problems.</t>
+          <t>The incursion of meteoric-hydrothermal fluids into the ductile crust can be evaluated with the stable isotope ratios of minerals in exhumed ductile shear zones, but the incursion mechanisms are yet to be well-demonstrated. Field structural and microstructural relations and regional oxygen isotope patterns from an exhumed, Late Cretaceous shear zone-fault system in the central Sierra Nevada, CA, are used to reconstruct the deformation history and develop insights into fluid incursion mechanisms. A ductile-to-brittle transition was partially accommodated by a strike-slip duplex involving flexural slip-accommodated folding along faults. Two main NNW-striking brittle fault strands overlap, the northern fault curves into the southern fault, which is sealed by a &gt;4 m wide composite quartz vein. Based on structural relationships, we interpret the transition from ductile to brittle deformation to have occurred during cooling of the adjacent Late Cretaceous Tuolumne Intrusive Complex. Quartz-sealed fault veins in the pendant have δ18O values ranging from −3.2 to 14.5‰, and are interpreted to have precipitated partially or fully from meteoric-hydrothermal fluids, including quartz veins that have been recrystallized. The lowest values are only found within the region of the jog. The δ18O values for pseudotachylyte matrix in one sample from this fault system are δ18O = 3.3‰, δ2H = −137‰. Together, these data indicate meteoric-hydrothermal incursion into a deforming, seismogenic brittle-ductile transition.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2610255345</t>
+          <t>https://openalex.org/W1511186843</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.wrr.2017.04.002</t>
+          <t>https://doi.org/10.7551/mitpress/3119.003.0055</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Tran &amp; James (2017)</t>
+          <t>Minato &amp; Asada (1998)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Transformation of household livelihoods in adapting to the impacts of flood control schemes in the Vietnamese Mekong Delta</t>
+          <t>Skill Acquisition and Self-Improvement for Environmental Change Adaptation of Mobile Robot</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Flood control and irrigation play a significant role in supporting rice intensification and agricultural diversification in the Vietnamese Mekong Delta. Arising out of these mandatory policies have exhibited complicated realities surrounding the linkages between flood control schemes (dykes) and rural livelihoods. However, little has been known about how these development processes shape the social and physical landscapes of the delta, and how rural households have transformed their traditional livelihoods to adapt to change. This paper aims to investigate these household-led practices that have occurred in the wake of the scheme operation across three flood-prone areas in the delta. It employs the mixed methods approach that guides data collection using focus group discussions, in-depth interviews with key informants and household surveys. The analysis suggests that the rural communities have witnessed the dramatic transformation of livelihood practices to adapt to emerging social and environmental conditions. Household groups have devised and adopted a variety of livelihood strategies, which consequently gave rise to polarity among household groups. This study highlights the increased recognition of rural households’ role in contributing farming initiatives to the reframing process of local adaptation policies.</t>
+          <t>Learning and development are essential processes for an animat to adapt itself to environmental changes so as to accomplish a given task. This paper proposes a single mechanism for learning and self-improvement that results in learning curves similar to the “U-shape” phenomena observed in several psychological experiments concerning the human learning process such as in language acquisition. The basic idea is that (1) the animat monitors its success rate in goal achievement so as to perceive environmental changes instead of relying on signals from a teacher, and (2) in order to reuse acquired knowledge and accelerate reinforcement learning, the animat does not memorize the action values but transfers only the learned policy. The resultant policy (a state transition map where transitions indicate the best actions) may not be optimal in any given environment but it may be able to better handle differences between environments. We apply this model to a mobile robot navigation problem for which the task is to reach the target while avoiding obstacles by means of uninterpreted sonar and visual information. Our experimental results demonstrate the validity of the model.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2393676167</t>
+          <t>https://openalex.org/W4280637020</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2196/32840</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Liu-fan (2013)</t>
+          <t>McLeod et al. (2022)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>A Study on the Construction of Specialty Group Based on Servicing the Textile and Garment Industry Transformation and Upgrading</t>
+          <t>Patterns of Skills Acquisition in Anesthesiologists During Simulated Interscalene Block Training on a Soft Embalmed Thiel Cadaver: Cohort Study</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Industrial transformation and upgrading has been a major strategic task in China for quite a long period of time.The key for the transformation of textile and garment industry is the product innovation,which must be guided by the market,supported by the technology and secured by the quality.In order to cultivate applied talents with high skills for product innovation,the construction of professional group should serve the product innovation as the purpose.It is also necessary to cultivate students' innovative spirit and dynamic learning ability.Professional group can be formed according to the combination of the marketing,designation,manufacturing,testing and other related professional organics,so as to provide talents and technical support for the enhancement of the professional service and upgrading of the innovative ability.</t>
+          <t>The demand for regional anesthesia for major surgery has increased considerably, but only a small number of anesthesiologists can provide such care. Simulations may improve clinical performance. However, opportunities to rehearse procedures are limited, and the clinical educational outcomes prescribed by the Royal College of Anesthesiologists training curriculum 2021 are difficult to attain. Educational paradigms, such as mastery learning and dedicated practice, are increasingly being used to teach technical skills to enhance skills acquisition. Moreover, high-fidelity, resilient cadaver simulators are now available: the soft embalmed Thiel cadaver shows physical characteristics and functional alignment similar to those of patients. Tissue elasticity allows tissues to expand and relax, fluid to drain away, and hundreds of repeated injections to be tolerated without causing damage. Learning curves and their intra- and interindividual dynamics have not hitherto been measured on the Thiel cadaver simulator using the mastery learning and dedicated practice educational paradigm coupled with validated, quantitative metrics, such as checklists, eye tracking metrics, and self-rating scores.Our primary objective was to measure the learning slopes of the scanning and needling phases of an interscalene block conducted repeatedly on a soft embalmed Thiel cadaver over a 3-hour period of training.A total of 30 anesthesiologists, with a wide range of experience, conducted up to 60 ultrasound-guided interscalene blocks over 3 hours on the left side of 2 soft embalmed Thiel cadavers. The duration of the scanning and needling phases was defined as the time taken to perform all the steps correctly. The primary outcome was the best-fit linear slope of the log-log transformed time to complete each phase. Our secondary objectives were to measure preprocedural psychometrics, describe deviations from the learning slope, correlate scanning and needling phase data, characterize skills according to clinical grade, measure learning curves using objective eye gaze tracking and subjective self-rating measures, and use cluster analysis to categorize performance irrespective of grade.The median (IQR; range) log-log learning slopes were -0.47 (-0.62 to -0.32; -0.96 to 0.30) and -0.23 (-0.34 to -0.19; -0.71 to 0.27) during the scanning and needling phases, respectively. Locally Weighted Scatterplot Smoother curves showed wide variability in within-participant performance. The learning slopes of the scanning and needling phases correlated: ρ=0.55 (0.23-0.76), P&lt;.001, and ρ=-0.72 (-0.46 to -0.87), P&lt;.001, respectively. Eye gaze fixation count and glance count during the scanning and needling phases best reflected block duration. Using clustering techniques, fixation count and glance were used to identify 4 distinct patterns of learning behavior.We quantified learning slopes by log-log transformation of the time taken to complete the scanning and needling phases of interscalene blocks and identified intraindividual and interindividual patterns of variability.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2953473000</t>
+          <t>https://openalex.org/W4214732340</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1001/archderm.1987.01660350111025</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Angelova et al. (2019)</t>
+          <t>Ostrow (1987)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Vaccinium Vitis-Idaea L., Origin from Bulgaria Indicate in Vitro Antitumor Еffect on Human Cervical and Breast Cancer Cells</t>
+          <t>Epidermodysplasia Verruciformis</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Cancer is a socially significant disease. Along with efforts to understand the complex genetic/epigenetic factors that trigger a carcinogenesis, it is also necessary to analyze the potential natural active substances that may delay or even stop neoplastic transformation. Promising candidates are Bulgarian cranberries from high mountain plant populations, which are rich in phenolics and anthocyanins and have proven beneficial effects on human body.The present study aims to evaluate in vitro, antitumor activities of total extracts and purified nonanthocyanin and anthocyanins fractions of Vaccinium vitis-idaea L. , picked in Bulgaria on human cervical (HeLa) and breast (MCF7) cancer cell lines, as well as to examine some of the apoptotic mechanisms underlying them.Materials and methods: Four methanol extracts and respective number of purified B- nonanthocyanin / C- anthocyanins fractions of Bulgarian lingonberry were used. Antitumor effect was established by Trypan Blue method, monitoring of morphological changes and МТТ cell viability assay. Assessment of apoptotic activity was performed using DNA fragmentation method.Results: The results from МТТ analyses showed that B- nonanthocyanin fractions of Bulgarian lingonberry have well expressed inhibitory effect on survival of tested tumor cells. The observed effect dependent of the dose administered and were stronger in relation with the high-mountain populations and HeLa cell line. The integrity of the extracted DNA from treated survival cells indicates possible apoptosis mechanisms under the action of biologically active ingredients from lingonberries. Conclusion: Survey of antitumor activities of Bulgarian lingonberries based on molecular methods, could contribute to establish the natural substances useful for human health in general and practical oncology.</t>
+          <t>• Epidermodysplasia verruciformis is a rare, often hereditary disease characterized by a generalized cutaneous infection with human papillomavirus (HPV), depressed cell-mediated immunity, and a propensity for transformation of the warty lesions to squamous cell carcinoma on primarily sun-exposed areas of the skin. A 37-year-old man with congenital lymphatic dysplasia and a history of squamous cell carcinoma of the groin and foot was observed by us to have edema of all four extremities, numerous flat warts, and pityriasis versicolor-like papules over the trunk and arms. Condylomatous lesions were noted in the groin and a periungual verrucous nodule on the thumb. Biopsies showed the trunk and arm lesions to be verrucae and the thumb lesion to be Bowen's disease. Results of molecular hybridization studies from four lesions of the arms showed the presence of only HPV 3 DNA; HPV 16-related DNA was detected in the intraepidermal carcinoma on the thumb. Immunologic evaluation revealed anergy to routine skin testing, depressed mitogen-stimulated lymphocyte transformation, decreased B-lymphocyte count, and a severe reversal of the T-lymphocyte helper:suppressor ratio. (&lt;i&gt;Arch Dermatol&lt;/i&gt;1987;123:1511-1516)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2958334302</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/cas.14092</t>
+          <t>https://openalex.org/W2460103378</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Onidani et al. (2019)</t>
+          <t>Buko (2016)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Monitoring of cancer patients via next‐generation sequencing of patient‐derived circulating tumor cells and tumor &lt;scp&gt;DNA&lt;/scp&gt;</t>
+          <t>1050 years of Christianity on the Polish Lands. The state of Mieszko I and the problem of early Christianization of Poland in the light of archaeological research</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Abstract Liquid biopsy of circulating tumor cells ( CTC ) and circulating tumor DNA (ct DNA ) is gaining attention as a method for real‐time monitoring in cancer patients. Conventional methods based upon epithelial cell adhesion molecule (Ep CAM ) expression have a risk of missing the most aggressive CTC subpopulations due to epithelial‐mesenchymal transition and may, thus, underestimate the total number of actual CTC present in the bloodstream. Techniques utilizing a label‐free inertial microfluidics approach ( LFIMA ) enable efficient capture of CTC without the need for Ep CAM expression. In this study, we optimized a method for analyzing genetic alterations using next‐generation sequencing ( NGS ) of extracted ct DNA and CTC enriched using an LFIMA as a first‐phase examination of 30 patients with head and neck cancer, esophageal cancer, gastric cancer and colorectal cancer ( CRC ). Seven patients with advanced CRC were enrolled in the second‐phase examination to monitor the emergence of alterations occurring during treatment with epidermal growth factor receptor ( EGFR )‐specific antibodies. Using LFIMA , we effectively captured CTC (median number of CTC , 14.5 cells/mL) from several types of cancer and detected missense mutations via NGS of CTC and ct DNA . We also detected time‐dependent genetic alterations that appeared during anti– EGFR therapy in CTC and ct DNA from CRC patients. The results of NGS analyses indicated that alterations in the genomic profile revealed by the liquid biopsy could be expanded by using a combination of assays with CTC and ct DNA . The study was registered with the University Hospital Medical Information Network Clinical Trials Registry ( ID : UMIN 000014095).</t>
+          <t>The first description of the rise of the Polish state appears in the twelfth century chronicle of Gallus Anonymous, whose chronicle refers to the legendary predecessors of Mieszko. The chronicler states that the version given there of the oldest history was that which was preserved by as he put it “faithful memory”. The thesis of the evolutionary beginnings of the state has dominated the majority of the interpretations for many years. More recent archaeological investigations however, carried out in different regions of the country indicate that all over the Polish lands a similar, though not identical series of events took place in the tenth century. As a result there was a rapid, sometimes even catastrophic, collapse of many of the pre-existing tribal centres. These events were accompanied by permanent or temporary depopulation of former areas of settlement. Within a short time new centres of the Piast state arose on new sites, beginning the thousand year history of the Polish nation and state. A problem which is more widely discussed by the author is the origin of the creators of the Piast dynasty. In Polish historiography they have been assigned both a local as well as foreign (Varangian) origin. Archaeologists however have not earlier considered this problem in much detail, but the author belives that some archaeological evidence suggest that the birthplace of the new dynasty might have been southeast Wielkopolska and the region of Kalisz. This area shows a lack of the traces of the destruction of tribal centres so characteristic for other parts of the region. On the contrary, here we see traces of investment of considerable resources in stronghold construction and other evidence of the growth of the Kalisz region and the centre of Kalisz itself. What is more, Kalisz (which arose in the tribal period), unlike the rest of the pre-state strongholds, not only survived, but also developed successfully after the rise of the state. Thus, in the opinion of the author, it was precisely here that the best conditions xisted for the beginning of the Piast revolution, the archaeological traces of which are the destroyed tribal strongholds and the construction of new political centres in new locations. The Podeblocie complex situated 100 km to the south of Warsaw composed of a stronghold,  settlements and cemeteries, has gone down in history because of the scholarly storm which erupted around the discovery of three fragments of fired clay, called conventionally “the Podeblocie tablets”. They were found in two archaeological features in a settlement of the “tribal period”, dated to the ninth century. The objects have one feature in common: on their surface they have signs resembling writing. These inscriptions have been read as the monogram of Jesus Christ. If these hypotheses could be positively verified, we would be dealing with the evidence of the presence of Christians at least 150 years earlier than the date of the acceptance of Christianity by Poland. In the same context as the tablets were found pottery dated to the ninth century with interesting solar ornament. Similar decoration on ceramics from Poland are unique. From the point of view of Christianization of the Polish State the crucial position play discoveries which took place in the leading centers of the Mieszko I in the 2nd half of 10th century. In Poznan – in agreement with a tradition which tells of the place of residence of Jordan, the first missionary bishop – the greatest discovery of the past few years has been the palatium of Mieszko I, which has been dated to the second half of the tenth century. Further investigations have shown that adjacent to this building there probably was a chapel in the rectangular form with an-apse. The entire complex was therefore similar to that known from Ostrow Lednicki. Another discovery which has been the subject of controversy for many years is the so-called ‘baptistery’ from Poznan. This is a structure with a central post identified under the cathedral. This is regarded by some investigators as the remains of a mortar-mixer, others reject that interpretation, demonstrating that around this structure stood a rectangular structure. Even however if this was so, it still remains unclear whether this supposed baptistery functioned beside a church already in existence (and if so, what kind of church?). No trace of such a structure has been found. Another centre – Ostrow Lednicki, situated in Great Poland has a number of exceptional features. Here, within the circuit of the stronghold on the island, in its central part, was situated a residential complex of the first Piasts. This consisted of a two-part structure, identified as a palatium and accompanying centrally-planned chapel (or baptistery). The form of the palace shows Ottonian and southern influences. Another important element is the nearby aisleless masonry church, around which was a small cemetery. The uniqueness of Ostrow Lednicki is due to the fact that, b</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3126388929</t>
+          <t>https://openalex.org/W1831580741</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/agj2.20631</t>
+          <t>https://doi.org/10.1002/nla.791</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Govindasamy et al. (2021)</t>
+          <t>Caswell (2011)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Thirty‐six years of no‐tillage regime altered weed population dynamics in soybean</t>
+          <t>Perturbation analysis of continuous‐time absorbing Markov chains</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Abstract Changes to tillage practices can impact weed species composition and population dynamics in arable fields. The objective of this study was to evaluate and compare the impact of long‐term (36 yr) no‐tillage (NT) and conventional‐tillage (CT) systems on weed species composition, density, seedling emergence, and diversity, in a continuous soybean [ Glycine max (L.) Merr.] system in Southeast Texas. Results from 2016 and 2017 observations showed that weed species composition varied between CT and NT, and the total density was greater in NT (14 and 86 plants m –2 for summer and winter annuals, respectively) compared to CT (3 and 45 plants m –2 , respectively). Moreover, tall waterhemp [ Amaranthus tuberculatus (Moq.) Sauer], prostrate spurge [ Chamaesyce humistrata (Engelm. ex Gray) Small], and red sprangletop [ Dinebra panicea (Retz.) P.M. Peterson &amp;amp; N. Snow] emergence was delayed in NT compared to CT. Vertical distribution (70‐cm depth) of viable weed seeds in the soil profile was also influenced by tillage regime; greater proportion of weed seeds were present on the soil surface (0–5 cm) in NT (57–80% among different species) compared to CT (38–56%). However, weed diversity indices did not differ between CT and NT. Results indicate that long‐term NT, even with herbicide management, can lead to greater weed densities with a shift towards small‐seeded annual species (common purslane [ Portulaca oleraceae L.], parsley‐piert [ Aphanes arvensis L.], cutleaf groundcherry [ Physalis angulate L.]). Growers transitioning to NT should be cognizant of potential changes to weed population dynamics as a result of altered tillage regime and devise strategies for effective management.</t>
+          <t>SUMMARY The behavior of Markov chains depends on the transition intensities or probabilities; in applications, these transitions are often written as functions of parameters. In this paper, matrix calculus is used to provide the sensitivities and elasticities of the behavior of continuous time‐absorbing Markov chains to arbitrary parameters, which could include the transition intensities themselves or parameters in which those intensities depend. The results include the sensitivity and elasticity of the moments, variances, standard deviations, and coefficients of variation of the time spent in transient states and the time to absorption. The number of visits to transient states is also analyzed, using the embedded discrete‐time chain. For models with multiple absorbing states, the sensitivity of the probability of absorption in each absorbing state is presented. As an example, a published model for the progress of colorectal cancer is analyzed in detail. Transient states in this model are defined by disease status, and the model includes two absorbing states: death from cancer and death from other causes. The perturbation analysis provides a quantitative comparison of the effect of changing transition and mortality rates. Such information may be useful for evaluating treatment or screening programs. Copyright © 2011 John Wiley &amp;amp; Sons, Ltd.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2336619940</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3389/conf.fbioe.2016.01.00262</t>
+          <t>https://openalex.org/W852750962</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Hima et al. (2016)</t>
+          <t>Aller (2005)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Porphyrin encapsulated poly(3- hydroxybutyrate) microspheres in target specific photodynamic therapy for cancer</t>
+          <t>Connection Between X-Ray Emission and Relativistic Jets in the Radio Galaxies 3C 111 and 3C 120</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Event Abstract Back to Event Porphyrin encapsulated poly(3- hydroxybutyrate) microspheres in target specific photodynamic therapy for cancer Hima Puthussery1, Ipsita Roy1, Anatoily Markiv1, Eugen Stulz2, Pooja Basnett1 and Peter Thomas1 1 University Of Westminster, Faculty of science and technology, United Kingdom 2 University of Southampton, Department of Chemistry, United Kingdom Introduction: Photodynamic therapy (PDT) is an emerging alternative treatment modality to conventional cancer therapies. This involves the application of photosensitive drugs, systemically or tropically, followed by illumination with light of a suitable wavelength and dosage. A drug delivery system that is biodegradable, biocompatible, non-immunogenic and capable of encapsulation without altering the properties of the photosensitizer is desired. Biosynthetic polyhydroxyalkanoates (PHAs) have been extensively researched within the context of drug delivery [1]. This research investigates Poly(3-hydroxybutyrate) (P(3-HB)) microspheres as suitable target specific drug delivery systems of Porphyrin derivatives (protoporphyrin IX, tetraphenylporphyrin and hematoporphyrin ether) on mammary cancer cells. The microspheres have been coupled with anti-HER2 to enable target specificity for better incorporation by SK-BR-3 cells that overexpress HER-2 marker. Materials and Methods: Production of photosensitizer encapsulated microsphere using P(3HB): P(3HB) synthesised using Kannan- Rehaceck media [2] was used for producing microspheres by solid-in-oil-in-water emulsion method. Varying process parameters were tested based on experiment design generated by design expert software; 2.5%w, 5%w and 10%w of drugs were then encapsulated in the P(3HB) microspheres. Surface adsorption of the anti HER-2 antibody on microspheres: RFP coupled anti HER-2 antibody was expressed in Rosetta gami B(DE3) E. coli. These His-tagged proteins were purified using immobilised metal affinity chromatography and linked to the photosensitizer-encapsulated microspheres using surface adsorption. Protein adsorbed was quantified using Bradford’s assay. Photoexcitaion and cytotoxicity tests: SK-BR-3 was cultured as specified by ATCC and incubated with the microspheres for 48 hours and subjected to white light exposure for 30 minutes. MTT assay was performed to assess cytotoxicity and live/dead staining was performed for confocal imaging. Results and Discussion: Without photoexcitation, microspheres loaded and not loaded with porphyrin derivatives have similar cytotoxicity. Cytotoxic effect increased with increasing drug loading in each case and was found to be the highest in case of tetraphenylporphyrin (Figure 1). anti HER-2 conjugation seemed to cause a further increase in cytotoxity in the case of hematoporphyrin ether and tetraphenylporphyrin, which was statistically significant (p&lt;0.05). The absence of increased cytotoxicity in the case of protoporphyrin IX is attributed to loss of activity presented by processing conditions and is to be further investigated. The life span of singlet oxygen species generated is only ~3.5micro seconds and apoptotic factors generated by these have diffusion range of only 0.01-0.02micro meters [3]. Hence, successful localisation of the photosensitizer in the target is a key factor in determining the extent of photodynamic reaction caused. A further addition of a target specific antibody such as anti- HER2 recognizing the antigens presented by neoplastic transformation will result in a more efficient Photoimmunotargeting (PIT) [3]. The cells treated with these microspheres seemed to have much become enlarged (~60mm) as opposed to the others, suggesting a possible phagocytic mechanism (Figure 2). Conclusion: Biosynthetic P(3-HB) is an excellent choice for synthesizing porous microspheres for photosensitizer delivery. Of the three porphyrin derivatives compared, tetraphenylporphyrin was found to be the most cytotoxic. As anti- HER2 conjugated microspheres were found to exhibit increased cytotoxicity, it can be concluded that these are promising candidates in Photoimmunotargeting. I would like to thank Cavendish scholarship, University of Westminster.References:[1] Francis, Lydia and Meng, Decheng and Knowles, Jonathan C. and Keshavarz, Tajalli and Boccaccini, Aldo R. and Roy, Ipsita (2011) Controlled delivery of gentamicin using poly(3-hydroxybutyrate) microspheres. International Journal of Molecular Sciences, 12 (7). pp. 4294-4314. ISSN 1422-0067[2] Valappil, Sabeel P. and Rai, R. and Bucke, Christopher and Roy, Ipsita (2008) Polyhydroxyalkanoate biosynthesis in Bacillus cereus SPV under varied limiting conditions and an insight into the biosynthetic genes involved. Journal of Applied Microbiology, 104 (6). pp. 1624-1635. ISSN 1364-5072[3] • Solban, N., Rizvi, I., Hasan, T. (2006). Targeted photodynamic therapy. Lasers in Surgery and Medicine. 38 (5), 522-531. Keywords: Drug delivery, biomedical application, targeting delivery, Nano/micro part</t>
+          <t>This work represents a part of a longterm study of the X-ray flux variability in radio galaxies and its relation to flux and structural changes in the associated radio jet. The work described here included: 1) continued study of the emission properties of the FR I radio galaxy 3C 120 known to exhibit a jet/disk connection from our past work; and 2) the commencement of monitoring of a second radio galaxy, the FR I1 object 3C 111 which was selected because of similar radio and X-ray properties to 3C 120, including the presence of Fe K a emission. The association between X-ray dips and new superluminal components, suggesting a picture in which the radio jet is fed by accretion events near the black hole, was identified in 3C 120 using combined RXTE and radio flux monitoring data and bi-monthly to monthly imaging data from the VLBA at 43 GHz. Such data were also obtained for both targets during the period described here. Specific goals were to more broadly investigate the X-ray dip/superluminal connection in 3C 120, thereby determining the epochs of X-ray minima and superluminal ejections more accurately (and hence more precisely determining the distance between the accretion disk and the core of the radio jet), and to determine whether a similar pattern is present in the data for a second radio galaxy. In 3C 111 a different time scale (longer time delays between X-ray dips and superluminal ejections) was expected due to the higher black hole mass implied by its higher radio luminosity: no black hole mass is published for this object but one can be determined from a PDS analysis of the RXTE data. The addition of the second source to the study would identify whether a similar connection was present in other sources and, if found, would provide important information on how time scale (and hence size scale) of accretion disk/jet systems depends on black hole mass. The grant included funding for the reduction and analysis of data obtained during the time period of Rossi XTE cycle 9. During this time window, the project was awarded 2 RXTE pointings weekly for 3C 111 and 4 pointing weekly for 3C 120, excluding time when the target was too close to the sun for observation. T</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1963898533</t>
+          <t>https://openalex.org/W2767463142</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/wal.0.0122</t>
+          <t>https://doi.org/10.3892/mmr.2017.7979</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Rice (2010)</t>
+          <t>Shi et al. (2017)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Contesting Knowledge: Museums and Indigenous Perspectives&lt;/i&gt; (review)</t>
+          <t>Hepatocellular toxicity of oxalicumone A via oxidative stress injury and mitochondrial dysfunction in healthy human liver cells</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Reviewed by: Contesting Knowledge: Museums and Indigenous Perspectives Kym S. Rice Contesting Knowledge: Museums and Indigenous Perspectives. Edited by Susan Sleeper-Smith. Lincoln: University of Nebraska Press, 2009. 374 pages, $35.00. In his influential 1997 essay "Museums as Contact Zones," anthropologist James Clifford raised troubling questions about the unequal power relationships that existed between majority (read, white-run) museums and Native Americans inspired by an encounter he witnessed between tribal elders and staff at the Portland Art Museum. Among other things, Clifford argued for museums to adopt new strategies of representation that would accord greater recognition and respect to the meaning of sacred objects, as conveyed through living indigenous memory and perspective. Published more than a decade later, based on conference papers originally presented at the Newberry Library's D'Arcy McNickle Center for American Indian History, Contesting Knowledge features essays by scholars who study indigenous museums and material culture. The very readable volume, edited by Susan Sleeper-Smith of Michigan State University, speaks to the transformations as well as the complications that have occurred in the field since Clifford's piece originally appeared—precipitated, in part, by the continuing expansion of tribal museums, some with elaborate exhibition programs fueled by casino development. Although the book asserts a global perspective through its inclusion of essays by Hal Langfur on Brazil and Ciraj Rassool on the District Six Museum in Cape Town, South Africa, it focuses chiefly on North America. As one might expect, multiple essays critique the Smithsonian Institution's controversial National Museum of the American Indian (NMAI), which opened its Washington, DC, facility in 2004. Miranda J. Brady, in "A Dialogic Response to the Problematicized Past," interrogates NMAI's placement within the Smithsonian Empire, which Brady finds not only obscures its efforts to construct a national indigenous identity within the museum but is further complicated by what she perceives as a lack of transparency in its relationships with political and corporate America. Of additional interest with respect to NMAI are Jennifer Shannon's "The Construction of Native Voice at the National Museum of the American Indian," which addresses the difficult issues related to community authority and representation, and Ann McMullen's sweeping "Reinventing George Heye: Nationalizing the Museum of the American Indian and Its Collections," which reconsiders the museum's vast 800,000-plus object [End Page 213] collection through a new scrutiny of Heye, the individual who collected them earlier in the twentieth century. Other essays analyze the role of tribal museums in revitalizing their communities, particularly through community-focused exhibition practices. Amy Lonetree's thoughtful "Museums as Sites of Decolonization: Truth Telling in National and Tribal Museums" concludes the volume. Lonetree has in the past criticized NMAI's lack of historical context, particularly with respect to colonization and genocide, while generally offering praise for the museum's efforts to effect close collaboration with Native communities. Here she evaluates the Saginaw Chippewa's Ziibiwing Center of Anishinabe Culture and Lifeways as an exemplar of what Lonetree terms the "decolonized" museum—standing in sharp contrast to NMAI. Her study calls our attention to the powerful, creative, and quite different new models for exhibition making now emerging from some indigenous museums. Regardless of one's ethnicity, affiliation or experience, museum professionals and public historians alike, especially those with little or no experience working with indigenous communities or other stakeholder audiences, will find this volume concerning an emerging aspect of museum practice valuable and worth exploring. Kym S. Rice George Washington University, Washington, DC Copyright © 2010 The Western Literature Association</t>
+          <t>The marine‑derived oxalicumone A (POA) has been demonstrated as a potent anti‑tumor bioactive agent for a variety of human carcinoma, but to the best of our knowledge, remains to be evaluated in healthy liver cells. As many drugs distribute preferentially in the liver, the present study aimed to investigate the effects of POA on apoptosis, oxidative stress and mitochondrial function in L‑02 healthy liver cells. A Cell‑Counting kit‑8 assay demonstrated that POA inhibits the proliferation of L‑02 cells in a dose‑ and time‑dependent manner. Furthermore, POA induced apoptosis by increasing the percentage of cells in early apoptosis and the sub‑G1 cell cycle, along with causing S‑phase arrest in L‑02 cells. Additionally, POA activated caspase 3, increased the protein expression levels of Fas ligand and B‑cell lymphoma X‑associated protein, and decreased the expression of the anti‑apoptotic protein B‑cell lymphoma 2. POA additionally reduced the content of GSH and the activity of superoxide dismutase, elevated malondialdehyde and nitric oxide levels, increased reactive oxygen species production and the levels of alanine aminotransferase and aspartate aminotransferase, which suggested that POA induced lipid peroxidation injury in L‑02 cells and that oxidative stress serves an important role. Furthermore, POA caused alternations of mitochondrial function, including an abrupt depletion of adenosine triphosphate synthesis, mitochondrial permeability transition pore opening and depletion of mitochondrial membrane potential in L‑02 cells. These data suggested that POA exerts cytotoxicity, at least in part, by inducing oxidative stress, mitochondrial dysfunction, and eventually apoptosis. Changes in mitochondrial function and oxidative stress by POA may therefore be critical in POA‑induced toxicity in L‑02 cells.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4233827115</t>
+          <t>https://openalex.org/W2912088206</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5194/cp-2017-161</t>
+          <t>https://doi.org/10.1016/j.apenergy.2019.01.190</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Hutchinson et al. (2018)</t>
+          <t>Marcucci et al. (2019)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Climate sensitivity and meridional overturning circulation in the late Eocene using GFDL CM2.1</t>
+          <t>Probabilistic assessment of realizing the 1.5 °C climate target</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Abstract. The Eocene–Oligocene Transition (EOT), approximately 34 Ma ago, is an interval of great interest in Earth's climate history, due to the inception of the Antarctic ice sheet and major global cooling at the time. Climate simulations of the transition are needed to help us interpret proxy data, test mechanistic hypotheses for the transition, and determine the climate sensitivity at the time. However, model studies of the EOT thus far typically employ control states designed for a different time period, or ocean resolution on the order of 3 degrees. Here we developed a new higher resolution paleoclimate model configuration based on the GFDL CM2.1 climate model adapted to a late Eocene (38 Ma) paleogeography reconstruction. We employ an ocean resolution of 1 × 1.5 degrees, and an atmosphere resolution of 3 × 3.75 degrees. This represents a significant step forward in resolving the ocean geography, gateways and circulation in a coupled climate model of this period. We simulate the model under 3 different levels of CO2; 400, 800 and 1600 ppm. The model exhibits relatively high sensitivity to CO2 compared with other recent model studies, and thus can capture the expected Eocene high latitude warmth within observed estimates of atmospheric CO2. However, the model does not capture the low meridional temperature gradient seen in proxies. Equatorial sea surface temperatures are too high in the model (30–37 degrees C) compared with observations (max 32 degrees C), though observations are lacking in the warmest regions of the western Pacific. The model exhibits robust bipolar sinking in the North Pacific and Southern Ocean, which persists under all levels of CO2. North Atlantic salinities are too fresh to permit sinking (25–30 psu), due to surface transport from the very fresh Arctic (~ 20 psu), whose salinities approximately agree with Eocene proxy estimates. North Atlantic salinity increases by 1–2 psu when CO2 is halved, and similarly freshens when CO2 is doubled, due to changes in the hydrological cycle.</t>
+          <t>In this paper we develop a probabilistic assessment of the energy transition and economic consequences of limiting global warming by the end of the century to 1.5 °C. The assessment is made by applying a Monte Carlo analysis in MERGE-ETL, a technology rich integrated assessment model with endogenous learning. We assume a deterministic 1.5 °C target and uncertainty in other factors such as economic growth, resources, and technology costs. The distributions of these variables are obtained by the PROMETHEUS stochastic world energy model. The study assumes early actions and quantifies the market penetration of low carbon technologies, the emission pathways and the economic costs for an efficient reduction of greenhouse gas emissions such that the temperature limit is not exceeded. We find that achieving the 1.5 °C Paris target is technically feasible but it requires immediate and global action. Key pillars in the decarbonization of the energy system are large deployment of renewable energy, early retirement of fossil based power plants, energy efficiency and negative emission technologies. Furthermore, that the availability of biomass resources, the rapid decrease of the costs of renewables and improvements in energy efficiency are the factors with the largest effect on the cost of carbon.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4394959852</t>
+          <t>https://openalex.org/W2594364600</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://doi.org/10.11591/edulearn.v18i3.21078</t>
+          <t>https://doi.org/10.1016/j.jhg.2017.02.005</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Sydorenko et al. (2024)</t>
+          <t>Carey (2017)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Improvement of higher education: how to bridge the digital divide during the transformation?</t>
+          <t>The Jacobean Grand Tour: Early Stuart Travellers in Europe, Edward Chaney and Timothy Wilks. I.B. Tauris, London (2014)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>The research is focused on a comprehensive analysis of digitalization as a prerequisite for higher education modernization. The authors of this article consider the digital divide as a component of information inequality, which has a technological nature and presupposes unequal opportunities for access, use, and production of information and knowledge or new technologies for their effective use in practice. The authors determined the digital divide is intensifying under pandemic and quarantine restrictions when the preference is given to blended learning technologies, collaborative learning, integrated learning, flipped classroom technology, storytelling, inquiry based learning (IBL), and project based learning (PBL). The research result is a unified information and communication ecosystem developed, which unites the scientific, technological, and educational potential of the network educational digital environment. The ecosystem also provides for the transformation from a lineal to a cluster model of competence cultivation, the formation of digital skills, growth in the volume of information, and creation of digital products.</t>
+          <t>In the context of ongoing agricultural restructuring, moves away from ‘conventional’ to ‘alternative’ farming are providing opportunities for the continued viability of small-scale agriculture in some rural communities. This article examines the history of local food politics for one such community – the Northern Rivers of New South Wales, Australia. Analysis of three food producing properties over time through oral histories and archival material points to the importance of interactions, overlaps and compromises between the alternative and conventional – importantly, we discuss the role of conventional farmers in the emergence of the Northern Rivers as a thriving local food region. We position these findings in relation to the literature on reflexive localism which problematises the local as an uncomplicated site of resistance to the global food provisioning system. This moves beyond histories of conflict between different approaches to farming which have characterised this and other communities undergoing such transitions.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3021290200</t>
+          <t>https://openalex.org/W4321360742</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/2043886920910437</t>
+          <t>https://doi.org/10.17223/22220836/47/13</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Datta et al. (2020)</t>
+          <t>Artemenko &amp; Artemenko (2022)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Digital transformation: Learning from Italy’s public administration</t>
+          <t>Visualization of the transition to metamodern: a semiotic analysis of the Esma Sultan architectural project (Istanbul)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Companies and governments have embraced digital transformation as the elixir of the 21st century. But what impedes digital transformation? This case study article is based on data gathered from field research with the Italian Parliament and the Digital Transformation High Commissioner’s Office in the Ministry of the Interior. The case surfaces the context, challenges, and solutions for large-scale public administration digital transformation. The case study highlights how public administration digital transformation in a large democracy is never a technical but a sociotechnical solution. Successful digital transformation needs to understand, address, and change sociopolitical and sociotechnical mores that often define the culture. Underscoring this research is an analysis of digital transformation within the Italian public administration. Public administration encompasses all governmental and public services, including services provided by federal, regional (e.g. states and provinces), municipalities, and local agencies. The Italian public administration, with 60 million people, 8000 municipalities, and 22,000 local administrations, highlights how a digital renaissance is a preface for innovative disruption challenges. The Digital Transformation case uses Italy as the backdrop and Team Digitale, a team of talented individuals embarked on building public administration efficiencies and rebooting Italy’s digital innovation footprint, as the protagonist. For granularity, the case focuses on two digital transformation projects: ANPR, a unified public registry for all Italian residents, and PagoPA, a universal digital payment platform for public administration. This case surfaces the best practices and challenges faced when trying to tackle a mega-project across an entire economy. The case offers digital transformation recommendations, generalizable across any global democracy. The case analysis and recommendations bring to light how, contrary to private organizations, institutionalizing a disruptive innovation in a democratic country at a time of fiscal austerity highlights interesting decision-making issues and facets.</t>
+          <t>The subject of this article is a visual manifestation of the transition to metamodern architecture in the reconstruction of Esma Sultan's palace in Istanbul. Its architectural and design solution was created in the framework of the new urban paradigm of the XXI century. The project solves a whole range of tasks from the preservation of historical heritage to the creation of an attractive commercial real estate facility. The objective of the article is to conduct a semiotic analysis of the Esma Sultan architectural complex which will demonstrate the transition from the paradigm of the urban culture of postmodernism to metamodernism. Esma Sultan's semantic analysis reveals the meanings that remain not articulated in the special literature about this project. The method of historical retrospection is applied to the analysis of the object. This made it possible to assess the general trends in the production of urban space at the early the twenty-first century. A comparison of Esma Sultan's palace to the projects that are close in style and overall design showed the prospect of creating a modern mental image of the city. The authors concluded that the semiotic system of this architectural object is focused on the presentation of a multi-level semantic space. The loft-style palace not only organizes space, but creates a lifestyle with its egocentric hedonistic notes. The article proves that the reconstruction of Esma Sultan declares a new style of life and a type of urban culture in which spatiality becomes an expression of a multi-layered meaning. Rebuilding is not the same as reconstruction because its goal is not to return the past in the image of the building but to “hang” between experiencing the past and its awareness in the present. Thus, the Esma Sultan project became an example of a generalization of paradigm shifts in human perceptions of the 1990s - 2000s and a demonstration of the transition to the sociocultural situation of metamodern. We see how metamodern eliminates the very principle of dichotomy of choice, evaluation and functionality. The technological leap of the beginning of the 21st century, the changing nature of sociocultural practices, the abandonment of the policy of multiculturalism (the practice of social collage) influenced the formation of a new understanding of the problem of meanings manifested through spatiality, contingency and contextuality of any phenomenon.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4322501042</t>
+          <t>https://openalex.org/W3037457611</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/biom13030432</t>
+          <t>https://doi.org/10.1108/s2055-364120200000022005</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Saxena et al. (2023)</t>
+          <t>Fraser et al. (2020)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Machine Learning Model Based on Insulin Resistance Metagenes Underpins Genetic Basis of Type 2 Diabetes</t>
+          <t>Moving Culture to the Center of the Curriculum: A Strategy for Regional Relevance and Organization Sustainability</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Insulin resistance (IR) is considered the precursor and the key pathophysiological mechanism of type 2 diabetes (T2D) and metabolic syndrome (MetS). However, the pathways that IR shares with T2D are not clearly understood. Meta-analysis of multiple DNA microarray datasets could provide a robust set of metagenes identified across multiple studies. These metagenes would likely include a subset of genes (key metagenes) shared by both IR and T2D, and possibly responsible for the transition between them. In this study, we attempted to find these key metagenes using a feature selection method, LASSO, and then used the expression profiles of these genes to train five machine learning models: LASSO, SVM, XGBoost, Random Forest, and ANN. Among them, ANN performed well, with an area under the curve (AUC) &gt; 95%. It also demonstrated fairly good performance in differentiating diabetics from normal glucose tolerant (NGT) persons in the test dataset, with 73% accuracy across 64 human adipose tissue samples. Furthermore, these core metagenes were also enriched in diabetes-associated terms and were found in previous genome-wide association studies of T2D and its associated glycemic traits HOMA-IR and HOMA-B. Therefore, this metagenome deserves further investigation with regard to the cardinal molecular pathological defects/pathways underlying both IR and T2D.</t>
+          <t>When two regional institutes of technology merged in 2016, it created a singular opportunity for disruption to business-as-usual and for organizational transformation. The new entity’s strategic intent is to be regionally relevant, learner-centric, sustainable, and innovative in delivery. Overarching all these considerations is an emphasis on relationships with our community, and demonstrating leadership in the re-positioning of culture at the heart of everything we do. Aotearoa New Zealand is a nation that prides itself on our dual heritage (Māori and European), and the way in which this is reflected in all public sectors in a commitment to a contemporary, bi-cultural framework. The core principles of partnership, protection and participation (Ministry of Justice, 2016) are the means by which legislation, public policies, and curriculum development should be judged. Yet Māori educational achievement lags behind that of non-Māori by 9.5% in degree completions (Marriott &amp; Sim, 2014). Boosting achievement of Māori is a key government priority (Tertiary Education Commission, 2016) and organizational imperative.This chapter describes our cultural milieu and institutional vision, discusses the ways in which core values from Māori culture have informed curriculum development, and offers a pathway toward organizational sustainability. We outline how these different ways of thinking are being communicated to our students, staff, partners, and stakeholders, and how we expect to add value to the learning experience, and relevance to our own society and the wider global community. We emphasize that leadership and strategies directed toward sustainability, must and should begin with an understanding of organizational cultural identity - who we are, where we stand, and what we stand for.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2050143334</t>
+          <t>https://openalex.org/W2531777714</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/(sici)1097-0207(19990820)45:11&lt;1657::aid-nme648&gt;3.0.co;2-h</t>
+          <t>https://doi.org/10.1596/978-1-4648-0838-8_ch8</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Fish et al. (1999)</t>
+          <t>Morris (2016)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Computational damage mechanics for composite materials based on mathematical homogenization</t>
+          <t>Sediment Management at Run-of-River Headworks</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>International Journal for Numerical Methods in EngineeringVolume 45, Issue 11 p. 1657-1679 Research Article Computational damage mechanics for composite materials based on mathematical homogenization Jacob Fish, Corresponding Author Jacob Fish [email protected] Departments of Civil, Mechanical and Aerospace Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Department of Civil Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Search for more papers by this authorQing Yu, Qing Yu Departments of Civil, Mechanical and Aerospace Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Search for more papers by this authorKamlun Shek, Kamlun Shek Departments of Civil, Mechanical and Aerospace Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Search for more papers by this author Jacob Fish, Corresponding Author Jacob Fish [email protected] Departments of Civil, Mechanical and Aerospace Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Department of Civil Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Search for more papers by this authorQing Yu, Qing Yu Departments of Civil, Mechanical and Aerospace Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Search for more papers by this authorKamlun Shek, Kamlun Shek Departments of Civil, Mechanical and Aerospace Engineering, Rensselaer Polytechnic Institute, Troy, NY 12180, U.S.A.Search for more papers by this author First published: 29 June 1999 https://doi.org/10.1002/(SICI)1097-0207(19990820)45:11&lt;1657::AID-NME648&gt;3.0.CO;2-HCitations: 147AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Abstract This paper is aimed at developing a non-local theory for obtaining numerical approximation to a boundary value problem describing damage phenomena in a brittle composite material. The mathematical homogenization method based on double-scale asymptotic expansion is generalized to account for damage effects in heterogeneous media. A closed-form expression relating local fields to the overall strain and damage is derived. Non-local damage theory is developed by introducing the concept of non-local phase fields (stress, strain, free energy density, damage release rate, etc.) in a manner analogous to that currently practiced in concrete [1, 2], with the only exception being that the weight functions are taken to be C0 continuous over a single phase and zero elsewhere. Numerical results of our model were found to be in good agreement with experimental data of 4-point bend test conducted on composite beam made of Blackglas™/Nextel 5-harness satin weave. Copyright © 1999 John Wiley &amp; Sons, Ltd. REFERENCES 1 Bazant ZP, Pijaudier-Cabot G. Measurement of characteristic length of non-local continuum. Journal of Engineering Mechanics 1989; 115(4): 755– 767. 2 Bazant ZP, Pijaudier-Cabot G. Nonlocal continuum damage, localization instability and convergence. Journal of Applied Mechanics 1988; 55: 287– 293. 3 Chaboche JL. Continuum damage mechanics I: General concepts. Journal of Applied Mechanics 1988; 55: 59– 64. 4 Ju JW. On energy-based coupled elastoplastic damage theories: constitutive modeling and computational aspects. International Journal of Solids and Structures 1989; 25(7): 803– 833. 5 Krajcinovic D. Damage Mechanics. Elsevier Science: Amsterdam, 1996. 6 Simo JC, Ju JW. Strain- and stress-based continuum damage models—I. Formulation. International Journal of Solids and Structures 1987; 23(7): 821– 840. 7 Matzenmiller A, Lubliner J, Taylor RL. A constitutive model for anisotropic damage in fiber-composites. Mechanics of Materials 1995; 20: 125– 152. 8 Talreja R. Damage development in composite: mechanism and modeling. Journal of Strain Analysis 1989; 24: 215– 222. 9 Ladeveze P, Le-Dantec E. Damage modeling of the elementary ply for laminated composites. Composites Science and Technology 1992; 43: 257– 267. 10 Allen DH, Jones RH, Boyd JG. Micromechanical analysis of a continuous fiber metal matrix composite including the effects of matrix viscoplasticity and evolving damage. Journal of Mechanics and Physics of Solids 1994; 42(3): 509– 529. 11 Kruch S, Chaboche JL, Pottier T. Two-scale viscoplastic and damage analysis of metal matrix composite. In Damage and Interfacial Debondng in Composites, GZ Voyiadjis, DH Allen (eds). Elsevier Science: Amsterdam, 1996; 45– 56. 12 Voyiadjis GZ, Park T. A plasticity-damage theory for large deformation of solids—I: Theoretical formulation. International Journal of Engineering Science 1992; 30(9): 1089– 1106. 13 Voyiadjis GZ,</t>
+          <t>No AccessOct 2016Sediment Management at Run-of-River HeadworksAuthors/Editors: Gregory L. MorrisGregory L. MorrisSearch for more papers by this authorhttps://doi.org/10.1596/978-1-4648-0838-8_ch8AboutView ChaptersFull TextPDF (2.5 MB) ToolsAdd to favoritesDownload CitationsTrack Citations ShareFacebookTwitterLinked In Abstract: Outlines basic concepts to consider in the design or rehabilitation of run-of-river (ROR) headworks to improve their function, including (1) basic headworks components, (2) fluvial morphology and site selection, (3) types of intakes, (4) flow control and conveyance, (5) sediment removal from diverted water, and (6) sediment-guided operation and monitoring. As existing storage reservoirs fill with sediment, they may transition from storage to ROR operation, a change which normally requires reconfiguration of the dam, intake, and operating rule to allow power production to continue even after the delta with its load of coarse sediment has reached the dam. These concepts also prove relevant to tall dams designed from the onset to shift from impounding to ROR after a period of decades when the delta reaches the intake, as well as to the redesign of storage reservoirs that will see conversion to sustainable ROR operation when their storage volume proves lost to sedimentation. ReferencesASCE (American Society of Civil Engineers). 1995. Guidelines for Design of Intakes for Hydroelectric Plants. New York: American Society of Civil Engineers. Google ScholarAthar, M, U C Kothyari, and R J Garde. 2002. “Sediment Removal Efficiency of Vortex Chamber Type Sediment Extractor.” Journal of Hydraulic Engineering 128 (12): 1051–59. CrossrefGoogle ScholarBouvard, Maurice. 1992. Mobile Barrages and Intakes on Sediment Transporting Rivers. Rotterdam: A.A. Balkema. Google ScholarLi, Yunjie. 2009. “Development of Design Basis for Hydrodynamic Vortex Separators.” Rutgers, The State University of New Jersey, New Brunswick, NJ. Google ScholarNozaki, Tsuguo. 1990. “Estimation of Repair Cycle of Turbine Due to Abrasion Caused by Suspended Sand and Determination of Desilting Basin Capacity.” Japan International Cooperation Agency, Lima, Peru. Google ScholarPradhan, Pratik Man Singh. 2004. Improving Sediment Handling in the Himalayas. Nepal: OSH Research. Google ScholarRosgen, D L 1994. “A Classification of Natural Rivers.” CATENA 22 169–99. CrossrefGoogle ScholarRosgen, D L 1996. Applied River Morphology. Pagosa Springs, CO: Wildland Hydrology Books. Google Scholar Previous chapterNext chapter FiguresreferencesRecommendeddetails View Published: October 2016ISBN: 978-1-4648-0838-8e-ISBN: 978-1-4648-0837-1 Copyright &amp; Permissions Related TopicsWater Resources KeywordsCLEAN WATERCONSERVATIONDAMSDOWNSTREAM REGIONSHYDROLOGICAL MODELINGHYDROPOWERRESERVOIRSRIVERS AND STREAMSSEDIMENTATION PDF DownloadLoading ...</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4309468609</t>
+          <t>https://openalex.org/W2972553640</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1159/000527094</t>
+          <t>https://doi.org/10.1371/journal.pone.0222161</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Nagatomi et al. (2022)</t>
+          <t>Kang et al. (2019)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>En Face Images Using Ultra-Widefield Optical Coherence Tomography in 2 Cases of Traumatic Hypotony Maculopathy before and after Surgical Intervention</t>
+          <t>Graph-theoretical analysis for energy landscape reveals the organization of state transitions in the resting-state human cerebral cortex</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>The aim was to investigate the structural changes of the retina using en face ultra-widefield optical coherence tomography (OCT) images during the treatment of hypotony maculopathy with traumatic cyclodialysis. Case 1 was a 43-year-old male patient with visual crowding in his left eye (metallic wire injury that occurred 3 weeks previously) who was referred to our department. Although best-corrected visual acuity was 20/20 in his left eye on initial evaluation, intraocular pressure was 6 mm Hg. Case 2 was a 20-year-old male patient with visual crowding in his left eye (baseball ball injury that occurred 4 weeks previously) who was referred to our department. Although best-corrected visual acuity was 16/20 in his left eye on initial examination, intraocular pressure was 5 mm Hg. Surgical interventions were performed in both cases. En face ultra-widefield OCT images were able to be used to trace dynamic changes before the intervention and up to 1 year later. The images obtained in these two cases made it possible to confirm the progress from wrinkles on the surface of the retina to normalization of vascular structure and improvement of ellipsoid zone disruption. En face ultra-widefield OCT is useful for monitoring multilayer structures of the retina in hypotony maculopathy cases.</t>
+          <t>The resting-state brain is often considered a nonlinear dynamic system transitioning among multiple coexisting stable states. Despite the increasing number of studies on the multistability of the brain system, the processes of state transitions have rarely been systematically explored. Thus, we investigated the state transition processes of the human cerebral cortex system at rest by introducing a graph-theoretical analysis of the state transition network. The energy landscape analysis of brain state occurrences, estimated using the pairwise maximum entropy model for resting-state fMRI data, identified multiple local minima, some of which mediate multi-step transitions toward the global minimum. The state transition among local minima is clustered into two groups according to state transition rates and most inter-group state transitions were mediated by a hub transition state. The distance to the hub transition state determined the path length of the inter-group transition. The cortical system appeared to have redundancy in inter-group transitions when the hub transition state was removed. Such a hub-like organization of transition processes disappeared when the connectivity of the cortical system was altered from the resting-state configuration. In the state transition, the default mode network acts as a transition hub, while coactivation of the prefrontal cortex and default mode network is captured as the global minimum. In summary, the resting-state cerebral cortex has a well-organized architecture of state transitions among stable states, when evaluated by a graph-theoretical analysis of the nonlinear state transition network of the brain.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2133358483</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5120/17130-7712</t>
+          <t>https://openalex.org/W2373538989</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sarkar &amp; Kar (2014)</t>
+          <t>Huai-qian (2014)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Adaptive E-learning using Deterministic Finite Automata</t>
+          <t>Dispute on National Policy of New Period of China:Two Theoretical Orientations and Contrasts</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Adaptive E-learning refers to adapt the way of presentation of educational material according to the student's needs.Understanding ability differs by student to student so the learning path should vary according to their understanding ability.Some students may understand by once some may needs more with different way.This paper represents a same topic with various approaches to the different classes of students with different understanding ability.The proposed approach in this paper is based on two concepts Deterministic Finite Automata (DFA) and Case Based Study (CBS), out of which DFA used for providing adaptive nature and shows the state transition according to their performance.Path of leaning varies with different student for a particular topic, this feature used to provide adaptively nature in E-learning.CBS used for providing study material based on the state.CBS uses case library to decide the study material.</t>
+          <t>Serious divergence and dispute on Chinese national policy assessment and future heading were aroused among theory field under the influence of deep changes of national relationships of new period.Theory of culturalization and citizenize and theory of Ethnic politics are two main representative standpoints about national problems,the former proposes comprehensive reflection and rebuilt contemporary Chinese national policy,while the latter makes theoretical explanation and defending about current pohcy from the view of Ethnic politics.Analysis obtained from the comparison show that two theoretical orientations presented respective profound opinions about Chinese national problems and have some theoretical blind points as well which affected the match between the realities and the theory respectively.More rational talking and communication are needed among disagreeable opinions for attaining more consensuses and constructive suggestions.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://openalex.org/W623916810</t>
+          <t>https://openalex.org/W4387715440</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5860/choice.37-5785</t>
+          <t>https://doi.org/10.3997/2214-4609.202321110</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>NA (2000)</t>
+          <t>Neumaier et al. (2023)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>The Spanish economy in the new Europe</t>
+          <t>Natural Hydrogen Prospect Assessment – Similarities and Differences with Oil and Gas Workflows</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>List of Tables and Figures Foreword by Luis Angel Rojo Preface List of Abbreviations Introduction: Changes in the International Economic Setting PART ONE: COMPARATIVE ANALYSIS Growth and Structural Changes Productivity and its Determinants Activity, Employment and Unemployment Costs, Prices and Competitiveness Public Finances and Fiscal Policy External Sector Nominal and Real Convergence PART TWO: EVALUATION OF THE INTEGRATION PROCESS Trade Relations Direct Investment Flows Migratory Flows The Community Budget and its Functions Unification of Monetary Policy in Europe Epilogue: Prospects and Economic Strategies for the Spain of the Euro Appendix I: Chronology of the European Integration Process Appendix II: Methodological Problems of International Comparisons Index</t>
+          <t>Summary Natural hydrogen (H2) has the potential to be a major contributor for energy transition. H2 is abundant in the earth’s crust; however, scalable commercial quantities are yet to be proven. Recent announcements of major discoveries are encouraging but the communicated quantities need to be taken with caution. When screening for natural H2 prospects, geological risk and success volumes are evaluated, as in the exploration for oil and gas. In the following sections we present and discuss the similarities and differences between natural H2 and oil and gas prospects.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2767463142</t>
+          <t>https://openalex.org/W94647110</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3892/mmr.2017.7979</t>
+          <t>https://doi.org/10.1101/087969784.52.445</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Shi et al. (2017)</t>
+          <t>Abrous &amp; Wojtowicz (2008)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Hepatocellular toxicity of oxalicumone A via oxidative stress injury and mitochondrial dysfunction in healthy human liver cells</t>
+          <t>21 Neurogenesis and Hippocampal Memory System</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>The marine‑derived oxalicumone A (POA) has been demonstrated as a potent anti‑tumor bioactive agent for a variety of human carcinoma, but to the best of our knowledge, remains to be evaluated in healthy liver cells. As many drugs distribute preferentially in the liver, the present study aimed to investigate the effects of POA on apoptosis, oxidative stress and mitochondrial function in L‑02 healthy liver cells. A Cell‑Counting kit‑8 assay demonstrated that POA inhibits the proliferation of L‑02 cells in a dose‑ and time‑dependent manner. Furthermore, POA induced apoptosis by increasing the percentage of cells in early apoptosis and the sub‑G1 cell cycle, along with causing S‑phase arrest in L‑02 cells. Additionally, POA activated caspase 3, increased the protein expression levels of Fas ligand and B‑cell lymphoma X‑associated protein, and decreased the expression of the anti‑apoptotic protein B‑cell lymphoma 2. POA additionally reduced the content of GSH and the activity of superoxide dismutase, elevated malondialdehyde and nitric oxide levels, increased reactive oxygen species production and the levels of alanine aminotransferase and aspartate aminotransferase, which suggested that POA induced lipid peroxidation injury in L‑02 cells and that oxidative stress serves an important role. Furthermore, POA caused alternations of mitochondrial function, including an abrupt depletion of adenosine triphosphate synthesis, mitochondrial permeability transition pore opening and depletion of mitochondrial membrane potential in L‑02 cells. These data suggested that POA exerts cytotoxicity, at least in part, by inducing oxidative stress, mitochondrial dysfunction, and eventually apoptosis. Changes in mitochondrial function and oxidative stress by POA may therefore be critical in POA‑induced toxicity in L‑02 cells.</t>
+          <t>When discussing a brain function such as memory, one should relate it to brain plasticity. One definition of plasticity is an alternative way of performing the same function. Anecdotal evidence suggests that the human brain can perform amazing memory feats in unexpected, alternative ways. For example, the established ability of savants (individuals with partial brain damage) to memorize events, sequences of numbers, letters, or musical notes, and to perform arithmetical calculations, suggests that compensatory rewiring of brain circuits after injury can affect learning. Which particular form of brain plasticity could be responsible for such astounding learning abilities as those seen in Kim Peek (“Rain Man”) and Daniel Tammet (“Brainman”), two individuals diagnosed as autistic savants (www.savantsyndrome.com)? In this chapter, we describe a radical form of plasticity, adult neurogenesis, in hippocampal formation (HF). The discovery of adult neurogenesis (production of new neurons in adult brain) has radically changed our ideas of how the brain can adapt to physiological and environmental challenges. The process of neuronal production is highly regulated and is involved in hippocampal functions under physiological conditions. In some cases, neurogenesis can respond to hippocampus-related pathologies such as epilepsy, ischemia, mood disorders, and addiction. Understanding neurogenesis, along with other forms of brain plasticity, may help us to understand normal memory and perhaps the enhanced memory such as that seen in individuals with the Savant Syndrome (Treffert and Christensen 2005). LESIONS OF THE NEUROGENIC REGION The HF is part of an integrated network involved in learning and memory (Eichenbaum 2000, 2001;...</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317941081</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.35774/visnyk2022.04.028</t>
+          <t>https://openalex.org/W2350503630</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Melnyk &amp; Zhukevych (2023)</t>
+          <t>Liu (1998)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Economic and analytical diagnostics in the financial activity management system of a modern health care institution</t>
+          <t>High Reflection Ge_0.45Te_0.55 Recording Films</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Introduction. The concept of the development of the system of financial support in the field of health care outlines the need to introduce a new financial mechanism, which provides for the provision of a sufficient level of managerial and financial autonomy to medical institutions.The change in the nature of financial relations imposes new requirements on the management of financial activities in health care institutions. The functional component of managerial activity is economic and analytical diagnostics, the application of which will ensure the adaptability of financial management methods and models to modern realities and the integration of the finances of health care institutions into the system of competitive market relations.Purpose. The purpose of the study is the development of theoretical provisions of economic-analytical diagnostics and the development of methodological approaches for its application in the management of financial activities of health care institutions in the conditions of transformational changes.Methods. Achieving the set goal is achieved by using general scientific, special and empirical methods of learning processes and phenomena. The methods of analysis and synthesis, comparison, and generalization are used to understand economic and analytical diagnostics in the management system; scientific abstraction, structural-logical and tabular methods for determining the methodology of economic-analytical diagnostics in modern health care institutions.Results. It has been proven that the mechanism of management activity of state institutions with elements of entrepreneurial structures, which are currently medical institutions, requires the use of modern economic and analytical methods and diagnostic models and their adaptation to the specifics of the activities of health care institutions. The analysis of the main approaches of scientists to the definition and understanding of economic-analytical diagnostics as a functional component of managing the financial activities of a health care institution was carried out, and it was determined that the essence of economic-analytical diagnostics of health care institutions should be the system of management activities regarding decision-making on the investment of financial and other resources to provide quality services that will ensure the efficiency and competitiveness of the health care institution.At the same time, the main tasks are defined: analysis of the financial activity of medical institutions, assessment of production capacities and resource base and means of their improvement, which will ensure the financial and economic stability and stability of medical institutions with the approval of market positions and/or exit from the crisis state.It is substantiated that the indicators of the efficiency and stability of the functioning of the health care institution should form an optimal management model of an expedient and justified system of financing and provision of financial resources and the efficiency of their spending.The use of integral methods and models that combine internal and external factors of the functioning of economic entities is proposed to carry out economic and analytical diagnostics and determine the capabilities of health care institutions. The main approaches to the SWOT analysis methodology with the possibility of its adaptation and application in the management of health care institutions were studied.Discussion. In order to carry out economic and analytical diagnostics regarding the determination of the capabilities of health care institutions, including financial ones, in addition to SWOT analysis, it is advisable to use other integral methods and models that combine internal and external factors of the functioning of economic entities in the field of medicine, which may be the subject of further research.</t>
+          <t>The preparation method, phase change transformation properties, optical spectra properties and shortwavelength optical storage properties of Ge_0.45Te_0.55 phase change thin film are reported. The film is prepared by RFmagnetron sputtering technology. The deposited films are amorphous. The crystallization temperature is about 190 ℃, the reflectivity of the crystalline state film is about 50% . A static optical recording tester with an focused Argon laser beam (514.5 nm) irradiating on the films is used to evaluate the optical storage performance. The results show that a reflectivity contrast larger than 15% can be obtained with the low power and short pulse width laser beam. These results indicate that the Ge_0.45T_0.55 thin film is a promising candidate for high reflectivity and high density compact diskerasable system as the recording material.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4302029183</t>
+          <t>https://openalex.org/W2065422089</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1922/cdh_00110niciomhair06</t>
+          <t>https://doi.org/10.14452/mr-016-11-1965-03_1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Iomhair et al. (2022)</t>
+          <t>Sweezy &amp; Huberman (1965)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>The Greater Manchester Child Friendly Dental Practice Scheme: Using a Transformational Commissioning Approach to Align Paediatric Dental Service Provision with Childhood Oral Health Needs in Greater Manchester.</t>
+          <t>Paul Alexander Baran: A Collective Portrait: Foreword</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>In response to the impact of the COVID-19 pandemic on access to already oversubscribed specialist paediatric dental services, a pilot of an enhanced primary care paediatric dental pathway, known as the Child Friendly Dental Practice (CFDP) scheme, was commissioned by the Greater Manchester Health and Social Care Partnership. Supported by a transformational commissioning approach, the ambition of the CFDP pilot was to manage or stabilise the oral health of high-need paediatric patients who had been referred to specialist dental services within Community or Hospital Dental Service settings, through timely access to primary care clinicians who were confident and experienced in treating children. The theory of change of the CFDP pilot proposed that rapid access to enhanced primary dental care would reduce the need for onward referral to specialist paediatric dental services, whilst also stabilising the oral health of children who require more complex management in specialist services. A formative evaluation of the phase one pilot implementation of the CFDP Scheme has demonstrated the potential of the CFDP Scheme to improve access to dental services for paediatric patients referred from their General Dental Practitioner. Comparison of waiting times between the CFDP pathway and the standard paediatric dental referral pathway have revealed substantially reduced waiting times to access care along the CFDP pathway, while less than 30% of those who attended CFDPs required onward referral to specialist paediatric dental services. Encouragingly, similar attendance and treatment completion rates were noted among patients from all levels of socio-economic deprivation, reducing concerns regarding the potential for service-based interventions to increase oral health inequalities. Following successful completion of the phase one pilot implementation and evaluation, the CFDP Scheme has now been rolled out across all localities in Greater Manchester as part of a second phase pilot implementation. Public Health Competencies; Equitable healthcare provision, Partnership working, Evidence-based public health, Systems thinking, Transformational commissioning, Healthcare evaluation.</t>
+          <t>Monthly Review was founded in 1949 at just about the time that Paul Baran was resigning from a semi-governmental job at the Federal Reserve Bank of New York to join the faculty of Stanford University. In his new situation he had more freedom, more time, and more energy to devote to outside matters. Being a Marxist whose political views were basically the same as ours, he was naturally interested in MR and as time went on became more and more closely associated with us in all its various aspects. In the early years when McCarthyism was at its height, he wrote under the pen name "Historicus," His first signed article, "On Soviet Themes," appeared in 1956; thereafter he wrote only under his own name. When, under circumstances described below (pages 45-46), the publisher who had originally contracted to publish The Political Economy of Growth reneged, Baran immediately offered it to MR Press which brought it out in 1957 and subsequently negotiated foreign editions in nine different languages. MR Press also published two pamphlets by Baran: Marxism and Psycho- analysis (1960), and Reflections on the Cuban Revolution (1961); and the Press will publish Monopoly Capital, the book which he was writing jointly with Paul M. Sweezy at the time of his death.This article can also be found at the Monthly Review website, where most recent articles are published in full.Click here to purchase a PDF version of this article at the Monthly Review website.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2594927126</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.prp.2017.03.006</t>
+          <t>https://openalex.org/W3037625829</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Jaafari‐Ashkavandi &amp; Aslani (2017)</t>
+          <t>Hsu et al. (2019)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Caveolin-1 expression in oral lichen planus, dysplastic lesions and squamous cell carcinoma</t>
+          <t>Linear Dynamics: Clustering without identification</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Caveolin-1(Cav-1), the main part of caveolae structure, is supposed to play a role in pathogenesis of many human tumors. Since oral lichen planus (OLP) is considered as a potential premalignant disease, this study evaluated Cav-1 expression in OLP in comparison with benign hyperkeratosis, dysplastic epithelium and oral squamous cell carcinoma (OSCC), to investigate its possible role in pathogenesis and malignant transformation of OLP. In this cross-sectional retrospective study, immunohistochemical expression of Cav-1 in the epithelial component and stroma was evaluated in 81 samples, including 12 cases of hyperkeratosis, 24 OLP, 22 epithelial dysplasia, and 23 OSCC samples. Correlations between Cav-1 expression and clinicopathological variables were evaluated statistically. Positive Cav-1 staining was found in 58% of OLP, 91% of hyperkeratosis, 100% of epithelial dysplasia, and 95% of OSCC samples. OSCC showed the highest Cav-1 expression and OLP had the lowest (P = 0.001). The intensity of staining was significantly increased in stepwise manner from OLP to OSCC (P = 0.001). Expression of Cav-1 was related to the grade of samples in OSCC and dysplastic samples (P = 0.04). Based on the findings, it was concluded that Cav-1 may play a role in the pathogenesis of OLP and carcinogenesis of SCC, but its role in malignant transformation of OLP is not confirmed. Further studies are needed to evaluate its potential therapeutic function in OLP and SCC.</t>
+          <t>Linear dynamical systems are a fundamental and powerful parametric model class. However, identifying the parameters of a linear dynamical system is a venerable task, permitting provably efficient solutions only in special cases. This work shows that the eigenspectrum of unknown linear dynamics can be identified without full system identification. We analyze a computationally efficient and provably convergent algorithm to estimate the eigenvalues of the state-transition matrix in a linear dynamical system. _x000D_
+When applied to time series clustering, our algorithm can efficiently cluster multi-dimensional time series with temporal offsets and varying lengths, under the assumption that the time series are generated from linear dynamical systems. Evaluating our algorithm on both synthetic data and real electrocardiogram (ECG) signals, we see improvements in clustering quality over existing baselines.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2972553640</t>
+          <t>https://openalex.org/W4386458112</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0222161</t>
+          <t>https://doi.org/10.26434/chemrxiv-2023-lx5wd</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Kang et al. (2019)</t>
+          <t>Wittmann et al. (2023)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Graph-theoretical analysis for energy landscape reveals the organization of state transitions in the resting-state human cerebral cortex</t>
+          <t>Dispersion-corrected r²SCAN based double-hybrid functionals</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>The resting-state brain is often considered a nonlinear dynamic system transitioning among multiple coexisting stable states. Despite the increasing number of studies on the multistability of the brain system, the processes of state transitions have rarely been systematically explored. Thus, we investigated the state transition processes of the human cerebral cortex system at rest by introducing a graph-theoretical analysis of the state transition network. The energy landscape analysis of brain state occurrences, estimated using the pairwise maximum entropy model for resting-state fMRI data, identified multiple local minima, some of which mediate multi-step transitions toward the global minimum. The state transition among local minima is clustered into two groups according to state transition rates and most inter-group state transitions were mediated by a hub transition state. The distance to the hub transition state determined the path length of the inter-group transition. The cortical system appeared to have redundancy in inter-group transitions when the hub transition state was removed. Such a hub-like organization of transition processes disappeared when the connectivity of the cortical system was altered from the resting-state configuration. In the state transition, the default mode network acts as a transition hub, while coactivation of the prefrontal cortex and default mode network is captured as the global minimum. In summary, the resting-state cerebral cortex has a well-organized architecture of state transitions among stable states, when evaluated by a graph-theoretical analysis of the nonlinear state transition network of the brain.</t>
+          <t>The regularized and restored semi-local meta-generalized gradient approximation (meta-GGA) exchange-correlation functional r²SCAN [J. W. Furness, A. D. Kaplan, J. Ning, J. P. Perdew, and J. Sun, J. Phys. Chem. Lett. 11, 8208–8215 (2020)] is used to create adiabatic-connection-derived global double-hybrid functionals employing spin-opposite-scaled MP2. The 0-DH, CIDH, QIDH, and 0-2 type double-hybrid functionals are assessed as a starting point for further modification. Variants with 50% and 69% Hartree--Fock exchange (HFX) are empirically optimized (Pr²SCAN50 and Pr²SCAN69), and the effect of MP2-regularization (κPr²SCAN50) and range-separated HFX (ωPr²SCAN50) is evaluated. All optimized functionals are combined with the state-of-the-art London dispersion corrections D4 and NL. The resulting functionals are assessed comprehensively for their performance on main-group and metal-organic thermochemistry on 90 different benchmark sets containing 25800 data points. These include the extensive GMTKN55 database, additional sets for main-group chemistry, and multiple sets for transition-metal complexes including the ROST61, the MOR41, and the MOBH35 sets. As the main target of this study is the development of a broadly applicable, robust functional with low empiricism, special focus is put on variants with moderate amounts of HFX (50%) which are compared to the so far successful PWPB95-D4 (50% HFX, 20% MP2 correlation) functional. The overall best variant, ωPr²SCAN50-D4, performs well on main-group and metal-organic thermochemistry, followed by the Pr²SCAN69-D4 that offers a slight edge for metal-organic thermochemistry, and by the low HFX global double-hybrid Pr²SCAN50-D4 that performs robustly across all tested sets. All four optimized functionals, Pr²SCAN69-D4, Pr²SCAN50-D4, κPr²SCAN50-D4, and ωPr²SCAN50-D4 outperform the PWPB95-D4 functional.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2009334730</t>
+          <t>https://openalex.org/W3134296355</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/gyr.2013.0009</t>
+          <t>https://doi.org/10.1117/12.2577436</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Lande (2013)</t>
+          <t>Deguchi et al. (2021)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>“Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung by Marcus Twellmann</t>
+          <t>Augmented reality support system for endoscopic surgery using spectral reflectance estimation</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Reviewed by: “Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung by Marcus Twellmann Joel B. Lande Marcus Twellmann, “Ueber die Eide”: Zucht und Kritik im Preussen der Aufklärung. Munich: Konstanz University Press, 2010. 334 pp. With a nod to Friedrich Nietzsche’s famous claim that cultural practices such as making a promise and the administering of punishment consist of ever-changing interpretations and legitimations, Marcus Twellmann embarks on his investigation of the vicissitudes to which the oath was subject in Prussia during the Enlightenment. The oath emerges in the course of Twellmann’s lucid argument, which is related in refreshingly crisp and precise prose, as a point of intersection between state administration, religious practice, and philosophical critique. Because the taking of an oath traditionally involved the invocation of the divine, its study allows Twellmann to treat the Enlightenment as an age as characterized as much by continuity as by rupture. Twellmann’s leading surmise is that the emergence of the modern state as a pastoral force, as interested in the spiritual salvation of its citizens as much as in the preservation of peace, preserved, albeit under shifting terms, the religious significance of oath taking. Tracing a breathtaking arc from public ordinances at the turn of the eighteenth century to the seminal philosophical reflections on oaths by Moses Mendelssohn and Immanuel Kant, and then closing with a poignant reflection on the fashionably controversial Carl Schmitt, Twellmann shows that the oath was a procedure by means of which the emerging state order compelled its subjects to speak the truth. The culminating moment in Twellmann’s march toward modernity is, undoubtedly, the treatment of oaths in the philosophy of Kant. For this Prussian philosopher, above all others, spearheaded a conception of the oath as a relationship between a human being and his or her conscience, thereby jettisoning the traditional role of God as guarantor of truth. [End Page 275] The first chapter of the study investigates an anecdote published in the Prussian Annalen der Gesetzgebung und der Gelehrsamkeit from 1789. This seemingly minor anecdote of a clergyman who refuses to take an oath allows Twellmann to show that the Prussian state at the end of the eighteenth century still employed the oath as an educational and disciplinary practice intertwined with moralizing ambitions. Whatever transformations to which the oath was submitted in the course of the Enlightenment, it becomes clear from the anecdote that a false oath was still submitted before a “figure of the third,” before an instance of the divine that putatively bears greater authority. The second chapter takes up the role of the oath within tractates on ceremony (Zeremonia lwissenschaft), which proliferated in the eighteenth century. The author shows with great analytic precision that ceremony bridged political and ecclesiastical discourses, and the ritualistic dimensions of oath taking were, in fact, highly contested throughout the eighteenth century. The chapter ultimately shows that Mendelssohn and Kant articulated vastly different understandings of the importance of ritual; the former embraced ceremony on the basis of its importance to lawful Jewish practice, whereas the latter dismissed it as an instance of the primitive fetish of external objects. At the end of these two chapters Twellmann delves into the material that, ultimately, constitutes the study’s most impressive contribution: his investigation of the role of oaths in Kant’s philosophy. In a masterful synthesis of Kant’s mature philosophical writings, Twellmann shows the ramifications for the traditionally theological inflection of the oath, when Kant installs philosophy as the ultimate authority over the rightfulness of laws and conventions. Kant is a particularly fascinating object of inquiry for Twellmann, because the philosopher from Königsberg does not fully rob the oath of all validity, even after he has reduced traditional conceptions of the divine to mere “rhetorical fictions.” Twellmann demonstrates, contrary to the predominant opinion in the existing research, that Kant is not dismissive of prayer, ritual, and the oath, but that he treats them primarily in terms of their impact on the moral psychology of the subject. In the subsequent two chapters, Twellmann turns his eye to Friedrich Nicolai’s Sebaldus Nothanker and Moses Mendelssohn’s reflections on oaths. The author addresses with great...</t>
+          <t>In cardiac surgery, a method avoids cutting the sternum and ribs using an endoscope is known as Minimally Invasive Cardiac Surgery (MICS). MICS can be used for mitral valve prolapse. In this surgery, an annuloplasty ring is inserted to form the valve and since each person has a different valve size, an appropriate size must be selected by applying a sizer. We propose a system that supports surgery by superimposing a virtual image of the valve ring on the endoscopic image using Augmented reality (AR) technology. Marker detection needs to be performed for AR display. However, since organ surfaces are similar in color, we use the spectral reflectance of the material to obtain more information than RGB image. To avoid the use of special optics to measure the spectral reflectance, we estimate spectral reflectance from RGB images using principal component analysis. The areas containing the marker are obtained by similarity index and the 3D positions of the markers are determined from center of gravity measurements. Then, we superimpose the AR image onto the endoscope image by perspective transformation to the image plane and masking using estimated 3D position of markers. To evaluate our method, we validated the spectral reflectance estimation and AR display using pig hearts marked with crystal violet. We found that the accuracy of spectral reflectance estimation is sufficient for AR display and the AR image was almost the same as the actual ring size. Therefore, our proposed method is expected to increase the efficiency of the operation.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4229850158</t>
+          <t>https://openalex.org/W2016254158</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1287/opre.1120.1145</t>
+          <t>https://doi.org/10.1016/j.pubrev.2007.08.009</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>NA (2012)</t>
+          <t>Mckie &amp; Galloway (2007)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>In This Issue</t>
+          <t>Climate change after denial: Global reach, global responsibilities, and public relations</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Chapter 13 of the Old Testament's Book of Numbers begins, “And the Lord spoke unto Moses, saying: ‘Send thou men, that they may spy out the land of Canaan.’” Although intelligence operations have become more sophisticated since Moses' time, the basic steps remain the same: collect information and analyze it with the goal of providing reasoned assessments that reduce uncertainty and help political or military leaders make better decisions. The topic of intelligence is potentially of special interest to operations researchers for two reasons. First, intelligence is a product resulting from several distinct operations, and as with all products, there are better and worse ways to produce it, which leads to a natural focus on research. Second, there are several opportunities for the application of tools from the broad sweep of operations research methods to specific intelligence questions; this set of problems can be construed as intelligence operations research. “Intelligence Operations Research” is the archival record of Kaplan's Philip McCord Morse Lecture on this topic. Consumer tax preparation applications comprise a profitable niche in software development. Internal Revenue Service efforts to achieve an 80% electronic filing rate for major returns by 2013 has bolstered the growth in tax preparation software. Companies producing tax preparation software must process thousands of state and federal tax forms and release their product on time to protect their market share. “A Hierarchical Framework for Organizing a Software Development Process,” by F. Iravani, S. Dasu, and R. Ahmadi proposes hierarchical optimization models for organizing a complex tax software development process at a leading U.S. software company. The models assign tax forms to groups to control the process more effectively and staff the groups such that they complete processing the assigned tax forms by the release deadline. Implementing the hierarchical models helped the company reduce overtime hours by 31%, reduce total workforce cost by 13%, and release the tax software on time. When a new, more critical patient arrives in a hospital's intensive care unit (ICU) and no bed is available, physicians must discharge a current patient. The discharged patient may require readmission to the ICU, thus straining the already congested resources. Currently, no objective (severity-based using strict physiologic criteria) standards for ICU admission and discharge exist. In “Optimizing Intensive Care Unit Discharge Decisions with Patient Readmissions,” C. W. Chan, V. F. Farias, N. Bambos, and G. J. Escobar provide a systematic and evidence-based discharge strategy for ICU patients when incoming demand necessitates the discharge of a current patient. This work establishes a methodological framework to examine the performance of an index policy that accounts for patient readmissions when making ICU discharge decisions. The major implication of this work is that, in the future, discharge strategies could be linked to objective physiologic criteria to improve patient outcomes and increase efficiency. Flooding can cause significant loss of life and economic damage. The 1953 floods in the southwestern parts of the Netherlands demonstrated the flooding risks to that country. Soon after 1953, Van Dantzig started the cost-benefit analysis of the dike height optimization problem, which looks for the optimal balance between investing in dikes (costs) and reducing flood risk (benefits). In “Safe Dike Heights at Minimal Costs: The Nonhomogeneous Case,” R. Brekelmans, D. den Hertog, K. Roos, and C. Eijgenraam extend Van Dantzig's model and address the fundamental questions of when and how much to invest where. The authors formulate this problem as a mixed-integer nonlinear programming (MINLP) model and combine state-of-the-art solvers with techniques that exploit the problem structure. Dutch government agencies use the model to analyze the main dike rings in the Netherlands and to propose new safety standards to incorporate into the Dutch Water Act. Probabilistically constrained optimization problems with discretely distributed random variables are computationally challenging. In “Pattern-Based Modeling and Solution of Probabilistically Constrained Optimization Problems,” M. Lejeune develops a combinatorial pattern-based framework to model such problems. The method scales remarkably well and solves exactly and very fast stochastic problems where uncertainty is represented by an extremely large (up to 50,000) number of scenarios. This is a key and distinctive feature of the method. It permits reformulating the stochastic problems as mixed-integer ones in which the number of binary variables is not an increasing function of the number of scenarios used to characterize the uncertainty. In the current financial crisis, central banks worldwide have saved major banks from going into default. Companies and banks are closely linked in today's global economy, and negative ev</t>
+          <t>Taking climate change as the 21st century's major global threat, this paper considers three significant public relations challenges arising from it. The first is how the field can engage with the social equity and ecological dimensions in ways that might enhance rather than diminish the profession's public reputation. The second is how the discipline adapts to deal with the radical perceptual shifts accompanying the meteorological transformations and possible geopolitical fallout, and the third is the issue of trust – interlinked with emotions, economics, ecology, and neuroscience – as the strategy of eco-catastrophe denial becomes less and less tenable. The paper also considers possible responses to these challenges.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2791768532</t>
+          <t>https://openalex.org/W4309673396</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.envint.2018.03.006</t>
+          <t>https://doi.org/10.4102/curationis.v45i1.2372</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Wei et al. (2018)</t>
+          <t>Molefe &amp; Mabunda (2022)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Neglected environmental health impacts of China's supply-side structural reform</t>
+          <t>Online teaching and learning: Experiences of students in a nursing college during the onset of COVID-19</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>“Supply-side structural reform” (SSSR) has been the most important ongoing economic reform in China since 2015, but its important environmental health effects have not been properly assessed. The present study addresses that gap by focusing on reduction of overcapacity in the coal, steel, and iron sectors, combined with reduction of emissions of sulfur dioxide (SO2), nitrogen oxide (NOx), and fine particulate matter (PM2.5), and projecting resultant effects on air quality and public health across cities and regions in China. Modeling results indicate that effects on air quality and public health are visible and distributed unevenly across the country. This assessment provides quantitative evidence supporting projections of the transregional distribution of such effects. Such uneven transregional distribution complicates management of air quality and health risks in China. The results challenge approaches that rely solely on cities to improve air quality. The article concludes with suggestions on how to integrate SSSR measures with cities' air quality improvement attainment planning and management performance evaluation.</t>
+          <t>Background: The world has entered the Fourth Industrial Revolution. Utilisation of technology is inevitable. For the past years, the coronavirus disease 2019 (COVID-19) pandemic has halted normal operations, including in the physical classroom for nursing students. Students and facilitators had to move to a remote way of teaching and learning, utilising online teaching and learning. However, students and facilitators were not ready to use online teaching and learning. This not only resulted in numerous challenges, but also became an eye-opener for best practices and intervening strategies. Objectives: To explore and describe experiences of students in a nursing college with regard to online teaching and learning during the onset of the COVID-19 pandemic. Method: A qualitative, exploratory, descriptive and contextual research design was adopted. A purposive, nonprobability sampling approach was used to select participants from second year, third year and fourth year. First-year student nurses were excluded because they did not commence with classrooms at that time. Results: Seven themes emerged, namely knowledge, confidence, training, equipment, clinical exposure, course extension and flexibility, and all themes had subthemes. Conclusion: It is evident that students had more negative experiences during online teaching and learning than positive experiences. Contribution: The study contributed enormously to teaching and learning of student nurses in nursing colleges as its results can be used to improve nursing colleges with regard to online teaching and learning.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3183300235</t>
+          <t>https://openalex.org/W2770001439</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s10649-021-10077-6</t>
+          <t>https://doi.org/10.1109/indin.2017.8104891</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Gosztonyi (2021)</t>
+          <t>Hamid et al. (2017)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>How history of mathematics can help to face a crisis situation: the case of the polemic between Bernoulli and d’Alembert about the smallpox epidemic</t>
+          <t>Automation, per se, is not job elimination: How artificial intelligence forwards cooperative human-machine coexistence</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Abstract In this article, I present the eighteenth century’s polemic of Bernoulli and d’Alembert concerning the smallpox epidemic and a prevention method called inoculation. Through an analysis of the polemic and the related resources, I show that this historical debate has various interests for mathematics education; and more specifically it can help teachers to confront dilemmas emerging with the COVID-19 pandemic (for example if a teacher should talk about it in class or not, how to help students to interpret the statistical data and the mathematical models connected to the pandemic and more generally, how to deal with the confusions and concerns emerging in connection to the pandemic). I describe the documents related to the historical polemic as transitional objects, having a potential to reveal the teachers’ own professional or personal experiences, reflections and questions, and to stimulate dialogue with them on these issues. I illustrate this proposition by the presentation of an online reading seminar realized with a French group of teachers in April 2020.</t>
+          <t>Recent advances in artificial intelligence (AI) and machine learning, combined with developments in neuromorphic hardware technologies and ubiquitous computing, promote machines to emulate human perceptual and cognitive abilities in a way that will continue the trend of automation for several upcoming decades. Despite the gloomy scenario of automation as a job eliminator, we argue humans and machines can cross-fertilise in a way that forwards a cooperative coexistence. We build our argument on three pillars: (i) the economic mechanism of automation, (ii) the dichotomy of ‘experience’ that separates the first-person perspective of humans from artificial learning algorithms, and (iii) the interdependent relationship between humans and machines. To realise this vision, policy makers have to implement alternative educational approaches that support lifelong training and flexible job transitions.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1994009899</t>
+          <t>https://openalex.org/W2093671836</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/03067319.2014.983494</t>
+          <t>https://doi.org/10.1038/ki.1974.19</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Camilleri et al. (2014)</t>
+          <t>Kramp et al. (1974)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Multiresidue fully automated online SPE-HPLC-MS/MS method for the quantification of endocrine-disrupting and pharmaceutical compounds at trace level in surface water</t>
+          <t>A study by microdissection and micropuncture of the structure and the function of the kidneys and the nephrons of rats with chronic renal damage</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>The present work describes the development and validation of a sensitive method for the determination of traces of diverse groups of pharmaceuticals and endocrine disruptors in surface water. Thirty-seven substances have been selected, including 10 pesticides, 6 hormonal steroids and assimilates, 12 pharmaceuticals, 5 alkylphenols, 1 chlorophenol and 3 other well-known human contaminants, 1 UV filter and 2 plasticisers. An automated online solid-phase extraction (SPE) is directly coupled to liquid chromatography–tandem mass spectrometry. Different SPE columns have been tested, and the injection volume has been optimised. The developed analytical methodology is based on the direct injection of 2.5 mL of water sample acidified at pH 1.6 on an Oasis HLB loading column (20 × 2.1 mm) with 5-µm particles. Then, the chromatographic separation is achieved on a Kinetex XB C18 (100 × 2.1 mm; 1.7 µm) column, and the quantification is realised in multiple-reaction monitoring mode. The online SPE step warrants minimal sample handling, low solvent consumption, high sample throughput, saving time and costs. This method allows the quantification of the target analytes in the lower ng/L concentration range, with limits of quantification (LQs) between 100 pg/L and 10 ng/L, 26 compounds having LQ lower than 1 ng/L. The monitoring of two selected MS/MS transitions for each compound allows the reliable confirmation of positive findings even at the LQ level. The developed and validated methodology has been applied to the analysis of various real samples from two French rivers. Twelve target compounds have been detected in the environmental samples, and the major pollutants are pharmaceuticals usually used by humans (paracetamol, carbamazepine, oxazepam, ketoprofen, trimethoprim). The pesticides atrazine and carbendazim have been ubiquitously detected in real samples too. Metronidazole, sulfamethoxazole and diuron were also frequently quantified in the water samples.</t>
+          <t>A study by microdissection and micropuncture of the structure and function of the kidneys and nephrons of rats with chronic renal damage. Individual nephrons were studied by microdissection and micropuncture in rats three to four weeks after subcutaneous injection of K 2 Cr 2 O 7 and HgCl 2 for comparison with clearances and tubular transport maximums (Tms) that represented the total activity of the kidney from which they were obtained. At the time of the experiments the acute renal lesions of necrosis had been replaced by regenerative processes of repair. This model has no exact clinical analogy but the structural changes in individual nephrons are similar to those observed in nephrons of humans with chronic renal disease. The kidneys were irregularly and greatly enlarged; in histologic sections there were moderate glomerular and extensive tubular changes. Microdissection demonstrated the renal lesion to be a combination of regressive changes (atrophy, fatty depositions) in some proximal convolutions, progressive reactions (hyperplasia, hypertrophy) in others or more frequently a combination of these alterations in single structural segments (the proximal convolutions) of individual nephrons. Glomerular filtration rates (GFR) in the damaged kidneys ranged from the highest to less than the lowest of normal control values but were lower when calculated per gram of kidney weight. Since TmPAH was normal, TmPAH:GFR was increased, indicating functional tubular predominance, correlating closely with the evidence by microdissection of morphological tubular hyperplastic predominance in the abnormal kidney. There was marked heterogeneity of individual nephron GFR but proximal fractional reabsorption was the same as in control nephrons, indicating that rates of reabsorption were also more variable than normal but appropriate for the rate of filtration. Tubular fluid transit times were markedly more variable than in normal animals yet correlated closely with morphological changes demonstrated by microdissection in the same nephrons on which the determination had been made. Microinjection indicated that the repaired abnormal tubules were impermeable to inulin. These results demonstrate a close correlation between the heterogeneity of structure and function at the level of the individual nephrons and, therefore, in their totality as they constitute the kidneys of rats with chronic renal damage. Although the rates of physiological processes showed marked diversity, proximal fractional reabsorption of salt and water was appropriate for the rate of filtration in individual nephrons and, thus, is evidence of the adaptive compensations which constitute the phenomena of chronic renal disease.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3037625829</t>
+          <t>https://openalex.org/W2730651375</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/jid.3284</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Hsu et al. (2019)</t>
+          <t>Menocal (2017)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Linear Dynamics: Clustering without identification</t>
+          <t>Political Settlements and the Politics of Transformation: Where Do ‘Inclusive Institutions’ Come From?</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Linear dynamical systems are a fundamental and powerful parametric model class. However, identifying the parameters of a linear dynamical system is a venerable task, permitting provably efficient solutions only in special cases. This work shows that the eigenspectrum of unknown linear dynamics can be identified without full system identification. We analyze a computationally efficient and provably convergent algorithm to estimate the eigenvalues of the state-transition matrix in a linear dynamical system. _x000D_
-When applied to time series clustering, our algorithm can efficiently cluster multi-dimensional time series with temporal offsets and varying lengths, under the assumption that the time series are generated from linear dynamical systems. Evaluating our algorithm on both synthetic data and real electrocardiogram (ECG) signals, we see improvements in clustering quality over existing baselines.</t>
+          <t>Abstract This article analyses how political settlements can help deepen our understanding of how underlying rules of the game and power relations shape patterns of inclusion and exclusion, and prospects for political, social and economic transformation. Drawing on insights from a growing body of research in the area of the politics of development, the paper explores what kinds of factors have helped to foster more inclusive institutions across the developing world. By way of conclusion, it offers reflections on how a political settlement approach can enable donors to engage more effectively in efforts to foster progressive change. Copyright © 2017 John Wiley &amp;amp; Sons, Ltd.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://openalex.org/W27668594</t>
+          <t>https://openalex.org/W2908368518</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Rosario (2012)</t>
+          <t>Muñoz (2016)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Asserting Their Rights: Puerto Ricans in Their Quest for Social Justice</t>
+          <t>Identifying individuals with advanced chronic conditions who may benefit from an early palliative care approach: using the NECPAL CCOMS-ICO© tool: population-based prevalence, predictive validity for mortality and predictive models</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>abstractIn an effort to claim a dignified place in the United States as American citizens, Boricua leaders developed core political skills from African American grassroots organizations: established networks, adapted strategies of community activism, and found a path towards social justice. Individuals, such as Arturo Schomburg and Pura Belpre, played a crucial role in moments that marked the two histories of Puerto Ricans in the US: the official one-written by the System about them-, and the other-that had to be written by them. Historical facts, film highlights, newspaper articles, and popular music also evidence how events were conceived by the media, and by those few protagonists who bore a name, and had credentials to support it. In the end, Puerto Ricans and African Americans crossed along racial, political, and cultural lines, revealing a transcendental association that brought conflict, social transformation, but ended up in a stronger democracy for the American nation. [Keywords: Puerto Ricans, African Americans, Interracial collaboration, Civil Rights]studies have shown that the puerto rican community in the united states, despite their citizen status, share issues of adaptation, identity, and discrimination with other immigrant groups (sanchez-korrol 1983; whalen 2001; rodriguez 1989; thomas 2010). According to 2000 Census, there are more than 800,000 Puerto Ricans in New York. It is still the largest and the most documented Puerto Rican community in the United States. Particularly documented are the Puerto Rican's experiences after arrival in New York and what expectations they had for their new life in the city. Interestingly, their experiences in many ways mirrored the experience of the other ethnic groups already in New York such as Italians, Irish, Jews, and African Americans. However, the focus of this article, entitled Asserting Their Rights, centers on the cultural, political, and social interactions developed among Puerto Ricans and African Americans. Undoubtedly, the ethnicity of these two groups contributed significantly to similarities in their migratory experience and the struggles related to it. In the end, they found communality in their experiences and used it as a tool to demand and exercise their civil rights.Asserting Their Rights is conscious that many social-political frameworks can be identified according to each stage of the processes experienced by all Puerto Rican subjects, movements, alliances, and organizations mentioned, or described in this article. However, this academic aspect of a scholarly work has been partially avoided in order to let the essay narrate how these characters transit through singular periods in history. As fluid entities these women and men constructed their subjectivities when they adopted new notions of identity, and adapted themselves to different social and political situations. This work is intended to be read mostly by scholars who can address particular facts and find the appropriate theoretical concept to name them, as a basic skill during his/her professional formation. But, in the end, it is relevant for me as an intellectual to let these characters be protagonists in their own hi/stories. The ego has to step back, watch, and show how a handful of Puerto Rican immigrants asserted their rights, and participated along with African American people in changing the course of US history.Colonialism and MigrationFor more than five hundred years Puerto Rico and its people have been colonial subjects; first, more than 400 hundred under Spanish regime-since 1493 until 1898-, and over 100 as a US territory after the Spanish-American war.When the United States became involved in what began as the Cuban-Spanish conflict of 1895, high hopes arose within many sectors of the Puerto Rican society; the United States was seen as a model of economic progress and liberty (Guerra 1999). However, the thought of Puerto Rico being ruled by an Anglo Saxon country fueled discussion on issues of citizenship and class among the Puerto Rican people, whose culture was essentially influenced by a Hispanic-Roman Catholic ideology. …</t>
+          <t>In high income countries, around 75% of the population will die due to chronic conditions. Despite only about one third of those having chronic diseases needing palliative care suffer from cancer, palliative care is mainly aimed at patients with terminal cancer in institutional settings. Nevertheless, there is strong evidence of unmet palliative needs among people with life-threatening non-malignant disease. Data in patients with advanced cancer show that early provision of specialty palliative care improves quality of life, lowers spending, and helps clarify treatment preferences and goals of care. Translating available evidence into health systems to deliver early palliative care to all people with advanced chronic conditions different than cancer in any setting of care might improve clinical outcomes decreasing costs of care in this population. Recognising transition 1, the period referred to as end of life preceding terminal phase, may enable early palliative care intervention and anticipatory palliative care planning. Nevertheless, the right moment to start palliative care -for which early identification is a prerequisite- has not been defined yet. Acknowledging limitations of available prognostic indices and predictive models, with insufficient evidence at this time to recommend their widespread use, a pragmatic approach to identify candidates for palliative care advocating a person centred approach based not on diagnosis or prognosis, but on their needs has been proposed. It is based on asking the surprise question (“Would you be surprised if this patient were to die in the next 12 months?”) and looking for one or more clinical indicators that would suggest a person might be at risk of deteriorating and dying and should be assessed for unmet needs. This pragmatic approach is the basis of most of the set of identification indicators which have been developed in recent years to recognizing transition 1 and identifying individuals likely in need of palliative care, as the NECPAL CCOMS-ICO© tool. The overall aim of this thesis was to evaluate the usefulness of the NECPAL CCOMS-ICO© tool in identifying individuals with advanced chronic conditions who may benefit from an early palliative care approach, through employing it as a tool to determine the population-based prevalence of these individuals (Study I), evaluating its predictive validity for mortality at 3, 6, 12 and 24 months to inform usefulness as screening tool for early palliative care (Study II) and identifying the indicators that were associated with mortality within 24 months to develop a predictive model for identifying individuals at high risk of death (Study III). Conclusions The NECPAL CCOMS-ICO© tool can be considered useful in identifying individuals with advanced chronic conditions who may benefit from an early palliative care approach. It can be employed to assess the population-based needs for palliative care through identifying prospectively the population-based prevalence of this population, an innovative approach which can be potentially useful for improving clinical practice. It can be used, as well as the SQ, as screening tools for early palliative care, as they present high sensitivity and high NPV, both important predictive values to identify such a vulnerable and often undetected and under-treated population. It can be employed as a first assessment to identify this population, preferably accompanied by repeated or additional tests, aiming to improve specificity. From a population-based perspective, end of life trajectories may turn out to be an excellent conceptual framework for the development of simple predictive models for identifying individuals at high risk of death, particularly in advanced frailty and organ failure, the most prevalent population-based advanced chronic conditions, for which simple and promising predictive models have been developed and should be externally validated.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2090945141</t>
+          <t>https://openalex.org/W2079703984</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/02772249109357739</t>
+          <t>https://doi.org/10.1016/0022-4731(86)90334-1</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Guitonas &amp; Nianios (1991)</t>
+          <t>Rajagopalon et al. (1986)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>A study of the kinetic in transition phase of the anaerobic fluidised bed reactor with immobilised cells in microsand</t>
+          <t>26-Hydroxycholesterol disulfate: Metabolism and excretion in the normal neonate</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Anaerobic fluidised bed reactor is an instrument very much adapted in the experimental study of the kinetics of the complex biological process. In this experimental work the efficiency of the treatment of an anaerobic fluidised bed reactor with immobilised cells is examined in transition phase. The results of the experiments can be summarised as follows: a zero order elimination rate of the substrate is presented; the order of the reaction changes after a period of significant substrate elimination and follows a homographic equation the non‐dissociated part of the substrate ions is degradable.</t>
+          <t>Deuterated 26-hydroxycholesterol disulfate has been given in a tracer amount to neonates to evaluate the pool size, metabolism and excretion of the endogenously occurring compound in meconium. In a group of 5 normal neonates excretion of endogenous 26-hydroxycholesterol during the initial 72 h of life ranged from 327 to 1096 micrograms. Recovery of administered isotope during the same period was 66-98%. Only trace amounts of 26-hydroxycholesterol were recovered in urine. The findings indicate that relative to bile acid pool size, the normal neonate has a small intestinal pool of 26-hydroxycholesterol which, for the most part, is rapidly excreted and does not contribute significantly to bile acid synthesis. The techniques developed during the course of the study provide an approach to non invasive metabolic studies that give insights on the normal transition from fetal to neonatal life.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2016254158</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.pubrev.2007.08.009</t>
+          <t>https://openalex.org/W3153399341</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Mckie &amp; Galloway (2007)</t>
+          <t>Prabhu &amp; Bigham (2020)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Climate change after denial: Global reach, global responsibilities, and public relations</t>
+          <t>Cross-disciplinary interactions in work-integrated learning</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Taking climate change as the 21st century's major global threat, this paper considers three significant public relations challenges arising from it. The first is how the field can engage with the social equity and ecological dimensions in ways that might enhance rather than diminish the profession's public reputation. The second is how the discipline adapts to deal with the radical perceptual shifts accompanying the meteorological transformations and possible geopolitical fallout, and the third is the issue of trust – interlinked with emotions, economics, ecology, and neuroscience – as the strategy of eco-catastrophe denial becomes less and less tenable. The paper also considers possible responses to these challenges.</t>
+          <t>Work-integrated learning (WIL) is the intentional integration of theory and practice knowledge to prepare graduates towards securing a placement in the workplace or a work community arena. The purpose of incorporating WIL into courses is to assist students with the complicated process of transferring skills gained in a formal educational setting to the workplace. The term WIL is most commonly used to describe programmes where students engage with workplaces and communities as part of their studies._x000D_
+Students graduate into a transdisciplinary world, not a monodisciplinary one. It is essential for education providers to ensure that their students are equipped with relevant discipline skills as well as generic, transferable skills. Professionals in the field of information technology (IT), such as System analysts, Business analysts, Developers, IT services, and IT trainers must understand the workplace business requirements which may not necessarily be limited to IT. Hence it is crucial that our graduates develop skills that enable them to interact productively. In addition to shaping and supporting the learner for the workplace through practice-based experience, we look at ways to provide learners with the social skills necessary to interact and work with other disciplines as they transition from structured education to the workplace. In this study, we focus on cross-disciplinary approaches to develop the skills necessary for a graduate as they transition to the workplace. The objective is for the student to gain knowledge and understanding and to master the skills that emulate key aspects of the workplace. _x000D_
+The paper aims to investigate how learners engage with the methods that are intended to provide them with practice-based learning. Cross-disciplinary teams worked together on industry problems and co-created the full cycle of problem-solving. Qualitative data was collected from 150 students across a range of disciplines, and 10 organisations through anonymous surveys and semi-structured interviews to gain students' perspective of cross-disciplinary WIL learning approaches. _x000D_
+Preliminary results showed high satisfaction with the learning process, the interdisciplinary teamwork and the future-focused toolkit that can be applied to the IT industry and beyond. Students welcome the opportunity to work with industry as peers, while also enjoy creating events that involve industry. The feedback received from the IT students shows that they thrive with the responsibility they are allowed to have and hence become aware of their personal development and growth as a working professional, which had improved retention and completion rates. Cross-disciplinary team members supply input to a project or question requiring specialist knowledge, allowing for the overall objective to be reached. _x000D_
+Based on the preliminary results, the authors conclude that working on cross-disciplinary projects helped students think beyond their expertise and understand the 'big picture' about working on projects in teams within an organisation. This also creates a way to give students responsibility which allows students to be motivated while also allowing autonomy to think about their own development during this situation. Interactions (directly with industry partners) gave students the guidance, confidence, motivation, and a sense of belonging.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2500695968</t>
+          <t>https://openalex.org/W1984028227</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/acprof:oso/9780198733775.003.0007</t>
+          <t>https://doi.org/10.4067/s0034-98872014000600006</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Frary (2015)</t>
+          <t>Bitrán et al. (2014)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Absolutism under Siege</t>
+          <t>]]¿Cómo aprenden los estudiantes de medicina en la transición hacia el ciclo clínico?: Estudio cualitativo de las percepciones de estudiantes y docentes acerca del aprendizaje inicial de la clínica</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Abstract This chapter explores the 1843 Revolution and National Assembly of 1844 in Greece from the perspective of Russian archives. Analysis of the background and course of these events provides a means of evaluating Russia’s attitudes toward constitutionalism, nationalism, and foreign intervention when tsarist ideology was under threat. Russian archival materials help clarify many misconceptions in the historiography regarding the coup and the actions of the Russian ambassador. The episode sheds light on the reactions of Russian officials to a revolt led by their partisans, and provides an interesting case study of the functioning of the tsarist government when absolutism was under siege. Although tsarist censors sanitized the events, the Russian reading public remained well informed about the changes taking place in Greece. Although Tsar Nicholas opposed the rebellion, he abstained from forceful intervention, in part because the National Assembly of 1844 championed the religious aspect of Greek national identity.</t>
+          <t>The transition to the clinical courses represents a major challenge for medical students who are expected to become experiential learners, able to integrate theory and practice in the context of patient care. There are questions about how students face this challenge.To understand and compare the perceptions of students and clinical tutors on how medical students learn during the transition to the clinical levels of the curriculum.We performed eight focus group discussions with 54 students enrolled in years three to seven and we interviewed eight clinical tutors. Both students' focus group discussions and tutors' interviews were audio recorded, transcribed and analyzed according to the Grounded Theory.Nine main themes emerged from the analysis of students' opinions and six from the tutors' views. The following themes were common to both students and educators: educational activities, actors, clinical settings, learning strategies, transition markers and tutor's role. Educators emphasized the importance of curricular courses' design and students, that of emotions, adaptation and self-care strategies, and threats to learning.There is a common core of students' and clinical tutors' perceptions about the relevance of practical activities, social interactions and context in the development of students' learning and adaptation strategies during the transition to the clinical levels of the curriculum. These results are related to social and cultural theories of learning. Thus we propose a model for early clinical learning that might help to stimulate the reflection of students and medical educators regarding clinical learning and contribute to the development of interventions that improve the clinical learning and teaching practices.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3103345192</t>
+          <t>https://openalex.org/W2783643898</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/oso/9780195377170.003.0014</t>
+          <t>https://doi.org/10.1109/icra.2018.8463176</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Santen et al. (2010)</t>
+          <t>Xiao &amp; Zarar (2018)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Searching for New Energy</t>
+          <t>Machine Learning for Placement-Insensitive Inertial Motion Capture</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>We looked in the previous chapter at the prospects for our current energy infrastructure and asked how we can make it more flexible and sustainable. In this chapter, we fast-forward to the new energy economy after the oil era. The quantity of available energy is not the main worry in the postcarbon era. We’re surrounded by tremendous amounts of energy. The power of the sun’s rays was there long before we started to discover fossil energy sources, and on Earth’s surface, we can harness wind and water. Another vast amount of energy is encapsulated in our planet in the form of heat. As yet, we only tap small fractions of these natural energy supplies. Evaluating our long-term options, we have to ask ourselves: How can we harness these energy sources in such a way that they may serve us without a serious regress in our human civilization? Only then may we hope for a gradual transition to a new energy era. In the course of our history, we have used ever more concentrated forms of energy. In the era when we warmed ourselves by a wood fire and ate the grains of the field, we needed about 1 square meter of land for each watt of energy that came available. When we tamed wind and water power, the energy yield of a square meter of land rose by a factor of ten. The advent of coal, oil, and gas accounted for another factor of hundred improvement. This is calculated by summing up the amount of land you need for excavating the energy carriers and converting them to a useful form of energy. A similar calculus can be made using the energy content of the energy carriers themselves. Society has evolved with each subsequent energy innovation. More concentrated forms of energy allowed for a more concentrated community with a more complex division of labor. Now we don’t have to search large areas of land for some useful calories for ourselves; we can devote our time to comfort and complicated products.</t>
+          <t>Although existing inertial motion-capture systems work reasonably well (≤10° error in Euler angles), their accuracy suffers when sensor positions change relative to the associated body segments (±60° mean error and 120° standard deviation). We attribute this performance degradation to undermined calibration values, sensor movement latency and displacement offsets. The latter specifically leads to incongruent rotation matrices in kinematic algorithms that rely on rotational transformations. To overcome these limitations, we propose to employ machine-learning techniques. In particular, we use multi-layer perceptrons to learn sensor-displacement patterns based on 3 hours of motion data collected from 12 test subjects in the lab over 215 trials. Furthermore, to compensate for calibration and latency errors, we directly process sensor data with deep neural networks and estimate the joint angles. Based on these approaches, we demonstrate up to 69% reduction in tracking errors.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2541517228</t>
+          <t>https://openalex.org/W4237372149</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/j.1835-9310.1982.tb01245.x</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Kouhi et al. (2016)</t>
+          <t>NA (2010)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Three phase classification of an uninterrupted traffic flow: a $k$-means clustering study</t>
+          <t>Book Reviews</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>We investigate the speed time series of the vehicles recorded by a camera at a section of a highway in the city of Isfahan, Iran. Using $k$-means clustering algorithm, we find that the natural number of clustering for this set of data is $3$. This is in agreement with the three-phase theory of uninterrupted traffic flows. According to this theory, the three traffic phases are categorized as {\em free flow} (F), {\em synchronized} (S) and {\em wide moving jam} (J). We obtain the transition speeds and densities at F-S and also S-J transitions. We also apply the Shannon entropy analysis on the speed time series over finite windows, which equips us to monitor in areal time the instant state of a traffic flow.</t>
+          <t>MankindVolume 13, Issue 5 p. 430-471 Book Reviews First published: December 1982 https://doi.org/10.1111/j.1835-9310.1982.tb01245.xAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Abstract Book reviewed in this article: Animal Societies and Evolution. Readings from Scientific American; with an introduction by Howard Topoff. W. H. Freeman &amp; Company Sociobiology: The Whisperings Within. By David Barash On the Evolution of Human Behavior. The Argument from Animals to Man. By Peter C. Reynolds Symbols in Action. Ethnoarchaeological Studies of Material Culture. By Ian Hodder Early Man in Britain and Ireland. An Introduction to Palaeolithic and Mesolithic Cultures. By Alex Morrison Data Bank Application in Archaeology. Edited by Sylvia W. Gaines Hunter-Gatherer Foraging Strategies. Ethnographic and Archaeological Analysis. Edited by Bruce Winterhalder and Eric Alden Smith Aleuts: Survivors of the Bering Land Bridge. By William S. Laughlin The First Americans: Then and Now. By William H. Hodge Australian Stone Hatchets. A Study in Design and Dynamics. By F. P. Dickson Pioneer Aboriginal Mission. The Work of Wesleyan Missionary John Smithies in the Swan River Colony 1840–1855. By William McNair and Hilary Rumley The Aboriginal Tasmanians. By Lyndall Ryan Aborigines of the West. Their Past and Their Present. Edited by Ronald M. Berndt and Catherine H. Berndt Islanders and Aborigines at Cape York. By David R. Moore The Sweetness of the Fig: Aboriginal Women in Transition. By Virginia Huffer Law: The Old and the New Aboriginal Women in Australia Speak Out. By Diane Bell and Pam Ditton Edited by William C. McCormack and Stephen A. Wurm An Essay on Language. By George W. Grace Deadly Words. Witchcraft in the Bocage. By Jeanne Favret-Saada Death and the Family: The Importance of Mourning. By Lily Pincus Genocide. It's Political Use in the Twentieth Century. By Leo Kuper Tell Freedom. By Peter Abrahams. Faber and Faber The Ethnic Dimension. Papers on Ethnicity and Pluralism by Jean Martin. A Crisis of Identity. Israel and Zionism. By Dan V. Segre Eruera. The Teachings of a Maori Elder. By Eruera Stirling Rua and the Maori Millennium. By Peter Webster Indigenous Psychologies. The anthropology of the self. Edited by Paul Heelas and Andrew Lock Ancient Indian Magic and Folklore. By Margaret Stutley Women in India and Nepal. Edited by Michael Allen and S. N. Mukherjee Islamic and Western Concepts of Civilization. By M. J. Beg Mormons in the Pacific: A Bibliography. Compiled by Russel T. Clement Anthropology in Australia. Essays to Honour 50 Years of Mankind. Edited by Grant McCall The Teaching of Research Methodology: Special Issue of Sociology. Edited by M. Bulmer and R. G. Burgess Cross-cultural Samples and Codes. Edited by Herbert Barry III and Alice Schlegel Description and Comparison in Cultural Anthropology. The Lewis Henry Morgan Lectures. By Ward H. Goodenough Atlas of World Cultures. By George Peter Mur-dock Lives. An Anthropological Approach to Biography. By L. L. Langness and Gelya Frank The Flow of Life. Essays on Eastern Indonesia. Edited by James J. Fox Diego Silang and the Origins of Philippines Nationalism. By David Routledge The People and Art of the Philippines. By Father Gabriel Casial Some Reflections on the Nature of Iban Society. By Derek Freeman Economic Man in Sha Tin. Vegetable Gardeners in a Hong Kong Valley. By Göran Aijmer Australian Community Studies and Beyond. By R. A. Wild Middle-Class Couples. A Study of Segregation, Domination, and Inequality in Marraige. By Stephen Edgell Culture and Society in Contemporary Europe. A Casebook. Edited by Stanley Hoffman and Paschalis Kitromilides Volume13, Issue5December 1982Pages 430-471 RelatedInformation</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2086000909</t>
+          <t>https://openalex.org/W4394807042</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.263056</t>
+          <t>https://doi.org/10.24857/rgsa.v18n7-091</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Yang et al. (1996)</t>
+          <t>Bigeli et al. (2024)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>&lt;title&gt;Binary optics design with genetic algorithm&lt;/title&gt;</t>
+          <t>A Study on The Problematization of Logistics in Agricultural Production in The State of Tocantins</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>We employ the genetic algorithm to design a binary optical element system which transforms the Gaussian beam into the uniform circular ring beam. The transformation system is composed of two binary optical elements with 8 phase levels which are placed coaxially. The numerical results indicate that the transformed wavefront has a near-desired waveform and high energy transformed efficiency (tau) equals 87.3%. The genetic algorithm is better that the other usually used algorithms such as input-output iterative algorithm and stationary phase algorithm. The comparison with the three algorithms are shown in this paper, too.</t>
+          <t>Objective: the research aims to describe the logistical service system, observing the problematization of agricultural production in the state of Tocantins, considering that this sector is one of the most promising in terms of socioeconomic and regional development in the country.&amp;#x0D; &amp;#x0D; Theoretical benchmark: with the growing advancement of agricultural production and the exploration of new frontiers, Brazil stands out as one of the main exporters of agricultural products today. Given the significant development of agriculture, it is observed that the logistical factor, mainly costs and infrastructure, is among the elements with the greatest impact on the efficiency of the entire agricultural production chain in the state of Tocantins.&amp;#x0D; &amp;#x0D; Method: the methodology adopted will be the deductive method, based on theoretical logistics studies, applicable legislation, and support materials for logistics learning systems, in addition to economic representation in the state of Tocantins. The resources used include bibliographic and documentary material and other instruments or research techniques in accordance with the adopted methodology, aiming to provide support for research on the proposed theme.&amp;#x0D; &amp;#x0D; Results and conclusion: given the content of this study, it is highlighted that the chain of agricultural processes encompasses a complex network of activities in the production chain, and cannot be conceived solely as a relationship between producer and consumer, given its breadth of action. In this context, it should be noted that logistics services end up representing one of the obstacles to the development of agriculture in the State of Tocantins, mainly due to its geographic location.&amp;#x0D; &amp;#x0D; Implications of the research: the approach adopted in this research offers unprecedented scientific contributions to the field of logistics, providing theoretical bases for interventions and public policies that can impact this economic activity in a Brazilian state with strong economic and social growth trends, whose production has repercussions at national and international levels.&amp;#x0D; &amp;#x0D; Originality/value: the social transformations of recent decades, related to the process of globalization of the economy and technology, have directly influenced the social and economic life of countries, affecting production and service chains and interfering in labor relations. Therefore, the increase in regions dedicated to agribusiness activities is a general trend among emerging countries, requiring a deeper understanding of the territorial approach to regional development, especially in economic activities hampered by bottlenecks in the logistics system, both national and international. Thus, new reflections and planning are necessary and imperative elements in Brazilian states like Tocantins.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1897942199</t>
+          <t>https://openalex.org/W2009498514</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21236/ada584643</t>
+          <t>https://doi.org/10.1183/09031936.03.00068503a</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Kidalov et al. (2012)</t>
+          <t>Witek &amp; Mahler (2003)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Implementation of the Department of Defense Small Business Innovation Research Commercialization Pilot Program: Recent Experience and International Lessons</t>
+          <t>Minimal important difference of the transition dyspnoea index in a multinational clinical trial</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Abstract : In Section 252 of the National Defense Authorization Act for Fiscal Year 2006, Congress adopted four wide-ranging reforms to the Department of Defense (DoD) Small Business Innovation Research (SBIR) and Small Business Technology Transfer (STTR) programs in order to increase their effectiveness for both the DoD and the defense industry. First, Section 252 directed closer alignment between R&amp;D and acquisition goals of SBIR and STTR. Second, Section 252 authorized and funded the creation of the Commercialization Pilot Program (CPP) by the DoD and the military Departments to facilitate transition of SBIR technologies into the acquisition process. Congress conditioned the use of CPP funds on detailed evaluative reporting to Congress. Third, Congress codified into statutory law President George W. Bush s Executive Order No. 13329 (2004), which incentivized manufacturing technologies through SBIR and STTR. Fourth, Congress clarified agencies authority to conduct testing and evaluation (T&amp;E) of SBIR and STTR technologies in SBIR and STTR Phases II and III. The implementation requirements were specified in Section 252 and the Congressional Guidance Letter (2006) issued by the House and the Senate Small Business Committees.</t>
+          <t>Dyspnoea is a primary symptom of chronic obstructive pulmonary disease (COPD). The baseline (BDI) and transition (TDI) dyspnoea indices are commonly used instruments to assess breathlessness and the impact of intervention. Its validity and pattern of response in multinational clinical trials has not been established. In a retrospective analysis of a cohort of 997 COPD patients who received tiotropium, salmeterol or placebo, in addition to usual care, the validity and pattern of response of the BDI and TDI were examined. The BDI was significantly correlated with the dyspnoea diary (DD) score and the symptom and activity components of the St. George9s respiratory questionnaire (SGRQ), establishing concurrent validity. Furthermore, the TDI was also correlated with the changes in DD, SGRQ symptom and activity scores. Construct validity was established by the association between baseline forced expiratory volume in one second (FEV&lt;sub&gt;1&lt;/sub&gt;) and BDI and ΔFEV&lt;sub&gt;1&lt;/sub&gt; with TDI. Physician9s global evaluation (PGE) was significantly associated with BDI as well as ΔPGE with TDI. Significant correlations have also been observed when the cohorts were classified according to native English and native non­English speaking countries. A change in PGE of 1 category (&lt;i&gt;i.e.&lt;/i&gt; 2 units on an 8‐point scale) was associated with a mean TDI of ∼1 unit (0.9–1.3 mean focal score), lending further support to the clinical significance of this change inherent in the instrument9s descriptors. TDI responders (&lt;i&gt;i.e.&lt;/i&gt; focal score ≥1 unit) used less supplemental salbutamol, had fewer exacerbations and had significantly improved health status as measured by impacts and total SGRQ scores compared with nonresponders. In conclusion, the transition dyspnoea index is a valid instrument when used in a multinational clinical trial and the patterns of response confirm a 1‐unit change in the transition dyspnoea index focal score as being clinically important.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3014519332</t>
+          <t>https://openalex.org/W2200712483</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2556061</t>
+          <t>https://doi.org/10.1016/s0360-1315(00)00016-6</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Betker et al. (2020)</t>
+          <t>Wegerif (2000)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>3D registration of multiple surface measurements using projected random patterns</t>
+          <t>Literacy Theory in the Age of the Internet</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>When repairing worn components it is crucial to have detailed knowledge of the current object’s state. For this purpose a multi-sensor system was developed to measure objects in different scales and modalities. This work focuses on the 3-D measurement of worn turbine blades using a fringe projection system. The 3-D geometry of turbine blades is crucial for the overall performance and safety of an engine. Therefore it is not sufficient to rely on single fringe projection measurements for a functional evaluation. To obtain a 3-D model the blade has to be measured from multiple directions. Gathered data are combined to form the model. This process is called registration or stitching. To reduce uncertainties during the process markers can be applied on or near the measurement object. However, common methods using markers are insufficient in automatability and feature density and therefore are not applicable in this case. In this work a novel registration strategy based on projected random patterns is developed. Multiple projectors are placed around the object to illuminate its geometry. Keypoints are identified by capturing additional grayscale images and applying state-of-the art feature detection algorithms. Feature matching is performed on consecutive measurements. Matches are preprocessed and a random sample consensus approach is chosen to calculate the rigid body transformation. Multiple measurements of the turbine blade and other geometries have been successfully aligned using the proposed strategy. Beyond that the high density of features allows the alignment of measurements with different scales and resolutions.</t>
+          <t>Today, the situation of the higher education in the state and the society has been more important. While the values of higher education have been determining by the external factors, itself has been increasing the effect power on higher education institutions as an external factor. The cause and result of this transformation has been intersection ares of universities with the dynamics of global competition. As a result in this process universities have taken care of their relationship with stakeholder to able to read the changes beter. Academicians are in the first place among stakeholders without a doubt. Gaining qualifications of universities in the sense of regional and international in this environment is appearing as an important result of this process. This point has provided a platform of European Higher Education Areas theorotical reasons. Thus, both the variation process and the discussions about theories and applications of European Higher Education Area have always been tha agenda.From this point the subject of this study is researching the correlation between the changing higher education values and EHEA requirements in the axis of a conceptual model designed for the satisfaction of stakeholders and the quality level of universities. In this study first, historical and conceptual transformation of higher eduation and university has been discussed. Second, an analytical evaluation of changing values of higher education has been presented. Also the history of European Higher Education Area and its components have been searched with a critical view. Consequently the process and system suggestions have been developed for building up cooperation with stakeholders and meeting the targets of EHEA through a conceptual model.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390739890</t>
+          <t>https://openalex.org/W4362597814</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2024.01.08.574719</t>
+          <t>https://doi.org/10.48550/arxiv.2304.00599</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sepúlveda et al. (2024)</t>
+          <t>Merger et al. (2023)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Phenotypic characterization of cryptic species in the fungal pathogen&lt;i&gt;Histoplasma&lt;/i&gt;</t>
+          <t>Learning Interacting Theories from Data</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Histoplasmosis is an endemic mycosis that often presents as a respiratory infection in immunocompromised patients. Hundreds of thousands of new infections are reported annually around the world. The etiological agent of the disease, Histoplasma, is a dimorphic fungus commonly found in the soil where it grows as mycelia. Humans can become infected by Histoplasma through inhalation of its spores (conidia) or mycelial particles. The fungi transitions into the yeast phase in the lungs at 37°C. Once in the lungs, yeast cells reside and proliferate inside alveolar macrophages. We have previously described that Histoplasma is composed of at least five cryptic species that differ genetically, and assigned new names to the lineages. Here we evaluated multiple phenotypic characteristics of 12 strains from five phylogenetic species of Histoplasma to identify phenotypic traits that differentiate between these species: H. capsulatum sensu stricto, H. ohiense, H. mississippiense, H. suramericanum, and an African lineage. We report diagnostic traits for two species. The other three species can be identified by a combination of traits. Our results suggest that 1) there are significant phenotypic differences among the cryptic species of Histoplasma, and 2) that those differences can be used to positively distinguish those species in a clinical setting and for further study of the evolution of this fungal pathogen.</t>
+          <t>One challenge of physics is to explain how collective properties arise from microscopic interactions. Indeed, interactions form the building blocks of almost all physical theories and are described by polynomial terms in the action. The traditional approach is to derive these terms from elementary processes and then use the resulting model to make predictions for the entire system. But what if the underlying processes are unknown? Can we reverse the approach and learn the microscopic action by observing the entire system? We use invertible neural networks (INNs) to first learn the observed data distribution. By the choice of a suitable nonlinearity for the neuronal activation function, we are then able to compute the action from the weights of the trained model; a diagrammatic language expresses the change of the action from layer to layer. This process uncovers how the network hierarchically constructs interactions via nonlinear transformations of pairwise relations. We test this approach on simulated data sets of interacting theories. The network consistently reproduces a broad class of unimodal distributions; outside this class, it finds effective theories that approximate the data statistics up to the third cumulant. We explicitly show how network depth and data quantity jointly improve the agreement between the learned and the true model. This work shows how to leverage the power of machine learning to transparently extract microscopic models from data.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2079703984</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0022-4731(86)90334-1</t>
+          <t>https://openalex.org/W2367764950</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Rajagopalon et al. (1986)</t>
+          <t>Qin-na (2013)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>26-Hydroxycholesterol disulfate: Metabolism and excretion in the normal neonate</t>
+          <t>Analysis of Delicacy Management for Raw Materials of Coatings Enterprises</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Deuterated 26-hydroxycholesterol disulfate has been given in a tracer amount to neonates to evaluate the pool size, metabolism and excretion of the endogenously occurring compound in meconium. In a group of 5 normal neonates excretion of endogenous 26-hydroxycholesterol during the initial 72 h of life ranged from 327 to 1096 micrograms. Recovery of administered isotope during the same period was 66-98%. Only trace amounts of 26-hydroxycholesterol were recovered in urine. The findings indicate that relative to bile acid pool size, the normal neonate has a small intestinal pool of 26-hydroxycholesterol which, for the most part, is rapidly excreted and does not contribute significantly to bile acid synthesis. The techniques developed during the course of the study provide an approach to non invasive metabolic studies that give insights on the normal transition from fetal to neonatal life.</t>
+          <t>This article starts from the features of raw materials for coatings enterprises,and introduces the evaluation for new material before using and feedback system after using,the unqualified raw material evaluation system and control program,consumption quota control for the workshop,evaluation grade for the raw material supplier,etc fine management measures,The above measures can solve some practical problems and management difficult for coating enterprise.They can not only achieve a gradual transition from extensive management to fine management but also lay a solid foundation for the expansion of business profits.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3149198880</t>
+          <t>https://openalex.org/W2206669969</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/iih-msp.2006.264962</t>
+          <t>https://doi.org/10.1016/s1556-0864(15)31566-5</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Dainaka et al. (2006)</t>
+          <t>Pao (2006)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Dual-Plane Watermarking for Color Pictures Immune to Rotation, Scale, Translation, and Random Bending</t>
+          <t>Monitoring EGFR-Mutant Lung Cancers By Means of the Blood</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>An extended watermarking method for still pictures is described that can embed watermarks immune to not only rotation, scaling, and translation but also to random geometric distortion and any of their combinations. It requires no searches for treating random distortion. The search for rotation and scaling is combinatorial but is independent of the search for translation. That is, the angle and size of the target picture can be restored without restoring the pictures origin. Furthermore, the translation search is divided into horizontal and vertical searches that can be carried out independently. The number of searches is thus drastically reduced, making the processing speed high enough for practical application. Experimental evaluation demonstrated that the proposed method can embed watermarks immune to all four types of transformation. Although it was designed for still pictures, it can easily be extended to motion pictures.</t>
+          <t>Somatic activating mutations in the gene encoding the epidermal growth factor receptor (EGFR) are found in a proportion of non–small-cell lung cancers (NSCLCs) and have been associated with sensitivity of lung tumors to the EGFR tyrosine kinase inhibitors (TKIs), gefitinib (Iressa; AstraZeneca, London, England) and erlotinib (Tarceva; Genentech, Inc., South San Francisco, CA).1Lynch TJ Bell DW Sordella R et al.Activating mutations in the epidermal growth factor receptor underlying responsiveness of non-small-cell lung cancer to gefitinib.N Engl J Med. 2004; 350: 2129-2139Crossref PubMed Scopus (9490) Google Scholar, 2Paez JG Janne PA Lee JC et al.EGFR mutations in lung cancer: correlation with clinical response to gefitinib therapy.Science. 2004; 304: 1497-1500Crossref PubMed Scopus (8028) Google Scholar, 3Pao W Miller V Zakowski M et al.EGF receptor gene mutations are common in lung cancers from “never smokers” and are associated with sensitivity of tumors to gefitinib and erlotinib.Proc Natl Acad Sci USA. 2004; 101: 13306-13311Crossref PubMed Scopus (3719) Google Scholar Such mutations occur in the exons (18–21) encoding the kinase domain of the protein; approximately 90% of such mutations occur as exon 19 deletions, which eliminate an LREA motif, or as exon 21 missense mutations, resulting in substitution of arginine for leucine at position 858 (L858R).4Pao W Miller VA EGFR mutations, small molecule kinase inhibitors, and non-small cell lung cancer: current knowledge and future directions.J Clin Oncol. 2006; 23: 2556-2568Crossref Scopus (540) Google Scholar These two types of mutations also appear to be the dominant mutations that predict sensitivity to treatment.5Greulich H Chen T-H Feng W et al.Oncogenic transformation by inhibitor-sensitive and -resistant EGFR mutants.PLoS Med. 2006; e313Google Scholar Thus, testing tumors for drug-sensitive EGFR mutations can be relatively straightforward in the clinic, provided that adequate tissue specimen is available for analysis and that sensitive, reliable assays have been established.6Pan Q Pao W Ladanyi M Rapid PCR-based detection of epidermal growth factor receptor gene mutations in lung adenocarcinomas.J Mol Diagn. 2006; 7: 396-403Abstract Full Text Full Text PDF Scopus (217) Google Scholar Up to now, most research has focused on analysis of DNA from tumor specimens for EGFR mutations. However, in this issue of the Journal of Thoracic Oncology, Kimura and colleagues demonstrate that EGFR mutations can also be detected in DNA derived from the serum of lung cancer patients.7Kimura H Kasahara K Shibata K et al.EGFR mutation of tumor and serum in gefitinib-treated patients with chemotherapy-naive non–small-cell lung cancer.J Thorac Oncol. 2006; 1: 260-267Abstract Full Text Full Text PDF PubMed Scopus (64) Google Scholar As part of a trial to evaluate the efficacy and safety of gefitinib monotherapy in chemotherapy-naive patients with advanced NSCLC, they collected serum from individuals before and 14 days after the initiation of gefitinib, and then performed sequencing analysis for EGFR mutations on DNA derived from the sera. Not only were mutations readily detectable but they were also more frequently observed in post-treatment samples from patients with a partial response or stable disease than in those patients with progressive disease. These results suggest that serum EGFR mutations could be useful as a biomarker for monitoring response to EGFR tyrosine kinase inhibitors during treatment. Detection of mutant DNA from the blood of lung cancer patients is not a new concept. For example, it has been previously shown that mutations in the KRAS oncogene, which occur in 15 to 30% of NSCLCs, can also be detected in the plasma of individuals whose tumors harbor such mutations.8Kimura T Holland WS Kawaguchi T et al.Mutant DNA in plasma of lung cancer patients.Ann NY Acad Sci. 2004; 1022: 55-60Crossref PubMed Scopus (48) Google Scholar In this previous study, serum analysis also appeared to show promise for monitoring patient response to therapy, as many patients had KRAS mutations before treatment that were not detectable after treatment (collected 16 weeks after treatment). KRAS mutations have also been detected in plasma or serum of patients with other types of cancer,9Kopreski MS Benko FA Kwee C et al.Detection of mutant K-ras DNA in plasma or serum of patients with colorectal cancer.Br J Cancer. 1997; 76: 1293-1299Crossref PubMed Scopus (153) Google Scholar and others have described finding amplifications, microsatellite alterations, gene rearrangements, and epigenetic alterations as well (reviewed in Johnson and Lo10Johnson PJ Lo YMD Plasma nucleic acids in the diagnosis and management of malignant disease.Clin Chem. 2002; 48: 1186-1193PubMed Google Scholar). Much work remains to be done before such tests can be used routinely in the clinic. Methods of DNA extraction and analysis from plasma and/or serum and tumor specimens need to be standardized; the reproduc</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2033762435</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/tc.1986.1676737</t>
+          <t>https://openalex.org/W103715402</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Reischer &amp; Simovici (1986)</t>
+          <t>Hartman (2008)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Iteration Properties of Multivalued Switching Functions</t>
+          <t>Moving Teaching and Learning with Technology from Adoption to Transformation.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>The purpose of this correspondence is to survey the literature concerning the iterative properties of multivalued switching functions. These properties are important for the synthesis of switching circuits by cascades of simpler elements. Our presentation evolves around the graphs of transformations of finite sets. We discuss such topics as limitations of the computational capabilities of cascades, the existence of roots of given functions with respect to iteration powers, etc.</t>
+          <t>© 2 0 0 8 J o e l L . H a r t m a n Given the centrality of teaching and learning to the mission of the academy, employing technology to improve teaching practice and student learning outcomes remains one of our most important goals—and one of our most conspicuous pieces of unfinished business. It’s not that we haven’t been trying. Over the past three decades, we have seen the emergence of new learning theories, such as social constructivism, and new, student-centered pedagogical practices. In addition, colleges and universities have made substantial investments in technological infrastructure such as course management systems, wireless networks, and multimedia classrooms. We have demonstrated that it is possible to implement a variety of educational technologies on our campuses and even to get a fair number of faculty members to use them. Yet the report card on our progress could be more promising, as evidenced by Robert Zemsky and William F. Massy’s Thwarted Innovation (2004),1 Chronicle of Higher Education features with titles such as “Professors and Technology: Helpless or Hopeless?” and “When Good Technology Means Bad Teaching,”2 a large body of “no significant difference” studies, and even occasional EDUCAUSE Review articles that confess to doubts about our progress. Although there have been some signature successes, overall higher education has not convincingly demonstrated that technology has had a systemic, widespread, or sustained impact on the process of teaching or on student learning outcomes. Even so, our faith in the potential of technology as a tool to transform teaching and learning remains steadfast. Maybe we simply haven’t been going about it in the best way. A review of the literature on teaching and learning with technology reveals that to date, much of the emphasis has been on selecting the “right” technologies (or the “right” vendors of a particular technology) and on encouraging and assisting faculty members to adopt and use those technologies. In support of this approach, institutions have implemented roundtable discussions, instructional technology centers, workshops, training programs, and help desks. Indeed, some of these efforts have produced promising results. The problem with this approach, as Bill Graves has stated, is that all too often we “bolt on” technology rather than redesign the teaching and learning process. Graves notes that as exciting as these individual technological “random acts of progress” may appear, they tend to increase the cost of instruction, to be short-lived, and to seldom disseminate widely or scale to a level that can achieve institution-wide impact.3 Tony Bates cites additional limitations of approaches centered on individual faculty adoption, including excessive time demands on faculty and support staff, failure to complete projects, inconsistent results, and lack of dissemination of best practices. Bates also notes that such initiatives typically do not scale well because they are so heavily dependent on the ideas and energy of one or a few individuals and because ramping up requires exponentially greater support resources.4 There are so many technologies to choose from, so many ways to use them, and so many faculty members that it is no wonder most institutions have been unable to determine, on an enterprise-level scale, whether the introduction of technologies is having a positive impact on student learning outcomes. An institutional, or systemic, approach to teaching and learning with technology, on the other hand, can provide many elements essential for success, sustainability, and quality:</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4285143603</t>
+          <t>https://openalex.org/W2993247134</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/gyr.2022.0033</t>
+          <t>https://doi.org/10.46650/wa.10.2.774.%p</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Beebee (2022)</t>
+          <t>Nugraha (2019)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Politische Freiheit und "europäische Literatur." Goethe, Schiller und Byron in Giuseppe Mazzinis kulturkritischen Essays by Klaus Mönig</t>
+          <t>PANDANGAN GURU TERHADAP PEMBELAJARAN BERORIENTASI REVOLUSI INDUSTRI 4.0 DI SEKOLAH DASAR</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
-        <is>
-          <t>Reviewed by: Politische Freiheit und "europäische Literatur." Goethe, Schiller und Byron in Giuseppe Mazzinis kulturkritischen Essays by Klaus Mönig Thomas O. Beebee Klaus Mönig. Politische Freiheit und "europäische Literatur." Goethe, Schiller und Byron in Giuseppe Mazzinis kulturkritischen Essays. Heidelberg: Universitätsverlag Winter, 2020, 287 pp. There is a wealth of information in Klaus Mönig's book, as it makes available for the first time in German numerous opinions and writings of Giuseppe Mazzini (1805–72) on the three authors named in the title, as well as detailing some of the Italian's other interactions with German thinkers such as Friedrich Schlegel and J. G. Herder. Mazzini represented the intellectual center of Italian nationalism. He spent many years in exile, fighting for the unification of Italy against Austrian [End Page 321] imperialism, petty princes, and the Catholic church, which were keeping Italy fragmented. At the same time, Mazzini was fully committed to the idea of common European values and interests, and he interpreted the three authors in the book's title in that same vein. Naturally, his interest in the authors listed in the book's title (and several more, such as Friedrich Schlegel, in fact) was primarily based on the political role of literature. Unfortunately, those using this book to extract specific information on Mazzini's positions and ideas will find this a bit hard to locate, due to the lack of a thesis or organizing principle, and to a rather inadequate Namenregister that does not include any of the names that appear in the book's title. (The subdivisions in the table of contents do provide some orientation, however.) What guiding thesis the book has can be found not in the introduction, but on the back cover. There we learn the keywords governing Mazzini's career: "Freiheitskämpfer," "Regierungschef der römischen Republik," "Exilant," and "enthusisastischer Literaturkritiker." We apprehend the book's thesis that Mazzini's interest in literature was not belletristic, but came from the idea that literature of a certain type could serve as a seismograph of cultural and political developments. Mönig summarizes Mazzini's estimate of literature's social function well: literature works "eine kritische soziale Identität zu fördern, Gerechtigkeit und Frieden zu stabilisieren und der Gefährdung und dem Verlust von Freiheiten, Werten und Rechten entgegenzuwirken." He felt, furthermore, that the three poets in the title each pointed the way toward the creation of a European literature. The table of contents tells us that the first order of business in the introduction will be to establish the importance of literature to Mazzini's political project. For some reason, this leads to a description of his brief personal acquaintance with Friedrich Nietzsche and Malwida von Meysenbug. We thus learn about Mazzini's interactions with Nietzsche late in the former's life before learning about his attitudes toward Goethe or Schiller. We then have a chapter on Mazzini's view of Goethe, focused on an analysis of his 1829 Faust essay, then chapters on Schlegel, Schiller, one on Mazzini's view of several historians, including J. G. Herder, and a final chapter devoted to Mazzini's essay "Byron e Goethe." While most of Italy thought of Goethe only as the Werther-author (widely imitated and adapted by Italian writers), Mazzini showed prescience in his appreciation of Faust. On the other hand, he had no hesitation in attacking—in English!—Goethe's antirevolutionary epigrams that adorned Thomas Carlye's history of the French Revolution. Mönig prefaces his précis of the Goethe essay with a summary of the few published reactions to Faust on the peninsula, as well as some of the more important translations, since more Italians (including Mazzini) would have read the French translation than the German original. Mazzini defends Faust against academic critiques that it violates the "dramatic unities," and proposes that the play and its central figure express humanity's movement into a new mentality, as Dante and Shakespeare did before him, by painting a panorama of society beyond the capacities of conventional drama. Faust represents negative epochal tendencies of individualism, egotism, and isolation that Goethe is not able to address or reconcile adequately. Mazzini...</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1984028227</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4067/s0034-98872014000600006</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Bitrán et al. (2014)</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>]]¿Cómo aprenden los estudiantes de medicina en la transición hacia el ciclo clínico?: Estudio cualitativo de las percepciones de estudiantes y docentes acerca del aprendizaje inicial de la clínica</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>The transition to the clinical courses represents a major challenge for medical students who are expected to become experiential learners, able to integrate theory and practice in the context of patient care. There are questions about how students face this challenge.To understand and compare the perceptions of students and clinical tutors on how medical students learn during the transition to the clinical levels of the curriculum.We performed eight focus group discussions with 54 students enrolled in years three to seven and we interviewed eight clinical tutors. Both students' focus group discussions and tutors' interviews were audio recorded, transcribed and analyzed according to the Grounded Theory.Nine main themes emerged from the analysis of students' opinions and six from the tutors' views. The following themes were common to both students and educators: educational activities, actors, clinical settings, learning strategies, transition markers and tutor's role. Educators emphasized the importance of curricular courses' design and students, that of emotions, adaptation and self-care strategies, and threats to learning.There is a common core of students' and clinical tutors' perceptions about the relevance of practical activities, social interactions and context in the development of students' learning and adaptation strategies during the transition to the clinical levels of the curriculum. These results are related to social and cultural theories of learning. Thus we propose a model for early clinical learning that might help to stimulate the reflection of students and medical educators regarding clinical learning and contribute to the development of interventions that improve the clinical learning and teaching practices.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4389749586</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1093/oso/9780198875970.003.0004</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Balbi (2023)</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Thinking About the Revolution</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Abstract This chapter focuses on long-standing narratives repeated for decades, which I have called mantras: the disruptive character of the revolution (after the digital revolution, nothing will be the same as before); the fact that it involves the totality of human beings and spheres of action; the fact that it is irresistible and, indeed, that opposing it is counterproductive; the fact that the revolution is never completed but will need to be happening continually (the future is the favorite tense of the digital revolution); finally, as Trotsky and others said of the Russian Revolution, it is a permanent phenomenon which has lasted for decades and will last into the future. All these mantras are buzzwords and tropes of the digital revolution which are assigned to it without much reflection. Deconstructing their origins and the reasons why they persist over time is the ultimate goal of this chapter.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W586532640</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Marcum (1978)</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Computer revolutions : reflections on new communications technologies and revolutionary change in systems</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3017170548</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jnca.2020.102655</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Morais et al. (2020)</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>When SDN meets C-RAN: A survey exploring multi-point coordination, interference, and performance</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>The transformation of mobile networks towards fifth generation (5G) is considered an unprecedented revolution when compared to the previous generations, mainly because of the support required for three scenarios: ultra reliable and low latency; high throughput broadband; and massive machine type communication. In this context, the evolution from RAN to C-RAN is a significant contribution to advance the deployment of this new generation. C-RAN concepts bring opportunities like centralized processing, improved interference control, flexible fronthaul networks, and support for ultra-dense heterogeneous radio access networks. SDN emerges as a candidate technology for the development of programmable 5G networks, with centralized orchestration and control/data planes decoupling. In this article, we propose a systematic literature review to cover SDN application in the context of 5G communication and C-RAN. In combination with the concepts as mentioned earlier, the article evaluates coordination and interference management features provided by Coordinated Multi-point and Inter-cell Interference Coordination techniques, besides reviewing fronthaul transport tier capabilities offered by SDN for 5G networks. A careful literature analysis shows that there are no revisions with the same focus as that developed in this survey. As contributions, this article presents a novel taxonomy of SDN technology, enabling C-RAN, as well as trending directions and development opportunities for SDN and C-RAN-based 5G networks.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2009498514</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1183/09031936.03.00068503a</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Witek &amp; Mahler (2003)</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Minimal important difference of the transition dyspnoea index in a multinational clinical trial</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Dyspnoea is a primary symptom of chronic obstructive pulmonary disease (COPD). The baseline (BDI) and transition (TDI) dyspnoea indices are commonly used instruments to assess breathlessness and the impact of intervention. Its validity and pattern of response in multinational clinical trials has not been established. In a retrospective analysis of a cohort of 997 COPD patients who received tiotropium, salmeterol or placebo, in addition to usual care, the validity and pattern of response of the BDI and TDI were examined. The BDI was significantly correlated with the dyspnoea diary (DD) score and the symptom and activity components of the St. George9s respiratory questionnaire (SGRQ), establishing concurrent validity. Furthermore, the TDI was also correlated with the changes in DD, SGRQ symptom and activity scores. Construct validity was established by the association between baseline forced expiratory volume in one second (FEV&lt;sub&gt;1&lt;/sub&gt;) and BDI and ΔFEV&lt;sub&gt;1&lt;/sub&gt; with TDI. Physician9s global evaluation (PGE) was significantly associated with BDI as well as ΔPGE with TDI. Significant correlations have also been observed when the cohorts were classified according to native English and native non­English speaking countries. A change in PGE of 1 category (&lt;i&gt;i.e.&lt;/i&gt; 2 units on an 8‐point scale) was associated with a mean TDI of ∼1 unit (0.9–1.3 mean focal score), lending further support to the clinical significance of this change inherent in the instrument9s descriptors. TDI responders (&lt;i&gt;i.e.&lt;/i&gt; focal score ≥1 unit) used less supplemental salbutamol, had fewer exacerbations and had significantly improved health status as measured by impacts and total SGRQ scores compared with nonresponders. In conclusion, the transition dyspnoea index is a valid instrument when used in a multinational clinical trial and the patterns of response confirm a 1‐unit change in the transition dyspnoea index focal score as being clinically important.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W80517714</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Gasser (2013)</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Career Self-Appraisals and Educational Aspirations of Diverse First-Year College Students.</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>This study examined the career, social, and academic self-appraisals and educational aspirations of first-year college students of diverse racial/ethnic backgrounds. Participants included 72 first-year students of Black, Asian, and White ethnicities. Career self-appraisals were significantly different for Black and Asian students when compared to White students, and subsequent analysis revealed that White students had higher career self-appraisals. Also, educational aspirations were significantly predicted by academic self-appraisals. Practice implications are explored. Keywords: first-year college students, academic self-appraisal, educational aspirations ********** Today, workers in the United States need to be competitive on the global job market, which requires being able to obtain the necessary training and education sought by employers (Hug, hey &amp; Hughey, 1999). The college preparation of students can be vital in securing a job and developing one's career post-graduation. Hence, educators and researchers have taken interest in the success of first-year college students in order to help these students transition from high school to college, and from college to the world of work. Factors associated with first-year college students' success include membership in learning communities and variables such as gender and ethnicity (Zheng, Saunders, Shelley, &amp; Whalen, 2002). Since it has been shown that ethnicity and other cultural factors can influence success and introduce additional issues and barriers, the career development of first-year college students of different racial/ethnic backgrounds is particularly salient (Alipuria, 2008). The psychological distress of these diverse first-year college students can be mitigated by positive parental/familial attachment (Kenny &amp; Perez, 1996), and research with Black and Latino men in their first year of college has indicated that parental encouragement and other factors helped these men choose to pursue college degrees (Contreras-Godfrey, 2009). Additionally, it has been demonstrated that a career development course can help decrease the dysfunctional career thoughts of diverse first-year students (Osborn, Howard, &amp; Leierer, 2007). Of particular interest to the success of these students are the factors of self-efficacy and educational aspirations. Self-efficacy refers to one's belief in one's ability to perform certain tasks (Bandura, 1977), and different areas of self-efficacy relevant to college students have included academic or educational self-efficacy (one's belief in her ability to do tasks associated with academic study), social self-efficacy (belief in his ability to perform social tasks), and career self-efficacy (belief in her ability to do career-oriented tasks) (c.f., Chung &amp; Sedlacek, 1999). Educational aspirations are the level of education an individual is striving towards, and is usually measured by asking people about what degree they plan to achieve. For instance, if a student is currently working towards earning a bachelor's degree, but hopes to earn a master's degree one day, then that person's educational aspiration is a master's degree. In the next two sections, literature pertaining to academic, social, and career self-efficacy as well as educational aspirations for diverse students will be examined. Racial/ethnic diversity of first-year college students and academic, social, and career self-efficacy. Chung and Sedlacek (1999) investigated the academic, social, and career self-appraisals (efficacy) of first-year college students of different racial/ethnic backgrounds, and found that White students had higher academic and social self-appraisals than Asian and Black students. Other studies of academic self-efficacy have identified this construct as related to performance and adjustment (Chemers, Hu, &amp; Garcia, 2001), student's feelings of class belonging (Freeman, Anderman, &amp; Jensen, 2007), and college persistence (Kahn &amp; Nauta, 2001). …</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1511297714</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1128/jb.123.1.47-55.1975</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Read &amp; McElhaney (1975)</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Glucose transport in Acholeplasma laidlawii B: dependence on the fluidity and physical state of membrane lipids</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>The uptake of D-glucose by Acholeplasma laidlawii B occurs via a mediated transport process, as shown by the following observations: (i) glucose permeates A. laidlawii B cells at a rate at least 100 times greater than would be expected if its entry occurred only by simple passive diffusion; (ii) the apparent activation energy for glucose uptake in A. laidlawii is significantly lower than that expected and observed for the passive permeation of this sugar; (iii) glucose uptake appears to be a saturable process; (iv) glucose uptake can be completely inhibited by low concentrations of phloretin and phlorizin; and (v) glucose uptake is markedly inhibited at temperatures above 45 C, whereas the passive entry of erythritol continues to increase logarithmically until at least 60 C. The metabolism of D-glucose by this organism is rapid and, at low glucose concentrations, the intracellular radioactivity derived from D-[14-C]glucose is at any given time a reflection of the net effect of glucose transport, glucose metabolism, and loss from the cell of radioactive metabolic products. Care must thus be taken when attempting to determine the rate of glucose transport by measuring the accumulation by the cells of the total radioactivity derived from D-[14-C]glucose. The rate of uptake of D-glucose by A. laidlawii B cells is markedly dependent on the fatty acid composition and cholesterol content of the plasma membrane and exhibits a direct dependence on the fluidity of the membrane lipids as measured by their reversible, thermotropic gel to liquie-crystalline phase transition temperatures. In contrast to the transport rates, the apparent activation energy for glucose uptake above the phase transition temperature is not dependent on membrane lipid composition. At the temperature range within the membrane lipid phase transition region, the apparent activation energy of glucose uptake is different from the activation energy observed at temperatures above the phase transition. This may reflect the superimposed operation within the phase transition region of more than one temperature-dependent process.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1572562311</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1353/hsp.2010.a405438</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Treadgold (2010)</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Byzantine Exceptionalism and Some Recent Books on Byzantium</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Byzantine Exceptionalism and Some Recent Books on Byzantium Warren Treadgold (bio) Jonathan Shepard, ed., The Cambridge History of the Byzantine Empire, c. 500-1492 (Cambridge University Press, 2008). Elizabeth Jeffreys with John Haldon and Robin Cormack, eds., The Oxford Handbook of Byzantine Studies (Oxford University Press, 2008). John Haldon, ed., A Social History of Byzantium (Wiley-Blackwell, 2009). Judith Herrin, Byzantium: The Surprising Life of a Medieval Empire (Princeton University Press, 2007). Edward Luttwak, The Grand Strategy of the Byzantine Empire (The Belknap Press of Harvard University Press, 2009). Timothy E. Gregory, A History of Byzantium, 2nd ed. (Wiley-Blackwell, 2010). Anthony Kaldellis, Hellenism in Byzantium: The Transformations of Greek Identity and the Reception of the Classical Tradition (Cambridge University Press, 2007). In 1066 the Normans invaded England and won a decisive victory. While they claimed that their actions were justified, they held the land essentially by right of conquest and displaced nearly everyone who had been ruling it. After a few years they secured the whole kingdom and profoundly reshaped the society and culture of the country, where their descendants still reign. Likewise, in 1203-4 the men of the Fourth Crusade invaded the Byzantine Empire and won a decisive victory. While they claimed that their actions were justified, they held the land essentially by right of conquest and displaced nearly everyone who had been ruling it. Yet they never secured most of the empire, lost practically all of it by 1261, and had scarcely any lasting impact on the society or culture of the Byzantine world. Various reasons can be given for the success of the Norman Conquest, and historians can easily imagine how it might have failed. What is much harder to imagine is how the Crusaders' conquest of Byzantium could ultimately have succeeded, at least without far more accommodation of the Byzantines or massive Western European immigration. Though the Normans spoke a different language from the English, both groups were part of a Western European political, social, and cultural system that was also shared by the Crusaders of 1204. This system was, however, incompatible with the Byzantine political, social, and cultural system, which soon expelled the Crusaders as an alien body. Byzantium was not just another medieval European country, like England or France, but a world of its own. The contrasts between Byzantium and the West are still a problem for authors of general books on Byzantium, including the recent batch of seven reviewed here. Most Byzantinists know how different Byzantium was, but many prefer not to emphasize the fact. Scholars like to be fashionable, and fashions are set by the majority who study the medieval and modern West, the source of concepts like feudalism and nationalism. While today we are all aware of non-Western cultures, we think of Byzantium as Western, certainly in comparison with China, pre-Columbian America, or sub-Saharan Africa. This is presumably why the American Historical Review lists books on Byzantium under "Europe: Ancient and Medieval," though most Byzantine territory was in Asia or Africa (and Constantinople straddled Europe and Asia). Byzantinists may reasonably fear that insisting their subject is not fully Western could leave it without a place in either Western or non-Western history. The Cambridge History of the Byzantine Empire comes very close to treating Byzantium as just another medieval European country, even if such treatment results mainly from the opportunism of its publisher. Of the book's twenty-seven parts, only eight (plus the introduction) were actually written for it. Three more parts are adapted from the final volume of The Cambridge Ancient History (2000) and sixteen more from the seven-volume New Cambridge Medieval History (1995-2005), which has short chapters on Byzantium in each period. (The old Cambridge Medieval History had a separate volume on Byzantium.) The editor of the Cambridge History, Jonathan Shepard, explains that an editor at Cambridge University Press "encouraged me to take on remodelling materials already available" (xvii). While the press profits from selling libraries the same material twice, the benefits to scholarship are less clear. In his introduction Shepard struggles to lend the book some coherence.1 He explains its beginning with the year 500 by citing the fall...</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2121673844</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/13563460903586202</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Caney (2010)</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Markets, Morality and Climate Change: What, if Anything, is Wrong with Emissions Trading?</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abstract This article explores whether emissions trading is morally defensible To do so it examines three different kinds of moral consideration Which might be used to judge emissions trading. The first kind makes what I term an 'ethical' objection, and holds that utilising market instruments to combat climate change is inherently objectionable. I examine three versions if this 'ethical' argument but find none persuasive. The remainder of the article considers two additional moral considerations, both of which appeal to principles of justice. Drawing on these it argues that emissions trading can be morally defensible but only it it meets these two demanding moral criteria. First, the costs of emissions trading should be shared equitably. The paper examines what this might mean and criticises the leading account of what constitutes a just distribution of emissions Second, emissions trading must make an appropriate contribution to climate mitigation. A number of ways in which current emissions trading schemes signally fail to meet this second criterion are then noted. The article concludes that emissions trading schemes could in principle be morally defensible but only if new schemes are introduced or existing schemes are radically redesigned in line with the principles outlined in the article. Keywords: emissions tradingethicsjusticeclimate change Notes An earlier version of this paper was presented at the 'Commodifying Carbon' Conference (University of Oxford, 16 July 2007). I am grateful to the two respondents on my paper, Timmons Roberts and Henry Shue, for their instructive comments. A much later version was presented at the workshop on 'Global Emissions Trading: Ethics, Policy and Politics' (University of Warwick, 8 July 2009). I am grateful to the participants for their suggestions. I am especially indebted to Ed Page for a number of very illuminating discussions of the themes examined in this paper and to the anonymous referee for this journal for their extremely helpful comments. The paper was completed during my tenure of an ESRC Climate Change Leadership Fellowship (2008–11) and I am grateful to the ESRC for its support. Note that emissions trading schemes are not the only market instrument being employed to mitigate climate change. Another potentially important market instrument is the United Nations' programme on Reducing Emissions from Deforestation and Forest Degradation in Developing Countries (UN-REDD). See on this http://www.undp.org/mdtf/un-redd/overview.shtml [last accessed 11 December 2009]. REDD is one specific version of what is known as 'payment for environmental services' (PES). For an overview of PES see Engel et al. Citation(2008). My focus in this article is on emissions trading but some of the issues raised are also relevant for an appraisal of REDD and other schemes which involve paying for environmental services. I am grateful to an anonymous referee for pressing me on this point. This sentence needs to be heavily qualified for the impoverished may be unfree not to sell emissions. That is, their economic disadvantage may compel them to sell their emissions. I have argued elsewhere that there is a duty of justice to eradicate global poverty (Caney Citation2005) and if this were honoured then this concern would be met. One might also address this concern either by allocating large numbers of emissions permits to the disadvantaged or by auctioning the permits and distributing the revenues to the disadvantaged (Beckerman and Pasek Citation2001: 183–4). These issues are examined in section IV. Simmel (Citation1990 [1907]: 286) illustrates his argument through an historical analysis of different systems of payment, such as feudalism. He points out that an economy where persons are required to transfer a certain specific good (such as 'a quantity of beer or poultry or honey') 'thereby determines the activity of the … [duty-bearer] in a certain direction' and, as such, limits their liberty more than one where one can discharge one's debts though payment of money. A second, quite different reason for analysing emissions trading in the light of other policies is that it is often the case that one policy, whilst successful on its own, may undercut the efficacy of a second policy. They may work well separately but undermine each when adopted together. See Carbon Disclosure Project (http://www.cdproject.net/) and Carbon Monitoring for Action (http://carma.org/) [both last accessed on 26 June 2009]. See also the interesting discussion by Thaler and Sunstein in Nudge (Citation2008: 188–92). For the claim that they should be inalienable see Shue (Citation1993: 58). For instructive comparisons of different schemes see Roberts and Thumim (Citation2006: section 2) and Bottrill Citation(2006). For informative overviews see House of Commons Environmental Audit Committee Citation(2008) and DEFRA's analysis of individual carbon permit schemes (now available at the website of the Department for Energy </t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4297163900</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arxiv.2209.11604</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Tang et al. (2022)</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Neural Clamping: Joint Input Perturbation and Temperature Scaling for Neural Network Calibration</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Neural network calibration is an essential task in deep learning to ensure consistency between the confidence of model prediction and the true correctness likelihood. In this paper, we propose a new post-processing calibration method called Neural Clamping, which employs a simple joint input-output transformation on a pre-trained classifier via a learnable universal input perturbation and an output temperature scaling parameter. Moreover, we provide theoretical explanations on why Neural Clamping is provably better than temperature scaling. Evaluated on CIFAR-100 and ImageNet image recognition datasets and a variety of deep neural network models, our empirical results show that Neural Clamping significantly outperforms state-of-the-art post-processing calibration methods.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2899399694</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.48550/arxiv.1811.00079</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Chen et al. (2018)</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Predictive Modeling of Biomedical Signals Using Controlled Spatial Transformation</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>An important paradigm in smart health is developing diagnosis tools and monitoring a patient's heart activity through processing Electrocardiogram (ECG) signals is a key example, sue to high mortality rate of heart-related disease. However, current heart monitoring devices suffer from two important drawbacks: i) failure in capturing inter-patient variability, and ii) incapability of identifying heart abnormalities ahead of time to take effective preventive and therapeutic interventions. This paper proposed a novel predictive signal processing method to solve these issues. We propose a two-step classification framework for ECG signals, where a global classifier recognizes severe abnormalities by comparing the signal against a universal reference model. The seemingly normal signals are then passed through a personalized classifier, to recognize mild but informative signal morphology distortions. The key idea is to develop a novel deviation analysis based on a controlled nonlinear transformation to capture significant deviations of the signal towards any of predefined abnormality classes. Here, we embrace the proven but overlooked fact that certain features of ECG signals reflect underlying cardiac abnormalities before the occurrences of cardiac disease. The proposed method achieves a classification accuracy of 96.6% and provides a unique feature of predictive analysis by providing warnings before critical heart conditions. In particular, the chance of observing a severe problem (a red alarm) is raised by about 5% to 10% after observing a yellow alarm of the same type. Although we used this methodology to provide early precaution messages to elderly and high-risk heart-patients, the proposed method is general and applicable to similar bio-medical signal processing applications.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1754248349</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Guarna et al. (1983)</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>2,2'-dihydroxy-3,3'-di-t-butyl-5,5'-dimethoxydiphenyl, a new metabolite of 2-t-butyl-4-methoxyphenol in the rat.</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>A method has been developed for the determination of 2-t-butyl-4-methoxyphenol (BHA) and its metabolite di-BHA in rat plasma and tissues using gas chromatography-mass spectrometry with selected ion detection. Deuterium labeled BHA-d3 and di-BHA-d6 were synthesized and added to the tissue specimens as internal standards before methylene chloride extraction. The extracted compounds were derivatized with trifluoroacetic anhydride and analyzed by selected ion monitoring. Rat plasma and intestine concentrations of BHA and di-BHA at different times (0.15-24 hr) following the oral administration of a single dose of BHA (2 g X kg-1 body weight) were determined. Both BHA and di-BHA were present in all the analyzed samples, their concentration peaking within 1 hr after treatment. While in the intestine BHA levels were about 10 times higher than those of di-BHA, in the plasma they were between 100 and 15 times higher. These findings indicate that rat intestine is capable of transforming in vivo BHA into di-BHA and suggest that this organ is the major site where this transformation occurs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2075007701</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1097/00005373-199607000-00001</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Hassett (1996)</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Do It Right, Do the Right Thing</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Ladies and gentlemen, members of EAST, and guests! In preparation for this address, I reviewed my predecessors presentations. Dr. Maull urged us to dispel fatalism in 1989. [1] Dr. Harris searched for values in our changing times. [2] Dr. Jacobs identified forces that shape trauma care. [3] Dr. Champion reflected on directions of trauma care. [4] Dr. Schwab identified the largest sociomedical problem of the turn of the century. [5] Dr. Rhodes gave practical guidelines for trauma care. [6] Dr. Boyd reported on the principles of action. [7] Each was a prescient view of the challenges to trauma care. I urge each member to review their comments. I will focus on a continuation of their theme and offer an action plan. I have decided to do so because we stand on the threshold of a new century. Each of us has come to this place in time with unique experiences of mentorship, academic preparation, and clinical experience. Our common thread is our dedication to the trauma patient. Each will be asked to address issues and challenges daily. How we do so and what we do will effect generations of future trauma patients. At the turn of the century we are facing questions like: Can we define life, liberty and the pursuit of happiness specifically? Can we reliably ensure access to health care for all? Our sense of mission and vision of the future are important components as we deal with the challenges and questions. My presidential address is a call to active advocacy. I implore you to "Do it right, do the right thing". Modern health care advocates autonomy not cohesiveness. It values patient choice but reduces patient options. It promotes the bottom line and not people. It sees outcome through economic glasses. It replaces a commitment to excellence with a mandate for equity. It does not ensure equal health care to the economically challenged. It is a bean counters plan concocted by people who don't know beans about health care. This is the result of society's failure to address basic issues of health care and economy. Largely, it is a failure of professional and political leadership. Professionally, many of our colleagues take more than they give. Politically, many of our leaders use health care and social systems for their own gain. Somehow, we have lost the vision of our mission and responsibility. Figure 1Figure 1Entrepreneurs found health care in the seventies. The medical market place was an open and largely unregulated area. It soon became dominated by technology that superseded the normally accepted "doctor skills". Hospitals became technological marvels. Public policy for Medicare and Medicaid created a funding source that could supply this market with sufficient funds to make entrepeneurial investment reasonable. Some define this entrepreneurship as an organized license to steal. Others see it as the natural order of life. In the initial phases, it provided resources and fulfilled the dream of universal health care, where every malady could be addressed directly. In the later phases, it created circumstances where health care devices have astronomical prices and minor problems have million dollar responses. Decisions are directed by the corporate bottom line and controlled by the fear of litigation. The process has made us all commodities to be managed and used. Health care is provided according to the number of covered lives per annum. Health care providers are seen in terms of the number of contact hours per day. We are part of a system of health care delivery that sets a priority on certain types of care. Delays in delivering care are economically driven. The bottom line is important. The question is whose bottom line is being valued in the decision process. Students are taught more about the cost per dose than the pharmacology of the drug given. They are indoctrinated to careers and training programs are modified according to the mantra of managed care. Residents are concerned with a "niche market," attractiveness of their skills to their eventual employer, and their benefits package. Attending staff are evaluated according to the length of stay of their patients or the number of resource days utilized. The natural result is a struggle for the control of health care. In many ways, health care providers and patients are in a "free fire zone" in a modern economic war. Neither controls the environment. Both are victims and victimize the system simultaneously. Today, the other side is winning. However, all is not lost. Groups of health care professionals are addressing issues aggressively. The Phoenix analogy that a better health care system may emerge from the ashes of the past health care system has become a popular concept in groups who accept the challenge of change. The major goals of these groups are intelligent organization, focus, and outcome-based service. None of the issues are new. Most of the issues, challenges, and responses have been with us for a long time. The history of the response to change in m</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2993247134</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.46650/wa.10.2.774.%p</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Nugraha (2019)</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>PANDANGAN GURU TERHADAP PEMBELAJARAN BERORIENTASI REVOLUSI INDUSTRI 4.0 DI SEKOLAH DASAR</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
         <is>
           <t>Abstrak_x000D_
 Penelitian ini bertujuan untuk mendeskripsikan pandangan guru terhadap pembelajaran berorientasi revolusi industri 4.0 di sekolah dasar. Pandangan tersebut dapat berupa argumen maupun asumsi pribadi berdasarkan sudut pandang dari guru yang bersangkutan. Jenis penelitian ini adalah deskriptif kualitatif. Teknik pengumpulan data yang digunakan adalah observasi, pedoman wawancara, dokumentasi, dan catatan lapangan. Subjek dalam penelitian ini adalah para guru di SD Dwijendra Denpasar. Analisis data yang digunakan meliputi tahap reduksi data, penyajian data, dan verifikasi data. Hasil dari penelitian adalah (1) guru menyambut baik fenomena revolusi industri 4.0 yang memberikan dampak terhadap reorientasi pembelajaran di kelas; (2) konsep pembelajaran yang diharapkan terwujud adalah pembelajaran kolaboratif dengan mengoptimalkan fungsi ICT media, keterbukaan terhadap berbagai sumber pengetahuan, hingga meningkatkan level kognitif siswa; (3) terwujudnya pembelajaran berorientasi revolusi industri 4.0 di sekolah dasar adalah untuk membentuk gaya belajar yang efektif serta membangun keterampilan abad 21 yakni 4C bagi diri peserta didik; dan 4) dibutuhkan dukungan dari seluruh elemen pemegang otoritas pendidikan utamanya dalam penyediaan fasilitas dan pendampingan/pelatihan kepada guru-guru._x000D_
@@ -4732,671 +4321,450 @@
         </is>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2063556904</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jchromb.2004.02.014</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Ji et al. (2004)</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>96-Well liquid–liquid extraction liquid chromatography-tandem mass spectrometry method for the quantitative determination of ABT-578 in human blood samples</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>We report here a quantitative method for the analysis of ABT-578 in human whole blood samples. Sample preparation was achieved by a semi-automated 96-well format liquid-liquid extraction (LLE) method. Aluminum/polypropylene heat seal foil was used to enclose each well of the 96-well plate for the liquid-liquid extraction. A liquid chromatography combined with tandem mass spectrometry (LC-MS/MS) method with pre-column regeneration was developed for the analysis of sample extracts. Selective reaction monitoring (SRM) of the mass transitions m/z 983-935 and m/z 931-883 was employed for the detection of ABT-578 and internal standard, respectively. The ammonium adduct ions [M + NH(4)](+) generated from electrospray ionization were monitored as the precursor ions. The assay was validated for a linear dynamic range of 0.20-200.75ng/ml. The correlation coefficient (r) was between 0.9959 and 0.9971. The intra-assay CV (%) was between 1.9 and 13.5% and the inter-assay CV (%) was between 4.7 and 11.3%. The inter-assay mean accuracy was between 86.4 and 102.5% of the theoretical concentrations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2954581781</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/tii.2019.2925323</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Zeinal‐Kheiri et al. (2020)</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Residential Load Disaggregation Considering State Transitions</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Information about power consumption patterns of devices, helps the residential consumers manage their energy usage. Nonintrusive load monitoring is an effective tool to extract the consumption patterns from the measured aggregated data at the meter. In this paper, an optimization-based method is proposed to disaggregate the total load, using low frequency data. The proposed algorithm is enhanced by enforcing the power profiles of appliances to be piecewise constant over specific time durations. Moreover, the state transitions of the appliances are determined and then employed as the optimization constraints to improve the estimation results. The proposed method is evaluated using almanac of minutely power data set (AMPds) and reference energy disaggregation data set (REDD) datasets by several performance metrics. Results indicate that the designed algorithm is able to recognize the frequently varying appliances in spite of piecewise constancy presumption. Furthermore, breaking down the optimization problem to the smaller parts enhances the ability of the algorithm to be operated in real time.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1513731821</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Wilson (2009)</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Efficient Employment of Imperfect Search Sensors in Complex Environments</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Abstract : Defense planners must strive to develop and incorporate new, efficient procedures to allocate scarce resources in varied complex environments. We consider two discrete-time, discrete-space search effort allocation situations. Both involve the employment of an imperfect sensor, which is subject to both false-positive and false-negative errors. The area of interest, comprised of several disjoint area-cells, contains a single target of interest. In the first situation, the target moves according to a Markovian transition matrix, which is unknown to the sensor operator. The objective is to estimate the target's steady-state distribution, using only the sensor's detection signals and knowledge of its false-positive and false-negative rates. The second situation considers a stationary target, wherein the objective is to determine the area-cell occupied by the target, in the fewest expected number of investigations, to within certain operator-prescribed error tolerances. We develop an adaptive algorithm based on stochastic approximation for the first situation, and show that the resultant rate of error in determining target presence/absence in any area-cell converges to zero at the fastest possible rate. We propose a sequential elimination procedure for the second situation, which provides an efficient determination of target location and guarantees its error rate not to exceed the operator-prescribed tolerance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2564975307</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ejmech.2016.12.057</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Elkamhawy et al. (2017)</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Discovery of 1-(3-(benzyloxy)pyridin-2-yl)-3-(2-(piperazin-1-yl)ethyl)urea: A new modulator for amyloid beta-induced mitochondrial dysfunction</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Herein, we report a new series of aliphatic substituted pyridyl-urea small molecules synthesized as potential modulators for amyloid beta (Aβ) induced mitochondrial dysfunction. Their blocking activities against Aβ-induced mitochondrial permeability transition pore (mPTP) opening were evaluated by JC-1 assay which measures the change of mitochondrial membrane potential (ΔΨm). The inhibitory activity of sixteen compounds against Aβ-induced mPTP opening was superior or almost similar to that of the standard Cyclosporin A (CsA). Among them, 1-(3-(benzyloxy)pyridin-2-yl)-3-(2-(piperazin-1-yl)ethyl)urea (5x) effectively maintained mitochondrial function and cell viabilities on ATP assay, MTT assay, and ROS assay. Using CDocker algorithm, a molecular docking model presented a plausible binding mode for 5x with cyclophilin D (CypD) receptor as a major component of mPTP. Moreover, hERG and BBB-PAMPA assays presented safe cardiotoxicity and high CNS bioavailability profiles for 5x. Taken as a whole, this report presents compound 5x as a new nonpeptidyl mPTP blocker may hold a promise for further development of Alzheimer's disease (AD) therapeutics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2057511335</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.tsf.2004.11.088</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Rusu et al. (2005)</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Solar cells based on CCSVT-grown CuGaSe2—absorber and device properties</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>For solar cells based on CuGaSe2 (CGSe) polycrystalline thin films, a novel efficient chemical close-spaced vapor transport (CCSVT) technique is used to deposit the CGSe absorber. Clean and Mo-coated soda lime glass (SLG) substrates are used for the CGSe deposition. The CGSe thickness ranges from 1.6 to 1.9 μm and the corresponding [Ga]/[Cu] ratio of the thin films is adjusted within the range of 0.9–1.3. The high bulk homogeneity of the as-grown CGSe films is shown. Transmittance and reflectance measurements were performed to monitor the changes in the CGSe band gap as a function of composition. The optical spectra reveal a shift of the absorption edge towards longer wavelengths with increasing Ga content, as well as a broadening of the distinct structure corresponding to three band-to-band transitions characteristic for CGSe. These results are used for a discussion of the behaviour of the ZnO/CdS/CuGaSe2 solar cell photovoltaic parameters as well of the current transport. The transport mechanism is analysed on an our best solar cell device with an active area efficiency of 8.7%. For the first time, a thermally activated Shockley–Read–Hall recombination mechanism is observed for the CGSe-based solar cells in a large temperature region.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4231374354</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1163/9789004399013_002</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Carbonnier &amp; Gironde (2019)</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>The ilo @ 100: In Search of Renewed Relevance</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>As the International Labour Organization (ilo) celebrates its centenary, its founding precept remains as relevant as ever: the main breeding grounds for threats to peace are the injustices and unequal opportunities that result from ongoing economic transformation. The moral idea that forged the ilo still lies at the heart of the international efforts for peace and development driving the Agenda for Humanity, the Agenda for Sustainable Development and the consensus on the need for inclusive growth that will ‘leave no one behind’. This introductory chapter explains the rationale behind the 11th special issue of International Development Policy, which addresses questions around the ilo’s capacity for action and its effectiveness, the relevance of its programmes and ability to adapt to a world of work undergoing profound change. The volume of thirteen chapters highlights the tensions that constitute the ilo and its action, the changing and different environments in which the Organization operates, and the initiatives taken by the ilo to respond to these challenges. The need for adaptation is especially pronounced today in view of the acceleration of technological developments and radical changes in the organisation of employment and work, and the consequent impact on social protection systems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2799762231</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.30657/pea.2014.04.06</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Borkowski et al. (2014)</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>AN IDENTIFICATION OF VARIABLES THAT INFLUENCES ON THE MANUFACTURED PRODUCTS QUALITY</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>The fact that companies are constantly subjected to changes creates challenges connected with constant learning and acquiring knowledge.Companies are forced to act in accordance with the generative strategy.Besides realizing the traditional tasks of production or service, companies need to acquire and process knowledge and apply it in practice.The consequence of these changes is the transformation of contemporary enterprises into knowledge-based organizations, with managers increasingly recognizing the role and importance of the concept of knowledge management in creating enterprises competitiveness.The main aim of the article is identification of knowledge management in production enterprises.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1917389063</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/j.1469-1795.2010.00418.x</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Daw (2010)</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Shifting baselines and memory illusions: what should we worry about when inferring trends from resource user interviews?</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>O'Donnell, Pajaro &amp; Vincent (2010) report attempts to infer long-term trends in seahorse abundance, from fisher interviews and logbooks. Stitching together such different data sources is often the only way to infer trends when no consistent historical data exist, and aims to counteract the ‘shifting baseline syndrome’ (Pauly, 1995). The paper highlights the potential impact of assumptions made by researchers (either implicitly or explicitly) in using resource user knowledge. In this case, different assumptions led to wildly differing assessments of extinction risk. The key issue is not so much the accuracy of fisher knowledge, but the existence and significance of a range of biases in the use and manipulation of quantitative catch data from fisher interviews, and how they should be handled. To answer this, we need a better understanding of how humans perceive and recall environmental change, a question with relevance to conservation and resource governance in general. Papworth et al. (2009) have provided a useful definition and typology of the ‘shifting baseline syndrome’, which can be applied to O'Donnell and colleague's work. A range of different mechanisms exist that can mask or exaggerate perceived trends at a community or individual level. For example, the observation that the longest-serving fisher perceived the greatest decline, might suggest ‘generational amnesia’, as observed in fisheries elsewhere (e.g. Saenz-Arroyo et al., 2005), while ‘memory illusion’, which exaggerates the extent of trends may also have been caused by the influential memory of extreme catches. The extensive logbook data highlight the highly variable and skewed nature of individual catches, which are typical in fisheries catch data, and have important implications for how humans perceive trends. Van Densen (2001) has demonstrated how variability limits the statistical power of individuals to perceive trends, but the effect of skewness has been less carefully considered. Scientists commonly normalize catch per unit effort (CPUE) data with a log transformation before analysing trends, so that statistics are not overly influenced by extreme values. Can the human brain operate a similar cognitive mechanism? Or are qualitative perceptions and memories so influenced by the psychological and emotional impact of atypical bumper catches that general trends cannot be perceived? Reliable logbook, or landings data could help to understand and unpick these complexities, and it is unfortunate that logbooks were not available to make direct comparisons with fisher interview data. Beside issues around long-term memory, O'Donnell and colleagues also refer to problems of inferring population trends from CPUE, and the assumption that the catchability (the proportion of the population caught for each unit of effort) is constant. CPUE is affected by problematic issues of hyperdepletion, hyperstability, technical creep and competition and interference between fishers (Hilborn &amp; Walters, 1992). One factor not discussed by O'Donnell and colleagues is whether trends in total effort levels (e.g. the number of fishers operating) may have affected the catchability of seahorses. Table 1 lists some of the many potential biases, which may exaggerate or mask trends when inferring them from resource-user memories. Decisions need to be made about which of these are relevant in any given case. Biases affecting CPUE can be evaluated with detailed knowledge on the nature and evolution of the fishery (often based on fisher knowledge), but we are poorly equipped to evaluate or account for individual perception biases. O'Donnell and colleagues conclude with sound prescriptions to avoid overly simplistic assumptions in the use of resource user knowledge, and some methodological approaches might help to reduce the impact of such biases. For example, relying on qualitative rather than quantitative recall, asking questions such as ‘When was the last time you caught/saw …’ (e.g. Lavides et al., 2009); or explicitly asking fishers about variability using questions about ‘good’, ‘poor’ and ‘normal’ catches (Daw, Robinson &amp; Graham, in Press). Such approaches may help to reduce biases, or to be more explicit about assumptions, but evaluating whether, and in which circumstances perception biases significantly affect inference requires new interdisciplinary research. Psychological research (e.g. Kahneman, Slovic &amp; Tversky, 1982; Balcetis &amp; Dunning, 2007) may help to understand the cognitive dimensions of how humans experience and perceive non-normally distributed events over time. Meanwhile, empirical analysis of large comparative datasets of objectively measured events, and subjective experiences of these over a range of timescales could help to distinguish between sources of bias that are negligible, and those that seriously affect our inference and require more research. This would be a considerable improvement on assumptions (particularly implicit assumptions) about the nat</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2465799880</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1057/9781137344526_2</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Smith (2014)</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Socioeconomic Change, Work and Leisure</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>This chapter aims to examine the contextual factors that contribute to the experiences of those consuming within the night-time economy (NTE). The past four decades have borne witness to unprecedented levels of socioeconomic change within Britain and beyond. The crumbling of traditional forms of industrial employment, the shift toward an economy based on leisure and consumer and financial services rather than production combined with the myriad complexities, risks and challenges facing those growing up, learning, working and surviving under conditions of late modernity are comparable in magnitude and significance to the agricultural and industrial revolutions of the eighteenth and nineteenth centuries (Hobsbawm, 1976, 1996). At the time of writing, we find ourselves half a decade into the worst financial crisis in living memory, an event that exacerbates the consequences, experiences and anxieties that constitute life under liberal capitalism. Despite the apparent wholesale collapse of the neoliberal project, the absence of any alternative way of organising the global economy appears to have cemented liberal capitalism as the ‘least-worst’ option. For the majority, the apparent indestructibility of the neoliberal project contributes to a feeling of impotence, characterised by political apathy and inertia, alongside an acceptance of capitalist realism (see Fisher, 2009).</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2026644728</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1523/jneurosci.3467-10.2010</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Rivera et al. (2010)</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Metzincin Proteases and Their Inhibitors: Foes or Friends in Nervous System Physiology?</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Members of the metzincin family of metalloproteinases have long been considered merely degradative enzymes for extracellular matrix molecules. Recently, however, there has been growing appreciation for these proteinases and their endogenous inhibitors, tissue inhibitors of metalloproteinases (TIMPs), as fine modulators of nervous system physiology and pathology. Present all along the phylogenetic tree, in all neural cell types, from the nucleus to the synapse and in the extracellular space, metalloproteinases exhibit a complex spatiotemporal profile of expression in the nervous parenchyma and at the neurovascular interface. The irreversibility of their proteolytic activity on numerous biofactors (e.g., growth factors, cytokines, receptors, DNA repair enzymes, matrix proteins) is ideally suited to sustain structural changes that are involved in physiological or postlesion remodeling of neural networks, learning consolidation or impairment, neurodegenerative and neuroinflammatory processes, or progression of malignant gliomas. The present review provides a state of the art overview of the involvement of the metzincin/TIMP system in these processes and the prospects of new therapeutic strategies based on the control of metalloproteinase activity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2051661038</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/00220620.2010.514042</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Potts et al. (2010)</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Disciplinary cultures in an Australian college of advanced education</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Abstract Recently scholars have called for more detailed historical study of the teaching lives of academics across countries, systems and institutions. This article contributes to the research on the professoriate in its widest sense. The article focuses on the disciplinary perspectives and cultures of academic staff employed in one of Australia’s oldest colleges of advanced education during the period 1965–1982. It examines official beliefs, slogans, and truisms, which formed part of these perspectives. Disciplinary perspectives include the academics’ views of the subject, the important problems for the subject, and the criteria of utility of the subject. Australia’s Commonwealth Advisory Committee on Advanced Education saw colleges of advanced education compared to universities enrolling students with different interests, stressing part‐time studies, concentrating on applied courses rather than humanities, being closely attuned to the labour market and workforce needs and being principally teaching institutions. They were to be equal but different to universities, but came to be viewed as equal but cheaper. A crucial issue is the extent to which the disciplinary perspectives of college of advanced education academics matched those that the legislators envisaged. Keywords: disciplinary cultureshigher educationAustralia Notes 1Amy S. Metcalf, ‘The Changing Academic Profession in Canada: Exploring Themes of Relevance, Internationalisation and Management’, in The Changing Academic Profession in International Comparative and Quantitative Perspectives, ed. Shinichi Yamamato (Hiroshima: Research Institute for Higher Education, Hiroshima University, 2008), 57. 2William Bruneau, ‘Quite Flow the Dons: Towards an International History of the Professoriate’, in Historical Identities: The Professoriate in Canada, ed. Paul Stortz and Lisa Panayotidis (Toronto: University of Toronto Press, 2006), 40–6. 3Ibid., 34. 4Ibid. 5Ibid., 31–4. 6Ibid., 32. 7William Clark, Academic Charisma and the Origins of the Research University (Chicago: University of Chicago Press, 2006), 6. 8Bruneau, ‘Quite Flow the Dons’, 49. 9Logan Wilson, American Academics: Then and Now (New York: Oxford University Press, 1979), 136. 10James J. Forest, ‘Teaching and Learning in Higher Education’, in International Handbook of Higher Education, ed. James J. Forest and Philip G. Altbach (Dordrecht: Springer, 2007), 347. 11William Locke. ‘The Stratified Academic Profession in England: Still Stratified after All these Years?’, in Yamamato, Changing Academic Profession, 101. 12Wilson, American Academics, 8. 13Ibid., 8. 14Ibid. 15Anthony Potts, College Academics (Charlestown, New South Wales: William Michael Press, 1997). 16Frank Cusack, From Canvas to Campus (Melbourne: Hawthorn Press, 1973). 17Howard Becker, Blanche Geer, Everett Hughes, and Anselm Strauss, Boys in White: Student Culture in Medical School (Chicago: University of Chicago Press, 1961), 34. 18Richard Startup, The University Teacher and His World (London: Saxon House, 1979), 19–20. 19Geoffrey M. Esland, ‘Teaching and Learning as the Organization of Knowledge’, in Knowledge and Control, ed. Michael F. Young (London: Collier Macmillan, 1971), 85–6. 20Ibid. 21John G. Gaff and Ray C. Wilson, ‘Faculty Cultures and Interdisciplinary Studies’, Journal of Higher Education 43, no. 3 (1971): 186–201. 22Roger L. Geiger, To Advance Knowledge: The Growth of American Research Universities, 1900–1940 (New York: Oxford University Press, 1986), 24. 23Geiger, To Advance Knowledge, 24. 24Tony Becher, ‘The Significance of Disciplinary Differences’, Studies in Higher Education 19, no. 2 (1994): 151. 25Clark, Academic Charisma, 13. 26Peter Rushbrook, ‘Policy, Practice and the Construction of Paraprofessional or Middle‐level Vocational Education Curriculum in Victoria, Australia, 1957–1975’, History of Intellectual Culture 7, no. 1 (2007): 1. 27Tony Becher, ‘Disciplinary Discourse’, Studies in Higher Education 12, no. 3 (1987): 261. 28Ibid., 262. 29Tony Becher and Paul R. Trowler, Academic Tribes and Territories (Buckingham, UK: SRHE and Open University Press, 2001), 44–7. 30Ibid. 31Becher, ‘Significance of Disciplinary Differences’, 151. 32Ibid., 152. 33Ibid. 34Ibid., 153. 35Wilson, American Academics, 249. 36Ibid. 37Ibid. 38Shinichi Yamamato, ed., The Changing Academic Profession in International Comparative and Quantitative Perspectives (Hiroshima: Research Institute for Higher Education, Hiroshima University, 2008). 39James J. Forest and Philip G, Altbach, eds., International Handbook of Higher Education (Dordrecht: Springer, 2007). 40Jurgen Enders, ed., Academic Staff in Europe: Changing Contexts and Conditions (Westport, CT: Greenwood Press, 2001). 41Ernest L. Boyer, Philip G. Altbach, and Mary J. Whitelaw, eds., The Academic Profession: An International Perspective (Princeton, NJ: Carnegie Foundation for the Advancement of Teaching, 1994). 42William K. Cummings, ‘The Context for the Changing Academic Professio</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4247114195</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/00003086-200301000-00044</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Erol et al. (2003)</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Knee Pain in a 13-Year-Old Boy</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Learning Objectives On completion of this article, the reader should be able to: radiographically differentiate most long bone lesions producing periosteal elevation; compare the utility of imaging modalities in assessing long bone lesions with periosteal elevation; and histologically differentiate long bone lesions causing periosteal elevation. A 13-year-old boy reported right knee pain for 3 weeks before presenting to the authors’ institution. He previously was admitted to another institution for evaluation, where plain radiographs and magnetic resonance imaging (MRI) scans were taken. Radiologic studies revealed a destructive bone lesion on the right proximal fibula, and subsequently the patient was referred to the current authors’ institution for additional evaluation. The knee pain gradually had worsened with time, and the patient could not bear weight on his right leg. The patient presented to the emergency room of the authors’ institution before the date of appointment because of severe knee pain. The child otherwise was healthy with no previous major illnesses, injuries, or surgeries. He was the product of a full-term, uncomplicated pregnancy, and his developmental and family histories were noncontributory. On physical examination, the patient was a healthy appearing boy who reported moderate to severe pain over the area of the right proximal fibula. He was unable to bear weight on his right lower extremity. The neurovascular examination was normal. The patient had full range of motion (ROM) of the right knee. There was tenderness over the right proximal fibula with a mild soft tissue swelling. His abdomen was soft and nontender without masses or hepatosplenomegaly. No lymphadenopathy was observed. Plain radiographs and MRI scans of the patient’s right knee obtained before incisional biopsy are shown in Figures 1 through 4.Fig 1A–B.: Plain (A) anteroposterior and (B) lateral radiographs of the right knee.Fig 2.: Sagittal T1-weighted image of the right knee.Fig 3.: Coronal T2-weighted image of the right knee.Fig 4.: Axial T2-weighted image of the right knee.Based on the history, physical findings, and imaging studies, what is the differential diagnosis? RADIOGRAPHIC INTERPRETATION The anteroposterior (AP) radiograph of the right knee (Fig 1A) showed a permeative pattern of bone destruction in the proximal fibular diaphysis extending into the metaphysis. On the lateral radiograph of the right knee (Fig 1B), destruction of the anterior cortex and a Codman triangle pattern of new bone formation (arrow) was seen. In addition, scattered lucent areas represented bone destruction. Magnetic resonance imaging scans also characterized involvement of the bone marrow and adjacent soft tissues. A sagittal T1-weighted image (Fig 2) revealed complete replacement of the bone marrow with a heterogeneous, predominantly low signal intensity mass. A well-defined soft tissue mass extended anteriorly and was separated from the adjacent musculature by thin linear low signal likely representing new periosteal bone (arrows). A coronal T2-weighted image with fat saturation (Fig 3) showed an expansile mass, with increased T2 signal replacing the bone marrow. A small nodule was visible arising from the medial aspect of the mass (arrow). Increased signal in the surrounding muscles represented tumor extension, or edema, or both. An axial T2-weighted image (Fig 4) showed complete replacement of the marrow with a large soft tissue component surrounded by a thin layer of new bone formation. Low intensity, linear strands of new bone formation arising radially from the central bone lesion also were seen (black arrows). This represented a sunburst pattern of aggressive periosteal new bone formation. In addition, soft nodules (white arrows) were seen outside the margin of bone formation, which surrounded the mass. High signal edema or tumor surrounded the neurovascular bundle (curved arrow). DIFFERENTIAL DIAGNOSIS Osteosarcoma Ewing’s sarcoma Langerhans’ cell histiocytosis Osteomyelitis Aneurysmal bone cyst After presentation to authors’ institution, an incisional biopsy with an intraoperative frozen section was done; the photomicrographs are shown in Figure 5.Fig 5A–B.: Photomicrographs of the lesion (Stain, hematoxylin and eosin; magnification, (A) ×200, (B) ×400, and (C) ×400). (continues)Fig 5C.: (continued) Photomicrographs of the lesion (Stain, hematoxylin and eosin; magnification, (A) ×200, (B) ×400, and (C) ×400).Based on the history, physical findings, radiographic studies, and the histologic picture, what is the diagnosis and how should this lesion be treated? HISTOLOGIC EVALUATION The specimen consisted of multiple small fragments of tan soft tissue. Histologic examination revealed a heterogeneous picture, with substantial areas of background pink cartilaginouslike matrix juxtaposed with areas of greater cellularity. Focally, the matrix had features of osteoid, with focal calcification and hyperchromatic cells within lacunae </t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4398165523</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1152/physiol.2024.39.s1.1836</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Babb et al. (2024)</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Averaging Tidal Flow-volume Loops: A tale of two methods</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Introduction: A standard practice in cardiopulmonary exercise testing (CPET) is calculating the average flow and volume data across multiple breaths. Currently, many laboratories find average flow-volume loops by taking equal increments of the tidal volume and averaging the respective increments of flow for each breath. However, it has been proposed that using equal increments of total time to find an average flow-volume loop could more accurately capture the shape of the loop, which could be critical to determining expiratory flow limitation (EFL) when placed within a maximal flow-volume loop. Purpose: To compare the use of time vs. volume bins on producing averaged flow-volume loops and evaluate whether the results could affect the interpretation of EFL. Methods: Time, volume, and flow data of consecutive breaths at rest and during exercise were obtained for four individuals: one younger healthy man, one older healthy woman, one older man with heart failure, and one child with obesity. The data were separated into individual breaths using zero flow points, then total time and tidal volume were calculated for each full breath. For the time bin method as proposed by M. Younes, equal intervals of time were calculated for both the inspiratory and expiratory phases of each breath. Linear interpolation between surrounding data points was performed to obtain volume and flow values at these intervals. Volume data were then normalized to the tidal volume of the breath by taking the value as a percentage of the total tidal volume. From here, the volume and flow data at the corresponding intervals for each breath were averaged to create the final average flow-volume loop. For the volume bin method, equal intervals of volume were determined based on the tidal volume. Linear interpolation was then used to calculate the respective flow values at these intervals. The volume and flow data at the corresponding intervals for each breath were then averaged to generate the average flow-volume loop data. Standard deviation at each averaged point was also calculated for both methods. Results: Minimal difference was visible between the time bin and volume bin methods at 20 intervals. As the number of intervals used increased, the difference became less apparent. At 250 intervals, the volume bin method depicted the average flow-volume loop as effectively as the time bin method. Addition of standard deviations gave a better view of the variability of flow at any volume. Conclusion: Despite the inherent incrementation associated with the use of time bins vs. volume bins the average flow-volume loops looked very similar. However, the addition of the standard deviations of flow and volume at each data point could yield different results for determining EFL. Also, the time bin method may yield more resolution at rapid transition points at the beginning of inspiration and expiration. Overall, the observed similarities between time bin and volume bin methods are likely due to increased computer capabilities and the ability to create more intervals (i.e., 20 vs. 250), making a constant unit of measurement less necessary. Funding: NIH R01 HL136643, NIH R01 AG070262, NIH P01 HL137630, King Charitable Foundation Trust, Susan Lay Atwell Annuity Trust for Pulmonary Research, Cain Foundation, and Texas Health Presbyterian Hospital Dallas. Dr. Daniel Wilhite was funded by an NIH Administrative Supplement to Promote Diversity in Health-Related Research (HL136643-01S1). This is the full abstract presented at the American Physiology Summit 2024 meeting and is only available in HTML format. There are no additional versions or additional content available for this abstract. Physiology was not involved in the peer review process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W2063418250</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1039/c0sm01350a</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Fu et al. (2011)</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Preparation and tunable temperature sensitivity of biodegradable polyurethane nanoassemblies from diisocyanate and poly(ethylene glycol)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>The development of temperature-responsive and biodegradable polymeric nanoparticles with tunable temperature sensitivity is of great interest. In this study, alternating polyurethanes were synthesized from diisocyanate (L-lysine ethyl ester diisocyanate (LDI) or hexamethylene diisocyanate (HDI)) and poly(ethylene glycol) (PEG) of different molecular weights. The resulting polyurethanes were then used to prepare nanoparticles either by direct dispersion in water or by nanoprecipitation. The temperature-responsive property of the polyurethane nanoparticles was evaluated by UV-visible transmittance experiments and dynamic light scattering. During the heating–cooling cycling, the LDI-PEG series showed almost no change except LDI-PEG600, but the HDI-PEG series exhibited reversible dispersion–aggregation changes. The nanoparticles were spherical at temperatures below or above the cloud point, as observed by transmission electron microscopy. The cloud point temperature of the alternative polymers was found to depend on both the hydrophilic–hydrophobic balance of the alternative chain and polymer concentration. The degradation test in vitro revealed a fall of less than 20% of polymer molecular weight within 12 days. The transition temperature was close to human body temperature, which could have great potential in biomedical fields.</t>
+        </is>
+      </c>
+    </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2141971286</t>
+          <t>https://openalex.org/W3091783947</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1128/jb.181.1.161-166.1999</t>
+          <t>https://doi.org/10.1542/hpeds.2020-000752</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Härtig &amp; Zumft (1999)</t>
+          <t>Snow &amp; McCulloh (2020)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Kinetics of &lt;i&gt;nirS&lt;/i&gt; Expression (Cytochrome &lt;i&gt;cd&lt;/i&gt; &lt;sub&gt;1&lt;/sub&gt; Nitrite Reductase) in &lt;i&gt;Pseudomonas stutzeri&lt;/i&gt; during the Transition from Aerobic Respiration to Denitrification: Evidence for a Denitrification-Specific Nitrate- and Nitrite-Responsive Regulatory System</t>
+          <t>Discharge Home After Transition to Oral Antibiotics: No Jeopardy</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ABSTRACT After shifting an oxygen-respiring culture of Pseudomonas stutzeri to nitrate or nitrite respiration, we directly monitored the expression of the nirS gene by mRNA analysis. nirS encodes the 62-kDa subunit of the homodimeric cytochrome cd 1 nitrite reductase involved in denitrification. Information was sought about the requirements for gene activation, potential regulators of such activation, and signal transduction pathways triggered by the alternative respiratory substrates. We found that nirS , together with nirT and nirB (which encode tetra- and diheme cytochromes, respectively), is part of a 3.4-kb operon. In addition, we found a 2-kb monocistronic transcript. The half-life of each of these messages was approximately 13 min in denitrifying cells with a doubling time of around 2.5 h. When the culture was subjected to a low oxygen tension, we observed a transient expression of nirS lasting for about 30 min. The continued transcription of the nirS operon required the presence of nitrate or nitrite. This anaerobically manifested N -oxide response was maintained in nitrate sensor (NarX) and response regulator (NarL) knockout strains. Similar mRNA stability and transition kinetics were observed for the norCB operon, encoding the NO reductase complex, and the nosZ gene, encoding nitrous oxide reductase. Our results suggest that a nitrate- and nitrite-responsive regulatory circuit independent of NarXL is necessary for the activation of denitrification genes.</t>
+          <t>Transitioning children from intravenous to enteral antibiotics is a daily occurrence for providers caring for children in hospitals. These children have clinically improved but require additional days of medication to complete an effective course of therapy. Some clinicians make the change to enteral antibiotics and discharge the child immediately, whereas others watch the child in the hospital setting on the enteral antibiotic therapy for a day or more. In their study, Stromberg et al1 suggest that prolonged observation is not the national norm, that the practice of observation after transitioning therapy has wide variability nationally, and that observation after transitioning therapy is likely unnecessary for children with skin and soft tissue infections (SSTIs). The authors’ findings beg the question: When do you deviate from the norm?The Infectious Diseases Society of America’s SSTI guidelines recommend cephalexin or clindamycin for cases of SSTI in which the child is stable and does not have bacteremia or intravascular infection; but vancomycin is listed as first-line therapy for complicated SSTIs.2 In the current study, the authors found that despite the fact that children in this cohort were considered to have “uncomplicated” SSTI, ∼20% of these children received vancomycin during their hospital stay before transitioning to oral therapy. Vancomycin use in SSTIs can add significant cost to a hospitalization,3 entails additional diagnostic testing for safety and therapeutic monitoring, and adds risk of nephrotoxicity4. This study builds on previous research in adults by revealing that children who received vancomycin were more likely to be observed in the hospital after transition to enteral antibiotic therapy. Because there is no enteral equivalent to intravenous vancomycin, transitioning to enteral therapy would require changing the class of antibiotic being given to the child. Adhering to evidence-based practices for SSTIs would likely limit inpatient observation on oral antibiotics simply by avoiding the need to transition from vancomycin to a different antibiotic class.In the study, the authors recognize that the motivation for keeping 15% of the children an additional day is not known; retrospective data make it hard to infer the reasons a clinician would choose to observe a child who had transitioned to enteral antibiotics. The data reveal that the tendency to watch longer after transitioning to enteral antibiotic therapy was more pronounced for toddlers (age 1–2 years), suggesting a paternalistic streak, possibly over concerns for tolerating and/or adhering to oral medications. Those children with infections in the neck were also more likely to be observed. Again, the motivation is unclear but could stem from concerns about the number of deep critical structures located within the neck or the potential influence of consultants involved in those cases. Although the motivations cannot be ascertained, the study reveals no outcome differences between those observed and those discharged, highlighting an opportunity for clinicians to standardize practice.Regardless of the motivation, observing children after transition to an oral antibiotic can have profound consequences for the child and their family. The fact that these children spent nearly a full day longer in the hospital imposes both financial and safety hazards. The increase of $1800 to the cost of the hospitalization primarily reflects the hospital bed charge for the extra day. Additionally, there is an indirect cost the family bears by the additional hospital day. Beyond the immediate costs due to prolonged hospital stay, the extra day offers the opportunity for any of a multitude of negative, iatrogenic events to occur. To Err is Human: Building a Safer Health System,5 published 20 years ago, broke the silence on medical errors. However, authors of a 2017 meta-analysis suggest that 1 in every 5 patients in a hospital experiences an adverse drug event.6 Stromberg et al1 demonstrated that the number of readmissions within 7 days in both groups was small (7 patients total of 3704 patients) and evenly split between the 2 groups. Consistent with many previous studies, this finding suggests that compliance with enteral therapy was adequate after discharge regardless of whether the child was observed.Although the retrospective use of administrative data sets hinders the interpretation, the authors did a good job of narrowing the study population to eliminate children who likely had more severe disease (ICU stay, placement of a central venous line, etc). Like many studies in which authors have used pediatric administrative data sets over the past decade,7–10 Stromberg et al1 found wide variability in practice across institutions. Stephens et al,8 published in this journal in April, demonstrated a range of variability between 25% and 81% for obtaining blood cultures from patients admitted with SSTIs. However, the current study may offer a small gli</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2041726850</t>
+          <t>https://openalex.org/W2438201574</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0020-7055(74)90003-5</t>
+          <t>https://doi.org/10.1049/iet-map.2016.0025</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Frankevich &amp; Yakovlev (1974)</t>
+          <t>Mei et al. (2016)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Radiation-induced conductivity in organic solids</t>
+          <t>High‐efficiency microstrip rectenna for microwave power transmission at Ka band with low cost</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>The radiation-induced conductivity of non-polar organic solids is discussed, attention being focused mainly on solid hydrocarbons. Three types of electrical properties and their changes under irradiation are considered: an increase in the electrical conductivity (σr) of solids directly under irradiation, the appearance of photoconductivity (σf) due to the action of the irradiation, and an increase in the conductivity when irradiated specimens are warmed up. The experimental results on σr are compared with the predictions of the simple Rose-Fowler model which describes the main features of radiation-induced conductivity but fails at low temperatures where it predicts too high a level of trap filling. The adequate description of σr is shown to follow a simple model where a single trapping and recombination level is involved. The main difference in the current carrier generation between organic solids and inorganic semiconductors consists in the spatially inhomogeneous generation of electrons and holes for the former. When an organic material with high density of traps is irradiated, electron-ion pairs can be stabilized by trapping. This can result in all electrons (with Ge ≈ 3) taking part in the conductivity current through the specimen excited by irradiation pulses but the sample becomes polarized due to their trapping. The superposition of stabilized pairs in continuous irradiation permits them to be involved in the conductivity process in spite of the inability of electrons to leave their “own” ions in any single pair. The radiation-induced high voltage polarization phenomena which are due to the spatially limited motion of charges in molecular solids are described. The radiation-induced photoconductivity is caused by the excitation by photons of trapped current carriers. Methods are described which permit monitoring of the stabilized charges and the generation of new traps by measuring the photoconductivity. The spectral response of σf gives evidence of a narrow energy distribution of the traps which exist in pure molecular solids. New traps including free radicals are produced under irradiation, causing a shift of the excitation spectrum to shorter wavelenghts. When a current carrier is scavenged by a deep trap such as a free radical, thermal excitation is usually unable to release it. The thermally stimulated conductivity in such a case is shown to be caused by the motion of the filled traps, at phase transition temperatures. On étudie la conductivité des solides organiques non-polaires induite par le rayonnement, envisageant surtout les hydrocarbures solides. On considère trois types de conductivité électrique et ses variations sous rayonnement: l'augmentation de la conductivité électrique (σr) des solides durant leur irradiation, l'apparition de la photo-conductivité (σf) due à l'action du rayonnement, et l'augmentation de la conductivité lors du réchauffement des échantillons. On compare les données expérimentales sur σr aux prédictions résultant du modéles imple de Rose-Fowler; ce dernier décrit les caractéristiques principales de la conductivité induite par le rayonnement, mais ce modéle échoue aux températures basses où il prédit un niveau trop élevé de remplissage des pièges. On montre qu'on peut décrire σr d'une manière adequate en utilisant un modèle simple comprenant un seul niveau de piégeage et de recombinaison. En ce qui concerne les porteurs de charge la différence principale entre les solides organiques et les semi-conducteurs inorganiques réside dans l'inhomogénité spatiale de la genése des électrons et des lacunes dans les premiers. Lorsqu'une substance organique à haute densité de pièges est irradiée, une stabilisation des paires électron-ion peut être causée par le piégeage, en sorte que tous les électrons (avec Ge≈3) prennent part au courrant de conductivité à travers l'échantillon excité par les impulsions du rayonnement ionisant; cependant l'échantillon devient polarisé du fait de ce piégeage. La superposition des paires stabilisées au cours de l'irradiation continue leur permet de prendre part au processus de conductivité malgré le fait que les électrons d'une paire quelconque ne peuvent pas quitter leur “propres” contre-ions. On décrit les phénomènes de polarisation sous haute tension induits par le rayonnement, dus à la mobilité spatiale limitée des charges dans les solides moléculaires. La photo-conductivité induite par le rayonnement est causée par l'excitation par les photons des porteurs de charge piégés. On décrit des méthodes permettant d'observer par des mesures de photo-conductivité les charges stabilisées et la formation de nouveaux pièges. La réponse spectrale de σf démontre l'étroite distribution en énergies des pièges dans les solides moléculaires purs. Des pièges nouveaux dus à des radicaux libres sont formés sous rayonnement, ce qui cause le déplacement des spectres d'excitation vers des longueurs d'ondes plus courtes. Lorsqu'un porteur de charge est piégé dans un</t>
+          <t>IET Microwaves, Antennas &amp; PropagationVolume 10, Issue 15 p. 1648-1655 Research ArticleFree Access High-efficiency microstrip rectenna for microwave power transmission at Ka band with low cost Huan Mei, Huan Mei School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this authorXuexia Yang, Corresponding Author Xuexia Yang yang.xx@shu.edu.cn School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this authorBing Han, Bing Han School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this authorGuannan Tan, Guannan Tan School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this author Huan Mei, Huan Mei School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this authorXuexia Yang, Corresponding Author Xuexia Yang yang.xx@shu.edu.cn School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this authorBing Han, Bing Han School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this authorGuannan Tan, Guannan Tan School of Communication and Information Engineering, Shanghai University, Shanghai, 200072 People's Republic of ChinaSearch for more papers by this author First published: 01 December 2016 https://doi.org/10.1049/iet-map.2016.0025Citations: 13AboutSectionsPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Abstract This paper presents the design and implementation of a high-efficiency microstrip rectenna for millimetre wave power transmission (MMPT) at Ka band with low cost. An experimental method is suggested to obtain the input impedance of the rectifying diode at millimetre-wave bands. So the high-efficiency rectifying circuit could be designed with an effective input impedance match network and two output class-F dc-pass filters. A high-gain Fabry-Perot resonator antenna with circularly polarised (CP) operation and harmonic suppression function is proposed as the receiving antenna, which has a measured 3-dB axial-ratio bandwidth of 6.5% and peak gain of 17 dBi at the centre frequency of 35 GHz. The antenna is fed by a microstrip line, which is the same as the input port of the rectifying circuit, so the integration of the rectenna is easy. The millimetre wave to direct current (MMW-DC) efficiency of the rectenna has been measured in far field, which shows a good CP performance. A more precise measurement system, which could be applied both in near and far fields, is proposed to evaluate the rectenna efficiency. The highest efficiency of 63.8% is measured on the load of 430 Ω at 34.8 GHz with the received power being 77.3 mW. 1 Introduction With the development of wireless power transmission (WPT) technology, millimetre-wave power transmission (MMPT) is becoming noticeable because of the compact size and the light weight of the transmitters and receivers compared with those operating at microwave bands [1-4]. MMPT has been suggested to transfer power among satellites in the space taking advantage of no atmospheric absorptions [4]. It could also be utilised to recharge radio frequency identification (RFID) devices [5] and sensors for biological medicine supervision [6, 7]. The most used frequencies are 35 and 94 GHz because the atmosphere attenuations are lower than other millimetre-wave bands [2-4]. The rectenna, consisting of a receiving antenna and a rectifying circuit, plays a crucial role in a microwave power transmission (MPT) system. Microwave to direct current (MW-DC) conversion efficiency, which mainly depends on the efficiency of the rectifying circuit, is the most important specification of a rectenna. The MW-DC efficiency of a rectifying circuit would increase with the input power and reach about 80% when the rectifying Schottky diode receives about 100 mW microwave power at S, C bands [1, 8, 9]. However, up to now, only a few millimetre-wave rectennas using printed circuit board (PCB) process have been reported and the millimetre wave to direct current (MMW-DC) conversion efficiencies were low [2, 10-12]. The printed dipole rectenna had a conversion</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2954581781</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/tii.2019.2925323</t>
+          <t>https://openalex.org/W2801103670</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Zeinal‐Kheiri et al. (2020)</t>
+          <t>Kirch &amp; Kamgaing (2011)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Residential Load Disaggregation Considering State Transitions</t>
+          <t>An online approach to detecting changes in nonlinear autoregressive models</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
-        <is>
-          <t>Information about power consumption patterns of devices, helps the residential consumers manage their energy usage. Nonintrusive load monitoring is an effective tool to extract the consumption patterns from the measured aggregated data at the meter. In this paper, an optimization-based method is proposed to disaggregate the total load, using low frequency data. The proposed algorithm is enhanced by enforcing the power profiles of appliances to be piecewise constant over specific time durations. Moreover, the state transitions of the appliances are determined and then employed as the optimization constraints to improve the estimation results. The proposed method is evaluated using almanac of minutely power data set (AMPds) and reference energy disaggregation data set (REDD) datasets by several performance metrics. Results indicate that the designed algorithm is able to recognize the frequently varying appliances in spite of piecewise constancy presumption. Furthermore, breaking down the optimization problem to the smaller parts enhances the ability of the algorithm to be operated in real time.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1513731821</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Wilson (2009)</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Efficient Employment of Imperfect Search Sensors in Complex Environments</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Abstract : Defense planners must strive to develop and incorporate new, efficient procedures to allocate scarce resources in varied complex environments. We consider two discrete-time, discrete-space search effort allocation situations. Both involve the employment of an imperfect sensor, which is subject to both false-positive and false-negative errors. The area of interest, comprised of several disjoint area-cells, contains a single target of interest. In the first situation, the target moves according to a Markovian transition matrix, which is unknown to the sensor operator. The objective is to estimate the target's steady-state distribution, using only the sensor's detection signals and knowledge of its false-positive and false-negative rates. The second situation considers a stationary target, wherein the objective is to determine the area-cell occupied by the target, in the fewest expected number of investigations, to within certain operator-prescribed error tolerances. We develop an adaptive algorithm based on stochastic approximation for the first situation, and show that the resultant rate of error in determining target presence/absence in any area-cell converges to zero at the fastest possible rate. We propose a sequential elimination procedure for the second situation, which provides an efficient determination of target location and guarantees its error rate not to exceed the operator-prescribed tolerance.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2274534862</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/resp.12749</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Jo et al. (2016)</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Year in review 2015: Interstitial lung disease, pulmonary vascular disease, pulmonary function, sleep and ventilation, cystic fibrosis and paediatric lung disease</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>The diagnosis and treatment of interstitial lung diseases (ILD) have undergone revolution in 2015, with the new antifibrotic treatments pirfenidone and nintedanib now incorporated into clinical practice guidelines for the treatment of idiopathic pulmonary fibrosis (IPF).1 This follows their pivotal phase III trials in 20142, 3 that showed, for the first time, slowing of disease progression in this devastatingly fatal disease. While pirfenidone had been licenced in Japan since 2008 and Europe since 2011, both drugs gained Federal Drug Administration (FDA) approval in the United States in 2014, heralding a new era in the management of IPF worldwide. This change in the paradigm of IPF management prompted a comprehensive and timely review series this year in Respirology, focusing on the idiopathic interstitial pneumonias (IIP),4-8 an important subset of ILD. In this series, Jacob et al.5 highlight the three cardinal features of classical usual interstitial pneumonia (UIP) on high-resolution computed tomography (HRCT) scan as honeycomb cysts, traction bronchiectasis and volume loss of the lung parenchyma. They also discuss the current conundrum of ‘possible UIP’: as clinicians, we are currently faced with guidelines that recommend a surgical lung biopsy for further characterization if the HRCT is not classical. However, in reality, only a minority of patients undergo this procedure. With Fell et al.9 showing in patients without definite honeycomb change, that an age greater than 70 years has a positive predictive value of 95% for UIP on lung biopsy; and sub-analysis from the INPULSIS trials showing that patients with possible UIP respond equally well to nintedanib, the clinical utility of the term ‘possible UIP’ comes into question. In a comprehensive review of the histopathology of IIP, Tabaj et al.7 also highlight the challenge posed on histopathology by the ‘certainty’ categories of UIP based on key features as stated in the 2011 IPF guidelines.10 In practice, while these categories provide a common lexicon for clinical trial enrolment, they may lead to confusion and/or oversimplification. These authors note the potential for transbronchial cyrobiopsy, a new diagnostic procedure for ILD patients, to obtain larger tissue fragments with little reported artefact than previously possible with conventional transbronchial biopsy. With promising results demonstrated in the diagnosis of ILD, this may become a feature of future ILD diagnostic algorithms.11 In a critical review of the revised IIP classification,12 Neurohr et al.6 emphasize the importance of a multidisciplinary approach to IIP diagnosis, integrating clinical, physiological, radiological and histopathological data. They also discuss the importance of the newly recognized category of ‘unclassifiable IIPs’ introduced in the 2013 IIP update, in which a disease behaviour classification has been proposed to allow a pragmatic management approach with suggested goals and monitoring strategies. With the rapid changes occurring in ILD diagnosis and management, this review series encapsulates the current standards and complexities involved in the care of ILD patients. The lack of standardized approach to IPF diagnosis and management is highlighted by Troy et al.13 who report a wide variation in diagnostic and therapeutic approach to IPF in 144 Australian and New Zealand respiratory physicians surveyed in 1999 and again in 2012–2013. In the latter survey, 34% of physicians responded that they would refer patients to subspecialist ILD clinics or multidisciplinary meetings and 33% would commence corticosteroids and/or azathioprine. While no antifibrotic therapies were available at the time of this survey, the results of the PANTHER-IPF trial14 showing increased harm with this immunosuppressive regime were available, and thus, they illustrate the fast pace at which IPF management is changing and delay with which recommendations are being translated to clinical practice. The authors argue that there is a need to standardize the approach to diagnosis and treatment of IPF patients. The need for novel tools to enhance our diagnosis of ILDs is apparent and was explored by Bhattachryya et al.15 who reported an algorithm to visually transform the breath sounds of patients with diffuse parenchymal lung disease compared with normal subjects. While this study showed 100% accuracy in differentiating the normal (n = 20) from the abnormal (n = 8), the accompanying editorial by Joshi16 concludes that this algorithm is unlikely to be of any additional value above traditional auscultation. Their transformation of sound to an interpretable visual image, however, shows ingenuity and promise for future medical and educational applications. Diagnostic challenges facing respiratory physicians extend to the granulomatous lung diseases (GLD) with a diverse range of aetiologies reported. In a single-centre retrospective study of 190 GLD patients with surgical lung biopsies, Nazarullah et al.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2564975307</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.ejmech.2016.12.057</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Elkamhawy et al. (2017)</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Discovery of 1-(3-(benzyloxy)pyridin-2-yl)-3-(2-(piperazin-1-yl)ethyl)urea: A new modulator for amyloid beta-induced mitochondrial dysfunction</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Herein, we report a new series of aliphatic substituted pyridyl-urea small molecules synthesized as potential modulators for amyloid beta (Aβ) induced mitochondrial dysfunction. Their blocking activities against Aβ-induced mitochondrial permeability transition pore (mPTP) opening were evaluated by JC-1 assay which measures the change of mitochondrial membrane potential (ΔΨm). The inhibitory activity of sixteen compounds against Aβ-induced mPTP opening was superior or almost similar to that of the standard Cyclosporin A (CsA). Among them, 1-(3-(benzyloxy)pyridin-2-yl)-3-(2-(piperazin-1-yl)ethyl)urea (5x) effectively maintained mitochondrial function and cell viabilities on ATP assay, MTT assay, and ROS assay. Using CDocker algorithm, a molecular docking model presented a plausible binding mode for 5x with cyclophilin D (CypD) receptor as a major component of mPTP. Moreover, hERG and BBB-PAMPA assays presented safe cardiotoxicity and high CNS bioavailability profiles for 5x. Taken as a whole, this report presents compound 5x as a new nonpeptidyl mPTP blocker may hold a promise for further development of Alzheimer's disease (AD) therapeutics.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2057511335</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.tsf.2004.11.088</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Rusu et al. (2005)</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Solar cells based on CCSVT-grown CuGaSe2—absorber and device properties</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>For solar cells based on CuGaSe2 (CGSe) polycrystalline thin films, a novel efficient chemical close-spaced vapor transport (CCSVT) technique is used to deposit the CGSe absorber. Clean and Mo-coated soda lime glass (SLG) substrates are used for the CGSe deposition. The CGSe thickness ranges from 1.6 to 1.9 μm and the corresponding [Ga]/[Cu] ratio of the thin films is adjusted within the range of 0.9–1.3. The high bulk homogeneity of the as-grown CGSe films is shown. Transmittance and reflectance measurements were performed to monitor the changes in the CGSe band gap as a function of composition. The optical spectra reveal a shift of the absorption edge towards longer wavelengths with increasing Ga content, as well as a broadening of the distinct structure corresponding to three band-to-band transitions characteristic for CGSe. These results are used for a discussion of the behaviour of the ZnO/CdS/CuGaSe2 solar cell photovoltaic parameters as well of the current transport. The transport mechanism is analysed on an our best solar cell device with an active area efficiency of 8.7%. For the first time, a thermally activated Shockley–Read–Hall recombination mechanism is observed for the CGSe-based solar cells in a large temperature region.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2048338070</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s00018-012-1123-1</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Mo (2012)</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>MicroRNA regulatory networks and human disease</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>MicroRNAs are a class of naturally occurring small non-coding RNAs that control gene expression by a posttranscriptional repression mechanism [1–3]. Since their discovery [4–6], thousands of microRNAs have been identified to date in a variety of organisms. For example, over 1,000 human microRNAs are reported in miRBase version 18 (http://mirbase.org). Like protein-coding genes, microRNAs are transcribed mainly by polymerase II as long primary transcripts (pri-microRNAs) in the nucleus. However, distinct from protein-coding genes, they are subsequently cleaved to produce stem loop structured precursor molecules (pre-microRNAs) by the nuclear RNase III enzyme Drosha along with other factors [7]. The pre-microRNAs are then exported to the cytoplasm by exportin-5 [8], where the RNase III enzyme Dicer further processes them into mature microRNAs (~22 nt) and subsequently incorporated into the RNA-induced silencing complex (RISC) to exert silencing function. Evidence suggests that microRNAs target mRNAs mainly through translational repression or mRNA cleavage or altering mRNA stability. Unlike short interfering RNAs (siRNAs) that require almost identical sequences to targets to exert their silencing function, microRNAs usually require partial sequence homology to 3′-untranslated region (3′-UTR) of target genes. Because of this unique feature of microRNA targeting, a single microRNA can have multiple targets and thus, microRNAs could directly regulate a large number of protein-coding genes [9,10], providing a new layer of gene regulation mechanism._x000D_
-_x000D_
-As master gene regulators, microRNAs are able to impact a variety of cellular pathways and functions. Early studies have shown that microRNAs are critical to developmental timing, cell death, cell proliferation, immunity and patterning of the nervous system. Dysregulation of microRNAs can lead to a variety of human diseases. Thus, it is critical to understand how microRNAs are regulated in normal cellular processes as well as during disease processes. Last year, I chaired a webinar session on microRNA regulatory networks and human disease (www.targetingmeeting.com; April 26, 2011), which covered a variety of topics related to microRNAs and their roles in human diseases. This field has advanced very rapidly. To provide an update on this subject and to expand its breadth, we compiled a review series from six groups working in different fields, covering from Alzheimer’s disease, cardiac hypertrophy, immunological disorders to cancer._x000D_
-_x000D_
-The role of microRNAs in cellular immunity is well established [11–13]. A number of microRNAs have been shown to play a critical role in various aspects of cellular immunity; among them is miR-29. Dysregulation of the miR-29 family causes malignancy in mouse [14] and is associated with human cancer. Importantly, miR-29 is a key play for both innate and adaptive immune responses to intracellular bacterial infection [15]. Liston et el focus on adaptive immune system. Specifically, they discuss critical roles of the miR-29 family in setting the molecular threshold for infection-associated thymic involution, T cell polarization, B cell oncogenic transformation, thus shedding light on the importance of miR-29 regulation in the cellular adaptive immune responses._x000D_
-_x000D_
-Accumulating evidence has implicated microRNAs such as miR-34 [16] in neurodegenerative diseases, one of which is Alzheimer’s disease (AD). Schonrock and Jurgen Gotz discuss the importance of non-coding RNAs including microRNAs in AD. Their review emphasizes the complexity of the non-coding RNA world and how this is reflected in the regulation of the amyloid precursor protein (APP) and Tau, two proteins with central functions in AD. Thus, a better understanding of this intricate regulatory network involving non-coding RNAs is essential to development of diagnostic and therapeutic tools for AD._x000D_
-_x000D_
-Cardiac hypertrophy is a thickening of the heart muscle (myocardium) which results in a decrease in size of the chamber of the heart, often due to altered stress or injury. Although there are many factors involved, recent studies have suggested the importance of microRNAs in the pathological cardiac hypertrophy and heart failure in humans and mouse models of heart diseases. In particular, dysregulation of specific microRNAs could alter the cellular responses of cardiomyocytes and non-cardiomyocytes to specific signalling upon the pathological hemodynamic overload, leading to cardiac hypertrophy and heart failure. Wang and Yang overview the cell-autonomous functions of cardiomyocyte microRNAs regulated by different pathways and the roles of non-cardiomyocyte microRNAs in cardiac hypertrophy._x000D_
-_x000D_
-A large number of microRNAs impact cell growth and proliferation; this may explain why many of them are implicated in human malignancy. We have three papers discussing the role of microRNAs in cancer. Liu focuses on microRNAs important for breast cancer initiation and progression involving cancer ste</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4385484373</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.chemolab.2023.104928</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Stocchero (2023)</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>PLS for designed experiments</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>In many emerging new areas of research, for example in -omics sciences, complex data sets are generated implementing well-designed experiments with the aim to study the effects of factors on responses measured by high-through analytical platforms. The data sets are multivariate in their nature and require suitable data analysis techniques to be investigated. Partial Least Squares (PLS) regression has been developed and successfully applied to solve multivariate regression problems where data are correlated, redundant and noisy, but it is not able to take explicitly into account the experimental design used to generate the data. In this study, we adapt PLS to model data generated by crossed factorial designs. A new method based on constrained PLS2 regression and a type III sums of squares-like approach based on PLS2 are developed to treat orthogonal and non-orthogonal designs, respectively. Post-transformation and Procrustes analysis are applied to discover the 'latent' structure useful to investigate the relationships between factors and responses. The mathematical properties of the data decomposition, the inference process to assess the reliability of the model and some basic tools for model interpretation are presented and discussed. One simulated and two experimental data sets, one generated implementing an orthogonal design and one obtained by a non-orthogonal design, are investigated to show how the methodology works in practice.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2037483401</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1159/000026930</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Fiegl et al. (1999)</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Clinical Application of Molecular Cytogenetics in Solid Tumors</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Cytogenetics of solid tumors has been substantially improved by novel techniques such as interphase fluorescence in situ hybridization (FISH) and comparative genomic hybridization (CGH), the applications of which are summarized in this review with focus on clinical implications. In breast cancer, and similarly in carcinoma of the lung, pancreas and urinary bladder, FISH is of diagnostic value in diagnostic workup of primary and metastatic tumor material. Amplifications of erbB2, c-myc and 20q13, which are prognostically relevant in breast cancer, were rapidly and sensitively detected by molecular cytogenetics. In head and neck tumors, the phenomenon of field cancerization with accumulating genetic alterations was studied by interphase FISH, which could serve as a tool to identify premalignant lesions at risk of transformation. Prostatic cancer with a more aggressive behavior is significantly associated with changes involving chromosomes 7, 8, X and Y, with a great impact on therapeutic decisions. Isochromosome i(12p), specific for germ cell tumors, is sensitively detected by various novel approaches and may be the only feature characterizing very undifferentiated midline tumors of unknown origin, which are potentially cured with adequate treatment. Finally, the assessment by FISH of ploidy status and of N-myc amplification in neuroblastoma may also be helpful in applying a risk-adapted therapeutic strategy.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2058401981</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1121/1.2024954</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Soli et al. (1987)</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Evaluation of a multichannel cochlear implant</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>A wearable multichannel signal processor for stimulation of single-electrode cochlear implants has been field tested with two patients. Each channel in the processor, which is implemented in a digital signal processing chip, consists of a resonator followed by an instantaneous compressive nonlinearity. The channel outputs are digitally mixed for use with single-electrode implants. The resonators perform a spectral-to-temporal transformation of the input signal and the nonlinearities limit output level to emulate the response characteristics of normal auditory neurons. The resonator and nonlinearity parameters are adjusted to accommodate both the acoustic properties of speech sounds and the electrical dynamic range of the patient. Several processor configurations with different resonator and nonlinearity designs have been evaluated. The results of psychophysical tests, used to fit each processor configuration to the patient and measure speech performance in quiet and noise with each configuration, will be reported.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4220835724</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.32322/jhsm.1063623</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Doğan et al. (2022)</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>The relationship between malignancy and Behçet's disease features</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Introduction: Behçet’s disease (BD) is an autoimmune, multisystemic vasculitis characterized by chronic inflammation. Autoimmune responses in BD could drive chronic inflammation which is a risk for malignant transformation. Some genetic, environmental, clinical features and immunosuppressive treatments in BD may increase the risk of malignancy. Common genetic factors and similar environmental factors play a role in the pathogenesis of some autoimmune diseases and malignancies. We hypothesized that the frequency of comorbidity and clinical features of BD may differ in BD patients with a family history of malignancy. So, we aimed to compare the demographic and clinical characteristics features of the BD patients with and without a family history of malignancy.&amp;#x0D; Material and Method: The BD patients who admitted the rheumatology outpatient clinic consecutively were included in the study. The demographic and clinical characteristics, comorbidities including malignancy in BD patients and malignancies in their family were questioned. The acute phase reactant elevation of at least two follow-ups was accepted as chronic inflammation.&amp;#x0D; Results: A total of 98 patients (57% male) were included. Mean age was 43.5±12.3 years. The frequency of comorbidity was 60% and malignant/premalignant lesions were seen in 5% of the patients. All lesions were solid organ related and all of them were in women. History of BD and malignancy in patients' families was found 28% and 38%, respectively. The patients with and without malignancy in their family were compared. Female gender and the frequency of erythema nodosum were higher in the patients with malignancy in their family. The other demographic and clinical characteristics, chronic persistent inflammation and medical treatments were statistically. not different &amp;#x0D; Conclusion: Frequency of malignancy in BD patients’ family was evaluated and to the best of our knowledge, there was no literature data on this subject interestingly. The family history of malignancy in BD patients could be associated with clinical characteristics. Further prospective studies were needed to show the clinical effect of malignancy history in families.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3216068185</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1155/2021/8388527</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Wang et al. (2021)</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Mechanism of Chronic Stress-Induced Glutamatergic Neuronal Damage in the Basolateral Amygdaloid Nucleus</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Stress is a ubiquitous part of our life, while appropriate stress levels can help improve the body’s adaptability to the environment. However, sustained and excessive levels of stress can lead to the occurrence of multiple devastating diseases. As an emotional center, the amygdala plays a key role in the regulation of stress-induced psycho-behavioral disorders. The structural changes in the amygdala have been shown to affect its functional characteristics. The amygdala-related neurotransmitter imbalance is closely related to psychobehavioral abnormalities. However, the mechanism of structural and functional changes of glutamatergic neurons in the amygdala induced by stress has not been fully elucidated. Here, we identified that chronic stress could lead to the degeneration and death of glutamatergic neurons in the lateral amygdaloid nucleus, resulting in neuroendocrine and psychobehavioral disorders. Therefore, our studies further suggest that the Protein Kinase R-like ER Kinase (PERK) pathway may be therapeutically targeted as one of the key mechanisms of stress-induced glutamatergic neuronal degeneration and death in the amygdala.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2026644728</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1523/jneurosci.3467-10.2010</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Rivera et al. (2010)</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Metzincin Proteases and Their Inhibitors: Foes or Friends in Nervous System Physiology?</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Members of the metzincin family of metalloproteinases have long been considered merely degradative enzymes for extracellular matrix molecules. Recently, however, there has been growing appreciation for these proteinases and their endogenous inhibitors, tissue inhibitors of metalloproteinases (TIMPs), as fine modulators of nervous system physiology and pathology. Present all along the phylogenetic tree, in all neural cell types, from the nucleus to the synapse and in the extracellular space, metalloproteinases exhibit a complex spatiotemporal profile of expression in the nervous parenchyma and at the neurovascular interface. The irreversibility of their proteolytic activity on numerous biofactors (e.g., growth factors, cytokines, receptors, DNA repair enzymes, matrix proteins) is ideally suited to sustain structural changes that are involved in physiological or postlesion remodeling of neural networks, learning consolidation or impairment, neurodegenerative and neuroinflammatory processes, or progression of malignant gliomas. The present review provides a state of the art overview of the involvement of the metzincin/TIMP system in these processes and the prospects of new therapeutic strategies based on the control of metalloproteinase activity.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4393975183</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-3-031-56322-5_20</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Savković &amp; Lalić (2024)</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Laveraging Machine Learning for Improved Project Inspections and Internal Control Systems</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>The field of project auditing and internal control systems is undergoing significant transformations fueled by advances in machine learning. This article delves into how machine learning, with its ability to analyze vast data sets and predict outcomes, can enhance project audits and internal control systems, ensuring robust risk management and effective problem-solving. It examines the application of machine learning in various aspects of internal audits, including problem identification, problem remediation, predictive analytics, and real-time auditing. Furthermore, it highlights the fundamental change in audit competencies required by these technological advancements. The traditional auditor skill set needs to be supplemented with an understanding of machine learning fundamentals, data literacy, technology expertise, AI risk assessment, and effective communication skills. Augmenting human expertise with machine-generated insights can lead to more informed and effective risk management strategies. By embracing the potential of machine learning, auditors can position themselves as strategic partners within organizations. The ability to harness data-driven insights and leverage advanced technologies empowers auditors to provide proactive recommendations and contribute to the achievement of organizational objectives. This transformation from a compliance-focused role to a value-added advisor strengthens the relevance and impact of internal audits in a rapidly evolving business landscape. The article presents practical insights and recommendations for building these competencies and discusses potential challenges and limitations such as data privacy concerns and over-reliance on automation. By addressing these challenges, auditors can navigate the transformative power of machine learning and ensure the responsible and ethical use of data. The findings of this article highlight the promise that machine learning holds for improving project audits and internal audit procedures, shaping a more efficient, proactive, and data-driven audit environment. Embracing machine learning enables auditors to harness its capabilities, enhance risk management practices, solve problems effectively, and foster a transformative shift in the field of auditing.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4393993509</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/molecules29071635</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Naumkin (2024)</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Metalloid–Organic Intermolecular Complexes with Charge State-Controlled Conformations</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Shape alterations of molecular systems, induced by their (electric) charging/discharging, could facilitate useful electronic and/or mechanical functions in molecular-scale devices and machines. The present study reports structures, stabilities, charge distributions, and IR spectra for a group of complexes of a main-group metalloid (boron) atom with hydrocarbon molecules. The considered systems include the smallest species demonstrating the basic principle of operation, as well as their size-extended analogues, generalizing it to larger counterparts based on such units. The system geometries vary considerably between neutral and ionic counterparts and exhibit two–three typical conformations related to twisting by up to about 90 degrees. The predicted structures correlate with specific infrared spectra, which can enable their experimental identification and transformation tracking. The above-mentioned characteristics suggest the potential utility of such systems for intermolecular switches, with the possible spectral monitoring of their functioning.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W3133888037</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-3-030-59773-3_3</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Sciammarella et al. (2021)</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Experimental Observations on the Fracture of Metals</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>This paper deals with the onset of plasticity and the transition to fracture in metallic rectangular tensile specimens. The plastic instability manifests itself by the propagation of wave fronts that sweep the specimen and finally localize at a given site during the fracture process. The plastic instability is associated with changes in specimen geometry. In optical recordings, propagation and localization of structural instability manifest in the form of wide bands. The configuration of these bands is influenced by degradation of properties of a metal under analysis. Understanding the meaning of band configurations is vital for evaluating mechanical properties of a metal and its effective use. In this paper, a family of fringes called iso-derivatives is utilized to analyze the configuration and properties of the wide bands. The retrieval of the information contained in the wide bands depends on the spatial and temporal resolution of the recordings.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1519886824</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/bf03053710</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Feng et al. (1997)</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Chiral dynamics with quark degrees of freedom</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>The possibility to detect DCC fluctuations is discussed. It is shown that interactions with quark background and dissipative effects due to interactions in the chiral field may result in damping of fluctuations. Since the magnitude of fluctuations depends strongly on the initial state and speed of chiral phase transition an accurate evaluation of all modifying processes is required to predict the observability of DCCs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2010594747</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/349299.349318</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Wilken et al. (2000)</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Optimal instruction scheduling using integer programming</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>This paper presents a new approach to local instruction scheduling based on integer programming that produces optimal instruction schedules in a reasonable time, even for very large basic blocks. The new approach first uses a set of graph transformations to simplify the data-dependency graph while preserving the optimality of the final schedule. The simplified graph results in a simplified integer program which can be solved much faster. A new integer-programming formulation is then applied to the simplified graph. Various techniques are used to simplify the formulation, resulting in fewer integer-program variables, fewer integer-program constraints and fewer terms in some of the remaining constraints, thus reducing integer-program solution time. The new formulation also uses certain adaptively added constraints (cuts) to reduce solution time. The proposed optimal instruction scheduler is built within the Gnu Compiler Collection (GCC) and is evaluated experimentally using the SPEC95 floating point benchmarks. Although optimal scheduling for the target processor is considered intractable, all of the benchmarks' basic blocks are optimally scheduled, including blocks with up to 1000 instructions, while total compile time increases by only 14%.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2228530490</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Correa et al. (1982)</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Epidemiology of gastric carcinoma: review and future prospects.</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>The epidemiology of stomach cancer is reviewed and key events identified, including migrant population studies, the Jarvi-Laurén classification of gastric carcinoma, and application of this classification to comparative autopsy studies. The gradual transformation to the epidemiology of precancer lesions is sketched, and the studies in Colombia contributing to this transformation are described. An etiologic model based on the formation of carcinogenic N-nitroso compounds is proposed. Future work for investigators in the Department of Nariño (Colombia) to test and evaluate this hypothesis is described.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4389247145</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1182/blood-2023-188986</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Semba et al. (2023)</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>The XPO7/Npat Axis Inactivation Is a Therapeutic Vulnerability for &lt;i&gt;TP53&lt;/i&gt;-Mutated AML</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>In acute myeloid leukemia (AML), TP53 mutations are the most prognostically unfavorable genetic alterations, as they confer resistance to various therapeutic agents and form relapsing clones, underscoring the critical need to devise a novel therapeutic strategy for TP53-mutated AML. To identify genes or pathways whose loss is vulnerable to TP53 deficiency in AML cells, we performed genome-wide CRISPR-Cas9 screens using Trp53-knockout (KO) and wild-type (WT) mouse AML cells. We employed two distinct KO screen libraries, through which we identified Xpo7, a putative nuclear/cytoplasmic transporter, as a common factor necessary for Trp53-KO AML survival. Interestingly, Trp53-KO cells were vulnerable to Xpo7 depletion, while Xpo7 functioned as a Trp53-dependent tumor suppressor in Trp53-WT AML cells. Further probing this phenomenon, we performed a CRISPR-Cas9 saturation mutagenesis scan on all Xpo7 exons. Strikingly, sgRNAs targeting Xpo7 coding regions were significantly enriched only in the Trp53-WT AMLs. In stark contrast, these same sgRNAs were mostly depleted in Trp53-KO AMLs. To determine the role of Xpo7 depletion on the expansion of Trp53 deficient clones, we prepared AML cells containing a small fraction of Trp53-KO cells both in the Xpo7-WT and KO backgrounds and assessed the proportion over time in vitro or in vivo. Remarkably, the expansion of Trp53-KO clones, noticeable in the Xpo7-WT setting, was significantly reduced under the Xpo7-KO background, prolonging the mice's survival. These data suggest that Xpo7 depletion effectively impedes Trp53-KO clone expansion. Since Xpo7 is presumed to mediate the nuclear import and export of proteins, we hypothesized that Xpo7 contributes to retaining Trp53 protein within the nucleus in Trp53-WT AMLs. As expected, nuclear Trp53 protein and mRNA levels of Trp53-targeting genes decreased significantly upon Xpo7 depletion. These data suggest that Xpo7 retains WT-Trp53 in the nucleus and functions as a Trp53-dependent tumor suppressor in Trp53-WT AMLs. Next, to elucidate the underlying mechanisms causing the toxic effects in Trp53-KO AMLs upon Xpo7 depletion, we set out to identify proteins whose localization was potentially regulated by Xpo7 in the Trp53-KO state. Employing mass spectrometry on an immunoprecipitate using anti-Xpo7 and cytoplasmic/nuclear protein extracts from both Xpo7-WT and KO AML cells, we found that Npat, an activator of histone transcription in the G1/S transition, interacted with Xpo7 and showed a significant shift towards cytoplasmic localization upon Xpo7 depletion in Trp53-KO AMLs. Strikingly, Npat protein levels displayed a notable upregulation by Trp53 depletion in AML cells. To evaluate the relevance of the XPO7/NPAT axis in human TP53-mutated AML cells, we examined the correlation between XPO7 and NPAT expression levels and AML subtypes and genetic background using publicly available datasets. XPO7 and NPAT mRNA levels were significantly upregulated in TP53-mutated AMLs in the TCGA datasets. Moreover, XPO7 and NPAT mRNAs levels were remarkably high in acute erythroid leukemia (AEL) cases, where TP53 mutations are frequently observed (Tyner et al. Nature, 2018; Iacobucci et al. Nat Genet. 2019). The Xpo7 and Npat protein expression evaluation using primary AML samples corroborated these findings, revealing overexpression in TP53-mutated AML cases. Finally, we assessed the therapeutic effect of Npat depletion in Trp53-deficient AML cells, using the dTAG system to induce Npat protein degradation by knock-in FKBP12 F36V into Npat loci. dTAG v-1 treatment immediately degraded endogenous Npat protein and led to delayed G1/S transition progression. Moreover, Npat degradation induced DNA damage, particularly in the presence of a WEE1 inhibitor or etoposide, and subsequent apoptosis. Transplantation of these AML cells into immunocompromised mice followed by dTAGv1 treatment for one week demonstrated suppressing leukemia progression in vivo. Furthermore, shRNA-mediated XPO7 or NPAT knockdown significantly suppressed the proliferation of HEL, a human AEL cell line harboring TP53 mutation, in vitro and in vivo. In summary, we identified a synthetic lethal relationship between TP53 and XPO7. We unveiled the novel regulatory mechanism of protein localization by XPO7, depending on TP53 mutational state. Our data suggest that XPO7/NPAT inactivation is a therapeutic vulnerability for TP53-mutated AML.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1967674229</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/qua.24045</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Tarumi et al. (2012)</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Accelerating convergence in the antisymmetric product of strongly orthogonal geminals method</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Abstract Antisymmetric product of strongly orthogonal geminals (APSG) method is a wavefunction theory that can effectively treat the static electron correlation using two‐electron wavefunctions, called geminals. However, the APSG method has the problem of slow convergence in the optimization of the geminal function. In this study, we introduced the direct inversion in the iterative subspace (DIIS) method, for both closed‐ and open‐shell systems, for accelerating its convergence. Two types of error vectors, that is, unitary transformation and orbital gradient, were examined for the DIIS procedure. Numerical assessments revealed that the orbital‐gradient error vector shows better performance than the unitary‐transformation one. © 2012 Wiley Periodicals, Inc.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2063418250</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1039/c0sm01350a</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Fu et al. (2011)</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Preparation and tunable temperature sensitivity of biodegradable polyurethane nanoassemblies from diisocyanate and poly(ethylene glycol)</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>The development of temperature-responsive and biodegradable polymeric nanoparticles with tunable temperature sensitivity is of great interest. In this study, alternating polyurethanes were synthesized from diisocyanate (L-lysine ethyl ester diisocyanate (LDI) or hexamethylene diisocyanate (HDI)) and poly(ethylene glycol) (PEG) of different molecular weights. The resulting polyurethanes were then used to prepare nanoparticles either by direct dispersion in water or by nanoprecipitation. The temperature-responsive property of the polyurethane nanoparticles was evaluated by UV-visible transmittance experiments and dynamic light scattering. During the heating–cooling cycling, the LDI-PEG series showed almost no change except LDI-PEG600, but the HDI-PEG series exhibited reversible dispersion–aggregation changes. The nanoparticles were spherical at temperatures below or above the cloud point, as observed by transmission electron microscopy. The cloud point temperature of the alternative polymers was found to depend on both the hydrophilic–hydrophobic balance of the alternative chain and polymer concentration. The degradation test in vitro revealed a fall of less than 20% of polymer molecular weight within 12 days. The transition temperature was close to human body temperature, which could have great potential in biomedical fields.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W1976620726</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/ieem.2011.6117973</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Zou &amp; Zhang (2011)</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>A measurement model for collaboration between suppliers and manufacturers</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>This research establishes a measurement model to solve the problems exist in the collaboration of the supply chain alliances, especially between suppliers and manufacturers. This paper firstly identifies 21 indicators including the profit level and the management level of the suppliers and manufacturers through expert brainstorming method and determines weight of each indicator by experts scoring. Then the authors get the collaboration index (C), comprehensive evaluation index (T) and obtain collaboration degree (D) including Primary, Transition, Intermediate, Good and Excellent. At last, the authors do empirical analyses using enterprise data to prove the model to be practical and give suggestions to the enterprises to keep their strategic collaboration.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W2801103670</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Kirch &amp; Kamgaing (2011)</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>An online approach to detecting changes in nonlinear autoregressive models</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
         <is>
           <t>In this paper we develop monitoring schemes for detecting structural changes _x000D_
 in nonlinear autoregressive models. We approximate the regression function by a_x000D_
@@ -5410,1513 +4778,2127 @@
         </is>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W1582806985</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Hanna (2010)</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Transforming Government and Building the Information Society: Challenges and Opportunities for the Developing World</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Information and communication technology (ICT) is central to reforming governance, innovating public services, and building inclusive information societies. Countries are learning to weave ICT into their strategies for transforming government as enterprises have learned to use ICT to innovate and transform their processes and competitive strategies. ICT-enabled transformation offers a new path to digital-era government that is responsive to the challenges of our time. It facilitates innovation, partnering, knowledge sharing, community organizing, local monitoring, accelerated learning, and participatory development. In Transforming Government and Building the Information Society, Nagy Hanna draws on multi-disciplinary research on ICT in the public sector, and on his rich experience of